--- a/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5180E3-D026-4D9B-8960-03846CD2A5AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC28AC3-CF06-4F89-8064-C4A885516147}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="2505" windowWidth="16200" windowHeight="9398" tabRatio="966" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="966" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="37" r:id="rId1"/>
@@ -395,9 +395,6 @@
     <t>R-övningar</t>
   </si>
   <si>
-    <t>M-övingar</t>
-  </si>
-  <si>
     <t>Antal övningar</t>
   </si>
   <si>
@@ -415,10 +412,6 @@
   </si>
   <si>
     <t>Artistisk poäng</t>
-  </si>
-  <si>
-    <t>KOREOGRAFI
-50%</t>
   </si>
   <si>
     <r>
@@ -1018,12 +1011,19 @@
     <t>KOREOGRAFI
 65 %</t>
   </si>
+  <si>
+    <t>M-övningar</t>
+  </si>
+  <si>
+    <t>KOREOGRAFI
+60%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
@@ -1034,6 +1034,7 @@
     <numFmt numFmtId="170" formatCode="0_ ;\-0\ "/>
     <numFmt numFmtId="171" formatCode="0.000_ ;\-0.000\ "/>
     <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="0.000;\-0.000"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -2030,7 +2031,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="400">
+  <cellXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2793,9 +2794,6 @@
     <xf numFmtId="172" fontId="2" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2821,6 +2819,105 @@
     <xf numFmtId="166" fontId="1" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2830,15 +2927,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2848,102 +2936,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3086,6 +3084,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3455,27 +3459,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="265" customFormat="1" ht="20.65" x14ac:dyDescent="0.6">
       <c r="A1" s="264" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="265" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="265" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="265" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="265" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="265" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="265" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="309" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="309" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="308" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="308" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="265" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -3483,18 +3487,18 @@
     <row r="8" spans="1:6" s="265" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:6" s="265" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="265" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="265" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:6" s="235" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A11" s="235" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="176" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -3502,61 +3506,61 @@
     </row>
     <row r="15" spans="1:6" s="236" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A15" s="236" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="237" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" s="176"/>
       <c r="F16" s="237" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="236" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="236" t="s">
         <v>112</v>
-      </c>
-      <c r="D17" s="236" t="s">
-        <v>114</v>
       </c>
       <c r="E17" s="236"/>
       <c r="F17" s="236" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G17" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="236" t="s">
         <v>112</v>
-      </c>
-      <c r="H17" s="236" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="176" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B18" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C18" s="232" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D18" s="232" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E18" s="239"/>
       <c r="F18" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G18" s="232" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H18" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3571,26 +3575,26 @@
     </row>
     <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="176" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B20" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C20" s="232" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D20" s="232" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E20" s="239"/>
       <c r="F20" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G20" s="232" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H20" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3605,26 +3609,26 @@
     </row>
     <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="176" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B22" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C22" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D22" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E22" s="239"/>
       <c r="F22" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G22" s="232" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H22" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3639,40 +3643,40 @@
     </row>
     <row r="24" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="176" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B24" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C24" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D24" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E24" s="239"/>
       <c r="F24" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G24" s="232" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H24" s="232" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A25" s="238" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B25" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C25" s="232" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D25" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E25" s="238"/>
     </row>
@@ -3685,110 +3689,110 @@
     </row>
     <row r="27" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="176" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B27" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C27" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D27" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E27" s="239"/>
       <c r="F27" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G27" s="232" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H27" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A28" s="238" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B28" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C28" s="232" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D28" s="232" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E28" s="238"/>
     </row>
     <row r="30" spans="1:9" s="236" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A30" s="236" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="237" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C31" s="176"/>
       <c r="F31" s="237" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="236" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C32" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="236" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="236" t="s">
-        <v>114</v>
-      </c>
       <c r="E32" s="236" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F32" s="236" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G32" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="236" t="s">
         <v>112</v>
       </c>
-      <c r="H32" s="236" t="s">
-        <v>114</v>
-      </c>
       <c r="I32" s="236" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="176" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B33" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C33" s="232" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D33" s="232" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E33" s="232" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F33" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G33" s="232" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H33" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I33" s="232" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3804,31 +3808,31 @@
     </row>
     <row r="35" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="176" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B35" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C35" s="232" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D35" s="232" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E35" s="232" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F35" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G35" s="232" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H35" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I35" s="232" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3844,31 +3848,31 @@
     </row>
     <row r="37" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="176" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B37" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C37" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D37" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E37" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F37" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G37" s="232" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H37" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I37" s="232" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3884,48 +3888,48 @@
     </row>
     <row r="39" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="176" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="232" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="232" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="232" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="232" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="234" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="232" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" s="232" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="232" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="232" t="s">
-        <v>176</v>
-      </c>
-      <c r="D39" s="232" t="s">
-        <v>176</v>
-      </c>
-      <c r="E39" s="232" t="s">
-        <v>176</v>
-      </c>
-      <c r="F39" s="234" t="s">
-        <v>115</v>
-      </c>
-      <c r="G39" s="232" t="s">
-        <v>119</v>
-      </c>
-      <c r="H39" s="232" t="s">
-        <v>120</v>
-      </c>
       <c r="I39" s="232" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A40" s="238" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B40" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C40" s="232" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D40" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E40" s="232" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -3936,48 +3940,48 @@
     </row>
     <row r="42" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="176" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B42" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C42" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D42" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E42" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F42" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G42" s="232" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H42" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I42" s="232" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A43" s="238" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B43" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C43" s="232" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D43" s="232" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E43" s="232" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
@@ -3994,106 +3998,106 @@
     </row>
     <row r="46" spans="1:14" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A46" s="236" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="237" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C48" s="176"/>
       <c r="F48" s="237" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J48" s="237" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K48" s="176"/>
       <c r="N48" s="237" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="236" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C49" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="236" t="s">
         <v>112</v>
-      </c>
-      <c r="D49" s="236" t="s">
-        <v>114</v>
       </c>
       <c r="E49" s="236"/>
       <c r="F49" s="236" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G49" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="H49" s="236" t="s">
         <v>112</v>
       </c>
-      <c r="H49" s="236" t="s">
-        <v>114</v>
-      </c>
       <c r="J49" s="236" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K49" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="L49" s="236" t="s">
         <v>112</v>
-      </c>
-      <c r="L49" s="236" t="s">
-        <v>114</v>
       </c>
       <c r="M49" s="236"/>
       <c r="N49" s="236" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O49" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="P49" s="236" t="s">
         <v>112</v>
-      </c>
-      <c r="P49" s="236" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="176" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B50" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C50" s="232" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D50" s="232" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E50" s="239"/>
       <c r="F50" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G50" s="232" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H50" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J50" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K50" s="232" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L50" s="232" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M50" s="239"/>
       <c r="N50" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O50" s="232" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P50" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4115,45 +4119,45 @@
     </row>
     <row r="52" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="176" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B52" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C52" s="232" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D52" s="232" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E52" s="239"/>
       <c r="F52" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G52" s="232" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H52" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J52" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K52" s="232" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L52" s="232" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M52" s="239"/>
       <c r="N52" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O52" s="232" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P52" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4175,45 +4179,45 @@
     </row>
     <row r="54" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="176" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B54" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C54" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D54" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E54" s="239"/>
       <c r="F54" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G54" s="232" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H54" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J54" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K54" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L54" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M54" s="239"/>
       <c r="N54" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O54" s="232" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P54" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4235,45 +4239,45 @@
     </row>
     <row r="56" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="176" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B56" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C56" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D56" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E56" s="239"/>
       <c r="F56" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G56" s="232" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H56" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J56" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K56" s="232" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L56" s="232" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M56" s="239"/>
       <c r="N56" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O56" s="232" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P56" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
@@ -4285,126 +4289,126 @@
     </row>
     <row r="59" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A59" s="236" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="237" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C61" s="176"/>
       <c r="F61" s="237" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J61" s="237" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K61" s="176"/>
       <c r="N61" s="237" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="236" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C62" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="236" t="s">
         <v>112</v>
       </c>
-      <c r="D62" s="236" t="s">
-        <v>114</v>
-      </c>
       <c r="E62" s="236" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" s="236" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G62" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="H62" s="236" t="s">
         <v>112</v>
       </c>
-      <c r="H62" s="236" t="s">
-        <v>114</v>
-      </c>
       <c r="I62" s="236" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J62" s="236" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K62" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="L62" s="236" t="s">
         <v>112</v>
       </c>
-      <c r="L62" s="236" t="s">
-        <v>114</v>
-      </c>
       <c r="M62" s="236" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N62" s="236" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O62" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="P62" s="236" t="s">
         <v>112</v>
       </c>
-      <c r="P62" s="236" t="s">
-        <v>114</v>
-      </c>
       <c r="Q62" s="236" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="176" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B63" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C63" s="232" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D63" s="232" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E63" s="232" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F63" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G63" s="232" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H63" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I63" s="232" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J63" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K63" s="232" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L63" s="232" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M63" s="232" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N63" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O63" s="232" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P63" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q63" s="232" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4428,55 +4432,55 @@
     </row>
     <row r="65" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="176" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B65" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C65" s="232" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D65" s="232" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E65" s="232" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F65" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G65" s="232" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H65" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I65" s="232" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J65" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K65" s="232" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L65" s="232" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M65" s="232" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N65" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O65" s="232" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P65" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q65" s="232" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4500,55 +4504,55 @@
     </row>
     <row r="67" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="176" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B67" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C67" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D67" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E67" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F67" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G67" s="232" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H67" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I67" s="232" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J67" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K67" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L67" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M67" s="232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N67" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O67" s="232" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P67" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q67" s="232" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4572,60 +4576,60 @@
     </row>
     <row r="69" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="176" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="232" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" s="232" t="s">
+        <v>174</v>
+      </c>
+      <c r="D69" s="232" t="s">
+        <v>174</v>
+      </c>
+      <c r="E69" s="232" t="s">
+        <v>174</v>
+      </c>
+      <c r="F69" s="232" t="s">
+        <v>113</v>
+      </c>
+      <c r="G69" s="232" t="s">
+        <v>180</v>
+      </c>
+      <c r="H69" s="232" t="s">
+        <v>114</v>
+      </c>
+      <c r="I69" s="232" t="s">
+        <v>180</v>
+      </c>
+      <c r="J69" s="232" t="s">
+        <v>113</v>
+      </c>
+      <c r="K69" s="232" t="s">
+        <v>117</v>
+      </c>
+      <c r="L69" s="232" t="s">
         <v>118</v>
       </c>
-      <c r="B69" s="232" t="s">
-        <v>115</v>
-      </c>
-      <c r="C69" s="232" t="s">
-        <v>176</v>
-      </c>
-      <c r="D69" s="232" t="s">
-        <v>176</v>
-      </c>
-      <c r="E69" s="232" t="s">
-        <v>176</v>
-      </c>
-      <c r="F69" s="232" t="s">
-        <v>115</v>
-      </c>
-      <c r="G69" s="232" t="s">
-        <v>182</v>
-      </c>
-      <c r="H69" s="232" t="s">
-        <v>116</v>
-      </c>
-      <c r="I69" s="232" t="s">
-        <v>182</v>
-      </c>
-      <c r="J69" s="232" t="s">
-        <v>115</v>
-      </c>
-      <c r="K69" s="232" t="s">
-        <v>119</v>
-      </c>
-      <c r="L69" s="232" t="s">
-        <v>120</v>
-      </c>
       <c r="M69" s="232" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N69" s="232" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O69" s="232" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P69" s="232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q69" s="232" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="265" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A73" s="267" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="236" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
@@ -4633,79 +4637,79 @@
         <v>64</v>
       </c>
       <c r="B74" s="270" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C74" s="270" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" s="270" t="s">
         <v>112</v>
       </c>
-      <c r="D74" s="270" t="s">
-        <v>114</v>
-      </c>
       <c r="E74" s="270" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F74" s="270" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="266" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="266" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="272" t="s">
+        <v>141</v>
+      </c>
+      <c r="D75" s="272" t="s">
+        <v>141</v>
+      </c>
+      <c r="E75" s="266" t="s">
         <v>130</v>
       </c>
-      <c r="B75" s="266" t="s">
+      <c r="F75" s="266" t="s">
         <v>131</v>
-      </c>
-      <c r="C75" s="272" t="s">
-        <v>143</v>
-      </c>
-      <c r="D75" s="272" t="s">
-        <v>143</v>
-      </c>
-      <c r="E75" s="266" t="s">
-        <v>132</v>
-      </c>
-      <c r="F75" s="266" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="266" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B76" s="266" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" s="266" t="s">
+        <v>133</v>
+      </c>
+      <c r="D76" s="272" t="s">
+        <v>185</v>
+      </c>
+      <c r="E76" s="266" t="s">
+        <v>135</v>
+      </c>
+      <c r="F76" s="266" t="s">
         <v>131</v>
-      </c>
-      <c r="C76" s="266" t="s">
-        <v>135</v>
-      </c>
-      <c r="D76" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="E76" s="266" t="s">
-        <v>137</v>
-      </c>
-      <c r="F76" s="266" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="266" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B77" s="266" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="266" t="s">
+        <v>133</v>
+      </c>
+      <c r="D77" s="272" t="s">
+        <v>185</v>
+      </c>
+      <c r="E77" s="266" t="s">
+        <v>135</v>
+      </c>
+      <c r="F77" s="266" t="s">
         <v>131</v>
-      </c>
-      <c r="C77" s="266" t="s">
-        <v>135</v>
-      </c>
-      <c r="D77" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="E77" s="266" t="s">
-        <v>137</v>
-      </c>
-      <c r="F77" s="266" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4715,7 +4719,7 @@
       <c r="D78" s="266"/>
       <c r="E78" s="266"/>
       <c r="F78" s="268" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4726,62 +4730,62 @@
     </row>
     <row r="82" spans="1:6" s="236" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A82" s="271" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B82" s="270" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C82" s="270" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" s="270" t="s">
         <v>112</v>
       </c>
-      <c r="D82" s="270" t="s">
-        <v>114</v>
-      </c>
       <c r="E82" s="270" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F82" s="270" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="266" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="266" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" s="272" t="s">
+        <v>141</v>
+      </c>
+      <c r="D83" s="272" t="s">
+        <v>141</v>
+      </c>
+      <c r="E83" s="266" t="s">
         <v>130</v>
       </c>
-      <c r="B83" s="266" t="s">
+      <c r="F83" s="266" t="s">
         <v>131</v>
-      </c>
-      <c r="C83" s="272" t="s">
-        <v>143</v>
-      </c>
-      <c r="D83" s="272" t="s">
-        <v>143</v>
-      </c>
-      <c r="E83" s="266" t="s">
-        <v>132</v>
-      </c>
-      <c r="F83" s="266" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="266" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="266" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" s="266" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84" s="266" t="s">
         <v>134</v>
       </c>
-      <c r="B84" s="266" t="s">
+      <c r="E84" s="266" t="s">
+        <v>135</v>
+      </c>
+      <c r="F84" s="266" t="s">
         <v>131</v>
-      </c>
-      <c r="C84" s="266" t="s">
-        <v>135</v>
-      </c>
-      <c r="D84" s="266" t="s">
-        <v>136</v>
-      </c>
-      <c r="E84" s="266" t="s">
-        <v>137</v>
-      </c>
-      <c r="F84" s="266" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4791,7 +4795,7 @@
       <c r="D85" s="266"/>
       <c r="E85" s="266"/>
       <c r="F85" s="232" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="267" customFormat="1" ht="17.25" x14ac:dyDescent="0.45"/>
@@ -4809,8 +4813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5400,11 +5404,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="70" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -5412,11 +5416,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -5444,10 +5448,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="337"/>
-      <c r="D5" s="337"/>
-      <c r="E5" s="337"/>
-      <c r="F5" s="337"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>13</v>
@@ -5461,10 +5465,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="337"/>
-      <c r="D6" s="337"/>
-      <c r="E6" s="337"/>
-      <c r="F6" s="337"/>
+      <c r="C6" s="325"/>
+      <c r="D6" s="325"/>
+      <c r="E6" s="325"/>
+      <c r="F6" s="325"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -5493,30 +5497,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="356"/>
-      <c r="D8" s="356"/>
-      <c r="E8" s="356"/>
-      <c r="F8" s="356"/>
+      <c r="C8" s="355"/>
+      <c r="D8" s="355"/>
+      <c r="E8" s="355"/>
+      <c r="F8" s="355"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="337"/>
-      <c r="D9" s="337"/>
-      <c r="E9" s="337"/>
-      <c r="F9" s="337"/>
+      <c r="C9" s="325"/>
+      <c r="D9" s="325"/>
+      <c r="E9" s="325"/>
+      <c r="F9" s="325"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="337"/>
-      <c r="D10" s="337"/>
-      <c r="E10" s="337"/>
-      <c r="F10" s="337"/>
+      <c r="C10" s="325"/>
+      <c r="D10" s="325"/>
+      <c r="E10" s="325"/>
+      <c r="F10" s="325"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -5525,115 +5529,125 @@
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K13" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="358" t="s">
-        <v>201</v>
-      </c>
-      <c r="B14" s="367" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="368"/>
-      <c r="D14" s="368"/>
-      <c r="E14" s="368"/>
-      <c r="F14" s="368"/>
-      <c r="G14" s="368"/>
-      <c r="H14" s="368"/>
-      <c r="I14" s="369"/>
+      <c r="A14" s="357" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="366" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="367"/>
+      <c r="D14" s="367"/>
+      <c r="E14" s="367"/>
+      <c r="F14" s="367"/>
+      <c r="G14" s="367"/>
+      <c r="H14" s="367"/>
+      <c r="I14" s="368"/>
       <c r="J14" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="K14" s="297"/>
+        <v>155</v>
+      </c>
+      <c r="K14" s="297">
+        <v>0</v>
+      </c>
       <c r="L14" s="172">
         <f>K14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="360"/>
-      <c r="B15" s="370" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="366"/>
-      <c r="D15" s="366"/>
-      <c r="E15" s="366"/>
-      <c r="F15" s="366"/>
-      <c r="G15" s="366"/>
-      <c r="H15" s="366"/>
-      <c r="I15" s="366"/>
+      <c r="A15" s="359"/>
+      <c r="B15" s="369" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="365"/>
+      <c r="D15" s="365"/>
+      <c r="E15" s="365"/>
+      <c r="F15" s="365"/>
+      <c r="G15" s="365"/>
+      <c r="H15" s="365"/>
+      <c r="I15" s="365"/>
       <c r="J15" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="K15" s="298"/>
+        <v>156</v>
+      </c>
+      <c r="K15" s="298">
+        <v>0</v>
+      </c>
       <c r="L15" s="278">
         <f>K15*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="358" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" s="361" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="362"/>
-      <c r="D16" s="362"/>
-      <c r="E16" s="362"/>
-      <c r="F16" s="362"/>
-      <c r="G16" s="362"/>
-      <c r="H16" s="362"/>
-      <c r="I16" s="362"/>
+      <c r="A16" s="357" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="360" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="361"/>
+      <c r="D16" s="361"/>
+      <c r="E16" s="361"/>
+      <c r="F16" s="361"/>
+      <c r="G16" s="361"/>
+      <c r="H16" s="361"/>
+      <c r="I16" s="361"/>
       <c r="J16" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="K16" s="299"/>
+        <v>187</v>
+      </c>
+      <c r="K16" s="299">
+        <v>0</v>
+      </c>
       <c r="L16" s="170">
-        <f>K16*0.25</f>
+        <f>K16*0.35</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="359"/>
-      <c r="B17" s="363" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="364"/>
-      <c r="D17" s="364"/>
-      <c r="E17" s="364"/>
-      <c r="F17" s="364"/>
-      <c r="G17" s="364"/>
-      <c r="H17" s="364"/>
-      <c r="I17" s="364"/>
+      <c r="A17" s="358"/>
+      <c r="B17" s="362" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="363"/>
+      <c r="D17" s="363"/>
+      <c r="E17" s="363"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="363"/>
+      <c r="H17" s="363"/>
+      <c r="I17" s="363"/>
       <c r="J17" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="K17" s="300"/>
+        <v>196</v>
+      </c>
+      <c r="K17" s="300">
+        <v>0</v>
+      </c>
       <c r="L17" s="168">
-        <f>K17*0.2</f>
+        <f>K17*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="360"/>
-      <c r="B18" s="365" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="366"/>
-      <c r="D18" s="366"/>
-      <c r="E18" s="366"/>
-      <c r="F18" s="366"/>
-      <c r="G18" s="366"/>
-      <c r="H18" s="366"/>
-      <c r="I18" s="366"/>
+      <c r="A18" s="359"/>
+      <c r="B18" s="364" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="365"/>
+      <c r="D18" s="365"/>
+      <c r="E18" s="365"/>
+      <c r="F18" s="365"/>
+      <c r="G18" s="365"/>
+      <c r="H18" s="365"/>
+      <c r="I18" s="365"/>
       <c r="J18" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="K18" s="301"/>
+        <v>188</v>
+      </c>
+      <c r="K18" s="400">
+        <v>0</v>
+      </c>
       <c r="L18" s="277">
-        <f>K18*0.2</f>
+        <f>K18*0</f>
         <v>0</v>
       </c>
     </row>
@@ -5673,7 +5687,7 @@
     <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="41"/>
       <c r="B21" s="74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="76"/>
@@ -5684,13 +5698,13 @@
       <c r="I21" s="76"/>
       <c r="J21" s="76"/>
       <c r="K21" s="76"/>
-      <c r="L21" s="308"/>
+      <c r="L21" s="307"/>
       <c r="M21" s="41"/>
     </row>
     <row r="22" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I23" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J23" s="43"/>
       <c r="K23" s="43"/>
@@ -5755,7 +5769,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter>&amp;R2019-06-01</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -5767,7 +5781,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6357,11 +6371,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="70" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -6369,11 +6383,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -6401,10 +6415,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="337"/>
-      <c r="D5" s="337"/>
-      <c r="E5" s="337"/>
-      <c r="F5" s="337"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>13</v>
@@ -6418,10 +6432,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="337"/>
-      <c r="D6" s="337"/>
-      <c r="E6" s="337"/>
-      <c r="F6" s="337"/>
+      <c r="C6" s="325"/>
+      <c r="D6" s="325"/>
+      <c r="E6" s="325"/>
+      <c r="F6" s="325"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -6450,30 +6464,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="356"/>
-      <c r="D8" s="356"/>
-      <c r="E8" s="356"/>
-      <c r="F8" s="356"/>
+      <c r="C8" s="355"/>
+      <c r="D8" s="355"/>
+      <c r="E8" s="355"/>
+      <c r="F8" s="355"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="337"/>
-      <c r="D9" s="337"/>
-      <c r="E9" s="337"/>
-      <c r="F9" s="337"/>
+      <c r="C9" s="325"/>
+      <c r="D9" s="325"/>
+      <c r="E9" s="325"/>
+      <c r="F9" s="325"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="337"/>
-      <c r="D10" s="337"/>
-      <c r="E10" s="337"/>
-      <c r="F10" s="337"/>
+      <c r="C10" s="325"/>
+      <c r="D10" s="325"/>
+      <c r="E10" s="325"/>
+      <c r="F10" s="325"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6482,115 +6496,125 @@
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K13" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="358" t="s">
-        <v>201</v>
-      </c>
-      <c r="B14" s="367" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="368"/>
-      <c r="D14" s="368"/>
-      <c r="E14" s="368"/>
-      <c r="F14" s="368"/>
-      <c r="G14" s="368"/>
-      <c r="H14" s="368"/>
-      <c r="I14" s="369"/>
+      <c r="A14" s="357" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="366" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="367"/>
+      <c r="D14" s="367"/>
+      <c r="E14" s="367"/>
+      <c r="F14" s="367"/>
+      <c r="G14" s="367"/>
+      <c r="H14" s="367"/>
+      <c r="I14" s="368"/>
       <c r="J14" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="K14" s="297"/>
+        <v>155</v>
+      </c>
+      <c r="K14" s="297">
+        <v>0</v>
+      </c>
       <c r="L14" s="172">
         <f>K14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="360"/>
-      <c r="B15" s="370" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="366"/>
-      <c r="D15" s="366"/>
-      <c r="E15" s="366"/>
-      <c r="F15" s="366"/>
-      <c r="G15" s="366"/>
-      <c r="H15" s="366"/>
-      <c r="I15" s="366"/>
+      <c r="A15" s="359"/>
+      <c r="B15" s="369" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="365"/>
+      <c r="D15" s="365"/>
+      <c r="E15" s="365"/>
+      <c r="F15" s="365"/>
+      <c r="G15" s="365"/>
+      <c r="H15" s="365"/>
+      <c r="I15" s="365"/>
       <c r="J15" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="K15" s="298"/>
+        <v>156</v>
+      </c>
+      <c r="K15" s="298">
+        <v>0</v>
+      </c>
       <c r="L15" s="278">
         <f>K15*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="358" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" s="361" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="362"/>
-      <c r="D16" s="362"/>
-      <c r="E16" s="362"/>
-      <c r="F16" s="362"/>
-      <c r="G16" s="362"/>
-      <c r="H16" s="362"/>
-      <c r="I16" s="362"/>
+      <c r="A16" s="357" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="360" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="361"/>
+      <c r="D16" s="361"/>
+      <c r="E16" s="361"/>
+      <c r="F16" s="361"/>
+      <c r="G16" s="361"/>
+      <c r="H16" s="361"/>
+      <c r="I16" s="361"/>
       <c r="J16" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="K16" s="299"/>
+        <v>187</v>
+      </c>
+      <c r="K16" s="299">
+        <v>0</v>
+      </c>
       <c r="L16" s="170">
-        <f>K16*0.25</f>
+        <f>K16*0.35</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="359"/>
-      <c r="B17" s="363" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="364"/>
-      <c r="D17" s="364"/>
-      <c r="E17" s="364"/>
-      <c r="F17" s="364"/>
-      <c r="G17" s="364"/>
-      <c r="H17" s="364"/>
-      <c r="I17" s="364"/>
+      <c r="A17" s="358"/>
+      <c r="B17" s="362" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="363"/>
+      <c r="D17" s="363"/>
+      <c r="E17" s="363"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="363"/>
+      <c r="H17" s="363"/>
+      <c r="I17" s="363"/>
       <c r="J17" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="K17" s="300"/>
+        <v>196</v>
+      </c>
+      <c r="K17" s="300">
+        <v>0</v>
+      </c>
       <c r="L17" s="168">
-        <f>K17*0.2</f>
+        <f>K17*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="360"/>
-      <c r="B18" s="365" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="366"/>
-      <c r="D18" s="366"/>
-      <c r="E18" s="366"/>
-      <c r="F18" s="366"/>
-      <c r="G18" s="366"/>
-      <c r="H18" s="366"/>
-      <c r="I18" s="366"/>
+      <c r="A18" s="359"/>
+      <c r="B18" s="364" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="365"/>
+      <c r="D18" s="365"/>
+      <c r="E18" s="365"/>
+      <c r="F18" s="365"/>
+      <c r="G18" s="365"/>
+      <c r="H18" s="365"/>
+      <c r="I18" s="365"/>
       <c r="J18" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="K18" s="301"/>
+        <v>188</v>
+      </c>
+      <c r="K18" s="400">
+        <v>0</v>
+      </c>
       <c r="L18" s="277">
-        <f>K18*0.2</f>
+        <f>K18*0</f>
         <v>0</v>
       </c>
     </row>
@@ -6630,7 +6654,7 @@
     <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="41"/>
       <c r="B21" s="74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="76"/>
@@ -6641,13 +6665,13 @@
       <c r="I21" s="76"/>
       <c r="J21" s="76"/>
       <c r="K21" s="76"/>
-      <c r="L21" s="308"/>
+      <c r="L21" s="307"/>
       <c r="M21" s="41"/>
     </row>
     <row r="22" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I23" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J23" s="43"/>
       <c r="K23" s="43"/>
@@ -6695,6 +6719,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
@@ -6702,17 +6731,12 @@
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter>&amp;R2019-06-01</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -6723,8 +6747,8 @@
   <sheetPr codeName="Blad9"/>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6744,11 +6768,11 @@
     <row r="1" spans="1:12" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -6756,11 +6780,11 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -6788,10 +6812,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="337"/>
-      <c r="D5" s="337"/>
-      <c r="E5" s="337"/>
-      <c r="F5" s="337"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>13</v>
@@ -6805,10 +6829,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="337"/>
-      <c r="D6" s="337"/>
-      <c r="E6" s="337"/>
-      <c r="F6" s="337"/>
+      <c r="C6" s="325"/>
+      <c r="D6" s="325"/>
+      <c r="E6" s="325"/>
+      <c r="F6" s="325"/>
       <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6831,37 +6855,37 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="356"/>
-      <c r="D8" s="356"/>
-      <c r="E8" s="356"/>
-      <c r="F8" s="356"/>
+      <c r="C8" s="355"/>
+      <c r="D8" s="355"/>
+      <c r="E8" s="355"/>
+      <c r="F8" s="355"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="337"/>
-      <c r="D9" s="337"/>
-      <c r="E9" s="337"/>
-      <c r="F9" s="337"/>
+      <c r="C9" s="325"/>
+      <c r="D9" s="325"/>
+      <c r="E9" s="325"/>
+      <c r="F9" s="325"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="337"/>
-      <c r="D10" s="337"/>
-      <c r="E10" s="337"/>
-      <c r="F10" s="337"/>
+      <c r="C10" s="325"/>
+      <c r="D10" s="325"/>
+      <c r="E10" s="325"/>
+      <c r="F10" s="325"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="133" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="134"/>
@@ -6880,14 +6904,14 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="371" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="372"/>
-      <c r="C15" s="372"/>
-      <c r="D15" s="372"/>
-      <c r="E15" s="372"/>
-      <c r="F15" s="373"/>
+      <c r="A15" s="370" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="371"/>
+      <c r="C15" s="371"/>
+      <c r="D15" s="371"/>
+      <c r="E15" s="371"/>
+      <c r="F15" s="372"/>
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
       <c r="I15" s="11"/>
@@ -6896,14 +6920,14 @@
       <c r="L15" s="292"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="371" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="372"/>
-      <c r="C16" s="372"/>
-      <c r="D16" s="372"/>
-      <c r="E16" s="372"/>
-      <c r="F16" s="373"/>
+      <c r="A16" s="370" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="371"/>
+      <c r="C16" s="371"/>
+      <c r="D16" s="371"/>
+      <c r="E16" s="371"/>
+      <c r="F16" s="372"/>
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
       <c r="I16" s="11"/>
@@ -6913,7 +6937,7 @@
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="248" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B17" s="109"/>
       <c r="C17" s="109"/>
@@ -6929,7 +6953,7 @@
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="248" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B18" s="109"/>
       <c r="C18" s="109"/>
@@ -6945,7 +6969,7 @@
     </row>
     <row r="19" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="248" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="109"/>
       <c r="C19" s="109"/>
@@ -6964,27 +6988,27 @@
       <c r="L20" s="163"/>
     </row>
     <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="377" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="378"/>
-      <c r="C21" s="378"/>
-      <c r="D21" s="378"/>
-      <c r="E21" s="378"/>
-      <c r="F21" s="378"/>
-      <c r="G21" s="378"/>
-      <c r="H21" s="378"/>
-      <c r="I21" s="378"/>
+      <c r="A21" s="376" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="377"/>
+      <c r="C21" s="377"/>
+      <c r="D21" s="377"/>
+      <c r="E21" s="377"/>
+      <c r="F21" s="377"/>
+      <c r="G21" s="377"/>
+      <c r="H21" s="377"/>
+      <c r="I21" s="377"/>
       <c r="J21" s="162"/>
       <c r="K21" s="161"/>
       <c r="L21" s="8"/>
       <c r="R21" s="156"/>
     </row>
     <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="385" t="s">
+      <c r="A22" s="384" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="386"/>
+      <c r="B22" s="385"/>
       <c r="C22" s="160"/>
       <c r="D22" s="160"/>
       <c r="E22" s="160"/>
@@ -6998,28 +7022,28 @@
       <c r="R22" s="156"/>
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="381" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="382"/>
-      <c r="C23" s="302"/>
-      <c r="D23" s="379" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="380"/>
-      <c r="F23" s="303"/>
+      <c r="A23" s="380" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="381"/>
+      <c r="C23" s="301"/>
+      <c r="D23" s="378" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="379"/>
+      <c r="F23" s="302"/>
       <c r="G23" s="255" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H23" s="256">
         <f>IFERROR(IF(ROUND(C23/F23,3)&gt;10,10,ROUND(C23/F23,3)),10)</f>
         <v>10</v>
       </c>
       <c r="I23" s="257" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J23" s="255" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K23" s="258">
         <f>10-H23</f>
@@ -7029,11 +7053,11 @@
       <c r="R23" s="156"/>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="383" t="s">
+      <c r="A24" s="382" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="384"/>
-      <c r="C24" s="384"/>
+      <c r="B24" s="383"/>
+      <c r="C24" s="383"/>
       <c r="D24" s="259"/>
       <c r="E24" s="259"/>
       <c r="F24" s="259"/>
@@ -7041,23 +7065,23 @@
       <c r="H24" s="259"/>
       <c r="I24" s="259"/>
       <c r="J24" s="260"/>
-      <c r="K24" s="310"/>
+      <c r="K24" s="309"/>
       <c r="R24" s="156"/>
     </row>
     <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="374" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="375"/>
-      <c r="C25" s="375"/>
-      <c r="D25" s="375"/>
-      <c r="E25" s="375"/>
-      <c r="F25" s="375"/>
-      <c r="G25" s="375"/>
-      <c r="H25" s="375"/>
-      <c r="I25" s="375"/>
-      <c r="J25" s="375"/>
-      <c r="K25" s="376"/>
+      <c r="A25" s="373" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="374"/>
+      <c r="C25" s="374"/>
+      <c r="D25" s="374"/>
+      <c r="E25" s="374"/>
+      <c r="F25" s="374"/>
+      <c r="G25" s="374"/>
+      <c r="H25" s="374"/>
+      <c r="I25" s="374"/>
+      <c r="J25" s="374"/>
+      <c r="K25" s="375"/>
       <c r="L25" s="9">
         <f>IFERROR(K23-K24,0)</f>
         <v>0</v>
@@ -7104,7 +7128,7 @@
     </row>
     <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L28" s="150" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7115,7 +7139,7 @@
     <row r="30" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H30" s="147"/>
       <c r="I30" s="146" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J30" s="145"/>
       <c r="K30" s="144"/>
@@ -7193,7 +7217,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter>&amp;R2019-06-01</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -7204,8 +7228,8 @@
   <sheetPr codeName="Blad10"/>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -7795,24 +7819,24 @@
   <sheetData>
     <row r="1" spans="1:12" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="391" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="391"/>
-      <c r="C2" s="391"/>
-      <c r="D2" s="391"/>
-      <c r="E2" s="391"/>
-      <c r="F2" s="391"/>
-      <c r="G2" s="391"/>
-      <c r="H2" s="391"/>
-      <c r="I2" s="391"/>
+      <c r="A2" s="390" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="390"/>
+      <c r="C2" s="390"/>
+      <c r="D2" s="390"/>
+      <c r="E2" s="390"/>
+      <c r="F2" s="390"/>
+      <c r="G2" s="390"/>
+      <c r="H2" s="390"/>
+      <c r="I2" s="390"/>
       <c r="J2" s="166"/>
       <c r="K2" s="166"/>
       <c r="L2" s="166"/>
     </row>
     <row r="3" spans="1:12" s="136" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -7821,7 +7845,7 @@
       <c r="F3" s="1"/>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -7839,7 +7863,7 @@
       <c r="G4" s="165"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="16"/>
@@ -7850,10 +7874,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="337"/>
-      <c r="D5" s="337"/>
-      <c r="E5" s="337"/>
-      <c r="F5" s="337"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
       <c r="G5" s="165"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
@@ -7868,10 +7892,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="337"/>
-      <c r="D6" s="337"/>
-      <c r="E6" s="337"/>
-      <c r="F6" s="337"/>
+      <c r="C6" s="325"/>
+      <c r="D6" s="325"/>
+      <c r="E6" s="325"/>
+      <c r="F6" s="325"/>
       <c r="G6" s="164"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14" t="s">
@@ -7902,10 +7926,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="356"/>
-      <c r="D8" s="356"/>
-      <c r="E8" s="356"/>
-      <c r="F8" s="356"/>
+      <c r="C8" s="355"/>
+      <c r="D8" s="355"/>
+      <c r="E8" s="355"/>
+      <c r="F8" s="355"/>
       <c r="G8" s="174"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -7920,10 +7944,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="337"/>
-      <c r="D9" s="337"/>
-      <c r="E9" s="337"/>
-      <c r="F9" s="337"/>
+      <c r="C9" s="325"/>
+      <c r="D9" s="325"/>
+      <c r="E9" s="325"/>
+      <c r="F9" s="325"/>
       <c r="G9" s="174"/>
       <c r="H9" s="164"/>
       <c r="I9" s="164"/>
@@ -7936,15 +7960,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="337"/>
-      <c r="D10" s="337"/>
-      <c r="E10" s="337"/>
-      <c r="F10" s="337"/>
+      <c r="C10" s="325"/>
+      <c r="D10" s="325"/>
+      <c r="E10" s="325"/>
+      <c r="F10" s="325"/>
       <c r="G10" s="174"/>
       <c r="H10" s="164"/>
       <c r="I10" s="164"/>
-      <c r="J10" s="387"/>
-      <c r="K10" s="387"/>
+      <c r="J10" s="386"/>
+      <c r="K10" s="386"/>
       <c r="L10" s="175"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -7956,7 +7980,7 @@
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H12" s="173"/>
       <c r="I12" s="173"/>
@@ -7966,50 +7990,50 @@
     </row>
     <row r="13" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="281" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="282" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="391" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="282" t="s">
+      <c r="E13" s="392"/>
+      <c r="F13" s="282" t="s">
         <v>160</v>
       </c>
-      <c r="D13" s="392" t="s">
+      <c r="G13" s="282" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="393"/>
-      <c r="F13" s="282" t="s">
+      <c r="H13" s="283" t="s">
         <v>162</v>
       </c>
-      <c r="G13" s="282" t="s">
-        <v>163</v>
-      </c>
-      <c r="H13" s="283" t="s">
-        <v>164</v>
-      </c>
       <c r="I13" s="284" t="s">
-        <v>129</v>
-      </c>
-      <c r="J13" s="396" t="s">
-        <v>169</v>
-      </c>
-      <c r="K13" s="397"/>
+        <v>127</v>
+      </c>
+      <c r="J13" s="395" t="s">
+        <v>167</v>
+      </c>
+      <c r="K13" s="396"/>
       <c r="L13" s="173"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="304"/>
-      <c r="C14" s="305"/>
-      <c r="D14" s="394"/>
-      <c r="E14" s="395"/>
-      <c r="F14" s="305"/>
-      <c r="G14" s="305"/>
-      <c r="H14" s="306"/>
-      <c r="I14" s="307">
+      <c r="B14" s="303"/>
+      <c r="C14" s="304"/>
+      <c r="D14" s="393"/>
+      <c r="E14" s="394"/>
+      <c r="F14" s="304"/>
+      <c r="G14" s="304"/>
+      <c r="H14" s="305"/>
+      <c r="I14" s="306">
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="398">
+      <c r="J14" s="397">
         <f>I14/6</f>
         <v>0</v>
       </c>
-      <c r="K14" s="399"/>
+      <c r="K14" s="398"/>
       <c r="L14" s="173"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8018,25 +8042,25 @@
     </row>
     <row r="16" spans="1:12" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K16" s="280" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="276" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="388" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="389"/>
-      <c r="D17" s="389"/>
-      <c r="E17" s="389"/>
-      <c r="F17" s="389"/>
-      <c r="G17" s="389"/>
-      <c r="H17" s="389"/>
-      <c r="I17" s="390"/>
+        <v>166</v>
+      </c>
+      <c r="B17" s="387" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="388"/>
+      <c r="D17" s="388"/>
+      <c r="E17" s="388"/>
+      <c r="F17" s="388"/>
+      <c r="G17" s="388"/>
+      <c r="H17" s="388"/>
+      <c r="I17" s="389"/>
       <c r="J17" s="171" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K17" s="261">
         <f>J14</f>
@@ -8048,21 +8072,21 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="314" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="361" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="362"/>
-      <c r="D18" s="362"/>
-      <c r="E18" s="362"/>
-      <c r="F18" s="362"/>
-      <c r="G18" s="362"/>
-      <c r="H18" s="362"/>
-      <c r="I18" s="362"/>
+      <c r="A18" s="329" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="360" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="361"/>
+      <c r="D18" s="361"/>
+      <c r="E18" s="361"/>
+      <c r="F18" s="361"/>
+      <c r="G18" s="361"/>
+      <c r="H18" s="361"/>
+      <c r="I18" s="361"/>
       <c r="J18" s="171" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K18" s="299"/>
       <c r="L18" s="170">
@@ -8071,19 +8095,19 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="315"/>
-      <c r="B19" s="363" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="364"/>
-      <c r="D19" s="364"/>
-      <c r="E19" s="364"/>
-      <c r="F19" s="364"/>
-      <c r="G19" s="364"/>
-      <c r="H19" s="364"/>
-      <c r="I19" s="364"/>
+      <c r="A19" s="330"/>
+      <c r="B19" s="362" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="363"/>
+      <c r="D19" s="363"/>
+      <c r="E19" s="363"/>
+      <c r="F19" s="363"/>
+      <c r="G19" s="363"/>
+      <c r="H19" s="363"/>
+      <c r="I19" s="363"/>
       <c r="J19" s="169" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K19" s="300"/>
       <c r="L19" s="168">
@@ -8125,7 +8149,7 @@
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="41"/>
       <c r="B22" s="74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="75"/>
       <c r="D22" s="76"/>
@@ -8136,12 +8160,12 @@
       <c r="I22" s="76"/>
       <c r="J22" s="76"/>
       <c r="K22" s="76"/>
-      <c r="L22" s="308"/>
+      <c r="L22" s="307"/>
     </row>
     <row r="23" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I24" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J24" s="43"/>
       <c r="K24" s="43"/>
@@ -8203,12 +8227,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A2:I2"/>
@@ -8218,12 +8236,18 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter>&amp;R2019-06-01</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -8234,8 +8258,8 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -8263,7 +8287,7 @@
       <c r="F1" s="123"/>
       <c r="H1" s="13"/>
       <c r="I1" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J1" s="15"/>
       <c r="K1" s="16"/>
@@ -8275,7 +8299,7 @@
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -8303,10 +8327,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="337"/>
-      <c r="D4" s="337"/>
-      <c r="E4" s="337"/>
-      <c r="F4" s="337"/>
+      <c r="C4" s="325"/>
+      <c r="D4" s="325"/>
+      <c r="E4" s="325"/>
+      <c r="F4" s="325"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14" t="s">
         <v>13</v>
@@ -8320,10 +8344,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="337"/>
-      <c r="D5" s="337"/>
-      <c r="E5" s="337"/>
-      <c r="F5" s="337"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
       <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8346,10 +8370,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="337"/>
-      <c r="D7" s="337"/>
-      <c r="E7" s="337"/>
-      <c r="F7" s="337"/>
+      <c r="C7" s="325"/>
+      <c r="D7" s="325"/>
+      <c r="E7" s="325"/>
+      <c r="F7" s="325"/>
       <c r="K7" s="50"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -8357,10 +8381,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="11"/>
-      <c r="C8" s="337"/>
-      <c r="D8" s="337"/>
-      <c r="E8" s="337"/>
-      <c r="F8" s="337"/>
+      <c r="C8" s="325"/>
+      <c r="D8" s="325"/>
+      <c r="E8" s="325"/>
+      <c r="F8" s="325"/>
       <c r="K8" s="50"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -8368,10 +8392,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="337"/>
-      <c r="D9" s="337"/>
-      <c r="E9" s="337"/>
-      <c r="F9" s="337"/>
+      <c r="C9" s="325"/>
+      <c r="D9" s="325"/>
+      <c r="E9" s="325"/>
+      <c r="F9" s="325"/>
       <c r="K9" s="50"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -8389,211 +8413,211 @@
       <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H12" s="338" t="s">
+      <c r="H12" s="326" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="339"/>
-      <c r="J12" s="340" t="s">
+      <c r="I12" s="327"/>
+      <c r="J12" s="328" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="340"/>
-      <c r="L12" s="340"/>
+      <c r="K12" s="328"/>
+      <c r="L12" s="328"/>
     </row>
     <row r="13" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="314" t="s">
+      <c r="A13" s="329" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="332" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="320" t="s">
+      <c r="C13" s="332" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="320"/>
-      <c r="E13" s="320"/>
-      <c r="F13" s="329" t="s">
+      <c r="D13" s="332"/>
+      <c r="E13" s="332"/>
+      <c r="F13" s="334" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="330"/>
+      <c r="G13" s="335"/>
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="331" t="s">
+      <c r="J13" s="316" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="347"/>
-      <c r="L13" s="343">
+      <c r="K13" s="318"/>
+      <c r="L13" s="312">
         <f>ROUND(K13*0.3,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="315"/>
-      <c r="B14" s="325"/>
-      <c r="C14" s="325" t="s">
+      <c r="A14" s="330"/>
+      <c r="B14" s="333"/>
+      <c r="C14" s="333" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="325"/>
-      <c r="E14" s="325"/>
-      <c r="F14" s="326" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="327"/>
+      <c r="D14" s="333"/>
+      <c r="E14" s="333"/>
+      <c r="F14" s="336" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="337"/>
       <c r="H14" s="21"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="332"/>
-      <c r="K14" s="348"/>
-      <c r="L14" s="344"/>
+      <c r="J14" s="317"/>
+      <c r="K14" s="319"/>
+      <c r="L14" s="313"/>
     </row>
     <row r="15" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="315"/>
-      <c r="B15" s="325"/>
-      <c r="C15" s="325" t="s">
+      <c r="A15" s="330"/>
+      <c r="B15" s="333"/>
+      <c r="C15" s="333" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="325"/>
-      <c r="E15" s="325"/>
-      <c r="F15" s="326" t="s">
+      <c r="D15" s="333"/>
+      <c r="E15" s="333"/>
+      <c r="F15" s="336" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="327"/>
+      <c r="G15" s="337"/>
       <c r="H15" s="24"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="332"/>
-      <c r="K15" s="349"/>
-      <c r="L15" s="344"/>
+      <c r="J15" s="317"/>
+      <c r="K15" s="320"/>
+      <c r="L15" s="313"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="315"/>
-      <c r="B16" s="333" t="s">
+      <c r="A16" s="330"/>
+      <c r="B16" s="338" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="325" t="s">
+      <c r="C16" s="333" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="325"/>
-      <c r="E16" s="325"/>
-      <c r="F16" s="326" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16" s="327"/>
+      <c r="D16" s="333"/>
+      <c r="E16" s="333"/>
+      <c r="F16" s="336" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="337"/>
       <c r="H16" s="26"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="332" t="s">
+      <c r="J16" s="317" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="342"/>
-      <c r="L16" s="344">
+      <c r="K16" s="311"/>
+      <c r="L16" s="313">
         <f>ROUND(K16*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="315"/>
-      <c r="B17" s="334"/>
-      <c r="C17" s="325" t="s">
+      <c r="A17" s="330"/>
+      <c r="B17" s="339"/>
+      <c r="C17" s="333" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="325"/>
-      <c r="E17" s="325"/>
-      <c r="F17" s="326" t="s">
+      <c r="D17" s="333"/>
+      <c r="E17" s="333"/>
+      <c r="F17" s="336" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="327"/>
+      <c r="G17" s="337"/>
       <c r="H17" s="21"/>
       <c r="I17" s="22"/>
-      <c r="J17" s="332"/>
-      <c r="K17" s="342"/>
-      <c r="L17" s="344"/>
+      <c r="J17" s="317"/>
+      <c r="K17" s="311"/>
+      <c r="L17" s="313"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="316"/>
-      <c r="B18" s="335"/>
-      <c r="C18" s="328" t="s">
+      <c r="A18" s="331"/>
+      <c r="B18" s="340"/>
+      <c r="C18" s="342" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="328"/>
-      <c r="E18" s="328"/>
+      <c r="D18" s="342"/>
+      <c r="E18" s="342"/>
       <c r="F18" s="323" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="324"/>
       <c r="H18" s="28"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="336"/>
-      <c r="K18" s="350"/>
-      <c r="L18" s="351"/>
+      <c r="J18" s="341"/>
+      <c r="K18" s="321"/>
+      <c r="L18" s="322"/>
     </row>
     <row r="19" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="314" t="s">
+      <c r="A19" s="329" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="317" t="s">
+      <c r="B19" s="346" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="320" t="s">
+      <c r="C19" s="332" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="320"/>
-      <c r="E19" s="320"/>
-      <c r="F19" s="321" t="s">
+      <c r="D19" s="332"/>
+      <c r="E19" s="332"/>
+      <c r="F19" s="349" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="322"/>
+      <c r="G19" s="350"/>
       <c r="H19" s="30"/>
       <c r="I19" s="31"/>
-      <c r="J19" s="331" t="s">
-        <v>95</v>
-      </c>
-      <c r="K19" s="341"/>
-      <c r="L19" s="343">
+      <c r="J19" s="316" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="310"/>
+      <c r="L19" s="312">
         <f>ROUND(K19*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="315"/>
-      <c r="B20" s="318"/>
-      <c r="C20" s="325" t="s">
+      <c r="A20" s="330"/>
+      <c r="B20" s="347"/>
+      <c r="C20" s="333" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="325"/>
-      <c r="E20" s="325"/>
-      <c r="F20" s="326" t="s">
+      <c r="D20" s="333"/>
+      <c r="E20" s="333"/>
+      <c r="F20" s="336" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="327"/>
+      <c r="G20" s="337"/>
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
-      <c r="J20" s="332"/>
-      <c r="K20" s="342"/>
-      <c r="L20" s="344"/>
+      <c r="J20" s="317"/>
+      <c r="K20" s="311"/>
+      <c r="L20" s="313"/>
     </row>
     <row r="21" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="315"/>
-      <c r="B21" s="319"/>
-      <c r="C21" s="325" t="s">
+      <c r="A21" s="330"/>
+      <c r="B21" s="348"/>
+      <c r="C21" s="333" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="325"/>
-      <c r="E21" s="325"/>
-      <c r="F21" s="326" t="s">
+      <c r="D21" s="333"/>
+      <c r="E21" s="333"/>
+      <c r="F21" s="336" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="327"/>
+      <c r="G21" s="337"/>
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="332"/>
-      <c r="K21" s="342"/>
-      <c r="L21" s="344"/>
+      <c r="J21" s="317"/>
+      <c r="K21" s="311"/>
+      <c r="L21" s="313"/>
     </row>
     <row r="22" spans="1:12" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="316"/>
+      <c r="A22" s="331"/>
       <c r="B22" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="328"/>
-      <c r="D22" s="328"/>
-      <c r="E22" s="328"/>
+      <c r="C22" s="342"/>
+      <c r="D22" s="342"/>
+      <c r="E22" s="342"/>
       <c r="F22" s="323" t="s">
         <v>35</v>
       </c>
@@ -8614,21 +8638,21 @@
         <v>36</v>
       </c>
       <c r="B23" s="129" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="311" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="343" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="311"/>
-      <c r="E23" s="311"/>
-      <c r="F23" s="312" t="s">
+      <c r="D23" s="343"/>
+      <c r="E23" s="343"/>
+      <c r="F23" s="344" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="313"/>
+      <c r="G23" s="345"/>
       <c r="H23" s="37"/>
       <c r="I23" s="38"/>
       <c r="J23" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K23" s="290"/>
       <c r="L23" s="40">
@@ -8663,11 +8687,11 @@
         <v>5</v>
       </c>
       <c r="J25" s="43"/>
-      <c r="K25" s="345">
+      <c r="K25" s="314">
         <f>SUM(L13:L23)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="346"/>
+      <c r="L25" s="315"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K26" s="274"/>
@@ -8694,22 +8718,18 @@
     <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C22:E22"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:E13"/>
@@ -8726,24 +8746,28 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L18"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter>&amp;R2019-06-01</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -8754,8 +8778,8 @@
   <sheetPr codeName="Blad3"/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -8782,7 +8806,7 @@
       </c>
       <c r="H2" s="178"/>
       <c r="I2" s="179" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J2" s="180"/>
       <c r="K2" s="181"/>
@@ -8790,11 +8814,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="182" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H3" s="178"/>
       <c r="I3" s="179" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J3" s="180"/>
       <c r="K3" s="181"/>
@@ -8822,10 +8846,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="159"/>
-      <c r="C5" s="352"/>
-      <c r="D5" s="352"/>
-      <c r="E5" s="352"/>
-      <c r="F5" s="352"/>
+      <c r="C5" s="351"/>
+      <c r="D5" s="351"/>
+      <c r="E5" s="351"/>
+      <c r="F5" s="351"/>
       <c r="H5" s="178"/>
       <c r="I5" s="179" t="s">
         <v>13</v>
@@ -8839,10 +8863,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="159"/>
-      <c r="C6" s="352"/>
-      <c r="D6" s="352"/>
-      <c r="E6" s="352"/>
-      <c r="F6" s="352"/>
+      <c r="C6" s="351"/>
+      <c r="D6" s="351"/>
+      <c r="E6" s="351"/>
+      <c r="F6" s="351"/>
       <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8865,30 +8889,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="183"/>
-      <c r="C8" s="352"/>
-      <c r="D8" s="352"/>
-      <c r="E8" s="352"/>
-      <c r="F8" s="352"/>
+      <c r="C8" s="351"/>
+      <c r="D8" s="351"/>
+      <c r="E8" s="351"/>
+      <c r="F8" s="351"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="159" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="159"/>
-      <c r="C9" s="352"/>
-      <c r="D9" s="352"/>
-      <c r="E9" s="352"/>
-      <c r="F9" s="352"/>
+      <c r="C9" s="351"/>
+      <c r="D9" s="351"/>
+      <c r="E9" s="351"/>
+      <c r="F9" s="351"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="159" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="159"/>
-      <c r="C10" s="352"/>
-      <c r="D10" s="352"/>
-      <c r="E10" s="352"/>
-      <c r="F10" s="352"/>
+      <c r="C10" s="351"/>
+      <c r="D10" s="351"/>
+      <c r="E10" s="351"/>
+      <c r="F10" s="351"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9139,7 +9163,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter>&amp;R2019-06-01</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -9150,8 +9174,8 @@
   <sheetPr codeName="Blad4"/>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -9179,7 +9203,7 @@
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -9187,11 +9211,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -9219,10 +9243,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="337"/>
-      <c r="D5" s="337"/>
-      <c r="E5" s="337"/>
-      <c r="F5" s="337"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>13</v>
@@ -9236,10 +9260,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="337"/>
-      <c r="D6" s="337"/>
-      <c r="E6" s="337"/>
-      <c r="F6" s="337"/>
+      <c r="C6" s="325"/>
+      <c r="D6" s="325"/>
+      <c r="E6" s="325"/>
+      <c r="F6" s="325"/>
       <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9262,30 +9286,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="356"/>
-      <c r="D8" s="356"/>
-      <c r="E8" s="356"/>
-      <c r="F8" s="356"/>
+      <c r="C8" s="355"/>
+      <c r="D8" s="355"/>
+      <c r="E8" s="355"/>
+      <c r="F8" s="355"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="337"/>
-      <c r="D9" s="337"/>
-      <c r="E9" s="337"/>
-      <c r="F9" s="337"/>
+      <c r="C9" s="325"/>
+      <c r="D9" s="325"/>
+      <c r="E9" s="325"/>
+      <c r="F9" s="325"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="337"/>
-      <c r="D10" s="337"/>
-      <c r="E10" s="337"/>
-      <c r="F10" s="337"/>
+      <c r="C10" s="325"/>
+      <c r="D10" s="325"/>
+      <c r="E10" s="325"/>
+      <c r="F10" s="325"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9421,13 +9445,13 @@
       <c r="L21" s="292"/>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="353" t="s">
-        <v>196</v>
-      </c>
-      <c r="B22" s="354"/>
-      <c r="C22" s="354"/>
-      <c r="D22" s="354"/>
-      <c r="E22" s="355"/>
+      <c r="A22" s="352" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="353"/>
+      <c r="C22" s="353"/>
+      <c r="D22" s="353"/>
+      <c r="E22" s="354"/>
       <c r="F22" s="53"/>
       <c r="G22" s="53"/>
       <c r="H22" s="53"/>
@@ -9544,7 +9568,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter>&amp;R2019-06-01</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -9555,8 +9579,8 @@
   <sheetPr codeName="Blad5"/>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -9583,7 +9607,7 @@
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -9591,11 +9615,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -9623,10 +9647,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="337"/>
-      <c r="D5" s="337"/>
-      <c r="E5" s="337"/>
-      <c r="F5" s="337"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>13</v>
@@ -9640,10 +9664,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="337"/>
-      <c r="D6" s="337"/>
-      <c r="E6" s="337"/>
-      <c r="F6" s="337"/>
+      <c r="C6" s="325"/>
+      <c r="D6" s="325"/>
+      <c r="E6" s="325"/>
+      <c r="F6" s="325"/>
       <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9666,30 +9690,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="356"/>
-      <c r="D8" s="356"/>
-      <c r="E8" s="356"/>
-      <c r="F8" s="356"/>
+      <c r="C8" s="355"/>
+      <c r="D8" s="355"/>
+      <c r="E8" s="355"/>
+      <c r="F8" s="355"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="337"/>
-      <c r="D9" s="337"/>
-      <c r="E9" s="337"/>
-      <c r="F9" s="337"/>
+      <c r="C9" s="325"/>
+      <c r="D9" s="325"/>
+      <c r="E9" s="325"/>
+      <c r="F9" s="325"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="337"/>
-      <c r="D10" s="337"/>
-      <c r="E10" s="337"/>
-      <c r="F10" s="337"/>
+      <c r="C10" s="325"/>
+      <c r="D10" s="325"/>
+      <c r="E10" s="325"/>
+      <c r="F10" s="325"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9826,7 +9850,7 @@
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="248" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" s="246"/>
       <c r="C22" s="246"/>
@@ -9947,7 +9971,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter>&amp;R2019-06-01</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -9958,8 +9982,8 @@
   <sheetPr codeName="Blad6"/>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -9981,11 +10005,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="177" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H2" s="178"/>
       <c r="I2" s="179" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J2" s="180"/>
       <c r="K2" s="181"/>
@@ -9997,7 +10021,7 @@
       </c>
       <c r="H3" s="178"/>
       <c r="I3" s="179" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J3" s="180"/>
       <c r="K3" s="181"/>
@@ -10025,10 +10049,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="159"/>
-      <c r="C5" s="352"/>
-      <c r="D5" s="352"/>
-      <c r="E5" s="352"/>
-      <c r="F5" s="352"/>
+      <c r="C5" s="351"/>
+      <c r="D5" s="351"/>
+      <c r="E5" s="351"/>
+      <c r="F5" s="351"/>
       <c r="H5" s="178"/>
       <c r="I5" s="179" t="s">
         <v>13</v>
@@ -10042,10 +10066,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="159"/>
-      <c r="C6" s="352"/>
-      <c r="D6" s="352"/>
-      <c r="E6" s="352"/>
-      <c r="F6" s="352"/>
+      <c r="C6" s="351"/>
+      <c r="D6" s="351"/>
+      <c r="E6" s="351"/>
+      <c r="F6" s="351"/>
       <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10068,30 +10092,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="183"/>
-      <c r="C8" s="357"/>
-      <c r="D8" s="357"/>
-      <c r="E8" s="357"/>
-      <c r="F8" s="357"/>
+      <c r="C8" s="356"/>
+      <c r="D8" s="356"/>
+      <c r="E8" s="356"/>
+      <c r="F8" s="356"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="159" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="159"/>
-      <c r="C9" s="352"/>
-      <c r="D9" s="352"/>
-      <c r="E9" s="352"/>
-      <c r="F9" s="352"/>
+      <c r="C9" s="351"/>
+      <c r="D9" s="351"/>
+      <c r="E9" s="351"/>
+      <c r="F9" s="351"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="159" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="159"/>
-      <c r="C10" s="352"/>
-      <c r="D10" s="352"/>
-      <c r="E10" s="352"/>
-      <c r="F10" s="352"/>
+      <c r="C10" s="351"/>
+      <c r="D10" s="351"/>
+      <c r="E10" s="351"/>
+      <c r="F10" s="351"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -10172,7 +10196,7 @@
     </row>
     <row r="25" spans="1:12" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="105" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H25" s="50"/>
       <c r="I25" s="72"/>
@@ -10185,20 +10209,24 @@
       </c>
       <c r="C26" s="205"/>
       <c r="D26" s="206"/>
-      <c r="E26" s="293"/>
+      <c r="E26" s="293">
+        <v>0</v>
+      </c>
       <c r="F26" s="204" t="s">
         <v>72</v>
       </c>
       <c r="G26" s="206"/>
-      <c r="H26" s="294"/>
+      <c r="H26" s="294">
+        <v>0</v>
+      </c>
       <c r="I26" s="115" t="str">
-        <f>IFERROR(ROUND(E26/H26,3),"10,000")</f>
-        <v>10,000</v>
+        <f>IFERROR(ROUND(E26/H26,3),"")</f>
+        <v/>
       </c>
       <c r="J26" s="116"/>
-      <c r="K26" s="117">
-        <f>IFERROR((10-I26),"0")</f>
-        <v>0</v>
+      <c r="K26" s="399" t="str">
+        <f>IFERROR((10-I26),"")</f>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10221,7 +10249,9 @@
       <c r="H29" s="205"/>
       <c r="I29" s="210"/>
       <c r="J29" s="118"/>
-      <c r="K29" s="296"/>
+      <c r="K29" s="296">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L30" s="50"/>
@@ -10233,9 +10263,9 @@
       <c r="H31" s="180"/>
       <c r="I31" s="180"/>
       <c r="J31" s="212"/>
-      <c r="K31" s="119">
-        <f>K26-K29</f>
-        <v>0</v>
+      <c r="K31" s="119" t="str">
+        <f>IFERROR(K26-K29,"")</f>
+        <v/>
       </c>
       <c r="L31" s="203">
         <v>1</v>
@@ -10248,9 +10278,9 @@
       </c>
       <c r="J33" s="213"/>
       <c r="K33" s="213"/>
-      <c r="L33" s="214">
-        <f>K31</f>
-        <v>0</v>
+      <c r="L33" s="214" t="str">
+        <f>IFERROR(K31,"")</f>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -10286,7 +10316,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter>&amp;R2019-06-01</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -10296,8 +10326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -10950,11 +10980,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="70" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -10966,7 +10996,7 @@
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -10994,10 +11024,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="337"/>
-      <c r="D5" s="337"/>
-      <c r="E5" s="337"/>
-      <c r="F5" s="337"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>13</v>
@@ -11011,10 +11041,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="337"/>
-      <c r="D6" s="337"/>
-      <c r="E6" s="337"/>
-      <c r="F6" s="337"/>
+      <c r="C6" s="325"/>
+      <c r="D6" s="325"/>
+      <c r="E6" s="325"/>
+      <c r="F6" s="325"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -11043,30 +11073,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="356"/>
-      <c r="D8" s="356"/>
-      <c r="E8" s="356"/>
-      <c r="F8" s="356"/>
+      <c r="C8" s="355"/>
+      <c r="D8" s="355"/>
+      <c r="E8" s="355"/>
+      <c r="F8" s="355"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="337"/>
-      <c r="D9" s="337"/>
-      <c r="E9" s="337"/>
-      <c r="F9" s="337"/>
+      <c r="C9" s="325"/>
+      <c r="D9" s="325"/>
+      <c r="E9" s="325"/>
+      <c r="F9" s="325"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="337"/>
-      <c r="D10" s="337"/>
-      <c r="E10" s="337"/>
-      <c r="F10" s="337"/>
+      <c r="C10" s="325"/>
+      <c r="D10" s="325"/>
+      <c r="E10" s="325"/>
+      <c r="F10" s="325"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -11131,7 +11161,9 @@
       </c>
       <c r="C18" s="74"/>
       <c r="D18" s="75"/>
-      <c r="E18" s="295"/>
+      <c r="E18" s="295">
+        <v>0</v>
+      </c>
       <c r="F18" s="95">
         <v>1.3</v>
       </c>
@@ -11148,11 +11180,13 @@
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="94" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C19" s="74"/>
       <c r="D19" s="75"/>
-      <c r="E19" s="295"/>
+      <c r="E19" s="295">
+        <v>0</v>
+      </c>
       <c r="F19" s="95">
         <v>0.9</v>
       </c>
@@ -11169,11 +11203,13 @@
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="94" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="C20" s="74"/>
       <c r="D20" s="75"/>
-      <c r="E20" s="295"/>
+      <c r="E20" s="295">
+        <v>0</v>
+      </c>
       <c r="F20" s="95">
         <v>0.4</v>
       </c>
@@ -11190,13 +11226,15 @@
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="94" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C21" s="74"/>
       <c r="D21" s="75"/>
-      <c r="E21" s="295"/>
+      <c r="E21" s="295">
+        <v>0</v>
+      </c>
       <c r="F21" s="132" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G21" s="96"/>
       <c r="H21" s="93"/>
@@ -11208,7 +11246,7 @@
     </row>
     <row r="22" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="98" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="99"/>
       <c r="D22" s="99"/>
@@ -11219,7 +11257,7 @@
     </row>
     <row r="23" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G23" s="101" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
@@ -11239,7 +11277,7 @@
     </row>
     <row r="25" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="105" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H25" s="50"/>
       <c r="I25" s="72"/>
@@ -11252,7 +11290,9 @@
       </c>
       <c r="C26" s="45"/>
       <c r="D26" s="127"/>
-      <c r="E26" s="293"/>
+      <c r="E26" s="293">
+        <v>0</v>
+      </c>
       <c r="F26" s="126" t="s">
         <v>72</v>
       </c>
@@ -11290,7 +11330,9 @@
       <c r="H29" s="45"/>
       <c r="I29" s="109"/>
       <c r="J29" s="110"/>
-      <c r="K29" s="296"/>
+      <c r="K29" s="296">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L30" s="50"/>
@@ -11351,7 +11393,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter>&amp;R2019-06-01</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -11362,8 +11404,8 @@
   <sheetPr codeName="Blad7"/>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -12016,11 +12058,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="70" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -12032,7 +12074,7 @@
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -12060,10 +12102,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="337"/>
-      <c r="D5" s="337"/>
-      <c r="E5" s="337"/>
-      <c r="F5" s="337"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>13</v>
@@ -12077,10 +12119,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="337"/>
-      <c r="D6" s="337"/>
-      <c r="E6" s="337"/>
-      <c r="F6" s="337"/>
+      <c r="C6" s="325"/>
+      <c r="D6" s="325"/>
+      <c r="E6" s="325"/>
+      <c r="F6" s="325"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -12109,30 +12151,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="356"/>
-      <c r="D8" s="356"/>
-      <c r="E8" s="356"/>
-      <c r="F8" s="356"/>
+      <c r="C8" s="355"/>
+      <c r="D8" s="355"/>
+      <c r="E8" s="355"/>
+      <c r="F8" s="355"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="337"/>
-      <c r="D9" s="337"/>
-      <c r="E9" s="337"/>
-      <c r="F9" s="337"/>
+      <c r="C9" s="325"/>
+      <c r="D9" s="325"/>
+      <c r="E9" s="325"/>
+      <c r="F9" s="325"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="337"/>
-      <c r="D10" s="337"/>
-      <c r="E10" s="337"/>
-      <c r="F10" s="337"/>
+      <c r="C10" s="325"/>
+      <c r="D10" s="325"/>
+      <c r="E10" s="325"/>
+      <c r="F10" s="325"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12197,7 +12239,9 @@
       </c>
       <c r="C18" s="74"/>
       <c r="D18" s="75"/>
-      <c r="E18" s="295"/>
+      <c r="E18" s="295">
+        <v>0</v>
+      </c>
       <c r="F18" s="95">
         <v>1.3</v>
       </c>
@@ -12214,11 +12258,13 @@
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="94" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C19" s="74"/>
       <c r="D19" s="75"/>
-      <c r="E19" s="295"/>
+      <c r="E19" s="295">
+        <v>0</v>
+      </c>
       <c r="F19" s="95">
         <v>0.9</v>
       </c>
@@ -12235,11 +12281,13 @@
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="94" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="C20" s="74"/>
       <c r="D20" s="75"/>
-      <c r="E20" s="295"/>
+      <c r="E20" s="295">
+        <v>0</v>
+      </c>
       <c r="F20" s="95">
         <v>0.4</v>
       </c>
@@ -12256,13 +12304,13 @@
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="94" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C21" s="74"/>
       <c r="D21" s="75"/>
       <c r="E21" s="295"/>
       <c r="F21" s="132" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G21" s="96"/>
       <c r="H21" s="93"/>
@@ -12274,7 +12322,7 @@
     </row>
     <row r="22" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="98" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="99"/>
       <c r="D22" s="99"/>
@@ -12285,7 +12333,7 @@
     </row>
     <row r="23" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G23" s="101" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
@@ -12305,7 +12353,7 @@
     </row>
     <row r="25" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="105" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H25" s="50"/>
       <c r="I25" s="72"/>
@@ -12318,7 +12366,9 @@
       </c>
       <c r="C26" s="45"/>
       <c r="D26" s="127"/>
-      <c r="E26" s="293"/>
+      <c r="E26" s="293">
+        <v>0</v>
+      </c>
       <c r="F26" s="126" t="s">
         <v>72</v>
       </c>
@@ -12328,13 +12378,13 @@
         <v>0</v>
       </c>
       <c r="I26" s="115" t="str">
-        <f>IFERROR(ROUND(E26/H26,3),"-")</f>
-        <v>-</v>
+        <f>IFERROR(ROUND(E26/H26,3),"")</f>
+        <v/>
       </c>
       <c r="J26" s="116"/>
-      <c r="K26" s="117">
-        <f>IFERROR((10-I26),0)</f>
-        <v>0</v>
+      <c r="K26" s="117" t="str">
+        <f>IFERROR((10-I26),"")</f>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12356,7 +12406,9 @@
       <c r="H29" s="45"/>
       <c r="I29" s="109"/>
       <c r="J29" s="110"/>
-      <c r="K29" s="296"/>
+      <c r="K29" s="296">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L30" s="50"/>
@@ -12368,9 +12420,9 @@
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
       <c r="J31" s="112"/>
-      <c r="K31" s="103">
-        <f>K26-K29</f>
-        <v>0</v>
+      <c r="K31" s="103" t="str">
+        <f>IFERROR(K26-K29,"")</f>
+        <v/>
       </c>
       <c r="L31" s="104">
         <v>0.7</v>
@@ -12383,9 +12435,9 @@
       </c>
       <c r="J33" s="43"/>
       <c r="K33" s="43"/>
-      <c r="L33" s="77">
-        <f>ROUND(K23*0.3 + K31*0.7,3)</f>
-        <v>0</v>
+      <c r="L33" s="77" t="str">
+        <f>IFERROR(ROUND(K23*0.3 + K31*0.7,3),"")</f>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12417,7 +12469,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter>&amp;R2019-06-01</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -12427,9 +12479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
-    </sheetView>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13018,11 +13068,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="70" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -13030,11 +13080,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -13062,10 +13112,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="337"/>
-      <c r="D5" s="337"/>
-      <c r="E5" s="337"/>
-      <c r="F5" s="337"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>13</v>
@@ -13079,10 +13129,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="337"/>
-      <c r="D6" s="337"/>
-      <c r="E6" s="337"/>
-      <c r="F6" s="337"/>
+      <c r="C6" s="325"/>
+      <c r="D6" s="325"/>
+      <c r="E6" s="325"/>
+      <c r="F6" s="325"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -13111,30 +13161,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="356"/>
-      <c r="D8" s="356"/>
-      <c r="E8" s="356"/>
-      <c r="F8" s="356"/>
+      <c r="C8" s="355"/>
+      <c r="D8" s="355"/>
+      <c r="E8" s="355"/>
+      <c r="F8" s="355"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="337"/>
-      <c r="D9" s="337"/>
-      <c r="E9" s="337"/>
-      <c r="F9" s="337"/>
+      <c r="C9" s="325"/>
+      <c r="D9" s="325"/>
+      <c r="E9" s="325"/>
+      <c r="F9" s="325"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="337"/>
-      <c r="D10" s="337"/>
-      <c r="E10" s="337"/>
-      <c r="F10" s="337"/>
+      <c r="C10" s="325"/>
+      <c r="D10" s="325"/>
+      <c r="E10" s="325"/>
+      <c r="F10" s="325"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -13143,115 +13193,115 @@
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K13" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="358" t="s">
-        <v>199</v>
-      </c>
-      <c r="B14" s="367" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="368"/>
-      <c r="D14" s="368"/>
-      <c r="E14" s="368"/>
-      <c r="F14" s="368"/>
-      <c r="G14" s="368"/>
-      <c r="H14" s="368"/>
-      <c r="I14" s="369"/>
+      <c r="A14" s="357" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="366" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="367"/>
+      <c r="D14" s="367"/>
+      <c r="E14" s="367"/>
+      <c r="F14" s="367"/>
+      <c r="G14" s="367"/>
+      <c r="H14" s="367"/>
+      <c r="I14" s="368"/>
       <c r="J14" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K14" s="297"/>
       <c r="L14" s="172">
-        <f>K14*0.2</f>
+        <f>K14*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="359"/>
-      <c r="B15" s="370" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="366"/>
-      <c r="D15" s="366"/>
-      <c r="E15" s="366"/>
-      <c r="F15" s="366"/>
-      <c r="G15" s="366"/>
-      <c r="H15" s="366"/>
-      <c r="I15" s="366"/>
+      <c r="A15" s="358"/>
+      <c r="B15" s="369" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="365"/>
+      <c r="D15" s="365"/>
+      <c r="E15" s="365"/>
+      <c r="F15" s="365"/>
+      <c r="G15" s="365"/>
+      <c r="H15" s="365"/>
+      <c r="I15" s="365"/>
       <c r="J15" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K15" s="298"/>
       <c r="L15" s="278">
-        <f>K15*0.15</f>
+        <f>K15*0.25</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="358" t="s">
-        <v>200</v>
-      </c>
-      <c r="B16" s="361" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="362"/>
-      <c r="D16" s="362"/>
-      <c r="E16" s="362"/>
-      <c r="F16" s="362"/>
-      <c r="G16" s="362"/>
-      <c r="H16" s="362"/>
-      <c r="I16" s="362"/>
+      <c r="A16" s="357" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="360" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="361"/>
+      <c r="D16" s="361"/>
+      <c r="E16" s="361"/>
+      <c r="F16" s="361"/>
+      <c r="G16" s="361"/>
+      <c r="H16" s="361"/>
+      <c r="I16" s="361"/>
       <c r="J16" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K16" s="299"/>
       <c r="L16" s="170">
-        <f>K16*0.25</f>
+        <f>K16*0.35</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="359"/>
-      <c r="B17" s="363" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="364"/>
-      <c r="D17" s="364"/>
-      <c r="E17" s="364"/>
-      <c r="F17" s="364"/>
-      <c r="G17" s="364"/>
-      <c r="H17" s="364"/>
-      <c r="I17" s="364"/>
+      <c r="A17" s="358"/>
+      <c r="B17" s="362" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="363"/>
+      <c r="D17" s="363"/>
+      <c r="E17" s="363"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="363"/>
+      <c r="H17" s="363"/>
+      <c r="I17" s="363"/>
       <c r="J17" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K17" s="300"/>
       <c r="L17" s="168">
-        <f>K17*0.2</f>
+        <f>K17*0.1</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="360"/>
-      <c r="B18" s="365" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="366"/>
-      <c r="D18" s="366"/>
-      <c r="E18" s="366"/>
-      <c r="F18" s="366"/>
-      <c r="G18" s="366"/>
-      <c r="H18" s="366"/>
-      <c r="I18" s="366"/>
+      <c r="A18" s="359"/>
+      <c r="B18" s="364" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="365"/>
+      <c r="D18" s="365"/>
+      <c r="E18" s="365"/>
+      <c r="F18" s="365"/>
+      <c r="G18" s="365"/>
+      <c r="H18" s="365"/>
+      <c r="I18" s="365"/>
       <c r="J18" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="K18" s="301"/>
+        <v>188</v>
+      </c>
+      <c r="K18" s="400"/>
       <c r="L18" s="277">
-        <f>K18*0.2</f>
+        <f>K18*0</f>
         <v>0</v>
       </c>
     </row>
@@ -13291,7 +13341,7 @@
     <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="41"/>
       <c r="B21" s="74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="76"/>
@@ -13302,13 +13352,13 @@
       <c r="I21" s="76"/>
       <c r="J21" s="76"/>
       <c r="K21" s="76"/>
-      <c r="L21" s="308"/>
+      <c r="L21" s="307"/>
       <c r="M21" s="41"/>
     </row>
     <row r="22" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I23" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J23" s="43"/>
       <c r="K23" s="43"/>
@@ -13373,7 +13423,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter>&amp;R2019-06-01</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -13446,21 +13496,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13481,14 +13531,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13501,4 +13543,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\Protokoll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC28AC3-CF06-4F89-8064-C4A885516147}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE235E7E-708C-400F-9017-D5CB1EA7BC25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="966" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="780" windowWidth="29040" windowHeight="17640" tabRatio="966" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="37" r:id="rId1"/>
@@ -130,7 +130,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2819,6 +2821,102 @@
     <xf numFmtId="166" fontId="1" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="172" fontId="2" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2837,12 +2935,6 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="172" fontId="2" fillId="3" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2858,90 +2950,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3084,12 +3092,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4811,9 +4813,12 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -5448,10 +5453,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>13</v>
@@ -5465,10 +5470,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="325"/>
-      <c r="D6" s="325"/>
-      <c r="E6" s="325"/>
-      <c r="F6" s="325"/>
+      <c r="C6" s="338"/>
+      <c r="D6" s="338"/>
+      <c r="E6" s="338"/>
+      <c r="F6" s="338"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -5497,30 +5502,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="355"/>
-      <c r="D8" s="355"/>
-      <c r="E8" s="355"/>
-      <c r="F8" s="355"/>
+      <c r="C8" s="357"/>
+      <c r="D8" s="357"/>
+      <c r="E8" s="357"/>
+      <c r="F8" s="357"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="325"/>
-      <c r="D9" s="325"/>
-      <c r="E9" s="325"/>
-      <c r="F9" s="325"/>
+      <c r="C9" s="338"/>
+      <c r="D9" s="338"/>
+      <c r="E9" s="338"/>
+      <c r="F9" s="338"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="325"/>
-      <c r="D10" s="325"/>
-      <c r="E10" s="325"/>
-      <c r="F10" s="325"/>
+      <c r="C10" s="338"/>
+      <c r="D10" s="338"/>
+      <c r="E10" s="338"/>
+      <c r="F10" s="338"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -5533,19 +5538,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="357" t="s">
+      <c r="A14" s="359" t="s">
         <v>199</v>
       </c>
-      <c r="B14" s="366" t="s">
+      <c r="B14" s="368" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="367"/>
-      <c r="D14" s="367"/>
-      <c r="E14" s="367"/>
-      <c r="F14" s="367"/>
-      <c r="G14" s="367"/>
-      <c r="H14" s="367"/>
-      <c r="I14" s="368"/>
+      <c r="C14" s="369"/>
+      <c r="D14" s="369"/>
+      <c r="E14" s="369"/>
+      <c r="F14" s="369"/>
+      <c r="G14" s="369"/>
+      <c r="H14" s="369"/>
+      <c r="I14" s="370"/>
       <c r="J14" s="20" t="s">
         <v>155</v>
       </c>
@@ -5558,17 +5563,17 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="359"/>
-      <c r="B15" s="369" t="s">
+      <c r="A15" s="361"/>
+      <c r="B15" s="371" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="365"/>
-      <c r="D15" s="365"/>
-      <c r="E15" s="365"/>
-      <c r="F15" s="365"/>
-      <c r="G15" s="365"/>
-      <c r="H15" s="365"/>
-      <c r="I15" s="365"/>
+      <c r="C15" s="367"/>
+      <c r="D15" s="367"/>
+      <c r="E15" s="367"/>
+      <c r="F15" s="367"/>
+      <c r="G15" s="367"/>
+      <c r="H15" s="367"/>
+      <c r="I15" s="367"/>
       <c r="J15" s="35" t="s">
         <v>156</v>
       </c>
@@ -5581,19 +5586,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="357" t="s">
+      <c r="A16" s="359" t="s">
         <v>200</v>
       </c>
-      <c r="B16" s="360" t="s">
+      <c r="B16" s="362" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="361"/>
-      <c r="D16" s="361"/>
-      <c r="E16" s="361"/>
-      <c r="F16" s="361"/>
-      <c r="G16" s="361"/>
-      <c r="H16" s="361"/>
-      <c r="I16" s="361"/>
+      <c r="C16" s="363"/>
+      <c r="D16" s="363"/>
+      <c r="E16" s="363"/>
+      <c r="F16" s="363"/>
+      <c r="G16" s="363"/>
+      <c r="H16" s="363"/>
+      <c r="I16" s="363"/>
       <c r="J16" s="20" t="s">
         <v>187</v>
       </c>
@@ -5606,17 +5611,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="358"/>
-      <c r="B17" s="362" t="s">
+      <c r="A17" s="360"/>
+      <c r="B17" s="364" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="363"/>
-      <c r="D17" s="363"/>
-      <c r="E17" s="363"/>
-      <c r="F17" s="363"/>
-      <c r="G17" s="363"/>
-      <c r="H17" s="363"/>
-      <c r="I17" s="363"/>
+      <c r="C17" s="365"/>
+      <c r="D17" s="365"/>
+      <c r="E17" s="365"/>
+      <c r="F17" s="365"/>
+      <c r="G17" s="365"/>
+      <c r="H17" s="365"/>
+      <c r="I17" s="365"/>
       <c r="J17" s="23" t="s">
         <v>196</v>
       </c>
@@ -5629,21 +5634,21 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="359"/>
-      <c r="B18" s="364" t="s">
+      <c r="A18" s="361"/>
+      <c r="B18" s="366" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="365"/>
-      <c r="D18" s="365"/>
-      <c r="E18" s="365"/>
-      <c r="F18" s="365"/>
-      <c r="G18" s="365"/>
-      <c r="H18" s="365"/>
-      <c r="I18" s="365"/>
+      <c r="C18" s="367"/>
+      <c r="D18" s="367"/>
+      <c r="E18" s="367"/>
+      <c r="F18" s="367"/>
+      <c r="G18" s="367"/>
+      <c r="H18" s="367"/>
+      <c r="I18" s="367"/>
       <c r="J18" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="K18" s="400">
+      <c r="K18" s="311">
         <v>0</v>
       </c>
       <c r="L18" s="277">
@@ -6415,10 +6420,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>13</v>
@@ -6432,10 +6437,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="325"/>
-      <c r="D6" s="325"/>
-      <c r="E6" s="325"/>
-      <c r="F6" s="325"/>
+      <c r="C6" s="338"/>
+      <c r="D6" s="338"/>
+      <c r="E6" s="338"/>
+      <c r="F6" s="338"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -6464,30 +6469,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="355"/>
-      <c r="D8" s="355"/>
-      <c r="E8" s="355"/>
-      <c r="F8" s="355"/>
+      <c r="C8" s="357"/>
+      <c r="D8" s="357"/>
+      <c r="E8" s="357"/>
+      <c r="F8" s="357"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="325"/>
-      <c r="D9" s="325"/>
-      <c r="E9" s="325"/>
-      <c r="F9" s="325"/>
+      <c r="C9" s="338"/>
+      <c r="D9" s="338"/>
+      <c r="E9" s="338"/>
+      <c r="F9" s="338"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="325"/>
-      <c r="D10" s="325"/>
-      <c r="E10" s="325"/>
-      <c r="F10" s="325"/>
+      <c r="C10" s="338"/>
+      <c r="D10" s="338"/>
+      <c r="E10" s="338"/>
+      <c r="F10" s="338"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6500,19 +6505,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="357" t="s">
+      <c r="A14" s="359" t="s">
         <v>199</v>
       </c>
-      <c r="B14" s="366" t="s">
+      <c r="B14" s="368" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="367"/>
-      <c r="D14" s="367"/>
-      <c r="E14" s="367"/>
-      <c r="F14" s="367"/>
-      <c r="G14" s="367"/>
-      <c r="H14" s="367"/>
-      <c r="I14" s="368"/>
+      <c r="C14" s="369"/>
+      <c r="D14" s="369"/>
+      <c r="E14" s="369"/>
+      <c r="F14" s="369"/>
+      <c r="G14" s="369"/>
+      <c r="H14" s="369"/>
+      <c r="I14" s="370"/>
       <c r="J14" s="20" t="s">
         <v>155</v>
       </c>
@@ -6525,17 +6530,17 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="359"/>
-      <c r="B15" s="369" t="s">
+      <c r="A15" s="361"/>
+      <c r="B15" s="371" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="365"/>
-      <c r="D15" s="365"/>
-      <c r="E15" s="365"/>
-      <c r="F15" s="365"/>
-      <c r="G15" s="365"/>
-      <c r="H15" s="365"/>
-      <c r="I15" s="365"/>
+      <c r="C15" s="367"/>
+      <c r="D15" s="367"/>
+      <c r="E15" s="367"/>
+      <c r="F15" s="367"/>
+      <c r="G15" s="367"/>
+      <c r="H15" s="367"/>
+      <c r="I15" s="367"/>
       <c r="J15" s="35" t="s">
         <v>156</v>
       </c>
@@ -6548,19 +6553,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="357" t="s">
+      <c r="A16" s="359" t="s">
         <v>200</v>
       </c>
-      <c r="B16" s="360" t="s">
+      <c r="B16" s="362" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="361"/>
-      <c r="D16" s="361"/>
-      <c r="E16" s="361"/>
-      <c r="F16" s="361"/>
-      <c r="G16" s="361"/>
-      <c r="H16" s="361"/>
-      <c r="I16" s="361"/>
+      <c r="C16" s="363"/>
+      <c r="D16" s="363"/>
+      <c r="E16" s="363"/>
+      <c r="F16" s="363"/>
+      <c r="G16" s="363"/>
+      <c r="H16" s="363"/>
+      <c r="I16" s="363"/>
       <c r="J16" s="20" t="s">
         <v>187</v>
       </c>
@@ -6573,17 +6578,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="358"/>
-      <c r="B17" s="362" t="s">
+      <c r="A17" s="360"/>
+      <c r="B17" s="364" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="363"/>
-      <c r="D17" s="363"/>
-      <c r="E17" s="363"/>
-      <c r="F17" s="363"/>
-      <c r="G17" s="363"/>
-      <c r="H17" s="363"/>
-      <c r="I17" s="363"/>
+      <c r="C17" s="365"/>
+      <c r="D17" s="365"/>
+      <c r="E17" s="365"/>
+      <c r="F17" s="365"/>
+      <c r="G17" s="365"/>
+      <c r="H17" s="365"/>
+      <c r="I17" s="365"/>
       <c r="J17" s="23" t="s">
         <v>196</v>
       </c>
@@ -6596,21 +6601,21 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="359"/>
-      <c r="B18" s="364" t="s">
+      <c r="A18" s="361"/>
+      <c r="B18" s="366" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="365"/>
-      <c r="D18" s="365"/>
-      <c r="E18" s="365"/>
-      <c r="F18" s="365"/>
-      <c r="G18" s="365"/>
-      <c r="H18" s="365"/>
-      <c r="I18" s="365"/>
+      <c r="C18" s="367"/>
+      <c r="D18" s="367"/>
+      <c r="E18" s="367"/>
+      <c r="F18" s="367"/>
+      <c r="G18" s="367"/>
+      <c r="H18" s="367"/>
+      <c r="I18" s="367"/>
       <c r="J18" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="K18" s="400">
+      <c r="K18" s="311">
         <v>0</v>
       </c>
       <c r="L18" s="277">
@@ -6719,11 +6724,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
@@ -6731,6 +6731,11 @@
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6744,7 +6749,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr codeName="Blad9"/>
+  <sheetPr codeName="Blad9">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
@@ -6812,10 +6819,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>13</v>
@@ -6829,10 +6836,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="325"/>
-      <c r="D6" s="325"/>
-      <c r="E6" s="325"/>
-      <c r="F6" s="325"/>
+      <c r="C6" s="338"/>
+      <c r="D6" s="338"/>
+      <c r="E6" s="338"/>
+      <c r="F6" s="338"/>
       <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6855,30 +6862,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="355"/>
-      <c r="D8" s="355"/>
-      <c r="E8" s="355"/>
-      <c r="F8" s="355"/>
+      <c r="C8" s="357"/>
+      <c r="D8" s="357"/>
+      <c r="E8" s="357"/>
+      <c r="F8" s="357"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="325"/>
-      <c r="D9" s="325"/>
-      <c r="E9" s="325"/>
-      <c r="F9" s="325"/>
+      <c r="C9" s="338"/>
+      <c r="D9" s="338"/>
+      <c r="E9" s="338"/>
+      <c r="F9" s="338"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="325"/>
-      <c r="D10" s="325"/>
-      <c r="E10" s="325"/>
-      <c r="F10" s="325"/>
+      <c r="C10" s="338"/>
+      <c r="D10" s="338"/>
+      <c r="E10" s="338"/>
+      <c r="F10" s="338"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6904,14 +6911,14 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="370" t="s">
+      <c r="A15" s="372" t="s">
         <v>183</v>
       </c>
-      <c r="B15" s="371"/>
-      <c r="C15" s="371"/>
-      <c r="D15" s="371"/>
-      <c r="E15" s="371"/>
-      <c r="F15" s="372"/>
+      <c r="B15" s="373"/>
+      <c r="C15" s="373"/>
+      <c r="D15" s="373"/>
+      <c r="E15" s="373"/>
+      <c r="F15" s="374"/>
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
       <c r="I15" s="11"/>
@@ -6920,14 +6927,14 @@
       <c r="L15" s="292"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="370" t="s">
+      <c r="A16" s="372" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="371"/>
-      <c r="C16" s="371"/>
-      <c r="D16" s="371"/>
-      <c r="E16" s="371"/>
-      <c r="F16" s="372"/>
+      <c r="B16" s="373"/>
+      <c r="C16" s="373"/>
+      <c r="D16" s="373"/>
+      <c r="E16" s="373"/>
+      <c r="F16" s="374"/>
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
       <c r="I16" s="11"/>
@@ -6988,27 +6995,27 @@
       <c r="L20" s="163"/>
     </row>
     <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="376" t="s">
+      <c r="A21" s="378" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="377"/>
-      <c r="C21" s="377"/>
-      <c r="D21" s="377"/>
-      <c r="E21" s="377"/>
-      <c r="F21" s="377"/>
-      <c r="G21" s="377"/>
-      <c r="H21" s="377"/>
-      <c r="I21" s="377"/>
+      <c r="B21" s="379"/>
+      <c r="C21" s="379"/>
+      <c r="D21" s="379"/>
+      <c r="E21" s="379"/>
+      <c r="F21" s="379"/>
+      <c r="G21" s="379"/>
+      <c r="H21" s="379"/>
+      <c r="I21" s="379"/>
       <c r="J21" s="162"/>
       <c r="K21" s="161"/>
       <c r="L21" s="8"/>
       <c r="R21" s="156"/>
     </row>
     <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="384" t="s">
+      <c r="A22" s="386" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="385"/>
+      <c r="B22" s="387"/>
       <c r="C22" s="160"/>
       <c r="D22" s="160"/>
       <c r="E22" s="160"/>
@@ -7022,15 +7029,15 @@
       <c r="R22" s="156"/>
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="380" t="s">
+      <c r="A23" s="382" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="381"/>
+      <c r="B23" s="383"/>
       <c r="C23" s="301"/>
-      <c r="D23" s="378" t="s">
+      <c r="D23" s="380" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="379"/>
+      <c r="E23" s="381"/>
       <c r="F23" s="302"/>
       <c r="G23" s="255" t="s">
         <v>101</v>
@@ -7053,11 +7060,11 @@
       <c r="R23" s="156"/>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="382" t="s">
+      <c r="A24" s="384" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="383"/>
-      <c r="C24" s="383"/>
+      <c r="B24" s="385"/>
+      <c r="C24" s="385"/>
       <c r="D24" s="259"/>
       <c r="E24" s="259"/>
       <c r="F24" s="259"/>
@@ -7069,19 +7076,19 @@
       <c r="R24" s="156"/>
     </row>
     <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="373" t="s">
+      <c r="A25" s="375" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="374"/>
-      <c r="C25" s="374"/>
-      <c r="D25" s="374"/>
-      <c r="E25" s="374"/>
-      <c r="F25" s="374"/>
-      <c r="G25" s="374"/>
-      <c r="H25" s="374"/>
-      <c r="I25" s="374"/>
-      <c r="J25" s="374"/>
-      <c r="K25" s="375"/>
+      <c r="B25" s="376"/>
+      <c r="C25" s="376"/>
+      <c r="D25" s="376"/>
+      <c r="E25" s="376"/>
+      <c r="F25" s="376"/>
+      <c r="G25" s="376"/>
+      <c r="H25" s="376"/>
+      <c r="I25" s="376"/>
+      <c r="J25" s="376"/>
+      <c r="K25" s="377"/>
       <c r="L25" s="9">
         <f>IFERROR(K23-K24,0)</f>
         <v>0</v>
@@ -7214,7 +7221,7 @@
     <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
     <oddFooter>&amp;R2019-06-01</oddFooter>
@@ -7225,7 +7232,9 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr codeName="Blad10"/>
+  <sheetPr codeName="Blad10">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
@@ -7819,17 +7828,17 @@
   <sheetData>
     <row r="1" spans="1:12" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="390" t="s">
+      <c r="A2" s="392" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="390"/>
-      <c r="C2" s="390"/>
-      <c r="D2" s="390"/>
-      <c r="E2" s="390"/>
-      <c r="F2" s="390"/>
-      <c r="G2" s="390"/>
-      <c r="H2" s="390"/>
-      <c r="I2" s="390"/>
+      <c r="B2" s="392"/>
+      <c r="C2" s="392"/>
+      <c r="D2" s="392"/>
+      <c r="E2" s="392"/>
+      <c r="F2" s="392"/>
+      <c r="G2" s="392"/>
+      <c r="H2" s="392"/>
+      <c r="I2" s="392"/>
       <c r="J2" s="166"/>
       <c r="K2" s="166"/>
       <c r="L2" s="166"/>
@@ -7874,10 +7883,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
       <c r="G5" s="165"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
@@ -7892,10 +7901,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="325"/>
-      <c r="D6" s="325"/>
-      <c r="E6" s="325"/>
-      <c r="F6" s="325"/>
+      <c r="C6" s="338"/>
+      <c r="D6" s="338"/>
+      <c r="E6" s="338"/>
+      <c r="F6" s="338"/>
       <c r="G6" s="164"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14" t="s">
@@ -7926,10 +7935,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="355"/>
-      <c r="D8" s="355"/>
-      <c r="E8" s="355"/>
-      <c r="F8" s="355"/>
+      <c r="C8" s="357"/>
+      <c r="D8" s="357"/>
+      <c r="E8" s="357"/>
+      <c r="F8" s="357"/>
       <c r="G8" s="174"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -7944,10 +7953,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="325"/>
-      <c r="D9" s="325"/>
-      <c r="E9" s="325"/>
-      <c r="F9" s="325"/>
+      <c r="C9" s="338"/>
+      <c r="D9" s="338"/>
+      <c r="E9" s="338"/>
+      <c r="F9" s="338"/>
       <c r="G9" s="174"/>
       <c r="H9" s="164"/>
       <c r="I9" s="164"/>
@@ -7960,15 +7969,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="325"/>
-      <c r="D10" s="325"/>
-      <c r="E10" s="325"/>
-      <c r="F10" s="325"/>
+      <c r="C10" s="338"/>
+      <c r="D10" s="338"/>
+      <c r="E10" s="338"/>
+      <c r="F10" s="338"/>
       <c r="G10" s="174"/>
       <c r="H10" s="164"/>
       <c r="I10" s="164"/>
-      <c r="J10" s="386"/>
-      <c r="K10" s="386"/>
+      <c r="J10" s="388"/>
+      <c r="K10" s="388"/>
       <c r="L10" s="175"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -7995,10 +8004,10 @@
       <c r="C13" s="282" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="391" t="s">
+      <c r="D13" s="393" t="s">
         <v>159</v>
       </c>
-      <c r="E13" s="392"/>
+      <c r="E13" s="394"/>
       <c r="F13" s="282" t="s">
         <v>160</v>
       </c>
@@ -8011,17 +8020,17 @@
       <c r="I13" s="284" t="s">
         <v>127</v>
       </c>
-      <c r="J13" s="395" t="s">
+      <c r="J13" s="397" t="s">
         <v>167</v>
       </c>
-      <c r="K13" s="396"/>
+      <c r="K13" s="398"/>
       <c r="L13" s="173"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="303"/>
       <c r="C14" s="304"/>
-      <c r="D14" s="393"/>
-      <c r="E14" s="394"/>
+      <c r="D14" s="395"/>
+      <c r="E14" s="396"/>
       <c r="F14" s="304"/>
       <c r="G14" s="304"/>
       <c r="H14" s="305"/>
@@ -8029,11 +8038,11 @@
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="397">
+      <c r="J14" s="399">
         <f>I14/6</f>
         <v>0</v>
       </c>
-      <c r="K14" s="398"/>
+      <c r="K14" s="400"/>
       <c r="L14" s="173"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8049,16 +8058,16 @@
       <c r="A17" s="276" t="s">
         <v>166</v>
       </c>
-      <c r="B17" s="387" t="s">
+      <c r="B17" s="389" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="388"/>
-      <c r="D17" s="388"/>
-      <c r="E17" s="388"/>
-      <c r="F17" s="388"/>
-      <c r="G17" s="388"/>
-      <c r="H17" s="388"/>
-      <c r="I17" s="389"/>
+      <c r="C17" s="390"/>
+      <c r="D17" s="390"/>
+      <c r="E17" s="390"/>
+      <c r="F17" s="390"/>
+      <c r="G17" s="390"/>
+      <c r="H17" s="390"/>
+      <c r="I17" s="391"/>
       <c r="J17" s="171" t="s">
         <v>164</v>
       </c>
@@ -8072,19 +8081,19 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="329" t="s">
+      <c r="A18" s="315" t="s">
         <v>202</v>
       </c>
-      <c r="B18" s="360" t="s">
+      <c r="B18" s="362" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="361"/>
-      <c r="D18" s="361"/>
-      <c r="E18" s="361"/>
-      <c r="F18" s="361"/>
-      <c r="G18" s="361"/>
-      <c r="H18" s="361"/>
-      <c r="I18" s="361"/>
+      <c r="C18" s="363"/>
+      <c r="D18" s="363"/>
+      <c r="E18" s="363"/>
+      <c r="F18" s="363"/>
+      <c r="G18" s="363"/>
+      <c r="H18" s="363"/>
+      <c r="I18" s="363"/>
       <c r="J18" s="171" t="s">
         <v>169</v>
       </c>
@@ -8095,17 +8104,17 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="330"/>
-      <c r="B19" s="362" t="s">
+      <c r="A19" s="316"/>
+      <c r="B19" s="364" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="363"/>
-      <c r="D19" s="363"/>
-      <c r="E19" s="363"/>
-      <c r="F19" s="363"/>
-      <c r="G19" s="363"/>
-      <c r="H19" s="363"/>
-      <c r="I19" s="363"/>
+      <c r="C19" s="365"/>
+      <c r="D19" s="365"/>
+      <c r="E19" s="365"/>
+      <c r="F19" s="365"/>
+      <c r="G19" s="365"/>
+      <c r="H19" s="365"/>
+      <c r="I19" s="365"/>
       <c r="J19" s="169" t="s">
         <v>170</v>
       </c>
@@ -8227,6 +8236,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A2:I2"/>
@@ -8236,15 +8251,9 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
     <oddFooter>&amp;R2019-06-01</oddFooter>
@@ -8327,10 +8336,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="325"/>
-      <c r="D4" s="325"/>
-      <c r="E4" s="325"/>
-      <c r="F4" s="325"/>
+      <c r="C4" s="338"/>
+      <c r="D4" s="338"/>
+      <c r="E4" s="338"/>
+      <c r="F4" s="338"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14" t="s">
         <v>13</v>
@@ -8344,10 +8353,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
       <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8370,10 +8379,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="325"/>
-      <c r="D7" s="325"/>
-      <c r="E7" s="325"/>
-      <c r="F7" s="325"/>
+      <c r="C7" s="338"/>
+      <c r="D7" s="338"/>
+      <c r="E7" s="338"/>
+      <c r="F7" s="338"/>
       <c r="K7" s="50"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -8381,10 +8390,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="11"/>
-      <c r="C8" s="325"/>
-      <c r="D8" s="325"/>
-      <c r="E8" s="325"/>
-      <c r="F8" s="325"/>
+      <c r="C8" s="338"/>
+      <c r="D8" s="338"/>
+      <c r="E8" s="338"/>
+      <c r="F8" s="338"/>
       <c r="K8" s="50"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -8392,10 +8401,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="325"/>
-      <c r="D9" s="325"/>
-      <c r="E9" s="325"/>
-      <c r="F9" s="325"/>
+      <c r="C9" s="338"/>
+      <c r="D9" s="338"/>
+      <c r="E9" s="338"/>
+      <c r="F9" s="338"/>
       <c r="K9" s="50"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -8413,215 +8422,215 @@
       <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H12" s="326" t="s">
+      <c r="H12" s="339" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="327"/>
-      <c r="J12" s="328" t="s">
+      <c r="I12" s="340"/>
+      <c r="J12" s="341" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="328"/>
-      <c r="L12" s="328"/>
+      <c r="K12" s="341"/>
+      <c r="L12" s="341"/>
     </row>
     <row r="13" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="329" t="s">
+      <c r="A13" s="315" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="332" t="s">
+      <c r="B13" s="321" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="332" t="s">
+      <c r="C13" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="332"/>
-      <c r="E13" s="332"/>
-      <c r="F13" s="334" t="s">
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="330" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="335"/>
+      <c r="G13" s="331"/>
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="316" t="s">
+      <c r="J13" s="332" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="318"/>
-      <c r="L13" s="312">
+      <c r="K13" s="348"/>
+      <c r="L13" s="344">
         <f>ROUND(K13*0.3,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="330"/>
-      <c r="B14" s="333"/>
-      <c r="C14" s="333" t="s">
+      <c r="A14" s="316"/>
+      <c r="B14" s="326"/>
+      <c r="C14" s="326" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="333"/>
-      <c r="E14" s="333"/>
-      <c r="F14" s="336" t="s">
+      <c r="D14" s="326"/>
+      <c r="E14" s="326"/>
+      <c r="F14" s="327" t="s">
         <v>142</v>
       </c>
-      <c r="G14" s="337"/>
+      <c r="G14" s="328"/>
       <c r="H14" s="21"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="317"/>
-      <c r="K14" s="319"/>
-      <c r="L14" s="313"/>
+      <c r="J14" s="333"/>
+      <c r="K14" s="349"/>
+      <c r="L14" s="345"/>
     </row>
     <row r="15" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="330"/>
-      <c r="B15" s="333"/>
-      <c r="C15" s="333" t="s">
+      <c r="A15" s="316"/>
+      <c r="B15" s="326"/>
+      <c r="C15" s="326" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="333"/>
-      <c r="E15" s="333"/>
-      <c r="F15" s="336" t="s">
+      <c r="D15" s="326"/>
+      <c r="E15" s="326"/>
+      <c r="F15" s="327" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="337"/>
+      <c r="G15" s="328"/>
       <c r="H15" s="24"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="317"/>
-      <c r="K15" s="320"/>
-      <c r="L15" s="313"/>
+      <c r="J15" s="333"/>
+      <c r="K15" s="350"/>
+      <c r="L15" s="345"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="330"/>
-      <c r="B16" s="338" t="s">
+      <c r="A16" s="316"/>
+      <c r="B16" s="334" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="333" t="s">
+      <c r="C16" s="326" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="333"/>
-      <c r="E16" s="333"/>
-      <c r="F16" s="336" t="s">
+      <c r="D16" s="326"/>
+      <c r="E16" s="326"/>
+      <c r="F16" s="327" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="337"/>
+      <c r="G16" s="328"/>
       <c r="H16" s="26"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="317" t="s">
+      <c r="J16" s="333" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="311"/>
-      <c r="L16" s="313">
+      <c r="K16" s="343"/>
+      <c r="L16" s="345">
         <f>ROUND(K16*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="330"/>
-      <c r="B17" s="339"/>
-      <c r="C17" s="333" t="s">
+      <c r="A17" s="316"/>
+      <c r="B17" s="335"/>
+      <c r="C17" s="326" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="333"/>
-      <c r="E17" s="333"/>
-      <c r="F17" s="336" t="s">
+      <c r="D17" s="326"/>
+      <c r="E17" s="326"/>
+      <c r="F17" s="327" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="337"/>
+      <c r="G17" s="328"/>
       <c r="H17" s="21"/>
       <c r="I17" s="22"/>
-      <c r="J17" s="317"/>
-      <c r="K17" s="311"/>
-      <c r="L17" s="313"/>
+      <c r="J17" s="333"/>
+      <c r="K17" s="343"/>
+      <c r="L17" s="345"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="331"/>
-      <c r="B18" s="340"/>
-      <c r="C18" s="342" t="s">
+      <c r="A18" s="317"/>
+      <c r="B18" s="336"/>
+      <c r="C18" s="329" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="342"/>
-      <c r="E18" s="342"/>
-      <c r="F18" s="323" t="s">
+      <c r="D18" s="329"/>
+      <c r="E18" s="329"/>
+      <c r="F18" s="324" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="324"/>
+      <c r="G18" s="325"/>
       <c r="H18" s="28"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="341"/>
-      <c r="K18" s="321"/>
-      <c r="L18" s="322"/>
+      <c r="J18" s="337"/>
+      <c r="K18" s="351"/>
+      <c r="L18" s="352"/>
     </row>
     <row r="19" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="329" t="s">
+      <c r="A19" s="315" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="346" t="s">
+      <c r="B19" s="318" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="332" t="s">
+      <c r="C19" s="321" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="332"/>
-      <c r="E19" s="332"/>
-      <c r="F19" s="349" t="s">
+      <c r="D19" s="321"/>
+      <c r="E19" s="321"/>
+      <c r="F19" s="322" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="350"/>
+      <c r="G19" s="323"/>
       <c r="H19" s="30"/>
       <c r="I19" s="31"/>
-      <c r="J19" s="316" t="s">
+      <c r="J19" s="332" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="310"/>
-      <c r="L19" s="312">
+      <c r="K19" s="342"/>
+      <c r="L19" s="344">
         <f>ROUND(K19*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="330"/>
-      <c r="B20" s="347"/>
-      <c r="C20" s="333" t="s">
+      <c r="A20" s="316"/>
+      <c r="B20" s="319"/>
+      <c r="C20" s="326" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="333"/>
-      <c r="E20" s="333"/>
-      <c r="F20" s="336" t="s">
+      <c r="D20" s="326"/>
+      <c r="E20" s="326"/>
+      <c r="F20" s="327" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="337"/>
+      <c r="G20" s="328"/>
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
-      <c r="J20" s="317"/>
-      <c r="K20" s="311"/>
-      <c r="L20" s="313"/>
+      <c r="J20" s="333"/>
+      <c r="K20" s="343"/>
+      <c r="L20" s="345"/>
     </row>
     <row r="21" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="330"/>
-      <c r="B21" s="348"/>
-      <c r="C21" s="333" t="s">
+      <c r="A21" s="316"/>
+      <c r="B21" s="320"/>
+      <c r="C21" s="326" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="333"/>
-      <c r="E21" s="333"/>
-      <c r="F21" s="336" t="s">
+      <c r="D21" s="326"/>
+      <c r="E21" s="326"/>
+      <c r="F21" s="327" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="337"/>
+      <c r="G21" s="328"/>
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="317"/>
-      <c r="K21" s="311"/>
-      <c r="L21" s="313"/>
+      <c r="J21" s="333"/>
+      <c r="K21" s="343"/>
+      <c r="L21" s="345"/>
     </row>
     <row r="22" spans="1:12" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="331"/>
+      <c r="A22" s="317"/>
       <c r="B22" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="342"/>
-      <c r="D22" s="342"/>
-      <c r="E22" s="342"/>
-      <c r="F22" s="323" t="s">
+      <c r="C22" s="329"/>
+      <c r="D22" s="329"/>
+      <c r="E22" s="329"/>
+      <c r="F22" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="324"/>
+      <c r="G22" s="325"/>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
       <c r="J22" s="35" t="s">
@@ -8640,15 +8649,15 @@
       <c r="B23" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="343" t="s">
+      <c r="C23" s="312" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="343"/>
-      <c r="E23" s="343"/>
-      <c r="F23" s="344" t="s">
+      <c r="D23" s="312"/>
+      <c r="E23" s="312"/>
+      <c r="F23" s="313" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="345"/>
+      <c r="G23" s="314"/>
       <c r="H23" s="37"/>
       <c r="I23" s="38"/>
       <c r="J23" s="39" t="s">
@@ -8687,11 +8696,11 @@
         <v>5</v>
       </c>
       <c r="J25" s="43"/>
-      <c r="K25" s="314">
+      <c r="K25" s="346">
         <f>SUM(L13:L23)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="315"/>
+      <c r="L25" s="347"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K26" s="274"/>
@@ -8718,18 +8727,22 @@
     <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:E13"/>
@@ -8746,22 +8759,18 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C22:E22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8846,10 +8855,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="159"/>
-      <c r="C5" s="351"/>
-      <c r="D5" s="351"/>
-      <c r="E5" s="351"/>
-      <c r="F5" s="351"/>
+      <c r="C5" s="353"/>
+      <c r="D5" s="353"/>
+      <c r="E5" s="353"/>
+      <c r="F5" s="353"/>
       <c r="H5" s="178"/>
       <c r="I5" s="179" t="s">
         <v>13</v>
@@ -8863,10 +8872,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="159"/>
-      <c r="C6" s="351"/>
-      <c r="D6" s="351"/>
-      <c r="E6" s="351"/>
-      <c r="F6" s="351"/>
+      <c r="C6" s="353"/>
+      <c r="D6" s="353"/>
+      <c r="E6" s="353"/>
+      <c r="F6" s="353"/>
       <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8889,30 +8898,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="183"/>
-      <c r="C8" s="351"/>
-      <c r="D8" s="351"/>
-      <c r="E8" s="351"/>
-      <c r="F8" s="351"/>
+      <c r="C8" s="353"/>
+      <c r="D8" s="353"/>
+      <c r="E8" s="353"/>
+      <c r="F8" s="353"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="159" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="159"/>
-      <c r="C9" s="351"/>
-      <c r="D9" s="351"/>
-      <c r="E9" s="351"/>
-      <c r="F9" s="351"/>
+      <c r="C9" s="353"/>
+      <c r="D9" s="353"/>
+      <c r="E9" s="353"/>
+      <c r="F9" s="353"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="159" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="159"/>
-      <c r="C10" s="351"/>
-      <c r="D10" s="351"/>
-      <c r="E10" s="351"/>
-      <c r="F10" s="351"/>
+      <c r="C10" s="353"/>
+      <c r="D10" s="353"/>
+      <c r="E10" s="353"/>
+      <c r="F10" s="353"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9243,10 +9252,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>13</v>
@@ -9260,10 +9269,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="325"/>
-      <c r="D6" s="325"/>
-      <c r="E6" s="325"/>
-      <c r="F6" s="325"/>
+      <c r="C6" s="338"/>
+      <c r="D6" s="338"/>
+      <c r="E6" s="338"/>
+      <c r="F6" s="338"/>
       <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9286,30 +9295,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="355"/>
-      <c r="D8" s="355"/>
-      <c r="E8" s="355"/>
-      <c r="F8" s="355"/>
+      <c r="C8" s="357"/>
+      <c r="D8" s="357"/>
+      <c r="E8" s="357"/>
+      <c r="F8" s="357"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="325"/>
-      <c r="D9" s="325"/>
-      <c r="E9" s="325"/>
-      <c r="F9" s="325"/>
+      <c r="C9" s="338"/>
+      <c r="D9" s="338"/>
+      <c r="E9" s="338"/>
+      <c r="F9" s="338"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="325"/>
-      <c r="D10" s="325"/>
-      <c r="E10" s="325"/>
-      <c r="F10" s="325"/>
+      <c r="C10" s="338"/>
+      <c r="D10" s="338"/>
+      <c r="E10" s="338"/>
+      <c r="F10" s="338"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9445,13 +9454,13 @@
       <c r="L21" s="292"/>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="352" t="s">
+      <c r="A22" s="354" t="s">
         <v>194</v>
       </c>
-      <c r="B22" s="353"/>
-      <c r="C22" s="353"/>
-      <c r="D22" s="353"/>
-      <c r="E22" s="354"/>
+      <c r="B22" s="355"/>
+      <c r="C22" s="355"/>
+      <c r="D22" s="355"/>
+      <c r="E22" s="356"/>
       <c r="F22" s="53"/>
       <c r="G22" s="53"/>
       <c r="H22" s="53"/>
@@ -9647,10 +9656,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>13</v>
@@ -9664,10 +9673,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="325"/>
-      <c r="D6" s="325"/>
-      <c r="E6" s="325"/>
-      <c r="F6" s="325"/>
+      <c r="C6" s="338"/>
+      <c r="D6" s="338"/>
+      <c r="E6" s="338"/>
+      <c r="F6" s="338"/>
       <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9690,30 +9699,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="355"/>
-      <c r="D8" s="355"/>
-      <c r="E8" s="355"/>
-      <c r="F8" s="355"/>
+      <c r="C8" s="357"/>
+      <c r="D8" s="357"/>
+      <c r="E8" s="357"/>
+      <c r="F8" s="357"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="325"/>
-      <c r="D9" s="325"/>
-      <c r="E9" s="325"/>
-      <c r="F9" s="325"/>
+      <c r="C9" s="338"/>
+      <c r="D9" s="338"/>
+      <c r="E9" s="338"/>
+      <c r="F9" s="338"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="325"/>
-      <c r="D10" s="325"/>
-      <c r="E10" s="325"/>
-      <c r="F10" s="325"/>
+      <c r="C10" s="338"/>
+      <c r="D10" s="338"/>
+      <c r="E10" s="338"/>
+      <c r="F10" s="338"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10049,10 +10058,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="159"/>
-      <c r="C5" s="351"/>
-      <c r="D5" s="351"/>
-      <c r="E5" s="351"/>
-      <c r="F5" s="351"/>
+      <c r="C5" s="353"/>
+      <c r="D5" s="353"/>
+      <c r="E5" s="353"/>
+      <c r="F5" s="353"/>
       <c r="H5" s="178"/>
       <c r="I5" s="179" t="s">
         <v>13</v>
@@ -10066,10 +10075,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="159"/>
-      <c r="C6" s="351"/>
-      <c r="D6" s="351"/>
-      <c r="E6" s="351"/>
-      <c r="F6" s="351"/>
+      <c r="C6" s="353"/>
+      <c r="D6" s="353"/>
+      <c r="E6" s="353"/>
+      <c r="F6" s="353"/>
       <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10092,30 +10101,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="183"/>
-      <c r="C8" s="356"/>
-      <c r="D8" s="356"/>
-      <c r="E8" s="356"/>
-      <c r="F8" s="356"/>
+      <c r="C8" s="358"/>
+      <c r="D8" s="358"/>
+      <c r="E8" s="358"/>
+      <c r="F8" s="358"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="159" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="159"/>
-      <c r="C9" s="351"/>
-      <c r="D9" s="351"/>
-      <c r="E9" s="351"/>
-      <c r="F9" s="351"/>
+      <c r="C9" s="353"/>
+      <c r="D9" s="353"/>
+      <c r="E9" s="353"/>
+      <c r="F9" s="353"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="159" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="159"/>
-      <c r="C10" s="351"/>
-      <c r="D10" s="351"/>
-      <c r="E10" s="351"/>
-      <c r="F10" s="351"/>
+      <c r="C10" s="353"/>
+      <c r="D10" s="353"/>
+      <c r="E10" s="353"/>
+      <c r="F10" s="353"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -10224,7 +10233,7 @@
         <v/>
       </c>
       <c r="J26" s="116"/>
-      <c r="K26" s="399" t="str">
+      <c r="K26" s="310" t="str">
         <f>IFERROR((10-I26),"")</f>
         <v/>
       </c>
@@ -10326,8 +10335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -11024,10 +11033,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>13</v>
@@ -11041,10 +11050,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="325"/>
-      <c r="D6" s="325"/>
-      <c r="E6" s="325"/>
-      <c r="F6" s="325"/>
+      <c r="C6" s="338"/>
+      <c r="D6" s="338"/>
+      <c r="E6" s="338"/>
+      <c r="F6" s="338"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -11073,30 +11082,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="355"/>
-      <c r="D8" s="355"/>
-      <c r="E8" s="355"/>
-      <c r="F8" s="355"/>
+      <c r="C8" s="357"/>
+      <c r="D8" s="357"/>
+      <c r="E8" s="357"/>
+      <c r="F8" s="357"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="325"/>
-      <c r="D9" s="325"/>
-      <c r="E9" s="325"/>
-      <c r="F9" s="325"/>
+      <c r="C9" s="338"/>
+      <c r="D9" s="338"/>
+      <c r="E9" s="338"/>
+      <c r="F9" s="338"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="325"/>
-      <c r="D10" s="325"/>
-      <c r="E10" s="325"/>
-      <c r="F10" s="325"/>
+      <c r="C10" s="338"/>
+      <c r="D10" s="338"/>
+      <c r="E10" s="338"/>
+      <c r="F10" s="338"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -11404,7 +11413,7 @@
   <sheetPr codeName="Blad7"/>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -12102,10 +12111,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>13</v>
@@ -12119,10 +12128,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="325"/>
-      <c r="D6" s="325"/>
-      <c r="E6" s="325"/>
-      <c r="F6" s="325"/>
+      <c r="C6" s="338"/>
+      <c r="D6" s="338"/>
+      <c r="E6" s="338"/>
+      <c r="F6" s="338"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -12151,30 +12160,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="355"/>
-      <c r="D8" s="355"/>
-      <c r="E8" s="355"/>
-      <c r="F8" s="355"/>
+      <c r="C8" s="357"/>
+      <c r="D8" s="357"/>
+      <c r="E8" s="357"/>
+      <c r="F8" s="357"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="325"/>
-      <c r="D9" s="325"/>
-      <c r="E9" s="325"/>
-      <c r="F9" s="325"/>
+      <c r="C9" s="338"/>
+      <c r="D9" s="338"/>
+      <c r="E9" s="338"/>
+      <c r="F9" s="338"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="325"/>
-      <c r="D10" s="325"/>
-      <c r="E10" s="325"/>
-      <c r="F10" s="325"/>
+      <c r="C10" s="338"/>
+      <c r="D10" s="338"/>
+      <c r="E10" s="338"/>
+      <c r="F10" s="338"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -13112,10 +13121,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>13</v>
@@ -13129,10 +13138,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="325"/>
-      <c r="D6" s="325"/>
-      <c r="E6" s="325"/>
-      <c r="F6" s="325"/>
+      <c r="C6" s="338"/>
+      <c r="D6" s="338"/>
+      <c r="E6" s="338"/>
+      <c r="F6" s="338"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -13161,30 +13170,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="355"/>
-      <c r="D8" s="355"/>
-      <c r="E8" s="355"/>
-      <c r="F8" s="355"/>
+      <c r="C8" s="357"/>
+      <c r="D8" s="357"/>
+      <c r="E8" s="357"/>
+      <c r="F8" s="357"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="325"/>
-      <c r="D9" s="325"/>
-      <c r="E9" s="325"/>
-      <c r="F9" s="325"/>
+      <c r="C9" s="338"/>
+      <c r="D9" s="338"/>
+      <c r="E9" s="338"/>
+      <c r="F9" s="338"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="325"/>
-      <c r="D10" s="325"/>
-      <c r="E10" s="325"/>
-      <c r="F10" s="325"/>
+      <c r="C10" s="338"/>
+      <c r="D10" s="338"/>
+      <c r="E10" s="338"/>
+      <c r="F10" s="338"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -13197,19 +13206,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="357" t="s">
+      <c r="A14" s="359" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="366" t="s">
+      <c r="B14" s="368" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="367"/>
-      <c r="D14" s="367"/>
-      <c r="E14" s="367"/>
-      <c r="F14" s="367"/>
-      <c r="G14" s="367"/>
-      <c r="H14" s="367"/>
-      <c r="I14" s="368"/>
+      <c r="C14" s="369"/>
+      <c r="D14" s="369"/>
+      <c r="E14" s="369"/>
+      <c r="F14" s="369"/>
+      <c r="G14" s="369"/>
+      <c r="H14" s="369"/>
+      <c r="I14" s="370"/>
       <c r="J14" s="20" t="s">
         <v>191</v>
       </c>
@@ -13220,17 +13229,17 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="358"/>
-      <c r="B15" s="369" t="s">
+      <c r="A15" s="360"/>
+      <c r="B15" s="371" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="365"/>
-      <c r="D15" s="365"/>
-      <c r="E15" s="365"/>
-      <c r="F15" s="365"/>
-      <c r="G15" s="365"/>
-      <c r="H15" s="365"/>
-      <c r="I15" s="365"/>
+      <c r="C15" s="367"/>
+      <c r="D15" s="367"/>
+      <c r="E15" s="367"/>
+      <c r="F15" s="367"/>
+      <c r="G15" s="367"/>
+      <c r="H15" s="367"/>
+      <c r="I15" s="367"/>
       <c r="J15" s="35" t="s">
         <v>192</v>
       </c>
@@ -13241,19 +13250,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="357" t="s">
+      <c r="A16" s="359" t="s">
         <v>198</v>
       </c>
-      <c r="B16" s="360" t="s">
+      <c r="B16" s="362" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="361"/>
-      <c r="D16" s="361"/>
-      <c r="E16" s="361"/>
-      <c r="F16" s="361"/>
-      <c r="G16" s="361"/>
-      <c r="H16" s="361"/>
-      <c r="I16" s="361"/>
+      <c r="C16" s="363"/>
+      <c r="D16" s="363"/>
+      <c r="E16" s="363"/>
+      <c r="F16" s="363"/>
+      <c r="G16" s="363"/>
+      <c r="H16" s="363"/>
+      <c r="I16" s="363"/>
       <c r="J16" s="20" t="s">
         <v>187</v>
       </c>
@@ -13264,17 +13273,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="358"/>
-      <c r="B17" s="362" t="s">
+      <c r="A17" s="360"/>
+      <c r="B17" s="364" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="363"/>
-      <c r="D17" s="363"/>
-      <c r="E17" s="363"/>
-      <c r="F17" s="363"/>
-      <c r="G17" s="363"/>
-      <c r="H17" s="363"/>
-      <c r="I17" s="363"/>
+      <c r="C17" s="365"/>
+      <c r="D17" s="365"/>
+      <c r="E17" s="365"/>
+      <c r="F17" s="365"/>
+      <c r="G17" s="365"/>
+      <c r="H17" s="365"/>
+      <c r="I17" s="365"/>
       <c r="J17" s="23" t="s">
         <v>193</v>
       </c>
@@ -13285,21 +13294,21 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="359"/>
-      <c r="B18" s="364" t="s">
+      <c r="A18" s="361"/>
+      <c r="B18" s="366" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="365"/>
-      <c r="D18" s="365"/>
-      <c r="E18" s="365"/>
-      <c r="F18" s="365"/>
-      <c r="G18" s="365"/>
-      <c r="H18" s="365"/>
-      <c r="I18" s="365"/>
+      <c r="C18" s="367"/>
+      <c r="D18" s="367"/>
+      <c r="E18" s="367"/>
+      <c r="F18" s="367"/>
+      <c r="G18" s="367"/>
+      <c r="H18" s="367"/>
+      <c r="I18" s="367"/>
       <c r="J18" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="K18" s="400"/>
+      <c r="K18" s="311"/>
       <c r="L18" s="277">
         <f>K18*0</f>
         <v>0</v>
@@ -13430,6 +13439,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13495,37 +13522,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13546,9 +13546,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1251F6-22C5-4E33-B79C-6932BED77E92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6589895D-881C-4C1C-8A57-9F251B8CE131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1042" yWindow="1042" windowWidth="16200" windowHeight="9398" tabRatio="966" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="966" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="37" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <definedName name="datum" localSheetId="4">'Individuell senior grund C'!$C$4</definedName>
     <definedName name="datum" localSheetId="11">'Individuell tekniska övningar'!$C$4</definedName>
     <definedName name="datum" localSheetId="12">'Individuellt tekniskt artistisk'!$C$4</definedName>
-    <definedName name="domare" localSheetId="1">'Häst, individuell'!$C$33</definedName>
+    <definedName name="domare" localSheetId="1">'Häst, individuell'!$C$29</definedName>
     <definedName name="domare" localSheetId="9">'Ind kür artistisk junior'!$C$27</definedName>
     <definedName name="domare" localSheetId="8">'Ind kür artistisk minior'!$C$27</definedName>
     <definedName name="domare" localSheetId="10">'Ind kür artistisk senior'!$C$27</definedName>
@@ -128,7 +128,7 @@
     <definedName name="result" localSheetId="4">'Individuell senior grund C'!$L$27</definedName>
     <definedName name="result" localSheetId="11">'Individuell tekniska övningar'!$L$30</definedName>
     <definedName name="result" localSheetId="12">'Individuellt tekniskt artistisk'!$L$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Häst, individuell'!$A$1:$L$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Häst, individuell'!$A$1:$L$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2870,9 +2870,251 @@
     <xf numFmtId="172" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="51" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2884,6 +3126,9 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="172" fontId="5" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2897,6 +3142,65 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2904,8 +3208,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="172" fontId="2" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="172" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2914,346 +3242,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="51" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3266,13 +3266,7 @@
     <cellStyle name="Standard 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Tusental" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -5651,10 +5645,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="364"/>
-      <c r="D5" s="364"/>
-      <c r="E5" s="364"/>
-      <c r="F5" s="364"/>
+      <c r="C5" s="287"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="287"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -5668,10 +5662,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="364"/>
-      <c r="D6" s="364"/>
-      <c r="E6" s="364"/>
-      <c r="F6" s="364"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="287"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -5700,30 +5694,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="365"/>
-      <c r="D8" s="365"/>
-      <c r="E8" s="365"/>
-      <c r="F8" s="365"/>
+      <c r="C8" s="294"/>
+      <c r="D8" s="294"/>
+      <c r="E8" s="294"/>
+      <c r="F8" s="294"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="364"/>
-      <c r="D9" s="364"/>
-      <c r="E9" s="364"/>
-      <c r="F9" s="364"/>
+      <c r="C9" s="287"/>
+      <c r="D9" s="287"/>
+      <c r="E9" s="287"/>
+      <c r="F9" s="287"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="364"/>
-      <c r="D10" s="364"/>
-      <c r="E10" s="364"/>
-      <c r="F10" s="364"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -5736,19 +5730,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="367" t="s">
+      <c r="A14" s="296" t="s">
         <v>169</v>
       </c>
-      <c r="B14" s="376" t="s">
+      <c r="B14" s="305" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="377"/>
-      <c r="D14" s="377"/>
-      <c r="E14" s="377"/>
-      <c r="F14" s="377"/>
-      <c r="G14" s="377"/>
-      <c r="H14" s="377"/>
-      <c r="I14" s="378"/>
+      <c r="C14" s="306"/>
+      <c r="D14" s="306"/>
+      <c r="E14" s="306"/>
+      <c r="F14" s="306"/>
+      <c r="G14" s="306"/>
+      <c r="H14" s="306"/>
+      <c r="I14" s="307"/>
       <c r="J14" s="18" t="s">
         <v>125</v>
       </c>
@@ -5761,17 +5755,17 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="369"/>
-      <c r="B15" s="379" t="s">
+      <c r="A15" s="298"/>
+      <c r="B15" s="308" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="375"/>
-      <c r="D15" s="375"/>
-      <c r="E15" s="375"/>
-      <c r="F15" s="375"/>
-      <c r="G15" s="375"/>
-      <c r="H15" s="375"/>
-      <c r="I15" s="375"/>
+      <c r="C15" s="304"/>
+      <c r="D15" s="304"/>
+      <c r="E15" s="304"/>
+      <c r="F15" s="304"/>
+      <c r="G15" s="304"/>
+      <c r="H15" s="304"/>
+      <c r="I15" s="304"/>
       <c r="J15" s="20" t="s">
         <v>126</v>
       </c>
@@ -5784,19 +5778,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="367" t="s">
+      <c r="A16" s="296" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="370" t="s">
+      <c r="B16" s="299" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="371"/>
-      <c r="D16" s="371"/>
-      <c r="E16" s="371"/>
-      <c r="F16" s="371"/>
-      <c r="G16" s="371"/>
-      <c r="H16" s="371"/>
-      <c r="I16" s="371"/>
+      <c r="C16" s="300"/>
+      <c r="D16" s="300"/>
+      <c r="E16" s="300"/>
+      <c r="F16" s="300"/>
+      <c r="G16" s="300"/>
+      <c r="H16" s="300"/>
+      <c r="I16" s="300"/>
       <c r="J16" s="18" t="s">
         <v>157</v>
       </c>
@@ -5809,17 +5803,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="368"/>
-      <c r="B17" s="372" t="s">
+      <c r="A17" s="297"/>
+      <c r="B17" s="301" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="373"/>
-      <c r="D17" s="373"/>
-      <c r="E17" s="373"/>
-      <c r="F17" s="373"/>
-      <c r="G17" s="373"/>
-      <c r="H17" s="373"/>
-      <c r="I17" s="373"/>
+      <c r="C17" s="302"/>
+      <c r="D17" s="302"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="302"/>
+      <c r="G17" s="302"/>
+      <c r="H17" s="302"/>
+      <c r="I17" s="302"/>
       <c r="J17" s="19" t="s">
         <v>166</v>
       </c>
@@ -5832,17 +5826,17 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="369"/>
-      <c r="B18" s="374" t="s">
+      <c r="A18" s="298"/>
+      <c r="B18" s="303" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="375"/>
-      <c r="D18" s="375"/>
-      <c r="E18" s="375"/>
-      <c r="F18" s="375"/>
-      <c r="G18" s="375"/>
-      <c r="H18" s="375"/>
-      <c r="I18" s="375"/>
+      <c r="C18" s="304"/>
+      <c r="D18" s="304"/>
+      <c r="E18" s="304"/>
+      <c r="F18" s="304"/>
+      <c r="G18" s="304"/>
+      <c r="H18" s="304"/>
+      <c r="I18" s="304"/>
       <c r="J18" s="20" t="s">
         <v>158</v>
       </c>
@@ -6618,10 +6612,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="364"/>
-      <c r="D5" s="364"/>
-      <c r="E5" s="364"/>
-      <c r="F5" s="364"/>
+      <c r="C5" s="287"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="287"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -6635,10 +6629,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="364"/>
-      <c r="D6" s="364"/>
-      <c r="E6" s="364"/>
-      <c r="F6" s="364"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="287"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -6667,30 +6661,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="365"/>
-      <c r="D8" s="365"/>
-      <c r="E8" s="365"/>
-      <c r="F8" s="365"/>
+      <c r="C8" s="294"/>
+      <c r="D8" s="294"/>
+      <c r="E8" s="294"/>
+      <c r="F8" s="294"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="364"/>
-      <c r="D9" s="364"/>
-      <c r="E9" s="364"/>
-      <c r="F9" s="364"/>
+      <c r="C9" s="287"/>
+      <c r="D9" s="287"/>
+      <c r="E9" s="287"/>
+      <c r="F9" s="287"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="364"/>
-      <c r="D10" s="364"/>
-      <c r="E10" s="364"/>
-      <c r="F10" s="364"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6703,19 +6697,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="367" t="s">
+      <c r="A14" s="296" t="s">
         <v>169</v>
       </c>
-      <c r="B14" s="376" t="s">
+      <c r="B14" s="305" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="377"/>
-      <c r="D14" s="377"/>
-      <c r="E14" s="377"/>
-      <c r="F14" s="377"/>
-      <c r="G14" s="377"/>
-      <c r="H14" s="377"/>
-      <c r="I14" s="378"/>
+      <c r="C14" s="306"/>
+      <c r="D14" s="306"/>
+      <c r="E14" s="306"/>
+      <c r="F14" s="306"/>
+      <c r="G14" s="306"/>
+      <c r="H14" s="306"/>
+      <c r="I14" s="307"/>
       <c r="J14" s="18" t="s">
         <v>125</v>
       </c>
@@ -6728,17 +6722,17 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="369"/>
-      <c r="B15" s="379" t="s">
+      <c r="A15" s="298"/>
+      <c r="B15" s="308" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="375"/>
-      <c r="D15" s="375"/>
-      <c r="E15" s="375"/>
-      <c r="F15" s="375"/>
-      <c r="G15" s="375"/>
-      <c r="H15" s="375"/>
-      <c r="I15" s="375"/>
+      <c r="C15" s="304"/>
+      <c r="D15" s="304"/>
+      <c r="E15" s="304"/>
+      <c r="F15" s="304"/>
+      <c r="G15" s="304"/>
+      <c r="H15" s="304"/>
+      <c r="I15" s="304"/>
       <c r="J15" s="20" t="s">
         <v>126</v>
       </c>
@@ -6751,19 +6745,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="367" t="s">
+      <c r="A16" s="296" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="370" t="s">
+      <c r="B16" s="299" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="371"/>
-      <c r="D16" s="371"/>
-      <c r="E16" s="371"/>
-      <c r="F16" s="371"/>
-      <c r="G16" s="371"/>
-      <c r="H16" s="371"/>
-      <c r="I16" s="371"/>
+      <c r="C16" s="300"/>
+      <c r="D16" s="300"/>
+      <c r="E16" s="300"/>
+      <c r="F16" s="300"/>
+      <c r="G16" s="300"/>
+      <c r="H16" s="300"/>
+      <c r="I16" s="300"/>
       <c r="J16" s="18" t="s">
         <v>157</v>
       </c>
@@ -6776,17 +6770,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="368"/>
-      <c r="B17" s="372" t="s">
+      <c r="A17" s="297"/>
+      <c r="B17" s="301" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="373"/>
-      <c r="D17" s="373"/>
-      <c r="E17" s="373"/>
-      <c r="F17" s="373"/>
-      <c r="G17" s="373"/>
-      <c r="H17" s="373"/>
-      <c r="I17" s="373"/>
+      <c r="C17" s="302"/>
+      <c r="D17" s="302"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="302"/>
+      <c r="G17" s="302"/>
+      <c r="H17" s="302"/>
+      <c r="I17" s="302"/>
       <c r="J17" s="19" t="s">
         <v>166</v>
       </c>
@@ -6799,17 +6793,17 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="369"/>
-      <c r="B18" s="374" t="s">
+      <c r="A18" s="298"/>
+      <c r="B18" s="303" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="375"/>
-      <c r="D18" s="375"/>
-      <c r="E18" s="375"/>
-      <c r="F18" s="375"/>
-      <c r="G18" s="375"/>
-      <c r="H18" s="375"/>
-      <c r="I18" s="375"/>
+      <c r="C18" s="304"/>
+      <c r="D18" s="304"/>
+      <c r="E18" s="304"/>
+      <c r="F18" s="304"/>
+      <c r="G18" s="304"/>
+      <c r="H18" s="304"/>
+      <c r="I18" s="304"/>
       <c r="J18" s="20" t="s">
         <v>158</v>
       </c>
@@ -6922,6 +6916,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
@@ -6929,11 +6928,6 @@
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7017,10 +7011,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="364"/>
-      <c r="D5" s="364"/>
-      <c r="E5" s="364"/>
-      <c r="F5" s="364"/>
+      <c r="C5" s="287"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="287"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -7034,10 +7028,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="364"/>
-      <c r="D6" s="364"/>
-      <c r="E6" s="364"/>
-      <c r="F6" s="364"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="287"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7060,30 +7054,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="365"/>
-      <c r="D8" s="365"/>
-      <c r="E8" s="365"/>
-      <c r="F8" s="365"/>
+      <c r="C8" s="294"/>
+      <c r="D8" s="294"/>
+      <c r="E8" s="294"/>
+      <c r="F8" s="294"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="364"/>
-      <c r="D9" s="364"/>
-      <c r="E9" s="364"/>
-      <c r="F9" s="364"/>
+      <c r="C9" s="287"/>
+      <c r="D9" s="287"/>
+      <c r="E9" s="287"/>
+      <c r="F9" s="287"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="364"/>
-      <c r="D10" s="364"/>
-      <c r="E10" s="364"/>
-      <c r="F10" s="364"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7109,14 +7103,14 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="380" t="s">
+      <c r="A15" s="309" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="381"/>
-      <c r="C15" s="381"/>
-      <c r="D15" s="381"/>
-      <c r="E15" s="381"/>
-      <c r="F15" s="382"/>
+      <c r="B15" s="310"/>
+      <c r="C15" s="310"/>
+      <c r="D15" s="310"/>
+      <c r="E15" s="310"/>
+      <c r="F15" s="311"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="11"/>
@@ -7125,14 +7119,14 @@
       <c r="L15" s="265"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="380" t="s">
+      <c r="A16" s="309" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="381"/>
-      <c r="C16" s="381"/>
-      <c r="D16" s="381"/>
-      <c r="E16" s="381"/>
-      <c r="F16" s="382"/>
+      <c r="B16" s="310"/>
+      <c r="C16" s="310"/>
+      <c r="D16" s="310"/>
+      <c r="E16" s="310"/>
+      <c r="F16" s="311"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="11"/>
@@ -7193,27 +7187,27 @@
       <c r="L20" s="141"/>
     </row>
     <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="386" t="s">
+      <c r="A21" s="315" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="387"/>
-      <c r="C21" s="387"/>
-      <c r="D21" s="387"/>
-      <c r="E21" s="387"/>
-      <c r="F21" s="387"/>
-      <c r="G21" s="387"/>
-      <c r="H21" s="387"/>
-      <c r="I21" s="387"/>
+      <c r="B21" s="316"/>
+      <c r="C21" s="316"/>
+      <c r="D21" s="316"/>
+      <c r="E21" s="316"/>
+      <c r="F21" s="316"/>
+      <c r="G21" s="316"/>
+      <c r="H21" s="316"/>
+      <c r="I21" s="316"/>
       <c r="J21" s="140"/>
       <c r="K21" s="139"/>
       <c r="L21" s="8"/>
       <c r="R21" s="134"/>
     </row>
     <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="394" t="s">
+      <c r="A22" s="323" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="395"/>
+      <c r="B22" s="324"/>
       <c r="C22" s="138"/>
       <c r="D22" s="138"/>
       <c r="E22" s="138"/>
@@ -7227,15 +7221,15 @@
       <c r="R22" s="134"/>
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="390" t="s">
+      <c r="A23" s="319" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="391"/>
+      <c r="B23" s="320"/>
       <c r="C23" s="274"/>
-      <c r="D23" s="388" t="s">
+      <c r="D23" s="317" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="389"/>
+      <c r="E23" s="318"/>
       <c r="F23" s="275"/>
       <c r="G23" s="233" t="s">
         <v>73</v>
@@ -7258,11 +7252,11 @@
       <c r="R23" s="134"/>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="392" t="s">
+      <c r="A24" s="321" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="393"/>
-      <c r="C24" s="393"/>
+      <c r="B24" s="322"/>
+      <c r="C24" s="322"/>
       <c r="D24" s="237"/>
       <c r="E24" s="237"/>
       <c r="F24" s="237"/>
@@ -7274,19 +7268,19 @@
       <c r="R24" s="134"/>
     </row>
     <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="383" t="s">
+      <c r="A25" s="312" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="384"/>
-      <c r="C25" s="384"/>
-      <c r="D25" s="384"/>
-      <c r="E25" s="384"/>
-      <c r="F25" s="384"/>
-      <c r="G25" s="384"/>
-      <c r="H25" s="384"/>
-      <c r="I25" s="384"/>
-      <c r="J25" s="384"/>
-      <c r="K25" s="385"/>
+      <c r="B25" s="313"/>
+      <c r="C25" s="313"/>
+      <c r="D25" s="313"/>
+      <c r="E25" s="313"/>
+      <c r="F25" s="313"/>
+      <c r="G25" s="313"/>
+      <c r="H25" s="313"/>
+      <c r="I25" s="313"/>
+      <c r="J25" s="313"/>
+      <c r="K25" s="314"/>
       <c r="L25" s="9">
         <f>IFERROR(K23-K24,0)</f>
         <v>0</v>
@@ -8026,17 +8020,17 @@
   <sheetData>
     <row r="1" spans="1:12" s="114" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="400" t="s">
+      <c r="A2" s="329" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="400"/>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
-      <c r="G2" s="400"/>
-      <c r="H2" s="400"/>
-      <c r="I2" s="400"/>
+      <c r="B2" s="329"/>
+      <c r="C2" s="329"/>
+      <c r="D2" s="329"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="329"/>
+      <c r="H2" s="329"/>
+      <c r="I2" s="329"/>
       <c r="J2" s="144"/>
       <c r="K2" s="144"/>
       <c r="L2" s="144"/>
@@ -8081,10 +8075,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="364"/>
-      <c r="D5" s="364"/>
-      <c r="E5" s="364"/>
-      <c r="F5" s="364"/>
+      <c r="C5" s="287"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="287"/>
       <c r="G5" s="143"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
@@ -8099,10 +8093,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="364"/>
-      <c r="D6" s="364"/>
-      <c r="E6" s="364"/>
-      <c r="F6" s="364"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="287"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
       <c r="G6" s="142"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14" t="s">
@@ -8133,10 +8127,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="365"/>
-      <c r="D8" s="365"/>
-      <c r="E8" s="365"/>
-      <c r="F8" s="365"/>
+      <c r="C8" s="294"/>
+      <c r="D8" s="294"/>
+      <c r="E8" s="294"/>
+      <c r="F8" s="294"/>
       <c r="G8" s="152"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -8151,10 +8145,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="364"/>
-      <c r="D9" s="364"/>
-      <c r="E9" s="364"/>
-      <c r="F9" s="364"/>
+      <c r="C9" s="287"/>
+      <c r="D9" s="287"/>
+      <c r="E9" s="287"/>
+      <c r="F9" s="287"/>
       <c r="G9" s="152"/>
       <c r="H9" s="142"/>
       <c r="I9" s="142"/>
@@ -8167,15 +8161,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="364"/>
-      <c r="D10" s="364"/>
-      <c r="E10" s="364"/>
-      <c r="F10" s="364"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
       <c r="G10" s="152"/>
       <c r="H10" s="142"/>
       <c r="I10" s="142"/>
-      <c r="J10" s="396"/>
-      <c r="K10" s="396"/>
+      <c r="J10" s="325"/>
+      <c r="K10" s="325"/>
       <c r="L10" s="153"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -8202,10 +8196,10 @@
       <c r="C13" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="401" t="s">
+      <c r="D13" s="330" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="402"/>
+      <c r="E13" s="331"/>
       <c r="F13" s="257" t="s">
         <v>130</v>
       </c>
@@ -8218,17 +8212,17 @@
       <c r="I13" s="259" t="s">
         <v>99</v>
       </c>
-      <c r="J13" s="405" t="s">
+      <c r="J13" s="334" t="s">
         <v>137</v>
       </c>
-      <c r="K13" s="406"/>
+      <c r="K13" s="335"/>
       <c r="L13" s="151"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="276"/>
       <c r="C14" s="277"/>
-      <c r="D14" s="403"/>
-      <c r="E14" s="404"/>
+      <c r="D14" s="332"/>
+      <c r="E14" s="333"/>
       <c r="F14" s="277"/>
       <c r="G14" s="277"/>
       <c r="H14" s="278"/>
@@ -8236,11 +8230,11 @@
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="407">
+      <c r="J14" s="336">
         <f>I14/6</f>
         <v>0</v>
       </c>
-      <c r="K14" s="408"/>
+      <c r="K14" s="337"/>
       <c r="L14" s="151"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8256,16 +8250,16 @@
       <c r="A17" s="251" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="397" t="s">
+      <c r="B17" s="326" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="398"/>
-      <c r="D17" s="398"/>
-      <c r="E17" s="398"/>
-      <c r="F17" s="398"/>
-      <c r="G17" s="398"/>
-      <c r="H17" s="398"/>
-      <c r="I17" s="399"/>
+      <c r="C17" s="327"/>
+      <c r="D17" s="327"/>
+      <c r="E17" s="327"/>
+      <c r="F17" s="327"/>
+      <c r="G17" s="327"/>
+      <c r="H17" s="327"/>
+      <c r="I17" s="328"/>
       <c r="J17" s="149" t="s">
         <v>134</v>
       </c>
@@ -8279,19 +8273,19 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="338" t="s">
+      <c r="A18" s="288" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="370" t="s">
+      <c r="B18" s="299" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="371"/>
-      <c r="D18" s="371"/>
-      <c r="E18" s="371"/>
-      <c r="F18" s="371"/>
-      <c r="G18" s="371"/>
-      <c r="H18" s="371"/>
-      <c r="I18" s="371"/>
+      <c r="C18" s="300"/>
+      <c r="D18" s="300"/>
+      <c r="E18" s="300"/>
+      <c r="F18" s="300"/>
+      <c r="G18" s="300"/>
+      <c r="H18" s="300"/>
+      <c r="I18" s="300"/>
       <c r="J18" s="149" t="s">
         <v>139</v>
       </c>
@@ -8302,17 +8296,17 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="339"/>
-      <c r="B19" s="372" t="s">
+      <c r="A19" s="289"/>
+      <c r="B19" s="301" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="373"/>
-      <c r="D19" s="373"/>
-      <c r="E19" s="373"/>
-      <c r="F19" s="373"/>
-      <c r="G19" s="373"/>
-      <c r="H19" s="373"/>
-      <c r="I19" s="373"/>
+      <c r="C19" s="302"/>
+      <c r="D19" s="302"/>
+      <c r="E19" s="302"/>
+      <c r="F19" s="302"/>
+      <c r="G19" s="302"/>
+      <c r="H19" s="302"/>
+      <c r="I19" s="302"/>
       <c r="J19" s="147" t="s">
         <v>140</v>
       </c>
@@ -8434,12 +8428,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A2:I2"/>
@@ -8449,6 +8437,12 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
@@ -8461,14 +8455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84ABF654-7A3B-4EB4-9214-D390EC033D7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0F8A05-38DF-4622-89C1-8833AD826719}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showZeros="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A9" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -8500,7 +8494,7 @@
       </c>
       <c r="J1" s="158"/>
       <c r="K1" s="159"/>
-      <c r="L1" s="298"/>
+      <c r="L1" s="338"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -8512,51 +8506,51 @@
       </c>
       <c r="J2" s="158"/>
       <c r="K2" s="159"/>
-      <c r="L2" s="298"/>
+      <c r="L2" s="338"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="161" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="161"/>
-      <c r="C3" s="358"/>
-      <c r="D3" s="358"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
+      <c r="C3" s="339"/>
+      <c r="D3" s="339"/>
+      <c r="E3" s="340"/>
+      <c r="F3" s="340"/>
       <c r="H3" s="156"/>
       <c r="I3" s="157" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="158"/>
       <c r="K3" s="159"/>
-      <c r="L3" s="298"/>
+      <c r="L3" s="338"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="137" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="137"/>
-      <c r="C4" s="359"/>
-      <c r="D4" s="359"/>
-      <c r="E4" s="359"/>
-      <c r="F4" s="359"/>
+      <c r="C4" s="341"/>
+      <c r="D4" s="341"/>
+      <c r="E4" s="341"/>
+      <c r="F4" s="341"/>
       <c r="H4" s="156"/>
       <c r="I4" s="157" t="s">
         <v>11</v>
       </c>
       <c r="J4" s="163"/>
       <c r="K4" s="159"/>
-      <c r="L4" s="298"/>
+      <c r="L4" s="338"/>
     </row>
     <row r="5" spans="1:12" s="114" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="137" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="137"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
+      <c r="C5" s="341"/>
+      <c r="D5" s="341"/>
+      <c r="E5" s="341"/>
+      <c r="F5" s="341"/>
       <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:12" s="114" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8564,25 +8558,25 @@
         <v>21</v>
       </c>
       <c r="B6" s="137"/>
-      <c r="C6" s="300"/>
-      <c r="D6" s="300"/>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="342"/>
+      <c r="F6" s="342"/>
       <c r="J6" s="164" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="31"/>
-      <c r="L6" s="301"/>
+      <c r="L6" s="343"/>
     </row>
     <row r="7" spans="1:12" s="114" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="161" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="161"/>
-      <c r="C7" s="359"/>
-      <c r="D7" s="359"/>
-      <c r="E7" s="359"/>
-      <c r="F7" s="359"/>
+      <c r="C7" s="341"/>
+      <c r="D7" s="341"/>
+      <c r="E7" s="341"/>
+      <c r="F7" s="341"/>
       <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:12" s="114" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8590,10 +8584,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="137"/>
-      <c r="C8" s="359"/>
-      <c r="D8" s="359"/>
-      <c r="E8" s="359"/>
-      <c r="F8" s="359"/>
+      <c r="C8" s="341"/>
+      <c r="D8" s="341"/>
+      <c r="E8" s="341"/>
+      <c r="F8" s="341"/>
       <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:12" s="114" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8601,257 +8595,255 @@
         <v>7</v>
       </c>
       <c r="B9" s="137"/>
-      <c r="C9" s="359"/>
-      <c r="D9" s="359"/>
-      <c r="E9" s="359"/>
-      <c r="F9" s="359"/>
+      <c r="C9" s="341"/>
+      <c r="D9" s="341"/>
+      <c r="E9" s="341"/>
+      <c r="F9" s="341"/>
       <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:12" s="114" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="285"/>
-      <c r="D10" s="285"/>
-      <c r="E10" s="285"/>
-      <c r="F10" s="285"/>
+      <c r="C10" s="344"/>
+      <c r="D10" s="344"/>
+      <c r="E10" s="344"/>
+      <c r="F10" s="344"/>
       <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:12" s="114" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="285"/>
-      <c r="D11" s="285"/>
-      <c r="E11" s="285"/>
-      <c r="F11" s="285"/>
-      <c r="H11" s="333" t="s">
+      <c r="C11" s="344"/>
+      <c r="D11" s="344"/>
+      <c r="E11" s="344"/>
+      <c r="F11" s="344"/>
+      <c r="H11" s="345" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="334"/>
-      <c r="J11" s="335" t="s">
+      <c r="I11" s="346"/>
+      <c r="J11" s="347" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="336"/>
-      <c r="L11" s="337"/>
+      <c r="K11" s="348"/>
+      <c r="L11" s="349"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="338" t="s">
+      <c r="A12" s="288" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="342" t="s">
+      <c r="B12" s="350" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="343"/>
-      <c r="D12" s="343"/>
-      <c r="E12" s="343"/>
-      <c r="F12" s="343"/>
-      <c r="G12" s="343"/>
-      <c r="H12" s="346"/>
-      <c r="I12" s="347"/>
-      <c r="J12" s="352" t="s">
+      <c r="C12" s="351"/>
+      <c r="D12" s="351"/>
+      <c r="E12" s="351"/>
+      <c r="F12" s="351"/>
+      <c r="G12" s="351"/>
+      <c r="H12" s="352"/>
+      <c r="I12" s="353"/>
+      <c r="J12" s="354" t="s">
         <v>175</v>
       </c>
-      <c r="K12" s="354">
+      <c r="K12" s="355">
         <f>SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
-      <c r="L12" s="332">
+      <c r="L12" s="356">
         <f>ROUND(K12*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="339"/>
-      <c r="B13" s="344"/>
-      <c r="C13" s="345"/>
-      <c r="D13" s="345"/>
-      <c r="E13" s="345"/>
-      <c r="F13" s="345"/>
-      <c r="G13" s="345"/>
-      <c r="H13" s="348"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="312"/>
-      <c r="K13" s="355"/>
-      <c r="L13" s="314"/>
+      <c r="A13" s="289"/>
+      <c r="B13" s="357"/>
+      <c r="C13" s="358"/>
+      <c r="D13" s="358"/>
+      <c r="E13" s="358"/>
+      <c r="F13" s="358"/>
+      <c r="G13" s="358"/>
+      <c r="H13" s="359"/>
+      <c r="I13" s="360"/>
+      <c r="J13" s="361"/>
+      <c r="K13" s="362"/>
+      <c r="L13" s="363"/>
     </row>
     <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="339"/>
-      <c r="B14" s="344"/>
-      <c r="C14" s="345"/>
-      <c r="D14" s="345"/>
-      <c r="E14" s="345"/>
-      <c r="F14" s="345"/>
-      <c r="G14" s="345"/>
-      <c r="H14" s="348"/>
-      <c r="I14" s="349"/>
-      <c r="J14" s="312"/>
-      <c r="K14" s="355"/>
-      <c r="L14" s="314"/>
+      <c r="A14" s="289"/>
+      <c r="B14" s="357"/>
+      <c r="C14" s="358"/>
+      <c r="D14" s="358"/>
+      <c r="E14" s="358"/>
+      <c r="F14" s="358"/>
+      <c r="G14" s="358"/>
+      <c r="H14" s="359"/>
+      <c r="I14" s="360"/>
+      <c r="J14" s="361"/>
+      <c r="K14" s="362"/>
+      <c r="L14" s="363"/>
     </row>
     <row r="15" spans="1:12" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="339"/>
-      <c r="B15" s="344"/>
-      <c r="C15" s="345"/>
-      <c r="D15" s="345"/>
-      <c r="E15" s="345"/>
-      <c r="F15" s="345"/>
-      <c r="G15" s="345"/>
-      <c r="H15" s="348"/>
-      <c r="I15" s="349"/>
-      <c r="J15" s="312"/>
-      <c r="K15" s="355"/>
-      <c r="L15" s="314"/>
+      <c r="A15" s="289"/>
+      <c r="B15" s="357"/>
+      <c r="C15" s="358"/>
+      <c r="D15" s="358"/>
+      <c r="E15" s="358"/>
+      <c r="F15" s="358"/>
+      <c r="G15" s="358"/>
+      <c r="H15" s="359"/>
+      <c r="I15" s="360"/>
+      <c r="J15" s="361"/>
+      <c r="K15" s="362"/>
+      <c r="L15" s="363"/>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="340"/>
-      <c r="B16" s="286" t="s">
+      <c r="A16" s="364"/>
+      <c r="B16" s="365" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="287" t="s">
+      <c r="C16" s="366" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="288" t="s">
+      <c r="D16" s="367" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="287" t="s">
+      <c r="E16" s="366" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="287" t="s">
+      <c r="F16" s="366" t="s">
         <v>180</v>
       </c>
-      <c r="G16" s="289" t="s">
+      <c r="G16" s="368" t="s">
         <v>181</v>
       </c>
-      <c r="H16" s="348"/>
-      <c r="I16" s="349"/>
-      <c r="J16" s="312"/>
-      <c r="K16" s="355"/>
-      <c r="L16" s="314"/>
+      <c r="H16" s="359"/>
+      <c r="I16" s="360"/>
+      <c r="J16" s="361"/>
+      <c r="K16" s="362"/>
+      <c r="L16" s="363"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="341"/>
-      <c r="B17" s="290">
+      <c r="A17" s="369"/>
+      <c r="B17" s="370"/>
+      <c r="C17" s="371">
         <v>0</v>
       </c>
-      <c r="C17" s="291">
-        <v>0</v>
-      </c>
-      <c r="D17" s="291"/>
-      <c r="E17" s="291"/>
-      <c r="F17" s="291"/>
-      <c r="G17" s="292"/>
-      <c r="H17" s="350"/>
-      <c r="I17" s="351"/>
-      <c r="J17" s="353"/>
-      <c r="K17" s="356"/>
-      <c r="L17" s="357"/>
+      <c r="D17" s="371"/>
+      <c r="E17" s="371"/>
+      <c r="F17" s="371"/>
+      <c r="G17" s="372"/>
+      <c r="H17" s="373"/>
+      <c r="I17" s="374"/>
+      <c r="J17" s="375"/>
+      <c r="K17" s="376"/>
+      <c r="L17" s="377"/>
     </row>
     <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="303" t="s">
+      <c r="A18" s="378" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="305" t="s">
+      <c r="B18" s="379" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="305"/>
-      <c r="D18" s="305"/>
-      <c r="E18" s="305"/>
-      <c r="F18" s="305"/>
-      <c r="G18" s="305"/>
-      <c r="H18" s="321"/>
-      <c r="I18" s="322"/>
-      <c r="J18" s="327" t="s">
+      <c r="C18" s="379"/>
+      <c r="D18" s="379"/>
+      <c r="E18" s="379"/>
+      <c r="F18" s="379"/>
+      <c r="G18" s="379"/>
+      <c r="H18" s="380"/>
+      <c r="I18" s="381"/>
+      <c r="J18" s="382" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="330"/>
-      <c r="L18" s="332">
+      <c r="K18" s="383"/>
+      <c r="L18" s="356">
         <f>ROUND((K18-K21)*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="318"/>
-      <c r="B19" s="319"/>
-      <c r="C19" s="319"/>
-      <c r="D19" s="319"/>
-      <c r="E19" s="319"/>
-      <c r="F19" s="319"/>
-      <c r="G19" s="319"/>
-      <c r="H19" s="323"/>
-      <c r="I19" s="324"/>
-      <c r="J19" s="328"/>
-      <c r="K19" s="331"/>
-      <c r="L19" s="314"/>
+      <c r="A19" s="384"/>
+      <c r="B19" s="385"/>
+      <c r="C19" s="385"/>
+      <c r="D19" s="385"/>
+      <c r="E19" s="385"/>
+      <c r="F19" s="385"/>
+      <c r="G19" s="385"/>
+      <c r="H19" s="386"/>
+      <c r="I19" s="387"/>
+      <c r="J19" s="388"/>
+      <c r="K19" s="389"/>
+      <c r="L19" s="363"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="318"/>
-      <c r="B20" s="320"/>
-      <c r="C20" s="320"/>
-      <c r="D20" s="320"/>
-      <c r="E20" s="320"/>
-      <c r="F20" s="320"/>
-      <c r="G20" s="319"/>
-      <c r="H20" s="323"/>
-      <c r="I20" s="324"/>
-      <c r="J20" s="328"/>
-      <c r="K20" s="331"/>
-      <c r="L20" s="314"/>
+      <c r="A20" s="384"/>
+      <c r="B20" s="390"/>
+      <c r="C20" s="390"/>
+      <c r="D20" s="390"/>
+      <c r="E20" s="390"/>
+      <c r="F20" s="390"/>
+      <c r="G20" s="385"/>
+      <c r="H20" s="386"/>
+      <c r="I20" s="387"/>
+      <c r="J20" s="388"/>
+      <c r="K20" s="389"/>
+      <c r="L20" s="363"/>
     </row>
     <row r="21" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="304"/>
-      <c r="B21" s="293" t="s">
+      <c r="A21" s="391"/>
+      <c r="B21" s="392" t="s">
         <v>183</v>
       </c>
-      <c r="C21" s="294"/>
-      <c r="D21" s="294"/>
-      <c r="E21" s="294"/>
-      <c r="F21" s="294"/>
-      <c r="G21" s="294"/>
-      <c r="H21" s="325"/>
-      <c r="I21" s="326"/>
-      <c r="J21" s="329"/>
-      <c r="K21" s="295">
+      <c r="C21" s="393"/>
+      <c r="D21" s="393"/>
+      <c r="E21" s="393"/>
+      <c r="F21" s="393"/>
+      <c r="G21" s="393"/>
+      <c r="H21" s="394"/>
+      <c r="I21" s="395"/>
+      <c r="J21" s="396"/>
+      <c r="K21" s="397">
         <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="315"/>
+      <c r="L21" s="398"/>
     </row>
     <row r="22" spans="1:12" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="303" t="s">
+      <c r="A22" s="378" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="305" t="s">
+      <c r="B22" s="379" t="s">
         <v>184</v>
       </c>
-      <c r="C22" s="306"/>
-      <c r="D22" s="306"/>
-      <c r="E22" s="306"/>
-      <c r="F22" s="306"/>
-      <c r="G22" s="307"/>
-      <c r="H22" s="308"/>
-      <c r="I22" s="309"/>
-      <c r="J22" s="312" t="s">
+      <c r="C22" s="399"/>
+      <c r="D22" s="399"/>
+      <c r="E22" s="399"/>
+      <c r="F22" s="399"/>
+      <c r="G22" s="400"/>
+      <c r="H22" s="401"/>
+      <c r="I22" s="402"/>
+      <c r="J22" s="361" t="s">
         <v>185</v>
       </c>
-      <c r="K22" s="296"/>
-      <c r="L22" s="314">
+      <c r="K22" s="403"/>
+      <c r="L22" s="363">
         <f>ROUND((K22-K23)*0.15,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="304"/>
-      <c r="B23" s="297" t="s">
+      <c r="A23" s="391"/>
+      <c r="B23" s="404" t="s">
         <v>183</v>
       </c>
-      <c r="C23" s="294"/>
-      <c r="D23" s="294"/>
-      <c r="E23" s="294"/>
-      <c r="F23" s="294"/>
-      <c r="G23" s="294"/>
-      <c r="H23" s="310"/>
-      <c r="I23" s="311"/>
-      <c r="J23" s="313"/>
-      <c r="K23" s="295">
+      <c r="C23" s="393"/>
+      <c r="D23" s="393"/>
+      <c r="E23" s="393"/>
+      <c r="F23" s="393"/>
+      <c r="G23" s="393"/>
+      <c r="H23" s="405"/>
+      <c r="I23" s="406"/>
+      <c r="J23" s="407"/>
+      <c r="K23" s="397">
         <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="315"/>
+      <c r="L23" s="398"/>
     </row>
     <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="21"/>
@@ -8868,43 +8860,45 @@
         <v>3</v>
       </c>
       <c r="J25" s="23"/>
-      <c r="K25" s="316">
+      <c r="K25" s="285">
         <f>SUM(L12:L22)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="317"/>
+      <c r="L25" s="286"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="302"/>
-      <c r="D33" s="302"/>
-      <c r="E33" s="302"/>
-      <c r="H33" s="7" t="s">
+      <c r="B29" s="58"/>
+      <c r="C29" s="408"/>
+      <c r="D29" s="408"/>
+      <c r="E29" s="408"/>
+      <c r="H29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:G20"/>
+    <mergeCell ref="H18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L21"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="A12:A17"/>
@@ -8913,18 +8907,12 @@
     <mergeCell ref="J12:J17"/>
     <mergeCell ref="K12:K17"/>
     <mergeCell ref="L12:L17"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:G20"/>
-    <mergeCell ref="H18:I21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -9009,10 +8997,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="137"/>
-      <c r="C5" s="360"/>
-      <c r="D5" s="360"/>
-      <c r="E5" s="360"/>
-      <c r="F5" s="360"/>
+      <c r="C5" s="290"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
       <c r="H5" s="156"/>
       <c r="I5" s="157" t="s">
         <v>11</v>
@@ -9026,10 +9014,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="137"/>
-      <c r="C6" s="360"/>
-      <c r="D6" s="360"/>
-      <c r="E6" s="360"/>
-      <c r="F6" s="360"/>
+      <c r="C6" s="290"/>
+      <c r="D6" s="290"/>
+      <c r="E6" s="290"/>
+      <c r="F6" s="290"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9052,30 +9040,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="161"/>
-      <c r="C8" s="360"/>
-      <c r="D8" s="360"/>
-      <c r="E8" s="360"/>
-      <c r="F8" s="360"/>
+      <c r="C8" s="290"/>
+      <c r="D8" s="290"/>
+      <c r="E8" s="290"/>
+      <c r="F8" s="290"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="137" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="137"/>
-      <c r="C9" s="360"/>
-      <c r="D9" s="360"/>
-      <c r="E9" s="360"/>
-      <c r="F9" s="360"/>
+      <c r="C9" s="290"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="137" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="137"/>
-      <c r="C10" s="360"/>
-      <c r="D10" s="360"/>
-      <c r="E10" s="360"/>
-      <c r="F10" s="360"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="290"/>
+      <c r="E10" s="290"/>
+      <c r="F10" s="290"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9406,10 +9394,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="364"/>
-      <c r="D5" s="364"/>
-      <c r="E5" s="364"/>
-      <c r="F5" s="364"/>
+      <c r="C5" s="287"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="287"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -9423,10 +9411,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="364"/>
-      <c r="D6" s="364"/>
-      <c r="E6" s="364"/>
-      <c r="F6" s="364"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="287"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9449,30 +9437,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="365"/>
-      <c r="D8" s="365"/>
-      <c r="E8" s="365"/>
-      <c r="F8" s="365"/>
+      <c r="C8" s="294"/>
+      <c r="D8" s="294"/>
+      <c r="E8" s="294"/>
+      <c r="F8" s="294"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="364"/>
-      <c r="D9" s="364"/>
-      <c r="E9" s="364"/>
-      <c r="F9" s="364"/>
+      <c r="C9" s="287"/>
+      <c r="D9" s="287"/>
+      <c r="E9" s="287"/>
+      <c r="F9" s="287"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="364"/>
-      <c r="D10" s="364"/>
-      <c r="E10" s="364"/>
-      <c r="F10" s="364"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9608,13 +9596,13 @@
       <c r="L21" s="265"/>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="361" t="s">
+      <c r="A22" s="291" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="362"/>
-      <c r="C22" s="362"/>
-      <c r="D22" s="362"/>
-      <c r="E22" s="363"/>
+      <c r="B22" s="292"/>
+      <c r="C22" s="292"/>
+      <c r="D22" s="292"/>
+      <c r="E22" s="293"/>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
@@ -9810,10 +9798,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="364"/>
-      <c r="D5" s="364"/>
-      <c r="E5" s="364"/>
-      <c r="F5" s="364"/>
+      <c r="C5" s="287"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="287"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -9827,10 +9815,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="364"/>
-      <c r="D6" s="364"/>
-      <c r="E6" s="364"/>
-      <c r="F6" s="364"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="287"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9853,30 +9841,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="365"/>
-      <c r="D8" s="365"/>
-      <c r="E8" s="365"/>
-      <c r="F8" s="365"/>
+      <c r="C8" s="294"/>
+      <c r="D8" s="294"/>
+      <c r="E8" s="294"/>
+      <c r="F8" s="294"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="364"/>
-      <c r="D9" s="364"/>
-      <c r="E9" s="364"/>
-      <c r="F9" s="364"/>
+      <c r="C9" s="287"/>
+      <c r="D9" s="287"/>
+      <c r="E9" s="287"/>
+      <c r="F9" s="287"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="364"/>
-      <c r="D10" s="364"/>
-      <c r="E10" s="364"/>
-      <c r="F10" s="364"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10212,10 +10200,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="137"/>
-      <c r="C5" s="360"/>
-      <c r="D5" s="360"/>
-      <c r="E5" s="360"/>
-      <c r="F5" s="360"/>
+      <c r="C5" s="290"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
       <c r="H5" s="156"/>
       <c r="I5" s="157" t="s">
         <v>11</v>
@@ -10229,10 +10217,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="137"/>
-      <c r="C6" s="360"/>
-      <c r="D6" s="360"/>
-      <c r="E6" s="360"/>
-      <c r="F6" s="360"/>
+      <c r="C6" s="290"/>
+      <c r="D6" s="290"/>
+      <c r="E6" s="290"/>
+      <c r="F6" s="290"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10255,30 +10243,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="161"/>
-      <c r="C8" s="366"/>
-      <c r="D8" s="366"/>
-      <c r="E8" s="366"/>
-      <c r="F8" s="366"/>
+      <c r="C8" s="295"/>
+      <c r="D8" s="295"/>
+      <c r="E8" s="295"/>
+      <c r="F8" s="295"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="137" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="137"/>
-      <c r="C9" s="360"/>
-      <c r="D9" s="360"/>
-      <c r="E9" s="360"/>
-      <c r="F9" s="360"/>
+      <c r="C9" s="290"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="137" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="137"/>
-      <c r="C10" s="360"/>
-      <c r="D10" s="360"/>
-      <c r="E10" s="360"/>
-      <c r="F10" s="360"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="290"/>
+      <c r="E10" s="290"/>
+      <c r="F10" s="290"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -11187,10 +11175,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="364"/>
-      <c r="D5" s="364"/>
-      <c r="E5" s="364"/>
-      <c r="F5" s="364"/>
+      <c r="C5" s="287"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="287"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -11204,10 +11192,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="364"/>
-      <c r="D6" s="364"/>
-      <c r="E6" s="364"/>
-      <c r="F6" s="364"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="287"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -11236,30 +11224,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="365"/>
-      <c r="D8" s="365"/>
-      <c r="E8" s="365"/>
-      <c r="F8" s="365"/>
+      <c r="C8" s="294"/>
+      <c r="D8" s="294"/>
+      <c r="E8" s="294"/>
+      <c r="F8" s="294"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="364"/>
-      <c r="D9" s="364"/>
-      <c r="E9" s="364"/>
-      <c r="F9" s="364"/>
+      <c r="C9" s="287"/>
+      <c r="D9" s="287"/>
+      <c r="E9" s="287"/>
+      <c r="F9" s="287"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="364"/>
-      <c r="D10" s="364"/>
-      <c r="E10" s="364"/>
-      <c r="F10" s="364"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12265,10 +12253,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="364"/>
-      <c r="D5" s="364"/>
-      <c r="E5" s="364"/>
-      <c r="F5" s="364"/>
+      <c r="C5" s="287"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="287"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -12282,10 +12270,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="364"/>
-      <c r="D6" s="364"/>
-      <c r="E6" s="364"/>
-      <c r="F6" s="364"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="287"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -12314,30 +12302,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="365"/>
-      <c r="D8" s="365"/>
-      <c r="E8" s="365"/>
-      <c r="F8" s="365"/>
+      <c r="C8" s="294"/>
+      <c r="D8" s="294"/>
+      <c r="E8" s="294"/>
+      <c r="F8" s="294"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="364"/>
-      <c r="D9" s="364"/>
-      <c r="E9" s="364"/>
-      <c r="F9" s="364"/>
+      <c r="C9" s="287"/>
+      <c r="D9" s="287"/>
+      <c r="E9" s="287"/>
+      <c r="F9" s="287"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="364"/>
-      <c r="D10" s="364"/>
-      <c r="E10" s="364"/>
-      <c r="F10" s="364"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -13275,10 +13263,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="364"/>
-      <c r="D5" s="364"/>
-      <c r="E5" s="364"/>
-      <c r="F5" s="364"/>
+      <c r="C5" s="287"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="287"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -13292,10 +13280,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="364"/>
-      <c r="D6" s="364"/>
-      <c r="E6" s="364"/>
-      <c r="F6" s="364"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="287"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -13324,30 +13312,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="365"/>
-      <c r="D8" s="365"/>
-      <c r="E8" s="365"/>
-      <c r="F8" s="365"/>
+      <c r="C8" s="294"/>
+      <c r="D8" s="294"/>
+      <c r="E8" s="294"/>
+      <c r="F8" s="294"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="364"/>
-      <c r="D9" s="364"/>
-      <c r="E9" s="364"/>
-      <c r="F9" s="364"/>
+      <c r="C9" s="287"/>
+      <c r="D9" s="287"/>
+      <c r="E9" s="287"/>
+      <c r="F9" s="287"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="364"/>
-      <c r="D10" s="364"/>
-      <c r="E10" s="364"/>
-      <c r="F10" s="364"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -13360,19 +13348,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="367" t="s">
+      <c r="A14" s="296" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="376" t="s">
+      <c r="B14" s="305" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="377"/>
-      <c r="D14" s="377"/>
-      <c r="E14" s="377"/>
-      <c r="F14" s="377"/>
-      <c r="G14" s="377"/>
-      <c r="H14" s="377"/>
-      <c r="I14" s="378"/>
+      <c r="C14" s="306"/>
+      <c r="D14" s="306"/>
+      <c r="E14" s="306"/>
+      <c r="F14" s="306"/>
+      <c r="G14" s="306"/>
+      <c r="H14" s="306"/>
+      <c r="I14" s="307"/>
       <c r="J14" s="18" t="s">
         <v>161</v>
       </c>
@@ -13383,17 +13371,17 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="368"/>
-      <c r="B15" s="379" t="s">
+      <c r="A15" s="297"/>
+      <c r="B15" s="308" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="375"/>
-      <c r="D15" s="375"/>
-      <c r="E15" s="375"/>
-      <c r="F15" s="375"/>
-      <c r="G15" s="375"/>
-      <c r="H15" s="375"/>
-      <c r="I15" s="375"/>
+      <c r="C15" s="304"/>
+      <c r="D15" s="304"/>
+      <c r="E15" s="304"/>
+      <c r="F15" s="304"/>
+      <c r="G15" s="304"/>
+      <c r="H15" s="304"/>
+      <c r="I15" s="304"/>
       <c r="J15" s="20" t="s">
         <v>162</v>
       </c>
@@ -13404,19 +13392,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="367" t="s">
+      <c r="A16" s="296" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="370" t="s">
+      <c r="B16" s="299" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="371"/>
-      <c r="D16" s="371"/>
-      <c r="E16" s="371"/>
-      <c r="F16" s="371"/>
-      <c r="G16" s="371"/>
-      <c r="H16" s="371"/>
-      <c r="I16" s="371"/>
+      <c r="C16" s="300"/>
+      <c r="D16" s="300"/>
+      <c r="E16" s="300"/>
+      <c r="F16" s="300"/>
+      <c r="G16" s="300"/>
+      <c r="H16" s="300"/>
+      <c r="I16" s="300"/>
       <c r="J16" s="18" t="s">
         <v>157</v>
       </c>
@@ -13427,17 +13415,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="368"/>
-      <c r="B17" s="372" t="s">
+      <c r="A17" s="297"/>
+      <c r="B17" s="301" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="373"/>
-      <c r="D17" s="373"/>
-      <c r="E17" s="373"/>
-      <c r="F17" s="373"/>
-      <c r="G17" s="373"/>
-      <c r="H17" s="373"/>
-      <c r="I17" s="373"/>
+      <c r="C17" s="302"/>
+      <c r="D17" s="302"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="302"/>
+      <c r="G17" s="302"/>
+      <c r="H17" s="302"/>
+      <c r="I17" s="302"/>
       <c r="J17" s="19" t="s">
         <v>163</v>
       </c>
@@ -13448,17 +13436,17 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="369"/>
-      <c r="B18" s="374" t="s">
+      <c r="A18" s="298"/>
+      <c r="B18" s="303" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="375"/>
-      <c r="D18" s="375"/>
-      <c r="E18" s="375"/>
-      <c r="F18" s="375"/>
-      <c r="G18" s="375"/>
-      <c r="H18" s="375"/>
-      <c r="I18" s="375"/>
+      <c r="C18" s="304"/>
+      <c r="D18" s="304"/>
+      <c r="E18" s="304"/>
+      <c r="F18" s="304"/>
+      <c r="G18" s="304"/>
+      <c r="H18" s="304"/>
+      <c r="I18" s="304"/>
       <c r="J18" s="20" t="s">
         <v>158</v>
       </c>
@@ -13593,24 +13581,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13676,30 +13646,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13714,4 +13679,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6589895D-881C-4C1C-8A57-9F251B8CE131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574E767C-C213-42BA-8C22-AF8D2F92B39E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="966" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2153,7 +2153,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="409">
+  <cellXfs count="414">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2321,9 +2321,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2870,191 +2867,77 @@
     <xf numFmtId="172" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="51" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="172" fontId="34" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="172" fontId="34" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3070,156 +2953,134 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="5" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="172" fontId="34" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="172" fontId="34" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="172" fontId="2" fillId="3" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="172" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3235,13 +3096,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3251,9 +3105,170 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="51" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3642,7 +3657,7 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3651,1348 +3666,1348 @@
     <col min="2" max="18" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="243" customFormat="1" ht="20.65" x14ac:dyDescent="0.6">
-      <c r="A1" s="242" t="s">
+    <row r="1" spans="1:6" s="242" customFormat="1" ht="20.65" x14ac:dyDescent="0.6">
+      <c r="A1" s="241" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="243" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="243" t="s">
+    <row r="2" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="242" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="243" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="243" t="s">
+    <row r="3" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="242" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="243" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="243" t="s">
+    <row r="4" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="242" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="281" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="281" t="s">
+    <row r="5" spans="1:6" s="280" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="280" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="243" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:6" s="243" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:6" s="243" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:6" s="243" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="243" t="s">
+    <row r="6" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="242" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="243" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:6" s="213" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="213" t="s">
+    <row r="10" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:6" s="212" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A11" s="212" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="154" t="s">
+      <c r="A13" s="153" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="154"/>
-    </row>
-    <row r="15" spans="1:6" s="214" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="214" t="s">
+      <c r="A14" s="153"/>
+    </row>
+    <row r="15" spans="1:6" s="213" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="213" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="215" t="s">
+      <c r="B16" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="154"/>
-      <c r="F16" s="215" t="s">
+      <c r="C16" s="153"/>
+      <c r="F16" s="214" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="214" t="s">
+      <c r="B17" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="214" t="s">
+      <c r="C17" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="214" t="s">
+      <c r="D17" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="214"/>
-      <c r="F17" s="214" t="s">
+      <c r="E17" s="213"/>
+      <c r="F17" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="214" t="s">
+      <c r="G17" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="214" t="s">
+      <c r="H17" s="213" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="154" t="s">
+      <c r="A18" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="210" t="s">
+      <c r="B18" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="210" t="s">
+      <c r="C18" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="210" t="s">
+      <c r="D18" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="217"/>
-      <c r="F18" s="210" t="s">
+      <c r="E18" s="216"/>
+      <c r="F18" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="210" t="s">
+      <c r="G18" s="209" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="210" t="s">
+      <c r="H18" s="209" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="154"/>
-      <c r="B19" s="211"/>
-      <c r="C19" s="211"/>
-      <c r="D19" s="211"/>
-      <c r="E19" s="216"/>
-      <c r="F19" s="211"/>
-      <c r="G19" s="211"/>
-      <c r="H19" s="211"/>
+      <c r="A19" s="153"/>
+      <c r="B19" s="210"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="210"/>
     </row>
     <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="154" t="s">
+      <c r="A20" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="210" t="s">
+      <c r="B20" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="210" t="s">
+      <c r="C20" s="209" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="210" t="s">
+      <c r="D20" s="209" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="217"/>
-      <c r="F20" s="210" t="s">
+      <c r="E20" s="216"/>
+      <c r="F20" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="210" t="s">
+      <c r="G20" s="209" t="s">
         <v>149</v>
       </c>
-      <c r="H20" s="210" t="s">
+      <c r="H20" s="209" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="154"/>
-      <c r="B21" s="211"/>
-      <c r="C21" s="211"/>
-      <c r="D21" s="211"/>
-      <c r="E21" s="216"/>
-      <c r="F21" s="211"/>
-      <c r="G21" s="211"/>
-      <c r="H21" s="211"/>
+      <c r="A21" s="153"/>
+      <c r="B21" s="210"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="210"/>
     </row>
     <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="154" t="s">
+      <c r="A22" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="210" t="s">
+      <c r="B22" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="210" t="s">
+      <c r="C22" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="210" t="s">
+      <c r="D22" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="217"/>
-      <c r="F22" s="210" t="s">
+      <c r="E22" s="216"/>
+      <c r="F22" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="210" t="s">
+      <c r="G22" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="H22" s="210" t="s">
+      <c r="H22" s="209" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="154"/>
-      <c r="B23" s="211"/>
-      <c r="C23" s="211"/>
-      <c r="D23" s="211"/>
-      <c r="E23" s="216"/>
-      <c r="F23" s="211"/>
-      <c r="G23" s="211"/>
-      <c r="H23" s="211"/>
+      <c r="A23" s="153"/>
+      <c r="B23" s="210"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="210"/>
+      <c r="G23" s="210"/>
+      <c r="H23" s="210"/>
     </row>
     <row r="24" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="154" t="s">
+      <c r="A24" s="153" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="210" t="s">
+      <c r="B24" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="210" t="s">
+      <c r="C24" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="210" t="s">
+      <c r="D24" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="217"/>
-      <c r="F24" s="210" t="s">
+      <c r="E24" s="216"/>
+      <c r="F24" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="210" t="s">
+      <c r="G24" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="210" t="s">
+      <c r="H24" s="209" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="216" t="s">
+      <c r="A25" s="215" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="210" t="s">
+      <c r="B25" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="210" t="s">
+      <c r="C25" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="210" t="s">
+      <c r="D25" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="216"/>
+      <c r="E25" s="215"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="216"/>
-      <c r="B26" s="210"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="210"/>
-      <c r="E26" s="216"/>
+      <c r="A26" s="215"/>
+      <c r="B26" s="209"/>
+      <c r="C26" s="209"/>
+      <c r="D26" s="209"/>
+      <c r="E26" s="215"/>
     </row>
     <row r="27" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="154" t="s">
+      <c r="A27" s="153" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="210" t="s">
+      <c r="B27" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="210" t="s">
+      <c r="C27" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="210" t="s">
+      <c r="D27" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="E27" s="217"/>
-      <c r="F27" s="210" t="s">
+      <c r="E27" s="216"/>
+      <c r="F27" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="G27" s="210" t="s">
+      <c r="G27" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="H27" s="210" t="s">
+      <c r="H27" s="209" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="216" t="s">
+      <c r="A28" s="215" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="210" t="s">
+      <c r="B28" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="210" t="s">
+      <c r="C28" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="210" t="s">
+      <c r="D28" s="209" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="216"/>
-    </row>
-    <row r="30" spans="1:9" s="214" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="214" t="s">
+      <c r="E28" s="215"/>
+    </row>
+    <row r="30" spans="1:9" s="213" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="213" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="215" t="s">
+      <c r="B31" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="154"/>
-      <c r="F31" s="215" t="s">
+      <c r="C31" s="153"/>
+      <c r="F31" s="214" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="214" t="s">
+      <c r="B32" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="214" t="s">
+      <c r="C32" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="214" t="s">
+      <c r="D32" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="214" t="s">
+      <c r="E32" s="213" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="214" t="s">
+      <c r="F32" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="214" t="s">
+      <c r="G32" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="214" t="s">
+      <c r="H32" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="I32" s="214" t="s">
+      <c r="I32" s="213" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="154" t="s">
+      <c r="A33" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="210" t="s">
+      <c r="B33" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="210" t="s">
+      <c r="C33" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="210" t="s">
+      <c r="D33" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="E33" s="210" t="s">
+      <c r="E33" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="210" t="s">
+      <c r="F33" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="G33" s="210" t="s">
+      <c r="G33" s="209" t="s">
         <v>145</v>
       </c>
-      <c r="H33" s="210" t="s">
+      <c r="H33" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="I33" s="210" t="s">
+      <c r="I33" s="209" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="154"/>
-      <c r="B34" s="211"/>
-      <c r="C34" s="211"/>
-      <c r="D34" s="211"/>
-      <c r="E34" s="211"/>
-      <c r="F34" s="211"/>
-      <c r="G34" s="211"/>
-      <c r="H34" s="211"/>
-      <c r="I34" s="211"/>
+      <c r="A34" s="153"/>
+      <c r="B34" s="210"/>
+      <c r="C34" s="210"/>
+      <c r="D34" s="210"/>
+      <c r="E34" s="210"/>
+      <c r="F34" s="210"/>
+      <c r="G34" s="210"/>
+      <c r="H34" s="210"/>
+      <c r="I34" s="210"/>
     </row>
     <row r="35" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="154" t="s">
+      <c r="A35" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="210" t="s">
+      <c r="B35" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="210" t="s">
+      <c r="C35" s="209" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="210" t="s">
+      <c r="D35" s="209" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="210" t="s">
+      <c r="E35" s="209" t="s">
         <v>143</v>
       </c>
-      <c r="F35" s="210" t="s">
+      <c r="F35" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="G35" s="210" t="s">
+      <c r="G35" s="209" t="s">
         <v>149</v>
       </c>
-      <c r="H35" s="210" t="s">
+      <c r="H35" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="I35" s="210" t="s">
+      <c r="I35" s="209" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="154"/>
-      <c r="B36" s="211"/>
-      <c r="C36" s="211"/>
-      <c r="D36" s="211"/>
-      <c r="E36" s="211"/>
-      <c r="F36" s="211"/>
-      <c r="G36" s="211"/>
-      <c r="H36" s="211"/>
-      <c r="I36" s="211"/>
+      <c r="A36" s="153"/>
+      <c r="B36" s="210"/>
+      <c r="C36" s="210"/>
+      <c r="D36" s="210"/>
+      <c r="E36" s="210"/>
+      <c r="F36" s="210"/>
+      <c r="G36" s="210"/>
+      <c r="H36" s="210"/>
+      <c r="I36" s="210"/>
     </row>
     <row r="37" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="154" t="s">
+      <c r="A37" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="210" t="s">
+      <c r="B37" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="210" t="s">
+      <c r="C37" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="210" t="s">
+      <c r="D37" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="E37" s="210" t="s">
+      <c r="E37" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="F37" s="210" t="s">
+      <c r="F37" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="G37" s="210" t="s">
+      <c r="G37" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="H37" s="210" t="s">
+      <c r="H37" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="I37" s="210" t="s">
+      <c r="I37" s="209" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="154"/>
-      <c r="B38" s="211"/>
-      <c r="C38" s="211"/>
-      <c r="D38" s="211"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="211"/>
-      <c r="G38" s="211"/>
-      <c r="H38" s="211"/>
-      <c r="I38" s="211"/>
+      <c r="A38" s="153"/>
+      <c r="B38" s="210"/>
+      <c r="C38" s="210"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="210"/>
+      <c r="F38" s="210"/>
+      <c r="G38" s="210"/>
+      <c r="H38" s="210"/>
+      <c r="I38" s="210"/>
     </row>
     <row r="39" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="154" t="s">
+      <c r="A39" s="153" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="210" t="s">
+      <c r="B39" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="210" t="s">
+      <c r="C39" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="210" t="s">
+      <c r="D39" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="E39" s="210" t="s">
+      <c r="E39" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="F39" s="212" t="s">
+      <c r="F39" s="211" t="s">
         <v>85</v>
       </c>
-      <c r="G39" s="210" t="s">
+      <c r="G39" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="H39" s="210" t="s">
+      <c r="H39" s="209" t="s">
         <v>90</v>
       </c>
-      <c r="I39" s="210" t="s">
+      <c r="I39" s="209" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="216" t="s">
+      <c r="A40" s="215" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="210" t="s">
+      <c r="B40" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="210" t="s">
+      <c r="C40" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="210" t="s">
+      <c r="D40" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="210" t="s">
+      <c r="E40" s="209" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B41" s="216"/>
-      <c r="C41" s="216"/>
-      <c r="D41" s="216"/>
-      <c r="E41" s="216"/>
+      <c r="B41" s="215"/>
+      <c r="C41" s="215"/>
+      <c r="D41" s="215"/>
+      <c r="E41" s="215"/>
     </row>
     <row r="42" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="154" t="s">
+      <c r="A42" s="153" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="210" t="s">
+      <c r="B42" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="210" t="s">
+      <c r="C42" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="210" t="s">
+      <c r="D42" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="210" t="s">
+      <c r="E42" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="F42" s="210" t="s">
+      <c r="F42" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="210" t="s">
+      <c r="G42" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="H42" s="210" t="s">
+      <c r="H42" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="I42" s="210" t="s">
+      <c r="I42" s="209" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="216" t="s">
+      <c r="A43" s="215" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="210" t="s">
+      <c r="B43" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="210" t="s">
+      <c r="C43" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="210" t="s">
+      <c r="D43" s="209" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="210" t="s">
+      <c r="E43" s="209" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B44" s="216"/>
-      <c r="C44" s="216"/>
-      <c r="D44" s="216"/>
-      <c r="E44" s="216"/>
+      <c r="B44" s="215"/>
+      <c r="C44" s="215"/>
+      <c r="D44" s="215"/>
+      <c r="E44" s="215"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B45" s="216"/>
-      <c r="C45" s="216"/>
-      <c r="D45" s="216"/>
-      <c r="E45" s="216"/>
+      <c r="B45" s="215"/>
+      <c r="C45" s="215"/>
+      <c r="D45" s="215"/>
+      <c r="E45" s="215"/>
     </row>
     <row r="46" spans="1:14" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A46" s="214" t="s">
+      <c r="A46" s="213" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="215" t="s">
+      <c r="B48" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="154"/>
-      <c r="F48" s="215" t="s">
+      <c r="C48" s="153"/>
+      <c r="F48" s="214" t="s">
         <v>80</v>
       </c>
-      <c r="J48" s="215" t="s">
+      <c r="J48" s="214" t="s">
         <v>94</v>
       </c>
-      <c r="K48" s="154"/>
-      <c r="N48" s="215" t="s">
+      <c r="K48" s="153"/>
+      <c r="N48" s="214" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="214" t="s">
+      <c r="B49" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="214" t="s">
+      <c r="C49" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="214" t="s">
+      <c r="D49" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="214"/>
-      <c r="F49" s="214" t="s">
+      <c r="E49" s="213"/>
+      <c r="F49" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="G49" s="214" t="s">
+      <c r="G49" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="H49" s="214" t="s">
+      <c r="H49" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="J49" s="214" t="s">
+      <c r="J49" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="K49" s="214" t="s">
+      <c r="K49" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="L49" s="214" t="s">
+      <c r="L49" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="M49" s="214"/>
-      <c r="N49" s="214" t="s">
+      <c r="M49" s="213"/>
+      <c r="N49" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="O49" s="214" t="s">
+      <c r="O49" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="P49" s="214" t="s">
+      <c r="P49" s="213" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="154" t="s">
+      <c r="A50" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="210" t="s">
+      <c r="B50" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="210" t="s">
+      <c r="C50" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="210" t="s">
+      <c r="D50" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="E50" s="217"/>
-      <c r="F50" s="210" t="s">
+      <c r="E50" s="216"/>
+      <c r="F50" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="G50" s="210" t="s">
+      <c r="G50" s="209" t="s">
         <v>145</v>
       </c>
-      <c r="H50" s="210" t="s">
+      <c r="H50" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="J50" s="210" t="s">
+      <c r="J50" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="K50" s="210" t="s">
+      <c r="K50" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="L50" s="210" t="s">
+      <c r="L50" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="M50" s="217"/>
-      <c r="N50" s="210" t="s">
+      <c r="M50" s="216"/>
+      <c r="N50" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="O50" s="210" t="s">
+      <c r="O50" s="209" t="s">
         <v>145</v>
       </c>
-      <c r="P50" s="210" t="s">
+      <c r="P50" s="209" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="154"/>
-      <c r="B51" s="211"/>
-      <c r="C51" s="211"/>
-      <c r="D51" s="211"/>
-      <c r="E51" s="216"/>
-      <c r="F51" s="211"/>
-      <c r="G51" s="211"/>
-      <c r="H51" s="211"/>
-      <c r="J51" s="211"/>
-      <c r="K51" s="211"/>
-      <c r="L51" s="211"/>
-      <c r="M51" s="216"/>
-      <c r="N51" s="211"/>
-      <c r="O51" s="211"/>
-      <c r="P51" s="211"/>
+      <c r="A51" s="153"/>
+      <c r="B51" s="210"/>
+      <c r="C51" s="210"/>
+      <c r="D51" s="210"/>
+      <c r="E51" s="215"/>
+      <c r="F51" s="210"/>
+      <c r="G51" s="210"/>
+      <c r="H51" s="210"/>
+      <c r="J51" s="210"/>
+      <c r="K51" s="210"/>
+      <c r="L51" s="210"/>
+      <c r="M51" s="215"/>
+      <c r="N51" s="210"/>
+      <c r="O51" s="210"/>
+      <c r="P51" s="210"/>
     </row>
     <row r="52" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="154" t="s">
+      <c r="A52" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="210" t="s">
+      <c r="B52" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="210" t="s">
+      <c r="C52" s="209" t="s">
         <v>143</v>
       </c>
-      <c r="D52" s="210" t="s">
+      <c r="D52" s="209" t="s">
         <v>143</v>
       </c>
-      <c r="E52" s="217"/>
-      <c r="F52" s="210" t="s">
+      <c r="E52" s="216"/>
+      <c r="F52" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="G52" s="210" t="s">
+      <c r="G52" s="209" t="s">
         <v>149</v>
       </c>
-      <c r="H52" s="210" t="s">
+      <c r="H52" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="J52" s="210" t="s">
+      <c r="J52" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="K52" s="210" t="s">
+      <c r="K52" s="209" t="s">
         <v>143</v>
       </c>
-      <c r="L52" s="210" t="s">
+      <c r="L52" s="209" t="s">
         <v>143</v>
       </c>
-      <c r="M52" s="217"/>
-      <c r="N52" s="210" t="s">
+      <c r="M52" s="216"/>
+      <c r="N52" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="O52" s="210" t="s">
+      <c r="O52" s="209" t="s">
         <v>149</v>
       </c>
-      <c r="P52" s="210" t="s">
+      <c r="P52" s="209" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="154"/>
-      <c r="B53" s="211"/>
-      <c r="C53" s="211"/>
-      <c r="D53" s="211"/>
-      <c r="E53" s="216"/>
-      <c r="F53" s="211"/>
-      <c r="G53" s="211"/>
-      <c r="H53" s="211"/>
-      <c r="J53" s="211"/>
-      <c r="K53" s="211"/>
-      <c r="L53" s="211"/>
-      <c r="M53" s="216"/>
-      <c r="N53" s="211"/>
-      <c r="O53" s="211"/>
-      <c r="P53" s="211"/>
+      <c r="A53" s="153"/>
+      <c r="B53" s="210"/>
+      <c r="C53" s="210"/>
+      <c r="D53" s="210"/>
+      <c r="E53" s="215"/>
+      <c r="F53" s="210"/>
+      <c r="G53" s="210"/>
+      <c r="H53" s="210"/>
+      <c r="J53" s="210"/>
+      <c r="K53" s="210"/>
+      <c r="L53" s="210"/>
+      <c r="M53" s="215"/>
+      <c r="N53" s="210"/>
+      <c r="O53" s="210"/>
+      <c r="P53" s="210"/>
     </row>
     <row r="54" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="154" t="s">
+      <c r="A54" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="210" t="s">
+      <c r="B54" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="210" t="s">
+      <c r="C54" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="D54" s="210" t="s">
+      <c r="D54" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="E54" s="217"/>
-      <c r="F54" s="210" t="s">
+      <c r="E54" s="216"/>
+      <c r="F54" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="G54" s="210" t="s">
+      <c r="G54" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="H54" s="210" t="s">
+      <c r="H54" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="J54" s="210" t="s">
+      <c r="J54" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="K54" s="210" t="s">
+      <c r="K54" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="L54" s="210" t="s">
+      <c r="L54" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="M54" s="217"/>
-      <c r="N54" s="210" t="s">
+      <c r="M54" s="216"/>
+      <c r="N54" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="O54" s="210" t="s">
+      <c r="O54" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="P54" s="210" t="s">
+      <c r="P54" s="209" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="154"/>
-      <c r="B55" s="211"/>
-      <c r="C55" s="211"/>
-      <c r="D55" s="211"/>
-      <c r="E55" s="216"/>
-      <c r="F55" s="211"/>
-      <c r="G55" s="211"/>
-      <c r="H55" s="211"/>
-      <c r="J55" s="211"/>
-      <c r="K55" s="211"/>
-      <c r="L55" s="211"/>
-      <c r="M55" s="216"/>
-      <c r="N55" s="211"/>
-      <c r="O55" s="211"/>
-      <c r="P55" s="211"/>
+      <c r="A55" s="153"/>
+      <c r="B55" s="210"/>
+      <c r="C55" s="210"/>
+      <c r="D55" s="210"/>
+      <c r="E55" s="215"/>
+      <c r="F55" s="210"/>
+      <c r="G55" s="210"/>
+      <c r="H55" s="210"/>
+      <c r="J55" s="210"/>
+      <c r="K55" s="210"/>
+      <c r="L55" s="210"/>
+      <c r="M55" s="215"/>
+      <c r="N55" s="210"/>
+      <c r="O55" s="210"/>
+      <c r="P55" s="210"/>
     </row>
     <row r="56" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="154" t="s">
+      <c r="A56" s="153" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="210" t="s">
+      <c r="B56" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="210" t="s">
+      <c r="C56" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="D56" s="210" t="s">
+      <c r="D56" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="E56" s="217"/>
-      <c r="F56" s="210" t="s">
+      <c r="E56" s="216"/>
+      <c r="F56" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="G56" s="210" t="s">
+      <c r="G56" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="H56" s="210" t="s">
+      <c r="H56" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="J56" s="210" t="s">
+      <c r="J56" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="K56" s="210" t="s">
+      <c r="K56" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="L56" s="210" t="s">
+      <c r="L56" s="209" t="s">
         <v>90</v>
       </c>
-      <c r="M56" s="217"/>
-      <c r="N56" s="210" t="s">
+      <c r="M56" s="216"/>
+      <c r="N56" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="O56" s="210" t="s">
+      <c r="O56" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="P56" s="210" t="s">
+      <c r="P56" s="209" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E57" s="216"/>
-      <c r="J57" s="218"/>
-      <c r="K57" s="218"/>
-      <c r="L57" s="218"/>
-      <c r="M57" s="216"/>
+      <c r="E57" s="215"/>
+      <c r="J57" s="217"/>
+      <c r="K57" s="217"/>
+      <c r="L57" s="217"/>
+      <c r="M57" s="215"/>
     </row>
     <row r="59" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A59" s="214" t="s">
+      <c r="A59" s="213" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="215" t="s">
+      <c r="B61" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="154"/>
-      <c r="F61" s="215" t="s">
+      <c r="C61" s="153"/>
+      <c r="F61" s="214" t="s">
         <v>80</v>
       </c>
-      <c r="J61" s="215" t="s">
+      <c r="J61" s="214" t="s">
         <v>94</v>
       </c>
-      <c r="K61" s="154"/>
-      <c r="N61" s="215" t="s">
+      <c r="K61" s="153"/>
+      <c r="N61" s="214" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="214" t="s">
+      <c r="B62" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="214" t="s">
+      <c r="C62" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="214" t="s">
+      <c r="D62" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="E62" s="214" t="s">
+      <c r="E62" s="213" t="s">
         <v>93</v>
       </c>
-      <c r="F62" s="214" t="s">
+      <c r="F62" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="G62" s="214" t="s">
+      <c r="G62" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="H62" s="214" t="s">
+      <c r="H62" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="I62" s="214" t="s">
+      <c r="I62" s="213" t="s">
         <v>93</v>
       </c>
-      <c r="J62" s="214" t="s">
+      <c r="J62" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="K62" s="214" t="s">
+      <c r="K62" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="L62" s="214" t="s">
+      <c r="L62" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="M62" s="214" t="s">
+      <c r="M62" s="213" t="s">
         <v>93</v>
       </c>
-      <c r="N62" s="214" t="s">
+      <c r="N62" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="O62" s="214" t="s">
+      <c r="O62" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="P62" s="214" t="s">
+      <c r="P62" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="Q62" s="214" t="s">
+      <c r="Q62" s="213" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="154" t="s">
+      <c r="A63" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="210" t="s">
+      <c r="B63" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C63" s="210" t="s">
+      <c r="C63" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="D63" s="210" t="s">
+      <c r="D63" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="E63" s="210" t="s">
+      <c r="E63" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="F63" s="210" t="s">
+      <c r="F63" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="G63" s="210" t="s">
+      <c r="G63" s="209" t="s">
         <v>145</v>
       </c>
-      <c r="H63" s="210" t="s">
+      <c r="H63" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="I63" s="210" t="s">
+      <c r="I63" s="209" t="s">
         <v>145</v>
       </c>
-      <c r="J63" s="210" t="s">
+      <c r="J63" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="K63" s="210" t="s">
+      <c r="K63" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="L63" s="210" t="s">
+      <c r="L63" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="M63" s="210" t="s">
+      <c r="M63" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="N63" s="210" t="s">
+      <c r="N63" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="O63" s="210" t="s">
+      <c r="O63" s="209" t="s">
         <v>145</v>
       </c>
-      <c r="P63" s="210" t="s">
+      <c r="P63" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="Q63" s="210" t="s">
+      <c r="Q63" s="209" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="154"/>
-      <c r="B64" s="211"/>
-      <c r="C64" s="211"/>
-      <c r="D64" s="211"/>
-      <c r="E64" s="211"/>
-      <c r="F64" s="211"/>
-      <c r="G64" s="211"/>
-      <c r="H64" s="211"/>
-      <c r="I64" s="211"/>
-      <c r="J64" s="211"/>
-      <c r="K64" s="211"/>
-      <c r="L64" s="211"/>
-      <c r="M64" s="211"/>
-      <c r="N64" s="211"/>
-      <c r="O64" s="211"/>
-      <c r="P64" s="211"/>
-      <c r="Q64" s="211"/>
+      <c r="A64" s="153"/>
+      <c r="B64" s="210"/>
+      <c r="C64" s="210"/>
+      <c r="D64" s="210"/>
+      <c r="E64" s="210"/>
+      <c r="F64" s="210"/>
+      <c r="G64" s="210"/>
+      <c r="H64" s="210"/>
+      <c r="I64" s="210"/>
+      <c r="J64" s="210"/>
+      <c r="K64" s="210"/>
+      <c r="L64" s="210"/>
+      <c r="M64" s="210"/>
+      <c r="N64" s="210"/>
+      <c r="O64" s="210"/>
+      <c r="P64" s="210"/>
+      <c r="Q64" s="210"/>
     </row>
     <row r="65" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="154" t="s">
+      <c r="A65" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="210" t="s">
+      <c r="B65" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C65" s="210" t="s">
+      <c r="C65" s="209" t="s">
         <v>143</v>
       </c>
-      <c r="D65" s="210" t="s">
+      <c r="D65" s="209" t="s">
         <v>143</v>
       </c>
-      <c r="E65" s="210" t="s">
+      <c r="E65" s="209" t="s">
         <v>143</v>
       </c>
-      <c r="F65" s="210" t="s">
+      <c r="F65" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="G65" s="210" t="s">
+      <c r="G65" s="209" t="s">
         <v>149</v>
       </c>
-      <c r="H65" s="210" t="s">
+      <c r="H65" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="I65" s="210" t="s">
+      <c r="I65" s="209" t="s">
         <v>149</v>
       </c>
-      <c r="J65" s="210" t="s">
+      <c r="J65" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="K65" s="210" t="s">
+      <c r="K65" s="209" t="s">
         <v>143</v>
       </c>
-      <c r="L65" s="210" t="s">
+      <c r="L65" s="209" t="s">
         <v>143</v>
       </c>
-      <c r="M65" s="210" t="s">
+      <c r="M65" s="209" t="s">
         <v>143</v>
       </c>
-      <c r="N65" s="210" t="s">
+      <c r="N65" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="O65" s="210" t="s">
+      <c r="O65" s="209" t="s">
         <v>149</v>
       </c>
-      <c r="P65" s="210" t="s">
+      <c r="P65" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="Q65" s="210" t="s">
+      <c r="Q65" s="209" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="154"/>
-      <c r="B66" s="211"/>
-      <c r="C66" s="211"/>
-      <c r="D66" s="211"/>
-      <c r="E66" s="211"/>
-      <c r="F66" s="211"/>
-      <c r="G66" s="211"/>
-      <c r="H66" s="211"/>
-      <c r="I66" s="211"/>
-      <c r="J66" s="211"/>
-      <c r="K66" s="211"/>
-      <c r="L66" s="211"/>
-      <c r="M66" s="211"/>
-      <c r="N66" s="211"/>
-      <c r="O66" s="211"/>
-      <c r="P66" s="211"/>
-      <c r="Q66" s="211"/>
+      <c r="A66" s="153"/>
+      <c r="B66" s="210"/>
+      <c r="C66" s="210"/>
+      <c r="D66" s="210"/>
+      <c r="E66" s="210"/>
+      <c r="F66" s="210"/>
+      <c r="G66" s="210"/>
+      <c r="H66" s="210"/>
+      <c r="I66" s="210"/>
+      <c r="J66" s="210"/>
+      <c r="K66" s="210"/>
+      <c r="L66" s="210"/>
+      <c r="M66" s="210"/>
+      <c r="N66" s="210"/>
+      <c r="O66" s="210"/>
+      <c r="P66" s="210"/>
+      <c r="Q66" s="210"/>
     </row>
     <row r="67" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="154" t="s">
+      <c r="A67" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="210" t="s">
+      <c r="B67" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="210" t="s">
+      <c r="C67" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="D67" s="210" t="s">
+      <c r="D67" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="E67" s="210" t="s">
+      <c r="E67" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="F67" s="210" t="s">
+      <c r="F67" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="G67" s="210" t="s">
+      <c r="G67" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="H67" s="210" t="s">
+      <c r="H67" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="I67" s="210" t="s">
+      <c r="I67" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="J67" s="210" t="s">
+      <c r="J67" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="K67" s="210" t="s">
+      <c r="K67" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="L67" s="210" t="s">
+      <c r="L67" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="M67" s="210" t="s">
+      <c r="M67" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="N67" s="210" t="s">
+      <c r="N67" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="O67" s="210" t="s">
+      <c r="O67" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="P67" s="210" t="s">
+      <c r="P67" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="Q67" s="210" t="s">
+      <c r="Q67" s="209" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="154"/>
-      <c r="B68" s="211"/>
-      <c r="C68" s="211"/>
-      <c r="D68" s="211"/>
-      <c r="E68" s="211"/>
-      <c r="F68" s="211"/>
-      <c r="G68" s="211"/>
-      <c r="H68" s="211"/>
-      <c r="I68" s="211"/>
-      <c r="J68" s="211"/>
-      <c r="K68" s="211"/>
-      <c r="L68" s="211"/>
-      <c r="M68" s="211"/>
-      <c r="N68" s="211"/>
-      <c r="O68" s="211"/>
-      <c r="P68" s="211"/>
-      <c r="Q68" s="211"/>
+      <c r="A68" s="153"/>
+      <c r="B68" s="210"/>
+      <c r="C68" s="210"/>
+      <c r="D68" s="210"/>
+      <c r="E68" s="210"/>
+      <c r="F68" s="210"/>
+      <c r="G68" s="210"/>
+      <c r="H68" s="210"/>
+      <c r="I68" s="210"/>
+      <c r="J68" s="210"/>
+      <c r="K68" s="210"/>
+      <c r="L68" s="210"/>
+      <c r="M68" s="210"/>
+      <c r="N68" s="210"/>
+      <c r="O68" s="210"/>
+      <c r="P68" s="210"/>
+      <c r="Q68" s="210"/>
     </row>
     <row r="69" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="154" t="s">
+      <c r="A69" s="153" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="210" t="s">
+      <c r="B69" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C69" s="210" t="s">
+      <c r="C69" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="D69" s="210" t="s">
+      <c r="D69" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="E69" s="210" t="s">
+      <c r="E69" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="F69" s="210" t="s">
+      <c r="F69" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="G69" s="210" t="s">
+      <c r="G69" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="H69" s="210" t="s">
+      <c r="H69" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="I69" s="210" t="s">
+      <c r="I69" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="J69" s="210" t="s">
+      <c r="J69" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="K69" s="210" t="s">
+      <c r="K69" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="L69" s="210" t="s">
+      <c r="L69" s="209" t="s">
         <v>90</v>
       </c>
-      <c r="M69" s="210" t="s">
+      <c r="M69" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="N69" s="210" t="s">
+      <c r="N69" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="O69" s="210" t="s">
+      <c r="O69" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="P69" s="210" t="s">
+      <c r="P69" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="Q69" s="210" t="s">
+      <c r="Q69" s="209" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="243" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A73" s="245" t="s">
+    <row r="73" spans="1:17" s="242" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A73" s="244" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="214" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A74" s="248" t="s">
+    <row r="74" spans="1:17" s="213" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A74" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="B74" s="248" t="s">
+      <c r="B74" s="247" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="248" t="s">
+      <c r="C74" s="247" t="s">
         <v>82</v>
       </c>
-      <c r="D74" s="248" t="s">
+      <c r="D74" s="247" t="s">
         <v>84</v>
       </c>
-      <c r="E74" s="248" t="s">
+      <c r="E74" s="247" t="s">
         <v>93</v>
       </c>
-      <c r="F74" s="248" t="s">
+      <c r="F74" s="247" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A75" s="244" t="s">
+      <c r="A75" s="243" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="244" t="s">
+      <c r="B75" s="243" t="s">
         <v>101</v>
       </c>
-      <c r="C75" s="250" t="s">
+      <c r="C75" s="249" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="250" t="s">
+      <c r="D75" s="249" t="s">
         <v>113</v>
       </c>
-      <c r="E75" s="244" t="s">
+      <c r="E75" s="243" t="s">
         <v>102</v>
       </c>
-      <c r="F75" s="244" t="s">
+      <c r="F75" s="243" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A76" s="244" t="s">
+      <c r="A76" s="243" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="244" t="s">
+      <c r="B76" s="243" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="244" t="s">
+      <c r="C76" s="243" t="s">
         <v>105</v>
       </c>
-      <c r="D76" s="250" t="s">
+      <c r="D76" s="249" t="s">
         <v>155</v>
       </c>
-      <c r="E76" s="244" t="s">
+      <c r="E76" s="243" t="s">
         <v>107</v>
       </c>
-      <c r="F76" s="244" t="s">
+      <c r="F76" s="243" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A77" s="244" t="s">
+      <c r="A77" s="243" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="244" t="s">
+      <c r="B77" s="243" t="s">
         <v>101</v>
       </c>
-      <c r="C77" s="244" t="s">
+      <c r="C77" s="243" t="s">
         <v>105</v>
       </c>
-      <c r="D77" s="250" t="s">
+      <c r="D77" s="249" t="s">
         <v>155</v>
       </c>
-      <c r="E77" s="244" t="s">
+      <c r="E77" s="243" t="s">
         <v>107</v>
       </c>
-      <c r="F77" s="244" t="s">
+      <c r="F77" s="243" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="244"/>
-      <c r="B78" s="244"/>
-      <c r="C78" s="244"/>
-      <c r="D78" s="244"/>
-      <c r="E78" s="244"/>
-      <c r="F78" s="246" t="s">
+      <c r="A78" s="243"/>
+      <c r="B78" s="243"/>
+      <c r="C78" s="243"/>
+      <c r="D78" s="243"/>
+      <c r="E78" s="243"/>
+      <c r="F78" s="245" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F79" s="247"/>
+      <c r="F79" s="246"/>
     </row>
     <row r="80" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F80" s="247"/>
-    </row>
-    <row r="82" spans="1:6" s="214" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A82" s="249" t="s">
+      <c r="F80" s="246"/>
+    </row>
+    <row r="82" spans="1:6" s="213" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A82" s="248" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="248" t="s">
+      <c r="B82" s="247" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="248" t="s">
+      <c r="C82" s="247" t="s">
         <v>82</v>
       </c>
-      <c r="D82" s="248" t="s">
+      <c r="D82" s="247" t="s">
         <v>84</v>
       </c>
-      <c r="E82" s="248" t="s">
+      <c r="E82" s="247" t="s">
         <v>93</v>
       </c>
-      <c r="F82" s="248" t="s">
+      <c r="F82" s="247" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="244" t="s">
+      <c r="A83" s="243" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="244" t="s">
+      <c r="B83" s="243" t="s">
         <v>101</v>
       </c>
-      <c r="C83" s="250" t="s">
+      <c r="C83" s="249" t="s">
         <v>113</v>
       </c>
-      <c r="D83" s="250" t="s">
+      <c r="D83" s="249" t="s">
         <v>113</v>
       </c>
-      <c r="E83" s="244" t="s">
+      <c r="E83" s="243" t="s">
         <v>102</v>
       </c>
-      <c r="F83" s="244" t="s">
+      <c r="F83" s="243" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="244" t="s">
+      <c r="A84" s="243" t="s">
         <v>104</v>
       </c>
-      <c r="B84" s="244" t="s">
+      <c r="B84" s="243" t="s">
         <v>101</v>
       </c>
-      <c r="C84" s="244" t="s">
+      <c r="C84" s="243" t="s">
         <v>105</v>
       </c>
-      <c r="D84" s="244" t="s">
+      <c r="D84" s="243" t="s">
         <v>106</v>
       </c>
-      <c r="E84" s="244" t="s">
+      <c r="E84" s="243" t="s">
         <v>107</v>
       </c>
-      <c r="F84" s="244" t="s">
+      <c r="F84" s="243" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="244"/>
-      <c r="B85" s="244"/>
-      <c r="C85" s="244"/>
-      <c r="D85" s="244"/>
-      <c r="E85" s="244"/>
-      <c r="F85" s="210" t="s">
+      <c r="A85" s="243"/>
+      <c r="B85" s="243"/>
+      <c r="C85" s="243"/>
+      <c r="D85" s="243"/>
+      <c r="E85" s="243"/>
+      <c r="F85" s="209" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="245" customFormat="1" ht="17.25" x14ac:dyDescent="0.45"/>
+    <row r="88" spans="1:6" s="244" customFormat="1" ht="17.25" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5010,7 +5025,7 @@
   </sheetPr>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -5628,7 +5643,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="260"/>
+      <c r="C4" s="259"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -5645,10 +5660,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="287"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -5662,10 +5677,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="287"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -5677,10 +5692,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="262"/>
-      <c r="E7" s="262"/>
-      <c r="F7" s="262"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="28" t="s">
@@ -5694,30 +5709,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="294"/>
-      <c r="D8" s="294"/>
-      <c r="E8" s="294"/>
-      <c r="F8" s="294"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="287"/>
-      <c r="D9" s="287"/>
-      <c r="E9" s="287"/>
-      <c r="F9" s="287"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -5730,120 +5745,120 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="296" t="s">
+      <c r="A14" s="372" t="s">
         <v>169</v>
       </c>
-      <c r="B14" s="305" t="s">
+      <c r="B14" s="381" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="306"/>
-      <c r="D14" s="306"/>
-      <c r="E14" s="306"/>
-      <c r="F14" s="306"/>
-      <c r="G14" s="306"/>
-      <c r="H14" s="306"/>
-      <c r="I14" s="307"/>
+      <c r="C14" s="382"/>
+      <c r="D14" s="382"/>
+      <c r="E14" s="382"/>
+      <c r="F14" s="382"/>
+      <c r="G14" s="382"/>
+      <c r="H14" s="382"/>
+      <c r="I14" s="383"/>
       <c r="J14" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="K14" s="270">
+      <c r="K14" s="269">
         <v>0</v>
       </c>
-      <c r="L14" s="150">
+      <c r="L14" s="149">
         <f>K14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="298"/>
-      <c r="B15" s="308" t="s">
+      <c r="A15" s="374"/>
+      <c r="B15" s="384" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="304"/>
-      <c r="D15" s="304"/>
-      <c r="E15" s="304"/>
-      <c r="F15" s="304"/>
-      <c r="G15" s="304"/>
-      <c r="H15" s="304"/>
-      <c r="I15" s="304"/>
+      <c r="C15" s="380"/>
+      <c r="D15" s="380"/>
+      <c r="E15" s="380"/>
+      <c r="F15" s="380"/>
+      <c r="G15" s="380"/>
+      <c r="H15" s="380"/>
+      <c r="I15" s="380"/>
       <c r="J15" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="K15" s="271">
+      <c r="K15" s="270">
         <v>0</v>
       </c>
-      <c r="L15" s="253">
+      <c r="L15" s="252">
         <f>K15*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="296" t="s">
+      <c r="A16" s="372" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="299" t="s">
+      <c r="B16" s="375" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="300"/>
-      <c r="D16" s="300"/>
-      <c r="E16" s="300"/>
-      <c r="F16" s="300"/>
-      <c r="G16" s="300"/>
-      <c r="H16" s="300"/>
-      <c r="I16" s="300"/>
+      <c r="C16" s="376"/>
+      <c r="D16" s="376"/>
+      <c r="E16" s="376"/>
+      <c r="F16" s="376"/>
+      <c r="G16" s="376"/>
+      <c r="H16" s="376"/>
+      <c r="I16" s="376"/>
       <c r="J16" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="K16" s="272">
+      <c r="K16" s="271">
         <v>0</v>
       </c>
-      <c r="L16" s="148">
+      <c r="L16" s="147">
         <f>K16*0.35</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="297"/>
-      <c r="B17" s="301" t="s">
+      <c r="A17" s="373"/>
+      <c r="B17" s="377" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="302"/>
-      <c r="D17" s="302"/>
-      <c r="E17" s="302"/>
-      <c r="F17" s="302"/>
-      <c r="G17" s="302"/>
-      <c r="H17" s="302"/>
-      <c r="I17" s="302"/>
+      <c r="C17" s="378"/>
+      <c r="D17" s="378"/>
+      <c r="E17" s="378"/>
+      <c r="F17" s="378"/>
+      <c r="G17" s="378"/>
+      <c r="H17" s="378"/>
+      <c r="I17" s="378"/>
       <c r="J17" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="K17" s="273">
+      <c r="K17" s="272">
         <v>0</v>
       </c>
-      <c r="L17" s="146">
+      <c r="L17" s="145">
         <f>K17*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="298"/>
-      <c r="B18" s="303" t="s">
+      <c r="A18" s="374"/>
+      <c r="B18" s="379" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="304"/>
-      <c r="D18" s="304"/>
-      <c r="E18" s="304"/>
-      <c r="F18" s="304"/>
-      <c r="G18" s="304"/>
-      <c r="H18" s="304"/>
-      <c r="I18" s="304"/>
+      <c r="C18" s="380"/>
+      <c r="D18" s="380"/>
+      <c r="E18" s="380"/>
+      <c r="F18" s="380"/>
+      <c r="G18" s="380"/>
+      <c r="H18" s="380"/>
+      <c r="I18" s="380"/>
       <c r="J18" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="284">
+      <c r="K18" s="283">
         <v>0</v>
       </c>
-      <c r="L18" s="252">
+      <c r="L18" s="251">
         <f>K18*0</f>
         <v>0</v>
       </c>
@@ -5895,7 +5910,7 @@
       <c r="I21" s="56"/>
       <c r="J21" s="56"/>
       <c r="K21" s="56"/>
-      <c r="L21" s="280"/>
+      <c r="L21" s="279"/>
       <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -5977,7 +5992,7 @@
   <sheetPr codeName="Blad8"/>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -6595,7 +6610,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="260"/>
+      <c r="C4" s="259"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -6612,10 +6627,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="287"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -6629,10 +6644,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="287"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -6644,10 +6659,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="262"/>
-      <c r="E7" s="262"/>
-      <c r="F7" s="262"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="28" t="s">
@@ -6661,30 +6676,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="294"/>
-      <c r="D8" s="294"/>
-      <c r="E8" s="294"/>
-      <c r="F8" s="294"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="287"/>
-      <c r="D9" s="287"/>
-      <c r="E9" s="287"/>
-      <c r="F9" s="287"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6697,120 +6712,120 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="296" t="s">
+      <c r="A14" s="372" t="s">
         <v>169</v>
       </c>
-      <c r="B14" s="305" t="s">
+      <c r="B14" s="381" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="306"/>
-      <c r="D14" s="306"/>
-      <c r="E14" s="306"/>
-      <c r="F14" s="306"/>
-      <c r="G14" s="306"/>
-      <c r="H14" s="306"/>
-      <c r="I14" s="307"/>
+      <c r="C14" s="382"/>
+      <c r="D14" s="382"/>
+      <c r="E14" s="382"/>
+      <c r="F14" s="382"/>
+      <c r="G14" s="382"/>
+      <c r="H14" s="382"/>
+      <c r="I14" s="383"/>
       <c r="J14" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="K14" s="270">
+      <c r="K14" s="269">
         <v>0</v>
       </c>
-      <c r="L14" s="150">
+      <c r="L14" s="149">
         <f>K14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="298"/>
-      <c r="B15" s="308" t="s">
+      <c r="A15" s="374"/>
+      <c r="B15" s="384" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="304"/>
-      <c r="D15" s="304"/>
-      <c r="E15" s="304"/>
-      <c r="F15" s="304"/>
-      <c r="G15" s="304"/>
-      <c r="H15" s="304"/>
-      <c r="I15" s="304"/>
+      <c r="C15" s="380"/>
+      <c r="D15" s="380"/>
+      <c r="E15" s="380"/>
+      <c r="F15" s="380"/>
+      <c r="G15" s="380"/>
+      <c r="H15" s="380"/>
+      <c r="I15" s="380"/>
       <c r="J15" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="K15" s="271">
+      <c r="K15" s="270">
         <v>0</v>
       </c>
-      <c r="L15" s="253">
+      <c r="L15" s="252">
         <f>K15*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="296" t="s">
+      <c r="A16" s="372" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="299" t="s">
+      <c r="B16" s="375" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="300"/>
-      <c r="D16" s="300"/>
-      <c r="E16" s="300"/>
-      <c r="F16" s="300"/>
-      <c r="G16" s="300"/>
-      <c r="H16" s="300"/>
-      <c r="I16" s="300"/>
+      <c r="C16" s="376"/>
+      <c r="D16" s="376"/>
+      <c r="E16" s="376"/>
+      <c r="F16" s="376"/>
+      <c r="G16" s="376"/>
+      <c r="H16" s="376"/>
+      <c r="I16" s="376"/>
       <c r="J16" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="K16" s="272">
+      <c r="K16" s="271">
         <v>0</v>
       </c>
-      <c r="L16" s="148">
+      <c r="L16" s="147">
         <f>K16*0.35</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="297"/>
-      <c r="B17" s="301" t="s">
+      <c r="A17" s="373"/>
+      <c r="B17" s="377" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="302"/>
-      <c r="D17" s="302"/>
-      <c r="E17" s="302"/>
-      <c r="F17" s="302"/>
-      <c r="G17" s="302"/>
-      <c r="H17" s="302"/>
-      <c r="I17" s="302"/>
+      <c r="C17" s="378"/>
+      <c r="D17" s="378"/>
+      <c r="E17" s="378"/>
+      <c r="F17" s="378"/>
+      <c r="G17" s="378"/>
+      <c r="H17" s="378"/>
+      <c r="I17" s="378"/>
       <c r="J17" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="K17" s="273">
+      <c r="K17" s="272">
         <v>0</v>
       </c>
-      <c r="L17" s="146">
+      <c r="L17" s="145">
         <f>K17*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="298"/>
-      <c r="B18" s="303" t="s">
+      <c r="A18" s="374"/>
+      <c r="B18" s="379" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="304"/>
-      <c r="D18" s="304"/>
-      <c r="E18" s="304"/>
-      <c r="F18" s="304"/>
-      <c r="G18" s="304"/>
-      <c r="H18" s="304"/>
-      <c r="I18" s="304"/>
+      <c r="C18" s="380"/>
+      <c r="D18" s="380"/>
+      <c r="E18" s="380"/>
+      <c r="F18" s="380"/>
+      <c r="G18" s="380"/>
+      <c r="H18" s="380"/>
+      <c r="I18" s="380"/>
       <c r="J18" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="284">
+      <c r="K18" s="283">
         <v>0</v>
       </c>
-      <c r="L18" s="252">
+      <c r="L18" s="251">
         <f>K18*0</f>
         <v>0</v>
       </c>
@@ -6862,7 +6877,7 @@
       <c r="I21" s="56"/>
       <c r="J21" s="56"/>
       <c r="K21" s="56"/>
-      <c r="L21" s="280"/>
+      <c r="L21" s="279"/>
       <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -6946,22 +6961,22 @@
   </sheetPr>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.73046875" style="114" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" style="114"/>
-    <col min="3" max="3" width="12.59765625" style="114" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.73046875" style="114" customWidth="1"/>
-    <col min="5" max="6" width="7.265625" style="114" customWidth="1"/>
-    <col min="7" max="7" width="11.73046875" style="114" customWidth="1"/>
-    <col min="8" max="8" width="7" style="114" customWidth="1"/>
-    <col min="9" max="11" width="7.265625" style="114" customWidth="1"/>
-    <col min="12" max="12" width="9.73046875" style="114" customWidth="1"/>
-    <col min="13" max="16384" width="9.1328125" style="114"/>
+    <col min="1" max="1" width="5.73046875" style="113" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="113"/>
+    <col min="3" max="3" width="12.59765625" style="113" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.73046875" style="113" customWidth="1"/>
+    <col min="5" max="6" width="7.265625" style="113" customWidth="1"/>
+    <col min="7" max="7" width="11.73046875" style="113" customWidth="1"/>
+    <col min="8" max="8" width="7" style="113" customWidth="1"/>
+    <col min="9" max="11" width="7.265625" style="113" customWidth="1"/>
+    <col min="12" max="12" width="9.73046875" style="113" customWidth="1"/>
+    <col min="13" max="16384" width="9.1328125" style="113"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -6994,7 +7009,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="260"/>
+      <c r="C4" s="259"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -7011,10 +7026,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="287"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -7028,10 +7043,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="287"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7039,10 +7054,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="262"/>
-      <c r="E7" s="262"/>
-      <c r="F7" s="262"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
       <c r="J7" s="28" t="s">
         <v>9</v>
       </c>
@@ -7054,44 +7069,44 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="294"/>
-      <c r="D8" s="294"/>
-      <c r="E8" s="294"/>
-      <c r="F8" s="294"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="287"/>
-      <c r="D9" s="287"/>
-      <c r="E9" s="287"/>
-      <c r="F9" s="287"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="107" t="s">
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="106" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="33"/>
@@ -7103,208 +7118,208 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="309" t="s">
+      <c r="A15" s="385" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="310"/>
-      <c r="C15" s="310"/>
-      <c r="D15" s="310"/>
-      <c r="E15" s="310"/>
-      <c r="F15" s="311"/>
+      <c r="B15" s="386"/>
+      <c r="C15" s="386"/>
+      <c r="D15" s="386"/>
+      <c r="E15" s="386"/>
+      <c r="F15" s="387"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="265"/>
+      <c r="L15" s="264"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="309" t="s">
+      <c r="A16" s="385" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="310"/>
-      <c r="C16" s="310"/>
-      <c r="D16" s="310"/>
-      <c r="E16" s="310"/>
-      <c r="F16" s="311"/>
+      <c r="B16" s="386"/>
+      <c r="C16" s="386"/>
+      <c r="D16" s="386"/>
+      <c r="E16" s="386"/>
+      <c r="F16" s="387"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="265"/>
+      <c r="L16" s="264"/>
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="226" t="s">
+      <c r="A17" s="225" t="s">
         <v>154</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="227"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="226"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="265"/>
+      <c r="L17" s="264"/>
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="226" t="s">
+      <c r="A18" s="225" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="227"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="226"/>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="265"/>
+      <c r="L18" s="264"/>
     </row>
     <row r="19" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="226" t="s">
+      <c r="A19" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="227"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="226"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="26"/>
-      <c r="L19" s="265"/>
+      <c r="L19" s="264"/>
     </row>
     <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="140"/>
     </row>
     <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="315" t="s">
+      <c r="A21" s="391" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="316"/>
-      <c r="C21" s="316"/>
-      <c r="D21" s="316"/>
-      <c r="E21" s="316"/>
-      <c r="F21" s="316"/>
-      <c r="G21" s="316"/>
-      <c r="H21" s="316"/>
-      <c r="I21" s="316"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="139"/>
+      <c r="B21" s="392"/>
+      <c r="C21" s="392"/>
+      <c r="D21" s="392"/>
+      <c r="E21" s="392"/>
+      <c r="F21" s="392"/>
+      <c r="G21" s="392"/>
+      <c r="H21" s="392"/>
+      <c r="I21" s="392"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="138"/>
       <c r="L21" s="8"/>
-      <c r="R21" s="134"/>
+      <c r="R21" s="133"/>
     </row>
     <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="323" t="s">
+      <c r="A22" s="399" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="324"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="136"/>
+      <c r="B22" s="400"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="135"/>
       <c r="L22" s="8"/>
-      <c r="R22" s="134"/>
+      <c r="R22" s="133"/>
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="319" t="s">
+      <c r="A23" s="395" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="320"/>
-      <c r="C23" s="274"/>
-      <c r="D23" s="317" t="s">
+      <c r="B23" s="396"/>
+      <c r="C23" s="273"/>
+      <c r="D23" s="393" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="318"/>
-      <c r="F23" s="275"/>
-      <c r="G23" s="233" t="s">
+      <c r="E23" s="394"/>
+      <c r="F23" s="274"/>
+      <c r="G23" s="232" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="234">
+      <c r="H23" s="233">
         <f>IFERROR(IF(ROUND(C23/F23,3)&gt;10,10,ROUND(C23/F23,3)),10)</f>
         <v>10</v>
       </c>
-      <c r="I23" s="235" t="s">
+      <c r="I23" s="234" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="233" t="s">
+      <c r="J23" s="232" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="236">
+      <c r="K23" s="235">
         <f>10-H23</f>
         <v>0</v>
       </c>
-      <c r="N23" s="135"/>
-      <c r="R23" s="134"/>
+      <c r="N23" s="134"/>
+      <c r="R23" s="133"/>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="321" t="s">
+      <c r="A24" s="397" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="322"/>
-      <c r="C24" s="322"/>
-      <c r="D24" s="237"/>
-      <c r="E24" s="237"/>
-      <c r="F24" s="237"/>
-      <c r="G24" s="237"/>
-      <c r="H24" s="237"/>
-      <c r="I24" s="237"/>
-      <c r="J24" s="238"/>
-      <c r="K24" s="282"/>
-      <c r="R24" s="134"/>
+      <c r="B24" s="398"/>
+      <c r="C24" s="398"/>
+      <c r="D24" s="236"/>
+      <c r="E24" s="236"/>
+      <c r="F24" s="236"/>
+      <c r="G24" s="236"/>
+      <c r="H24" s="236"/>
+      <c r="I24" s="236"/>
+      <c r="J24" s="237"/>
+      <c r="K24" s="281"/>
+      <c r="R24" s="133"/>
     </row>
     <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="312" t="s">
+      <c r="A25" s="388" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="313"/>
-      <c r="C25" s="313"/>
-      <c r="D25" s="313"/>
-      <c r="E25" s="313"/>
-      <c r="F25" s="313"/>
-      <c r="G25" s="313"/>
-      <c r="H25" s="313"/>
-      <c r="I25" s="313"/>
-      <c r="J25" s="313"/>
-      <c r="K25" s="314"/>
+      <c r="B25" s="389"/>
+      <c r="C25" s="389"/>
+      <c r="D25" s="389"/>
+      <c r="E25" s="389"/>
+      <c r="F25" s="389"/>
+      <c r="G25" s="389"/>
+      <c r="H25" s="389"/>
+      <c r="I25" s="389"/>
+      <c r="J25" s="389"/>
+      <c r="K25" s="390"/>
       <c r="L25" s="9">
         <f>IFERROR(K23-K24,0)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="132"/>
+      <c r="M25" s="131"/>
       <c r="N25" s="8"/>
-      <c r="R25" s="131"/>
+      <c r="R25" s="130"/>
     </row>
     <row r="26" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="133"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="133"/>
+      <c r="A26" s="132"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="132"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="132"/>
+      <c r="M26" s="131"/>
       <c r="N26" s="8"/>
-      <c r="R26" s="131"/>
+      <c r="R26" s="130"/>
     </row>
     <row r="27" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21"/>
@@ -7317,65 +7332,65 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="130" t="s">
+      <c r="K27" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="129">
+      <c r="L27" s="128">
         <f>SUM(L15:L25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L28" s="128" t="s">
+      <c r="L28" s="127" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F29" s="127"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="125"/>
     </row>
     <row r="30" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H30" s="125"/>
-      <c r="I30" s="124" t="s">
+      <c r="H30" s="124"/>
+      <c r="I30" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="J30" s="123"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="121">
+      <c r="J30" s="122"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="120">
         <f>ROUND(SUM(L27)/6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="119"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="115"/>
+      <c r="F31" s="118"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="114"/>
     </row>
     <row r="32" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="119"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="115"/>
+      <c r="F32" s="118"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="114"/>
     </row>
     <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="119"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="115"/>
+      <c r="F33" s="118"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="114"/>
     </row>
     <row r="34" spans="1:12" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="120"/>
+      <c r="B34" s="119"/>
       <c r="C34" s="58"/>
       <c r="D34" s="58"/>
       <c r="E34" s="58"/>
@@ -7385,16 +7400,16 @@
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-      <c r="K34" s="104"/>
+      <c r="K34" s="103"/>
       <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="119"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="115"/>
+      <c r="F35" s="118"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7429,7 +7444,7 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -8018,24 +8033,24 @@
     <col min="16128" max="16384" width="9.1328125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="114" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="329" t="s">
+      <c r="A2" s="405" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="329"/>
-      <c r="C2" s="329"/>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="329"/>
-      <c r="G2" s="329"/>
-      <c r="H2" s="329"/>
-      <c r="I2" s="329"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-    </row>
-    <row r="3" spans="1:12" s="114" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="405"/>
+      <c r="C2" s="405"/>
+      <c r="D2" s="405"/>
+      <c r="E2" s="405"/>
+      <c r="F2" s="405"/>
+      <c r="G2" s="405"/>
+      <c r="H2" s="405"/>
+      <c r="I2" s="405"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+    </row>
+    <row r="3" spans="1:12" s="113" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>55</v>
       </c>
@@ -8052,16 +8067,16 @@
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="1:12" s="114" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="113" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="260"/>
+      <c r="C4" s="259"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="143"/>
+      <c r="G4" s="142"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14" t="s">
         <v>66</v>
@@ -8070,16 +8085,16 @@
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
     </row>
-    <row r="5" spans="1:12" s="114" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="113" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="287"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
-      <c r="G5" s="143"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
+      <c r="G5" s="142"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>10</v>
@@ -8088,16 +8103,16 @@
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="1:12" s="114" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" s="113" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="287"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="142"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
+      <c r="G6" s="141"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14" t="s">
         <v>11</v>
@@ -8106,16 +8121,16 @@
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
-    <row r="7" spans="1:12" s="114" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="262"/>
-      <c r="E7" s="262"/>
-      <c r="F7" s="262"/>
-      <c r="G7" s="152"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
+      <c r="G7" s="151"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -8127,11 +8142,11 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="294"/>
-      <c r="D8" s="294"/>
-      <c r="E8" s="294"/>
-      <c r="F8" s="294"/>
-      <c r="G8" s="152"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
+      <c r="G8" s="151"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="28" t="s">
@@ -8145,173 +8160,173 @@
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="287"/>
-      <c r="D9" s="287"/>
-      <c r="E9" s="287"/>
-      <c r="F9" s="287"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="114"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="113"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="325"/>
-      <c r="K10" s="325"/>
-      <c r="L10" s="153"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="401"/>
+      <c r="K10" s="401"/>
+      <c r="L10" s="152"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="151"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
     </row>
     <row r="13" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="256" t="s">
+      <c r="B13" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="257" t="s">
+      <c r="C13" s="256" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="330" t="s">
+      <c r="D13" s="406" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="331"/>
-      <c r="F13" s="257" t="s">
+      <c r="E13" s="407"/>
+      <c r="F13" s="256" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="257" t="s">
+      <c r="G13" s="256" t="s">
         <v>131</v>
       </c>
-      <c r="H13" s="258" t="s">
+      <c r="H13" s="257" t="s">
         <v>132</v>
       </c>
-      <c r="I13" s="259" t="s">
+      <c r="I13" s="258" t="s">
         <v>99</v>
       </c>
-      <c r="J13" s="334" t="s">
+      <c r="J13" s="410" t="s">
         <v>137</v>
       </c>
-      <c r="K13" s="335"/>
-      <c r="L13" s="151"/>
+      <c r="K13" s="411"/>
+      <c r="L13" s="150"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="276"/>
-      <c r="C14" s="277"/>
-      <c r="D14" s="332"/>
-      <c r="E14" s="333"/>
-      <c r="F14" s="277"/>
-      <c r="G14" s="277"/>
-      <c r="H14" s="278"/>
-      <c r="I14" s="279">
+      <c r="B14" s="275"/>
+      <c r="C14" s="276"/>
+      <c r="D14" s="408"/>
+      <c r="E14" s="409"/>
+      <c r="F14" s="276"/>
+      <c r="G14" s="276"/>
+      <c r="H14" s="277"/>
+      <c r="I14" s="278">
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="336">
+      <c r="J14" s="412">
         <f>I14/6</f>
         <v>0</v>
       </c>
-      <c r="K14" s="337"/>
-      <c r="L14" s="151"/>
+      <c r="K14" s="413"/>
+      <c r="L14" s="150"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K15" s="254"/>
-      <c r="L15" s="151"/>
+      <c r="K15" s="253"/>
+      <c r="L15" s="150"/>
     </row>
     <row r="16" spans="1:12" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K16" s="255" t="s">
+      <c r="K16" s="254" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="251" t="s">
+      <c r="A17" s="250" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="326" t="s">
+      <c r="B17" s="402" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="327"/>
-      <c r="D17" s="327"/>
-      <c r="E17" s="327"/>
-      <c r="F17" s="327"/>
-      <c r="G17" s="327"/>
-      <c r="H17" s="327"/>
-      <c r="I17" s="328"/>
-      <c r="J17" s="149" t="s">
+      <c r="C17" s="403"/>
+      <c r="D17" s="403"/>
+      <c r="E17" s="403"/>
+      <c r="F17" s="403"/>
+      <c r="G17" s="403"/>
+      <c r="H17" s="403"/>
+      <c r="I17" s="404"/>
+      <c r="J17" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="K17" s="239">
+      <c r="K17" s="238">
         <f>J14</f>
         <v>0</v>
       </c>
-      <c r="L17" s="150">
+      <c r="L17" s="149">
         <f>K17*0.4</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="288" t="s">
+      <c r="A18" s="309" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="299" t="s">
+      <c r="B18" s="375" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="300"/>
-      <c r="D18" s="300"/>
-      <c r="E18" s="300"/>
-      <c r="F18" s="300"/>
-      <c r="G18" s="300"/>
-      <c r="H18" s="300"/>
-      <c r="I18" s="300"/>
-      <c r="J18" s="149" t="s">
+      <c r="C18" s="376"/>
+      <c r="D18" s="376"/>
+      <c r="E18" s="376"/>
+      <c r="F18" s="376"/>
+      <c r="G18" s="376"/>
+      <c r="H18" s="376"/>
+      <c r="I18" s="376"/>
+      <c r="J18" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="K18" s="272"/>
-      <c r="L18" s="148">
+      <c r="K18" s="271"/>
+      <c r="L18" s="147">
         <f>K18*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="289"/>
-      <c r="B19" s="301" t="s">
+      <c r="A19" s="310"/>
+      <c r="B19" s="377" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="302"/>
-      <c r="D19" s="302"/>
-      <c r="E19" s="302"/>
-      <c r="F19" s="302"/>
-      <c r="G19" s="302"/>
-      <c r="H19" s="302"/>
-      <c r="I19" s="302"/>
-      <c r="J19" s="147" t="s">
+      <c r="C19" s="378"/>
+      <c r="D19" s="378"/>
+      <c r="E19" s="378"/>
+      <c r="F19" s="378"/>
+      <c r="G19" s="378"/>
+      <c r="H19" s="378"/>
+      <c r="I19" s="378"/>
+      <c r="J19" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="K19" s="273"/>
-      <c r="L19" s="146">
+      <c r="K19" s="272"/>
+      <c r="L19" s="145">
         <f>K19*0.3</f>
         <v>0</v>
       </c>
@@ -8361,7 +8376,7 @@
       <c r="I22" s="56"/>
       <c r="J22" s="56"/>
       <c r="K22" s="56"/>
-      <c r="L22" s="280"/>
+      <c r="L22" s="279"/>
     </row>
     <row r="23" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8378,35 +8393,35 @@
     <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="151"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="240"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="240" t="s">
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="239"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="239" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="240"/>
-      <c r="J28" s="240"/>
-      <c r="K28" s="241"/>
-      <c r="L28" s="240"/>
+      <c r="I28" s="239"/>
+      <c r="J28" s="239"/>
+      <c r="K28" s="240"/>
+      <c r="L28" s="239"/>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8416,7 +8431,7 @@
       <c r="I31" s="60"/>
       <c r="J31" s="61"/>
       <c r="K31" s="62"/>
-      <c r="L31" s="145"/>
+      <c r="L31" s="144"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F32" s="59"/>
@@ -8424,7 +8439,7 @@
       <c r="I32" s="60"/>
       <c r="J32" s="61"/>
       <c r="K32" s="62"/>
-      <c r="L32" s="145"/>
+      <c r="L32" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -8461,8 +8476,8 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A9" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView showZeros="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -8484,366 +8499,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="103"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="157" t="s">
+      <c r="F1" s="102"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="158"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="338"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="284"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="156"/>
-      <c r="I2" s="157" t="s">
+      <c r="H2" s="155"/>
+      <c r="I2" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="158"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="338"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="284"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="339"/>
-      <c r="D3" s="339"/>
-      <c r="E3" s="340"/>
-      <c r="F3" s="340"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="157" t="s">
+      <c r="B3" s="160"/>
+      <c r="C3" s="303"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="285"/>
+      <c r="F3" s="285"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="158"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="338"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="284"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="341"/>
-      <c r="D4" s="341"/>
-      <c r="E4" s="341"/>
-      <c r="F4" s="341"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="157" t="s">
+      <c r="B4" s="136"/>
+      <c r="C4" s="302"/>
+      <c r="D4" s="302"/>
+      <c r="E4" s="302"/>
+      <c r="F4" s="302"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="163"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="338"/>
-    </row>
-    <row r="5" spans="1:12" s="114" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="137" t="s">
+      <c r="J4" s="162"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="284"/>
+    </row>
+    <row r="5" spans="1:12" s="113" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="137"/>
-      <c r="C5" s="341"/>
-      <c r="D5" s="341"/>
-      <c r="E5" s="341"/>
-      <c r="F5" s="341"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="302"/>
+      <c r="D5" s="302"/>
+      <c r="E5" s="302"/>
+      <c r="F5" s="302"/>
       <c r="K5" s="30"/>
     </row>
-    <row r="6" spans="1:12" s="114" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="137" t="s">
+    <row r="6" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="137"/>
-      <c r="C6" s="342"/>
-      <c r="D6" s="342"/>
-      <c r="E6" s="342"/>
-      <c r="F6" s="342"/>
-      <c r="J6" s="164" t="s">
+      <c r="B6" s="136"/>
+      <c r="C6" s="286"/>
+      <c r="D6" s="286"/>
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="J6" s="163" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="31"/>
-      <c r="L6" s="343"/>
-    </row>
-    <row r="7" spans="1:12" s="114" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="161" t="s">
+      <c r="L6" s="287"/>
+    </row>
+    <row r="7" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="161"/>
-      <c r="C7" s="341"/>
-      <c r="D7" s="341"/>
-      <c r="E7" s="341"/>
-      <c r="F7" s="341"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="302"/>
+      <c r="D7" s="302"/>
+      <c r="E7" s="302"/>
+      <c r="F7" s="302"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12" s="114" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="137" t="s">
+    <row r="8" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="137"/>
-      <c r="C8" s="341"/>
-      <c r="D8" s="341"/>
-      <c r="E8" s="341"/>
-      <c r="F8" s="341"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="302"/>
+      <c r="D8" s="302"/>
+      <c r="E8" s="302"/>
+      <c r="F8" s="302"/>
       <c r="K8" s="30"/>
     </row>
-    <row r="9" spans="1:12" s="114" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="137" t="s">
+    <row r="9" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="137"/>
-      <c r="C9" s="341"/>
-      <c r="D9" s="341"/>
-      <c r="E9" s="341"/>
-      <c r="F9" s="341"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="302"/>
+      <c r="D9" s="302"/>
+      <c r="E9" s="302"/>
+      <c r="F9" s="302"/>
       <c r="K9" s="30"/>
     </row>
-    <row r="10" spans="1:12" s="114" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="344"/>
-      <c r="D10" s="344"/>
-      <c r="E10" s="344"/>
-      <c r="F10" s="344"/>
+    <row r="10" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="288"/>
+      <c r="D10" s="288"/>
+      <c r="E10" s="288"/>
+      <c r="F10" s="288"/>
       <c r="K10" s="30"/>
     </row>
-    <row r="11" spans="1:12" s="114" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="344"/>
-      <c r="D11" s="344"/>
-      <c r="E11" s="344"/>
-      <c r="F11" s="344"/>
-      <c r="H11" s="345" t="s">
+    <row r="11" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="288"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="288"/>
+      <c r="H11" s="304" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="346"/>
-      <c r="J11" s="347" t="s">
+      <c r="I11" s="305"/>
+      <c r="J11" s="306" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="348"/>
-      <c r="L11" s="349"/>
+      <c r="K11" s="307"/>
+      <c r="L11" s="308"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="288" t="s">
+      <c r="A12" s="309" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="350" t="s">
+      <c r="B12" s="313" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="351"/>
-      <c r="D12" s="351"/>
-      <c r="E12" s="351"/>
-      <c r="F12" s="351"/>
-      <c r="G12" s="351"/>
-      <c r="H12" s="352"/>
-      <c r="I12" s="353"/>
-      <c r="J12" s="354" t="s">
+      <c r="C12" s="314"/>
+      <c r="D12" s="314"/>
+      <c r="E12" s="314"/>
+      <c r="F12" s="314"/>
+      <c r="G12" s="314"/>
+      <c r="H12" s="317"/>
+      <c r="I12" s="318"/>
+      <c r="J12" s="323" t="s">
         <v>175</v>
       </c>
-      <c r="K12" s="355">
+      <c r="K12" s="326">
         <f>SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
-      <c r="L12" s="356">
+      <c r="L12" s="329">
         <f>ROUND(K12*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="289"/>
-      <c r="B13" s="357"/>
-      <c r="C13" s="358"/>
-      <c r="D13" s="358"/>
-      <c r="E13" s="358"/>
-      <c r="F13" s="358"/>
-      <c r="G13" s="358"/>
-      <c r="H13" s="359"/>
-      <c r="I13" s="360"/>
-      <c r="J13" s="361"/>
-      <c r="K13" s="362"/>
-      <c r="L13" s="363"/>
+      <c r="A13" s="310"/>
+      <c r="B13" s="315"/>
+      <c r="C13" s="316"/>
+      <c r="D13" s="316"/>
+      <c r="E13" s="316"/>
+      <c r="F13" s="316"/>
+      <c r="G13" s="316"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="320"/>
+      <c r="J13" s="324"/>
+      <c r="K13" s="327"/>
+      <c r="L13" s="330"/>
     </row>
     <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="289"/>
-      <c r="B14" s="357"/>
-      <c r="C14" s="358"/>
-      <c r="D14" s="358"/>
-      <c r="E14" s="358"/>
-      <c r="F14" s="358"/>
-      <c r="G14" s="358"/>
-      <c r="H14" s="359"/>
-      <c r="I14" s="360"/>
-      <c r="J14" s="361"/>
-      <c r="K14" s="362"/>
-      <c r="L14" s="363"/>
+      <c r="A14" s="310"/>
+      <c r="B14" s="315"/>
+      <c r="C14" s="316"/>
+      <c r="D14" s="316"/>
+      <c r="E14" s="316"/>
+      <c r="F14" s="316"/>
+      <c r="G14" s="316"/>
+      <c r="H14" s="319"/>
+      <c r="I14" s="320"/>
+      <c r="J14" s="324"/>
+      <c r="K14" s="327"/>
+      <c r="L14" s="330"/>
     </row>
     <row r="15" spans="1:12" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="289"/>
-      <c r="B15" s="357"/>
-      <c r="C15" s="358"/>
-      <c r="D15" s="358"/>
-      <c r="E15" s="358"/>
-      <c r="F15" s="358"/>
-      <c r="G15" s="358"/>
-      <c r="H15" s="359"/>
-      <c r="I15" s="360"/>
-      <c r="J15" s="361"/>
-      <c r="K15" s="362"/>
-      <c r="L15" s="363"/>
+      <c r="A15" s="310"/>
+      <c r="B15" s="315"/>
+      <c r="C15" s="316"/>
+      <c r="D15" s="316"/>
+      <c r="E15" s="316"/>
+      <c r="F15" s="316"/>
+      <c r="G15" s="316"/>
+      <c r="H15" s="319"/>
+      <c r="I15" s="320"/>
+      <c r="J15" s="324"/>
+      <c r="K15" s="327"/>
+      <c r="L15" s="330"/>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="364"/>
-      <c r="B16" s="365" t="s">
+      <c r="A16" s="311"/>
+      <c r="B16" s="289" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="366" t="s">
+      <c r="C16" s="290" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="367" t="s">
+      <c r="D16" s="291" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="366" t="s">
+      <c r="E16" s="290" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="366" t="s">
+      <c r="F16" s="290" t="s">
         <v>180</v>
       </c>
-      <c r="G16" s="368" t="s">
+      <c r="G16" s="292" t="s">
         <v>181</v>
       </c>
-      <c r="H16" s="359"/>
-      <c r="I16" s="360"/>
-      <c r="J16" s="361"/>
-      <c r="K16" s="362"/>
-      <c r="L16" s="363"/>
+      <c r="H16" s="319"/>
+      <c r="I16" s="320"/>
+      <c r="J16" s="324"/>
+      <c r="K16" s="327"/>
+      <c r="L16" s="330"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="369"/>
-      <c r="B17" s="370"/>
-      <c r="C17" s="371">
+      <c r="A17" s="312"/>
+      <c r="B17" s="293"/>
+      <c r="C17" s="294">
         <v>0</v>
       </c>
-      <c r="D17" s="371"/>
-      <c r="E17" s="371"/>
-      <c r="F17" s="371"/>
-      <c r="G17" s="372"/>
-      <c r="H17" s="373"/>
-      <c r="I17" s="374"/>
-      <c r="J17" s="375"/>
-      <c r="K17" s="376"/>
-      <c r="L17" s="377"/>
+      <c r="D17" s="294"/>
+      <c r="E17" s="294"/>
+      <c r="F17" s="294"/>
+      <c r="G17" s="295"/>
+      <c r="H17" s="321"/>
+      <c r="I17" s="322"/>
+      <c r="J17" s="325"/>
+      <c r="K17" s="328"/>
+      <c r="L17" s="331"/>
     </row>
     <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="378" t="s">
+      <c r="A18" s="334" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="379" t="s">
+      <c r="B18" s="337" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="379"/>
-      <c r="D18" s="379"/>
-      <c r="E18" s="379"/>
-      <c r="F18" s="379"/>
-      <c r="G18" s="379"/>
-      <c r="H18" s="380"/>
-      <c r="I18" s="381"/>
-      <c r="J18" s="382" t="s">
+      <c r="C18" s="337"/>
+      <c r="D18" s="337"/>
+      <c r="E18" s="337"/>
+      <c r="F18" s="337"/>
+      <c r="G18" s="337"/>
+      <c r="H18" s="340"/>
+      <c r="I18" s="341"/>
+      <c r="J18" s="346" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="383"/>
-      <c r="L18" s="356">
-        <f>ROUND((K18-K21)*0.25,3)</f>
+      <c r="K18" s="349">
         <v>0</v>
       </c>
+      <c r="L18" s="329">
+        <f>IF(K18-K21 &gt;=0, (ROUND((K18-K21)*0.25,3)),0.00000000001)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="384"/>
-      <c r="B19" s="385"/>
-      <c r="C19" s="385"/>
-      <c r="D19" s="385"/>
-      <c r="E19" s="385"/>
-      <c r="F19" s="385"/>
-      <c r="G19" s="385"/>
-      <c r="H19" s="386"/>
-      <c r="I19" s="387"/>
-      <c r="J19" s="388"/>
-      <c r="K19" s="389"/>
-      <c r="L19" s="363"/>
+      <c r="A19" s="335"/>
+      <c r="B19" s="338"/>
+      <c r="C19" s="338"/>
+      <c r="D19" s="338"/>
+      <c r="E19" s="338"/>
+      <c r="F19" s="338"/>
+      <c r="G19" s="338"/>
+      <c r="H19" s="342"/>
+      <c r="I19" s="343"/>
+      <c r="J19" s="347"/>
+      <c r="K19" s="350"/>
+      <c r="L19" s="330"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="384"/>
-      <c r="B20" s="390"/>
-      <c r="C20" s="390"/>
-      <c r="D20" s="390"/>
-      <c r="E20" s="390"/>
-      <c r="F20" s="390"/>
-      <c r="G20" s="385"/>
-      <c r="H20" s="386"/>
-      <c r="I20" s="387"/>
-      <c r="J20" s="388"/>
-      <c r="K20" s="389"/>
-      <c r="L20" s="363"/>
+      <c r="A20" s="335"/>
+      <c r="B20" s="339"/>
+      <c r="C20" s="339"/>
+      <c r="D20" s="339"/>
+      <c r="E20" s="339"/>
+      <c r="F20" s="339"/>
+      <c r="G20" s="338"/>
+      <c r="H20" s="342"/>
+      <c r="I20" s="343"/>
+      <c r="J20" s="347"/>
+      <c r="K20" s="350"/>
+      <c r="L20" s="330"/>
     </row>
     <row r="21" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="391"/>
-      <c r="B21" s="392" t="s">
+      <c r="A21" s="336"/>
+      <c r="B21" s="296" t="s">
         <v>183</v>
       </c>
-      <c r="C21" s="393"/>
-      <c r="D21" s="393"/>
-      <c r="E21" s="393"/>
-      <c r="F21" s="393"/>
-      <c r="G21" s="393"/>
-      <c r="H21" s="394"/>
-      <c r="I21" s="395"/>
-      <c r="J21" s="396"/>
-      <c r="K21" s="397">
+      <c r="C21" s="297">
+        <v>0</v>
+      </c>
+      <c r="D21" s="297"/>
+      <c r="E21" s="297"/>
+      <c r="F21" s="297"/>
+      <c r="G21" s="297"/>
+      <c r="H21" s="344"/>
+      <c r="I21" s="345"/>
+      <c r="J21" s="348"/>
+      <c r="K21" s="298">
         <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="398"/>
+      <c r="L21" s="351"/>
     </row>
     <row r="22" spans="1:12" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="378" t="s">
+      <c r="A22" s="334" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="379" t="s">
+      <c r="B22" s="337" t="s">
         <v>184</v>
       </c>
-      <c r="C22" s="399"/>
-      <c r="D22" s="399"/>
-      <c r="E22" s="399"/>
-      <c r="F22" s="399"/>
-      <c r="G22" s="400"/>
-      <c r="H22" s="401"/>
-      <c r="I22" s="402"/>
-      <c r="J22" s="361" t="s">
+      <c r="C22" s="352"/>
+      <c r="D22" s="352"/>
+      <c r="E22" s="352"/>
+      <c r="F22" s="352"/>
+      <c r="G22" s="353"/>
+      <c r="H22" s="354"/>
+      <c r="I22" s="355"/>
+      <c r="J22" s="324" t="s">
         <v>185</v>
       </c>
-      <c r="K22" s="403"/>
-      <c r="L22" s="363">
-        <f>ROUND((K22-K23)*0.15,3)</f>
+      <c r="K22" s="299">
         <v>0</v>
       </c>
+      <c r="L22" s="330">
+        <f>IF((K22-K23)&gt;=0,(ROUND((K22-K23)*0.15,3)),0.000000001)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="391"/>
-      <c r="B23" s="404" t="s">
+      <c r="A23" s="336"/>
+      <c r="B23" s="300" t="s">
         <v>183</v>
       </c>
-      <c r="C23" s="393"/>
-      <c r="D23" s="393"/>
-      <c r="E23" s="393"/>
-      <c r="F23" s="393"/>
-      <c r="G23" s="393"/>
-      <c r="H23" s="405"/>
-      <c r="I23" s="406"/>
-      <c r="J23" s="407"/>
-      <c r="K23" s="397">
+      <c r="C23" s="297">
+        <v>0</v>
+      </c>
+      <c r="D23" s="297">
+        <v>0</v>
+      </c>
+      <c r="E23" s="297">
+        <v>0</v>
+      </c>
+      <c r="F23" s="297"/>
+      <c r="G23" s="297"/>
+      <c r="H23" s="356"/>
+      <c r="I23" s="357"/>
+      <c r="J23" s="358"/>
+      <c r="K23" s="298">
         <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="398"/>
+      <c r="L23" s="351"/>
     </row>
     <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="21"/>
@@ -8860,11 +8887,11 @@
         <v>3</v>
       </c>
       <c r="J25" s="23"/>
-      <c r="K25" s="285">
+      <c r="K25" s="332">
         <f>SUM(L12:L22)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="286"/>
+      <c r="L25" s="333"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8874,24 +8901,19 @@
         <v>18</v>
       </c>
       <c r="B29" s="58"/>
-      <c r="C29" s="408"/>
-      <c r="D29" s="408"/>
-      <c r="E29" s="408"/>
+      <c r="C29" s="301"/>
+      <c r="D29" s="301"/>
+      <c r="E29" s="301"/>
       <c r="H29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="104"/>
+      <c r="K29" s="103"/>
       <c r="L29" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="L22:L23"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:G20"/>
@@ -8899,6 +8921,11 @@
     <mergeCell ref="J18:J21"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="L18:L21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="L22:L23"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="A12:A17"/>
@@ -8907,12 +8934,12 @@
     <mergeCell ref="J12:J17"/>
     <mergeCell ref="K12:K17"/>
     <mergeCell ref="L12:L17"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -8935,372 +8962,372 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.73046875" style="114" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" style="114"/>
-    <col min="3" max="3" width="12.59765625" style="114" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.73046875" style="114" customWidth="1"/>
-    <col min="5" max="6" width="7.265625" style="114" customWidth="1"/>
-    <col min="7" max="7" width="10.86328125" style="114" customWidth="1"/>
-    <col min="8" max="8" width="7" style="114" customWidth="1"/>
-    <col min="9" max="9" width="3" style="114" customWidth="1"/>
-    <col min="10" max="10" width="6.3984375" style="114" customWidth="1"/>
-    <col min="11" max="11" width="7.265625" style="114" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" style="114" customWidth="1"/>
-    <col min="13" max="13" width="7.265625" style="114" customWidth="1"/>
-    <col min="14" max="16384" width="9.1328125" style="114"/>
+    <col min="1" max="1" width="5.73046875" style="113" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="113"/>
+    <col min="3" max="3" width="12.59765625" style="113" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.73046875" style="113" customWidth="1"/>
+    <col min="5" max="6" width="7.265625" style="113" customWidth="1"/>
+    <col min="7" max="7" width="10.86328125" style="113" customWidth="1"/>
+    <col min="8" max="8" width="7" style="113" customWidth="1"/>
+    <col min="9" max="9" width="3" style="113" customWidth="1"/>
+    <col min="10" max="10" width="6.3984375" style="113" customWidth="1"/>
+    <col min="11" max="11" width="7.265625" style="113" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" style="113" customWidth="1"/>
+    <col min="13" max="13" width="7.265625" style="113" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="113"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="156"/>
-      <c r="I2" s="157" t="s">
+      <c r="H2" s="155"/>
+      <c r="I2" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="158"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="159" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="156"/>
-      <c r="I3" s="157" t="s">
+      <c r="H3" s="155"/>
+      <c r="I3" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="158"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="261"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="157" t="s">
+      <c r="B4" s="160"/>
+      <c r="C4" s="260"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="158"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="137"/>
-      <c r="C5" s="290"/>
-      <c r="D5" s="290"/>
-      <c r="E5" s="290"/>
-      <c r="F5" s="290"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="157" t="s">
+      <c r="B5" s="136"/>
+      <c r="C5" s="359"/>
+      <c r="D5" s="359"/>
+      <c r="E5" s="359"/>
+      <c r="F5" s="359"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="163"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="158"/>
+      <c r="L5" s="158"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="137"/>
-      <c r="C6" s="290"/>
-      <c r="D6" s="290"/>
-      <c r="E6" s="290"/>
-      <c r="F6" s="290"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="359"/>
+      <c r="D6" s="359"/>
+      <c r="E6" s="359"/>
+      <c r="F6" s="359"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="J7" s="164" t="s">
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="J7" s="163" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="31"/>
-      <c r="L7" s="165"/>
+      <c r="L7" s="164"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="161"/>
-      <c r="C8" s="290"/>
-      <c r="D8" s="290"/>
-      <c r="E8" s="290"/>
-      <c r="F8" s="290"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="359"/>
+      <c r="D8" s="359"/>
+      <c r="E8" s="359"/>
+      <c r="F8" s="359"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="137"/>
-      <c r="C9" s="290"/>
-      <c r="D9" s="290"/>
-      <c r="E9" s="290"/>
-      <c r="F9" s="290"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="359"/>
+      <c r="D9" s="359"/>
+      <c r="E9" s="359"/>
+      <c r="F9" s="359"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="137" t="s">
+      <c r="A10" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="137"/>
-      <c r="C10" s="290"/>
-      <c r="D10" s="290"/>
-      <c r="E10" s="290"/>
-      <c r="F10" s="290"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="359"/>
+      <c r="D10" s="359"/>
+      <c r="E10" s="359"/>
+      <c r="F10" s="359"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="195"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="228" t="s">
+      <c r="A14" s="194"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="195"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="198"/>
-      <c r="G14" s="198"/>
-      <c r="H14" s="198"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="174"/>
-      <c r="L14" s="199" t="s">
+      <c r="F14" s="197"/>
+      <c r="G14" s="197"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="198" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="222" t="s">
+      <c r="A15" s="221" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="188"/>
-      <c r="C15" s="197"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="229"/>
-      <c r="F15" s="198"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="230"/>
-      <c r="K15" s="174"/>
-      <c r="L15" s="264"/>
+      <c r="B15" s="187"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="228"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="229"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="263"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="222" t="s">
+      <c r="A16" s="221" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="188"/>
-      <c r="C16" s="197"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="229"/>
-      <c r="F16" s="198"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="231"/>
-      <c r="K16" s="174"/>
-      <c r="L16" s="264"/>
+      <c r="B16" s="187"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="228"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="230"/>
+      <c r="K16" s="173"/>
+      <c r="L16" s="263"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="219" t="s">
+      <c r="A17" s="218" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="220"/>
-      <c r="C17" s="197"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="229"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="231"/>
-      <c r="K17" s="174"/>
-      <c r="L17" s="264"/>
+      <c r="B17" s="219"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="230"/>
+      <c r="K17" s="173"/>
+      <c r="L17" s="263"/>
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="222" t="s">
+      <c r="A18" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="188"/>
-      <c r="C18" s="197"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="229"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="198"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="231"/>
-      <c r="K18" s="174"/>
-      <c r="L18" s="264"/>
+      <c r="B18" s="187"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="228"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="230"/>
+      <c r="K18" s="173"/>
+      <c r="L18" s="263"/>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="182" t="s">
+      <c r="A19" s="181" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="183"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="229"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="231"/>
-      <c r="K19" s="174"/>
-      <c r="L19" s="264"/>
+      <c r="B19" s="182"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="228"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="197"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="230"/>
+      <c r="K19" s="173"/>
+      <c r="L19" s="263"/>
     </row>
     <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="182" t="s">
+      <c r="A20" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="183"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="229"/>
-      <c r="F20" s="198"/>
-      <c r="G20" s="198"/>
-      <c r="H20" s="198"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="231"/>
-      <c r="K20" s="174"/>
-      <c r="L20" s="264"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="228"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="197"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="230"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="263"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="232" t="s">
+      <c r="A21" s="231" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="220"/>
-      <c r="C21" s="220"/>
-      <c r="D21" s="221"/>
-      <c r="E21" s="229"/>
-      <c r="F21" s="198"/>
-      <c r="G21" s="198"/>
-      <c r="H21" s="198"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="231"/>
-      <c r="K21" s="174"/>
-      <c r="L21" s="264"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="220"/>
+      <c r="E21" s="228"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="197"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="230"/>
+      <c r="K21" s="173"/>
+      <c r="L21" s="263"/>
     </row>
     <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
+      <c r="K22" s="140"/>
+      <c r="L22" s="140"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I23" s="116"/>
-      <c r="J23" s="202"/>
-      <c r="K23" s="116" t="s">
+      <c r="I23" s="115"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="L23" s="199">
+      <c r="L23" s="198">
         <f>SUM(L15:L21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K24" s="116" t="s">
+      <c r="K24" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="202"/>
+      <c r="L24" s="201"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F25" s="127"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="203"/>
-    </row>
-    <row r="26" spans="1:13" s="180" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H26" s="204"/>
-      <c r="I26" s="124" t="s">
+      <c r="F25" s="126"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="202"/>
+    </row>
+    <row r="26" spans="1:13" s="179" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H26" s="203"/>
+      <c r="I26" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="205"/>
-      <c r="K26" s="206"/>
-      <c r="L26" s="207">
+      <c r="J26" s="204"/>
+      <c r="K26" s="205"/>
+      <c r="L26" s="206">
         <f>ROUND(L23/7,3)</f>
         <v>0</v>
       </c>
-      <c r="M26" s="208"/>
+      <c r="M26" s="207"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="119"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="209"/>
+      <c r="F27" s="118"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="208"/>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="119"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="209"/>
+      <c r="F28" s="118"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="208"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="119"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="209"/>
+      <c r="F29" s="118"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="208"/>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="119"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="209"/>
+      <c r="F30" s="118"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="208"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="119"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="209"/>
+      <c r="F31" s="118"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="208"/>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="161" t="s">
+      <c r="A32" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="194"/>
-      <c r="C32" s="194"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="119"/>
-      <c r="H32" s="161" t="s">
+      <c r="B32" s="193"/>
+      <c r="C32" s="193"/>
+      <c r="D32" s="193"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="118"/>
+      <c r="H32" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="I32" s="161"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="161"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="160"/>
     </row>
     <row r="33" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="119"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="209"/>
+      <c r="F33" s="118"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9377,7 +9404,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="260"/>
+      <c r="C4" s="259"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -9394,10 +9421,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="287"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -9411,10 +9438,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="287"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9422,10 +9449,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="262"/>
-      <c r="E7" s="262"/>
-      <c r="F7" s="262"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
       <c r="J7" s="28" t="s">
         <v>9</v>
       </c>
@@ -9437,40 +9464,40 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="294"/>
-      <c r="D8" s="294"/>
-      <c r="E8" s="294"/>
-      <c r="F8" s="294"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="287"/>
-      <c r="D9" s="287"/>
-      <c r="E9" s="287"/>
-      <c r="F9" s="287"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="100"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="101"/>
+      <c r="C14" s="100"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="102"/>
+      <c r="E14" s="101"/>
       <c r="F14" s="11" t="s">
         <v>16</v>
       </c>
@@ -9484,12 +9511,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="226" t="s">
+      <c r="A15" s="225" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="34"/>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
@@ -9497,15 +9524,15 @@
       <c r="I15" s="33"/>
       <c r="J15" s="11"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="265"/>
+      <c r="L15" s="264"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="226" t="s">
+      <c r="A16" s="225" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
       <c r="E16" s="34"/>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
@@ -9513,15 +9540,15 @@
       <c r="I16" s="33"/>
       <c r="J16" s="11"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="265"/>
+      <c r="L16" s="264"/>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="223" t="s">
+      <c r="A17" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="224"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
+      <c r="B17" s="223"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
       <c r="E17" s="34"/>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
@@ -9529,15 +9556,15 @@
       <c r="I17" s="33"/>
       <c r="J17" s="11"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="265"/>
+      <c r="L17" s="264"/>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="226" t="s">
+      <c r="A18" s="225" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
       <c r="E18" s="34"/>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -9545,15 +9572,15 @@
       <c r="I18" s="33"/>
       <c r="J18" s="11"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="265"/>
+      <c r="L18" s="264"/>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="226" t="s">
+      <c r="A19" s="225" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
       <c r="E19" s="34"/>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -9561,15 +9588,15 @@
       <c r="I19" s="33"/>
       <c r="J19" s="11"/>
       <c r="K19" s="26"/>
-      <c r="L19" s="265"/>
+      <c r="L19" s="264"/>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="226" t="s">
+      <c r="A20" s="225" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
       <c r="E20" s="34"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
@@ -9577,15 +9604,15 @@
       <c r="I20" s="33"/>
       <c r="J20" s="11"/>
       <c r="K20" s="26"/>
-      <c r="L20" s="265"/>
+      <c r="L20" s="264"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="226" t="s">
+      <c r="A21" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
       <c r="E21" s="34"/>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
@@ -9593,23 +9620,23 @@
       <c r="I21" s="33"/>
       <c r="J21" s="11"/>
       <c r="K21" s="26"/>
-      <c r="L21" s="265"/>
+      <c r="L21" s="264"/>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="291" t="s">
+      <c r="A22" s="360" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="292"/>
-      <c r="C22" s="292"/>
-      <c r="D22" s="292"/>
-      <c r="E22" s="293"/>
+      <c r="B22" s="361"/>
+      <c r="C22" s="361"/>
+      <c r="D22" s="361"/>
+      <c r="E22" s="362"/>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
       <c r="J22" s="11"/>
       <c r="K22" s="26"/>
-      <c r="L22" s="265"/>
+      <c r="L22" s="264"/>
     </row>
     <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K23" s="37"/>
@@ -9781,7 +9808,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="260"/>
+      <c r="C4" s="259"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -9798,10 +9825,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="287"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -9815,10 +9842,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="287"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9826,10 +9853,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="262"/>
-      <c r="E7" s="262"/>
-      <c r="F7" s="262"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
       <c r="J7" s="28" t="s">
         <v>9</v>
       </c>
@@ -9841,40 +9868,40 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="294"/>
-      <c r="D8" s="294"/>
-      <c r="E8" s="294"/>
-      <c r="F8" s="294"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="287"/>
-      <c r="D9" s="287"/>
-      <c r="E9" s="287"/>
-      <c r="F9" s="287"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="100"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="101"/>
+      <c r="C14" s="100"/>
       <c r="D14" s="34"/>
-      <c r="E14" s="107" t="s">
+      <c r="E14" s="106" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="33"/>
@@ -9888,12 +9915,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="226" t="s">
+      <c r="A15" s="225" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="102"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
@@ -9901,15 +9928,15 @@
       <c r="I15" s="33"/>
       <c r="J15" s="11"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="265"/>
+      <c r="L15" s="264"/>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="223" t="s">
+      <c r="A16" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="224"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="102"/>
+      <c r="B16" s="223"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
@@ -9917,15 +9944,15 @@
       <c r="I16" s="33"/>
       <c r="J16" s="11"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="265"/>
+      <c r="L16" s="264"/>
     </row>
     <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="226" t="s">
+      <c r="A17" s="225" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="102"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
@@ -9933,15 +9960,15 @@
       <c r="I17" s="33"/>
       <c r="J17" s="11"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="265"/>
+      <c r="L17" s="264"/>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="226" t="s">
+      <c r="A18" s="225" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="102"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -9949,15 +9976,15 @@
       <c r="I18" s="33"/>
       <c r="J18" s="11"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="265"/>
+      <c r="L18" s="264"/>
     </row>
     <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="226" t="s">
+      <c r="A19" s="225" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="102"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -9965,15 +9992,15 @@
       <c r="I19" s="33"/>
       <c r="J19" s="11"/>
       <c r="K19" s="26"/>
-      <c r="L19" s="265"/>
+      <c r="L19" s="264"/>
     </row>
     <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="226" t="s">
+      <c r="A20" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="102"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="101"/>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
@@ -9981,15 +10008,15 @@
       <c r="I20" s="33"/>
       <c r="J20" s="11"/>
       <c r="K20" s="26"/>
-      <c r="L20" s="265"/>
+      <c r="L20" s="264"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="226" t="s">
+      <c r="A21" s="225" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="102"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="101"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
@@ -9997,15 +10024,15 @@
       <c r="I21" s="33"/>
       <c r="J21" s="11"/>
       <c r="K21" s="26"/>
-      <c r="L21" s="265"/>
+      <c r="L21" s="264"/>
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="226" t="s">
+      <c r="A22" s="225" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="224"/>
-      <c r="C22" s="224"/>
-      <c r="D22" s="225"/>
+      <c r="B22" s="223"/>
+      <c r="C22" s="223"/>
+      <c r="D22" s="224"/>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
@@ -10013,7 +10040,7 @@
       <c r="I22" s="33"/>
       <c r="J22" s="11"/>
       <c r="K22" s="26"/>
-      <c r="L22" s="265"/>
+      <c r="L22" s="264"/>
     </row>
     <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K23" s="37"/>
@@ -10133,192 +10160,192 @@
   <sheetPr codeName="Blad6"/>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.73046875" style="114" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" style="114"/>
-    <col min="3" max="3" width="12.59765625" style="114" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.73046875" style="114" customWidth="1"/>
-    <col min="5" max="6" width="7.265625" style="114" customWidth="1"/>
-    <col min="7" max="7" width="9.265625" style="114" customWidth="1"/>
-    <col min="8" max="8" width="7" style="114" customWidth="1"/>
-    <col min="9" max="9" width="7.265625" style="114" customWidth="1"/>
-    <col min="10" max="10" width="4.73046875" style="114" customWidth="1"/>
-    <col min="11" max="11" width="10.265625" style="114" customWidth="1"/>
-    <col min="12" max="12" width="10.73046875" style="114" customWidth="1"/>
-    <col min="13" max="16384" width="9.1328125" style="114"/>
+    <col min="1" max="1" width="5.73046875" style="113" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="113"/>
+    <col min="3" max="3" width="12.59765625" style="113" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.73046875" style="113" customWidth="1"/>
+    <col min="5" max="6" width="7.265625" style="113" customWidth="1"/>
+    <col min="7" max="7" width="9.265625" style="113" customWidth="1"/>
+    <col min="8" max="8" width="7" style="113" customWidth="1"/>
+    <col min="9" max="9" width="7.265625" style="113" customWidth="1"/>
+    <col min="10" max="10" width="4.73046875" style="113" customWidth="1"/>
+    <col min="11" max="11" width="10.265625" style="113" customWidth="1"/>
+    <col min="12" max="12" width="10.73046875" style="113" customWidth="1"/>
+    <col min="13" max="16384" width="9.1328125" style="113"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="154" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="156"/>
-      <c r="I2" s="157" t="s">
+      <c r="H2" s="155"/>
+      <c r="I2" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="158"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="156"/>
-      <c r="I3" s="157" t="s">
+      <c r="H3" s="155"/>
+      <c r="I3" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="158"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="261"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="157" t="s">
+      <c r="B4" s="160"/>
+      <c r="C4" s="260"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="158"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="137"/>
-      <c r="C5" s="290"/>
-      <c r="D5" s="290"/>
-      <c r="E5" s="290"/>
-      <c r="F5" s="290"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="157" t="s">
+      <c r="B5" s="136"/>
+      <c r="C5" s="359"/>
+      <c r="D5" s="359"/>
+      <c r="E5" s="359"/>
+      <c r="F5" s="359"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="163"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="158"/>
+      <c r="L5" s="158"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="137"/>
-      <c r="C6" s="290"/>
-      <c r="D6" s="290"/>
-      <c r="E6" s="290"/>
-      <c r="F6" s="290"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="359"/>
+      <c r="D6" s="359"/>
+      <c r="E6" s="359"/>
+      <c r="F6" s="359"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="263"/>
-      <c r="D7" s="263"/>
-      <c r="E7" s="263"/>
-      <c r="F7" s="263"/>
-      <c r="J7" s="164" t="s">
+      <c r="B7" s="136"/>
+      <c r="C7" s="262"/>
+      <c r="D7" s="262"/>
+      <c r="E7" s="262"/>
+      <c r="F7" s="262"/>
+      <c r="J7" s="163" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="31"/>
-      <c r="L7" s="165"/>
+      <c r="L7" s="164"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="161"/>
-      <c r="C8" s="295"/>
-      <c r="D8" s="295"/>
-      <c r="E8" s="295"/>
-      <c r="F8" s="295"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="365"/>
+      <c r="D8" s="365"/>
+      <c r="E8" s="365"/>
+      <c r="F8" s="365"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="137"/>
-      <c r="C9" s="290"/>
-      <c r="D9" s="290"/>
-      <c r="E9" s="290"/>
-      <c r="F9" s="290"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="359"/>
+      <c r="D9" s="359"/>
+      <c r="E9" s="359"/>
+      <c r="F9" s="359"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="137" t="s">
+      <c r="A10" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="137"/>
-      <c r="C10" s="290"/>
-      <c r="D10" s="290"/>
-      <c r="E10" s="290"/>
-      <c r="F10" s="290"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="359"/>
+      <c r="D10" s="359"/>
+      <c r="E10" s="359"/>
+      <c r="F10" s="359"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="165" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="167"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="168"/>
-      <c r="L12" s="169"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="167"/>
+      <c r="L12" s="168"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="170"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="171"/>
+      <c r="A13" s="169"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="170"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="170"/>
-      <c r="L14" s="172"/>
+      <c r="A14" s="169"/>
+      <c r="L14" s="171"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="173" t="s">
+      <c r="A15" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="174"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="175"/>
-      <c r="L15" s="176"/>
+      <c r="B15" s="173"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="175"/>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="154" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H17" s="177"/>
-      <c r="I17" s="144"/>
-      <c r="K17" s="178" t="s">
+      <c r="H17" s="176"/>
+      <c r="I17" s="143"/>
+      <c r="K17" s="177" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10335,72 +10362,72 @@
       <c r="K21" s="30"/>
     </row>
     <row r="23" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G23" s="179"/>
-      <c r="J23" s="180"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="181"/>
+      <c r="G23" s="178"/>
+      <c r="J23" s="179"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="180"/>
     </row>
     <row r="24" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="160" t="s">
+      <c r="A24" s="159" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="84" t="s">
         <v>54</v>
       </c>
       <c r="H25" s="30"/>
       <c r="I25" s="52"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="87"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="182" t="s">
+      <c r="B26" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="183"/>
-      <c r="D26" s="184"/>
-      <c r="E26" s="266">
+      <c r="C26" s="182"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="265">
         <v>0</v>
       </c>
-      <c r="F26" s="182" t="s">
+      <c r="F26" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="184"/>
-      <c r="H26" s="267">
+      <c r="G26" s="183"/>
+      <c r="H26" s="266">
         <v>0</v>
       </c>
-      <c r="I26" s="95" t="str">
+      <c r="I26" s="94" t="str">
         <f>IFERROR(ROUND(E26/H26,3),"")</f>
         <v/>
       </c>
-      <c r="J26" s="96"/>
-      <c r="K26" s="283" t="str">
+      <c r="J26" s="95"/>
+      <c r="K26" s="282" t="str">
         <f>IFERROR((10-I26),"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H27" s="30"/>
-      <c r="I27" s="185"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="87"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I28" s="185"/>
-      <c r="J28" s="86"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="85"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="186" t="s">
+      <c r="D29" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="137"/>
-      <c r="F29" s="187"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="188"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="269">
+      <c r="E29" s="136"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="268">
         <v>0</v>
       </c>
     </row>
@@ -10408,52 +10435,52 @@
       <c r="L30" s="30"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G31" s="189" t="s">
+      <c r="G31" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="190"/>
-      <c r="K31" s="99" t="str">
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="189"/>
+      <c r="K31" s="98" t="str">
         <f>IFERROR(K26-K29,"")</f>
         <v/>
       </c>
-      <c r="L31" s="181">
+      <c r="L31" s="180">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I33" s="164" t="s">
+      <c r="I33" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="191"/>
-      <c r="K33" s="191"/>
-      <c r="L33" s="192" t="str">
+      <c r="J33" s="190"/>
+      <c r="K33" s="190"/>
+      <c r="L33" s="191" t="str">
         <f>IFERROR(K31,"")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="193"/>
-      <c r="F35" s="193"/>
-      <c r="G35" s="193"/>
+      <c r="E35" s="192"/>
+      <c r="F35" s="192"/>
+      <c r="G35" s="192"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="161" t="s">
+      <c r="A37" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="194"/>
-      <c r="C37" s="194"/>
-      <c r="D37" s="194"/>
-      <c r="E37" s="194"/>
-      <c r="H37" s="161" t="s">
+      <c r="B37" s="193"/>
+      <c r="C37" s="193"/>
+      <c r="D37" s="193"/>
+      <c r="E37" s="193"/>
+      <c r="H37" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="161"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="161"/>
-      <c r="L37" s="161"/>
+      <c r="I37" s="160"/>
+      <c r="J37" s="160"/>
+      <c r="K37" s="160"/>
+      <c r="L37" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10477,8 +10504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -11158,7 +11185,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="260"/>
+      <c r="C4" s="259"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -11175,10 +11202,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="287"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -11192,10 +11219,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="287"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -11207,10 +11234,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="262"/>
-      <c r="E7" s="262"/>
-      <c r="F7" s="262"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="28" t="s">
@@ -11224,30 +11251,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="294"/>
-      <c r="D8" s="294"/>
-      <c r="E8" s="294"/>
-      <c r="F8" s="294"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="287"/>
-      <c r="D9" s="287"/>
-      <c r="E9" s="287"/>
-      <c r="F9" s="287"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -11267,13 +11294,32 @@
       <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="69"/>
+      <c r="A13" s="366"/>
+      <c r="B13" s="367"/>
+      <c r="C13" s="367"/>
+      <c r="D13" s="367"/>
+      <c r="E13" s="367"/>
+      <c r="F13" s="367"/>
+      <c r="G13" s="367"/>
+      <c r="H13" s="367"/>
+      <c r="I13" s="367"/>
+      <c r="J13" s="367"/>
+      <c r="K13" s="367"/>
+      <c r="L13" s="368"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="L14" s="70"/>
+      <c r="A14" s="369"/>
+      <c r="B14" s="370"/>
+      <c r="C14" s="370"/>
+      <c r="D14" s="370"/>
+      <c r="E14" s="370"/>
+      <c r="F14" s="370"/>
+      <c r="G14" s="370"/>
+      <c r="H14" s="370"/>
+      <c r="I14" s="370"/>
+      <c r="J14" s="370"/>
+      <c r="K14" s="370"/>
+      <c r="L14" s="371"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
@@ -11288,8 +11334,8 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="109"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="108"/>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="50" t="s">
@@ -11297,127 +11343,131 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="70"/>
-      <c r="H17" s="71" t="s">
+      <c r="G17" s="69"/>
+      <c r="H17" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="72"/>
-      <c r="K17" s="73" t="s">
+      <c r="I17" s="71"/>
+      <c r="K17" s="72" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="73" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
-      <c r="E18" s="268">
+      <c r="E18" s="267">
+        <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"R",""))</f>
         <v>0</v>
       </c>
-      <c r="F18" s="75">
+      <c r="F18" s="74">
         <v>1.3</v>
       </c>
-      <c r="G18" s="76"/>
-      <c r="H18" s="73">
+      <c r="G18" s="75"/>
+      <c r="H18" s="72">
         <f>IF(E18&gt;9,10,E18)</f>
         <v>0</v>
       </c>
       <c r="I18" s="68"/>
-      <c r="K18" s="77">
+      <c r="K18" s="76">
         <f>F18*H18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="73" t="s">
         <v>114</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="55"/>
-      <c r="E19" s="268">
+      <c r="E19" s="267">
+        <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"D",""))+LEN(A$13)-LEN(SUBSTITUTE(A$13,"S",""))</f>
         <v>0</v>
       </c>
-      <c r="F19" s="75">
+      <c r="F19" s="74">
         <v>0.9</v>
       </c>
-      <c r="G19" s="76"/>
-      <c r="H19" s="73">
+      <c r="G19" s="75"/>
+      <c r="H19" s="72">
         <f>IF(SUM(E18:E19)&gt;9,10-H18,E19)</f>
         <v>0</v>
       </c>
       <c r="I19" s="68"/>
-      <c r="K19" s="77">
+      <c r="K19" s="76">
         <f>F19*H19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="73" t="s">
         <v>171</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="55"/>
-      <c r="E20" s="268">
+      <c r="E20" s="267">
+        <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"M",""))</f>
         <v>0</v>
       </c>
-      <c r="F20" s="75">
+      <c r="F20" s="74">
         <v>0.4</v>
       </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="73">
+      <c r="G20" s="75"/>
+      <c r="H20" s="72">
         <f>IF(SUM(E18:E20)&gt;9,IF(10-SUM(H18:H19)&gt;0,10-SUM(H18:H19),0),E20)</f>
         <v>0</v>
       </c>
       <c r="I20" s="68"/>
-      <c r="K20" s="77">
+      <c r="K20" s="76">
         <f>F20*H20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="73" t="s">
         <v>115</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="55"/>
-      <c r="E21" s="268">
+      <c r="E21" s="267">
+        <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"E",""))+LEN(A$13)-LEN(SUBSTITUTE(A$13,"L",""))</f>
         <v>0</v>
       </c>
-      <c r="F21" s="110" t="s">
+      <c r="F21" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="76"/>
-      <c r="H21" s="73"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="72"/>
       <c r="I21" s="68"/>
-      <c r="K21" s="77">
+      <c r="K21" s="76">
         <f>F21*H21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80">
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="79">
         <f>SUM(E18:E21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="80" t="s">
         <v>53</v>
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="83">
+      <c r="J23" s="81"/>
+      <c r="K23" s="82">
         <f>IF(SUM(K18:K21)&gt;10,10,SUM(K18:K21))</f>
         <v>0</v>
       </c>
-      <c r="L23" s="84">
+      <c r="L23" s="83">
         <v>0.3</v>
       </c>
     </row>
@@ -11427,37 +11477,39 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="84" t="s">
         <v>54</v>
       </c>
       <c r="H25" s="30"/>
       <c r="I25" s="52"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="87"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="104" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="25"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="266">
+      <c r="D26" s="105"/>
+      <c r="E26" s="265">
+        <f xml:space="preserve">
+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"1","")))*1+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"2","")))*2+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"3","")))*3+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"4","")))*4+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"5","")))*5+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"6","")))*6+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"7","")))*7+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"8","")))*8+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"9","")))*9</f>
         <v>0</v>
       </c>
-      <c r="F26" s="105" t="s">
+      <c r="F26" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="106"/>
-      <c r="H26" s="94">
+      <c r="G26" s="105"/>
+      <c r="H26" s="93">
         <f>E22</f>
         <v>0</v>
       </c>
-      <c r="I26" s="95" t="str">
+      <c r="I26" s="94" t="str">
         <f>IFERROR(ROUND(E26/H26,3),"-")</f>
         <v>-</v>
       </c>
-      <c r="J26" s="96"/>
-      <c r="K26" s="97">
+      <c r="J26" s="95"/>
+      <c r="K26" s="96">
         <f>IFERROR((10-I26),0)</f>
         <v>0</v>
       </c>
@@ -11465,23 +11517,23 @@
     <row r="27" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H27" s="30"/>
       <c r="I27" s="52"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="87"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I28" s="52"/>
-      <c r="J28" s="86"/>
+      <c r="J28" s="85"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="88" t="s">
+      <c r="E29" s="87" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="269">
+      <c r="I29" s="88"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="268">
         <v>0</v>
       </c>
     </row>
@@ -11489,17 +11541,17 @@
       <c r="L30" s="30"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G31" s="91" t="s">
+      <c r="G31" s="90" t="s">
         <v>48</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="83">
+      <c r="J31" s="91"/>
+      <c r="K31" s="82">
         <f>K26-K29</f>
         <v>0</v>
       </c>
-      <c r="L31" s="84">
+      <c r="L31" s="83">
         <v>0.7</v>
       </c>
     </row>
@@ -11533,7 +11585,8 @@
       <c r="L37" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A13:L14"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C8:F8"/>
@@ -11556,7 +11609,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -12236,7 +12289,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="260"/>
+      <c r="C4" s="259"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -12253,10 +12306,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="287"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -12270,10 +12323,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="287"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -12285,10 +12338,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="262"/>
-      <c r="E7" s="262"/>
-      <c r="F7" s="262"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="28" t="s">
@@ -12302,30 +12355,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="294"/>
-      <c r="D8" s="294"/>
-      <c r="E8" s="294"/>
-      <c r="F8" s="294"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="287"/>
-      <c r="D9" s="287"/>
-      <c r="E9" s="287"/>
-      <c r="F9" s="287"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12345,13 +12398,32 @@
       <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="69"/>
+      <c r="A13" s="366"/>
+      <c r="B13" s="367"/>
+      <c r="C13" s="367"/>
+      <c r="D13" s="367"/>
+      <c r="E13" s="367"/>
+      <c r="F13" s="367"/>
+      <c r="G13" s="367"/>
+      <c r="H13" s="367"/>
+      <c r="I13" s="367"/>
+      <c r="J13" s="367"/>
+      <c r="K13" s="367"/>
+      <c r="L13" s="368"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="L14" s="70"/>
+      <c r="A14" s="369"/>
+      <c r="B14" s="370"/>
+      <c r="C14" s="370"/>
+      <c r="D14" s="370"/>
+      <c r="E14" s="370"/>
+      <c r="F14" s="370"/>
+      <c r="G14" s="370"/>
+      <c r="H14" s="370"/>
+      <c r="I14" s="370"/>
+      <c r="J14" s="370"/>
+      <c r="K14" s="370"/>
+      <c r="L14" s="371"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
@@ -12366,8 +12438,8 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="109"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="108"/>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="50" t="s">
@@ -12375,125 +12447,131 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="70"/>
-      <c r="H17" s="71" t="s">
+      <c r="G17" s="69"/>
+      <c r="H17" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="72"/>
-      <c r="K17" s="73" t="s">
+      <c r="I17" s="71"/>
+      <c r="K17" s="72" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="73" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
-      <c r="E18" s="268">
+      <c r="E18" s="267">
+        <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"R",""))</f>
         <v>0</v>
       </c>
-      <c r="F18" s="75">
+      <c r="F18" s="74">
         <v>1.3</v>
       </c>
-      <c r="G18" s="76"/>
-      <c r="H18" s="73">
+      <c r="G18" s="75"/>
+      <c r="H18" s="72">
         <f>IF(E18&gt;9,10,E18)</f>
         <v>0</v>
       </c>
       <c r="I18" s="68"/>
-      <c r="K18" s="77">
+      <c r="K18" s="76">
         <f>F18*H18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="73" t="s">
         <v>114</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="55"/>
-      <c r="E19" s="268">
+      <c r="E19" s="267">
+        <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"D",""))+LEN(A$13)-LEN(SUBSTITUTE(A$13,"S",""))</f>
         <v>0</v>
       </c>
-      <c r="F19" s="75">
+      <c r="F19" s="74">
         <v>0.9</v>
       </c>
-      <c r="G19" s="76"/>
-      <c r="H19" s="73">
+      <c r="G19" s="75"/>
+      <c r="H19" s="72">
         <f>IF(SUM(E18:E19)&gt;9,10-H18,E19)</f>
         <v>0</v>
       </c>
       <c r="I19" s="68"/>
-      <c r="K19" s="77">
+      <c r="K19" s="76">
         <f>F19*H19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="73" t="s">
         <v>171</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="55"/>
-      <c r="E20" s="268">
+      <c r="E20" s="267">
+        <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"M",""))</f>
         <v>0</v>
       </c>
-      <c r="F20" s="75">
+      <c r="F20" s="74">
         <v>0.4</v>
       </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="73">
+      <c r="G20" s="75"/>
+      <c r="H20" s="72">
         <f>IF(SUM(E18:E20)&gt;9,IF(10-SUM(H18:H19)&gt;0,10-SUM(H18:H19),0),E20)</f>
         <v>0</v>
       </c>
       <c r="I20" s="68"/>
-      <c r="K20" s="77">
+      <c r="K20" s="76">
         <f>F20*H20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="73" t="s">
         <v>115</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="55"/>
-      <c r="E21" s="268"/>
-      <c r="F21" s="110" t="s">
+      <c r="E21" s="267">
+        <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"E",""))+LEN(A$13)-LEN(SUBSTITUTE(A$13,"L",""))</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="76"/>
-      <c r="H21" s="73"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="72"/>
       <c r="I21" s="68"/>
-      <c r="K21" s="77">
+      <c r="K21" s="76">
         <f>F21*H21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80">
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="79">
         <f>SUM(E18:E21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="80" t="s">
         <v>53</v>
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="83">
+      <c r="J23" s="81"/>
+      <c r="K23" s="82">
         <f>IF(SUM(K18:K21)&gt;10,10,SUM(K18:K21))</f>
         <v>0</v>
       </c>
-      <c r="L23" s="84">
+      <c r="L23" s="83">
         <v>0.3</v>
       </c>
     </row>
@@ -12503,37 +12581,39 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="84" t="s">
         <v>54</v>
       </c>
       <c r="H25" s="30"/>
       <c r="I25" s="52"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="87"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="104" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="25"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="266">
+      <c r="D26" s="105"/>
+      <c r="E26" s="265">
+        <f xml:space="preserve">
+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"1","")))*1+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"2","")))*2+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"3","")))*3+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"4","")))*4+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"5","")))*5+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"6","")))*6+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"7","")))*7+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"8","")))*8+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"9","")))*9</f>
         <v>0</v>
       </c>
-      <c r="F26" s="105" t="s">
+      <c r="F26" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="106"/>
-      <c r="H26" s="94">
+      <c r="G26" s="105"/>
+      <c r="H26" s="93">
         <f>E22</f>
         <v>0</v>
       </c>
-      <c r="I26" s="95" t="str">
+      <c r="I26" s="94" t="str">
         <f>IFERROR(ROUND(E26/H26,3),"")</f>
         <v/>
       </c>
-      <c r="J26" s="96"/>
-      <c r="K26" s="97" t="str">
+      <c r="J26" s="95"/>
+      <c r="K26" s="96" t="str">
         <f>IFERROR((10-I26),"")</f>
         <v/>
       </c>
@@ -12541,23 +12621,23 @@
     <row r="27" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H27" s="30"/>
       <c r="I27" s="52"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="87"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I28" s="52"/>
-      <c r="J28" s="86"/>
+      <c r="J28" s="85"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="88" t="s">
+      <c r="E29" s="87" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="269">
+      <c r="I29" s="88"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="268">
         <v>0</v>
       </c>
     </row>
@@ -12565,17 +12645,17 @@
       <c r="L30" s="30"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G31" s="91" t="s">
+      <c r="G31" s="90" t="s">
         <v>48</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="83" t="str">
+      <c r="J31" s="91"/>
+      <c r="K31" s="82" t="str">
         <f>IFERROR(K26-K29,"")</f>
         <v/>
       </c>
-      <c r="L31" s="84">
+      <c r="L31" s="83">
         <v>0.7</v>
       </c>
     </row>
@@ -12609,7 +12689,8 @@
       <c r="L37" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A13:L14"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
@@ -12630,7 +12711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13246,7 +13327,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="260"/>
+      <c r="C4" s="259"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -13263,10 +13344,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="287"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -13280,10 +13361,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="287"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -13295,10 +13376,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="262"/>
-      <c r="E7" s="262"/>
-      <c r="F7" s="262"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="28" t="s">
@@ -13312,30 +13393,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="294"/>
-      <c r="D8" s="294"/>
-      <c r="E8" s="294"/>
-      <c r="F8" s="294"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="287"/>
-      <c r="D9" s="287"/>
-      <c r="E9" s="287"/>
-      <c r="F9" s="287"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -13348,110 +13429,110 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="296" t="s">
+      <c r="A14" s="372" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="305" t="s">
+      <c r="B14" s="381" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="306"/>
-      <c r="D14" s="306"/>
-      <c r="E14" s="306"/>
-      <c r="F14" s="306"/>
-      <c r="G14" s="306"/>
-      <c r="H14" s="306"/>
-      <c r="I14" s="307"/>
+      <c r="C14" s="382"/>
+      <c r="D14" s="382"/>
+      <c r="E14" s="382"/>
+      <c r="F14" s="382"/>
+      <c r="G14" s="382"/>
+      <c r="H14" s="382"/>
+      <c r="I14" s="383"/>
       <c r="J14" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="K14" s="270"/>
-      <c r="L14" s="150">
+      <c r="K14" s="269"/>
+      <c r="L14" s="149">
         <f>K14*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="297"/>
-      <c r="B15" s="308" t="s">
+      <c r="A15" s="373"/>
+      <c r="B15" s="384" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="304"/>
-      <c r="D15" s="304"/>
-      <c r="E15" s="304"/>
-      <c r="F15" s="304"/>
-      <c r="G15" s="304"/>
-      <c r="H15" s="304"/>
-      <c r="I15" s="304"/>
+      <c r="C15" s="380"/>
+      <c r="D15" s="380"/>
+      <c r="E15" s="380"/>
+      <c r="F15" s="380"/>
+      <c r="G15" s="380"/>
+      <c r="H15" s="380"/>
+      <c r="I15" s="380"/>
       <c r="J15" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="K15" s="271"/>
-      <c r="L15" s="253">
+      <c r="K15" s="270"/>
+      <c r="L15" s="252">
         <f>K15*0.25</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="296" t="s">
+      <c r="A16" s="372" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="299" t="s">
+      <c r="B16" s="375" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="300"/>
-      <c r="D16" s="300"/>
-      <c r="E16" s="300"/>
-      <c r="F16" s="300"/>
-      <c r="G16" s="300"/>
-      <c r="H16" s="300"/>
-      <c r="I16" s="300"/>
+      <c r="C16" s="376"/>
+      <c r="D16" s="376"/>
+      <c r="E16" s="376"/>
+      <c r="F16" s="376"/>
+      <c r="G16" s="376"/>
+      <c r="H16" s="376"/>
+      <c r="I16" s="376"/>
       <c r="J16" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="K16" s="272"/>
-      <c r="L16" s="148">
+      <c r="K16" s="271"/>
+      <c r="L16" s="147">
         <f>K16*0.35</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="297"/>
-      <c r="B17" s="301" t="s">
+      <c r="A17" s="373"/>
+      <c r="B17" s="377" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="302"/>
-      <c r="D17" s="302"/>
-      <c r="E17" s="302"/>
-      <c r="F17" s="302"/>
-      <c r="G17" s="302"/>
-      <c r="H17" s="302"/>
-      <c r="I17" s="302"/>
+      <c r="C17" s="378"/>
+      <c r="D17" s="378"/>
+      <c r="E17" s="378"/>
+      <c r="F17" s="378"/>
+      <c r="G17" s="378"/>
+      <c r="H17" s="378"/>
+      <c r="I17" s="378"/>
       <c r="J17" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="K17" s="273"/>
-      <c r="L17" s="146">
+      <c r="K17" s="272"/>
+      <c r="L17" s="145">
         <f>K17*0.1</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="298"/>
-      <c r="B18" s="303" t="s">
+      <c r="A18" s="374"/>
+      <c r="B18" s="379" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="304"/>
-      <c r="D18" s="304"/>
-      <c r="E18" s="304"/>
-      <c r="F18" s="304"/>
-      <c r="G18" s="304"/>
-      <c r="H18" s="304"/>
-      <c r="I18" s="304"/>
+      <c r="C18" s="380"/>
+      <c r="D18" s="380"/>
+      <c r="E18" s="380"/>
+      <c r="F18" s="380"/>
+      <c r="G18" s="380"/>
+      <c r="H18" s="380"/>
+      <c r="I18" s="380"/>
       <c r="J18" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="284"/>
-      <c r="L18" s="252">
+      <c r="K18" s="283"/>
+      <c r="L18" s="251">
         <f>K18*0</f>
         <v>0</v>
       </c>
@@ -13503,7 +13584,7 @@
       <c r="I21" s="56"/>
       <c r="J21" s="56"/>
       <c r="K21" s="56"/>
-      <c r="L21" s="280"/>
+      <c r="L21" s="279"/>
       <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>

--- a/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574E767C-C213-42BA-8C22-AF8D2F92B39E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184AD587-6E17-46C2-8348-B256AD9274BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="966" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="966" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="37" r:id="rId1"/>
@@ -855,9 +855,6 @@
 10%</t>
   </si>
   <si>
-    <t>Sidhopp del 1 och avgång inåt med tryck</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1126,6 +1123,9 @@
   <si>
     <t>A3
 15%</t>
+  </si>
+  <si>
+    <t>Sidhopp del 1, tryck av inåt</t>
   </si>
 </sst>
 </file>
@@ -2930,6 +2930,173 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2937,173 +3104,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5746,7 +5746,7 @@
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="372" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="381" t="s">
         <v>116</v>
@@ -5794,7 +5794,7 @@
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="372" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" s="375" t="s">
         <v>159</v>
@@ -5830,7 +5830,7 @@
       <c r="H17" s="378"/>
       <c r="I17" s="378"/>
       <c r="J17" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K17" s="272">
         <v>0</v>
@@ -6713,7 +6713,7 @@
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="372" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="381" t="s">
         <v>116</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="372" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" s="375" t="s">
         <v>159</v>
@@ -6797,7 +6797,7 @@
       <c r="H17" s="378"/>
       <c r="I17" s="378"/>
       <c r="J17" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K17" s="272">
         <v>0</v>
@@ -6931,11 +6931,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
@@ -6943,6 +6938,11 @@
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7428,7 +7428,7 @@
     <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
     <oddFooter>&amp;R2019-06-01</oddFooter>
@@ -8288,8 +8288,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="309" t="s">
-        <v>172</v>
+      <c r="A18" s="337" t="s">
+        <v>171</v>
       </c>
       <c r="B18" s="375" t="s">
         <v>135</v>
@@ -8311,7 +8311,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="310"/>
+      <c r="A19" s="338"/>
       <c r="B19" s="377" t="s">
         <v>118</v>
       </c>
@@ -8443,6 +8443,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A2:I2"/>
@@ -8452,15 +8458,9 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
     <oddFooter>&amp;R2019-06-01</oddFooter>
@@ -8476,7 +8476,7 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showZeros="0" showRuler="0" view="pageLayout" topLeftCell="B14" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -8528,8 +8528,8 @@
         <v>4</v>
       </c>
       <c r="B3" s="160"/>
-      <c r="C3" s="303"/>
-      <c r="D3" s="303"/>
+      <c r="C3" s="358"/>
+      <c r="D3" s="358"/>
       <c r="E3" s="285"/>
       <c r="F3" s="285"/>
       <c r="H3" s="155"/>
@@ -8545,10 +8545,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="136"/>
-      <c r="C4" s="302"/>
-      <c r="D4" s="302"/>
-      <c r="E4" s="302"/>
-      <c r="F4" s="302"/>
+      <c r="C4" s="357"/>
+      <c r="D4" s="357"/>
+      <c r="E4" s="357"/>
+      <c r="F4" s="357"/>
       <c r="H4" s="155"/>
       <c r="I4" s="156" t="s">
         <v>11</v>
@@ -8562,10 +8562,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="302"/>
-      <c r="D5" s="302"/>
-      <c r="E5" s="302"/>
-      <c r="F5" s="302"/>
+      <c r="C5" s="357"/>
+      <c r="D5" s="357"/>
+      <c r="E5" s="357"/>
+      <c r="F5" s="357"/>
       <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8588,10 +8588,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="160"/>
-      <c r="C7" s="302"/>
-      <c r="D7" s="302"/>
-      <c r="E7" s="302"/>
-      <c r="F7" s="302"/>
+      <c r="C7" s="357"/>
+      <c r="D7" s="357"/>
+      <c r="E7" s="357"/>
+      <c r="F7" s="357"/>
       <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8599,10 +8599,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="136"/>
-      <c r="C8" s="302"/>
-      <c r="D8" s="302"/>
-      <c r="E8" s="302"/>
-      <c r="F8" s="302"/>
+      <c r="C8" s="357"/>
+      <c r="D8" s="357"/>
+      <c r="E8" s="357"/>
+      <c r="F8" s="357"/>
       <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8610,10 +8610,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="302"/>
-      <c r="D9" s="302"/>
-      <c r="E9" s="302"/>
-      <c r="F9" s="302"/>
+      <c r="C9" s="357"/>
+      <c r="D9" s="357"/>
+      <c r="E9" s="357"/>
+      <c r="F9" s="357"/>
       <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8628,112 +8628,112 @@
       <c r="D11" s="288"/>
       <c r="E11" s="288"/>
       <c r="F11" s="288"/>
-      <c r="H11" s="304" t="s">
+      <c r="H11" s="332" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="305"/>
-      <c r="J11" s="306" t="s">
+      <c r="I11" s="333"/>
+      <c r="J11" s="334" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="307"/>
-      <c r="L11" s="308"/>
+      <c r="K11" s="335"/>
+      <c r="L11" s="336"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="309" t="s">
+      <c r="A12" s="337" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="341" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="313" t="s">
+      <c r="C12" s="342"/>
+      <c r="D12" s="342"/>
+      <c r="E12" s="342"/>
+      <c r="F12" s="342"/>
+      <c r="G12" s="342"/>
+      <c r="H12" s="345"/>
+      <c r="I12" s="346"/>
+      <c r="J12" s="351" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="314"/>
-      <c r="D12" s="314"/>
-      <c r="E12" s="314"/>
-      <c r="F12" s="314"/>
-      <c r="G12" s="314"/>
-      <c r="H12" s="317"/>
-      <c r="I12" s="318"/>
-      <c r="J12" s="323" t="s">
-        <v>175</v>
-      </c>
-      <c r="K12" s="326">
+      <c r="K12" s="353">
         <f>SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
-      <c r="L12" s="329">
+      <c r="L12" s="321">
         <f>ROUND(K12*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="310"/>
-      <c r="B13" s="315"/>
-      <c r="C13" s="316"/>
-      <c r="D13" s="316"/>
-      <c r="E13" s="316"/>
-      <c r="F13" s="316"/>
-      <c r="G13" s="316"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="320"/>
-      <c r="J13" s="324"/>
-      <c r="K13" s="327"/>
-      <c r="L13" s="330"/>
+      <c r="A13" s="338"/>
+      <c r="B13" s="343"/>
+      <c r="C13" s="344"/>
+      <c r="D13" s="344"/>
+      <c r="E13" s="344"/>
+      <c r="F13" s="344"/>
+      <c r="G13" s="344"/>
+      <c r="H13" s="347"/>
+      <c r="I13" s="348"/>
+      <c r="J13" s="330"/>
+      <c r="K13" s="354"/>
+      <c r="L13" s="322"/>
     </row>
     <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="310"/>
-      <c r="B14" s="315"/>
-      <c r="C14" s="316"/>
-      <c r="D14" s="316"/>
-      <c r="E14" s="316"/>
-      <c r="F14" s="316"/>
-      <c r="G14" s="316"/>
-      <c r="H14" s="319"/>
-      <c r="I14" s="320"/>
-      <c r="J14" s="324"/>
-      <c r="K14" s="327"/>
-      <c r="L14" s="330"/>
+      <c r="A14" s="338"/>
+      <c r="B14" s="343"/>
+      <c r="C14" s="344"/>
+      <c r="D14" s="344"/>
+      <c r="E14" s="344"/>
+      <c r="F14" s="344"/>
+      <c r="G14" s="344"/>
+      <c r="H14" s="347"/>
+      <c r="I14" s="348"/>
+      <c r="J14" s="330"/>
+      <c r="K14" s="354"/>
+      <c r="L14" s="322"/>
     </row>
     <row r="15" spans="1:12" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="310"/>
-      <c r="B15" s="315"/>
-      <c r="C15" s="316"/>
-      <c r="D15" s="316"/>
-      <c r="E15" s="316"/>
-      <c r="F15" s="316"/>
-      <c r="G15" s="316"/>
-      <c r="H15" s="319"/>
-      <c r="I15" s="320"/>
-      <c r="J15" s="324"/>
-      <c r="K15" s="327"/>
-      <c r="L15" s="330"/>
+      <c r="A15" s="338"/>
+      <c r="B15" s="343"/>
+      <c r="C15" s="344"/>
+      <c r="D15" s="344"/>
+      <c r="E15" s="344"/>
+      <c r="F15" s="344"/>
+      <c r="G15" s="344"/>
+      <c r="H15" s="347"/>
+      <c r="I15" s="348"/>
+      <c r="J15" s="330"/>
+      <c r="K15" s="354"/>
+      <c r="L15" s="322"/>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="311"/>
+      <c r="A16" s="339"/>
       <c r="B16" s="289" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="290" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="290" t="s">
+      <c r="D16" s="291" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="291" t="s">
+      <c r="E16" s="290" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="290" t="s">
+      <c r="F16" s="290" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="290" t="s">
+      <c r="G16" s="292" t="s">
         <v>180</v>
       </c>
-      <c r="G16" s="292" t="s">
-        <v>181</v>
-      </c>
-      <c r="H16" s="319"/>
-      <c r="I16" s="320"/>
-      <c r="J16" s="324"/>
-      <c r="K16" s="327"/>
-      <c r="L16" s="330"/>
+      <c r="H16" s="347"/>
+      <c r="I16" s="348"/>
+      <c r="J16" s="330"/>
+      <c r="K16" s="354"/>
+      <c r="L16" s="322"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="312"/>
+      <c r="A17" s="340"/>
       <c r="B17" s="293"/>
       <c r="C17" s="294">
         <v>0</v>
@@ -8742,69 +8742,69 @@
       <c r="E17" s="294"/>
       <c r="F17" s="294"/>
       <c r="G17" s="295"/>
-      <c r="H17" s="321"/>
-      <c r="I17" s="322"/>
-      <c r="J17" s="325"/>
-      <c r="K17" s="328"/>
-      <c r="L17" s="331"/>
+      <c r="H17" s="349"/>
+      <c r="I17" s="350"/>
+      <c r="J17" s="352"/>
+      <c r="K17" s="355"/>
+      <c r="L17" s="356"/>
     </row>
     <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="334" t="s">
+      <c r="A18" s="304" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="337" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" s="337"/>
-      <c r="D18" s="337"/>
-      <c r="E18" s="337"/>
-      <c r="F18" s="337"/>
-      <c r="G18" s="337"/>
-      <c r="H18" s="340"/>
-      <c r="I18" s="341"/>
-      <c r="J18" s="346" t="s">
+      <c r="B18" s="307" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="307"/>
+      <c r="D18" s="307"/>
+      <c r="E18" s="307"/>
+      <c r="F18" s="307"/>
+      <c r="G18" s="307"/>
+      <c r="H18" s="310"/>
+      <c r="I18" s="311"/>
+      <c r="J18" s="316" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="349">
+      <c r="K18" s="319">
         <v>0</v>
       </c>
-      <c r="L18" s="329">
+      <c r="L18" s="321">
         <f>IF(K18-K21 &gt;=0, (ROUND((K18-K21)*0.25,3)),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="335"/>
-      <c r="B19" s="338"/>
-      <c r="C19" s="338"/>
-      <c r="D19" s="338"/>
-      <c r="E19" s="338"/>
-      <c r="F19" s="338"/>
-      <c r="G19" s="338"/>
-      <c r="H19" s="342"/>
-      <c r="I19" s="343"/>
-      <c r="J19" s="347"/>
-      <c r="K19" s="350"/>
-      <c r="L19" s="330"/>
+      <c r="A19" s="305"/>
+      <c r="B19" s="308"/>
+      <c r="C19" s="308"/>
+      <c r="D19" s="308"/>
+      <c r="E19" s="308"/>
+      <c r="F19" s="308"/>
+      <c r="G19" s="308"/>
+      <c r="H19" s="312"/>
+      <c r="I19" s="313"/>
+      <c r="J19" s="317"/>
+      <c r="K19" s="320"/>
+      <c r="L19" s="322"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="335"/>
-      <c r="B20" s="339"/>
-      <c r="C20" s="339"/>
-      <c r="D20" s="339"/>
-      <c r="E20" s="339"/>
-      <c r="F20" s="339"/>
-      <c r="G20" s="338"/>
-      <c r="H20" s="342"/>
-      <c r="I20" s="343"/>
-      <c r="J20" s="347"/>
-      <c r="K20" s="350"/>
-      <c r="L20" s="330"/>
+      <c r="A20" s="305"/>
+      <c r="B20" s="309"/>
+      <c r="C20" s="309"/>
+      <c r="D20" s="309"/>
+      <c r="E20" s="309"/>
+      <c r="F20" s="309"/>
+      <c r="G20" s="308"/>
+      <c r="H20" s="312"/>
+      <c r="I20" s="313"/>
+      <c r="J20" s="317"/>
+      <c r="K20" s="320"/>
+      <c r="L20" s="322"/>
     </row>
     <row r="21" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="336"/>
+      <c r="A21" s="306"/>
       <c r="B21" s="296" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" s="297">
         <v>0</v>
@@ -8813,44 +8813,44 @@
       <c r="E21" s="297"/>
       <c r="F21" s="297"/>
       <c r="G21" s="297"/>
-      <c r="H21" s="344"/>
-      <c r="I21" s="345"/>
-      <c r="J21" s="348"/>
+      <c r="H21" s="314"/>
+      <c r="I21" s="315"/>
+      <c r="J21" s="318"/>
       <c r="K21" s="298">
         <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="351"/>
+      <c r="L21" s="323"/>
     </row>
     <row r="22" spans="1:12" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="334" t="s">
+      <c r="A22" s="304" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="337" t="s">
+      <c r="B22" s="307" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="324"/>
+      <c r="D22" s="324"/>
+      <c r="E22" s="324"/>
+      <c r="F22" s="324"/>
+      <c r="G22" s="325"/>
+      <c r="H22" s="326"/>
+      <c r="I22" s="327"/>
+      <c r="J22" s="330" t="s">
         <v>184</v>
-      </c>
-      <c r="C22" s="352"/>
-      <c r="D22" s="352"/>
-      <c r="E22" s="352"/>
-      <c r="F22" s="352"/>
-      <c r="G22" s="353"/>
-      <c r="H22" s="354"/>
-      <c r="I22" s="355"/>
-      <c r="J22" s="324" t="s">
-        <v>185</v>
       </c>
       <c r="K22" s="299">
         <v>0</v>
       </c>
-      <c r="L22" s="330">
+      <c r="L22" s="322">
         <f>IF((K22-K23)&gt;=0,(ROUND((K22-K23)*0.15,3)),0.000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="336"/>
+      <c r="A23" s="306"/>
       <c r="B23" s="300" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C23" s="297">
         <v>0</v>
@@ -8863,14 +8863,14 @@
       </c>
       <c r="F23" s="297"/>
       <c r="G23" s="297"/>
-      <c r="H23" s="356"/>
-      <c r="I23" s="357"/>
-      <c r="J23" s="358"/>
+      <c r="H23" s="328"/>
+      <c r="I23" s="329"/>
+      <c r="J23" s="331"/>
       <c r="K23" s="298">
         <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="351"/>
+      <c r="L23" s="323"/>
     </row>
     <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="21"/>
@@ -8887,11 +8887,11 @@
         <v>3</v>
       </c>
       <c r="J25" s="23"/>
-      <c r="K25" s="332">
+      <c r="K25" s="302">
         <f>SUM(L12:L22)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="333"/>
+      <c r="L25" s="303"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8914,6 +8914,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:G15"/>
+    <mergeCell ref="H12:I17"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="L12:L17"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:G20"/>
@@ -8926,23 +8940,9 @@
     <mergeCell ref="H22:I23"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="L22:L23"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:G15"/>
-    <mergeCell ref="H12:I17"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="K12:K17"/>
-    <mergeCell ref="L12:L17"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
     <oddFooter>&amp;R2020-03-22</oddFooter>
@@ -9352,8 +9352,8 @@
   <sheetPr codeName="Blad4"/>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -9624,7 +9624,7 @@
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="360" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="B22" s="361"/>
       <c r="C22" s="361"/>
@@ -11402,7 +11402,7 @@
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="55"/>
@@ -12506,7 +12506,7 @@
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="55"/>
@@ -13430,7 +13430,7 @@
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="372" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" s="381" t="s">
         <v>116</v>
@@ -13474,10 +13474,10 @@
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="372" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" s="375" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="376"/>
       <c r="D16" s="376"/>
@@ -13662,6 +13662,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13727,15 +13736,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13746,6 +13746,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13762,21 +13777,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>

--- a/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184AD587-6E17-46C2-8348-B256AD9274BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C52052-53C4-4E89-8079-B55FB6A6DAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="966" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="966" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="37" r:id="rId1"/>
@@ -69,9 +69,9 @@
     <definedName name="datum" localSheetId="11">'Individuell tekniska övningar'!$C$4</definedName>
     <definedName name="datum" localSheetId="12">'Individuellt tekniskt artistisk'!$C$4</definedName>
     <definedName name="domare" localSheetId="1">'Häst, individuell'!$C$29</definedName>
-    <definedName name="domare" localSheetId="9">'Ind kür artistisk junior'!$C$27</definedName>
-    <definedName name="domare" localSheetId="8">'Ind kür artistisk minior'!$C$27</definedName>
-    <definedName name="domare" localSheetId="10">'Ind kür artistisk senior'!$C$27</definedName>
+    <definedName name="domare" localSheetId="9">'Ind kür artistisk junior'!$C$26</definedName>
+    <definedName name="domare" localSheetId="8">'Ind kür artistisk minior'!$C$26</definedName>
+    <definedName name="domare" localSheetId="10">'Ind kür artistisk senior'!$C$26</definedName>
     <definedName name="domare" localSheetId="6">'Ind kür tekn junior'!$C$37</definedName>
     <definedName name="domare" localSheetId="5">'Ind kür tekn minior'!$C$37</definedName>
     <definedName name="domare" localSheetId="7">'Ind kür tekn senior'!$C$37</definedName>
@@ -117,9 +117,9 @@
     <definedName name="moment" localSheetId="11">'Individuell tekniska övningar'!$L$5</definedName>
     <definedName name="moment" localSheetId="12">'Individuellt tekniskt artistisk'!$L$6</definedName>
     <definedName name="result" localSheetId="1">'Häst, individuell'!$K$25</definedName>
-    <definedName name="result" localSheetId="9">'Ind kür artistisk junior'!$L$23</definedName>
-    <definedName name="result" localSheetId="8">'Ind kür artistisk minior'!$L$23</definedName>
-    <definedName name="result" localSheetId="10">'Ind kür artistisk senior'!$L$23</definedName>
+    <definedName name="result" localSheetId="9">'Ind kür artistisk junior'!$L$22</definedName>
+    <definedName name="result" localSheetId="8">'Ind kür artistisk minior'!$L$22</definedName>
+    <definedName name="result" localSheetId="10">'Ind kür artistisk senior'!$L$22</definedName>
     <definedName name="result" localSheetId="6">'Ind kür tekn junior'!$L$33</definedName>
     <definedName name="result" localSheetId="5">'Ind kür tekn minior'!$L$33</definedName>
     <definedName name="result" localSheetId="7">'Ind kür tekn senior'!$L$33</definedName>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="184">
   <si>
     <t>Nation:</t>
   </si>
@@ -323,30 +323,6 @@
     <t>Artistisk poäng</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kreatitivitet &amp; originalitet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Använder unika övergångar, övningar, positioner, kombinationer och sekvenser av övningar.
-• Höjdpunkter
-• Individualitet</t>
-    </r>
-  </si>
-  <si>
     <t>Total poäng</t>
   </si>
   <si>
@@ -379,9 +355,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>Framlänges kullerbytta från korset till sittande på halsen</t>
   </si>
   <si>
     <t>Baklänges nål</t>
@@ -561,40 +534,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Variation av position</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Variation av position av övningar dels relaterat till hästen men också riktningen av övningar.
-• Balans gällande användning av plats, användning av alla delar av hästens rygg, hals och kors inräknat mellanhopp på in- och utsida.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Tolkning av musik</t>
     </r>
     <r>
@@ -787,10 +726,6 @@
   <si>
     <t>C3
 35%</t>
-  </si>
-  <si>
-    <t>C5
-0%</t>
   </si>
   <si>
     <r>
@@ -1126,6 +1061,43 @@
   </si>
   <si>
     <t>Sidhopp del 1, tryck av inåt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Variation av position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+• Variation av position av övningar dels relaterat till hästen men också riktningen av övningar.
+• Balans gällande användning av plats, användning av alla delar av hästens rygg, hals och kors inräknat insida och utsida av hästen.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Hjulning</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -2142,6 +2114,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2153,7 +2138,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="414">
+  <cellXfs count="413">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2773,9 +2758,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2864,9 +2846,6 @@
     <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3144,44 +3123,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3656,7 +3638,7 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -3668,27 +3650,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="242" customFormat="1" ht="20.65" x14ac:dyDescent="0.6">
       <c r="A1" s="241" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="242" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="242" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="242" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="280" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="280" t="s">
-        <v>151</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="279" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="279" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -3696,18 +3678,18 @@
     <row r="8" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="242" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:6" s="212" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A11" s="212" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="153" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -3715,61 +3697,61 @@
     </row>
     <row r="15" spans="1:6" s="213" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A15" s="213" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="214" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" s="153"/>
       <c r="F16" s="214" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="213" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C17" s="213" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="213" t="s">
         <v>82</v>
-      </c>
-      <c r="D17" s="213" t="s">
-        <v>84</v>
       </c>
       <c r="E17" s="213"/>
       <c r="F17" s="213" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G17" s="213" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="213" t="s">
         <v>82</v>
-      </c>
-      <c r="H17" s="213" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="153" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B18" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" s="209" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D18" s="209" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E18" s="216"/>
       <c r="F18" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G18" s="209" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H18" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3784,26 +3766,26 @@
     </row>
     <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="153" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="209" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D20" s="209" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E20" s="216"/>
       <c r="F20" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G20" s="209" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H20" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3818,26 +3800,26 @@
     </row>
     <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="153" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B22" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D22" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E22" s="216"/>
       <c r="F22" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G22" s="209" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H22" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3852,40 +3834,40 @@
     </row>
     <row r="24" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="153" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B24" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C24" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D24" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E24" s="216"/>
       <c r="F24" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G24" s="209" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H24" s="209" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A25" s="215" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B25" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C25" s="209" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D25" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E25" s="215"/>
     </row>
@@ -3898,110 +3880,110 @@
     </row>
     <row r="27" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="153" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B27" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C27" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D27" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E27" s="216"/>
       <c r="F27" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G27" s="209" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H27" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A28" s="215" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B28" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C28" s="209" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="209" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E28" s="215"/>
     </row>
     <row r="30" spans="1:9" s="213" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A30" s="213" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="214" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" s="153"/>
       <c r="F31" s="214" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="213" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C32" s="213" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="213" t="s">
-        <v>84</v>
-      </c>
       <c r="E32" s="213" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F32" s="213" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G32" s="213" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="213" t="s">
-        <v>84</v>
-      </c>
       <c r="I32" s="213" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="153" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B33" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C33" s="209" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D33" s="209" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E33" s="209" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F33" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G33" s="209" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H33" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I33" s="209" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4017,31 +3999,31 @@
     </row>
     <row r="35" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="153" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B35" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C35" s="209" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D35" s="209" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E35" s="209" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F35" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G35" s="209" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H35" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I35" s="209" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4057,31 +4039,31 @@
     </row>
     <row r="37" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="153" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B37" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C37" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D37" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E37" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F37" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G37" s="209" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H37" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I37" s="209" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4097,48 +4079,48 @@
     </row>
     <row r="39" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="153" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="209" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="209" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="209" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="209" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" s="211" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="209" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="209" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="209" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="209" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="209" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39" s="209" t="s">
-        <v>144</v>
-      </c>
-      <c r="F39" s="211" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="209" t="s">
-        <v>89</v>
-      </c>
-      <c r="H39" s="209" t="s">
-        <v>90</v>
-      </c>
       <c r="I39" s="209" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A40" s="215" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B40" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40" s="209" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D40" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E40" s="209" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -4149,48 +4131,48 @@
     </row>
     <row r="42" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="153" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B42" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C42" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D42" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E42" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F42" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G42" s="209" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H42" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I42" s="209" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A43" s="215" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B43" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C43" s="209" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D43" s="209" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E43" s="209" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
@@ -4207,106 +4189,106 @@
     </row>
     <row r="46" spans="1:14" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A46" s="213" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="214" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C48" s="153"/>
       <c r="F48" s="214" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J48" s="214" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K48" s="153"/>
       <c r="N48" s="214" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="213" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49" s="213" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="213" t="s">
         <v>82</v>
-      </c>
-      <c r="D49" s="213" t="s">
-        <v>84</v>
       </c>
       <c r="E49" s="213"/>
       <c r="F49" s="213" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G49" s="213" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="H49" s="213" t="s">
-        <v>84</v>
-      </c>
       <c r="J49" s="213" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K49" s="213" t="s">
+        <v>80</v>
+      </c>
+      <c r="L49" s="213" t="s">
         <v>82</v>
-      </c>
-      <c r="L49" s="213" t="s">
-        <v>84</v>
       </c>
       <c r="M49" s="213"/>
       <c r="N49" s="213" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O49" s="213" t="s">
+        <v>80</v>
+      </c>
+      <c r="P49" s="213" t="s">
         <v>82</v>
-      </c>
-      <c r="P49" s="213" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="153" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B50" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C50" s="209" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D50" s="209" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E50" s="216"/>
       <c r="F50" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G50" s="209" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H50" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J50" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K50" s="209" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L50" s="209" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M50" s="216"/>
       <c r="N50" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O50" s="209" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P50" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4328,45 +4310,45 @@
     </row>
     <row r="52" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="153" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B52" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C52" s="209" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D52" s="209" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E52" s="216"/>
       <c r="F52" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G52" s="209" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H52" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J52" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K52" s="209" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L52" s="209" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M52" s="216"/>
       <c r="N52" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O52" s="209" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P52" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4388,45 +4370,45 @@
     </row>
     <row r="54" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="153" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B54" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C54" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D54" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E54" s="216"/>
       <c r="F54" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G54" s="209" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H54" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J54" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K54" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L54" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M54" s="216"/>
       <c r="N54" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O54" s="209" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P54" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4448,45 +4430,45 @@
     </row>
     <row r="56" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="153" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B56" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C56" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D56" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E56" s="216"/>
       <c r="F56" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G56" s="209" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H56" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J56" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K56" s="209" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L56" s="209" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M56" s="216"/>
       <c r="N56" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O56" s="209" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P56" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
@@ -4498,126 +4480,126 @@
     </row>
     <row r="59" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A59" s="213" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="214" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="153"/>
       <c r="F61" s="214" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J61" s="214" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K61" s="153"/>
       <c r="N61" s="214" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="213" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="213" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="213" t="s">
-        <v>84</v>
-      </c>
       <c r="E62" s="213" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F62" s="213" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G62" s="213" t="s">
+        <v>80</v>
+      </c>
+      <c r="H62" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="H62" s="213" t="s">
-        <v>84</v>
-      </c>
       <c r="I62" s="213" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J62" s="213" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K62" s="213" t="s">
+        <v>80</v>
+      </c>
+      <c r="L62" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="L62" s="213" t="s">
-        <v>84</v>
-      </c>
       <c r="M62" s="213" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N62" s="213" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O62" s="213" t="s">
+        <v>80</v>
+      </c>
+      <c r="P62" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="P62" s="213" t="s">
-        <v>84</v>
-      </c>
       <c r="Q62" s="213" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="153" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C63" s="209" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D63" s="209" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E63" s="209" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F63" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G63" s="209" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H63" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I63" s="209" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J63" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K63" s="209" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L63" s="209" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M63" s="209" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N63" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O63" s="209" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P63" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q63" s="209" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4641,55 +4623,55 @@
     </row>
     <row r="65" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="153" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B65" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="209" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D65" s="209" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E65" s="209" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F65" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G65" s="209" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H65" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I65" s="209" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J65" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K65" s="209" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L65" s="209" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M65" s="209" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N65" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O65" s="209" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P65" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q65" s="209" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4713,55 +4695,55 @@
     </row>
     <row r="67" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="153" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B67" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D67" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E67" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F67" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G67" s="209" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H67" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I67" s="209" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J67" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K67" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L67" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M67" s="209" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N67" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O67" s="209" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P67" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q67" s="209" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4785,60 +4767,60 @@
     </row>
     <row r="69" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="153" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="209" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="209" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69" s="209" t="s">
+        <v>141</v>
+      </c>
+      <c r="E69" s="209" t="s">
+        <v>141</v>
+      </c>
+      <c r="F69" s="209" t="s">
+        <v>83</v>
+      </c>
+      <c r="G69" s="209" t="s">
+        <v>147</v>
+      </c>
+      <c r="H69" s="209" t="s">
+        <v>84</v>
+      </c>
+      <c r="I69" s="209" t="s">
+        <v>147</v>
+      </c>
+      <c r="J69" s="209" t="s">
+        <v>83</v>
+      </c>
+      <c r="K69" s="209" t="s">
+        <v>87</v>
+      </c>
+      <c r="L69" s="209" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="209" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="209" t="s">
-        <v>144</v>
-      </c>
-      <c r="D69" s="209" t="s">
-        <v>144</v>
-      </c>
-      <c r="E69" s="209" t="s">
-        <v>144</v>
-      </c>
-      <c r="F69" s="209" t="s">
-        <v>85</v>
-      </c>
-      <c r="G69" s="209" t="s">
-        <v>150</v>
-      </c>
-      <c r="H69" s="209" t="s">
-        <v>86</v>
-      </c>
-      <c r="I69" s="209" t="s">
-        <v>150</v>
-      </c>
-      <c r="J69" s="209" t="s">
-        <v>85</v>
-      </c>
-      <c r="K69" s="209" t="s">
-        <v>89</v>
-      </c>
-      <c r="L69" s="209" t="s">
-        <v>90</v>
-      </c>
       <c r="M69" s="209" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N69" s="209" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O69" s="209" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P69" s="209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q69" s="209" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="242" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A73" s="244" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="213" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
@@ -4846,79 +4828,79 @@
         <v>39</v>
       </c>
       <c r="B74" s="247" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C74" s="247" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" s="247" t="s">
         <v>82</v>
       </c>
-      <c r="D74" s="247" t="s">
-        <v>84</v>
-      </c>
       <c r="E74" s="247" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F74" s="247" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="243" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" s="243" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" s="249" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" s="249" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" s="243" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="243" t="s">
+      <c r="F75" s="243" t="s">
         <v>101</v>
-      </c>
-      <c r="C75" s="249" t="s">
-        <v>113</v>
-      </c>
-      <c r="D75" s="249" t="s">
-        <v>113</v>
-      </c>
-      <c r="E75" s="243" t="s">
-        <v>102</v>
-      </c>
-      <c r="F75" s="243" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="243" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B76" s="243" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="243" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="249" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" s="243" t="s">
+        <v>105</v>
+      </c>
+      <c r="F76" s="243" t="s">
         <v>101</v>
-      </c>
-      <c r="C76" s="243" t="s">
-        <v>105</v>
-      </c>
-      <c r="D76" s="249" t="s">
-        <v>155</v>
-      </c>
-      <c r="E76" s="243" t="s">
-        <v>107</v>
-      </c>
-      <c r="F76" s="243" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="243" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B77" s="243" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="243" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="249" t="s">
+        <v>152</v>
+      </c>
+      <c r="E77" s="243" t="s">
+        <v>105</v>
+      </c>
+      <c r="F77" s="243" t="s">
         <v>101</v>
-      </c>
-      <c r="C77" s="243" t="s">
-        <v>105</v>
-      </c>
-      <c r="D77" s="249" t="s">
-        <v>155</v>
-      </c>
-      <c r="E77" s="243" t="s">
-        <v>107</v>
-      </c>
-      <c r="F77" s="243" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4928,7 +4910,7 @@
       <c r="D78" s="243"/>
       <c r="E78" s="243"/>
       <c r="F78" s="245" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4939,62 +4921,62 @@
     </row>
     <row r="82" spans="1:6" s="213" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A82" s="248" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B82" s="247" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C82" s="247" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" s="247" t="s">
         <v>82</v>
       </c>
-      <c r="D82" s="247" t="s">
-        <v>84</v>
-      </c>
       <c r="E82" s="247" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F82" s="247" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="243" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" s="243" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" s="249" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" s="249" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="243" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="243" t="s">
+      <c r="F83" s="243" t="s">
         <v>101</v>
-      </c>
-      <c r="C83" s="249" t="s">
-        <v>113</v>
-      </c>
-      <c r="D83" s="249" t="s">
-        <v>113</v>
-      </c>
-      <c r="E83" s="243" t="s">
-        <v>102</v>
-      </c>
-      <c r="F83" s="243" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="243" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" s="243" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" s="243" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" s="243" t="s">
         <v>104</v>
       </c>
-      <c r="B84" s="243" t="s">
+      <c r="E84" s="243" t="s">
+        <v>105</v>
+      </c>
+      <c r="F84" s="243" t="s">
         <v>101</v>
-      </c>
-      <c r="C84" s="243" t="s">
-        <v>105</v>
-      </c>
-      <c r="D84" s="243" t="s">
-        <v>106</v>
-      </c>
-      <c r="E84" s="243" t="s">
-        <v>107</v>
-      </c>
-      <c r="F84" s="243" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5004,7 +4986,7 @@
       <c r="D85" s="243"/>
       <c r="E85" s="243"/>
       <c r="F85" s="209" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="244" customFormat="1" ht="17.25" x14ac:dyDescent="0.45"/>
@@ -5023,10 +5005,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5616,11 +5598,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -5632,7 +5614,7 @@
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -5643,7 +5625,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="259"/>
+      <c r="C4" s="258"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -5660,10 +5642,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="363"/>
-      <c r="D5" s="363"/>
-      <c r="E5" s="363"/>
-      <c r="F5" s="363"/>
+      <c r="C5" s="361"/>
+      <c r="D5" s="361"/>
+      <c r="E5" s="361"/>
+      <c r="F5" s="361"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -5677,10 +5659,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="363"/>
-      <c r="D6" s="363"/>
-      <c r="E6" s="363"/>
-      <c r="F6" s="363"/>
+      <c r="C6" s="361"/>
+      <c r="D6" s="361"/>
+      <c r="E6" s="361"/>
+      <c r="F6" s="361"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -5692,10 +5674,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="28" t="s">
@@ -5709,30 +5691,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="364"/>
-      <c r="D8" s="364"/>
-      <c r="E8" s="364"/>
-      <c r="F8" s="364"/>
+      <c r="C8" s="362"/>
+      <c r="D8" s="362"/>
+      <c r="E8" s="362"/>
+      <c r="F8" s="362"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="363"/>
-      <c r="D9" s="363"/>
-      <c r="E9" s="363"/>
-      <c r="F9" s="363"/>
+      <c r="C9" s="361"/>
+      <c r="D9" s="361"/>
+      <c r="E9" s="361"/>
+      <c r="F9" s="361"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="363"/>
-      <c r="D10" s="363"/>
-      <c r="E10" s="363"/>
-      <c r="F10" s="363"/>
+      <c r="C10" s="361"/>
+      <c r="D10" s="361"/>
+      <c r="E10" s="361"/>
+      <c r="F10" s="361"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -5745,23 +5727,23 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="372" t="s">
-        <v>168</v>
-      </c>
-      <c r="B14" s="381" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="382"/>
-      <c r="D14" s="382"/>
-      <c r="E14" s="382"/>
-      <c r="F14" s="382"/>
-      <c r="G14" s="382"/>
-      <c r="H14" s="382"/>
-      <c r="I14" s="383"/>
+      <c r="A14" s="374" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="376" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="377"/>
+      <c r="D14" s="377"/>
+      <c r="E14" s="377"/>
+      <c r="F14" s="377"/>
+      <c r="G14" s="377"/>
+      <c r="H14" s="377"/>
+      <c r="I14" s="378"/>
       <c r="J14" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="K14" s="269">
+        <v>122</v>
+      </c>
+      <c r="K14" s="268">
         <v>0</v>
       </c>
       <c r="L14" s="149">
@@ -5770,9 +5752,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="374"/>
-      <c r="B15" s="384" t="s">
-        <v>117</v>
+      <c r="A15" s="383"/>
+      <c r="B15" s="379" t="s">
+        <v>182</v>
       </c>
       <c r="C15" s="380"/>
       <c r="D15" s="380"/>
@@ -5782,34 +5764,34 @@
       <c r="H15" s="380"/>
       <c r="I15" s="380"/>
       <c r="J15" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="K15" s="270">
+        <v>123</v>
+      </c>
+      <c r="K15" s="269">
         <v>0</v>
       </c>
-      <c r="L15" s="252">
+      <c r="L15" s="251">
         <f>K15*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="372" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="375" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="376"/>
-      <c r="D16" s="376"/>
-      <c r="E16" s="376"/>
-      <c r="F16" s="376"/>
-      <c r="G16" s="376"/>
-      <c r="H16" s="376"/>
-      <c r="I16" s="376"/>
+      <c r="A16" s="374" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="370" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="371"/>
+      <c r="D16" s="371"/>
+      <c r="E16" s="371"/>
+      <c r="F16" s="371"/>
+      <c r="G16" s="371"/>
+      <c r="H16" s="371"/>
+      <c r="I16" s="371"/>
       <c r="J16" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="K16" s="271">
+        <v>154</v>
+      </c>
+      <c r="K16" s="270">
         <v>0</v>
       </c>
       <c r="L16" s="147">
@@ -5818,21 +5800,21 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="373"/>
-      <c r="B17" s="377" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="378"/>
-      <c r="D17" s="378"/>
-      <c r="E17" s="378"/>
-      <c r="F17" s="378"/>
-      <c r="G17" s="378"/>
-      <c r="H17" s="378"/>
-      <c r="I17" s="378"/>
+      <c r="A17" s="375"/>
+      <c r="B17" s="372" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="373"/>
+      <c r="D17" s="373"/>
+      <c r="E17" s="373"/>
+      <c r="F17" s="373"/>
+      <c r="G17" s="373"/>
+      <c r="H17" s="373"/>
+      <c r="I17" s="373"/>
       <c r="J17" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="K17" s="272">
+        <v>161</v>
+      </c>
+      <c r="K17" s="271">
         <v>0</v>
       </c>
       <c r="L17" s="145">
@@ -5840,30 +5822,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="374"/>
-      <c r="B18" s="379" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="380"/>
-      <c r="D18" s="380"/>
-      <c r="E18" s="380"/>
-      <c r="F18" s="380"/>
-      <c r="G18" s="380"/>
-      <c r="H18" s="380"/>
-      <c r="I18" s="380"/>
-      <c r="J18" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="K18" s="283">
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="53">
+        <f>SUM(L14:L17)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="251">
-        <f>K18*0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -5875,77 +5852,67 @@
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
-      <c r="L19" s="53">
-        <f>SUM(L14:L18)</f>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="21"/>
+      <c r="B20" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="278"/>
+      <c r="M20" s="21"/>
+    </row>
+    <row r="21" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="57">
+        <f>SUM(L14:L17)-L20</f>
         <v>0</v>
       </c>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-    </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="21"/>
-      <c r="B21" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="279"/>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I23" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="57">
-        <f>SUM(L14:L18)-L21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+    </row>
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="H27" s="7" t="s">
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="H26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-    </row>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F29" s="59"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="63"/>
+    </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F30" s="59"/>
       <c r="H30" s="60"/>
@@ -5954,20 +5921,11 @@
       <c r="K30" s="62"/>
       <c r="L30" s="63"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F31" s="59"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="63"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A16:A18"/>
+  <mergeCells count="11">
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C8:F8"/>
@@ -5981,7 +5939,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-06-01</oddFooter>
+    <oddFooter>&amp;R2022-01-01</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -5990,10 +5948,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Blad8"/>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6583,11 +6541,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -6599,7 +6557,7 @@
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -6610,7 +6568,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="259"/>
+      <c r="C4" s="258"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -6627,10 +6585,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="363"/>
-      <c r="D5" s="363"/>
-      <c r="E5" s="363"/>
-      <c r="F5" s="363"/>
+      <c r="C5" s="361"/>
+      <c r="D5" s="361"/>
+      <c r="E5" s="361"/>
+      <c r="F5" s="361"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -6644,10 +6602,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="363"/>
-      <c r="D6" s="363"/>
-      <c r="E6" s="363"/>
-      <c r="F6" s="363"/>
+      <c r="C6" s="361"/>
+      <c r="D6" s="361"/>
+      <c r="E6" s="361"/>
+      <c r="F6" s="361"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -6659,10 +6617,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="28" t="s">
@@ -6676,30 +6634,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="364"/>
-      <c r="D8" s="364"/>
-      <c r="E8" s="364"/>
-      <c r="F8" s="364"/>
+      <c r="C8" s="362"/>
+      <c r="D8" s="362"/>
+      <c r="E8" s="362"/>
+      <c r="F8" s="362"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="363"/>
-      <c r="D9" s="363"/>
-      <c r="E9" s="363"/>
-      <c r="F9" s="363"/>
+      <c r="C9" s="361"/>
+      <c r="D9" s="361"/>
+      <c r="E9" s="361"/>
+      <c r="F9" s="361"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="363"/>
-      <c r="D10" s="363"/>
-      <c r="E10" s="363"/>
-      <c r="F10" s="363"/>
+      <c r="C10" s="361"/>
+      <c r="D10" s="361"/>
+      <c r="E10" s="361"/>
+      <c r="F10" s="361"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6712,23 +6670,23 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="372" t="s">
-        <v>168</v>
-      </c>
-      <c r="B14" s="381" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="382"/>
-      <c r="D14" s="382"/>
-      <c r="E14" s="382"/>
-      <c r="F14" s="382"/>
-      <c r="G14" s="382"/>
-      <c r="H14" s="382"/>
-      <c r="I14" s="383"/>
+      <c r="A14" s="374" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="376" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="377"/>
+      <c r="D14" s="377"/>
+      <c r="E14" s="377"/>
+      <c r="F14" s="377"/>
+      <c r="G14" s="377"/>
+      <c r="H14" s="377"/>
+      <c r="I14" s="378"/>
       <c r="J14" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="K14" s="269">
+        <v>122</v>
+      </c>
+      <c r="K14" s="268">
         <v>0</v>
       </c>
       <c r="L14" s="149">
@@ -6737,9 +6695,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="374"/>
-      <c r="B15" s="384" t="s">
-        <v>117</v>
+      <c r="A15" s="383"/>
+      <c r="B15" s="379" t="s">
+        <v>182</v>
       </c>
       <c r="C15" s="380"/>
       <c r="D15" s="380"/>
@@ -6749,34 +6707,34 @@
       <c r="H15" s="380"/>
       <c r="I15" s="380"/>
       <c r="J15" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="K15" s="270">
+        <v>123</v>
+      </c>
+      <c r="K15" s="269">
         <v>0</v>
       </c>
-      <c r="L15" s="252">
+      <c r="L15" s="251">
         <f>K15*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="372" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="375" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="376"/>
-      <c r="D16" s="376"/>
-      <c r="E16" s="376"/>
-      <c r="F16" s="376"/>
-      <c r="G16" s="376"/>
-      <c r="H16" s="376"/>
-      <c r="I16" s="376"/>
+      <c r="A16" s="374" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="370" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="371"/>
+      <c r="D16" s="371"/>
+      <c r="E16" s="371"/>
+      <c r="F16" s="371"/>
+      <c r="G16" s="371"/>
+      <c r="H16" s="371"/>
+      <c r="I16" s="371"/>
       <c r="J16" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="K16" s="271">
+        <v>154</v>
+      </c>
+      <c r="K16" s="270">
         <v>0</v>
       </c>
       <c r="L16" s="147">
@@ -6785,21 +6743,21 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="373"/>
-      <c r="B17" s="377" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="378"/>
-      <c r="D17" s="378"/>
-      <c r="E17" s="378"/>
-      <c r="F17" s="378"/>
-      <c r="G17" s="378"/>
-      <c r="H17" s="378"/>
-      <c r="I17" s="378"/>
+      <c r="A17" s="375"/>
+      <c r="B17" s="372" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="373"/>
+      <c r="D17" s="373"/>
+      <c r="E17" s="373"/>
+      <c r="F17" s="373"/>
+      <c r="G17" s="373"/>
+      <c r="H17" s="373"/>
+      <c r="I17" s="373"/>
       <c r="J17" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="K17" s="272">
+        <v>161</v>
+      </c>
+      <c r="K17" s="271">
         <v>0</v>
       </c>
       <c r="L17" s="145">
@@ -6807,30 +6765,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="374"/>
-      <c r="B18" s="379" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="380"/>
-      <c r="D18" s="380"/>
-      <c r="E18" s="380"/>
-      <c r="F18" s="380"/>
-      <c r="G18" s="380"/>
-      <c r="H18" s="380"/>
-      <c r="I18" s="380"/>
-      <c r="J18" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="K18" s="283">
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="53">
+        <f>SUM(L14:L17)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="251">
-        <f>K18*0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -6842,77 +6795,67 @@
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
-      <c r="L19" s="53">
-        <f>SUM(L14:L18)</f>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="21"/>
+      <c r="B20" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="278"/>
+      <c r="M20" s="21"/>
+    </row>
+    <row r="21" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="57">
+        <f>SUM(L14:L17)-L20</f>
         <v>0</v>
       </c>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-    </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="21"/>
-      <c r="B21" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="279"/>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I23" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="57">
-        <f>SUM(L14:L18)-L21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+    </row>
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="H27" s="7" t="s">
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="H26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-    </row>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F29" s="59"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="63"/>
+    </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F30" s="59"/>
       <c r="H30" s="60"/>
@@ -6921,23 +6864,14 @@
       <c r="K30" s="62"/>
       <c r="L30" s="63"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F31" s="59"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="63"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
@@ -6961,8 +6895,8 @@
   </sheetPr>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6982,11 +6916,11 @@
     <row r="1" spans="1:12" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -6994,11 +6928,11 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -7009,7 +6943,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="259"/>
+      <c r="C4" s="258"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -7026,10 +6960,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="363"/>
-      <c r="D5" s="363"/>
-      <c r="E5" s="363"/>
-      <c r="F5" s="363"/>
+      <c r="C5" s="361"/>
+      <c r="D5" s="361"/>
+      <c r="E5" s="361"/>
+      <c r="F5" s="361"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -7043,10 +6977,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="363"/>
-      <c r="D6" s="363"/>
-      <c r="E6" s="363"/>
-      <c r="F6" s="363"/>
+      <c r="C6" s="361"/>
+      <c r="D6" s="361"/>
+      <c r="E6" s="361"/>
+      <c r="F6" s="361"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7054,10 +6988,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
       <c r="J7" s="28" t="s">
         <v>9</v>
       </c>
@@ -7069,37 +7003,37 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="364"/>
-      <c r="D8" s="364"/>
-      <c r="E8" s="364"/>
-      <c r="F8" s="364"/>
+      <c r="C8" s="362"/>
+      <c r="D8" s="362"/>
+      <c r="E8" s="362"/>
+      <c r="F8" s="362"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="363"/>
-      <c r="D9" s="363"/>
-      <c r="E9" s="363"/>
-      <c r="F9" s="363"/>
+      <c r="C9" s="361"/>
+      <c r="D9" s="361"/>
+      <c r="E9" s="361"/>
+      <c r="F9" s="361"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="363"/>
-      <c r="D10" s="363"/>
-      <c r="E10" s="363"/>
-      <c r="F10" s="363"/>
+      <c r="C10" s="361"/>
+      <c r="D10" s="361"/>
+      <c r="E10" s="361"/>
+      <c r="F10" s="361"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="110" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="111"/>
       <c r="C14" s="111"/>
@@ -7118,40 +7052,40 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="385" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="386"/>
-      <c r="C15" s="386"/>
-      <c r="D15" s="386"/>
-      <c r="E15" s="386"/>
-      <c r="F15" s="387"/>
+      <c r="A15" s="384" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="385"/>
+      <c r="C15" s="385"/>
+      <c r="D15" s="385"/>
+      <c r="E15" s="385"/>
+      <c r="F15" s="386"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="264"/>
+      <c r="L15" s="263"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="385" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="386"/>
-      <c r="C16" s="386"/>
-      <c r="D16" s="386"/>
-      <c r="E16" s="386"/>
-      <c r="F16" s="387"/>
+      <c r="A16" s="384" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="385"/>
+      <c r="C16" s="385"/>
+      <c r="D16" s="385"/>
+      <c r="E16" s="385"/>
+      <c r="F16" s="386"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="264"/>
+      <c r="L16" s="263"/>
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="225" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B17" s="88"/>
       <c r="C17" s="88"/>
@@ -7163,11 +7097,11 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="264"/>
+      <c r="L17" s="263"/>
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="225" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B18" s="88"/>
       <c r="C18" s="88"/>
@@ -7179,11 +7113,11 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="264"/>
+      <c r="L18" s="263"/>
     </row>
     <row r="19" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="225" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
@@ -7195,34 +7129,34 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="26"/>
-      <c r="L19" s="264"/>
+      <c r="L19" s="263"/>
     </row>
     <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K20" s="140"/>
       <c r="L20" s="140"/>
     </row>
     <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="391" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="392"/>
-      <c r="C21" s="392"/>
-      <c r="D21" s="392"/>
-      <c r="E21" s="392"/>
-      <c r="F21" s="392"/>
-      <c r="G21" s="392"/>
-      <c r="H21" s="392"/>
-      <c r="I21" s="392"/>
+      <c r="A21" s="390" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="391"/>
+      <c r="C21" s="391"/>
+      <c r="D21" s="391"/>
+      <c r="E21" s="391"/>
+      <c r="F21" s="391"/>
+      <c r="G21" s="391"/>
+      <c r="H21" s="391"/>
+      <c r="I21" s="391"/>
       <c r="J21" s="139"/>
       <c r="K21" s="138"/>
       <c r="L21" s="8"/>
       <c r="R21" s="133"/>
     </row>
     <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="399" t="s">
+      <c r="A22" s="398" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="400"/>
+      <c r="B22" s="399"/>
       <c r="C22" s="137"/>
       <c r="D22" s="137"/>
       <c r="E22" s="137"/>
@@ -7236,28 +7170,28 @@
       <c r="R22" s="133"/>
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="395" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="396"/>
-      <c r="C23" s="273"/>
-      <c r="D23" s="393" t="s">
+      <c r="A23" s="394" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="395"/>
+      <c r="C23" s="272"/>
+      <c r="D23" s="392" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="394"/>
-      <c r="F23" s="274"/>
+      <c r="E23" s="393"/>
+      <c r="F23" s="273"/>
       <c r="G23" s="232" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H23" s="233">
         <f>IFERROR(IF(ROUND(C23/F23,3)&gt;10,10,ROUND(C23/F23,3)),10)</f>
         <v>10</v>
       </c>
       <c r="I23" s="234" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J23" s="232" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K23" s="235">
         <f>10-H23</f>
@@ -7267,11 +7201,11 @@
       <c r="R23" s="133"/>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="397" t="s">
+      <c r="A24" s="396" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="398"/>
-      <c r="C24" s="398"/>
+      <c r="B24" s="397"/>
+      <c r="C24" s="397"/>
       <c r="D24" s="236"/>
       <c r="E24" s="236"/>
       <c r="F24" s="236"/>
@@ -7279,23 +7213,23 @@
       <c r="H24" s="236"/>
       <c r="I24" s="236"/>
       <c r="J24" s="237"/>
-      <c r="K24" s="281"/>
+      <c r="K24" s="280"/>
       <c r="R24" s="133"/>
     </row>
     <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="388" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="389"/>
-      <c r="C25" s="389"/>
-      <c r="D25" s="389"/>
-      <c r="E25" s="389"/>
-      <c r="F25" s="389"/>
-      <c r="G25" s="389"/>
-      <c r="H25" s="389"/>
-      <c r="I25" s="389"/>
-      <c r="J25" s="389"/>
-      <c r="K25" s="390"/>
+      <c r="A25" s="387" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="388"/>
+      <c r="C25" s="388"/>
+      <c r="D25" s="388"/>
+      <c r="E25" s="388"/>
+      <c r="F25" s="388"/>
+      <c r="G25" s="388"/>
+      <c r="H25" s="388"/>
+      <c r="I25" s="388"/>
+      <c r="J25" s="388"/>
+      <c r="K25" s="389"/>
       <c r="L25" s="9">
         <f>IFERROR(K23-K24,0)</f>
         <v>0</v>
@@ -7342,7 +7276,7 @@
     </row>
     <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L28" s="127" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7353,7 +7287,7 @@
     <row r="30" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H30" s="124"/>
       <c r="I30" s="123" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J30" s="122"/>
       <c r="K30" s="121"/>
@@ -7431,7 +7365,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-06-01</oddFooter>
+    <oddFooter>&amp;R2022-01-01</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -8035,17 +7969,17 @@
   <sheetData>
     <row r="1" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="405" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="405"/>
-      <c r="C2" s="405"/>
-      <c r="D2" s="405"/>
-      <c r="E2" s="405"/>
-      <c r="F2" s="405"/>
-      <c r="G2" s="405"/>
-      <c r="H2" s="405"/>
-      <c r="I2" s="405"/>
+      <c r="A2" s="404" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="404"/>
+      <c r="C2" s="404"/>
+      <c r="D2" s="404"/>
+      <c r="E2" s="404"/>
+      <c r="F2" s="404"/>
+      <c r="G2" s="404"/>
+      <c r="H2" s="404"/>
+      <c r="I2" s="404"/>
       <c r="J2" s="143"/>
       <c r="K2" s="143"/>
       <c r="L2" s="143"/>
@@ -8061,7 +7995,7 @@
       <c r="F3" s="1"/>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -8072,14 +8006,14 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="259"/>
+      <c r="C4" s="258"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="142"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="16"/>
@@ -8090,10 +8024,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="363"/>
-      <c r="D5" s="363"/>
-      <c r="E5" s="363"/>
-      <c r="F5" s="363"/>
+      <c r="C5" s="361"/>
+      <c r="D5" s="361"/>
+      <c r="E5" s="361"/>
+      <c r="F5" s="361"/>
       <c r="G5" s="142"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
@@ -8108,10 +8042,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="363"/>
-      <c r="D6" s="363"/>
-      <c r="E6" s="363"/>
-      <c r="F6" s="363"/>
+      <c r="C6" s="361"/>
+      <c r="D6" s="361"/>
+      <c r="E6" s="361"/>
+      <c r="F6" s="361"/>
       <c r="G6" s="141"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14" t="s">
@@ -8126,10 +8060,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
       <c r="G7" s="151"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -8142,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="364"/>
-      <c r="D8" s="364"/>
-      <c r="E8" s="364"/>
-      <c r="F8" s="364"/>
+      <c r="C8" s="362"/>
+      <c r="D8" s="362"/>
+      <c r="E8" s="362"/>
+      <c r="F8" s="362"/>
       <c r="G8" s="151"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -8160,10 +8094,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="363"/>
-      <c r="D9" s="363"/>
-      <c r="E9" s="363"/>
-      <c r="F9" s="363"/>
+      <c r="C9" s="361"/>
+      <c r="D9" s="361"/>
+      <c r="E9" s="361"/>
+      <c r="F9" s="361"/>
       <c r="G9" s="151"/>
       <c r="H9" s="141"/>
       <c r="I9" s="141"/>
@@ -8176,15 +8110,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="363"/>
-      <c r="D10" s="363"/>
-      <c r="E10" s="363"/>
-      <c r="F10" s="363"/>
+      <c r="C10" s="361"/>
+      <c r="D10" s="361"/>
+      <c r="E10" s="361"/>
+      <c r="F10" s="361"/>
       <c r="G10" s="151"/>
       <c r="H10" s="141"/>
       <c r="I10" s="141"/>
-      <c r="J10" s="401"/>
-      <c r="K10" s="401"/>
+      <c r="J10" s="400"/>
+      <c r="K10" s="400"/>
       <c r="L10" s="152"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -8196,7 +8130,7 @@
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H12" s="150"/>
       <c r="I12" s="150"/>
@@ -8205,78 +8139,78 @@
       <c r="L12" s="150"/>
     </row>
     <row r="13" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="254" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="255" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="405" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="406"/>
+      <c r="F13" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="256" t="s">
+      <c r="G13" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="406" t="s">
+      <c r="H13" s="256" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="407"/>
-      <c r="F13" s="256" t="s">
-        <v>130</v>
-      </c>
-      <c r="G13" s="256" t="s">
-        <v>131</v>
-      </c>
-      <c r="H13" s="257" t="s">
-        <v>132</v>
-      </c>
-      <c r="I13" s="258" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" s="410" t="s">
-        <v>137</v>
-      </c>
-      <c r="K13" s="411"/>
+      <c r="I13" s="257" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="409" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="410"/>
       <c r="L13" s="150"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="275"/>
-      <c r="C14" s="276"/>
-      <c r="D14" s="408"/>
-      <c r="E14" s="409"/>
-      <c r="F14" s="276"/>
-      <c r="G14" s="276"/>
-      <c r="H14" s="277"/>
-      <c r="I14" s="278">
+      <c r="B14" s="274"/>
+      <c r="C14" s="275"/>
+      <c r="D14" s="407"/>
+      <c r="E14" s="408"/>
+      <c r="F14" s="275"/>
+      <c r="G14" s="275"/>
+      <c r="H14" s="276"/>
+      <c r="I14" s="277">
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="412">
+      <c r="J14" s="411">
         <f>I14/6</f>
         <v>0</v>
       </c>
-      <c r="K14" s="413"/>
+      <c r="K14" s="412"/>
       <c r="L14" s="150"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K15" s="253"/>
+      <c r="K15" s="252"/>
       <c r="L15" s="150"/>
     </row>
     <row r="16" spans="1:12" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K16" s="254" t="s">
+      <c r="K16" s="253" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="250" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="402" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="403"/>
-      <c r="D17" s="403"/>
-      <c r="E17" s="403"/>
-      <c r="F17" s="403"/>
-      <c r="G17" s="403"/>
-      <c r="H17" s="403"/>
-      <c r="I17" s="404"/>
+      <c r="B17" s="401" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="402"/>
+      <c r="D17" s="402"/>
+      <c r="E17" s="402"/>
+      <c r="F17" s="402"/>
+      <c r="G17" s="402"/>
+      <c r="H17" s="402"/>
+      <c r="I17" s="403"/>
       <c r="J17" s="148" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K17" s="238">
         <f>J14</f>
@@ -8288,44 +8222,44 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="337" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" s="375" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="376"/>
-      <c r="D18" s="376"/>
-      <c r="E18" s="376"/>
-      <c r="F18" s="376"/>
-      <c r="G18" s="376"/>
-      <c r="H18" s="376"/>
-      <c r="I18" s="376"/>
+      <c r="A18" s="335" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="370" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="371"/>
+      <c r="D18" s="371"/>
+      <c r="E18" s="371"/>
+      <c r="F18" s="371"/>
+      <c r="G18" s="371"/>
+      <c r="H18" s="371"/>
+      <c r="I18" s="371"/>
       <c r="J18" s="148" t="s">
-        <v>139</v>
-      </c>
-      <c r="K18" s="271"/>
+        <v>136</v>
+      </c>
+      <c r="K18" s="270"/>
       <c r="L18" s="147">
         <f>K18*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="338"/>
-      <c r="B19" s="377" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="378"/>
-      <c r="D19" s="378"/>
-      <c r="E19" s="378"/>
-      <c r="F19" s="378"/>
-      <c r="G19" s="378"/>
-      <c r="H19" s="378"/>
-      <c r="I19" s="378"/>
+      <c r="A19" s="336"/>
+      <c r="B19" s="372" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="373"/>
+      <c r="D19" s="373"/>
+      <c r="E19" s="373"/>
+      <c r="F19" s="373"/>
+      <c r="G19" s="373"/>
+      <c r="H19" s="373"/>
+      <c r="I19" s="373"/>
       <c r="J19" s="146" t="s">
-        <v>140</v>
-      </c>
-      <c r="K19" s="272"/>
+        <v>137</v>
+      </c>
+      <c r="K19" s="271"/>
       <c r="L19" s="145">
         <f>K19*0.3</f>
         <v>0</v>
@@ -8376,7 +8310,7 @@
       <c r="I22" s="56"/>
       <c r="J22" s="56"/>
       <c r="K22" s="56"/>
-      <c r="L22" s="279"/>
+      <c r="L22" s="278"/>
     </row>
     <row r="23" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8505,11 +8439,11 @@
       <c r="F1" s="102"/>
       <c r="H1" s="155"/>
       <c r="I1" s="156" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J1" s="157"/>
       <c r="K1" s="158"/>
-      <c r="L1" s="284"/>
+      <c r="L1" s="282"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -8517,55 +8451,55 @@
       </c>
       <c r="H2" s="155"/>
       <c r="I2" s="156" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" s="157"/>
       <c r="K2" s="158"/>
-      <c r="L2" s="284"/>
+      <c r="L2" s="282"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="160" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="160"/>
-      <c r="C3" s="358"/>
-      <c r="D3" s="358"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
+      <c r="C3" s="356"/>
+      <c r="D3" s="356"/>
+      <c r="E3" s="283"/>
+      <c r="F3" s="283"/>
       <c r="H3" s="155"/>
       <c r="I3" s="156" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="157"/>
       <c r="K3" s="158"/>
-      <c r="L3" s="284"/>
+      <c r="L3" s="282"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="136" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="136"/>
-      <c r="C4" s="357"/>
-      <c r="D4" s="357"/>
-      <c r="E4" s="357"/>
-      <c r="F4" s="357"/>
+      <c r="C4" s="355"/>
+      <c r="D4" s="355"/>
+      <c r="E4" s="355"/>
+      <c r="F4" s="355"/>
       <c r="H4" s="155"/>
       <c r="I4" s="156" t="s">
         <v>11</v>
       </c>
       <c r="J4" s="162"/>
       <c r="K4" s="158"/>
-      <c r="L4" s="284"/>
+      <c r="L4" s="282"/>
     </row>
     <row r="5" spans="1:12" s="113" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="136" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="357"/>
-      <c r="D5" s="357"/>
-      <c r="E5" s="357"/>
-      <c r="F5" s="357"/>
+      <c r="C5" s="355"/>
+      <c r="D5" s="355"/>
+      <c r="E5" s="355"/>
+      <c r="F5" s="355"/>
       <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8573,25 +8507,25 @@
         <v>21</v>
       </c>
       <c r="B6" s="136"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286"/>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
       <c r="J6" s="163" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="31"/>
-      <c r="L6" s="287"/>
+      <c r="L6" s="285"/>
     </row>
     <row r="7" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="160" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="160"/>
-      <c r="C7" s="357"/>
-      <c r="D7" s="357"/>
-      <c r="E7" s="357"/>
-      <c r="F7" s="357"/>
+      <c r="C7" s="355"/>
+      <c r="D7" s="355"/>
+      <c r="E7" s="355"/>
+      <c r="F7" s="355"/>
       <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8599,10 +8533,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="136"/>
-      <c r="C8" s="357"/>
-      <c r="D8" s="357"/>
-      <c r="E8" s="357"/>
-      <c r="F8" s="357"/>
+      <c r="C8" s="355"/>
+      <c r="D8" s="355"/>
+      <c r="E8" s="355"/>
+      <c r="F8" s="355"/>
       <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8610,267 +8544,267 @@
         <v>7</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="357"/>
-      <c r="D9" s="357"/>
-      <c r="E9" s="357"/>
-      <c r="F9" s="357"/>
+      <c r="C9" s="355"/>
+      <c r="D9" s="355"/>
+      <c r="E9" s="355"/>
+      <c r="F9" s="355"/>
       <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="288"/>
-      <c r="D10" s="288"/>
-      <c r="E10" s="288"/>
-      <c r="F10" s="288"/>
+      <c r="C10" s="286"/>
+      <c r="D10" s="286"/>
+      <c r="E10" s="286"/>
+      <c r="F10" s="286"/>
       <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="288"/>
-      <c r="D11" s="288"/>
-      <c r="E11" s="288"/>
-      <c r="F11" s="288"/>
-      <c r="H11" s="332" t="s">
+      <c r="C11" s="286"/>
+      <c r="D11" s="286"/>
+      <c r="E11" s="286"/>
+      <c r="F11" s="286"/>
+      <c r="H11" s="330" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="333"/>
-      <c r="J11" s="334" t="s">
+      <c r="I11" s="331"/>
+      <c r="J11" s="332" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="335"/>
-      <c r="L11" s="336"/>
+      <c r="K11" s="333"/>
+      <c r="L11" s="334"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="337" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="341" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="342"/>
-      <c r="D12" s="342"/>
-      <c r="E12" s="342"/>
-      <c r="F12" s="342"/>
-      <c r="G12" s="342"/>
-      <c r="H12" s="345"/>
-      <c r="I12" s="346"/>
-      <c r="J12" s="351" t="s">
-        <v>174</v>
-      </c>
-      <c r="K12" s="353">
+      <c r="A12" s="335" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="340"/>
+      <c r="D12" s="340"/>
+      <c r="E12" s="340"/>
+      <c r="F12" s="340"/>
+      <c r="G12" s="340"/>
+      <c r="H12" s="343"/>
+      <c r="I12" s="344"/>
+      <c r="J12" s="349" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" s="351">
         <f>SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
-      <c r="L12" s="321">
+      <c r="L12" s="319">
         <f>ROUND(K12*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="338"/>
-      <c r="B13" s="343"/>
-      <c r="C13" s="344"/>
-      <c r="D13" s="344"/>
-      <c r="E13" s="344"/>
-      <c r="F13" s="344"/>
-      <c r="G13" s="344"/>
-      <c r="H13" s="347"/>
-      <c r="I13" s="348"/>
-      <c r="J13" s="330"/>
-      <c r="K13" s="354"/>
-      <c r="L13" s="322"/>
+      <c r="A13" s="336"/>
+      <c r="B13" s="341"/>
+      <c r="C13" s="342"/>
+      <c r="D13" s="342"/>
+      <c r="E13" s="342"/>
+      <c r="F13" s="342"/>
+      <c r="G13" s="342"/>
+      <c r="H13" s="345"/>
+      <c r="I13" s="346"/>
+      <c r="J13" s="328"/>
+      <c r="K13" s="352"/>
+      <c r="L13" s="320"/>
     </row>
     <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="338"/>
-      <c r="B14" s="343"/>
-      <c r="C14" s="344"/>
-      <c r="D14" s="344"/>
-      <c r="E14" s="344"/>
-      <c r="F14" s="344"/>
-      <c r="G14" s="344"/>
-      <c r="H14" s="347"/>
-      <c r="I14" s="348"/>
-      <c r="J14" s="330"/>
-      <c r="K14" s="354"/>
-      <c r="L14" s="322"/>
+      <c r="A14" s="336"/>
+      <c r="B14" s="341"/>
+      <c r="C14" s="342"/>
+      <c r="D14" s="342"/>
+      <c r="E14" s="342"/>
+      <c r="F14" s="342"/>
+      <c r="G14" s="342"/>
+      <c r="H14" s="345"/>
+      <c r="I14" s="346"/>
+      <c r="J14" s="328"/>
+      <c r="K14" s="352"/>
+      <c r="L14" s="320"/>
     </row>
     <row r="15" spans="1:12" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="338"/>
-      <c r="B15" s="343"/>
-      <c r="C15" s="344"/>
-      <c r="D15" s="344"/>
-      <c r="E15" s="344"/>
-      <c r="F15" s="344"/>
-      <c r="G15" s="344"/>
-      <c r="H15" s="347"/>
-      <c r="I15" s="348"/>
-      <c r="J15" s="330"/>
-      <c r="K15" s="354"/>
-      <c r="L15" s="322"/>
+      <c r="A15" s="336"/>
+      <c r="B15" s="341"/>
+      <c r="C15" s="342"/>
+      <c r="D15" s="342"/>
+      <c r="E15" s="342"/>
+      <c r="F15" s="342"/>
+      <c r="G15" s="342"/>
+      <c r="H15" s="345"/>
+      <c r="I15" s="346"/>
+      <c r="J15" s="328"/>
+      <c r="K15" s="352"/>
+      <c r="L15" s="320"/>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="339"/>
-      <c r="B16" s="289" t="s">
+      <c r="A16" s="337"/>
+      <c r="B16" s="287" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="288" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="289" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="288" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="288" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="290" t="s">
+      <c r="G16" s="290" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="291" t="s">
+      <c r="H16" s="345"/>
+      <c r="I16" s="346"/>
+      <c r="J16" s="328"/>
+      <c r="K16" s="352"/>
+      <c r="L16" s="320"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="338"/>
+      <c r="B17" s="291"/>
+      <c r="C17" s="292">
+        <v>0</v>
+      </c>
+      <c r="D17" s="292"/>
+      <c r="E17" s="292"/>
+      <c r="F17" s="292"/>
+      <c r="G17" s="293"/>
+      <c r="H17" s="347"/>
+      <c r="I17" s="348"/>
+      <c r="J17" s="350"/>
+      <c r="K17" s="353"/>
+      <c r="L17" s="354"/>
+    </row>
+    <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="302" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="305" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="290" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" s="290" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="292" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="347"/>
-      <c r="I16" s="348"/>
-      <c r="J16" s="330"/>
-      <c r="K16" s="354"/>
-      <c r="L16" s="322"/>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="340"/>
-      <c r="B17" s="293"/>
-      <c r="C17" s="294">
+      <c r="C18" s="305"/>
+      <c r="D18" s="305"/>
+      <c r="E18" s="305"/>
+      <c r="F18" s="305"/>
+      <c r="G18" s="305"/>
+      <c r="H18" s="308"/>
+      <c r="I18" s="309"/>
+      <c r="J18" s="314" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="317">
         <v>0</v>
       </c>
-      <c r="D17" s="294"/>
-      <c r="E17" s="294"/>
-      <c r="F17" s="294"/>
-      <c r="G17" s="295"/>
-      <c r="H17" s="349"/>
-      <c r="I17" s="350"/>
-      <c r="J17" s="352"/>
-      <c r="K17" s="355"/>
-      <c r="L17" s="356"/>
-    </row>
-    <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="304" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="307" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" s="307"/>
-      <c r="D18" s="307"/>
-      <c r="E18" s="307"/>
-      <c r="F18" s="307"/>
-      <c r="G18" s="307"/>
-      <c r="H18" s="310"/>
-      <c r="I18" s="311"/>
-      <c r="J18" s="316" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="319">
-        <v>0</v>
-      </c>
-      <c r="L18" s="321">
+      <c r="L18" s="319">
         <f>IF(K18-K21 &gt;=0, (ROUND((K18-K21)*0.25,3)),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="305"/>
-      <c r="B19" s="308"/>
-      <c r="C19" s="308"/>
-      <c r="D19" s="308"/>
-      <c r="E19" s="308"/>
-      <c r="F19" s="308"/>
-      <c r="G19" s="308"/>
-      <c r="H19" s="312"/>
-      <c r="I19" s="313"/>
-      <c r="J19" s="317"/>
-      <c r="K19" s="320"/>
-      <c r="L19" s="322"/>
+      <c r="A19" s="303"/>
+      <c r="B19" s="306"/>
+      <c r="C19" s="306"/>
+      <c r="D19" s="306"/>
+      <c r="E19" s="306"/>
+      <c r="F19" s="306"/>
+      <c r="G19" s="306"/>
+      <c r="H19" s="310"/>
+      <c r="I19" s="311"/>
+      <c r="J19" s="315"/>
+      <c r="K19" s="318"/>
+      <c r="L19" s="320"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="305"/>
-      <c r="B20" s="309"/>
-      <c r="C20" s="309"/>
-      <c r="D20" s="309"/>
-      <c r="E20" s="309"/>
-      <c r="F20" s="309"/>
-      <c r="G20" s="308"/>
-      <c r="H20" s="312"/>
-      <c r="I20" s="313"/>
-      <c r="J20" s="317"/>
-      <c r="K20" s="320"/>
-      <c r="L20" s="322"/>
+      <c r="A20" s="303"/>
+      <c r="B20" s="307"/>
+      <c r="C20" s="307"/>
+      <c r="D20" s="307"/>
+      <c r="E20" s="307"/>
+      <c r="F20" s="307"/>
+      <c r="G20" s="306"/>
+      <c r="H20" s="310"/>
+      <c r="I20" s="311"/>
+      <c r="J20" s="315"/>
+      <c r="K20" s="318"/>
+      <c r="L20" s="320"/>
     </row>
     <row r="21" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="306"/>
-      <c r="B21" s="296" t="s">
-        <v>182</v>
-      </c>
-      <c r="C21" s="297">
+      <c r="A21" s="304"/>
+      <c r="B21" s="294" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="295">
         <v>0</v>
       </c>
-      <c r="D21" s="297"/>
-      <c r="E21" s="297"/>
-      <c r="F21" s="297"/>
-      <c r="G21" s="297"/>
-      <c r="H21" s="314"/>
-      <c r="I21" s="315"/>
-      <c r="J21" s="318"/>
-      <c r="K21" s="298">
+      <c r="D21" s="295"/>
+      <c r="E21" s="295"/>
+      <c r="F21" s="295"/>
+      <c r="G21" s="295"/>
+      <c r="H21" s="312"/>
+      <c r="I21" s="313"/>
+      <c r="J21" s="316"/>
+      <c r="K21" s="296">
         <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="323"/>
+      <c r="L21" s="321"/>
     </row>
     <row r="22" spans="1:12" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="304" t="s">
+      <c r="A22" s="302" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="307" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" s="324"/>
-      <c r="D22" s="324"/>
-      <c r="E22" s="324"/>
-      <c r="F22" s="324"/>
-      <c r="G22" s="325"/>
-      <c r="H22" s="326"/>
-      <c r="I22" s="327"/>
-      <c r="J22" s="330" t="s">
-        <v>184</v>
-      </c>
-      <c r="K22" s="299">
+      <c r="B22" s="305" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="322"/>
+      <c r="D22" s="322"/>
+      <c r="E22" s="322"/>
+      <c r="F22" s="322"/>
+      <c r="G22" s="323"/>
+      <c r="H22" s="324"/>
+      <c r="I22" s="325"/>
+      <c r="J22" s="328" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" s="297">
         <v>0</v>
       </c>
-      <c r="L22" s="322">
+      <c r="L22" s="320">
         <f>IF((K22-K23)&gt;=0,(ROUND((K22-K23)*0.15,3)),0.000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="306"/>
-      <c r="B23" s="300" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" s="297">
+      <c r="A23" s="304"/>
+      <c r="B23" s="298" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="295">
         <v>0</v>
       </c>
-      <c r="D23" s="297">
+      <c r="D23" s="295">
         <v>0</v>
       </c>
-      <c r="E23" s="297">
+      <c r="E23" s="295">
         <v>0</v>
       </c>
-      <c r="F23" s="297"/>
-      <c r="G23" s="297"/>
-      <c r="H23" s="328"/>
-      <c r="I23" s="329"/>
-      <c r="J23" s="331"/>
-      <c r="K23" s="298">
+      <c r="F23" s="295"/>
+      <c r="G23" s="295"/>
+      <c r="H23" s="326"/>
+      <c r="I23" s="327"/>
+      <c r="J23" s="329"/>
+      <c r="K23" s="296">
         <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="323"/>
+      <c r="L23" s="321"/>
     </row>
     <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="21"/>
@@ -8887,11 +8821,11 @@
         <v>3</v>
       </c>
       <c r="J25" s="23"/>
-      <c r="K25" s="302">
+      <c r="K25" s="300">
         <f>SUM(L12:L22)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="303"/>
+      <c r="L25" s="301"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8901,9 +8835,9 @@
         <v>18</v>
       </c>
       <c r="B29" s="58"/>
-      <c r="C29" s="301"/>
-      <c r="D29" s="301"/>
-      <c r="E29" s="301"/>
+      <c r="C29" s="299"/>
+      <c r="D29" s="299"/>
+      <c r="E29" s="299"/>
       <c r="H29" s="7" t="s">
         <v>19</v>
       </c>
@@ -8984,7 +8918,7 @@
       </c>
       <c r="H2" s="155"/>
       <c r="I2" s="156" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="157"/>
       <c r="K2" s="158"/>
@@ -8992,11 +8926,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="159" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H3" s="155"/>
       <c r="I3" s="156" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="157"/>
       <c r="K3" s="158"/>
@@ -9007,7 +8941,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="160"/>
-      <c r="C4" s="260"/>
+      <c r="C4" s="259"/>
       <c r="D4" s="161"/>
       <c r="E4" s="161"/>
       <c r="F4" s="161"/>
@@ -9024,10 +8958,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
+      <c r="C5" s="357"/>
+      <c r="D5" s="357"/>
+      <c r="E5" s="357"/>
+      <c r="F5" s="357"/>
       <c r="H5" s="155"/>
       <c r="I5" s="156" t="s">
         <v>11</v>
@@ -9041,10 +8975,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="136"/>
-      <c r="C6" s="359"/>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
+      <c r="C6" s="357"/>
+      <c r="D6" s="357"/>
+      <c r="E6" s="357"/>
+      <c r="F6" s="357"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9067,30 +9001,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="160"/>
-      <c r="C8" s="359"/>
-      <c r="D8" s="359"/>
-      <c r="E8" s="359"/>
-      <c r="F8" s="359"/>
+      <c r="C8" s="357"/>
+      <c r="D8" s="357"/>
+      <c r="E8" s="357"/>
+      <c r="F8" s="357"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="359"/>
-      <c r="D9" s="359"/>
-      <c r="E9" s="359"/>
-      <c r="F9" s="359"/>
+      <c r="C9" s="357"/>
+      <c r="D9" s="357"/>
+      <c r="E9" s="357"/>
+      <c r="F9" s="357"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="136" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="136"/>
-      <c r="C10" s="359"/>
-      <c r="D10" s="359"/>
-      <c r="E10" s="359"/>
-      <c r="F10" s="359"/>
+      <c r="C10" s="357"/>
+      <c r="D10" s="357"/>
+      <c r="E10" s="357"/>
+      <c r="F10" s="357"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9127,7 +9061,7 @@
       <c r="I15" s="136"/>
       <c r="J15" s="229"/>
       <c r="K15" s="173"/>
-      <c r="L15" s="263"/>
+      <c r="L15" s="262"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="221" t="s">
@@ -9143,7 +9077,7 @@
       <c r="I16" s="136"/>
       <c r="J16" s="230"/>
       <c r="K16" s="173"/>
-      <c r="L16" s="263"/>
+      <c r="L16" s="262"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="218" t="s">
@@ -9159,7 +9093,7 @@
       <c r="I17" s="136"/>
       <c r="J17" s="230"/>
       <c r="K17" s="173"/>
-      <c r="L17" s="263"/>
+      <c r="L17" s="262"/>
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="221" t="s">
@@ -9175,7 +9109,7 @@
       <c r="I18" s="136"/>
       <c r="J18" s="230"/>
       <c r="K18" s="173"/>
-      <c r="L18" s="263"/>
+      <c r="L18" s="262"/>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="181" t="s">
@@ -9191,7 +9125,7 @@
       <c r="I19" s="136"/>
       <c r="J19" s="230"/>
       <c r="K19" s="173"/>
-      <c r="L19" s="263"/>
+      <c r="L19" s="262"/>
     </row>
     <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="181" t="s">
@@ -9207,7 +9141,7 @@
       <c r="I20" s="136"/>
       <c r="J20" s="230"/>
       <c r="K20" s="173"/>
-      <c r="L20" s="263"/>
+      <c r="L20" s="262"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="231" t="s">
@@ -9223,7 +9157,7 @@
       <c r="I21" s="136"/>
       <c r="J21" s="230"/>
       <c r="K21" s="173"/>
-      <c r="L21" s="263"/>
+      <c r="L21" s="262"/>
     </row>
     <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K22" s="140"/>
@@ -9352,7 +9286,7 @@
   <sheetPr codeName="Blad4"/>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -9381,7 +9315,7 @@
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -9389,11 +9323,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -9404,7 +9338,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="259"/>
+      <c r="C4" s="258"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -9421,10 +9355,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="363"/>
-      <c r="D5" s="363"/>
-      <c r="E5" s="363"/>
-      <c r="F5" s="363"/>
+      <c r="C5" s="361"/>
+      <c r="D5" s="361"/>
+      <c r="E5" s="361"/>
+      <c r="F5" s="361"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -9438,10 +9372,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="363"/>
-      <c r="D6" s="363"/>
-      <c r="E6" s="363"/>
-      <c r="F6" s="363"/>
+      <c r="C6" s="361"/>
+      <c r="D6" s="361"/>
+      <c r="E6" s="361"/>
+      <c r="F6" s="361"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9449,10 +9383,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
       <c r="J7" s="28" t="s">
         <v>9</v>
       </c>
@@ -9464,30 +9398,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="364"/>
-      <c r="D8" s="364"/>
-      <c r="E8" s="364"/>
-      <c r="F8" s="364"/>
+      <c r="C8" s="362"/>
+      <c r="D8" s="362"/>
+      <c r="E8" s="362"/>
+      <c r="F8" s="362"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="363"/>
-      <c r="D9" s="363"/>
-      <c r="E9" s="363"/>
-      <c r="F9" s="363"/>
+      <c r="C9" s="361"/>
+      <c r="D9" s="361"/>
+      <c r="E9" s="361"/>
+      <c r="F9" s="361"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="363"/>
-      <c r="D10" s="363"/>
-      <c r="E10" s="363"/>
-      <c r="F10" s="363"/>
+      <c r="C10" s="361"/>
+      <c r="D10" s="361"/>
+      <c r="E10" s="361"/>
+      <c r="F10" s="361"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9524,7 +9458,7 @@
       <c r="I15" s="33"/>
       <c r="J15" s="11"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="264"/>
+      <c r="L15" s="263"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="225" t="s">
@@ -9540,7 +9474,7 @@
       <c r="I16" s="33"/>
       <c r="J16" s="11"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="264"/>
+      <c r="L16" s="263"/>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="222" t="s">
@@ -9556,7 +9490,7 @@
       <c r="I17" s="33"/>
       <c r="J17" s="11"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="264"/>
+      <c r="L17" s="263"/>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="225" t="s">
@@ -9572,7 +9506,7 @@
       <c r="I18" s="33"/>
       <c r="J18" s="11"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="264"/>
+      <c r="L18" s="263"/>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="225" t="s">
@@ -9588,7 +9522,7 @@
       <c r="I19" s="33"/>
       <c r="J19" s="11"/>
       <c r="K19" s="26"/>
-      <c r="L19" s="264"/>
+      <c r="L19" s="263"/>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="225" t="s">
@@ -9604,7 +9538,7 @@
       <c r="I20" s="33"/>
       <c r="J20" s="11"/>
       <c r="K20" s="26"/>
-      <c r="L20" s="264"/>
+      <c r="L20" s="263"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="225" t="s">
@@ -9620,23 +9554,23 @@
       <c r="I21" s="33"/>
       <c r="J21" s="11"/>
       <c r="K21" s="26"/>
-      <c r="L21" s="264"/>
+      <c r="L21" s="263"/>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="360" t="s">
-        <v>185</v>
-      </c>
-      <c r="B22" s="361"/>
-      <c r="C22" s="361"/>
-      <c r="D22" s="361"/>
-      <c r="E22" s="362"/>
+      <c r="A22" s="358" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="359"/>
+      <c r="C22" s="359"/>
+      <c r="D22" s="359"/>
+      <c r="E22" s="360"/>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
       <c r="J22" s="11"/>
       <c r="K22" s="26"/>
-      <c r="L22" s="264"/>
+      <c r="L22" s="263"/>
     </row>
     <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K23" s="37"/>
@@ -9785,7 +9719,7 @@
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -9793,11 +9727,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -9808,7 +9742,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="259"/>
+      <c r="C4" s="258"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -9825,10 +9759,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="363"/>
-      <c r="D5" s="363"/>
-      <c r="E5" s="363"/>
-      <c r="F5" s="363"/>
+      <c r="C5" s="361"/>
+      <c r="D5" s="361"/>
+      <c r="E5" s="361"/>
+      <c r="F5" s="361"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -9842,10 +9776,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="363"/>
-      <c r="D6" s="363"/>
-      <c r="E6" s="363"/>
-      <c r="F6" s="363"/>
+      <c r="C6" s="361"/>
+      <c r="D6" s="361"/>
+      <c r="E6" s="361"/>
+      <c r="F6" s="361"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9853,10 +9787,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
       <c r="J7" s="28" t="s">
         <v>9</v>
       </c>
@@ -9868,30 +9802,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="364"/>
-      <c r="D8" s="364"/>
-      <c r="E8" s="364"/>
-      <c r="F8" s="364"/>
+      <c r="C8" s="362"/>
+      <c r="D8" s="362"/>
+      <c r="E8" s="362"/>
+      <c r="F8" s="362"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="363"/>
-      <c r="D9" s="363"/>
-      <c r="E9" s="363"/>
-      <c r="F9" s="363"/>
+      <c r="C9" s="361"/>
+      <c r="D9" s="361"/>
+      <c r="E9" s="361"/>
+      <c r="F9" s="361"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="363"/>
-      <c r="D10" s="363"/>
-      <c r="E10" s="363"/>
-      <c r="F10" s="363"/>
+      <c r="C10" s="361"/>
+      <c r="D10" s="361"/>
+      <c r="E10" s="361"/>
+      <c r="F10" s="361"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9928,7 +9862,7 @@
       <c r="I15" s="33"/>
       <c r="J15" s="11"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="264"/>
+      <c r="L15" s="263"/>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="222" t="s">
@@ -9944,7 +9878,7 @@
       <c r="I16" s="33"/>
       <c r="J16" s="11"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="264"/>
+      <c r="L16" s="263"/>
     </row>
     <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="225" t="s">
@@ -9960,7 +9894,7 @@
       <c r="I17" s="33"/>
       <c r="J17" s="11"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="264"/>
+      <c r="L17" s="263"/>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="225" t="s">
@@ -9976,7 +9910,7 @@
       <c r="I18" s="33"/>
       <c r="J18" s="11"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="264"/>
+      <c r="L18" s="263"/>
     </row>
     <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="225" t="s">
@@ -9992,7 +9926,7 @@
       <c r="I19" s="33"/>
       <c r="J19" s="11"/>
       <c r="K19" s="26"/>
-      <c r="L19" s="264"/>
+      <c r="L19" s="263"/>
     </row>
     <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="225" t="s">
@@ -10008,7 +9942,7 @@
       <c r="I20" s="33"/>
       <c r="J20" s="11"/>
       <c r="K20" s="26"/>
-      <c r="L20" s="264"/>
+      <c r="L20" s="263"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="225" t="s">
@@ -10024,11 +9958,11 @@
       <c r="I21" s="33"/>
       <c r="J21" s="11"/>
       <c r="K21" s="26"/>
-      <c r="L21" s="264"/>
+      <c r="L21" s="263"/>
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="225" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="223"/>
       <c r="C22" s="223"/>
@@ -10040,7 +9974,7 @@
       <c r="I22" s="33"/>
       <c r="J22" s="11"/>
       <c r="K22" s="26"/>
-      <c r="L22" s="264"/>
+      <c r="L22" s="263"/>
     </row>
     <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K23" s="37"/>
@@ -10183,11 +10117,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="154" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H2" s="155"/>
       <c r="I2" s="156" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="157"/>
       <c r="K2" s="158"/>
@@ -10199,7 +10133,7 @@
       </c>
       <c r="H3" s="155"/>
       <c r="I3" s="156" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="157"/>
       <c r="K3" s="158"/>
@@ -10210,7 +10144,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="160"/>
-      <c r="C4" s="260"/>
+      <c r="C4" s="259"/>
       <c r="D4" s="161"/>
       <c r="E4" s="161"/>
       <c r="F4" s="161"/>
@@ -10227,10 +10161,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
+      <c r="C5" s="357"/>
+      <c r="D5" s="357"/>
+      <c r="E5" s="357"/>
+      <c r="F5" s="357"/>
       <c r="H5" s="155"/>
       <c r="I5" s="156" t="s">
         <v>11</v>
@@ -10244,10 +10178,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="136"/>
-      <c r="C6" s="359"/>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
+      <c r="C6" s="357"/>
+      <c r="D6" s="357"/>
+      <c r="E6" s="357"/>
+      <c r="F6" s="357"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10255,10 +10189,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="136"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="262"/>
-      <c r="E7" s="262"/>
-      <c r="F7" s="262"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
       <c r="J7" s="163" t="s">
         <v>9</v>
       </c>
@@ -10270,30 +10204,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="160"/>
-      <c r="C8" s="365"/>
-      <c r="D8" s="365"/>
-      <c r="E8" s="365"/>
-      <c r="F8" s="365"/>
+      <c r="C8" s="363"/>
+      <c r="D8" s="363"/>
+      <c r="E8" s="363"/>
+      <c r="F8" s="363"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="359"/>
-      <c r="D9" s="359"/>
-      <c r="E9" s="359"/>
-      <c r="F9" s="359"/>
+      <c r="C9" s="357"/>
+      <c r="D9" s="357"/>
+      <c r="E9" s="357"/>
+      <c r="F9" s="357"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="136" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="136"/>
-      <c r="C10" s="359"/>
-      <c r="D10" s="359"/>
-      <c r="E10" s="359"/>
-      <c r="F10" s="359"/>
+      <c r="C10" s="357"/>
+      <c r="D10" s="357"/>
+      <c r="E10" s="357"/>
+      <c r="F10" s="357"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -10387,14 +10321,14 @@
       </c>
       <c r="C26" s="182"/>
       <c r="D26" s="183"/>
-      <c r="E26" s="265">
+      <c r="E26" s="264">
         <v>0</v>
       </c>
       <c r="F26" s="181" t="s">
         <v>47</v>
       </c>
       <c r="G26" s="183"/>
-      <c r="H26" s="266">
+      <c r="H26" s="265">
         <v>0</v>
       </c>
       <c r="I26" s="94" t="str">
@@ -10402,7 +10336,7 @@
         <v/>
       </c>
       <c r="J26" s="95"/>
-      <c r="K26" s="282" t="str">
+      <c r="K26" s="281" t="str">
         <f>IFERROR((10-I26),"")</f>
         <v/>
       </c>
@@ -10427,7 +10361,7 @@
       <c r="H29" s="182"/>
       <c r="I29" s="187"/>
       <c r="J29" s="97"/>
-      <c r="K29" s="268">
+      <c r="K29" s="267">
         <v>0</v>
       </c>
     </row>
@@ -11158,11 +11092,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -11174,7 +11108,7 @@
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -11185,7 +11119,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="259"/>
+      <c r="C4" s="258"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -11202,10 +11136,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="363"/>
-      <c r="D5" s="363"/>
-      <c r="E5" s="363"/>
-      <c r="F5" s="363"/>
+      <c r="C5" s="361"/>
+      <c r="D5" s="361"/>
+      <c r="E5" s="361"/>
+      <c r="F5" s="361"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -11219,10 +11153,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="363"/>
-      <c r="D6" s="363"/>
-      <c r="E6" s="363"/>
-      <c r="F6" s="363"/>
+      <c r="C6" s="361"/>
+      <c r="D6" s="361"/>
+      <c r="E6" s="361"/>
+      <c r="F6" s="361"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -11234,10 +11168,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="28" t="s">
@@ -11251,30 +11185,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="364"/>
-      <c r="D8" s="364"/>
-      <c r="E8" s="364"/>
-      <c r="F8" s="364"/>
+      <c r="C8" s="362"/>
+      <c r="D8" s="362"/>
+      <c r="E8" s="362"/>
+      <c r="F8" s="362"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="363"/>
-      <c r="D9" s="363"/>
-      <c r="E9" s="363"/>
-      <c r="F9" s="363"/>
+      <c r="C9" s="361"/>
+      <c r="D9" s="361"/>
+      <c r="E9" s="361"/>
+      <c r="F9" s="361"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="363"/>
-      <c r="D10" s="363"/>
-      <c r="E10" s="363"/>
-      <c r="F10" s="363"/>
+      <c r="C10" s="361"/>
+      <c r="D10" s="361"/>
+      <c r="E10" s="361"/>
+      <c r="F10" s="361"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -11294,32 +11228,32 @@
       <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="366"/>
-      <c r="B13" s="367"/>
-      <c r="C13" s="367"/>
-      <c r="D13" s="367"/>
-      <c r="E13" s="367"/>
-      <c r="F13" s="367"/>
-      <c r="G13" s="367"/>
-      <c r="H13" s="367"/>
-      <c r="I13" s="367"/>
-      <c r="J13" s="367"/>
-      <c r="K13" s="367"/>
-      <c r="L13" s="368"/>
+      <c r="A13" s="364"/>
+      <c r="B13" s="365"/>
+      <c r="C13" s="365"/>
+      <c r="D13" s="365"/>
+      <c r="E13" s="365"/>
+      <c r="F13" s="365"/>
+      <c r="G13" s="365"/>
+      <c r="H13" s="365"/>
+      <c r="I13" s="365"/>
+      <c r="J13" s="365"/>
+      <c r="K13" s="365"/>
+      <c r="L13" s="366"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="369"/>
-      <c r="B14" s="370"/>
-      <c r="C14" s="370"/>
-      <c r="D14" s="370"/>
-      <c r="E14" s="370"/>
-      <c r="F14" s="370"/>
-      <c r="G14" s="370"/>
-      <c r="H14" s="370"/>
-      <c r="I14" s="370"/>
-      <c r="J14" s="370"/>
-      <c r="K14" s="370"/>
-      <c r="L14" s="371"/>
+      <c r="A14" s="367"/>
+      <c r="B14" s="368"/>
+      <c r="C14" s="368"/>
+      <c r="D14" s="368"/>
+      <c r="E14" s="368"/>
+      <c r="F14" s="368"/>
+      <c r="G14" s="368"/>
+      <c r="H14" s="368"/>
+      <c r="I14" s="368"/>
+      <c r="J14" s="368"/>
+      <c r="K14" s="368"/>
+      <c r="L14" s="369"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
@@ -11358,7 +11292,7 @@
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
-      <c r="E18" s="267">
+      <c r="E18" s="266">
         <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"R",""))</f>
         <v>0</v>
       </c>
@@ -11378,11 +11312,11 @@
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="55"/>
-      <c r="E19" s="267">
+      <c r="E19" s="266">
         <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"D",""))+LEN(A$13)-LEN(SUBSTITUTE(A$13,"S",""))</f>
         <v>0</v>
       </c>
@@ -11402,11 +11336,11 @@
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="73" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="55"/>
-      <c r="E20" s="267">
+      <c r="E20" s="266">
         <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"M",""))</f>
         <v>0</v>
       </c>
@@ -11426,16 +11360,16 @@
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="55"/>
-      <c r="E21" s="267">
+      <c r="E21" s="266">
         <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"E",""))+LEN(A$13)-LEN(SUBSTITUTE(A$13,"L",""))</f>
         <v>0</v>
       </c>
       <c r="F21" s="109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="75"/>
       <c r="H21" s="72"/>
@@ -11491,7 +11425,7 @@
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="105"/>
-      <c r="E26" s="265">
+      <c r="E26" s="264">
         <f xml:space="preserve">
 (LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"1","")))*1+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"2","")))*2+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"3","")))*3+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"4","")))*4+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"5","")))*5+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"6","")))*6+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"7","")))*7+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"8","")))*8+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"9","")))*9</f>
         <v>0</v>
@@ -11533,7 +11467,7 @@
       <c r="H29" s="25"/>
       <c r="I29" s="88"/>
       <c r="J29" s="89"/>
-      <c r="K29" s="268">
+      <c r="K29" s="267">
         <v>0</v>
       </c>
     </row>
@@ -12262,11 +12196,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -12278,7 +12212,7 @@
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -12289,7 +12223,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="259"/>
+      <c r="C4" s="258"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -12306,10 +12240,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="363"/>
-      <c r="D5" s="363"/>
-      <c r="E5" s="363"/>
-      <c r="F5" s="363"/>
+      <c r="C5" s="361"/>
+      <c r="D5" s="361"/>
+      <c r="E5" s="361"/>
+      <c r="F5" s="361"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -12323,10 +12257,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="363"/>
-      <c r="D6" s="363"/>
-      <c r="E6" s="363"/>
-      <c r="F6" s="363"/>
+      <c r="C6" s="361"/>
+      <c r="D6" s="361"/>
+      <c r="E6" s="361"/>
+      <c r="F6" s="361"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -12338,10 +12272,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="28" t="s">
@@ -12355,30 +12289,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="364"/>
-      <c r="D8" s="364"/>
-      <c r="E8" s="364"/>
-      <c r="F8" s="364"/>
+      <c r="C8" s="362"/>
+      <c r="D8" s="362"/>
+      <c r="E8" s="362"/>
+      <c r="F8" s="362"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="363"/>
-      <c r="D9" s="363"/>
-      <c r="E9" s="363"/>
-      <c r="F9" s="363"/>
+      <c r="C9" s="361"/>
+      <c r="D9" s="361"/>
+      <c r="E9" s="361"/>
+      <c r="F9" s="361"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="363"/>
-      <c r="D10" s="363"/>
-      <c r="E10" s="363"/>
-      <c r="F10" s="363"/>
+      <c r="C10" s="361"/>
+      <c r="D10" s="361"/>
+      <c r="E10" s="361"/>
+      <c r="F10" s="361"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12398,32 +12332,32 @@
       <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="366"/>
-      <c r="B13" s="367"/>
-      <c r="C13" s="367"/>
-      <c r="D13" s="367"/>
-      <c r="E13" s="367"/>
-      <c r="F13" s="367"/>
-      <c r="G13" s="367"/>
-      <c r="H13" s="367"/>
-      <c r="I13" s="367"/>
-      <c r="J13" s="367"/>
-      <c r="K13" s="367"/>
-      <c r="L13" s="368"/>
+      <c r="A13" s="364"/>
+      <c r="B13" s="365"/>
+      <c r="C13" s="365"/>
+      <c r="D13" s="365"/>
+      <c r="E13" s="365"/>
+      <c r="F13" s="365"/>
+      <c r="G13" s="365"/>
+      <c r="H13" s="365"/>
+      <c r="I13" s="365"/>
+      <c r="J13" s="365"/>
+      <c r="K13" s="365"/>
+      <c r="L13" s="366"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="369"/>
-      <c r="B14" s="370"/>
-      <c r="C14" s="370"/>
-      <c r="D14" s="370"/>
-      <c r="E14" s="370"/>
-      <c r="F14" s="370"/>
-      <c r="G14" s="370"/>
-      <c r="H14" s="370"/>
-      <c r="I14" s="370"/>
-      <c r="J14" s="370"/>
-      <c r="K14" s="370"/>
-      <c r="L14" s="371"/>
+      <c r="A14" s="367"/>
+      <c r="B14" s="368"/>
+      <c r="C14" s="368"/>
+      <c r="D14" s="368"/>
+      <c r="E14" s="368"/>
+      <c r="F14" s="368"/>
+      <c r="G14" s="368"/>
+      <c r="H14" s="368"/>
+      <c r="I14" s="368"/>
+      <c r="J14" s="368"/>
+      <c r="K14" s="368"/>
+      <c r="L14" s="369"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
@@ -12462,7 +12396,7 @@
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
-      <c r="E18" s="267">
+      <c r="E18" s="266">
         <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"R",""))</f>
         <v>0</v>
       </c>
@@ -12482,11 +12416,11 @@
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="55"/>
-      <c r="E19" s="267">
+      <c r="E19" s="266">
         <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"D",""))+LEN(A$13)-LEN(SUBSTITUTE(A$13,"S",""))</f>
         <v>0</v>
       </c>
@@ -12506,11 +12440,11 @@
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="73" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="55"/>
-      <c r="E20" s="267">
+      <c r="E20" s="266">
         <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"M",""))</f>
         <v>0</v>
       </c>
@@ -12530,16 +12464,16 @@
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="55"/>
-      <c r="E21" s="267">
+      <c r="E21" s="266">
         <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"E",""))+LEN(A$13)-LEN(SUBSTITUTE(A$13,"L",""))</f>
         <v>0</v>
       </c>
       <c r="F21" s="109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="75"/>
       <c r="H21" s="72"/>
@@ -12595,7 +12529,7 @@
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="105"/>
-      <c r="E26" s="265">
+      <c r="E26" s="264">
         <f xml:space="preserve">
 (LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"1","")))*1+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"2","")))*2+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"3","")))*3+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"4","")))*4+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"5","")))*5+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"6","")))*6+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"7","")))*7+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"8","")))*8+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"9","")))*9</f>
         <v>0</v>
@@ -12637,7 +12571,7 @@
       <c r="H29" s="25"/>
       <c r="I29" s="88"/>
       <c r="J29" s="89"/>
-      <c r="K29" s="268">
+      <c r="K29" s="267">
         <v>0</v>
       </c>
     </row>
@@ -12709,9 +12643,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13300,11 +13236,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -13316,7 +13252,7 @@
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -13327,7 +13263,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="259"/>
+      <c r="C4" s="258"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -13344,10 +13280,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="363"/>
-      <c r="D5" s="363"/>
-      <c r="E5" s="363"/>
-      <c r="F5" s="363"/>
+      <c r="C5" s="361"/>
+      <c r="D5" s="361"/>
+      <c r="E5" s="361"/>
+      <c r="F5" s="361"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -13361,10 +13297,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="363"/>
-      <c r="D6" s="363"/>
-      <c r="E6" s="363"/>
-      <c r="F6" s="363"/>
+      <c r="C6" s="361"/>
+      <c r="D6" s="361"/>
+      <c r="E6" s="361"/>
+      <c r="F6" s="361"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -13376,10 +13312,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="28" t="s">
@@ -13393,30 +13329,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="364"/>
-      <c r="D8" s="364"/>
-      <c r="E8" s="364"/>
-      <c r="F8" s="364"/>
+      <c r="C8" s="362"/>
+      <c r="D8" s="362"/>
+      <c r="E8" s="362"/>
+      <c r="F8" s="362"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="363"/>
-      <c r="D9" s="363"/>
-      <c r="E9" s="363"/>
-      <c r="F9" s="363"/>
+      <c r="C9" s="361"/>
+      <c r="D9" s="361"/>
+      <c r="E9" s="361"/>
+      <c r="F9" s="361"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="363"/>
-      <c r="D10" s="363"/>
-      <c r="E10" s="363"/>
-      <c r="F10" s="363"/>
+      <c r="C10" s="361"/>
+      <c r="D10" s="361"/>
+      <c r="E10" s="361"/>
+      <c r="F10" s="361"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -13429,32 +13365,32 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="372" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" s="381" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="382"/>
-      <c r="D14" s="382"/>
-      <c r="E14" s="382"/>
-      <c r="F14" s="382"/>
-      <c r="G14" s="382"/>
-      <c r="H14" s="382"/>
-      <c r="I14" s="383"/>
+      <c r="A14" s="374" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="376" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="377"/>
+      <c r="D14" s="377"/>
+      <c r="E14" s="377"/>
+      <c r="F14" s="377"/>
+      <c r="G14" s="377"/>
+      <c r="H14" s="377"/>
+      <c r="I14" s="378"/>
       <c r="J14" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="K14" s="269"/>
+        <v>157</v>
+      </c>
+      <c r="K14" s="268"/>
       <c r="L14" s="149">
         <f>K14*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="373"/>
-      <c r="B15" s="384" t="s">
-        <v>117</v>
+      <c r="A15" s="375"/>
+      <c r="B15" s="379" t="s">
+        <v>182</v>
       </c>
       <c r="C15" s="380"/>
       <c r="D15" s="380"/>
@@ -13464,80 +13400,77 @@
       <c r="H15" s="380"/>
       <c r="I15" s="380"/>
       <c r="J15" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="K15" s="270"/>
-      <c r="L15" s="252">
+        <v>158</v>
+      </c>
+      <c r="K15" s="269"/>
+      <c r="L15" s="251">
         <f>K15*0.25</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="372" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="375" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="376"/>
-      <c r="D16" s="376"/>
-      <c r="E16" s="376"/>
-      <c r="F16" s="376"/>
-      <c r="G16" s="376"/>
-      <c r="H16" s="376"/>
-      <c r="I16" s="376"/>
+      <c r="A16" s="381" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="370" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="371"/>
+      <c r="D16" s="371"/>
+      <c r="E16" s="371"/>
+      <c r="F16" s="371"/>
+      <c r="G16" s="371"/>
+      <c r="H16" s="371"/>
+      <c r="I16" s="371"/>
       <c r="J16" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="K16" s="271"/>
+        <v>154</v>
+      </c>
+      <c r="K16" s="270"/>
       <c r="L16" s="147">
         <f>K16*0.35</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="373"/>
-      <c r="B17" s="377" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="378"/>
-      <c r="D17" s="378"/>
-      <c r="E17" s="378"/>
-      <c r="F17" s="378"/>
-      <c r="G17" s="378"/>
-      <c r="H17" s="378"/>
-      <c r="I17" s="378"/>
+      <c r="A17" s="382"/>
+      <c r="B17" s="372" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="373"/>
+      <c r="D17" s="373"/>
+      <c r="E17" s="373"/>
+      <c r="F17" s="373"/>
+      <c r="G17" s="373"/>
+      <c r="H17" s="373"/>
+      <c r="I17" s="373"/>
       <c r="J17" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="K17" s="272"/>
+        <v>159</v>
+      </c>
+      <c r="K17" s="271"/>
       <c r="L17" s="145">
         <f>K17*0.1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="374"/>
-      <c r="B18" s="379" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="380"/>
-      <c r="D18" s="380"/>
-      <c r="E18" s="380"/>
-      <c r="F18" s="380"/>
-      <c r="G18" s="380"/>
-      <c r="H18" s="380"/>
-      <c r="I18" s="380"/>
-      <c r="J18" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="K18" s="283"/>
-      <c r="L18" s="251">
-        <f>K18*0</f>
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="53">
+        <f>SUM(L14:L17)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -13549,77 +13482,67 @@
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
-      <c r="L19" s="53">
-        <f>SUM(L14:L18)</f>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="21"/>
+      <c r="B20" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="278"/>
+      <c r="M20" s="21"/>
+    </row>
+    <row r="21" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="57">
+        <f>SUM(L14:L17)-L20</f>
         <v>0</v>
       </c>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-    </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="21"/>
-      <c r="B21" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="279"/>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I23" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="57">
-        <f>SUM(L14:L18)-L21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+    </row>
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="H27" s="7" t="s">
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="H26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-    </row>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F29" s="59"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="63"/>
+    </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F30" s="59"/>
       <c r="H30" s="60"/>
@@ -13628,40 +13551,40 @@
       <c r="K30" s="62"/>
       <c r="L30" s="63"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F31" s="59"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="63"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A16:A18"/>
+  <mergeCells count="11">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-06-01</oddFooter>
+    <oddFooter>&amp;R2022-01-01</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -13670,7 +13593,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13736,16 +13659,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -13760,7 +13682,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13775,12 +13697,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C52052-53C4-4E89-8079-B55FB6A6DAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36A6316-7967-4152-BD71-22C76821E564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="966" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="966" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="37" r:id="rId1"/>
@@ -25,10 +25,12 @@
     <sheet name="Ind kür artistisk junior" sheetId="41" r:id="rId10"/>
     <sheet name="Ind kür artistisk senior" sheetId="34" r:id="rId11"/>
     <sheet name="Individuell tekniska övningar" sheetId="35" r:id="rId12"/>
-    <sheet name="Individuellt tekniskt artistisk" sheetId="36" r:id="rId13"/>
+    <sheet name="Individuell tekniska övning YV" sheetId="44" r:id="rId13"/>
+    <sheet name="Individuellt tekniskt artistisk" sheetId="36" r:id="rId14"/>
+    <sheet name="Individuellt tekniskt artis YV" sheetId="45" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="Antal_tävlingsdagar">[1]Information!$H$5</definedName>
@@ -42,8 +44,10 @@
     <definedName name="armnr" localSheetId="3">'Individuell junior grund B'!$L$7</definedName>
     <definedName name="armnr" localSheetId="2">'Individuell minior grund D'!$L$7</definedName>
     <definedName name="armnr" localSheetId="4">'Individuell senior grund C'!$L$7</definedName>
+    <definedName name="armnr" localSheetId="12">'Individuell tekniska övning YV'!$L$7</definedName>
     <definedName name="armnr" localSheetId="11">'Individuell tekniska övningar'!$L$7</definedName>
-    <definedName name="armnr" localSheetId="12">'Individuellt tekniskt artistisk'!$L$8</definedName>
+    <definedName name="armnr" localSheetId="14">'Individuellt tekniskt artis YV'!$L$8</definedName>
+    <definedName name="armnr" localSheetId="13">'Individuellt tekniskt artistisk'!$L$8</definedName>
     <definedName name="bord" localSheetId="1">'Häst, individuell'!$L$2</definedName>
     <definedName name="bord" localSheetId="9">'Ind kür artistisk junior'!$L$3</definedName>
     <definedName name="bord" localSheetId="8">'Ind kür artistisk minior'!$L$3</definedName>
@@ -54,8 +58,10 @@
     <definedName name="bord" localSheetId="3">'Individuell junior grund B'!$L$3</definedName>
     <definedName name="bord" localSheetId="2">'Individuell minior grund D'!$L$3</definedName>
     <definedName name="bord" localSheetId="4">'Individuell senior grund C'!$L$3</definedName>
+    <definedName name="bord" localSheetId="12">'Individuell tekniska övning YV'!$L$3</definedName>
     <definedName name="bord" localSheetId="11">'Individuell tekniska övningar'!$L$3</definedName>
-    <definedName name="bord" localSheetId="12">'Individuellt tekniskt artistisk'!$L$4</definedName>
+    <definedName name="bord" localSheetId="14">'Individuellt tekniskt artis YV'!$L$4</definedName>
+    <definedName name="bord" localSheetId="13">'Individuellt tekniskt artistisk'!$L$4</definedName>
     <definedName name="datum" localSheetId="1">'Häst, individuell'!$C$3</definedName>
     <definedName name="datum" localSheetId="9">'Ind kür artistisk junior'!$C$4</definedName>
     <definedName name="datum" localSheetId="8">'Ind kür artistisk minior'!$C$4</definedName>
@@ -66,8 +72,10 @@
     <definedName name="datum" localSheetId="3">'Individuell junior grund B'!$C$4</definedName>
     <definedName name="datum" localSheetId="2">'Individuell minior grund D'!$C$4</definedName>
     <definedName name="datum" localSheetId="4">'Individuell senior grund C'!$C$4</definedName>
+    <definedName name="datum" localSheetId="12">'Individuell tekniska övning YV'!$C$4</definedName>
     <definedName name="datum" localSheetId="11">'Individuell tekniska övningar'!$C$4</definedName>
-    <definedName name="datum" localSheetId="12">'Individuellt tekniskt artistisk'!$C$4</definedName>
+    <definedName name="datum" localSheetId="14">'Individuellt tekniskt artis YV'!$C$4</definedName>
+    <definedName name="datum" localSheetId="13">'Individuellt tekniskt artistisk'!$C$4</definedName>
     <definedName name="domare" localSheetId="1">'Häst, individuell'!$C$29</definedName>
     <definedName name="domare" localSheetId="9">'Ind kür artistisk junior'!$C$26</definedName>
     <definedName name="domare" localSheetId="8">'Ind kür artistisk minior'!$C$26</definedName>
@@ -78,8 +86,10 @@
     <definedName name="domare" localSheetId="3">'Individuell junior grund B'!$C$32</definedName>
     <definedName name="domare" localSheetId="2">'Individuell minior grund D'!$C$32</definedName>
     <definedName name="domare" localSheetId="4">'Individuell senior grund C'!$C$32</definedName>
+    <definedName name="domare" localSheetId="12">'Individuell tekniska övning YV'!$C$34</definedName>
     <definedName name="domare" localSheetId="11">'Individuell tekniska övningar'!$C$34</definedName>
-    <definedName name="domare" localSheetId="12">'Individuellt tekniskt artistisk'!$C$28</definedName>
+    <definedName name="domare" localSheetId="14">'Individuellt tekniskt artis YV'!$C$28</definedName>
+    <definedName name="domare" localSheetId="13">'Individuellt tekniskt artistisk'!$C$28</definedName>
     <definedName name="id" localSheetId="1">'Häst, individuell'!$U$1</definedName>
     <definedName name="id" localSheetId="9">'Ind kür artistisk junior'!$U$1</definedName>
     <definedName name="id" localSheetId="8">'Ind kür artistisk minior'!$U$1</definedName>
@@ -90,8 +100,10 @@
     <definedName name="id" localSheetId="3">'Individuell junior grund B'!$U$1</definedName>
     <definedName name="id" localSheetId="2">'Individuell minior grund D'!$U$1</definedName>
     <definedName name="id" localSheetId="4">'Individuell senior grund C'!$U$1</definedName>
+    <definedName name="id" localSheetId="12">'Individuell tekniska övning YV'!$U$1</definedName>
     <definedName name="id" localSheetId="11">'Individuell tekniska övningar'!$U$1</definedName>
-    <definedName name="id" localSheetId="12">'Individuellt tekniskt artistisk'!$U$1</definedName>
+    <definedName name="id" localSheetId="14">'Individuellt tekniskt artis YV'!$U$1</definedName>
+    <definedName name="id" localSheetId="13">'Individuellt tekniskt artistisk'!$U$1</definedName>
     <definedName name="klass" localSheetId="1">'Häst, individuell'!$L$3</definedName>
     <definedName name="klass" localSheetId="9">'Ind kür artistisk junior'!$L$4</definedName>
     <definedName name="klass" localSheetId="8">'Ind kür artistisk minior'!$L$4</definedName>
@@ -102,8 +114,10 @@
     <definedName name="klass" localSheetId="3">'Individuell junior grund B'!$L$4</definedName>
     <definedName name="klass" localSheetId="2">'Individuell minior grund D'!$L$4</definedName>
     <definedName name="klass" localSheetId="4">'Individuell senior grund C'!$L$4</definedName>
+    <definedName name="klass" localSheetId="12">'Individuell tekniska övning YV'!$L$4</definedName>
     <definedName name="klass" localSheetId="11">'Individuell tekniska övningar'!$L$4</definedName>
-    <definedName name="klass" localSheetId="12">'Individuellt tekniskt artistisk'!$L$5</definedName>
+    <definedName name="klass" localSheetId="14">'Individuellt tekniskt artis YV'!$L$5</definedName>
+    <definedName name="klass" localSheetId="13">'Individuellt tekniskt artistisk'!$L$5</definedName>
     <definedName name="moment" localSheetId="1">'Häst, individuell'!$L$4</definedName>
     <definedName name="moment" localSheetId="9">'Ind kür artistisk junior'!$L$5</definedName>
     <definedName name="moment" localSheetId="8">'Ind kür artistisk minior'!$L$5</definedName>
@@ -114,8 +128,10 @@
     <definedName name="moment" localSheetId="3">'Individuell junior grund B'!$L$5</definedName>
     <definedName name="moment" localSheetId="2">'Individuell minior grund D'!$L$5</definedName>
     <definedName name="moment" localSheetId="4">'Individuell senior grund C'!$L$5</definedName>
+    <definedName name="moment" localSheetId="12">'Individuell tekniska övning YV'!$L$5</definedName>
     <definedName name="moment" localSheetId="11">'Individuell tekniska övningar'!$L$5</definedName>
-    <definedName name="moment" localSheetId="12">'Individuellt tekniskt artistisk'!$L$6</definedName>
+    <definedName name="moment" localSheetId="14">'Individuellt tekniskt artis YV'!$L$6</definedName>
+    <definedName name="moment" localSheetId="13">'Individuellt tekniskt artistisk'!$L$6</definedName>
     <definedName name="result" localSheetId="1">'Häst, individuell'!$K$25</definedName>
     <definedName name="result" localSheetId="9">'Ind kür artistisk junior'!$L$22</definedName>
     <definedName name="result" localSheetId="8">'Ind kür artistisk minior'!$L$22</definedName>
@@ -126,8 +142,10 @@
     <definedName name="result" localSheetId="3">'Individuell junior grund B'!$L$27</definedName>
     <definedName name="result" localSheetId="2">'Individuell minior grund D'!$L$26</definedName>
     <definedName name="result" localSheetId="4">'Individuell senior grund C'!$L$27</definedName>
+    <definedName name="result" localSheetId="12">'Individuell tekniska övning YV'!$L$30</definedName>
     <definedName name="result" localSheetId="11">'Individuell tekniska övningar'!$L$30</definedName>
-    <definedName name="result" localSheetId="12">'Individuellt tekniskt artistisk'!$L$24</definedName>
+    <definedName name="result" localSheetId="14">'Individuellt tekniskt artis YV'!$L$24</definedName>
+    <definedName name="result" localSheetId="13">'Individuellt tekniskt artistisk'!$L$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Häst, individuell'!$A$1:$L$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -145,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="186">
   <si>
     <t>Nation:</t>
   </si>
@@ -1098,6 +1116,12 @@
   </si>
   <si>
     <t>Hjulning</t>
+  </si>
+  <si>
+    <t>/ 4</t>
+  </si>
+  <si>
+    <t>Individuell kür</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1352,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1347,6 +1371,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="64">
     <border>
@@ -2138,7 +2168,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="413">
+  <cellXfs count="421">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2909,6 +2939,116 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2968,12 +3108,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2995,95 +3129,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3123,6 +3171,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
@@ -3135,33 +3210,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -3250,6 +3298,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3638,7 +3692,7 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A8" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -5642,10 +5696,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="361"/>
-      <c r="D5" s="361"/>
-      <c r="E5" s="361"/>
-      <c r="F5" s="361"/>
+      <c r="C5" s="367"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="367"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -5659,10 +5713,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="361"/>
-      <c r="D6" s="361"/>
-      <c r="E6" s="361"/>
-      <c r="F6" s="361"/>
+      <c r="C6" s="367"/>
+      <c r="D6" s="367"/>
+      <c r="E6" s="367"/>
+      <c r="F6" s="367"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -5691,30 +5745,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="362"/>
-      <c r="D8" s="362"/>
-      <c r="E8" s="362"/>
-      <c r="F8" s="362"/>
+      <c r="C8" s="368"/>
+      <c r="D8" s="368"/>
+      <c r="E8" s="368"/>
+      <c r="F8" s="368"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="361"/>
-      <c r="D9" s="361"/>
-      <c r="E9" s="361"/>
-      <c r="F9" s="361"/>
+      <c r="C9" s="367"/>
+      <c r="D9" s="367"/>
+      <c r="E9" s="367"/>
+      <c r="F9" s="367"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="361"/>
-      <c r="D10" s="361"/>
-      <c r="E10" s="361"/>
-      <c r="F10" s="361"/>
+      <c r="C10" s="367"/>
+      <c r="D10" s="367"/>
+      <c r="E10" s="367"/>
+      <c r="F10" s="367"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -5727,19 +5781,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="374" t="s">
+      <c r="A14" s="376" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="376" t="s">
+      <c r="B14" s="378" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="377"/>
-      <c r="D14" s="377"/>
-      <c r="E14" s="377"/>
-      <c r="F14" s="377"/>
-      <c r="G14" s="377"/>
-      <c r="H14" s="377"/>
-      <c r="I14" s="378"/>
+      <c r="C14" s="379"/>
+      <c r="D14" s="379"/>
+      <c r="E14" s="379"/>
+      <c r="F14" s="379"/>
+      <c r="G14" s="379"/>
+      <c r="H14" s="379"/>
+      <c r="I14" s="380"/>
       <c r="J14" s="18" t="s">
         <v>122</v>
       </c>
@@ -5752,17 +5806,17 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="383"/>
-      <c r="B15" s="379" t="s">
+      <c r="A15" s="389"/>
+      <c r="B15" s="381" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="380"/>
-      <c r="D15" s="380"/>
-      <c r="E15" s="380"/>
-      <c r="F15" s="380"/>
-      <c r="G15" s="380"/>
-      <c r="H15" s="380"/>
-      <c r="I15" s="380"/>
+      <c r="C15" s="382"/>
+      <c r="D15" s="382"/>
+      <c r="E15" s="382"/>
+      <c r="F15" s="382"/>
+      <c r="G15" s="382"/>
+      <c r="H15" s="382"/>
+      <c r="I15" s="382"/>
       <c r="J15" s="20" t="s">
         <v>123</v>
       </c>
@@ -5775,19 +5829,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="374" t="s">
+      <c r="A16" s="376" t="s">
         <v>165</v>
       </c>
-      <c r="B16" s="370" t="s">
+      <c r="B16" s="385" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="371"/>
-      <c r="D16" s="371"/>
-      <c r="E16" s="371"/>
-      <c r="F16" s="371"/>
-      <c r="G16" s="371"/>
-      <c r="H16" s="371"/>
-      <c r="I16" s="371"/>
+      <c r="C16" s="386"/>
+      <c r="D16" s="386"/>
+      <c r="E16" s="386"/>
+      <c r="F16" s="386"/>
+      <c r="G16" s="386"/>
+      <c r="H16" s="386"/>
+      <c r="I16" s="386"/>
       <c r="J16" s="18" t="s">
         <v>154</v>
       </c>
@@ -5800,17 +5854,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="375"/>
-      <c r="B17" s="372" t="s">
+      <c r="A17" s="377"/>
+      <c r="B17" s="387" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="373"/>
-      <c r="D17" s="373"/>
-      <c r="E17" s="373"/>
-      <c r="F17" s="373"/>
-      <c r="G17" s="373"/>
-      <c r="H17" s="373"/>
-      <c r="I17" s="373"/>
+      <c r="C17" s="388"/>
+      <c r="D17" s="388"/>
+      <c r="E17" s="388"/>
+      <c r="F17" s="388"/>
+      <c r="G17" s="388"/>
+      <c r="H17" s="388"/>
+      <c r="I17" s="388"/>
       <c r="J17" s="19" t="s">
         <v>161</v>
       </c>
@@ -5950,8 +6004,8 @@
   <sheetPr codeName="Blad8"/>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:I15"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6541,7 +6595,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
@@ -6585,10 +6639,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="361"/>
-      <c r="D5" s="361"/>
-      <c r="E5" s="361"/>
-      <c r="F5" s="361"/>
+      <c r="C5" s="367"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="367"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -6602,10 +6656,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="361"/>
-      <c r="D6" s="361"/>
-      <c r="E6" s="361"/>
-      <c r="F6" s="361"/>
+      <c r="C6" s="367"/>
+      <c r="D6" s="367"/>
+      <c r="E6" s="367"/>
+      <c r="F6" s="367"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -6634,30 +6688,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="362"/>
-      <c r="D8" s="362"/>
-      <c r="E8" s="362"/>
-      <c r="F8" s="362"/>
+      <c r="C8" s="368"/>
+      <c r="D8" s="368"/>
+      <c r="E8" s="368"/>
+      <c r="F8" s="368"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="361"/>
-      <c r="D9" s="361"/>
-      <c r="E9" s="361"/>
-      <c r="F9" s="361"/>
+      <c r="C9" s="367"/>
+      <c r="D9" s="367"/>
+      <c r="E9" s="367"/>
+      <c r="F9" s="367"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="361"/>
-      <c r="D10" s="361"/>
-      <c r="E10" s="361"/>
-      <c r="F10" s="361"/>
+      <c r="C10" s="367"/>
+      <c r="D10" s="367"/>
+      <c r="E10" s="367"/>
+      <c r="F10" s="367"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6670,19 +6724,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="374" t="s">
+      <c r="A14" s="376" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="376" t="s">
+      <c r="B14" s="378" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="377"/>
-      <c r="D14" s="377"/>
-      <c r="E14" s="377"/>
-      <c r="F14" s="377"/>
-      <c r="G14" s="377"/>
-      <c r="H14" s="377"/>
-      <c r="I14" s="378"/>
+      <c r="C14" s="379"/>
+      <c r="D14" s="379"/>
+      <c r="E14" s="379"/>
+      <c r="F14" s="379"/>
+      <c r="G14" s="379"/>
+      <c r="H14" s="379"/>
+      <c r="I14" s="380"/>
       <c r="J14" s="18" t="s">
         <v>122</v>
       </c>
@@ -6695,17 +6749,17 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="383"/>
-      <c r="B15" s="379" t="s">
+      <c r="A15" s="389"/>
+      <c r="B15" s="381" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="380"/>
-      <c r="D15" s="380"/>
-      <c r="E15" s="380"/>
-      <c r="F15" s="380"/>
-      <c r="G15" s="380"/>
-      <c r="H15" s="380"/>
-      <c r="I15" s="380"/>
+      <c r="C15" s="382"/>
+      <c r="D15" s="382"/>
+      <c r="E15" s="382"/>
+      <c r="F15" s="382"/>
+      <c r="G15" s="382"/>
+      <c r="H15" s="382"/>
+      <c r="I15" s="382"/>
       <c r="J15" s="20" t="s">
         <v>123</v>
       </c>
@@ -6718,19 +6772,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="374" t="s">
+      <c r="A16" s="376" t="s">
         <v>165</v>
       </c>
-      <c r="B16" s="370" t="s">
+      <c r="B16" s="385" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="371"/>
-      <c r="D16" s="371"/>
-      <c r="E16" s="371"/>
-      <c r="F16" s="371"/>
-      <c r="G16" s="371"/>
-      <c r="H16" s="371"/>
-      <c r="I16" s="371"/>
+      <c r="C16" s="386"/>
+      <c r="D16" s="386"/>
+      <c r="E16" s="386"/>
+      <c r="F16" s="386"/>
+      <c r="G16" s="386"/>
+      <c r="H16" s="386"/>
+      <c r="I16" s="386"/>
       <c r="J16" s="18" t="s">
         <v>154</v>
       </c>
@@ -6743,17 +6797,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="375"/>
-      <c r="B17" s="372" t="s">
+      <c r="A17" s="377"/>
+      <c r="B17" s="387" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="373"/>
-      <c r="D17" s="373"/>
-      <c r="E17" s="373"/>
-      <c r="F17" s="373"/>
-      <c r="G17" s="373"/>
-      <c r="H17" s="373"/>
-      <c r="I17" s="373"/>
+      <c r="C17" s="388"/>
+      <c r="D17" s="388"/>
+      <c r="E17" s="388"/>
+      <c r="F17" s="388"/>
+      <c r="G17" s="388"/>
+      <c r="H17" s="388"/>
+      <c r="I17" s="388"/>
       <c r="J17" s="19" t="s">
         <v>161</v>
       </c>
@@ -6866,17 +6920,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6895,7 +6949,7 @@
   </sheetPr>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -6960,10 +7014,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="361"/>
-      <c r="D5" s="361"/>
-      <c r="E5" s="361"/>
-      <c r="F5" s="361"/>
+      <c r="C5" s="367"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="367"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -6977,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="361"/>
-      <c r="D6" s="361"/>
-      <c r="E6" s="361"/>
-      <c r="F6" s="361"/>
+      <c r="C6" s="367"/>
+      <c r="D6" s="367"/>
+      <c r="E6" s="367"/>
+      <c r="F6" s="367"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7003,30 +7057,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="362"/>
-      <c r="D8" s="362"/>
-      <c r="E8" s="362"/>
-      <c r="F8" s="362"/>
+      <c r="C8" s="368"/>
+      <c r="D8" s="368"/>
+      <c r="E8" s="368"/>
+      <c r="F8" s="368"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="361"/>
-      <c r="D9" s="361"/>
-      <c r="E9" s="361"/>
-      <c r="F9" s="361"/>
+      <c r="C9" s="367"/>
+      <c r="D9" s="367"/>
+      <c r="E9" s="367"/>
+      <c r="F9" s="367"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="361"/>
-      <c r="D10" s="361"/>
-      <c r="E10" s="361"/>
-      <c r="F10" s="361"/>
+      <c r="C10" s="367"/>
+      <c r="D10" s="367"/>
+      <c r="E10" s="367"/>
+      <c r="F10" s="367"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7052,14 +7106,14 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="384" t="s">
+      <c r="A15" s="390" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="385"/>
-      <c r="C15" s="385"/>
-      <c r="D15" s="385"/>
-      <c r="E15" s="385"/>
-      <c r="F15" s="386"/>
+      <c r="B15" s="391"/>
+      <c r="C15" s="391"/>
+      <c r="D15" s="391"/>
+      <c r="E15" s="391"/>
+      <c r="F15" s="392"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="11"/>
@@ -7068,14 +7122,14 @@
       <c r="L15" s="263"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="384" t="s">
+      <c r="A16" s="390" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="385"/>
-      <c r="C16" s="385"/>
-      <c r="D16" s="385"/>
-      <c r="E16" s="385"/>
-      <c r="F16" s="386"/>
+      <c r="B16" s="391"/>
+      <c r="C16" s="391"/>
+      <c r="D16" s="391"/>
+      <c r="E16" s="391"/>
+      <c r="F16" s="392"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="11"/>
@@ -7136,27 +7190,27 @@
       <c r="L20" s="140"/>
     </row>
     <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="390" t="s">
+      <c r="A21" s="396" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="391"/>
-      <c r="C21" s="391"/>
-      <c r="D21" s="391"/>
-      <c r="E21" s="391"/>
-      <c r="F21" s="391"/>
-      <c r="G21" s="391"/>
-      <c r="H21" s="391"/>
-      <c r="I21" s="391"/>
+      <c r="B21" s="397"/>
+      <c r="C21" s="397"/>
+      <c r="D21" s="397"/>
+      <c r="E21" s="397"/>
+      <c r="F21" s="397"/>
+      <c r="G21" s="397"/>
+      <c r="H21" s="397"/>
+      <c r="I21" s="397"/>
       <c r="J21" s="139"/>
       <c r="K21" s="138"/>
       <c r="L21" s="8"/>
       <c r="R21" s="133"/>
     </row>
     <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="398" t="s">
+      <c r="A22" s="404" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="399"/>
+      <c r="B22" s="405"/>
       <c r="C22" s="137"/>
       <c r="D22" s="137"/>
       <c r="E22" s="137"/>
@@ -7170,15 +7224,15 @@
       <c r="R22" s="133"/>
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="394" t="s">
+      <c r="A23" s="400" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="395"/>
+      <c r="B23" s="401"/>
       <c r="C23" s="272"/>
-      <c r="D23" s="392" t="s">
+      <c r="D23" s="398" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="393"/>
+      <c r="E23" s="399"/>
       <c r="F23" s="273"/>
       <c r="G23" s="232" t="s">
         <v>71</v>
@@ -7201,11 +7255,11 @@
       <c r="R23" s="133"/>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="396" t="s">
+      <c r="A24" s="402" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="397"/>
-      <c r="C24" s="397"/>
+      <c r="B24" s="403"/>
+      <c r="C24" s="403"/>
       <c r="D24" s="236"/>
       <c r="E24" s="236"/>
       <c r="F24" s="236"/>
@@ -7217,19 +7271,19 @@
       <c r="R24" s="133"/>
     </row>
     <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="387" t="s">
+      <c r="A25" s="393" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="388"/>
-      <c r="C25" s="388"/>
-      <c r="D25" s="388"/>
-      <c r="E25" s="388"/>
-      <c r="F25" s="388"/>
-      <c r="G25" s="388"/>
-      <c r="H25" s="388"/>
-      <c r="I25" s="388"/>
-      <c r="J25" s="388"/>
-      <c r="K25" s="389"/>
+      <c r="B25" s="394"/>
+      <c r="C25" s="394"/>
+      <c r="D25" s="394"/>
+      <c r="E25" s="394"/>
+      <c r="F25" s="394"/>
+      <c r="G25" s="394"/>
+      <c r="H25" s="394"/>
+      <c r="I25" s="394"/>
+      <c r="J25" s="394"/>
+      <c r="K25" s="395"/>
       <c r="L25" s="9">
         <f>IFERROR(K23-K24,0)</f>
         <v>0</v>
@@ -7372,6 +7426,489 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A77E60-6B7A-4B70-AAD4-B6C281C42562}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R35"/>
+  <sheetViews>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.73046875" style="113" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="113"/>
+    <col min="3" max="3" width="12.59765625" style="113" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.73046875" style="113" customWidth="1"/>
+    <col min="5" max="6" width="7.265625" style="113" customWidth="1"/>
+    <col min="7" max="7" width="11.73046875" style="113" customWidth="1"/>
+    <col min="8" max="8" width="7" style="113" customWidth="1"/>
+    <col min="9" max="11" width="7.265625" style="113" customWidth="1"/>
+    <col min="12" max="12" width="9.73046875" style="113" customWidth="1"/>
+    <col min="13" max="16384" width="9.1328125" style="113"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="367"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="367"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="367"/>
+      <c r="D6" s="367"/>
+      <c r="E6" s="367"/>
+      <c r="F6" s="367"/>
+      <c r="K6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="304"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="304"/>
+      <c r="F7" s="304"/>
+      <c r="J7" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="27"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="368"/>
+      <c r="D8" s="368"/>
+      <c r="E8" s="368"/>
+      <c r="F8" s="368"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="367"/>
+      <c r="D9" s="367"/>
+      <c r="E9" s="367"/>
+      <c r="F9" s="367"/>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="367"/>
+      <c r="D10" s="367"/>
+      <c r="E10" s="367"/>
+      <c r="F10" s="367"/>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="110" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="390" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="391"/>
+      <c r="C15" s="391"/>
+      <c r="D15" s="391"/>
+      <c r="E15" s="391"/>
+      <c r="F15" s="392"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="263"/>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="390" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="391"/>
+      <c r="C16" s="391"/>
+      <c r="D16" s="391"/>
+      <c r="E16" s="391"/>
+      <c r="F16" s="392"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="263"/>
+    </row>
+    <row r="17" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="301" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="302"/>
+      <c r="C17" s="302"/>
+      <c r="D17" s="302"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="303"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="263"/>
+    </row>
+    <row r="18" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="301" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="302"/>
+      <c r="C18" s="302"/>
+      <c r="D18" s="302"/>
+      <c r="E18" s="302"/>
+      <c r="F18" s="303"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="263"/>
+    </row>
+    <row r="19" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="301" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="302"/>
+      <c r="C19" s="302"/>
+      <c r="D19" s="302"/>
+      <c r="E19" s="302"/>
+      <c r="F19" s="303"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="263"/>
+    </row>
+    <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K20" s="140"/>
+      <c r="L20" s="140"/>
+    </row>
+    <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="396" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="397"/>
+      <c r="C21" s="397"/>
+      <c r="D21" s="397"/>
+      <c r="E21" s="397"/>
+      <c r="F21" s="397"/>
+      <c r="G21" s="397"/>
+      <c r="H21" s="397"/>
+      <c r="I21" s="397"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="8"/>
+      <c r="R21" s="133"/>
+    </row>
+    <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="404" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="405"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="8"/>
+      <c r="R22" s="133"/>
+    </row>
+    <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="400" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="401"/>
+      <c r="C23" s="272"/>
+      <c r="D23" s="398" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="399"/>
+      <c r="F23" s="273"/>
+      <c r="G23" s="232" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="233">
+        <f>IFERROR(IF(ROUND(C23/F23,3)&gt;10,10,ROUND(C23/F23,3)),10)</f>
+        <v>10</v>
+      </c>
+      <c r="I23" s="234" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="232" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="235">
+        <f>10-H23</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="134"/>
+      <c r="R23" s="133"/>
+    </row>
+    <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="402" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="403"/>
+      <c r="C24" s="403"/>
+      <c r="D24" s="236"/>
+      <c r="E24" s="236"/>
+      <c r="F24" s="236"/>
+      <c r="G24" s="236"/>
+      <c r="H24" s="236"/>
+      <c r="I24" s="236"/>
+      <c r="J24" s="237"/>
+      <c r="K24" s="280"/>
+      <c r="R24" s="133"/>
+    </row>
+    <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="393" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="394"/>
+      <c r="C25" s="394"/>
+      <c r="D25" s="394"/>
+      <c r="E25" s="394"/>
+      <c r="F25" s="394"/>
+      <c r="G25" s="394"/>
+      <c r="H25" s="394"/>
+      <c r="I25" s="394"/>
+      <c r="J25" s="394"/>
+      <c r="K25" s="395"/>
+      <c r="L25" s="9">
+        <f>IFERROR(K23-K24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="131"/>
+      <c r="N25" s="8"/>
+      <c r="R25" s="130"/>
+    </row>
+    <row r="26" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="132"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="8"/>
+      <c r="R26" s="130"/>
+    </row>
+    <row r="27" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="129" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="128">
+        <f>SUM(L15:L25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="127" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="126"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="125"/>
+    </row>
+    <row r="30" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H30" s="124"/>
+      <c r="I30" s="123" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="122"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="120">
+        <f>ROUND(SUM(L27)/4,3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="118"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="114"/>
+    </row>
+    <row r="32" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="118"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="114"/>
+    </row>
+    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="118"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="114"/>
+    </row>
+    <row r="34" spans="1:12" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="119"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="118"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="114"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A15:F15"/>
+  </mergeCells>
+  <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
+    <oddFooter>&amp;R2022-01-01</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Blad10">
     <pageSetUpPr fitToPage="1"/>
@@ -7969,17 +8506,17 @@
   <sheetData>
     <row r="1" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="410" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="404"/>
-      <c r="C2" s="404"/>
-      <c r="D2" s="404"/>
-      <c r="E2" s="404"/>
-      <c r="F2" s="404"/>
-      <c r="G2" s="404"/>
-      <c r="H2" s="404"/>
-      <c r="I2" s="404"/>
+      <c r="B2" s="410"/>
+      <c r="C2" s="410"/>
+      <c r="D2" s="410"/>
+      <c r="E2" s="410"/>
+      <c r="F2" s="410"/>
+      <c r="G2" s="410"/>
+      <c r="H2" s="410"/>
+      <c r="I2" s="410"/>
       <c r="J2" s="143"/>
       <c r="K2" s="143"/>
       <c r="L2" s="143"/>
@@ -8024,10 +8561,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="361"/>
-      <c r="D5" s="361"/>
-      <c r="E5" s="361"/>
-      <c r="F5" s="361"/>
+      <c r="C5" s="367"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="367"/>
       <c r="G5" s="142"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
@@ -8042,10 +8579,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="361"/>
-      <c r="D6" s="361"/>
-      <c r="E6" s="361"/>
-      <c r="F6" s="361"/>
+      <c r="C6" s="367"/>
+      <c r="D6" s="367"/>
+      <c r="E6" s="367"/>
+      <c r="F6" s="367"/>
       <c r="G6" s="141"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14" t="s">
@@ -8076,10 +8613,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="362"/>
-      <c r="D8" s="362"/>
-      <c r="E8" s="362"/>
-      <c r="F8" s="362"/>
+      <c r="C8" s="368"/>
+      <c r="D8" s="368"/>
+      <c r="E8" s="368"/>
+      <c r="F8" s="368"/>
       <c r="G8" s="151"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -8094,10 +8631,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="361"/>
-      <c r="D9" s="361"/>
-      <c r="E9" s="361"/>
-      <c r="F9" s="361"/>
+      <c r="C9" s="367"/>
+      <c r="D9" s="367"/>
+      <c r="E9" s="367"/>
+      <c r="F9" s="367"/>
       <c r="G9" s="151"/>
       <c r="H9" s="141"/>
       <c r="I9" s="141"/>
@@ -8110,15 +8647,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="361"/>
-      <c r="D10" s="361"/>
-      <c r="E10" s="361"/>
-      <c r="F10" s="361"/>
+      <c r="C10" s="367"/>
+      <c r="D10" s="367"/>
+      <c r="E10" s="367"/>
+      <c r="F10" s="367"/>
       <c r="G10" s="151"/>
       <c r="H10" s="141"/>
       <c r="I10" s="141"/>
-      <c r="J10" s="400"/>
-      <c r="K10" s="400"/>
+      <c r="J10" s="406"/>
+      <c r="K10" s="406"/>
       <c r="L10" s="152"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -8145,10 +8682,10 @@
       <c r="C13" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="405" t="s">
+      <c r="D13" s="411" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="406"/>
+      <c r="E13" s="412"/>
       <c r="F13" s="255" t="s">
         <v>127</v>
       </c>
@@ -8161,17 +8698,17 @@
       <c r="I13" s="257" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="409" t="s">
+      <c r="J13" s="415" t="s">
         <v>134</v>
       </c>
-      <c r="K13" s="410"/>
+      <c r="K13" s="416"/>
       <c r="L13" s="150"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="274"/>
       <c r="C14" s="275"/>
-      <c r="D14" s="407"/>
-      <c r="E14" s="408"/>
+      <c r="D14" s="413"/>
+      <c r="E14" s="414"/>
       <c r="F14" s="275"/>
       <c r="G14" s="275"/>
       <c r="H14" s="276"/>
@@ -8179,11 +8716,11 @@
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="411">
+      <c r="J14" s="417">
         <f>I14/6</f>
         <v>0</v>
       </c>
-      <c r="K14" s="412"/>
+      <c r="K14" s="418"/>
       <c r="L14" s="150"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8199,16 +8736,16 @@
       <c r="A17" s="250" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="401" t="s">
+      <c r="B17" s="407" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="402"/>
-      <c r="D17" s="402"/>
-      <c r="E17" s="402"/>
-      <c r="F17" s="402"/>
-      <c r="G17" s="402"/>
-      <c r="H17" s="402"/>
-      <c r="I17" s="403"/>
+      <c r="C17" s="408"/>
+      <c r="D17" s="408"/>
+      <c r="E17" s="408"/>
+      <c r="F17" s="408"/>
+      <c r="G17" s="408"/>
+      <c r="H17" s="408"/>
+      <c r="I17" s="409"/>
       <c r="J17" s="148" t="s">
         <v>131</v>
       </c>
@@ -8222,19 +8759,19 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="335" t="s">
+      <c r="A18" s="313" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="370" t="s">
+      <c r="B18" s="385" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="371"/>
-      <c r="D18" s="371"/>
-      <c r="E18" s="371"/>
-      <c r="F18" s="371"/>
-      <c r="G18" s="371"/>
-      <c r="H18" s="371"/>
-      <c r="I18" s="371"/>
+      <c r="C18" s="386"/>
+      <c r="D18" s="386"/>
+      <c r="E18" s="386"/>
+      <c r="F18" s="386"/>
+      <c r="G18" s="386"/>
+      <c r="H18" s="386"/>
+      <c r="I18" s="386"/>
       <c r="J18" s="148" t="s">
         <v>136</v>
       </c>
@@ -8245,17 +8782,17 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="336"/>
-      <c r="B19" s="372" t="s">
+      <c r="A19" s="314"/>
+      <c r="B19" s="387" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="373"/>
-      <c r="D19" s="373"/>
-      <c r="E19" s="373"/>
-      <c r="F19" s="373"/>
-      <c r="G19" s="373"/>
-      <c r="H19" s="373"/>
-      <c r="I19" s="373"/>
+      <c r="C19" s="388"/>
+      <c r="D19" s="388"/>
+      <c r="E19" s="388"/>
+      <c r="F19" s="388"/>
+      <c r="G19" s="388"/>
+      <c r="H19" s="388"/>
+      <c r="I19" s="388"/>
       <c r="J19" s="146" t="s">
         <v>137</v>
       </c>
@@ -8377,12 +8914,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A2:I2"/>
@@ -8392,6 +8923,1044 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+  </mergeCells>
+  <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
+    <oddFooter>&amp;R2019-06-01</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8A7501-AB2E-4C76-A1EE-0E42EAF3BB4F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.73046875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="5"/>
+    <col min="3" max="3" width="12.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.73046875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="7.265625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.86328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="5.86328125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.265625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9.73046875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.1328125" style="5" customWidth="1"/>
+    <col min="14" max="242" width="9.1328125" style="5"/>
+    <col min="243" max="243" width="5.73046875" style="5" customWidth="1"/>
+    <col min="244" max="245" width="9.1328125" style="5"/>
+    <col min="246" max="246" width="2.73046875" style="5" customWidth="1"/>
+    <col min="247" max="249" width="7.265625" style="5" customWidth="1"/>
+    <col min="250" max="250" width="7" style="5" customWidth="1"/>
+    <col min="251" max="253" width="7.265625" style="5" customWidth="1"/>
+    <col min="254" max="254" width="10.59765625" style="5" customWidth="1"/>
+    <col min="255" max="255" width="7.265625" style="5" customWidth="1"/>
+    <col min="256" max="498" width="9.1328125" style="5"/>
+    <col min="499" max="499" width="5.73046875" style="5" customWidth="1"/>
+    <col min="500" max="501" width="9.1328125" style="5"/>
+    <col min="502" max="502" width="2.73046875" style="5" customWidth="1"/>
+    <col min="503" max="505" width="7.265625" style="5" customWidth="1"/>
+    <col min="506" max="506" width="7" style="5" customWidth="1"/>
+    <col min="507" max="509" width="7.265625" style="5" customWidth="1"/>
+    <col min="510" max="510" width="10.59765625" style="5" customWidth="1"/>
+    <col min="511" max="511" width="7.265625" style="5" customWidth="1"/>
+    <col min="512" max="754" width="9.1328125" style="5"/>
+    <col min="755" max="755" width="5.73046875" style="5" customWidth="1"/>
+    <col min="756" max="757" width="9.1328125" style="5"/>
+    <col min="758" max="758" width="2.73046875" style="5" customWidth="1"/>
+    <col min="759" max="761" width="7.265625" style="5" customWidth="1"/>
+    <col min="762" max="762" width="7" style="5" customWidth="1"/>
+    <col min="763" max="765" width="7.265625" style="5" customWidth="1"/>
+    <col min="766" max="766" width="10.59765625" style="5" customWidth="1"/>
+    <col min="767" max="767" width="7.265625" style="5" customWidth="1"/>
+    <col min="768" max="1010" width="9.1328125" style="5"/>
+    <col min="1011" max="1011" width="5.73046875" style="5" customWidth="1"/>
+    <col min="1012" max="1013" width="9.1328125" style="5"/>
+    <col min="1014" max="1014" width="2.73046875" style="5" customWidth="1"/>
+    <col min="1015" max="1017" width="7.265625" style="5" customWidth="1"/>
+    <col min="1018" max="1018" width="7" style="5" customWidth="1"/>
+    <col min="1019" max="1021" width="7.265625" style="5" customWidth="1"/>
+    <col min="1022" max="1022" width="10.59765625" style="5" customWidth="1"/>
+    <col min="1023" max="1023" width="7.265625" style="5" customWidth="1"/>
+    <col min="1024" max="1266" width="9.1328125" style="5"/>
+    <col min="1267" max="1267" width="5.73046875" style="5" customWidth="1"/>
+    <col min="1268" max="1269" width="9.1328125" style="5"/>
+    <col min="1270" max="1270" width="2.73046875" style="5" customWidth="1"/>
+    <col min="1271" max="1273" width="7.265625" style="5" customWidth="1"/>
+    <col min="1274" max="1274" width="7" style="5" customWidth="1"/>
+    <col min="1275" max="1277" width="7.265625" style="5" customWidth="1"/>
+    <col min="1278" max="1278" width="10.59765625" style="5" customWidth="1"/>
+    <col min="1279" max="1279" width="7.265625" style="5" customWidth="1"/>
+    <col min="1280" max="1522" width="9.1328125" style="5"/>
+    <col min="1523" max="1523" width="5.73046875" style="5" customWidth="1"/>
+    <col min="1524" max="1525" width="9.1328125" style="5"/>
+    <col min="1526" max="1526" width="2.73046875" style="5" customWidth="1"/>
+    <col min="1527" max="1529" width="7.265625" style="5" customWidth="1"/>
+    <col min="1530" max="1530" width="7" style="5" customWidth="1"/>
+    <col min="1531" max="1533" width="7.265625" style="5" customWidth="1"/>
+    <col min="1534" max="1534" width="10.59765625" style="5" customWidth="1"/>
+    <col min="1535" max="1535" width="7.265625" style="5" customWidth="1"/>
+    <col min="1536" max="1778" width="9.1328125" style="5"/>
+    <col min="1779" max="1779" width="5.73046875" style="5" customWidth="1"/>
+    <col min="1780" max="1781" width="9.1328125" style="5"/>
+    <col min="1782" max="1782" width="2.73046875" style="5" customWidth="1"/>
+    <col min="1783" max="1785" width="7.265625" style="5" customWidth="1"/>
+    <col min="1786" max="1786" width="7" style="5" customWidth="1"/>
+    <col min="1787" max="1789" width="7.265625" style="5" customWidth="1"/>
+    <col min="1790" max="1790" width="10.59765625" style="5" customWidth="1"/>
+    <col min="1791" max="1791" width="7.265625" style="5" customWidth="1"/>
+    <col min="1792" max="2034" width="9.1328125" style="5"/>
+    <col min="2035" max="2035" width="5.73046875" style="5" customWidth="1"/>
+    <col min="2036" max="2037" width="9.1328125" style="5"/>
+    <col min="2038" max="2038" width="2.73046875" style="5" customWidth="1"/>
+    <col min="2039" max="2041" width="7.265625" style="5" customWidth="1"/>
+    <col min="2042" max="2042" width="7" style="5" customWidth="1"/>
+    <col min="2043" max="2045" width="7.265625" style="5" customWidth="1"/>
+    <col min="2046" max="2046" width="10.59765625" style="5" customWidth="1"/>
+    <col min="2047" max="2047" width="7.265625" style="5" customWidth="1"/>
+    <col min="2048" max="2290" width="9.1328125" style="5"/>
+    <col min="2291" max="2291" width="5.73046875" style="5" customWidth="1"/>
+    <col min="2292" max="2293" width="9.1328125" style="5"/>
+    <col min="2294" max="2294" width="2.73046875" style="5" customWidth="1"/>
+    <col min="2295" max="2297" width="7.265625" style="5" customWidth="1"/>
+    <col min="2298" max="2298" width="7" style="5" customWidth="1"/>
+    <col min="2299" max="2301" width="7.265625" style="5" customWidth="1"/>
+    <col min="2302" max="2302" width="10.59765625" style="5" customWidth="1"/>
+    <col min="2303" max="2303" width="7.265625" style="5" customWidth="1"/>
+    <col min="2304" max="2546" width="9.1328125" style="5"/>
+    <col min="2547" max="2547" width="5.73046875" style="5" customWidth="1"/>
+    <col min="2548" max="2549" width="9.1328125" style="5"/>
+    <col min="2550" max="2550" width="2.73046875" style="5" customWidth="1"/>
+    <col min="2551" max="2553" width="7.265625" style="5" customWidth="1"/>
+    <col min="2554" max="2554" width="7" style="5" customWidth="1"/>
+    <col min="2555" max="2557" width="7.265625" style="5" customWidth="1"/>
+    <col min="2558" max="2558" width="10.59765625" style="5" customWidth="1"/>
+    <col min="2559" max="2559" width="7.265625" style="5" customWidth="1"/>
+    <col min="2560" max="2802" width="9.1328125" style="5"/>
+    <col min="2803" max="2803" width="5.73046875" style="5" customWidth="1"/>
+    <col min="2804" max="2805" width="9.1328125" style="5"/>
+    <col min="2806" max="2806" width="2.73046875" style="5" customWidth="1"/>
+    <col min="2807" max="2809" width="7.265625" style="5" customWidth="1"/>
+    <col min="2810" max="2810" width="7" style="5" customWidth="1"/>
+    <col min="2811" max="2813" width="7.265625" style="5" customWidth="1"/>
+    <col min="2814" max="2814" width="10.59765625" style="5" customWidth="1"/>
+    <col min="2815" max="2815" width="7.265625" style="5" customWidth="1"/>
+    <col min="2816" max="3058" width="9.1328125" style="5"/>
+    <col min="3059" max="3059" width="5.73046875" style="5" customWidth="1"/>
+    <col min="3060" max="3061" width="9.1328125" style="5"/>
+    <col min="3062" max="3062" width="2.73046875" style="5" customWidth="1"/>
+    <col min="3063" max="3065" width="7.265625" style="5" customWidth="1"/>
+    <col min="3066" max="3066" width="7" style="5" customWidth="1"/>
+    <col min="3067" max="3069" width="7.265625" style="5" customWidth="1"/>
+    <col min="3070" max="3070" width="10.59765625" style="5" customWidth="1"/>
+    <col min="3071" max="3071" width="7.265625" style="5" customWidth="1"/>
+    <col min="3072" max="3314" width="9.1328125" style="5"/>
+    <col min="3315" max="3315" width="5.73046875" style="5" customWidth="1"/>
+    <col min="3316" max="3317" width="9.1328125" style="5"/>
+    <col min="3318" max="3318" width="2.73046875" style="5" customWidth="1"/>
+    <col min="3319" max="3321" width="7.265625" style="5" customWidth="1"/>
+    <col min="3322" max="3322" width="7" style="5" customWidth="1"/>
+    <col min="3323" max="3325" width="7.265625" style="5" customWidth="1"/>
+    <col min="3326" max="3326" width="10.59765625" style="5" customWidth="1"/>
+    <col min="3327" max="3327" width="7.265625" style="5" customWidth="1"/>
+    <col min="3328" max="3570" width="9.1328125" style="5"/>
+    <col min="3571" max="3571" width="5.73046875" style="5" customWidth="1"/>
+    <col min="3572" max="3573" width="9.1328125" style="5"/>
+    <col min="3574" max="3574" width="2.73046875" style="5" customWidth="1"/>
+    <col min="3575" max="3577" width="7.265625" style="5" customWidth="1"/>
+    <col min="3578" max="3578" width="7" style="5" customWidth="1"/>
+    <col min="3579" max="3581" width="7.265625" style="5" customWidth="1"/>
+    <col min="3582" max="3582" width="10.59765625" style="5" customWidth="1"/>
+    <col min="3583" max="3583" width="7.265625" style="5" customWidth="1"/>
+    <col min="3584" max="3826" width="9.1328125" style="5"/>
+    <col min="3827" max="3827" width="5.73046875" style="5" customWidth="1"/>
+    <col min="3828" max="3829" width="9.1328125" style="5"/>
+    <col min="3830" max="3830" width="2.73046875" style="5" customWidth="1"/>
+    <col min="3831" max="3833" width="7.265625" style="5" customWidth="1"/>
+    <col min="3834" max="3834" width="7" style="5" customWidth="1"/>
+    <col min="3835" max="3837" width="7.265625" style="5" customWidth="1"/>
+    <col min="3838" max="3838" width="10.59765625" style="5" customWidth="1"/>
+    <col min="3839" max="3839" width="7.265625" style="5" customWidth="1"/>
+    <col min="3840" max="4082" width="9.1328125" style="5"/>
+    <col min="4083" max="4083" width="5.73046875" style="5" customWidth="1"/>
+    <col min="4084" max="4085" width="9.1328125" style="5"/>
+    <col min="4086" max="4086" width="2.73046875" style="5" customWidth="1"/>
+    <col min="4087" max="4089" width="7.265625" style="5" customWidth="1"/>
+    <col min="4090" max="4090" width="7" style="5" customWidth="1"/>
+    <col min="4091" max="4093" width="7.265625" style="5" customWidth="1"/>
+    <col min="4094" max="4094" width="10.59765625" style="5" customWidth="1"/>
+    <col min="4095" max="4095" width="7.265625" style="5" customWidth="1"/>
+    <col min="4096" max="4338" width="9.1328125" style="5"/>
+    <col min="4339" max="4339" width="5.73046875" style="5" customWidth="1"/>
+    <col min="4340" max="4341" width="9.1328125" style="5"/>
+    <col min="4342" max="4342" width="2.73046875" style="5" customWidth="1"/>
+    <col min="4343" max="4345" width="7.265625" style="5" customWidth="1"/>
+    <col min="4346" max="4346" width="7" style="5" customWidth="1"/>
+    <col min="4347" max="4349" width="7.265625" style="5" customWidth="1"/>
+    <col min="4350" max="4350" width="10.59765625" style="5" customWidth="1"/>
+    <col min="4351" max="4351" width="7.265625" style="5" customWidth="1"/>
+    <col min="4352" max="4594" width="9.1328125" style="5"/>
+    <col min="4595" max="4595" width="5.73046875" style="5" customWidth="1"/>
+    <col min="4596" max="4597" width="9.1328125" style="5"/>
+    <col min="4598" max="4598" width="2.73046875" style="5" customWidth="1"/>
+    <col min="4599" max="4601" width="7.265625" style="5" customWidth="1"/>
+    <col min="4602" max="4602" width="7" style="5" customWidth="1"/>
+    <col min="4603" max="4605" width="7.265625" style="5" customWidth="1"/>
+    <col min="4606" max="4606" width="10.59765625" style="5" customWidth="1"/>
+    <col min="4607" max="4607" width="7.265625" style="5" customWidth="1"/>
+    <col min="4608" max="4850" width="9.1328125" style="5"/>
+    <col min="4851" max="4851" width="5.73046875" style="5" customWidth="1"/>
+    <col min="4852" max="4853" width="9.1328125" style="5"/>
+    <col min="4854" max="4854" width="2.73046875" style="5" customWidth="1"/>
+    <col min="4855" max="4857" width="7.265625" style="5" customWidth="1"/>
+    <col min="4858" max="4858" width="7" style="5" customWidth="1"/>
+    <col min="4859" max="4861" width="7.265625" style="5" customWidth="1"/>
+    <col min="4862" max="4862" width="10.59765625" style="5" customWidth="1"/>
+    <col min="4863" max="4863" width="7.265625" style="5" customWidth="1"/>
+    <col min="4864" max="5106" width="9.1328125" style="5"/>
+    <col min="5107" max="5107" width="5.73046875" style="5" customWidth="1"/>
+    <col min="5108" max="5109" width="9.1328125" style="5"/>
+    <col min="5110" max="5110" width="2.73046875" style="5" customWidth="1"/>
+    <col min="5111" max="5113" width="7.265625" style="5" customWidth="1"/>
+    <col min="5114" max="5114" width="7" style="5" customWidth="1"/>
+    <col min="5115" max="5117" width="7.265625" style="5" customWidth="1"/>
+    <col min="5118" max="5118" width="10.59765625" style="5" customWidth="1"/>
+    <col min="5119" max="5119" width="7.265625" style="5" customWidth="1"/>
+    <col min="5120" max="5362" width="9.1328125" style="5"/>
+    <col min="5363" max="5363" width="5.73046875" style="5" customWidth="1"/>
+    <col min="5364" max="5365" width="9.1328125" style="5"/>
+    <col min="5366" max="5366" width="2.73046875" style="5" customWidth="1"/>
+    <col min="5367" max="5369" width="7.265625" style="5" customWidth="1"/>
+    <col min="5370" max="5370" width="7" style="5" customWidth="1"/>
+    <col min="5371" max="5373" width="7.265625" style="5" customWidth="1"/>
+    <col min="5374" max="5374" width="10.59765625" style="5" customWidth="1"/>
+    <col min="5375" max="5375" width="7.265625" style="5" customWidth="1"/>
+    <col min="5376" max="5618" width="9.1328125" style="5"/>
+    <col min="5619" max="5619" width="5.73046875" style="5" customWidth="1"/>
+    <col min="5620" max="5621" width="9.1328125" style="5"/>
+    <col min="5622" max="5622" width="2.73046875" style="5" customWidth="1"/>
+    <col min="5623" max="5625" width="7.265625" style="5" customWidth="1"/>
+    <col min="5626" max="5626" width="7" style="5" customWidth="1"/>
+    <col min="5627" max="5629" width="7.265625" style="5" customWidth="1"/>
+    <col min="5630" max="5630" width="10.59765625" style="5" customWidth="1"/>
+    <col min="5631" max="5631" width="7.265625" style="5" customWidth="1"/>
+    <col min="5632" max="5874" width="9.1328125" style="5"/>
+    <col min="5875" max="5875" width="5.73046875" style="5" customWidth="1"/>
+    <col min="5876" max="5877" width="9.1328125" style="5"/>
+    <col min="5878" max="5878" width="2.73046875" style="5" customWidth="1"/>
+    <col min="5879" max="5881" width="7.265625" style="5" customWidth="1"/>
+    <col min="5882" max="5882" width="7" style="5" customWidth="1"/>
+    <col min="5883" max="5885" width="7.265625" style="5" customWidth="1"/>
+    <col min="5886" max="5886" width="10.59765625" style="5" customWidth="1"/>
+    <col min="5887" max="5887" width="7.265625" style="5" customWidth="1"/>
+    <col min="5888" max="6130" width="9.1328125" style="5"/>
+    <col min="6131" max="6131" width="5.73046875" style="5" customWidth="1"/>
+    <col min="6132" max="6133" width="9.1328125" style="5"/>
+    <col min="6134" max="6134" width="2.73046875" style="5" customWidth="1"/>
+    <col min="6135" max="6137" width="7.265625" style="5" customWidth="1"/>
+    <col min="6138" max="6138" width="7" style="5" customWidth="1"/>
+    <col min="6139" max="6141" width="7.265625" style="5" customWidth="1"/>
+    <col min="6142" max="6142" width="10.59765625" style="5" customWidth="1"/>
+    <col min="6143" max="6143" width="7.265625" style="5" customWidth="1"/>
+    <col min="6144" max="6386" width="9.1328125" style="5"/>
+    <col min="6387" max="6387" width="5.73046875" style="5" customWidth="1"/>
+    <col min="6388" max="6389" width="9.1328125" style="5"/>
+    <col min="6390" max="6390" width="2.73046875" style="5" customWidth="1"/>
+    <col min="6391" max="6393" width="7.265625" style="5" customWidth="1"/>
+    <col min="6394" max="6394" width="7" style="5" customWidth="1"/>
+    <col min="6395" max="6397" width="7.265625" style="5" customWidth="1"/>
+    <col min="6398" max="6398" width="10.59765625" style="5" customWidth="1"/>
+    <col min="6399" max="6399" width="7.265625" style="5" customWidth="1"/>
+    <col min="6400" max="6642" width="9.1328125" style="5"/>
+    <col min="6643" max="6643" width="5.73046875" style="5" customWidth="1"/>
+    <col min="6644" max="6645" width="9.1328125" style="5"/>
+    <col min="6646" max="6646" width="2.73046875" style="5" customWidth="1"/>
+    <col min="6647" max="6649" width="7.265625" style="5" customWidth="1"/>
+    <col min="6650" max="6650" width="7" style="5" customWidth="1"/>
+    <col min="6651" max="6653" width="7.265625" style="5" customWidth="1"/>
+    <col min="6654" max="6654" width="10.59765625" style="5" customWidth="1"/>
+    <col min="6655" max="6655" width="7.265625" style="5" customWidth="1"/>
+    <col min="6656" max="6898" width="9.1328125" style="5"/>
+    <col min="6899" max="6899" width="5.73046875" style="5" customWidth="1"/>
+    <col min="6900" max="6901" width="9.1328125" style="5"/>
+    <col min="6902" max="6902" width="2.73046875" style="5" customWidth="1"/>
+    <col min="6903" max="6905" width="7.265625" style="5" customWidth="1"/>
+    <col min="6906" max="6906" width="7" style="5" customWidth="1"/>
+    <col min="6907" max="6909" width="7.265625" style="5" customWidth="1"/>
+    <col min="6910" max="6910" width="10.59765625" style="5" customWidth="1"/>
+    <col min="6911" max="6911" width="7.265625" style="5" customWidth="1"/>
+    <col min="6912" max="7154" width="9.1328125" style="5"/>
+    <col min="7155" max="7155" width="5.73046875" style="5" customWidth="1"/>
+    <col min="7156" max="7157" width="9.1328125" style="5"/>
+    <col min="7158" max="7158" width="2.73046875" style="5" customWidth="1"/>
+    <col min="7159" max="7161" width="7.265625" style="5" customWidth="1"/>
+    <col min="7162" max="7162" width="7" style="5" customWidth="1"/>
+    <col min="7163" max="7165" width="7.265625" style="5" customWidth="1"/>
+    <col min="7166" max="7166" width="10.59765625" style="5" customWidth="1"/>
+    <col min="7167" max="7167" width="7.265625" style="5" customWidth="1"/>
+    <col min="7168" max="7410" width="9.1328125" style="5"/>
+    <col min="7411" max="7411" width="5.73046875" style="5" customWidth="1"/>
+    <col min="7412" max="7413" width="9.1328125" style="5"/>
+    <col min="7414" max="7414" width="2.73046875" style="5" customWidth="1"/>
+    <col min="7415" max="7417" width="7.265625" style="5" customWidth="1"/>
+    <col min="7418" max="7418" width="7" style="5" customWidth="1"/>
+    <col min="7419" max="7421" width="7.265625" style="5" customWidth="1"/>
+    <col min="7422" max="7422" width="10.59765625" style="5" customWidth="1"/>
+    <col min="7423" max="7423" width="7.265625" style="5" customWidth="1"/>
+    <col min="7424" max="7666" width="9.1328125" style="5"/>
+    <col min="7667" max="7667" width="5.73046875" style="5" customWidth="1"/>
+    <col min="7668" max="7669" width="9.1328125" style="5"/>
+    <col min="7670" max="7670" width="2.73046875" style="5" customWidth="1"/>
+    <col min="7671" max="7673" width="7.265625" style="5" customWidth="1"/>
+    <col min="7674" max="7674" width="7" style="5" customWidth="1"/>
+    <col min="7675" max="7677" width="7.265625" style="5" customWidth="1"/>
+    <col min="7678" max="7678" width="10.59765625" style="5" customWidth="1"/>
+    <col min="7679" max="7679" width="7.265625" style="5" customWidth="1"/>
+    <col min="7680" max="7922" width="9.1328125" style="5"/>
+    <col min="7923" max="7923" width="5.73046875" style="5" customWidth="1"/>
+    <col min="7924" max="7925" width="9.1328125" style="5"/>
+    <col min="7926" max="7926" width="2.73046875" style="5" customWidth="1"/>
+    <col min="7927" max="7929" width="7.265625" style="5" customWidth="1"/>
+    <col min="7930" max="7930" width="7" style="5" customWidth="1"/>
+    <col min="7931" max="7933" width="7.265625" style="5" customWidth="1"/>
+    <col min="7934" max="7934" width="10.59765625" style="5" customWidth="1"/>
+    <col min="7935" max="7935" width="7.265625" style="5" customWidth="1"/>
+    <col min="7936" max="8178" width="9.1328125" style="5"/>
+    <col min="8179" max="8179" width="5.73046875" style="5" customWidth="1"/>
+    <col min="8180" max="8181" width="9.1328125" style="5"/>
+    <col min="8182" max="8182" width="2.73046875" style="5" customWidth="1"/>
+    <col min="8183" max="8185" width="7.265625" style="5" customWidth="1"/>
+    <col min="8186" max="8186" width="7" style="5" customWidth="1"/>
+    <col min="8187" max="8189" width="7.265625" style="5" customWidth="1"/>
+    <col min="8190" max="8190" width="10.59765625" style="5" customWidth="1"/>
+    <col min="8191" max="8191" width="7.265625" style="5" customWidth="1"/>
+    <col min="8192" max="8434" width="9.1328125" style="5"/>
+    <col min="8435" max="8435" width="5.73046875" style="5" customWidth="1"/>
+    <col min="8436" max="8437" width="9.1328125" style="5"/>
+    <col min="8438" max="8438" width="2.73046875" style="5" customWidth="1"/>
+    <col min="8439" max="8441" width="7.265625" style="5" customWidth="1"/>
+    <col min="8442" max="8442" width="7" style="5" customWidth="1"/>
+    <col min="8443" max="8445" width="7.265625" style="5" customWidth="1"/>
+    <col min="8446" max="8446" width="10.59765625" style="5" customWidth="1"/>
+    <col min="8447" max="8447" width="7.265625" style="5" customWidth="1"/>
+    <col min="8448" max="8690" width="9.1328125" style="5"/>
+    <col min="8691" max="8691" width="5.73046875" style="5" customWidth="1"/>
+    <col min="8692" max="8693" width="9.1328125" style="5"/>
+    <col min="8694" max="8694" width="2.73046875" style="5" customWidth="1"/>
+    <col min="8695" max="8697" width="7.265625" style="5" customWidth="1"/>
+    <col min="8698" max="8698" width="7" style="5" customWidth="1"/>
+    <col min="8699" max="8701" width="7.265625" style="5" customWidth="1"/>
+    <col min="8702" max="8702" width="10.59765625" style="5" customWidth="1"/>
+    <col min="8703" max="8703" width="7.265625" style="5" customWidth="1"/>
+    <col min="8704" max="8946" width="9.1328125" style="5"/>
+    <col min="8947" max="8947" width="5.73046875" style="5" customWidth="1"/>
+    <col min="8948" max="8949" width="9.1328125" style="5"/>
+    <col min="8950" max="8950" width="2.73046875" style="5" customWidth="1"/>
+    <col min="8951" max="8953" width="7.265625" style="5" customWidth="1"/>
+    <col min="8954" max="8954" width="7" style="5" customWidth="1"/>
+    <col min="8955" max="8957" width="7.265625" style="5" customWidth="1"/>
+    <col min="8958" max="8958" width="10.59765625" style="5" customWidth="1"/>
+    <col min="8959" max="8959" width="7.265625" style="5" customWidth="1"/>
+    <col min="8960" max="9202" width="9.1328125" style="5"/>
+    <col min="9203" max="9203" width="5.73046875" style="5" customWidth="1"/>
+    <col min="9204" max="9205" width="9.1328125" style="5"/>
+    <col min="9206" max="9206" width="2.73046875" style="5" customWidth="1"/>
+    <col min="9207" max="9209" width="7.265625" style="5" customWidth="1"/>
+    <col min="9210" max="9210" width="7" style="5" customWidth="1"/>
+    <col min="9211" max="9213" width="7.265625" style="5" customWidth="1"/>
+    <col min="9214" max="9214" width="10.59765625" style="5" customWidth="1"/>
+    <col min="9215" max="9215" width="7.265625" style="5" customWidth="1"/>
+    <col min="9216" max="9458" width="9.1328125" style="5"/>
+    <col min="9459" max="9459" width="5.73046875" style="5" customWidth="1"/>
+    <col min="9460" max="9461" width="9.1328125" style="5"/>
+    <col min="9462" max="9462" width="2.73046875" style="5" customWidth="1"/>
+    <col min="9463" max="9465" width="7.265625" style="5" customWidth="1"/>
+    <col min="9466" max="9466" width="7" style="5" customWidth="1"/>
+    <col min="9467" max="9469" width="7.265625" style="5" customWidth="1"/>
+    <col min="9470" max="9470" width="10.59765625" style="5" customWidth="1"/>
+    <col min="9471" max="9471" width="7.265625" style="5" customWidth="1"/>
+    <col min="9472" max="9714" width="9.1328125" style="5"/>
+    <col min="9715" max="9715" width="5.73046875" style="5" customWidth="1"/>
+    <col min="9716" max="9717" width="9.1328125" style="5"/>
+    <col min="9718" max="9718" width="2.73046875" style="5" customWidth="1"/>
+    <col min="9719" max="9721" width="7.265625" style="5" customWidth="1"/>
+    <col min="9722" max="9722" width="7" style="5" customWidth="1"/>
+    <col min="9723" max="9725" width="7.265625" style="5" customWidth="1"/>
+    <col min="9726" max="9726" width="10.59765625" style="5" customWidth="1"/>
+    <col min="9727" max="9727" width="7.265625" style="5" customWidth="1"/>
+    <col min="9728" max="9970" width="9.1328125" style="5"/>
+    <col min="9971" max="9971" width="5.73046875" style="5" customWidth="1"/>
+    <col min="9972" max="9973" width="9.1328125" style="5"/>
+    <col min="9974" max="9974" width="2.73046875" style="5" customWidth="1"/>
+    <col min="9975" max="9977" width="7.265625" style="5" customWidth="1"/>
+    <col min="9978" max="9978" width="7" style="5" customWidth="1"/>
+    <col min="9979" max="9981" width="7.265625" style="5" customWidth="1"/>
+    <col min="9982" max="9982" width="10.59765625" style="5" customWidth="1"/>
+    <col min="9983" max="9983" width="7.265625" style="5" customWidth="1"/>
+    <col min="9984" max="10226" width="9.1328125" style="5"/>
+    <col min="10227" max="10227" width="5.73046875" style="5" customWidth="1"/>
+    <col min="10228" max="10229" width="9.1328125" style="5"/>
+    <col min="10230" max="10230" width="2.73046875" style="5" customWidth="1"/>
+    <col min="10231" max="10233" width="7.265625" style="5" customWidth="1"/>
+    <col min="10234" max="10234" width="7" style="5" customWidth="1"/>
+    <col min="10235" max="10237" width="7.265625" style="5" customWidth="1"/>
+    <col min="10238" max="10238" width="10.59765625" style="5" customWidth="1"/>
+    <col min="10239" max="10239" width="7.265625" style="5" customWidth="1"/>
+    <col min="10240" max="10482" width="9.1328125" style="5"/>
+    <col min="10483" max="10483" width="5.73046875" style="5" customWidth="1"/>
+    <col min="10484" max="10485" width="9.1328125" style="5"/>
+    <col min="10486" max="10486" width="2.73046875" style="5" customWidth="1"/>
+    <col min="10487" max="10489" width="7.265625" style="5" customWidth="1"/>
+    <col min="10490" max="10490" width="7" style="5" customWidth="1"/>
+    <col min="10491" max="10493" width="7.265625" style="5" customWidth="1"/>
+    <col min="10494" max="10494" width="10.59765625" style="5" customWidth="1"/>
+    <col min="10495" max="10495" width="7.265625" style="5" customWidth="1"/>
+    <col min="10496" max="10738" width="9.1328125" style="5"/>
+    <col min="10739" max="10739" width="5.73046875" style="5" customWidth="1"/>
+    <col min="10740" max="10741" width="9.1328125" style="5"/>
+    <col min="10742" max="10742" width="2.73046875" style="5" customWidth="1"/>
+    <col min="10743" max="10745" width="7.265625" style="5" customWidth="1"/>
+    <col min="10746" max="10746" width="7" style="5" customWidth="1"/>
+    <col min="10747" max="10749" width="7.265625" style="5" customWidth="1"/>
+    <col min="10750" max="10750" width="10.59765625" style="5" customWidth="1"/>
+    <col min="10751" max="10751" width="7.265625" style="5" customWidth="1"/>
+    <col min="10752" max="10994" width="9.1328125" style="5"/>
+    <col min="10995" max="10995" width="5.73046875" style="5" customWidth="1"/>
+    <col min="10996" max="10997" width="9.1328125" style="5"/>
+    <col min="10998" max="10998" width="2.73046875" style="5" customWidth="1"/>
+    <col min="10999" max="11001" width="7.265625" style="5" customWidth="1"/>
+    <col min="11002" max="11002" width="7" style="5" customWidth="1"/>
+    <col min="11003" max="11005" width="7.265625" style="5" customWidth="1"/>
+    <col min="11006" max="11006" width="10.59765625" style="5" customWidth="1"/>
+    <col min="11007" max="11007" width="7.265625" style="5" customWidth="1"/>
+    <col min="11008" max="11250" width="9.1328125" style="5"/>
+    <col min="11251" max="11251" width="5.73046875" style="5" customWidth="1"/>
+    <col min="11252" max="11253" width="9.1328125" style="5"/>
+    <col min="11254" max="11254" width="2.73046875" style="5" customWidth="1"/>
+    <col min="11255" max="11257" width="7.265625" style="5" customWidth="1"/>
+    <col min="11258" max="11258" width="7" style="5" customWidth="1"/>
+    <col min="11259" max="11261" width="7.265625" style="5" customWidth="1"/>
+    <col min="11262" max="11262" width="10.59765625" style="5" customWidth="1"/>
+    <col min="11263" max="11263" width="7.265625" style="5" customWidth="1"/>
+    <col min="11264" max="11506" width="9.1328125" style="5"/>
+    <col min="11507" max="11507" width="5.73046875" style="5" customWidth="1"/>
+    <col min="11508" max="11509" width="9.1328125" style="5"/>
+    <col min="11510" max="11510" width="2.73046875" style="5" customWidth="1"/>
+    <col min="11511" max="11513" width="7.265625" style="5" customWidth="1"/>
+    <col min="11514" max="11514" width="7" style="5" customWidth="1"/>
+    <col min="11515" max="11517" width="7.265625" style="5" customWidth="1"/>
+    <col min="11518" max="11518" width="10.59765625" style="5" customWidth="1"/>
+    <col min="11519" max="11519" width="7.265625" style="5" customWidth="1"/>
+    <col min="11520" max="11762" width="9.1328125" style="5"/>
+    <col min="11763" max="11763" width="5.73046875" style="5" customWidth="1"/>
+    <col min="11764" max="11765" width="9.1328125" style="5"/>
+    <col min="11766" max="11766" width="2.73046875" style="5" customWidth="1"/>
+    <col min="11767" max="11769" width="7.265625" style="5" customWidth="1"/>
+    <col min="11770" max="11770" width="7" style="5" customWidth="1"/>
+    <col min="11771" max="11773" width="7.265625" style="5" customWidth="1"/>
+    <col min="11774" max="11774" width="10.59765625" style="5" customWidth="1"/>
+    <col min="11775" max="11775" width="7.265625" style="5" customWidth="1"/>
+    <col min="11776" max="12018" width="9.1328125" style="5"/>
+    <col min="12019" max="12019" width="5.73046875" style="5" customWidth="1"/>
+    <col min="12020" max="12021" width="9.1328125" style="5"/>
+    <col min="12022" max="12022" width="2.73046875" style="5" customWidth="1"/>
+    <col min="12023" max="12025" width="7.265625" style="5" customWidth="1"/>
+    <col min="12026" max="12026" width="7" style="5" customWidth="1"/>
+    <col min="12027" max="12029" width="7.265625" style="5" customWidth="1"/>
+    <col min="12030" max="12030" width="10.59765625" style="5" customWidth="1"/>
+    <col min="12031" max="12031" width="7.265625" style="5" customWidth="1"/>
+    <col min="12032" max="12274" width="9.1328125" style="5"/>
+    <col min="12275" max="12275" width="5.73046875" style="5" customWidth="1"/>
+    <col min="12276" max="12277" width="9.1328125" style="5"/>
+    <col min="12278" max="12278" width="2.73046875" style="5" customWidth="1"/>
+    <col min="12279" max="12281" width="7.265625" style="5" customWidth="1"/>
+    <col min="12282" max="12282" width="7" style="5" customWidth="1"/>
+    <col min="12283" max="12285" width="7.265625" style="5" customWidth="1"/>
+    <col min="12286" max="12286" width="10.59765625" style="5" customWidth="1"/>
+    <col min="12287" max="12287" width="7.265625" style="5" customWidth="1"/>
+    <col min="12288" max="12530" width="9.1328125" style="5"/>
+    <col min="12531" max="12531" width="5.73046875" style="5" customWidth="1"/>
+    <col min="12532" max="12533" width="9.1328125" style="5"/>
+    <col min="12534" max="12534" width="2.73046875" style="5" customWidth="1"/>
+    <col min="12535" max="12537" width="7.265625" style="5" customWidth="1"/>
+    <col min="12538" max="12538" width="7" style="5" customWidth="1"/>
+    <col min="12539" max="12541" width="7.265625" style="5" customWidth="1"/>
+    <col min="12542" max="12542" width="10.59765625" style="5" customWidth="1"/>
+    <col min="12543" max="12543" width="7.265625" style="5" customWidth="1"/>
+    <col min="12544" max="12786" width="9.1328125" style="5"/>
+    <col min="12787" max="12787" width="5.73046875" style="5" customWidth="1"/>
+    <col min="12788" max="12789" width="9.1328125" style="5"/>
+    <col min="12790" max="12790" width="2.73046875" style="5" customWidth="1"/>
+    <col min="12791" max="12793" width="7.265625" style="5" customWidth="1"/>
+    <col min="12794" max="12794" width="7" style="5" customWidth="1"/>
+    <col min="12795" max="12797" width="7.265625" style="5" customWidth="1"/>
+    <col min="12798" max="12798" width="10.59765625" style="5" customWidth="1"/>
+    <col min="12799" max="12799" width="7.265625" style="5" customWidth="1"/>
+    <col min="12800" max="13042" width="9.1328125" style="5"/>
+    <col min="13043" max="13043" width="5.73046875" style="5" customWidth="1"/>
+    <col min="13044" max="13045" width="9.1328125" style="5"/>
+    <col min="13046" max="13046" width="2.73046875" style="5" customWidth="1"/>
+    <col min="13047" max="13049" width="7.265625" style="5" customWidth="1"/>
+    <col min="13050" max="13050" width="7" style="5" customWidth="1"/>
+    <col min="13051" max="13053" width="7.265625" style="5" customWidth="1"/>
+    <col min="13054" max="13054" width="10.59765625" style="5" customWidth="1"/>
+    <col min="13055" max="13055" width="7.265625" style="5" customWidth="1"/>
+    <col min="13056" max="13298" width="9.1328125" style="5"/>
+    <col min="13299" max="13299" width="5.73046875" style="5" customWidth="1"/>
+    <col min="13300" max="13301" width="9.1328125" style="5"/>
+    <col min="13302" max="13302" width="2.73046875" style="5" customWidth="1"/>
+    <col min="13303" max="13305" width="7.265625" style="5" customWidth="1"/>
+    <col min="13306" max="13306" width="7" style="5" customWidth="1"/>
+    <col min="13307" max="13309" width="7.265625" style="5" customWidth="1"/>
+    <col min="13310" max="13310" width="10.59765625" style="5" customWidth="1"/>
+    <col min="13311" max="13311" width="7.265625" style="5" customWidth="1"/>
+    <col min="13312" max="13554" width="9.1328125" style="5"/>
+    <col min="13555" max="13555" width="5.73046875" style="5" customWidth="1"/>
+    <col min="13556" max="13557" width="9.1328125" style="5"/>
+    <col min="13558" max="13558" width="2.73046875" style="5" customWidth="1"/>
+    <col min="13559" max="13561" width="7.265625" style="5" customWidth="1"/>
+    <col min="13562" max="13562" width="7" style="5" customWidth="1"/>
+    <col min="13563" max="13565" width="7.265625" style="5" customWidth="1"/>
+    <col min="13566" max="13566" width="10.59765625" style="5" customWidth="1"/>
+    <col min="13567" max="13567" width="7.265625" style="5" customWidth="1"/>
+    <col min="13568" max="13810" width="9.1328125" style="5"/>
+    <col min="13811" max="13811" width="5.73046875" style="5" customWidth="1"/>
+    <col min="13812" max="13813" width="9.1328125" style="5"/>
+    <col min="13814" max="13814" width="2.73046875" style="5" customWidth="1"/>
+    <col min="13815" max="13817" width="7.265625" style="5" customWidth="1"/>
+    <col min="13818" max="13818" width="7" style="5" customWidth="1"/>
+    <col min="13819" max="13821" width="7.265625" style="5" customWidth="1"/>
+    <col min="13822" max="13822" width="10.59765625" style="5" customWidth="1"/>
+    <col min="13823" max="13823" width="7.265625" style="5" customWidth="1"/>
+    <col min="13824" max="14066" width="9.1328125" style="5"/>
+    <col min="14067" max="14067" width="5.73046875" style="5" customWidth="1"/>
+    <col min="14068" max="14069" width="9.1328125" style="5"/>
+    <col min="14070" max="14070" width="2.73046875" style="5" customWidth="1"/>
+    <col min="14071" max="14073" width="7.265625" style="5" customWidth="1"/>
+    <col min="14074" max="14074" width="7" style="5" customWidth="1"/>
+    <col min="14075" max="14077" width="7.265625" style="5" customWidth="1"/>
+    <col min="14078" max="14078" width="10.59765625" style="5" customWidth="1"/>
+    <col min="14079" max="14079" width="7.265625" style="5" customWidth="1"/>
+    <col min="14080" max="14322" width="9.1328125" style="5"/>
+    <col min="14323" max="14323" width="5.73046875" style="5" customWidth="1"/>
+    <col min="14324" max="14325" width="9.1328125" style="5"/>
+    <col min="14326" max="14326" width="2.73046875" style="5" customWidth="1"/>
+    <col min="14327" max="14329" width="7.265625" style="5" customWidth="1"/>
+    <col min="14330" max="14330" width="7" style="5" customWidth="1"/>
+    <col min="14331" max="14333" width="7.265625" style="5" customWidth="1"/>
+    <col min="14334" max="14334" width="10.59765625" style="5" customWidth="1"/>
+    <col min="14335" max="14335" width="7.265625" style="5" customWidth="1"/>
+    <col min="14336" max="14578" width="9.1328125" style="5"/>
+    <col min="14579" max="14579" width="5.73046875" style="5" customWidth="1"/>
+    <col min="14580" max="14581" width="9.1328125" style="5"/>
+    <col min="14582" max="14582" width="2.73046875" style="5" customWidth="1"/>
+    <col min="14583" max="14585" width="7.265625" style="5" customWidth="1"/>
+    <col min="14586" max="14586" width="7" style="5" customWidth="1"/>
+    <col min="14587" max="14589" width="7.265625" style="5" customWidth="1"/>
+    <col min="14590" max="14590" width="10.59765625" style="5" customWidth="1"/>
+    <col min="14591" max="14591" width="7.265625" style="5" customWidth="1"/>
+    <col min="14592" max="14834" width="9.1328125" style="5"/>
+    <col min="14835" max="14835" width="5.73046875" style="5" customWidth="1"/>
+    <col min="14836" max="14837" width="9.1328125" style="5"/>
+    <col min="14838" max="14838" width="2.73046875" style="5" customWidth="1"/>
+    <col min="14839" max="14841" width="7.265625" style="5" customWidth="1"/>
+    <col min="14842" max="14842" width="7" style="5" customWidth="1"/>
+    <col min="14843" max="14845" width="7.265625" style="5" customWidth="1"/>
+    <col min="14846" max="14846" width="10.59765625" style="5" customWidth="1"/>
+    <col min="14847" max="14847" width="7.265625" style="5" customWidth="1"/>
+    <col min="14848" max="15090" width="9.1328125" style="5"/>
+    <col min="15091" max="15091" width="5.73046875" style="5" customWidth="1"/>
+    <col min="15092" max="15093" width="9.1328125" style="5"/>
+    <col min="15094" max="15094" width="2.73046875" style="5" customWidth="1"/>
+    <col min="15095" max="15097" width="7.265625" style="5" customWidth="1"/>
+    <col min="15098" max="15098" width="7" style="5" customWidth="1"/>
+    <col min="15099" max="15101" width="7.265625" style="5" customWidth="1"/>
+    <col min="15102" max="15102" width="10.59765625" style="5" customWidth="1"/>
+    <col min="15103" max="15103" width="7.265625" style="5" customWidth="1"/>
+    <col min="15104" max="15346" width="9.1328125" style="5"/>
+    <col min="15347" max="15347" width="5.73046875" style="5" customWidth="1"/>
+    <col min="15348" max="15349" width="9.1328125" style="5"/>
+    <col min="15350" max="15350" width="2.73046875" style="5" customWidth="1"/>
+    <col min="15351" max="15353" width="7.265625" style="5" customWidth="1"/>
+    <col min="15354" max="15354" width="7" style="5" customWidth="1"/>
+    <col min="15355" max="15357" width="7.265625" style="5" customWidth="1"/>
+    <col min="15358" max="15358" width="10.59765625" style="5" customWidth="1"/>
+    <col min="15359" max="15359" width="7.265625" style="5" customWidth="1"/>
+    <col min="15360" max="15602" width="9.1328125" style="5"/>
+    <col min="15603" max="15603" width="5.73046875" style="5" customWidth="1"/>
+    <col min="15604" max="15605" width="9.1328125" style="5"/>
+    <col min="15606" max="15606" width="2.73046875" style="5" customWidth="1"/>
+    <col min="15607" max="15609" width="7.265625" style="5" customWidth="1"/>
+    <col min="15610" max="15610" width="7" style="5" customWidth="1"/>
+    <col min="15611" max="15613" width="7.265625" style="5" customWidth="1"/>
+    <col min="15614" max="15614" width="10.59765625" style="5" customWidth="1"/>
+    <col min="15615" max="15615" width="7.265625" style="5" customWidth="1"/>
+    <col min="15616" max="15858" width="9.1328125" style="5"/>
+    <col min="15859" max="15859" width="5.73046875" style="5" customWidth="1"/>
+    <col min="15860" max="15861" width="9.1328125" style="5"/>
+    <col min="15862" max="15862" width="2.73046875" style="5" customWidth="1"/>
+    <col min="15863" max="15865" width="7.265625" style="5" customWidth="1"/>
+    <col min="15866" max="15866" width="7" style="5" customWidth="1"/>
+    <col min="15867" max="15869" width="7.265625" style="5" customWidth="1"/>
+    <col min="15870" max="15870" width="10.59765625" style="5" customWidth="1"/>
+    <col min="15871" max="15871" width="7.265625" style="5" customWidth="1"/>
+    <col min="15872" max="16114" width="9.1328125" style="5"/>
+    <col min="16115" max="16115" width="5.73046875" style="5" customWidth="1"/>
+    <col min="16116" max="16117" width="9.1328125" style="5"/>
+    <col min="16118" max="16118" width="2.73046875" style="5" customWidth="1"/>
+    <col min="16119" max="16121" width="7.265625" style="5" customWidth="1"/>
+    <col min="16122" max="16122" width="7" style="5" customWidth="1"/>
+    <col min="16123" max="16125" width="7.265625" style="5" customWidth="1"/>
+    <col min="16126" max="16126" width="10.59765625" style="5" customWidth="1"/>
+    <col min="16127" max="16127" width="7.265625" style="5" customWidth="1"/>
+    <col min="16128" max="16384" width="9.1328125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="410" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="410"/>
+      <c r="C2" s="410"/>
+      <c r="D2" s="410"/>
+      <c r="E2" s="410"/>
+      <c r="F2" s="410"/>
+      <c r="G2" s="410"/>
+      <c r="H2" s="410"/>
+      <c r="I2" s="410"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+    </row>
+    <row r="3" spans="1:12" s="113" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" s="113" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" s="113" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="367"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="367"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" s="113" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="367"/>
+      <c r="D6" s="367"/>
+      <c r="E6" s="367"/>
+      <c r="F6" s="367"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="304"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="304"/>
+      <c r="F7" s="304"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="368"/>
+      <c r="D8" s="368"/>
+      <c r="E8" s="368"/>
+      <c r="F8" s="368"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="367"/>
+      <c r="D9" s="367"/>
+      <c r="E9" s="367"/>
+      <c r="F9" s="367"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="113"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="367"/>
+      <c r="D10" s="367"/>
+      <c r="E10" s="367"/>
+      <c r="F10" s="367"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="406"/>
+      <c r="K10" s="406"/>
+      <c r="L10" s="152"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+    </row>
+    <row r="13" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="254" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="255" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="411" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="412"/>
+      <c r="F13" s="255" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="255" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="305" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="257" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="415" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="416"/>
+      <c r="L13" s="150"/>
+    </row>
+    <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="274"/>
+      <c r="C14" s="275"/>
+      <c r="D14" s="413"/>
+      <c r="E14" s="414"/>
+      <c r="F14" s="275"/>
+      <c r="G14" s="419"/>
+      <c r="H14" s="420"/>
+      <c r="I14" s="277">
+        <f>SUM(B14:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="417">
+        <f>I14/4</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="418"/>
+      <c r="L14" s="150"/>
+    </row>
+    <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K15" s="252"/>
+      <c r="L15" s="150"/>
+    </row>
+    <row r="16" spans="1:12" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="253" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="300" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="407" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="408"/>
+      <c r="D17" s="408"/>
+      <c r="E17" s="408"/>
+      <c r="F17" s="408"/>
+      <c r="G17" s="408"/>
+      <c r="H17" s="408"/>
+      <c r="I17" s="409"/>
+      <c r="J17" s="148" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="238">
+        <f>J14</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="149">
+        <f>K17*0.4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="313" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="385" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="386"/>
+      <c r="D18" s="386"/>
+      <c r="E18" s="386"/>
+      <c r="F18" s="386"/>
+      <c r="G18" s="386"/>
+      <c r="H18" s="386"/>
+      <c r="I18" s="386"/>
+      <c r="J18" s="148" t="s">
+        <v>136</v>
+      </c>
+      <c r="K18" s="270"/>
+      <c r="L18" s="147">
+        <f>K18*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="314"/>
+      <c r="B19" s="387" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="388"/>
+      <c r="D19" s="388"/>
+      <c r="E19" s="388"/>
+      <c r="F19" s="388"/>
+      <c r="G19" s="388"/>
+      <c r="H19" s="388"/>
+      <c r="I19" s="388"/>
+      <c r="J19" s="146" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" s="271"/>
+      <c r="L19" s="145">
+        <f>K19*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="53">
+        <f>SUM(L17:L19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="21"/>
+      <c r="B22" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="278"/>
+    </row>
+    <row r="23" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="57">
+        <f>SUM(L17:L19)-L22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+    </row>
+    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="239"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="239" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="239"/>
+      <c r="J28" s="239"/>
+      <c r="K28" s="240"/>
+      <c r="L28" s="239"/>
+    </row>
+    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F31" s="59"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="144"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F32" s="59"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="144"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8462,8 +10031,8 @@
         <v>4</v>
       </c>
       <c r="B3" s="160"/>
-      <c r="C3" s="356"/>
-      <c r="D3" s="356"/>
+      <c r="C3" s="307"/>
+      <c r="D3" s="307"/>
       <c r="E3" s="283"/>
       <c r="F3" s="283"/>
       <c r="H3" s="155"/>
@@ -8479,10 +10048,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="136"/>
-      <c r="C4" s="355"/>
-      <c r="D4" s="355"/>
-      <c r="E4" s="355"/>
-      <c r="F4" s="355"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="306"/>
+      <c r="F4" s="306"/>
       <c r="H4" s="155"/>
       <c r="I4" s="156" t="s">
         <v>11</v>
@@ -8496,10 +10065,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="355"/>
-      <c r="D5" s="355"/>
-      <c r="E5" s="355"/>
-      <c r="F5" s="355"/>
+      <c r="C5" s="306"/>
+      <c r="D5" s="306"/>
+      <c r="E5" s="306"/>
+      <c r="F5" s="306"/>
       <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8522,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="160"/>
-      <c r="C7" s="355"/>
-      <c r="D7" s="355"/>
-      <c r="E7" s="355"/>
-      <c r="F7" s="355"/>
+      <c r="C7" s="306"/>
+      <c r="D7" s="306"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="306"/>
       <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8533,10 +10102,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="136"/>
-      <c r="C8" s="355"/>
-      <c r="D8" s="355"/>
-      <c r="E8" s="355"/>
-      <c r="F8" s="355"/>
+      <c r="C8" s="306"/>
+      <c r="D8" s="306"/>
+      <c r="E8" s="306"/>
+      <c r="F8" s="306"/>
       <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8544,10 +10113,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="355"/>
-      <c r="D9" s="355"/>
-      <c r="E9" s="355"/>
-      <c r="F9" s="355"/>
+      <c r="C9" s="306"/>
+      <c r="D9" s="306"/>
+      <c r="E9" s="306"/>
+      <c r="F9" s="306"/>
       <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8562,86 +10131,86 @@
       <c r="D11" s="286"/>
       <c r="E11" s="286"/>
       <c r="F11" s="286"/>
-      <c r="H11" s="330" t="s">
+      <c r="H11" s="308" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="331"/>
-      <c r="J11" s="332" t="s">
+      <c r="I11" s="309"/>
+      <c r="J11" s="310" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="333"/>
-      <c r="L11" s="334"/>
+      <c r="K11" s="311"/>
+      <c r="L11" s="312"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="335" t="s">
+      <c r="A12" s="313" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="339" t="s">
+      <c r="B12" s="317" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="340"/>
-      <c r="D12" s="340"/>
-      <c r="E12" s="340"/>
-      <c r="F12" s="340"/>
-      <c r="G12" s="340"/>
-      <c r="H12" s="343"/>
-      <c r="I12" s="344"/>
-      <c r="J12" s="349" t="s">
+      <c r="C12" s="318"/>
+      <c r="D12" s="318"/>
+      <c r="E12" s="318"/>
+      <c r="F12" s="318"/>
+      <c r="G12" s="318"/>
+      <c r="H12" s="321"/>
+      <c r="I12" s="322"/>
+      <c r="J12" s="327" t="s">
         <v>170</v>
       </c>
-      <c r="K12" s="351">
+      <c r="K12" s="330">
         <f>SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
-      <c r="L12" s="319">
+      <c r="L12" s="333">
         <f>ROUND(K12*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="336"/>
-      <c r="B13" s="341"/>
-      <c r="C13" s="342"/>
-      <c r="D13" s="342"/>
-      <c r="E13" s="342"/>
-      <c r="F13" s="342"/>
-      <c r="G13" s="342"/>
-      <c r="H13" s="345"/>
-      <c r="I13" s="346"/>
+      <c r="A13" s="314"/>
+      <c r="B13" s="319"/>
+      <c r="C13" s="320"/>
+      <c r="D13" s="320"/>
+      <c r="E13" s="320"/>
+      <c r="F13" s="320"/>
+      <c r="G13" s="320"/>
+      <c r="H13" s="323"/>
+      <c r="I13" s="324"/>
       <c r="J13" s="328"/>
-      <c r="K13" s="352"/>
-      <c r="L13" s="320"/>
+      <c r="K13" s="331"/>
+      <c r="L13" s="334"/>
     </row>
     <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="336"/>
-      <c r="B14" s="341"/>
-      <c r="C14" s="342"/>
-      <c r="D14" s="342"/>
-      <c r="E14" s="342"/>
-      <c r="F14" s="342"/>
-      <c r="G14" s="342"/>
-      <c r="H14" s="345"/>
-      <c r="I14" s="346"/>
+      <c r="A14" s="314"/>
+      <c r="B14" s="319"/>
+      <c r="C14" s="320"/>
+      <c r="D14" s="320"/>
+      <c r="E14" s="320"/>
+      <c r="F14" s="320"/>
+      <c r="G14" s="320"/>
+      <c r="H14" s="323"/>
+      <c r="I14" s="324"/>
       <c r="J14" s="328"/>
-      <c r="K14" s="352"/>
-      <c r="L14" s="320"/>
+      <c r="K14" s="331"/>
+      <c r="L14" s="334"/>
     </row>
     <row r="15" spans="1:12" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="336"/>
-      <c r="B15" s="341"/>
-      <c r="C15" s="342"/>
-      <c r="D15" s="342"/>
-      <c r="E15" s="342"/>
-      <c r="F15" s="342"/>
-      <c r="G15" s="342"/>
-      <c r="H15" s="345"/>
-      <c r="I15" s="346"/>
+      <c r="A15" s="314"/>
+      <c r="B15" s="319"/>
+      <c r="C15" s="320"/>
+      <c r="D15" s="320"/>
+      <c r="E15" s="320"/>
+      <c r="F15" s="320"/>
+      <c r="G15" s="320"/>
+      <c r="H15" s="323"/>
+      <c r="I15" s="324"/>
       <c r="J15" s="328"/>
-      <c r="K15" s="352"/>
-      <c r="L15" s="320"/>
+      <c r="K15" s="331"/>
+      <c r="L15" s="334"/>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="337"/>
+      <c r="A16" s="315"/>
       <c r="B16" s="287" t="s">
         <v>171</v>
       </c>
@@ -8660,14 +10229,14 @@
       <c r="G16" s="290" t="s">
         <v>176</v>
       </c>
-      <c r="H16" s="345"/>
-      <c r="I16" s="346"/>
+      <c r="H16" s="323"/>
+      <c r="I16" s="324"/>
       <c r="J16" s="328"/>
-      <c r="K16" s="352"/>
-      <c r="L16" s="320"/>
+      <c r="K16" s="331"/>
+      <c r="L16" s="334"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="338"/>
+      <c r="A17" s="316"/>
       <c r="B17" s="291"/>
       <c r="C17" s="292">
         <v>0</v>
@@ -8676,67 +10245,67 @@
       <c r="E17" s="292"/>
       <c r="F17" s="292"/>
       <c r="G17" s="293"/>
-      <c r="H17" s="347"/>
-      <c r="I17" s="348"/>
-      <c r="J17" s="350"/>
-      <c r="K17" s="353"/>
-      <c r="L17" s="354"/>
+      <c r="H17" s="325"/>
+      <c r="I17" s="326"/>
+      <c r="J17" s="329"/>
+      <c r="K17" s="332"/>
+      <c r="L17" s="335"/>
     </row>
     <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="302" t="s">
+      <c r="A18" s="338" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="305" t="s">
+      <c r="B18" s="341" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="305"/>
-      <c r="D18" s="305"/>
-      <c r="E18" s="305"/>
-      <c r="F18" s="305"/>
-      <c r="G18" s="305"/>
-      <c r="H18" s="308"/>
-      <c r="I18" s="309"/>
-      <c r="J18" s="314" t="s">
+      <c r="C18" s="341"/>
+      <c r="D18" s="341"/>
+      <c r="E18" s="341"/>
+      <c r="F18" s="341"/>
+      <c r="G18" s="341"/>
+      <c r="H18" s="344"/>
+      <c r="I18" s="345"/>
+      <c r="J18" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="317">
+      <c r="K18" s="353">
         <v>0</v>
       </c>
-      <c r="L18" s="319">
+      <c r="L18" s="333">
         <f>IF(K18-K21 &gt;=0, (ROUND((K18-K21)*0.25,3)),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="303"/>
-      <c r="B19" s="306"/>
-      <c r="C19" s="306"/>
-      <c r="D19" s="306"/>
-      <c r="E19" s="306"/>
-      <c r="F19" s="306"/>
-      <c r="G19" s="306"/>
-      <c r="H19" s="310"/>
-      <c r="I19" s="311"/>
-      <c r="J19" s="315"/>
-      <c r="K19" s="318"/>
-      <c r="L19" s="320"/>
+      <c r="A19" s="339"/>
+      <c r="B19" s="342"/>
+      <c r="C19" s="342"/>
+      <c r="D19" s="342"/>
+      <c r="E19" s="342"/>
+      <c r="F19" s="342"/>
+      <c r="G19" s="342"/>
+      <c r="H19" s="346"/>
+      <c r="I19" s="347"/>
+      <c r="J19" s="351"/>
+      <c r="K19" s="354"/>
+      <c r="L19" s="334"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="303"/>
-      <c r="B20" s="307"/>
-      <c r="C20" s="307"/>
-      <c r="D20" s="307"/>
-      <c r="E20" s="307"/>
-      <c r="F20" s="307"/>
-      <c r="G20" s="306"/>
-      <c r="H20" s="310"/>
-      <c r="I20" s="311"/>
-      <c r="J20" s="315"/>
-      <c r="K20" s="318"/>
-      <c r="L20" s="320"/>
+      <c r="A20" s="339"/>
+      <c r="B20" s="343"/>
+      <c r="C20" s="343"/>
+      <c r="D20" s="343"/>
+      <c r="E20" s="343"/>
+      <c r="F20" s="343"/>
+      <c r="G20" s="342"/>
+      <c r="H20" s="346"/>
+      <c r="I20" s="347"/>
+      <c r="J20" s="351"/>
+      <c r="K20" s="354"/>
+      <c r="L20" s="334"/>
     </row>
     <row r="21" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="304"/>
+      <c r="A21" s="340"/>
       <c r="B21" s="294" t="s">
         <v>178</v>
       </c>
@@ -8747,42 +10316,42 @@
       <c r="E21" s="295"/>
       <c r="F21" s="295"/>
       <c r="G21" s="295"/>
-      <c r="H21" s="312"/>
-      <c r="I21" s="313"/>
-      <c r="J21" s="316"/>
+      <c r="H21" s="348"/>
+      <c r="I21" s="349"/>
+      <c r="J21" s="352"/>
       <c r="K21" s="296">
         <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="321"/>
+      <c r="L21" s="355"/>
     </row>
     <row r="22" spans="1:12" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="302" t="s">
+      <c r="A22" s="338" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="305" t="s">
+      <c r="B22" s="341" t="s">
         <v>179</v>
       </c>
-      <c r="C22" s="322"/>
-      <c r="D22" s="322"/>
-      <c r="E22" s="322"/>
-      <c r="F22" s="322"/>
-      <c r="G22" s="323"/>
-      <c r="H22" s="324"/>
-      <c r="I22" s="325"/>
+      <c r="C22" s="356"/>
+      <c r="D22" s="356"/>
+      <c r="E22" s="356"/>
+      <c r="F22" s="356"/>
+      <c r="G22" s="357"/>
+      <c r="H22" s="358"/>
+      <c r="I22" s="359"/>
       <c r="J22" s="328" t="s">
         <v>180</v>
       </c>
       <c r="K22" s="297">
         <v>0</v>
       </c>
-      <c r="L22" s="320">
+      <c r="L22" s="334">
         <f>IF((K22-K23)&gt;=0,(ROUND((K22-K23)*0.15,3)),0.000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="304"/>
+      <c r="A23" s="340"/>
       <c r="B23" s="298" t="s">
         <v>178</v>
       </c>
@@ -8797,14 +10366,14 @@
       </c>
       <c r="F23" s="295"/>
       <c r="G23" s="295"/>
-      <c r="H23" s="326"/>
-      <c r="I23" s="327"/>
-      <c r="J23" s="329"/>
+      <c r="H23" s="360"/>
+      <c r="I23" s="361"/>
+      <c r="J23" s="362"/>
       <c r="K23" s="296">
         <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="321"/>
+      <c r="L23" s="355"/>
     </row>
     <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="21"/>
@@ -8821,11 +10390,11 @@
         <v>3</v>
       </c>
       <c r="J25" s="23"/>
-      <c r="K25" s="300">
+      <c r="K25" s="336">
         <f>SUM(L12:L22)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="301"/>
+      <c r="L25" s="337"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8848,20 +10417,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:G15"/>
-    <mergeCell ref="H12:I17"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="K12:K17"/>
-    <mergeCell ref="L12:L17"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:G20"/>
@@ -8874,6 +10429,20 @@
     <mergeCell ref="H22:I23"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="L22:L23"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:G15"/>
+    <mergeCell ref="H12:I17"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="L12:L17"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
@@ -8958,10 +10527,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="357"/>
-      <c r="D5" s="357"/>
-      <c r="E5" s="357"/>
-      <c r="F5" s="357"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="H5" s="155"/>
       <c r="I5" s="156" t="s">
         <v>11</v>
@@ -8975,10 +10544,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="136"/>
-      <c r="C6" s="357"/>
-      <c r="D6" s="357"/>
-      <c r="E6" s="357"/>
-      <c r="F6" s="357"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9001,30 +10570,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="160"/>
-      <c r="C8" s="357"/>
-      <c r="D8" s="357"/>
-      <c r="E8" s="357"/>
-      <c r="F8" s="357"/>
+      <c r="C8" s="363"/>
+      <c r="D8" s="363"/>
+      <c r="E8" s="363"/>
+      <c r="F8" s="363"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="357"/>
-      <c r="D9" s="357"/>
-      <c r="E9" s="357"/>
-      <c r="F9" s="357"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="136" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="136"/>
-      <c r="C10" s="357"/>
-      <c r="D10" s="357"/>
-      <c r="E10" s="357"/>
-      <c r="F10" s="357"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9355,10 +10924,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="361"/>
-      <c r="D5" s="361"/>
-      <c r="E5" s="361"/>
-      <c r="F5" s="361"/>
+      <c r="C5" s="367"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="367"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -9372,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="361"/>
-      <c r="D6" s="361"/>
-      <c r="E6" s="361"/>
-      <c r="F6" s="361"/>
+      <c r="C6" s="367"/>
+      <c r="D6" s="367"/>
+      <c r="E6" s="367"/>
+      <c r="F6" s="367"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9398,30 +10967,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="362"/>
-      <c r="D8" s="362"/>
-      <c r="E8" s="362"/>
-      <c r="F8" s="362"/>
+      <c r="C8" s="368"/>
+      <c r="D8" s="368"/>
+      <c r="E8" s="368"/>
+      <c r="F8" s="368"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="361"/>
-      <c r="D9" s="361"/>
-      <c r="E9" s="361"/>
-      <c r="F9" s="361"/>
+      <c r="C9" s="367"/>
+      <c r="D9" s="367"/>
+      <c r="E9" s="367"/>
+      <c r="F9" s="367"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="361"/>
-      <c r="D10" s="361"/>
-      <c r="E10" s="361"/>
-      <c r="F10" s="361"/>
+      <c r="C10" s="367"/>
+      <c r="D10" s="367"/>
+      <c r="E10" s="367"/>
+      <c r="F10" s="367"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9557,13 +11126,13 @@
       <c r="L21" s="263"/>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="358" t="s">
+      <c r="A22" s="364" t="s">
         <v>181</v>
       </c>
-      <c r="B22" s="359"/>
-      <c r="C22" s="359"/>
-      <c r="D22" s="359"/>
-      <c r="E22" s="360"/>
+      <c r="B22" s="365"/>
+      <c r="C22" s="365"/>
+      <c r="D22" s="365"/>
+      <c r="E22" s="366"/>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
@@ -9759,10 +11328,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="361"/>
-      <c r="D5" s="361"/>
-      <c r="E5" s="361"/>
-      <c r="F5" s="361"/>
+      <c r="C5" s="367"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="367"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -9776,10 +11345,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="361"/>
-      <c r="D6" s="361"/>
-      <c r="E6" s="361"/>
-      <c r="F6" s="361"/>
+      <c r="C6" s="367"/>
+      <c r="D6" s="367"/>
+      <c r="E6" s="367"/>
+      <c r="F6" s="367"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9802,30 +11371,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="362"/>
-      <c r="D8" s="362"/>
-      <c r="E8" s="362"/>
-      <c r="F8" s="362"/>
+      <c r="C8" s="368"/>
+      <c r="D8" s="368"/>
+      <c r="E8" s="368"/>
+      <c r="F8" s="368"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="361"/>
-      <c r="D9" s="361"/>
-      <c r="E9" s="361"/>
-      <c r="F9" s="361"/>
+      <c r="C9" s="367"/>
+      <c r="D9" s="367"/>
+      <c r="E9" s="367"/>
+      <c r="F9" s="367"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="361"/>
-      <c r="D10" s="361"/>
-      <c r="E10" s="361"/>
-      <c r="F10" s="361"/>
+      <c r="C10" s="367"/>
+      <c r="D10" s="367"/>
+      <c r="E10" s="367"/>
+      <c r="F10" s="367"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10161,10 +11730,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="357"/>
-      <c r="D5" s="357"/>
-      <c r="E5" s="357"/>
-      <c r="F5" s="357"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="H5" s="155"/>
       <c r="I5" s="156" t="s">
         <v>11</v>
@@ -10178,10 +11747,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="136"/>
-      <c r="C6" s="357"/>
-      <c r="D6" s="357"/>
-      <c r="E6" s="357"/>
-      <c r="F6" s="357"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10204,30 +11773,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="160"/>
-      <c r="C8" s="363"/>
-      <c r="D8" s="363"/>
-      <c r="E8" s="363"/>
-      <c r="F8" s="363"/>
+      <c r="C8" s="369"/>
+      <c r="D8" s="369"/>
+      <c r="E8" s="369"/>
+      <c r="F8" s="369"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="357"/>
-      <c r="D9" s="357"/>
-      <c r="E9" s="357"/>
-      <c r="F9" s="357"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="136" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="136"/>
-      <c r="C10" s="357"/>
-      <c r="D10" s="357"/>
-      <c r="E10" s="357"/>
-      <c r="F10" s="357"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -11136,10 +12705,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="361"/>
-      <c r="D5" s="361"/>
-      <c r="E5" s="361"/>
-      <c r="F5" s="361"/>
+      <c r="C5" s="367"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="367"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -11153,10 +12722,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="361"/>
-      <c r="D6" s="361"/>
-      <c r="E6" s="361"/>
-      <c r="F6" s="361"/>
+      <c r="C6" s="367"/>
+      <c r="D6" s="367"/>
+      <c r="E6" s="367"/>
+      <c r="F6" s="367"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -11185,30 +12754,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="362"/>
-      <c r="D8" s="362"/>
-      <c r="E8" s="362"/>
-      <c r="F8" s="362"/>
+      <c r="C8" s="368"/>
+      <c r="D8" s="368"/>
+      <c r="E8" s="368"/>
+      <c r="F8" s="368"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="361"/>
-      <c r="D9" s="361"/>
-      <c r="E9" s="361"/>
-      <c r="F9" s="361"/>
+      <c r="C9" s="367"/>
+      <c r="D9" s="367"/>
+      <c r="E9" s="367"/>
+      <c r="F9" s="367"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="361"/>
-      <c r="D10" s="361"/>
-      <c r="E10" s="361"/>
-      <c r="F10" s="361"/>
+      <c r="C10" s="367"/>
+      <c r="D10" s="367"/>
+      <c r="E10" s="367"/>
+      <c r="F10" s="367"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -11228,32 +12797,32 @@
       <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="364"/>
-      <c r="B13" s="365"/>
-      <c r="C13" s="365"/>
-      <c r="D13" s="365"/>
-      <c r="E13" s="365"/>
-      <c r="F13" s="365"/>
-      <c r="G13" s="365"/>
-      <c r="H13" s="365"/>
-      <c r="I13" s="365"/>
-      <c r="J13" s="365"/>
-      <c r="K13" s="365"/>
-      <c r="L13" s="366"/>
+      <c r="A13" s="370"/>
+      <c r="B13" s="371"/>
+      <c r="C13" s="371"/>
+      <c r="D13" s="371"/>
+      <c r="E13" s="371"/>
+      <c r="F13" s="371"/>
+      <c r="G13" s="371"/>
+      <c r="H13" s="371"/>
+      <c r="I13" s="371"/>
+      <c r="J13" s="371"/>
+      <c r="K13" s="371"/>
+      <c r="L13" s="372"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="367"/>
-      <c r="B14" s="368"/>
-      <c r="C14" s="368"/>
-      <c r="D14" s="368"/>
-      <c r="E14" s="368"/>
-      <c r="F14" s="368"/>
-      <c r="G14" s="368"/>
-      <c r="H14" s="368"/>
-      <c r="I14" s="368"/>
-      <c r="J14" s="368"/>
-      <c r="K14" s="368"/>
-      <c r="L14" s="369"/>
+      <c r="A14" s="373"/>
+      <c r="B14" s="374"/>
+      <c r="C14" s="374"/>
+      <c r="D14" s="374"/>
+      <c r="E14" s="374"/>
+      <c r="F14" s="374"/>
+      <c r="G14" s="374"/>
+      <c r="H14" s="374"/>
+      <c r="I14" s="374"/>
+      <c r="J14" s="374"/>
+      <c r="K14" s="374"/>
+      <c r="L14" s="375"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
@@ -12240,10 +13809,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="361"/>
-      <c r="D5" s="361"/>
-      <c r="E5" s="361"/>
-      <c r="F5" s="361"/>
+      <c r="C5" s="367"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="367"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -12257,10 +13826,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="361"/>
-      <c r="D6" s="361"/>
-      <c r="E6" s="361"/>
-      <c r="F6" s="361"/>
+      <c r="C6" s="367"/>
+      <c r="D6" s="367"/>
+      <c r="E6" s="367"/>
+      <c r="F6" s="367"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -12289,30 +13858,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="362"/>
-      <c r="D8" s="362"/>
-      <c r="E8" s="362"/>
-      <c r="F8" s="362"/>
+      <c r="C8" s="368"/>
+      <c r="D8" s="368"/>
+      <c r="E8" s="368"/>
+      <c r="F8" s="368"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="361"/>
-      <c r="D9" s="361"/>
-      <c r="E9" s="361"/>
-      <c r="F9" s="361"/>
+      <c r="C9" s="367"/>
+      <c r="D9" s="367"/>
+      <c r="E9" s="367"/>
+      <c r="F9" s="367"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="361"/>
-      <c r="D10" s="361"/>
-      <c r="E10" s="361"/>
-      <c r="F10" s="361"/>
+      <c r="C10" s="367"/>
+      <c r="D10" s="367"/>
+      <c r="E10" s="367"/>
+      <c r="F10" s="367"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12332,32 +13901,32 @@
       <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="364"/>
-      <c r="B13" s="365"/>
-      <c r="C13" s="365"/>
-      <c r="D13" s="365"/>
-      <c r="E13" s="365"/>
-      <c r="F13" s="365"/>
-      <c r="G13" s="365"/>
-      <c r="H13" s="365"/>
-      <c r="I13" s="365"/>
-      <c r="J13" s="365"/>
-      <c r="K13" s="365"/>
-      <c r="L13" s="366"/>
+      <c r="A13" s="370"/>
+      <c r="B13" s="371"/>
+      <c r="C13" s="371"/>
+      <c r="D13" s="371"/>
+      <c r="E13" s="371"/>
+      <c r="F13" s="371"/>
+      <c r="G13" s="371"/>
+      <c r="H13" s="371"/>
+      <c r="I13" s="371"/>
+      <c r="J13" s="371"/>
+      <c r="K13" s="371"/>
+      <c r="L13" s="372"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="367"/>
-      <c r="B14" s="368"/>
-      <c r="C14" s="368"/>
-      <c r="D14" s="368"/>
-      <c r="E14" s="368"/>
-      <c r="F14" s="368"/>
-      <c r="G14" s="368"/>
-      <c r="H14" s="368"/>
-      <c r="I14" s="368"/>
-      <c r="J14" s="368"/>
-      <c r="K14" s="368"/>
-      <c r="L14" s="369"/>
+      <c r="A14" s="373"/>
+      <c r="B14" s="374"/>
+      <c r="C14" s="374"/>
+      <c r="D14" s="374"/>
+      <c r="E14" s="374"/>
+      <c r="F14" s="374"/>
+      <c r="G14" s="374"/>
+      <c r="H14" s="374"/>
+      <c r="I14" s="374"/>
+      <c r="J14" s="374"/>
+      <c r="K14" s="374"/>
+      <c r="L14" s="375"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
@@ -13280,10 +14849,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="361"/>
-      <c r="D5" s="361"/>
-      <c r="E5" s="361"/>
-      <c r="F5" s="361"/>
+      <c r="C5" s="367"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="367"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -13297,10 +14866,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="361"/>
-      <c r="D6" s="361"/>
-      <c r="E6" s="361"/>
-      <c r="F6" s="361"/>
+      <c r="C6" s="367"/>
+      <c r="D6" s="367"/>
+      <c r="E6" s="367"/>
+      <c r="F6" s="367"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -13329,30 +14898,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="362"/>
-      <c r="D8" s="362"/>
-      <c r="E8" s="362"/>
-      <c r="F8" s="362"/>
+      <c r="C8" s="368"/>
+      <c r="D8" s="368"/>
+      <c r="E8" s="368"/>
+      <c r="F8" s="368"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="361"/>
-      <c r="D9" s="361"/>
-      <c r="E9" s="361"/>
-      <c r="F9" s="361"/>
+      <c r="C9" s="367"/>
+      <c r="D9" s="367"/>
+      <c r="E9" s="367"/>
+      <c r="F9" s="367"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="361"/>
-      <c r="D10" s="361"/>
-      <c r="E10" s="361"/>
-      <c r="F10" s="361"/>
+      <c r="C10" s="367"/>
+      <c r="D10" s="367"/>
+      <c r="E10" s="367"/>
+      <c r="F10" s="367"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -13365,19 +14934,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="374" t="s">
+      <c r="A14" s="376" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="376" t="s">
+      <c r="B14" s="378" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="377"/>
-      <c r="D14" s="377"/>
-      <c r="E14" s="377"/>
-      <c r="F14" s="377"/>
-      <c r="G14" s="377"/>
-      <c r="H14" s="377"/>
-      <c r="I14" s="378"/>
+      <c r="C14" s="379"/>
+      <c r="D14" s="379"/>
+      <c r="E14" s="379"/>
+      <c r="F14" s="379"/>
+      <c r="G14" s="379"/>
+      <c r="H14" s="379"/>
+      <c r="I14" s="380"/>
       <c r="J14" s="18" t="s">
         <v>157</v>
       </c>
@@ -13388,17 +14957,17 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="375"/>
-      <c r="B15" s="379" t="s">
+      <c r="A15" s="377"/>
+      <c r="B15" s="381" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="380"/>
-      <c r="D15" s="380"/>
-      <c r="E15" s="380"/>
-      <c r="F15" s="380"/>
-      <c r="G15" s="380"/>
-      <c r="H15" s="380"/>
-      <c r="I15" s="380"/>
+      <c r="C15" s="382"/>
+      <c r="D15" s="382"/>
+      <c r="E15" s="382"/>
+      <c r="F15" s="382"/>
+      <c r="G15" s="382"/>
+      <c r="H15" s="382"/>
+      <c r="I15" s="382"/>
       <c r="J15" s="20" t="s">
         <v>158</v>
       </c>
@@ -13409,19 +14978,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="381" t="s">
+      <c r="A16" s="383" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="370" t="s">
+      <c r="B16" s="385" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="371"/>
-      <c r="D16" s="371"/>
-      <c r="E16" s="371"/>
-      <c r="F16" s="371"/>
-      <c r="G16" s="371"/>
-      <c r="H16" s="371"/>
-      <c r="I16" s="371"/>
+      <c r="C16" s="386"/>
+      <c r="D16" s="386"/>
+      <c r="E16" s="386"/>
+      <c r="F16" s="386"/>
+      <c r="G16" s="386"/>
+      <c r="H16" s="386"/>
+      <c r="I16" s="386"/>
       <c r="J16" s="18" t="s">
         <v>154</v>
       </c>
@@ -13432,17 +15001,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="382"/>
-      <c r="B17" s="372" t="s">
+      <c r="A17" s="384"/>
+      <c r="B17" s="387" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="373"/>
-      <c r="D17" s="373"/>
-      <c r="E17" s="373"/>
-      <c r="F17" s="373"/>
-      <c r="G17" s="373"/>
-      <c r="H17" s="373"/>
-      <c r="I17" s="373"/>
+      <c r="C17" s="388"/>
+      <c r="D17" s="388"/>
+      <c r="E17" s="388"/>
+      <c r="F17" s="388"/>
+      <c r="G17" s="388"/>
+      <c r="H17" s="388"/>
+      <c r="I17" s="388"/>
       <c r="J17" s="19" t="s">
         <v>159</v>
       </c>
@@ -13553,17 +15122,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13576,21 +15145,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13660,14 +15229,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -13678,6 +15239,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36A6316-7967-4152-BD71-22C76821E564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6783E5B1-67EC-4B99-B4AA-7EDBD2056315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="966" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="8820" windowWidth="29040" windowHeight="17640" tabRatio="966" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="37" r:id="rId1"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="185">
   <si>
     <t>Nation:</t>
   </si>
@@ -710,9 +710,6 @@
   </si>
   <si>
     <t>Individuell kür junior</t>
-  </si>
-  <si>
-    <t>Individuell kür senior</t>
   </si>
   <si>
     <t>Individuell kür minior</t>
@@ -2957,6 +2954,179 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2965,173 +3135,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3298,12 +3301,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3719,12 +3716,12 @@
     </row>
     <row r="4" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="242" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="279" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="279" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -3792,10 +3789,10 @@
         <v>83</v>
       </c>
       <c r="C18" s="209" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="209" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E18" s="216"/>
       <c r="F18" s="209" t="s">
@@ -3836,7 +3833,7 @@
         <v>83</v>
       </c>
       <c r="G20" s="209" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H20" s="209" t="s">
         <v>84</v>
@@ -3870,7 +3867,7 @@
         <v>83</v>
       </c>
       <c r="G22" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H22" s="209" t="s">
         <v>84</v>
@@ -3918,7 +3915,7 @@
         <v>83</v>
       </c>
       <c r="C25" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="209" t="s">
         <v>84</v>
@@ -3950,7 +3947,7 @@
         <v>83</v>
       </c>
       <c r="G27" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H27" s="209" t="s">
         <v>84</v>
@@ -4019,13 +4016,13 @@
         <v>83</v>
       </c>
       <c r="C33" s="209" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D33" s="209" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E33" s="209" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F33" s="209" t="s">
         <v>83</v>
@@ -4071,13 +4068,13 @@
         <v>83</v>
       </c>
       <c r="G35" s="209" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H35" s="209" t="s">
         <v>84</v>
       </c>
       <c r="I35" s="209" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4111,13 +4108,13 @@
         <v>83</v>
       </c>
       <c r="G37" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H37" s="209" t="s">
         <v>84</v>
       </c>
       <c r="I37" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4168,13 +4165,13 @@
         <v>83</v>
       </c>
       <c r="C40" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D40" s="209" t="s">
         <v>84</v>
       </c>
       <c r="E40" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -4203,13 +4200,13 @@
         <v>83</v>
       </c>
       <c r="G42" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H42" s="209" t="s">
         <v>84</v>
       </c>
       <c r="I42" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
@@ -4310,10 +4307,10 @@
         <v>83</v>
       </c>
       <c r="C50" s="209" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="209" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E50" s="216"/>
       <c r="F50" s="209" t="s">
@@ -4329,10 +4326,10 @@
         <v>83</v>
       </c>
       <c r="K50" s="209" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L50" s="209" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M50" s="216"/>
       <c r="N50" s="209" t="s">
@@ -4380,7 +4377,7 @@
         <v>83</v>
       </c>
       <c r="G52" s="209" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H52" s="209" t="s">
         <v>84</v>
@@ -4399,7 +4396,7 @@
         <v>83</v>
       </c>
       <c r="O52" s="209" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P52" s="209" t="s">
         <v>84</v>
@@ -4440,7 +4437,7 @@
         <v>83</v>
       </c>
       <c r="G54" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H54" s="209" t="s">
         <v>84</v>
@@ -4459,7 +4456,7 @@
         <v>83</v>
       </c>
       <c r="O54" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P54" s="209" t="s">
         <v>84</v>
@@ -4500,7 +4497,7 @@
         <v>83</v>
       </c>
       <c r="G56" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H56" s="209" t="s">
         <v>84</v>
@@ -4519,7 +4516,7 @@
         <v>83</v>
       </c>
       <c r="O56" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P56" s="209" t="s">
         <v>84</v>
@@ -4611,13 +4608,13 @@
         <v>83</v>
       </c>
       <c r="C63" s="209" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D63" s="209" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E63" s="209" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F63" s="209" t="s">
         <v>83</v>
@@ -4635,13 +4632,13 @@
         <v>83</v>
       </c>
       <c r="K63" s="209" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L63" s="209" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M63" s="209" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N63" s="209" t="s">
         <v>83</v>
@@ -4695,13 +4692,13 @@
         <v>83</v>
       </c>
       <c r="G65" s="209" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H65" s="209" t="s">
         <v>84</v>
       </c>
       <c r="I65" s="209" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J65" s="209" t="s">
         <v>83</v>
@@ -4719,13 +4716,13 @@
         <v>83</v>
       </c>
       <c r="O65" s="209" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P65" s="209" t="s">
         <v>84</v>
       </c>
       <c r="Q65" s="209" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4767,13 +4764,13 @@
         <v>83</v>
       </c>
       <c r="G67" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H67" s="209" t="s">
         <v>84</v>
       </c>
       <c r="I67" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J67" s="209" t="s">
         <v>83</v>
@@ -4791,13 +4788,13 @@
         <v>83</v>
       </c>
       <c r="O67" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P67" s="209" t="s">
         <v>84</v>
       </c>
       <c r="Q67" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4839,13 +4836,13 @@
         <v>83</v>
       </c>
       <c r="G69" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H69" s="209" t="s">
         <v>84</v>
       </c>
       <c r="I69" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J69" s="209" t="s">
         <v>83</v>
@@ -4863,13 +4860,13 @@
         <v>83</v>
       </c>
       <c r="O69" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P69" s="209" t="s">
         <v>84</v>
       </c>
       <c r="Q69" s="209" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="242" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
@@ -4928,7 +4925,7 @@
         <v>103</v>
       </c>
       <c r="D76" s="249" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E76" s="243" t="s">
         <v>105</v>
@@ -4948,7 +4945,7 @@
         <v>103</v>
       </c>
       <c r="D77" s="249" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E77" s="243" t="s">
         <v>105</v>
@@ -5061,7 +5058,7 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:I15"/>
     </sheetView>
   </sheetViews>
@@ -5696,10 +5693,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="367"/>
-      <c r="D5" s="367"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="367"/>
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="369"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -5713,10 +5710,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="367"/>
-      <c r="D6" s="367"/>
-      <c r="E6" s="367"/>
-      <c r="F6" s="367"/>
+      <c r="C6" s="369"/>
+      <c r="D6" s="369"/>
+      <c r="E6" s="369"/>
+      <c r="F6" s="369"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -5745,30 +5742,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="368"/>
-      <c r="D8" s="368"/>
-      <c r="E8" s="368"/>
-      <c r="F8" s="368"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="370"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="367"/>
-      <c r="D9" s="367"/>
-      <c r="E9" s="367"/>
-      <c r="F9" s="367"/>
+      <c r="C9" s="369"/>
+      <c r="D9" s="369"/>
+      <c r="E9" s="369"/>
+      <c r="F9" s="369"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="367"/>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367"/>
-      <c r="F10" s="367"/>
+      <c r="C10" s="369"/>
+      <c r="D10" s="369"/>
+      <c r="E10" s="369"/>
+      <c r="F10" s="369"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -5781,19 +5778,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="376" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="378" t="s">
+      <c r="A14" s="378" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="380" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="379"/>
-      <c r="D14" s="379"/>
-      <c r="E14" s="379"/>
-      <c r="F14" s="379"/>
-      <c r="G14" s="379"/>
-      <c r="H14" s="379"/>
-      <c r="I14" s="380"/>
+      <c r="C14" s="381"/>
+      <c r="D14" s="381"/>
+      <c r="E14" s="381"/>
+      <c r="F14" s="381"/>
+      <c r="G14" s="381"/>
+      <c r="H14" s="381"/>
+      <c r="I14" s="382"/>
       <c r="J14" s="18" t="s">
         <v>122</v>
       </c>
@@ -5806,17 +5803,17 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="389"/>
-      <c r="B15" s="381" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" s="382"/>
-      <c r="D15" s="382"/>
-      <c r="E15" s="382"/>
-      <c r="F15" s="382"/>
-      <c r="G15" s="382"/>
-      <c r="H15" s="382"/>
-      <c r="I15" s="382"/>
+      <c r="A15" s="391"/>
+      <c r="B15" s="383" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="384"/>
+      <c r="D15" s="384"/>
+      <c r="E15" s="384"/>
+      <c r="F15" s="384"/>
+      <c r="G15" s="384"/>
+      <c r="H15" s="384"/>
+      <c r="I15" s="384"/>
       <c r="J15" s="20" t="s">
         <v>123</v>
       </c>
@@ -5829,21 +5826,21 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="376" t="s">
-        <v>165</v>
-      </c>
-      <c r="B16" s="385" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="386"/>
-      <c r="D16" s="386"/>
-      <c r="E16" s="386"/>
-      <c r="F16" s="386"/>
-      <c r="G16" s="386"/>
-      <c r="H16" s="386"/>
-      <c r="I16" s="386"/>
+      <c r="A16" s="378" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="387" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="388"/>
+      <c r="D16" s="388"/>
+      <c r="E16" s="388"/>
+      <c r="F16" s="388"/>
+      <c r="G16" s="388"/>
+      <c r="H16" s="388"/>
+      <c r="I16" s="388"/>
       <c r="J16" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K16" s="270">
         <v>0</v>
@@ -5854,19 +5851,19 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="377"/>
-      <c r="B17" s="387" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="388"/>
-      <c r="D17" s="388"/>
-      <c r="E17" s="388"/>
-      <c r="F17" s="388"/>
-      <c r="G17" s="388"/>
-      <c r="H17" s="388"/>
-      <c r="I17" s="388"/>
+      <c r="A17" s="379"/>
+      <c r="B17" s="389" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="390"/>
+      <c r="D17" s="390"/>
+      <c r="E17" s="390"/>
+      <c r="F17" s="390"/>
+      <c r="G17" s="390"/>
+      <c r="H17" s="390"/>
+      <c r="I17" s="390"/>
       <c r="J17" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K17" s="271">
         <v>0</v>
@@ -6595,7 +6592,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
@@ -6639,10 +6636,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="367"/>
-      <c r="D5" s="367"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="367"/>
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="369"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -6656,10 +6653,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="367"/>
-      <c r="D6" s="367"/>
-      <c r="E6" s="367"/>
-      <c r="F6" s="367"/>
+      <c r="C6" s="369"/>
+      <c r="D6" s="369"/>
+      <c r="E6" s="369"/>
+      <c r="F6" s="369"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -6688,30 +6685,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="368"/>
-      <c r="D8" s="368"/>
-      <c r="E8" s="368"/>
-      <c r="F8" s="368"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="370"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="367"/>
-      <c r="D9" s="367"/>
-      <c r="E9" s="367"/>
-      <c r="F9" s="367"/>
+      <c r="C9" s="369"/>
+      <c r="D9" s="369"/>
+      <c r="E9" s="369"/>
+      <c r="F9" s="369"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="367"/>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367"/>
-      <c r="F10" s="367"/>
+      <c r="C10" s="369"/>
+      <c r="D10" s="369"/>
+      <c r="E10" s="369"/>
+      <c r="F10" s="369"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6724,19 +6721,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="376" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="378" t="s">
+      <c r="A14" s="378" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="380" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="379"/>
-      <c r="D14" s="379"/>
-      <c r="E14" s="379"/>
-      <c r="F14" s="379"/>
-      <c r="G14" s="379"/>
-      <c r="H14" s="379"/>
-      <c r="I14" s="380"/>
+      <c r="C14" s="381"/>
+      <c r="D14" s="381"/>
+      <c r="E14" s="381"/>
+      <c r="F14" s="381"/>
+      <c r="G14" s="381"/>
+      <c r="H14" s="381"/>
+      <c r="I14" s="382"/>
       <c r="J14" s="18" t="s">
         <v>122</v>
       </c>
@@ -6749,17 +6746,17 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="389"/>
-      <c r="B15" s="381" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" s="382"/>
-      <c r="D15" s="382"/>
-      <c r="E15" s="382"/>
-      <c r="F15" s="382"/>
-      <c r="G15" s="382"/>
-      <c r="H15" s="382"/>
-      <c r="I15" s="382"/>
+      <c r="A15" s="391"/>
+      <c r="B15" s="383" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="384"/>
+      <c r="D15" s="384"/>
+      <c r="E15" s="384"/>
+      <c r="F15" s="384"/>
+      <c r="G15" s="384"/>
+      <c r="H15" s="384"/>
+      <c r="I15" s="384"/>
       <c r="J15" s="20" t="s">
         <v>123</v>
       </c>
@@ -6772,21 +6769,21 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="376" t="s">
-        <v>165</v>
-      </c>
-      <c r="B16" s="385" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="386"/>
-      <c r="D16" s="386"/>
-      <c r="E16" s="386"/>
-      <c r="F16" s="386"/>
-      <c r="G16" s="386"/>
-      <c r="H16" s="386"/>
-      <c r="I16" s="386"/>
+      <c r="A16" s="378" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="387" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="388"/>
+      <c r="D16" s="388"/>
+      <c r="E16" s="388"/>
+      <c r="F16" s="388"/>
+      <c r="G16" s="388"/>
+      <c r="H16" s="388"/>
+      <c r="I16" s="388"/>
       <c r="J16" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K16" s="270">
         <v>0</v>
@@ -6797,19 +6794,19 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="377"/>
-      <c r="B17" s="387" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="388"/>
-      <c r="D17" s="388"/>
-      <c r="E17" s="388"/>
-      <c r="F17" s="388"/>
-      <c r="G17" s="388"/>
-      <c r="H17" s="388"/>
-      <c r="I17" s="388"/>
+      <c r="A17" s="379"/>
+      <c r="B17" s="389" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="390"/>
+      <c r="D17" s="390"/>
+      <c r="E17" s="390"/>
+      <c r="F17" s="390"/>
+      <c r="G17" s="390"/>
+      <c r="H17" s="390"/>
+      <c r="I17" s="390"/>
       <c r="J17" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K17" s="271">
         <v>0</v>
@@ -6920,17 +6917,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7014,10 +7011,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="367"/>
-      <c r="D5" s="367"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="367"/>
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="369"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -7031,10 +7028,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="367"/>
-      <c r="D6" s="367"/>
-      <c r="E6" s="367"/>
-      <c r="F6" s="367"/>
+      <c r="C6" s="369"/>
+      <c r="D6" s="369"/>
+      <c r="E6" s="369"/>
+      <c r="F6" s="369"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7057,30 +7054,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="368"/>
-      <c r="D8" s="368"/>
-      <c r="E8" s="368"/>
-      <c r="F8" s="368"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="370"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="367"/>
-      <c r="D9" s="367"/>
-      <c r="E9" s="367"/>
-      <c r="F9" s="367"/>
+      <c r="C9" s="369"/>
+      <c r="D9" s="369"/>
+      <c r="E9" s="369"/>
+      <c r="F9" s="369"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="367"/>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367"/>
-      <c r="F10" s="367"/>
+      <c r="C10" s="369"/>
+      <c r="D10" s="369"/>
+      <c r="E10" s="369"/>
+      <c r="F10" s="369"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7106,14 +7103,14 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="390" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="391"/>
-      <c r="C15" s="391"/>
-      <c r="D15" s="391"/>
-      <c r="E15" s="391"/>
-      <c r="F15" s="392"/>
+      <c r="A15" s="392" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="393"/>
+      <c r="C15" s="393"/>
+      <c r="D15" s="393"/>
+      <c r="E15" s="393"/>
+      <c r="F15" s="394"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="11"/>
@@ -7122,14 +7119,14 @@
       <c r="L15" s="263"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="390" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="391"/>
-      <c r="C16" s="391"/>
-      <c r="D16" s="391"/>
-      <c r="E16" s="391"/>
-      <c r="F16" s="392"/>
+      <c r="A16" s="392" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="393"/>
+      <c r="C16" s="393"/>
+      <c r="D16" s="393"/>
+      <c r="E16" s="393"/>
+      <c r="F16" s="394"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="11"/>
@@ -7139,7 +7136,7 @@
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="225" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" s="88"/>
       <c r="C17" s="88"/>
@@ -7190,27 +7187,27 @@
       <c r="L20" s="140"/>
     </row>
     <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="396" t="s">
+      <c r="A21" s="398" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="397"/>
-      <c r="C21" s="397"/>
-      <c r="D21" s="397"/>
-      <c r="E21" s="397"/>
-      <c r="F21" s="397"/>
-      <c r="G21" s="397"/>
-      <c r="H21" s="397"/>
-      <c r="I21" s="397"/>
+      <c r="B21" s="399"/>
+      <c r="C21" s="399"/>
+      <c r="D21" s="399"/>
+      <c r="E21" s="399"/>
+      <c r="F21" s="399"/>
+      <c r="G21" s="399"/>
+      <c r="H21" s="399"/>
+      <c r="I21" s="399"/>
       <c r="J21" s="139"/>
       <c r="K21" s="138"/>
       <c r="L21" s="8"/>
       <c r="R21" s="133"/>
     </row>
     <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="404" t="s">
+      <c r="A22" s="406" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="405"/>
+      <c r="B22" s="407"/>
       <c r="C22" s="137"/>
       <c r="D22" s="137"/>
       <c r="E22" s="137"/>
@@ -7224,15 +7221,15 @@
       <c r="R22" s="133"/>
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="400" t="s">
+      <c r="A23" s="402" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="401"/>
+      <c r="B23" s="403"/>
       <c r="C23" s="272"/>
-      <c r="D23" s="398" t="s">
+      <c r="D23" s="400" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="399"/>
+      <c r="E23" s="401"/>
       <c r="F23" s="273"/>
       <c r="G23" s="232" t="s">
         <v>71</v>
@@ -7255,11 +7252,11 @@
       <c r="R23" s="133"/>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="402" t="s">
+      <c r="A24" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="403"/>
-      <c r="C24" s="403"/>
+      <c r="B24" s="405"/>
+      <c r="C24" s="405"/>
       <c r="D24" s="236"/>
       <c r="E24" s="236"/>
       <c r="F24" s="236"/>
@@ -7271,19 +7268,19 @@
       <c r="R24" s="133"/>
     </row>
     <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="393" t="s">
+      <c r="A25" s="395" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="394"/>
-      <c r="C25" s="394"/>
-      <c r="D25" s="394"/>
-      <c r="E25" s="394"/>
-      <c r="F25" s="394"/>
-      <c r="G25" s="394"/>
-      <c r="H25" s="394"/>
-      <c r="I25" s="394"/>
-      <c r="J25" s="394"/>
-      <c r="K25" s="395"/>
+      <c r="B25" s="396"/>
+      <c r="C25" s="396"/>
+      <c r="D25" s="396"/>
+      <c r="E25" s="396"/>
+      <c r="F25" s="396"/>
+      <c r="G25" s="396"/>
+      <c r="H25" s="396"/>
+      <c r="I25" s="396"/>
+      <c r="J25" s="396"/>
+      <c r="K25" s="397"/>
       <c r="L25" s="9">
         <f>IFERROR(K23-K24,0)</f>
         <v>0</v>
@@ -7497,10 +7494,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="367"/>
-      <c r="D5" s="367"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="367"/>
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="369"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -7514,10 +7511,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="367"/>
-      <c r="D6" s="367"/>
-      <c r="E6" s="367"/>
-      <c r="F6" s="367"/>
+      <c r="C6" s="369"/>
+      <c r="D6" s="369"/>
+      <c r="E6" s="369"/>
+      <c r="F6" s="369"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7540,30 +7537,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="368"/>
-      <c r="D8" s="368"/>
-      <c r="E8" s="368"/>
-      <c r="F8" s="368"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="370"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="367"/>
-      <c r="D9" s="367"/>
-      <c r="E9" s="367"/>
-      <c r="F9" s="367"/>
+      <c r="C9" s="369"/>
+      <c r="D9" s="369"/>
+      <c r="E9" s="369"/>
+      <c r="F9" s="369"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="367"/>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367"/>
-      <c r="F10" s="367"/>
+      <c r="C10" s="369"/>
+      <c r="D10" s="369"/>
+      <c r="E10" s="369"/>
+      <c r="F10" s="369"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7589,14 +7586,14 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="390" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="391"/>
-      <c r="C15" s="391"/>
-      <c r="D15" s="391"/>
-      <c r="E15" s="391"/>
-      <c r="F15" s="392"/>
+      <c r="A15" s="392" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="393"/>
+      <c r="C15" s="393"/>
+      <c r="D15" s="393"/>
+      <c r="E15" s="393"/>
+      <c r="F15" s="394"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="11"/>
@@ -7605,14 +7602,14 @@
       <c r="L15" s="263"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="390" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="391"/>
-      <c r="C16" s="391"/>
-      <c r="D16" s="391"/>
-      <c r="E16" s="391"/>
-      <c r="F16" s="392"/>
+      <c r="A16" s="392" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="393"/>
+      <c r="C16" s="393"/>
+      <c r="D16" s="393"/>
+      <c r="E16" s="393"/>
+      <c r="F16" s="394"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="11"/>
@@ -7622,7 +7619,7 @@
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="301" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" s="302"/>
       <c r="C17" s="302"/>
@@ -7673,27 +7670,27 @@
       <c r="L20" s="140"/>
     </row>
     <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="396" t="s">
+      <c r="A21" s="398" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="397"/>
-      <c r="C21" s="397"/>
-      <c r="D21" s="397"/>
-      <c r="E21" s="397"/>
-      <c r="F21" s="397"/>
-      <c r="G21" s="397"/>
-      <c r="H21" s="397"/>
-      <c r="I21" s="397"/>
+      <c r="B21" s="399"/>
+      <c r="C21" s="399"/>
+      <c r="D21" s="399"/>
+      <c r="E21" s="399"/>
+      <c r="F21" s="399"/>
+      <c r="G21" s="399"/>
+      <c r="H21" s="399"/>
+      <c r="I21" s="399"/>
       <c r="J21" s="139"/>
       <c r="K21" s="138"/>
       <c r="L21" s="8"/>
       <c r="R21" s="133"/>
     </row>
     <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="404" t="s">
+      <c r="A22" s="406" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="405"/>
+      <c r="B22" s="407"/>
       <c r="C22" s="137"/>
       <c r="D22" s="137"/>
       <c r="E22" s="137"/>
@@ -7707,15 +7704,15 @@
       <c r="R22" s="133"/>
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="400" t="s">
+      <c r="A23" s="402" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="401"/>
+      <c r="B23" s="403"/>
       <c r="C23" s="272"/>
-      <c r="D23" s="398" t="s">
+      <c r="D23" s="400" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="399"/>
+      <c r="E23" s="401"/>
       <c r="F23" s="273"/>
       <c r="G23" s="232" t="s">
         <v>71</v>
@@ -7738,11 +7735,11 @@
       <c r="R23" s="133"/>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="402" t="s">
+      <c r="A24" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="403"/>
-      <c r="C24" s="403"/>
+      <c r="B24" s="405"/>
+      <c r="C24" s="405"/>
       <c r="D24" s="236"/>
       <c r="E24" s="236"/>
       <c r="F24" s="236"/>
@@ -7754,19 +7751,19 @@
       <c r="R24" s="133"/>
     </row>
     <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="393" t="s">
+      <c r="A25" s="395" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="394"/>
-      <c r="C25" s="394"/>
-      <c r="D25" s="394"/>
-      <c r="E25" s="394"/>
-      <c r="F25" s="394"/>
-      <c r="G25" s="394"/>
-      <c r="H25" s="394"/>
-      <c r="I25" s="394"/>
-      <c r="J25" s="394"/>
-      <c r="K25" s="395"/>
+      <c r="B25" s="396"/>
+      <c r="C25" s="396"/>
+      <c r="D25" s="396"/>
+      <c r="E25" s="396"/>
+      <c r="F25" s="396"/>
+      <c r="G25" s="396"/>
+      <c r="H25" s="396"/>
+      <c r="I25" s="396"/>
+      <c r="J25" s="396"/>
+      <c r="K25" s="397"/>
       <c r="L25" s="9">
         <f>IFERROR(K23-K24,0)</f>
         <v>0</v>
@@ -7813,7 +7810,7 @@
     </row>
     <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L28" s="127" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7884,6 +7881,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A25:K25"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A21:I21"/>
@@ -7891,12 +7894,6 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A15:F15"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8506,17 +8503,17 @@
   <sheetData>
     <row r="1" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="410" t="s">
+      <c r="A2" s="412" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="410"/>
-      <c r="C2" s="410"/>
-      <c r="D2" s="410"/>
-      <c r="E2" s="410"/>
-      <c r="F2" s="410"/>
-      <c r="G2" s="410"/>
-      <c r="H2" s="410"/>
-      <c r="I2" s="410"/>
+      <c r="B2" s="412"/>
+      <c r="C2" s="412"/>
+      <c r="D2" s="412"/>
+      <c r="E2" s="412"/>
+      <c r="F2" s="412"/>
+      <c r="G2" s="412"/>
+      <c r="H2" s="412"/>
+      <c r="I2" s="412"/>
       <c r="J2" s="143"/>
       <c r="K2" s="143"/>
       <c r="L2" s="143"/>
@@ -8561,10 +8558,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="367"/>
-      <c r="D5" s="367"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="367"/>
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="369"/>
       <c r="G5" s="142"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
@@ -8579,10 +8576,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="367"/>
-      <c r="D6" s="367"/>
-      <c r="E6" s="367"/>
-      <c r="F6" s="367"/>
+      <c r="C6" s="369"/>
+      <c r="D6" s="369"/>
+      <c r="E6" s="369"/>
+      <c r="F6" s="369"/>
       <c r="G6" s="141"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14" t="s">
@@ -8613,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="368"/>
-      <c r="D8" s="368"/>
-      <c r="E8" s="368"/>
-      <c r="F8" s="368"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="370"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
       <c r="G8" s="151"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -8631,10 +8628,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="367"/>
-      <c r="D9" s="367"/>
-      <c r="E9" s="367"/>
-      <c r="F9" s="367"/>
+      <c r="C9" s="369"/>
+      <c r="D9" s="369"/>
+      <c r="E9" s="369"/>
+      <c r="F9" s="369"/>
       <c r="G9" s="151"/>
       <c r="H9" s="141"/>
       <c r="I9" s="141"/>
@@ -8647,15 +8644,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="367"/>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367"/>
-      <c r="F10" s="367"/>
+      <c r="C10" s="369"/>
+      <c r="D10" s="369"/>
+      <c r="E10" s="369"/>
+      <c r="F10" s="369"/>
       <c r="G10" s="151"/>
       <c r="H10" s="141"/>
       <c r="I10" s="141"/>
-      <c r="J10" s="406"/>
-      <c r="K10" s="406"/>
+      <c r="J10" s="408"/>
+      <c r="K10" s="408"/>
       <c r="L10" s="152"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -8682,10 +8679,10 @@
       <c r="C13" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="411" t="s">
+      <c r="D13" s="413" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="412"/>
+      <c r="E13" s="414"/>
       <c r="F13" s="255" t="s">
         <v>127</v>
       </c>
@@ -8698,17 +8695,17 @@
       <c r="I13" s="257" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="415" t="s">
+      <c r="J13" s="417" t="s">
         <v>134</v>
       </c>
-      <c r="K13" s="416"/>
+      <c r="K13" s="418"/>
       <c r="L13" s="150"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="274"/>
       <c r="C14" s="275"/>
-      <c r="D14" s="413"/>
-      <c r="E14" s="414"/>
+      <c r="D14" s="415"/>
+      <c r="E14" s="416"/>
       <c r="F14" s="275"/>
       <c r="G14" s="275"/>
       <c r="H14" s="276"/>
@@ -8716,11 +8713,11 @@
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="417">
+      <c r="J14" s="419">
         <f>I14/6</f>
         <v>0</v>
       </c>
-      <c r="K14" s="418"/>
+      <c r="K14" s="420"/>
       <c r="L14" s="150"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8736,16 +8733,16 @@
       <c r="A17" s="250" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="407" t="s">
+      <c r="B17" s="409" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="408"/>
-      <c r="D17" s="408"/>
-      <c r="E17" s="408"/>
-      <c r="F17" s="408"/>
-      <c r="G17" s="408"/>
-      <c r="H17" s="408"/>
-      <c r="I17" s="409"/>
+      <c r="C17" s="410"/>
+      <c r="D17" s="410"/>
+      <c r="E17" s="410"/>
+      <c r="F17" s="410"/>
+      <c r="G17" s="410"/>
+      <c r="H17" s="410"/>
+      <c r="I17" s="411"/>
       <c r="J17" s="148" t="s">
         <v>131</v>
       </c>
@@ -8759,19 +8756,19 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="313" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="385" t="s">
+      <c r="A18" s="343" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="387" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="386"/>
-      <c r="D18" s="386"/>
-      <c r="E18" s="386"/>
-      <c r="F18" s="386"/>
-      <c r="G18" s="386"/>
-      <c r="H18" s="386"/>
-      <c r="I18" s="386"/>
+      <c r="C18" s="388"/>
+      <c r="D18" s="388"/>
+      <c r="E18" s="388"/>
+      <c r="F18" s="388"/>
+      <c r="G18" s="388"/>
+      <c r="H18" s="388"/>
+      <c r="I18" s="388"/>
       <c r="J18" s="148" t="s">
         <v>136</v>
       </c>
@@ -8782,17 +8779,17 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="314"/>
-      <c r="B19" s="387" t="s">
+      <c r="A19" s="344"/>
+      <c r="B19" s="389" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="388"/>
-      <c r="D19" s="388"/>
-      <c r="E19" s="388"/>
-      <c r="F19" s="388"/>
-      <c r="G19" s="388"/>
-      <c r="H19" s="388"/>
-      <c r="I19" s="388"/>
+      <c r="C19" s="390"/>
+      <c r="D19" s="390"/>
+      <c r="E19" s="390"/>
+      <c r="F19" s="390"/>
+      <c r="G19" s="390"/>
+      <c r="H19" s="390"/>
+      <c r="I19" s="390"/>
       <c r="J19" s="146" t="s">
         <v>137</v>
       </c>
@@ -8914,6 +8911,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A2:I2"/>
@@ -8923,12 +8926,6 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9538,17 +9535,17 @@
   <sheetData>
     <row r="1" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="410" t="s">
+      <c r="A2" s="412" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="410"/>
-      <c r="C2" s="410"/>
-      <c r="D2" s="410"/>
-      <c r="E2" s="410"/>
-      <c r="F2" s="410"/>
-      <c r="G2" s="410"/>
-      <c r="H2" s="410"/>
-      <c r="I2" s="410"/>
+      <c r="B2" s="412"/>
+      <c r="C2" s="412"/>
+      <c r="D2" s="412"/>
+      <c r="E2" s="412"/>
+      <c r="F2" s="412"/>
+      <c r="G2" s="412"/>
+      <c r="H2" s="412"/>
+      <c r="I2" s="412"/>
       <c r="J2" s="143"/>
       <c r="K2" s="143"/>
       <c r="L2" s="143"/>
@@ -9593,10 +9590,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="367"/>
-      <c r="D5" s="367"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="367"/>
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="369"/>
       <c r="G5" s="142"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
@@ -9611,10 +9608,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="367"/>
-      <c r="D6" s="367"/>
-      <c r="E6" s="367"/>
-      <c r="F6" s="367"/>
+      <c r="C6" s="369"/>
+      <c r="D6" s="369"/>
+      <c r="E6" s="369"/>
+      <c r="F6" s="369"/>
       <c r="G6" s="141"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14" t="s">
@@ -9645,10 +9642,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="368"/>
-      <c r="D8" s="368"/>
-      <c r="E8" s="368"/>
-      <c r="F8" s="368"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="370"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
       <c r="G8" s="151"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -9663,10 +9660,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="367"/>
-      <c r="D9" s="367"/>
-      <c r="E9" s="367"/>
-      <c r="F9" s="367"/>
+      <c r="C9" s="369"/>
+      <c r="D9" s="369"/>
+      <c r="E9" s="369"/>
+      <c r="F9" s="369"/>
       <c r="G9" s="151"/>
       <c r="H9" s="141"/>
       <c r="I9" s="141"/>
@@ -9679,15 +9676,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="367"/>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367"/>
-      <c r="F10" s="367"/>
+      <c r="C10" s="369"/>
+      <c r="D10" s="369"/>
+      <c r="E10" s="369"/>
+      <c r="F10" s="369"/>
       <c r="G10" s="151"/>
       <c r="H10" s="141"/>
       <c r="I10" s="141"/>
-      <c r="J10" s="406"/>
-      <c r="K10" s="406"/>
+      <c r="J10" s="408"/>
+      <c r="K10" s="408"/>
       <c r="L10" s="152"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -9714,10 +9711,10 @@
       <c r="C13" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="411" t="s">
+      <c r="D13" s="413" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="412"/>
+      <c r="E13" s="414"/>
       <c r="F13" s="255" t="s">
         <v>127</v>
       </c>
@@ -9730,29 +9727,29 @@
       <c r="I13" s="257" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="415" t="s">
+      <c r="J13" s="417" t="s">
         <v>134</v>
       </c>
-      <c r="K13" s="416"/>
+      <c r="K13" s="418"/>
       <c r="L13" s="150"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="274"/>
       <c r="C14" s="275"/>
-      <c r="D14" s="413"/>
-      <c r="E14" s="414"/>
+      <c r="D14" s="415"/>
+      <c r="E14" s="416"/>
       <c r="F14" s="275"/>
-      <c r="G14" s="419"/>
-      <c r="H14" s="420"/>
+      <c r="G14" s="306"/>
+      <c r="H14" s="307"/>
       <c r="I14" s="277">
         <f>SUM(B14:F14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="417">
+      <c r="J14" s="419">
         <f>I14/4</f>
         <v>0</v>
       </c>
-      <c r="K14" s="418"/>
+      <c r="K14" s="420"/>
       <c r="L14" s="150"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9768,16 +9765,16 @@
       <c r="A17" s="300" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="407" t="s">
+      <c r="B17" s="409" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="408"/>
-      <c r="D17" s="408"/>
-      <c r="E17" s="408"/>
-      <c r="F17" s="408"/>
-      <c r="G17" s="408"/>
-      <c r="H17" s="408"/>
-      <c r="I17" s="409"/>
+      <c r="C17" s="410"/>
+      <c r="D17" s="410"/>
+      <c r="E17" s="410"/>
+      <c r="F17" s="410"/>
+      <c r="G17" s="410"/>
+      <c r="H17" s="410"/>
+      <c r="I17" s="411"/>
       <c r="J17" s="148" t="s">
         <v>131</v>
       </c>
@@ -9791,19 +9788,19 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="313" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="385" t="s">
+      <c r="A18" s="343" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="387" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="386"/>
-      <c r="D18" s="386"/>
-      <c r="E18" s="386"/>
-      <c r="F18" s="386"/>
-      <c r="G18" s="386"/>
-      <c r="H18" s="386"/>
-      <c r="I18" s="386"/>
+      <c r="C18" s="388"/>
+      <c r="D18" s="388"/>
+      <c r="E18" s="388"/>
+      <c r="F18" s="388"/>
+      <c r="G18" s="388"/>
+      <c r="H18" s="388"/>
+      <c r="I18" s="388"/>
       <c r="J18" s="148" t="s">
         <v>136</v>
       </c>
@@ -9814,17 +9811,17 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="314"/>
-      <c r="B19" s="387" t="s">
+      <c r="A19" s="344"/>
+      <c r="B19" s="389" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="388"/>
-      <c r="D19" s="388"/>
-      <c r="E19" s="388"/>
-      <c r="F19" s="388"/>
-      <c r="G19" s="388"/>
-      <c r="H19" s="388"/>
-      <c r="I19" s="388"/>
+      <c r="C19" s="390"/>
+      <c r="D19" s="390"/>
+      <c r="E19" s="390"/>
+      <c r="F19" s="390"/>
+      <c r="G19" s="390"/>
+      <c r="H19" s="390"/>
+      <c r="I19" s="390"/>
       <c r="J19" s="146" t="s">
         <v>137</v>
       </c>
@@ -9946,6 +9943,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B19:I19"/>
@@ -9955,11 +9957,6 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
@@ -10031,8 +10028,8 @@
         <v>4</v>
       </c>
       <c r="B3" s="160"/>
-      <c r="C3" s="307"/>
-      <c r="D3" s="307"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
       <c r="E3" s="283"/>
       <c r="F3" s="283"/>
       <c r="H3" s="155"/>
@@ -10048,10 +10045,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="136"/>
-      <c r="C4" s="306"/>
-      <c r="D4" s="306"/>
-      <c r="E4" s="306"/>
-      <c r="F4" s="306"/>
+      <c r="C4" s="363"/>
+      <c r="D4" s="363"/>
+      <c r="E4" s="363"/>
+      <c r="F4" s="363"/>
       <c r="H4" s="155"/>
       <c r="I4" s="156" t="s">
         <v>11</v>
@@ -10065,10 +10062,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="306"/>
-      <c r="D5" s="306"/>
-      <c r="E5" s="306"/>
-      <c r="F5" s="306"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10091,10 +10088,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="160"/>
-      <c r="C7" s="306"/>
-      <c r="D7" s="306"/>
-      <c r="E7" s="306"/>
-      <c r="F7" s="306"/>
+      <c r="C7" s="363"/>
+      <c r="D7" s="363"/>
+      <c r="E7" s="363"/>
+      <c r="F7" s="363"/>
       <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10102,10 +10099,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="136"/>
-      <c r="C8" s="306"/>
-      <c r="D8" s="306"/>
-      <c r="E8" s="306"/>
-      <c r="F8" s="306"/>
+      <c r="C8" s="363"/>
+      <c r="D8" s="363"/>
+      <c r="E8" s="363"/>
+      <c r="F8" s="363"/>
       <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10113,10 +10110,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="306"/>
-      <c r="D9" s="306"/>
-      <c r="E9" s="306"/>
-      <c r="F9" s="306"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
       <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10131,112 +10128,112 @@
       <c r="D11" s="286"/>
       <c r="E11" s="286"/>
       <c r="F11" s="286"/>
-      <c r="H11" s="308" t="s">
+      <c r="H11" s="338" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="309"/>
-      <c r="J11" s="310" t="s">
+      <c r="I11" s="339"/>
+      <c r="J11" s="340" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="311"/>
-      <c r="L11" s="312"/>
+      <c r="K11" s="341"/>
+      <c r="L11" s="342"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="313" t="s">
+      <c r="A12" s="343" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="347" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="317" t="s">
+      <c r="C12" s="348"/>
+      <c r="D12" s="348"/>
+      <c r="E12" s="348"/>
+      <c r="F12" s="348"/>
+      <c r="G12" s="348"/>
+      <c r="H12" s="351"/>
+      <c r="I12" s="352"/>
+      <c r="J12" s="357" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="318"/>
-      <c r="D12" s="318"/>
-      <c r="E12" s="318"/>
-      <c r="F12" s="318"/>
-      <c r="G12" s="318"/>
-      <c r="H12" s="321"/>
-      <c r="I12" s="322"/>
-      <c r="J12" s="327" t="s">
-        <v>170</v>
-      </c>
-      <c r="K12" s="330">
+      <c r="K12" s="359">
         <f>SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
-      <c r="L12" s="333">
+      <c r="L12" s="327">
         <f>ROUND(K12*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="314"/>
-      <c r="B13" s="319"/>
-      <c r="C13" s="320"/>
-      <c r="D13" s="320"/>
-      <c r="E13" s="320"/>
-      <c r="F13" s="320"/>
-      <c r="G13" s="320"/>
-      <c r="H13" s="323"/>
-      <c r="I13" s="324"/>
-      <c r="J13" s="328"/>
-      <c r="K13" s="331"/>
-      <c r="L13" s="334"/>
+      <c r="A13" s="344"/>
+      <c r="B13" s="349"/>
+      <c r="C13" s="350"/>
+      <c r="D13" s="350"/>
+      <c r="E13" s="350"/>
+      <c r="F13" s="350"/>
+      <c r="G13" s="350"/>
+      <c r="H13" s="353"/>
+      <c r="I13" s="354"/>
+      <c r="J13" s="336"/>
+      <c r="K13" s="360"/>
+      <c r="L13" s="328"/>
     </row>
     <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="314"/>
-      <c r="B14" s="319"/>
-      <c r="C14" s="320"/>
-      <c r="D14" s="320"/>
-      <c r="E14" s="320"/>
-      <c r="F14" s="320"/>
-      <c r="G14" s="320"/>
-      <c r="H14" s="323"/>
-      <c r="I14" s="324"/>
-      <c r="J14" s="328"/>
-      <c r="K14" s="331"/>
-      <c r="L14" s="334"/>
+      <c r="A14" s="344"/>
+      <c r="B14" s="349"/>
+      <c r="C14" s="350"/>
+      <c r="D14" s="350"/>
+      <c r="E14" s="350"/>
+      <c r="F14" s="350"/>
+      <c r="G14" s="350"/>
+      <c r="H14" s="353"/>
+      <c r="I14" s="354"/>
+      <c r="J14" s="336"/>
+      <c r="K14" s="360"/>
+      <c r="L14" s="328"/>
     </row>
     <row r="15" spans="1:12" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="314"/>
-      <c r="B15" s="319"/>
-      <c r="C15" s="320"/>
-      <c r="D15" s="320"/>
-      <c r="E15" s="320"/>
-      <c r="F15" s="320"/>
-      <c r="G15" s="320"/>
-      <c r="H15" s="323"/>
-      <c r="I15" s="324"/>
-      <c r="J15" s="328"/>
-      <c r="K15" s="331"/>
-      <c r="L15" s="334"/>
+      <c r="A15" s="344"/>
+      <c r="B15" s="349"/>
+      <c r="C15" s="350"/>
+      <c r="D15" s="350"/>
+      <c r="E15" s="350"/>
+      <c r="F15" s="350"/>
+      <c r="G15" s="350"/>
+      <c r="H15" s="353"/>
+      <c r="I15" s="354"/>
+      <c r="J15" s="336"/>
+      <c r="K15" s="360"/>
+      <c r="L15" s="328"/>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="315"/>
+      <c r="A16" s="345"/>
       <c r="B16" s="287" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="288" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="288" t="s">
+      <c r="D16" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="289" t="s">
+      <c r="E16" s="288" t="s">
         <v>173</v>
       </c>
-      <c r="E16" s="288" t="s">
+      <c r="F16" s="288" t="s">
         <v>174</v>
       </c>
-      <c r="F16" s="288" t="s">
+      <c r="G16" s="290" t="s">
         <v>175</v>
       </c>
-      <c r="G16" s="290" t="s">
-        <v>176</v>
-      </c>
-      <c r="H16" s="323"/>
-      <c r="I16" s="324"/>
-      <c r="J16" s="328"/>
-      <c r="K16" s="331"/>
-      <c r="L16" s="334"/>
+      <c r="H16" s="353"/>
+      <c r="I16" s="354"/>
+      <c r="J16" s="336"/>
+      <c r="K16" s="360"/>
+      <c r="L16" s="328"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="316"/>
+      <c r="A17" s="346"/>
       <c r="B17" s="291"/>
       <c r="C17" s="292">
         <v>0</v>
@@ -10245,69 +10242,69 @@
       <c r="E17" s="292"/>
       <c r="F17" s="292"/>
       <c r="G17" s="293"/>
-      <c r="H17" s="325"/>
-      <c r="I17" s="326"/>
-      <c r="J17" s="329"/>
-      <c r="K17" s="332"/>
-      <c r="L17" s="335"/>
+      <c r="H17" s="355"/>
+      <c r="I17" s="356"/>
+      <c r="J17" s="358"/>
+      <c r="K17" s="361"/>
+      <c r="L17" s="362"/>
     </row>
     <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="338" t="s">
+      <c r="A18" s="310" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="341" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="341"/>
-      <c r="D18" s="341"/>
-      <c r="E18" s="341"/>
-      <c r="F18" s="341"/>
-      <c r="G18" s="341"/>
-      <c r="H18" s="344"/>
-      <c r="I18" s="345"/>
-      <c r="J18" s="350" t="s">
+      <c r="B18" s="313" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="313"/>
+      <c r="D18" s="313"/>
+      <c r="E18" s="313"/>
+      <c r="F18" s="313"/>
+      <c r="G18" s="313"/>
+      <c r="H18" s="316"/>
+      <c r="I18" s="317"/>
+      <c r="J18" s="322" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="353">
+      <c r="K18" s="325">
         <v>0</v>
       </c>
-      <c r="L18" s="333">
+      <c r="L18" s="327">
         <f>IF(K18-K21 &gt;=0, (ROUND((K18-K21)*0.25,3)),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="339"/>
-      <c r="B19" s="342"/>
-      <c r="C19" s="342"/>
-      <c r="D19" s="342"/>
-      <c r="E19" s="342"/>
-      <c r="F19" s="342"/>
-      <c r="G19" s="342"/>
-      <c r="H19" s="346"/>
-      <c r="I19" s="347"/>
-      <c r="J19" s="351"/>
-      <c r="K19" s="354"/>
-      <c r="L19" s="334"/>
+      <c r="A19" s="311"/>
+      <c r="B19" s="314"/>
+      <c r="C19" s="314"/>
+      <c r="D19" s="314"/>
+      <c r="E19" s="314"/>
+      <c r="F19" s="314"/>
+      <c r="G19" s="314"/>
+      <c r="H19" s="318"/>
+      <c r="I19" s="319"/>
+      <c r="J19" s="323"/>
+      <c r="K19" s="326"/>
+      <c r="L19" s="328"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="339"/>
-      <c r="B20" s="343"/>
-      <c r="C20" s="343"/>
-      <c r="D20" s="343"/>
-      <c r="E20" s="343"/>
-      <c r="F20" s="343"/>
-      <c r="G20" s="342"/>
-      <c r="H20" s="346"/>
-      <c r="I20" s="347"/>
-      <c r="J20" s="351"/>
-      <c r="K20" s="354"/>
-      <c r="L20" s="334"/>
+      <c r="A20" s="311"/>
+      <c r="B20" s="315"/>
+      <c r="C20" s="315"/>
+      <c r="D20" s="315"/>
+      <c r="E20" s="315"/>
+      <c r="F20" s="315"/>
+      <c r="G20" s="314"/>
+      <c r="H20" s="318"/>
+      <c r="I20" s="319"/>
+      <c r="J20" s="323"/>
+      <c r="K20" s="326"/>
+      <c r="L20" s="328"/>
     </row>
     <row r="21" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="340"/>
+      <c r="A21" s="312"/>
       <c r="B21" s="294" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C21" s="295">
         <v>0</v>
@@ -10316,44 +10313,44 @@
       <c r="E21" s="295"/>
       <c r="F21" s="295"/>
       <c r="G21" s="295"/>
-      <c r="H21" s="348"/>
-      <c r="I21" s="349"/>
-      <c r="J21" s="352"/>
+      <c r="H21" s="320"/>
+      <c r="I21" s="321"/>
+      <c r="J21" s="324"/>
       <c r="K21" s="296">
         <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="355"/>
+      <c r="L21" s="329"/>
     </row>
     <row r="22" spans="1:12" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="338" t="s">
+      <c r="A22" s="310" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="341" t="s">
+      <c r="B22" s="313" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="330"/>
+      <c r="D22" s="330"/>
+      <c r="E22" s="330"/>
+      <c r="F22" s="330"/>
+      <c r="G22" s="331"/>
+      <c r="H22" s="332"/>
+      <c r="I22" s="333"/>
+      <c r="J22" s="336" t="s">
         <v>179</v>
-      </c>
-      <c r="C22" s="356"/>
-      <c r="D22" s="356"/>
-      <c r="E22" s="356"/>
-      <c r="F22" s="356"/>
-      <c r="G22" s="357"/>
-      <c r="H22" s="358"/>
-      <c r="I22" s="359"/>
-      <c r="J22" s="328" t="s">
-        <v>180</v>
       </c>
       <c r="K22" s="297">
         <v>0</v>
       </c>
-      <c r="L22" s="334">
+      <c r="L22" s="328">
         <f>IF((K22-K23)&gt;=0,(ROUND((K22-K23)*0.15,3)),0.000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="340"/>
+      <c r="A23" s="312"/>
       <c r="B23" s="298" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C23" s="295">
         <v>0</v>
@@ -10366,14 +10363,14 @@
       </c>
       <c r="F23" s="295"/>
       <c r="G23" s="295"/>
-      <c r="H23" s="360"/>
-      <c r="I23" s="361"/>
-      <c r="J23" s="362"/>
+      <c r="H23" s="334"/>
+      <c r="I23" s="335"/>
+      <c r="J23" s="337"/>
       <c r="K23" s="296">
         <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="355"/>
+      <c r="L23" s="329"/>
     </row>
     <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="21"/>
@@ -10390,11 +10387,11 @@
         <v>3</v>
       </c>
       <c r="J25" s="23"/>
-      <c r="K25" s="336">
+      <c r="K25" s="308">
         <f>SUM(L12:L22)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="337"/>
+      <c r="L25" s="309"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10417,6 +10414,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:G15"/>
+    <mergeCell ref="H12:I17"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="L12:L17"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:G20"/>
@@ -10429,20 +10440,6 @@
     <mergeCell ref="H22:I23"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="L22:L23"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:G15"/>
-    <mergeCell ref="H12:I17"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="K12:K17"/>
-    <mergeCell ref="L12:L17"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
@@ -10527,10 +10524,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="363"/>
-      <c r="D5" s="363"/>
-      <c r="E5" s="363"/>
-      <c r="F5" s="363"/>
+      <c r="C5" s="365"/>
+      <c r="D5" s="365"/>
+      <c r="E5" s="365"/>
+      <c r="F5" s="365"/>
       <c r="H5" s="155"/>
       <c r="I5" s="156" t="s">
         <v>11</v>
@@ -10544,10 +10541,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="136"/>
-      <c r="C6" s="363"/>
-      <c r="D6" s="363"/>
-      <c r="E6" s="363"/>
-      <c r="F6" s="363"/>
+      <c r="C6" s="365"/>
+      <c r="D6" s="365"/>
+      <c r="E6" s="365"/>
+      <c r="F6" s="365"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10570,30 +10567,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="160"/>
-      <c r="C8" s="363"/>
-      <c r="D8" s="363"/>
-      <c r="E8" s="363"/>
-      <c r="F8" s="363"/>
+      <c r="C8" s="365"/>
+      <c r="D8" s="365"/>
+      <c r="E8" s="365"/>
+      <c r="F8" s="365"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="363"/>
-      <c r="D9" s="363"/>
-      <c r="E9" s="363"/>
-      <c r="F9" s="363"/>
+      <c r="C9" s="365"/>
+      <c r="D9" s="365"/>
+      <c r="E9" s="365"/>
+      <c r="F9" s="365"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="136" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="136"/>
-      <c r="C10" s="363"/>
-      <c r="D10" s="363"/>
-      <c r="E10" s="363"/>
-      <c r="F10" s="363"/>
+      <c r="C10" s="365"/>
+      <c r="D10" s="365"/>
+      <c r="E10" s="365"/>
+      <c r="F10" s="365"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10924,10 +10921,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="367"/>
-      <c r="D5" s="367"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="367"/>
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="369"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -10941,10 +10938,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="367"/>
-      <c r="D6" s="367"/>
-      <c r="E6" s="367"/>
-      <c r="F6" s="367"/>
+      <c r="C6" s="369"/>
+      <c r="D6" s="369"/>
+      <c r="E6" s="369"/>
+      <c r="F6" s="369"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10967,30 +10964,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="368"/>
-      <c r="D8" s="368"/>
-      <c r="E8" s="368"/>
-      <c r="F8" s="368"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="370"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="367"/>
-      <c r="D9" s="367"/>
-      <c r="E9" s="367"/>
-      <c r="F9" s="367"/>
+      <c r="C9" s="369"/>
+      <c r="D9" s="369"/>
+      <c r="E9" s="369"/>
+      <c r="F9" s="369"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="367"/>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367"/>
-      <c r="F10" s="367"/>
+      <c r="C10" s="369"/>
+      <c r="D10" s="369"/>
+      <c r="E10" s="369"/>
+      <c r="F10" s="369"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11126,13 +11123,13 @@
       <c r="L21" s="263"/>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="364" t="s">
-        <v>181</v>
-      </c>
-      <c r="B22" s="365"/>
-      <c r="C22" s="365"/>
-      <c r="D22" s="365"/>
-      <c r="E22" s="366"/>
+      <c r="A22" s="366" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="367"/>
+      <c r="C22" s="367"/>
+      <c r="D22" s="367"/>
+      <c r="E22" s="368"/>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
@@ -11328,10 +11325,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="367"/>
-      <c r="D5" s="367"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="367"/>
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="369"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -11345,10 +11342,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="367"/>
-      <c r="D6" s="367"/>
-      <c r="E6" s="367"/>
-      <c r="F6" s="367"/>
+      <c r="C6" s="369"/>
+      <c r="D6" s="369"/>
+      <c r="E6" s="369"/>
+      <c r="F6" s="369"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11371,30 +11368,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="368"/>
-      <c r="D8" s="368"/>
-      <c r="E8" s="368"/>
-      <c r="F8" s="368"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="370"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="367"/>
-      <c r="D9" s="367"/>
-      <c r="E9" s="367"/>
-      <c r="F9" s="367"/>
+      <c r="C9" s="369"/>
+      <c r="D9" s="369"/>
+      <c r="E9" s="369"/>
+      <c r="F9" s="369"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="367"/>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367"/>
-      <c r="F10" s="367"/>
+      <c r="C10" s="369"/>
+      <c r="D10" s="369"/>
+      <c r="E10" s="369"/>
+      <c r="F10" s="369"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11686,7 +11683,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="154" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H2" s="155"/>
       <c r="I2" s="156" t="s">
@@ -11730,10 +11727,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="363"/>
-      <c r="D5" s="363"/>
-      <c r="E5" s="363"/>
-      <c r="F5" s="363"/>
+      <c r="C5" s="365"/>
+      <c r="D5" s="365"/>
+      <c r="E5" s="365"/>
+      <c r="F5" s="365"/>
       <c r="H5" s="155"/>
       <c r="I5" s="156" t="s">
         <v>11</v>
@@ -11747,10 +11744,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="136"/>
-      <c r="C6" s="363"/>
-      <c r="D6" s="363"/>
-      <c r="E6" s="363"/>
-      <c r="F6" s="363"/>
+      <c r="C6" s="365"/>
+      <c r="D6" s="365"/>
+      <c r="E6" s="365"/>
+      <c r="F6" s="365"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11773,30 +11770,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="160"/>
-      <c r="C8" s="369"/>
-      <c r="D8" s="369"/>
-      <c r="E8" s="369"/>
-      <c r="F8" s="369"/>
+      <c r="C8" s="371"/>
+      <c r="D8" s="371"/>
+      <c r="E8" s="371"/>
+      <c r="F8" s="371"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="363"/>
-      <c r="D9" s="363"/>
-      <c r="E9" s="363"/>
-      <c r="F9" s="363"/>
+      <c r="C9" s="365"/>
+      <c r="D9" s="365"/>
+      <c r="E9" s="365"/>
+      <c r="F9" s="365"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="136" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="136"/>
-      <c r="C10" s="363"/>
-      <c r="D10" s="363"/>
-      <c r="E10" s="363"/>
-      <c r="F10" s="363"/>
+      <c r="C10" s="365"/>
+      <c r="D10" s="365"/>
+      <c r="E10" s="365"/>
+      <c r="F10" s="365"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12007,7 +12004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:L14"/>
     </sheetView>
   </sheetViews>
@@ -12705,10 +12702,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="367"/>
-      <c r="D5" s="367"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="367"/>
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="369"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -12722,10 +12719,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="367"/>
-      <c r="D6" s="367"/>
-      <c r="E6" s="367"/>
-      <c r="F6" s="367"/>
+      <c r="C6" s="369"/>
+      <c r="D6" s="369"/>
+      <c r="E6" s="369"/>
+      <c r="F6" s="369"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -12754,30 +12751,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="368"/>
-      <c r="D8" s="368"/>
-      <c r="E8" s="368"/>
-      <c r="F8" s="368"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="370"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="367"/>
-      <c r="D9" s="367"/>
-      <c r="E9" s="367"/>
-      <c r="F9" s="367"/>
+      <c r="C9" s="369"/>
+      <c r="D9" s="369"/>
+      <c r="E9" s="369"/>
+      <c r="F9" s="369"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="367"/>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367"/>
-      <c r="F10" s="367"/>
+      <c r="C10" s="369"/>
+      <c r="D10" s="369"/>
+      <c r="E10" s="369"/>
+      <c r="F10" s="369"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12797,32 +12794,32 @@
       <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="370"/>
-      <c r="B13" s="371"/>
-      <c r="C13" s="371"/>
-      <c r="D13" s="371"/>
-      <c r="E13" s="371"/>
-      <c r="F13" s="371"/>
-      <c r="G13" s="371"/>
-      <c r="H13" s="371"/>
-      <c r="I13" s="371"/>
-      <c r="J13" s="371"/>
-      <c r="K13" s="371"/>
-      <c r="L13" s="372"/>
+      <c r="A13" s="372"/>
+      <c r="B13" s="373"/>
+      <c r="C13" s="373"/>
+      <c r="D13" s="373"/>
+      <c r="E13" s="373"/>
+      <c r="F13" s="373"/>
+      <c r="G13" s="373"/>
+      <c r="H13" s="373"/>
+      <c r="I13" s="373"/>
+      <c r="J13" s="373"/>
+      <c r="K13" s="373"/>
+      <c r="L13" s="374"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="373"/>
-      <c r="B14" s="374"/>
-      <c r="C14" s="374"/>
-      <c r="D14" s="374"/>
-      <c r="E14" s="374"/>
-      <c r="F14" s="374"/>
-      <c r="G14" s="374"/>
-      <c r="H14" s="374"/>
-      <c r="I14" s="374"/>
-      <c r="J14" s="374"/>
-      <c r="K14" s="374"/>
-      <c r="L14" s="375"/>
+      <c r="A14" s="375"/>
+      <c r="B14" s="376"/>
+      <c r="C14" s="376"/>
+      <c r="D14" s="376"/>
+      <c r="E14" s="376"/>
+      <c r="F14" s="376"/>
+      <c r="G14" s="376"/>
+      <c r="H14" s="376"/>
+      <c r="I14" s="376"/>
+      <c r="J14" s="376"/>
+      <c r="K14" s="376"/>
+      <c r="L14" s="377"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
@@ -12905,7 +12902,7 @@
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="55"/>
@@ -13111,8 +13108,8 @@
   <sheetPr codeName="Blad7"/>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -13765,7 +13762,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
@@ -13809,10 +13806,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="367"/>
-      <c r="D5" s="367"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="367"/>
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="369"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -13826,10 +13823,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="367"/>
-      <c r="D6" s="367"/>
-      <c r="E6" s="367"/>
-      <c r="F6" s="367"/>
+      <c r="C6" s="369"/>
+      <c r="D6" s="369"/>
+      <c r="E6" s="369"/>
+      <c r="F6" s="369"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -13858,30 +13855,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="368"/>
-      <c r="D8" s="368"/>
-      <c r="E8" s="368"/>
-      <c r="F8" s="368"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="370"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="367"/>
-      <c r="D9" s="367"/>
-      <c r="E9" s="367"/>
-      <c r="F9" s="367"/>
+      <c r="C9" s="369"/>
+      <c r="D9" s="369"/>
+      <c r="E9" s="369"/>
+      <c r="F9" s="369"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="367"/>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367"/>
-      <c r="F10" s="367"/>
+      <c r="C10" s="369"/>
+      <c r="D10" s="369"/>
+      <c r="E10" s="369"/>
+      <c r="F10" s="369"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -13901,32 +13898,32 @@
       <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="370"/>
-      <c r="B13" s="371"/>
-      <c r="C13" s="371"/>
-      <c r="D13" s="371"/>
-      <c r="E13" s="371"/>
-      <c r="F13" s="371"/>
-      <c r="G13" s="371"/>
-      <c r="H13" s="371"/>
-      <c r="I13" s="371"/>
-      <c r="J13" s="371"/>
-      <c r="K13" s="371"/>
-      <c r="L13" s="372"/>
+      <c r="A13" s="372"/>
+      <c r="B13" s="373"/>
+      <c r="C13" s="373"/>
+      <c r="D13" s="373"/>
+      <c r="E13" s="373"/>
+      <c r="F13" s="373"/>
+      <c r="G13" s="373"/>
+      <c r="H13" s="373"/>
+      <c r="I13" s="373"/>
+      <c r="J13" s="373"/>
+      <c r="K13" s="373"/>
+      <c r="L13" s="374"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="373"/>
-      <c r="B14" s="374"/>
-      <c r="C14" s="374"/>
-      <c r="D14" s="374"/>
-      <c r="E14" s="374"/>
-      <c r="F14" s="374"/>
-      <c r="G14" s="374"/>
-      <c r="H14" s="374"/>
-      <c r="I14" s="374"/>
-      <c r="J14" s="374"/>
-      <c r="K14" s="374"/>
-      <c r="L14" s="375"/>
+      <c r="A14" s="375"/>
+      <c r="B14" s="376"/>
+      <c r="C14" s="376"/>
+      <c r="D14" s="376"/>
+      <c r="E14" s="376"/>
+      <c r="F14" s="376"/>
+      <c r="G14" s="376"/>
+      <c r="H14" s="376"/>
+      <c r="I14" s="376"/>
+      <c r="J14" s="376"/>
+      <c r="K14" s="376"/>
+      <c r="L14" s="377"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
@@ -14009,7 +14006,7 @@
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="55"/>
@@ -14805,7 +14802,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
@@ -14849,10 +14846,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="367"/>
-      <c r="D5" s="367"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="367"/>
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="369"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -14866,10 +14863,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="367"/>
-      <c r="D6" s="367"/>
-      <c r="E6" s="367"/>
-      <c r="F6" s="367"/>
+      <c r="C6" s="369"/>
+      <c r="D6" s="369"/>
+      <c r="E6" s="369"/>
+      <c r="F6" s="369"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -14898,30 +14895,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="368"/>
-      <c r="D8" s="368"/>
-      <c r="E8" s="368"/>
-      <c r="F8" s="368"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="370"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="367"/>
-      <c r="D9" s="367"/>
-      <c r="E9" s="367"/>
-      <c r="F9" s="367"/>
+      <c r="C9" s="369"/>
+      <c r="D9" s="369"/>
+      <c r="E9" s="369"/>
+      <c r="F9" s="369"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="367"/>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367"/>
-      <c r="F10" s="367"/>
+      <c r="C10" s="369"/>
+      <c r="D10" s="369"/>
+      <c r="E10" s="369"/>
+      <c r="F10" s="369"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -14934,21 +14931,21 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="376" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="378" t="s">
+      <c r="A14" s="378" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="380" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="379"/>
-      <c r="D14" s="379"/>
-      <c r="E14" s="379"/>
-      <c r="F14" s="379"/>
-      <c r="G14" s="379"/>
-      <c r="H14" s="379"/>
-      <c r="I14" s="380"/>
+      <c r="C14" s="381"/>
+      <c r="D14" s="381"/>
+      <c r="E14" s="381"/>
+      <c r="F14" s="381"/>
+      <c r="G14" s="381"/>
+      <c r="H14" s="381"/>
+      <c r="I14" s="382"/>
       <c r="J14" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K14" s="268"/>
       <c r="L14" s="149">
@@ -14957,19 +14954,19 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="377"/>
-      <c r="B15" s="381" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" s="382"/>
-      <c r="D15" s="382"/>
-      <c r="E15" s="382"/>
-      <c r="F15" s="382"/>
-      <c r="G15" s="382"/>
-      <c r="H15" s="382"/>
-      <c r="I15" s="382"/>
+      <c r="A15" s="379"/>
+      <c r="B15" s="383" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="384"/>
+      <c r="D15" s="384"/>
+      <c r="E15" s="384"/>
+      <c r="F15" s="384"/>
+      <c r="G15" s="384"/>
+      <c r="H15" s="384"/>
+      <c r="I15" s="384"/>
       <c r="J15" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K15" s="269"/>
       <c r="L15" s="251">
@@ -14978,21 +14975,21 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="383" t="s">
-        <v>163</v>
-      </c>
-      <c r="B16" s="385" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="386"/>
-      <c r="D16" s="386"/>
-      <c r="E16" s="386"/>
-      <c r="F16" s="386"/>
-      <c r="G16" s="386"/>
-      <c r="H16" s="386"/>
-      <c r="I16" s="386"/>
+      <c r="A16" s="385" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="387" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="388"/>
+      <c r="D16" s="388"/>
+      <c r="E16" s="388"/>
+      <c r="F16" s="388"/>
+      <c r="G16" s="388"/>
+      <c r="H16" s="388"/>
+      <c r="I16" s="388"/>
       <c r="J16" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K16" s="270"/>
       <c r="L16" s="147">
@@ -15001,19 +14998,19 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="384"/>
-      <c r="B17" s="387" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="388"/>
-      <c r="D17" s="388"/>
-      <c r="E17" s="388"/>
-      <c r="F17" s="388"/>
-      <c r="G17" s="388"/>
-      <c r="H17" s="388"/>
-      <c r="I17" s="388"/>
+      <c r="A17" s="386"/>
+      <c r="B17" s="389" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="390"/>
+      <c r="D17" s="390"/>
+      <c r="E17" s="390"/>
+      <c r="F17" s="390"/>
+      <c r="G17" s="390"/>
+      <c r="H17" s="390"/>
+      <c r="I17" s="390"/>
       <c r="J17" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K17" s="271"/>
       <c r="L17" s="145">
@@ -15122,17 +15119,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15145,24 +15142,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15228,30 +15207,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15266,4 +15240,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6783E5B1-67EC-4B99-B4AA-7EDBD2056315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD2E5B4-9C56-49FD-8240-B6BA724207A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="8820" windowWidth="29040" windowHeight="17640" tabRatio="966" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="8820" windowWidth="29040" windowHeight="17640" tabRatio="966" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="37" r:id="rId1"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="186">
   <si>
     <t>Nation:</t>
   </si>
@@ -226,9 +226,6 @@
     <t>Signatur</t>
   </si>
   <si>
-    <t>Individuell Minior</t>
-  </si>
-  <si>
     <t>Klubb:</t>
   </si>
   <si>
@@ -266,9 +263,6 @@
   </si>
   <si>
     <t>Signatur:</t>
-  </si>
-  <si>
-    <t>Individuell junior</t>
   </si>
   <si>
     <t>Kvarn</t>
@@ -1119,6 +1113,15 @@
   </si>
   <si>
     <t>Individuell kür</t>
+  </si>
+  <si>
+    <t>Individuell 1*</t>
+  </si>
+  <si>
+    <t>Individuell 2*</t>
+  </si>
+  <si>
+    <t>Individuell 3*</t>
   </si>
 </sst>
 </file>
@@ -2165,7 +2168,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="421">
+  <cellXfs count="415">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2936,29 +2939,103 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3019,12 +3096,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3046,95 +3117,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3159,7 +3144,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3701,27 +3686,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="242" customFormat="1" ht="20.65" x14ac:dyDescent="0.6">
       <c r="A1" s="241" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="242" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="242" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="242" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="279" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="279" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -3729,18 +3714,18 @@
     <row r="8" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="242" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="242" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:6" s="212" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A11" s="212" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="153" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -3748,61 +3733,61 @@
     </row>
     <row r="15" spans="1:6" s="213" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A15" s="213" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="214" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" s="153"/>
       <c r="F16" s="214" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="213" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C17" s="213" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="213" t="s">
         <v>80</v>
-      </c>
-      <c r="D17" s="213" t="s">
-        <v>82</v>
       </c>
       <c r="E17" s="213"/>
       <c r="F17" s="213" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G17" s="213" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="213" t="s">
         <v>80</v>
-      </c>
-      <c r="H17" s="213" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="153" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18" s="209" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D18" s="209" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E18" s="216"/>
       <c r="F18" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G18" s="209" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H18" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3817,26 +3802,26 @@
     </row>
     <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="153" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C20" s="209" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D20" s="209" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E20" s="216"/>
       <c r="F20" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G20" s="209" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H20" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3851,26 +3836,26 @@
     </row>
     <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="153" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C22" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D22" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E22" s="216"/>
       <c r="F22" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G22" s="209" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H22" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3885,40 +3870,40 @@
     </row>
     <row r="24" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="153" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B24" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C24" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D24" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E24" s="216"/>
       <c r="F24" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G24" s="209" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H24" s="209" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A25" s="215" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B25" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C25" s="209" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D25" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E25" s="215"/>
     </row>
@@ -3931,110 +3916,110 @@
     </row>
     <row r="27" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="153" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B27" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D27" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E27" s="216"/>
       <c r="F27" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G27" s="209" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H27" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A28" s="215" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B28" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" s="209" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="209" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E28" s="215"/>
     </row>
     <row r="30" spans="1:9" s="213" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A30" s="213" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="214" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C31" s="153"/>
       <c r="F31" s="214" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="213" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" s="213" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="213" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="213" t="s">
-        <v>82</v>
-      </c>
       <c r="E32" s="213" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F32" s="213" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G32" s="213" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="213" t="s">
         <v>80</v>
       </c>
-      <c r="H32" s="213" t="s">
-        <v>82</v>
-      </c>
       <c r="I32" s="213" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="153" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B33" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C33" s="209" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D33" s="209" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E33" s="209" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F33" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G33" s="209" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H33" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I33" s="209" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4050,31 +4035,31 @@
     </row>
     <row r="35" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="153" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B35" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C35" s="209" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D35" s="209" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E35" s="209" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F35" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G35" s="209" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H35" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I35" s="209" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4090,31 +4075,31 @@
     </row>
     <row r="37" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="153" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B37" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D37" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E37" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F37" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G37" s="209" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H37" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I37" s="209" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4130,48 +4115,48 @@
     </row>
     <row r="39" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="153" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="209" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="209" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="209" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="209" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="211" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="209" t="s">
+        <v>85</v>
+      </c>
+      <c r="H39" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="209" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="209" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="209" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" s="209" t="s">
-        <v>141</v>
-      </c>
-      <c r="F39" s="211" t="s">
-        <v>83</v>
-      </c>
-      <c r="G39" s="209" t="s">
-        <v>87</v>
-      </c>
-      <c r="H39" s="209" t="s">
-        <v>88</v>
-      </c>
       <c r="I39" s="209" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A40" s="215" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B40" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" s="209" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D40" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E40" s="209" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -4182,48 +4167,48 @@
     </row>
     <row r="42" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="153" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B42" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D42" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E42" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F42" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G42" s="209" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H42" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I42" s="209" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A43" s="215" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B43" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C43" s="209" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D43" s="209" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E43" s="209" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
@@ -4240,106 +4225,106 @@
     </row>
     <row r="46" spans="1:14" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A46" s="213" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="214" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C48" s="153"/>
       <c r="F48" s="214" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J48" s="214" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K48" s="153"/>
       <c r="N48" s="214" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="213" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C49" s="213" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="213" t="s">
         <v>80</v>
-      </c>
-      <c r="D49" s="213" t="s">
-        <v>82</v>
       </c>
       <c r="E49" s="213"/>
       <c r="F49" s="213" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G49" s="213" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="213" t="s">
         <v>80</v>
       </c>
-      <c r="H49" s="213" t="s">
-        <v>82</v>
-      </c>
       <c r="J49" s="213" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K49" s="213" t="s">
+        <v>78</v>
+      </c>
+      <c r="L49" s="213" t="s">
         <v>80</v>
-      </c>
-      <c r="L49" s="213" t="s">
-        <v>82</v>
       </c>
       <c r="M49" s="213"/>
       <c r="N49" s="213" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O49" s="213" t="s">
+        <v>78</v>
+      </c>
+      <c r="P49" s="213" t="s">
         <v>80</v>
-      </c>
-      <c r="P49" s="213" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="153" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B50" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C50" s="209" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D50" s="209" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E50" s="216"/>
       <c r="F50" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G50" s="209" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H50" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J50" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K50" s="209" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L50" s="209" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M50" s="216"/>
       <c r="N50" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O50" s="209" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P50" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4361,45 +4346,45 @@
     </row>
     <row r="52" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="153" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B52" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C52" s="209" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D52" s="209" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E52" s="216"/>
       <c r="F52" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G52" s="209" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H52" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J52" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K52" s="209" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L52" s="209" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M52" s="216"/>
       <c r="N52" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O52" s="209" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P52" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4421,45 +4406,45 @@
     </row>
     <row r="54" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="153" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B54" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C54" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D54" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E54" s="216"/>
       <c r="F54" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G54" s="209" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H54" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J54" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K54" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L54" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M54" s="216"/>
       <c r="N54" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O54" s="209" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P54" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4481,45 +4466,45 @@
     </row>
     <row r="56" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="153" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B56" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C56" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D56" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E56" s="216"/>
       <c r="F56" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G56" s="209" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H56" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J56" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K56" s="209" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L56" s="209" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M56" s="216"/>
       <c r="N56" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O56" s="209" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P56" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
@@ -4531,126 +4516,126 @@
     </row>
     <row r="59" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A59" s="213" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="214" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="153"/>
       <c r="F61" s="214" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J61" s="214" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K61" s="153"/>
       <c r="N61" s="214" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="213" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="213" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="213" t="s">
         <v>80</v>
       </c>
-      <c r="D62" s="213" t="s">
-        <v>82</v>
-      </c>
       <c r="E62" s="213" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F62" s="213" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G62" s="213" t="s">
+        <v>78</v>
+      </c>
+      <c r="H62" s="213" t="s">
         <v>80</v>
       </c>
-      <c r="H62" s="213" t="s">
-        <v>82</v>
-      </c>
       <c r="I62" s="213" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J62" s="213" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K62" s="213" t="s">
+        <v>78</v>
+      </c>
+      <c r="L62" s="213" t="s">
         <v>80</v>
       </c>
-      <c r="L62" s="213" t="s">
-        <v>82</v>
-      </c>
       <c r="M62" s="213" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N62" s="213" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O62" s="213" t="s">
+        <v>78</v>
+      </c>
+      <c r="P62" s="213" t="s">
         <v>80</v>
       </c>
-      <c r="P62" s="213" t="s">
-        <v>82</v>
-      </c>
       <c r="Q62" s="213" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="153" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B63" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="209" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D63" s="209" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E63" s="209" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F63" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G63" s="209" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H63" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I63" s="209" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J63" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K63" s="209" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L63" s="209" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M63" s="209" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N63" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O63" s="209" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P63" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q63" s="209" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4674,55 +4659,55 @@
     </row>
     <row r="65" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="153" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B65" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="209" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D65" s="209" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E65" s="209" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F65" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G65" s="209" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H65" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I65" s="209" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J65" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K65" s="209" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L65" s="209" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M65" s="209" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N65" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O65" s="209" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P65" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q65" s="209" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4746,55 +4731,55 @@
     </row>
     <row r="67" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="153" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B67" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D67" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E67" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F67" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G67" s="209" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H67" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I67" s="209" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J67" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K67" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L67" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M67" s="209" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N67" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O67" s="209" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P67" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q67" s="209" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4818,140 +4803,140 @@
     </row>
     <row r="69" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="153" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="209" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="209" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="209" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" s="209" t="s">
+        <v>139</v>
+      </c>
+      <c r="F69" s="209" t="s">
+        <v>81</v>
+      </c>
+      <c r="G69" s="209" t="s">
+        <v>144</v>
+      </c>
+      <c r="H69" s="209" t="s">
+        <v>82</v>
+      </c>
+      <c r="I69" s="209" t="s">
+        <v>144</v>
+      </c>
+      <c r="J69" s="209" t="s">
+        <v>81</v>
+      </c>
+      <c r="K69" s="209" t="s">
+        <v>85</v>
+      </c>
+      <c r="L69" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="B69" s="209" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="209" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69" s="209" t="s">
-        <v>141</v>
-      </c>
-      <c r="E69" s="209" t="s">
-        <v>141</v>
-      </c>
-      <c r="F69" s="209" t="s">
-        <v>83</v>
-      </c>
-      <c r="G69" s="209" t="s">
-        <v>146</v>
-      </c>
-      <c r="H69" s="209" t="s">
-        <v>84</v>
-      </c>
-      <c r="I69" s="209" t="s">
-        <v>146</v>
-      </c>
-      <c r="J69" s="209" t="s">
-        <v>83</v>
-      </c>
-      <c r="K69" s="209" t="s">
-        <v>87</v>
-      </c>
-      <c r="L69" s="209" t="s">
-        <v>88</v>
-      </c>
       <c r="M69" s="209" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N69" s="209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O69" s="209" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P69" s="209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q69" s="209" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="242" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A73" s="244" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="213" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A74" s="247" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B74" s="247" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C74" s="247" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="247" t="s">
         <v>80</v>
       </c>
-      <c r="D74" s="247" t="s">
-        <v>82</v>
-      </c>
       <c r="E74" s="247" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F74" s="247" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="243" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="243" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="249" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" s="249" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75" s="243" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="243" t="s">
+      <c r="F75" s="243" t="s">
         <v>99</v>
-      </c>
-      <c r="C75" s="249" t="s">
-        <v>111</v>
-      </c>
-      <c r="D75" s="249" t="s">
-        <v>111</v>
-      </c>
-      <c r="E75" s="243" t="s">
-        <v>100</v>
-      </c>
-      <c r="F75" s="243" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="243" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B76" s="243" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="243" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" s="249" t="s">
+        <v>149</v>
+      </c>
+      <c r="E76" s="243" t="s">
+        <v>103</v>
+      </c>
+      <c r="F76" s="243" t="s">
         <v>99</v>
-      </c>
-      <c r="C76" s="243" t="s">
-        <v>103</v>
-      </c>
-      <c r="D76" s="249" t="s">
-        <v>151</v>
-      </c>
-      <c r="E76" s="243" t="s">
-        <v>105</v>
-      </c>
-      <c r="F76" s="243" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="243" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B77" s="243" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="243" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" s="249" t="s">
+        <v>149</v>
+      </c>
+      <c r="E77" s="243" t="s">
+        <v>103</v>
+      </c>
+      <c r="F77" s="243" t="s">
         <v>99</v>
-      </c>
-      <c r="C77" s="243" t="s">
-        <v>103</v>
-      </c>
-      <c r="D77" s="249" t="s">
-        <v>151</v>
-      </c>
-      <c r="E77" s="243" t="s">
-        <v>105</v>
-      </c>
-      <c r="F77" s="243" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4961,7 +4946,7 @@
       <c r="D78" s="243"/>
       <c r="E78" s="243"/>
       <c r="F78" s="245" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4972,62 +4957,62 @@
     </row>
     <row r="82" spans="1:6" s="213" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A82" s="248" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B82" s="247" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C82" s="247" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="247" t="s">
         <v>80</v>
       </c>
-      <c r="D82" s="247" t="s">
-        <v>82</v>
-      </c>
       <c r="E82" s="247" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F82" s="247" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="243" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" s="243" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" s="249" t="s">
+        <v>109</v>
+      </c>
+      <c r="D83" s="249" t="s">
+        <v>109</v>
+      </c>
+      <c r="E83" s="243" t="s">
         <v>98</v>
       </c>
-      <c r="B83" s="243" t="s">
+      <c r="F83" s="243" t="s">
         <v>99</v>
-      </c>
-      <c r="C83" s="249" t="s">
-        <v>111</v>
-      </c>
-      <c r="D83" s="249" t="s">
-        <v>111</v>
-      </c>
-      <c r="E83" s="243" t="s">
-        <v>100</v>
-      </c>
-      <c r="F83" s="243" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="243" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" s="243" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="243" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" s="243" t="s">
         <v>102</v>
       </c>
-      <c r="B84" s="243" t="s">
+      <c r="E84" s="243" t="s">
+        <v>103</v>
+      </c>
+      <c r="F84" s="243" t="s">
         <v>99</v>
-      </c>
-      <c r="C84" s="243" t="s">
-        <v>103</v>
-      </c>
-      <c r="D84" s="243" t="s">
-        <v>104</v>
-      </c>
-      <c r="E84" s="243" t="s">
-        <v>105</v>
-      </c>
-      <c r="F84" s="243" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5037,7 +5022,7 @@
       <c r="D85" s="243"/>
       <c r="E85" s="243"/>
       <c r="F85" s="209" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="244" customFormat="1" ht="17.25" x14ac:dyDescent="0.45"/>
@@ -5649,11 +5634,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -5661,11 +5646,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -5693,10 +5678,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="369"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="369"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -5710,10 +5695,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="369"/>
-      <c r="D6" s="369"/>
-      <c r="E6" s="369"/>
-      <c r="F6" s="369"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -5722,7 +5707,7 @@
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="260"/>
@@ -5742,30 +5727,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="370"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="369"/>
-      <c r="D9" s="369"/>
-      <c r="E9" s="369"/>
-      <c r="F9" s="369"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="369"/>
-      <c r="D10" s="369"/>
-      <c r="E10" s="369"/>
-      <c r="F10" s="369"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -5774,25 +5759,25 @@
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K13" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="378" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="380" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="381"/>
-      <c r="D14" s="381"/>
-      <c r="E14" s="381"/>
-      <c r="F14" s="381"/>
-      <c r="G14" s="381"/>
-      <c r="H14" s="381"/>
-      <c r="I14" s="382"/>
+      <c r="A14" s="372" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="374" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="375"/>
+      <c r="D14" s="375"/>
+      <c r="E14" s="375"/>
+      <c r="F14" s="375"/>
+      <c r="G14" s="375"/>
+      <c r="H14" s="375"/>
+      <c r="I14" s="376"/>
       <c r="J14" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K14" s="268">
         <v>0</v>
@@ -5803,19 +5788,19 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="391"/>
-      <c r="B15" s="383" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="384"/>
-      <c r="D15" s="384"/>
-      <c r="E15" s="384"/>
-      <c r="F15" s="384"/>
-      <c r="G15" s="384"/>
-      <c r="H15" s="384"/>
-      <c r="I15" s="384"/>
+      <c r="A15" s="385"/>
+      <c r="B15" s="377" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="378"/>
+      <c r="D15" s="378"/>
+      <c r="E15" s="378"/>
+      <c r="F15" s="378"/>
+      <c r="G15" s="378"/>
+      <c r="H15" s="378"/>
+      <c r="I15" s="378"/>
       <c r="J15" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K15" s="269">
         <v>0</v>
@@ -5826,21 +5811,21 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="378" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="387" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="388"/>
-      <c r="D16" s="388"/>
-      <c r="E16" s="388"/>
-      <c r="F16" s="388"/>
-      <c r="G16" s="388"/>
-      <c r="H16" s="388"/>
-      <c r="I16" s="388"/>
+      <c r="A16" s="372" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="381" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="382"/>
+      <c r="D16" s="382"/>
+      <c r="E16" s="382"/>
+      <c r="F16" s="382"/>
+      <c r="G16" s="382"/>
+      <c r="H16" s="382"/>
+      <c r="I16" s="382"/>
       <c r="J16" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K16" s="270">
         <v>0</v>
@@ -5851,19 +5836,19 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="379"/>
-      <c r="B17" s="389" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="390"/>
-      <c r="D17" s="390"/>
-      <c r="E17" s="390"/>
-      <c r="F17" s="390"/>
-      <c r="G17" s="390"/>
-      <c r="H17" s="390"/>
-      <c r="I17" s="390"/>
+      <c r="A17" s="373"/>
+      <c r="B17" s="383" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="384"/>
+      <c r="D17" s="384"/>
+      <c r="E17" s="384"/>
+      <c r="F17" s="384"/>
+      <c r="G17" s="384"/>
+      <c r="H17" s="384"/>
+      <c r="I17" s="384"/>
       <c r="J17" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K17" s="271">
         <v>0</v>
@@ -5909,7 +5894,7 @@
     <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21"/>
       <c r="B20" s="54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="55"/>
       <c r="D20" s="56"/>
@@ -5926,7 +5911,7 @@
     <row r="21" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I22" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
@@ -5947,7 +5932,7 @@
       <c r="D26" s="58"/>
       <c r="E26" s="58"/>
       <c r="H26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -6001,7 +5986,7 @@
   <sheetPr codeName="Blad8"/>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -6592,11 +6577,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -6604,11 +6589,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -6636,10 +6621,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="369"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="369"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -6653,10 +6638,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="369"/>
-      <c r="D6" s="369"/>
-      <c r="E6" s="369"/>
-      <c r="F6" s="369"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -6665,7 +6650,7 @@
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="260"/>
@@ -6685,30 +6670,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="370"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="369"/>
-      <c r="D9" s="369"/>
-      <c r="E9" s="369"/>
-      <c r="F9" s="369"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="369"/>
-      <c r="D10" s="369"/>
-      <c r="E10" s="369"/>
-      <c r="F10" s="369"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6717,25 +6702,25 @@
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K13" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="378" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="380" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="381"/>
-      <c r="D14" s="381"/>
-      <c r="E14" s="381"/>
-      <c r="F14" s="381"/>
-      <c r="G14" s="381"/>
-      <c r="H14" s="381"/>
-      <c r="I14" s="382"/>
+      <c r="A14" s="372" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="374" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="375"/>
+      <c r="D14" s="375"/>
+      <c r="E14" s="375"/>
+      <c r="F14" s="375"/>
+      <c r="G14" s="375"/>
+      <c r="H14" s="375"/>
+      <c r="I14" s="376"/>
       <c r="J14" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K14" s="268">
         <v>0</v>
@@ -6746,19 +6731,19 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="391"/>
-      <c r="B15" s="383" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="384"/>
-      <c r="D15" s="384"/>
-      <c r="E15" s="384"/>
-      <c r="F15" s="384"/>
-      <c r="G15" s="384"/>
-      <c r="H15" s="384"/>
-      <c r="I15" s="384"/>
+      <c r="A15" s="385"/>
+      <c r="B15" s="377" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="378"/>
+      <c r="D15" s="378"/>
+      <c r="E15" s="378"/>
+      <c r="F15" s="378"/>
+      <c r="G15" s="378"/>
+      <c r="H15" s="378"/>
+      <c r="I15" s="378"/>
       <c r="J15" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K15" s="269">
         <v>0</v>
@@ -6769,21 +6754,21 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="378" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="387" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="388"/>
-      <c r="D16" s="388"/>
-      <c r="E16" s="388"/>
-      <c r="F16" s="388"/>
-      <c r="G16" s="388"/>
-      <c r="H16" s="388"/>
-      <c r="I16" s="388"/>
+      <c r="A16" s="372" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="381" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="382"/>
+      <c r="D16" s="382"/>
+      <c r="E16" s="382"/>
+      <c r="F16" s="382"/>
+      <c r="G16" s="382"/>
+      <c r="H16" s="382"/>
+      <c r="I16" s="382"/>
       <c r="J16" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K16" s="270">
         <v>0</v>
@@ -6794,19 +6779,19 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="379"/>
-      <c r="B17" s="389" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="390"/>
-      <c r="D17" s="390"/>
-      <c r="E17" s="390"/>
-      <c r="F17" s="390"/>
-      <c r="G17" s="390"/>
-      <c r="H17" s="390"/>
-      <c r="I17" s="390"/>
+      <c r="A17" s="373"/>
+      <c r="B17" s="383" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="384"/>
+      <c r="D17" s="384"/>
+      <c r="E17" s="384"/>
+      <c r="F17" s="384"/>
+      <c r="G17" s="384"/>
+      <c r="H17" s="384"/>
+      <c r="I17" s="384"/>
       <c r="J17" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K17" s="271">
         <v>0</v>
@@ -6852,7 +6837,7 @@
     <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21"/>
       <c r="B20" s="54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="55"/>
       <c r="D20" s="56"/>
@@ -6869,7 +6854,7 @@
     <row r="21" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I22" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
@@ -6890,7 +6875,7 @@
       <c r="D26" s="58"/>
       <c r="E26" s="58"/>
       <c r="H26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -6917,17 +6902,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6967,11 +6952,11 @@
     <row r="1" spans="1:12" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -6979,11 +6964,11 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -7011,10 +6996,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="369"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="369"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -7028,15 +7013,15 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="369"/>
-      <c r="D6" s="369"/>
-      <c r="E6" s="369"/>
-      <c r="F6" s="369"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="260"/>
@@ -7054,37 +7039,37 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="370"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="369"/>
-      <c r="D9" s="369"/>
-      <c r="E9" s="369"/>
-      <c r="F9" s="369"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="369"/>
-      <c r="D10" s="369"/>
-      <c r="E10" s="369"/>
-      <c r="F10" s="369"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="110" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" s="111"/>
       <c r="C14" s="111"/>
@@ -7099,18 +7084,18 @@
       <c r="J14" s="11"/>
       <c r="K14" s="34"/>
       <c r="L14" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="392" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="393"/>
-      <c r="C15" s="393"/>
-      <c r="D15" s="393"/>
-      <c r="E15" s="393"/>
-      <c r="F15" s="394"/>
+      <c r="A15" s="386" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="387"/>
+      <c r="C15" s="387"/>
+      <c r="D15" s="387"/>
+      <c r="E15" s="387"/>
+      <c r="F15" s="388"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="11"/>
@@ -7119,14 +7104,14 @@
       <c r="L15" s="263"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="392" t="s">
-        <v>182</v>
-      </c>
-      <c r="B16" s="393"/>
-      <c r="C16" s="393"/>
-      <c r="D16" s="393"/>
-      <c r="E16" s="393"/>
-      <c r="F16" s="394"/>
+      <c r="A16" s="386" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="387"/>
+      <c r="C16" s="387"/>
+      <c r="D16" s="387"/>
+      <c r="E16" s="387"/>
+      <c r="F16" s="388"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="11"/>
@@ -7136,7 +7121,7 @@
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="225" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B17" s="88"/>
       <c r="C17" s="88"/>
@@ -7152,7 +7137,7 @@
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="225" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B18" s="88"/>
       <c r="C18" s="88"/>
@@ -7168,7 +7153,7 @@
     </row>
     <row r="19" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="225" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
@@ -7187,27 +7172,27 @@
       <c r="L20" s="140"/>
     </row>
     <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="398" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="399"/>
-      <c r="C21" s="399"/>
-      <c r="D21" s="399"/>
-      <c r="E21" s="399"/>
-      <c r="F21" s="399"/>
-      <c r="G21" s="399"/>
-      <c r="H21" s="399"/>
-      <c r="I21" s="399"/>
+      <c r="A21" s="392" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="393"/>
+      <c r="C21" s="393"/>
+      <c r="D21" s="393"/>
+      <c r="E21" s="393"/>
+      <c r="F21" s="393"/>
+      <c r="G21" s="393"/>
+      <c r="H21" s="393"/>
+      <c r="I21" s="393"/>
       <c r="J21" s="139"/>
       <c r="K21" s="138"/>
       <c r="L21" s="8"/>
       <c r="R21" s="133"/>
     </row>
     <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="406" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="407"/>
+      <c r="A22" s="400" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="401"/>
       <c r="C22" s="137"/>
       <c r="D22" s="137"/>
       <c r="E22" s="137"/>
@@ -7221,28 +7206,28 @@
       <c r="R22" s="133"/>
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="402" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="403"/>
+      <c r="A23" s="396" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="397"/>
       <c r="C23" s="272"/>
-      <c r="D23" s="400" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="401"/>
+      <c r="D23" s="394" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="395"/>
       <c r="F23" s="273"/>
       <c r="G23" s="232" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H23" s="233">
         <f>IFERROR(IF(ROUND(C23/F23,3)&gt;10,10,ROUND(C23/F23,3)),10)</f>
         <v>10</v>
       </c>
       <c r="I23" s="234" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J23" s="232" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K23" s="235">
         <f>10-H23</f>
@@ -7252,11 +7237,11 @@
       <c r="R23" s="133"/>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="404" t="s">
+      <c r="A24" s="398" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="405"/>
-      <c r="C24" s="405"/>
+      <c r="B24" s="399"/>
+      <c r="C24" s="399"/>
       <c r="D24" s="236"/>
       <c r="E24" s="236"/>
       <c r="F24" s="236"/>
@@ -7268,19 +7253,19 @@
       <c r="R24" s="133"/>
     </row>
     <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="395" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="396"/>
-      <c r="C25" s="396"/>
-      <c r="D25" s="396"/>
-      <c r="E25" s="396"/>
-      <c r="F25" s="396"/>
-      <c r="G25" s="396"/>
-      <c r="H25" s="396"/>
-      <c r="I25" s="396"/>
-      <c r="J25" s="396"/>
-      <c r="K25" s="397"/>
+      <c r="A25" s="389" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="390"/>
+      <c r="C25" s="390"/>
+      <c r="D25" s="390"/>
+      <c r="E25" s="390"/>
+      <c r="F25" s="390"/>
+      <c r="G25" s="390"/>
+      <c r="H25" s="390"/>
+      <c r="I25" s="390"/>
+      <c r="J25" s="390"/>
+      <c r="K25" s="391"/>
       <c r="L25" s="9">
         <f>IFERROR(K23-K24,0)</f>
         <v>0</v>
@@ -7327,7 +7312,7 @@
     </row>
     <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L28" s="127" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7338,7 +7323,7 @@
     <row r="30" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H30" s="124"/>
       <c r="I30" s="123" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J30" s="122"/>
       <c r="K30" s="121"/>
@@ -7381,7 +7366,7 @@
       <c r="E34" s="58"/>
       <c r="F34" s="7"/>
       <c r="H34" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -7413,7 +7398,7 @@
     <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
     <oddFooter>&amp;R2022-01-01</oddFooter>
@@ -7450,11 +7435,11 @@
     <row r="1" spans="1:12" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -7462,11 +7447,11 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -7494,10 +7479,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="369"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="369"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -7511,21 +7496,21 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="369"/>
-      <c r="D6" s="369"/>
-      <c r="E6" s="369"/>
-      <c r="F6" s="369"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="304"/>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
       <c r="J7" s="28" t="s">
         <v>9</v>
       </c>
@@ -7537,37 +7522,37 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="370"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="369"/>
-      <c r="D9" s="369"/>
-      <c r="E9" s="369"/>
-      <c r="F9" s="369"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="369"/>
-      <c r="D10" s="369"/>
-      <c r="E10" s="369"/>
-      <c r="F10" s="369"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="110" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" s="111"/>
       <c r="C14" s="111"/>
@@ -7582,18 +7567,18 @@
       <c r="J14" s="11"/>
       <c r="K14" s="34"/>
       <c r="L14" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="392" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="393"/>
-      <c r="C15" s="393"/>
-      <c r="D15" s="393"/>
-      <c r="E15" s="393"/>
-      <c r="F15" s="394"/>
+      <c r="A15" s="386" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="387"/>
+      <c r="C15" s="387"/>
+      <c r="D15" s="387"/>
+      <c r="E15" s="387"/>
+      <c r="F15" s="388"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="11"/>
@@ -7602,14 +7587,14 @@
       <c r="L15" s="263"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="392" t="s">
-        <v>182</v>
-      </c>
-      <c r="B16" s="393"/>
-      <c r="C16" s="393"/>
-      <c r="D16" s="393"/>
-      <c r="E16" s="393"/>
-      <c r="F16" s="394"/>
+      <c r="A16" s="386" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="387"/>
+      <c r="C16" s="387"/>
+      <c r="D16" s="387"/>
+      <c r="E16" s="387"/>
+      <c r="F16" s="388"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="11"/>
@@ -7618,14 +7603,14 @@
       <c r="L16" s="263"/>
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="301" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="302"/>
-      <c r="C17" s="302"/>
-      <c r="D17" s="302"/>
-      <c r="E17" s="302"/>
-      <c r="F17" s="303"/>
+      <c r="A17" s="225" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="226"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="11"/>
@@ -7634,14 +7619,14 @@
       <c r="L17" s="263"/>
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="301" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="302"/>
-      <c r="C18" s="302"/>
-      <c r="D18" s="302"/>
-      <c r="E18" s="302"/>
-      <c r="F18" s="303"/>
+      <c r="A18" s="225" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="226"/>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="11"/>
@@ -7650,14 +7635,14 @@
       <c r="L18" s="263"/>
     </row>
     <row r="19" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="301" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="302"/>
-      <c r="C19" s="302"/>
-      <c r="D19" s="302"/>
-      <c r="E19" s="302"/>
-      <c r="F19" s="303"/>
+      <c r="A19" s="225" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="226"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="11"/>
@@ -7670,27 +7655,27 @@
       <c r="L20" s="140"/>
     </row>
     <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="398" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="399"/>
-      <c r="C21" s="399"/>
-      <c r="D21" s="399"/>
-      <c r="E21" s="399"/>
-      <c r="F21" s="399"/>
-      <c r="G21" s="399"/>
-      <c r="H21" s="399"/>
-      <c r="I21" s="399"/>
+      <c r="A21" s="392" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="393"/>
+      <c r="C21" s="393"/>
+      <c r="D21" s="393"/>
+      <c r="E21" s="393"/>
+      <c r="F21" s="393"/>
+      <c r="G21" s="393"/>
+      <c r="H21" s="393"/>
+      <c r="I21" s="393"/>
       <c r="J21" s="139"/>
       <c r="K21" s="138"/>
       <c r="L21" s="8"/>
       <c r="R21" s="133"/>
     </row>
     <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="406" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="407"/>
+      <c r="A22" s="400" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="401"/>
       <c r="C22" s="137"/>
       <c r="D22" s="137"/>
       <c r="E22" s="137"/>
@@ -7704,28 +7689,28 @@
       <c r="R22" s="133"/>
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="402" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="403"/>
+      <c r="A23" s="396" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="397"/>
       <c r="C23" s="272"/>
-      <c r="D23" s="400" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="401"/>
+      <c r="D23" s="394" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="395"/>
       <c r="F23" s="273"/>
       <c r="G23" s="232" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H23" s="233">
         <f>IFERROR(IF(ROUND(C23/F23,3)&gt;10,10,ROUND(C23/F23,3)),10)</f>
         <v>10</v>
       </c>
       <c r="I23" s="234" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J23" s="232" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K23" s="235">
         <f>10-H23</f>
@@ -7735,11 +7720,11 @@
       <c r="R23" s="133"/>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="404" t="s">
+      <c r="A24" s="398" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="405"/>
-      <c r="C24" s="405"/>
+      <c r="B24" s="399"/>
+      <c r="C24" s="399"/>
       <c r="D24" s="236"/>
       <c r="E24" s="236"/>
       <c r="F24" s="236"/>
@@ -7751,19 +7736,19 @@
       <c r="R24" s="133"/>
     </row>
     <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="395" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="396"/>
-      <c r="C25" s="396"/>
-      <c r="D25" s="396"/>
-      <c r="E25" s="396"/>
-      <c r="F25" s="396"/>
-      <c r="G25" s="396"/>
-      <c r="H25" s="396"/>
-      <c r="I25" s="396"/>
-      <c r="J25" s="396"/>
-      <c r="K25" s="397"/>
+      <c r="A25" s="389" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="390"/>
+      <c r="C25" s="390"/>
+      <c r="D25" s="390"/>
+      <c r="E25" s="390"/>
+      <c r="F25" s="390"/>
+      <c r="G25" s="390"/>
+      <c r="H25" s="390"/>
+      <c r="I25" s="390"/>
+      <c r="J25" s="390"/>
+      <c r="K25" s="391"/>
       <c r="L25" s="9">
         <f>IFERROR(K23-K24,0)</f>
         <v>0</v>
@@ -7810,7 +7795,7 @@
     </row>
     <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L28" s="127" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7821,7 +7806,7 @@
     <row r="30" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H30" s="124"/>
       <c r="I30" s="123" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J30" s="122"/>
       <c r="K30" s="121"/>
@@ -7864,7 +7849,7 @@
       <c r="E34" s="58"/>
       <c r="F34" s="7"/>
       <c r="H34" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -7881,12 +7866,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A25:K25"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A21:I21"/>
@@ -7894,9 +7873,15 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
     <oddFooter>&amp;R2022-01-01</oddFooter>
@@ -8503,24 +8488,24 @@
   <sheetData>
     <row r="1" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="412" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="412"/>
-      <c r="C2" s="412"/>
-      <c r="D2" s="412"/>
-      <c r="E2" s="412"/>
-      <c r="F2" s="412"/>
-      <c r="G2" s="412"/>
-      <c r="H2" s="412"/>
-      <c r="I2" s="412"/>
+      <c r="A2" s="406" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="406"/>
+      <c r="C2" s="406"/>
+      <c r="D2" s="406"/>
+      <c r="E2" s="406"/>
+      <c r="F2" s="406"/>
+      <c r="G2" s="406"/>
+      <c r="H2" s="406"/>
+      <c r="I2" s="406"/>
       <c r="J2" s="143"/>
       <c r="K2" s="143"/>
       <c r="L2" s="143"/>
     </row>
     <row r="3" spans="1:12" s="113" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -8529,7 +8514,7 @@
       <c r="F3" s="1"/>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -8547,7 +8532,7 @@
       <c r="G4" s="142"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="16"/>
@@ -8558,10 +8543,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="369"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="369"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="G5" s="142"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
@@ -8576,10 +8561,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="369"/>
-      <c r="D6" s="369"/>
-      <c r="E6" s="369"/>
-      <c r="F6" s="369"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
       <c r="G6" s="141"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14" t="s">
@@ -8591,7 +8576,7 @@
     </row>
     <row r="7" spans="1:12" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="260"/>
@@ -8610,10 +8595,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="370"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
       <c r="G8" s="151"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -8628,10 +8613,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="369"/>
-      <c r="D9" s="369"/>
-      <c r="E9" s="369"/>
-      <c r="F9" s="369"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
       <c r="G9" s="151"/>
       <c r="H9" s="141"/>
       <c r="I9" s="141"/>
@@ -8644,15 +8629,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="369"/>
-      <c r="D10" s="369"/>
-      <c r="E10" s="369"/>
-      <c r="F10" s="369"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
       <c r="G10" s="151"/>
       <c r="H10" s="141"/>
       <c r="I10" s="141"/>
-      <c r="J10" s="408"/>
-      <c r="K10" s="408"/>
+      <c r="J10" s="402"/>
+      <c r="K10" s="402"/>
       <c r="L10" s="152"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -8664,7 +8649,7 @@
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H12" s="150"/>
       <c r="I12" s="150"/>
@@ -8674,38 +8659,38 @@
     </row>
     <row r="13" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="254" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="255" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="407" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="255" t="s">
+      <c r="E13" s="408"/>
+      <c r="F13" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="413" t="s">
+      <c r="G13" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="414"/>
-      <c r="F13" s="255" t="s">
+      <c r="H13" s="256" t="s">
         <v>127</v>
       </c>
-      <c r="G13" s="255" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" s="256" t="s">
-        <v>129</v>
-      </c>
       <c r="I13" s="257" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" s="417" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" s="418"/>
+        <v>95</v>
+      </c>
+      <c r="J13" s="411" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" s="412"/>
       <c r="L13" s="150"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="274"/>
       <c r="C14" s="275"/>
-      <c r="D14" s="415"/>
-      <c r="E14" s="416"/>
+      <c r="D14" s="409"/>
+      <c r="E14" s="410"/>
       <c r="F14" s="275"/>
       <c r="G14" s="275"/>
       <c r="H14" s="276"/>
@@ -8713,11 +8698,11 @@
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="419">
+      <c r="J14" s="413">
         <f>I14/6</f>
         <v>0</v>
       </c>
-      <c r="K14" s="420"/>
+      <c r="K14" s="414"/>
       <c r="L14" s="150"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8726,25 +8711,25 @@
     </row>
     <row r="16" spans="1:12" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K16" s="253" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="250" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="409" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="410"/>
-      <c r="D17" s="410"/>
-      <c r="E17" s="410"/>
-      <c r="F17" s="410"/>
-      <c r="G17" s="410"/>
-      <c r="H17" s="410"/>
-      <c r="I17" s="411"/>
+        <v>131</v>
+      </c>
+      <c r="B17" s="403" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="404"/>
+      <c r="D17" s="404"/>
+      <c r="E17" s="404"/>
+      <c r="F17" s="404"/>
+      <c r="G17" s="404"/>
+      <c r="H17" s="404"/>
+      <c r="I17" s="405"/>
       <c r="J17" s="148" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K17" s="238">
         <f>J14</f>
@@ -8756,21 +8741,21 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="343" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="387" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="388"/>
-      <c r="D18" s="388"/>
-      <c r="E18" s="388"/>
-      <c r="F18" s="388"/>
-      <c r="G18" s="388"/>
-      <c r="H18" s="388"/>
-      <c r="I18" s="388"/>
+      <c r="A18" s="309" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="381" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="382"/>
+      <c r="D18" s="382"/>
+      <c r="E18" s="382"/>
+      <c r="F18" s="382"/>
+      <c r="G18" s="382"/>
+      <c r="H18" s="382"/>
+      <c r="I18" s="382"/>
       <c r="J18" s="148" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K18" s="270"/>
       <c r="L18" s="147">
@@ -8779,19 +8764,19 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="344"/>
-      <c r="B19" s="389" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="390"/>
-      <c r="D19" s="390"/>
-      <c r="E19" s="390"/>
-      <c r="F19" s="390"/>
-      <c r="G19" s="390"/>
-      <c r="H19" s="390"/>
-      <c r="I19" s="390"/>
+      <c r="A19" s="310"/>
+      <c r="B19" s="383" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="384"/>
+      <c r="D19" s="384"/>
+      <c r="E19" s="384"/>
+      <c r="F19" s="384"/>
+      <c r="G19" s="384"/>
+      <c r="H19" s="384"/>
+      <c r="I19" s="384"/>
       <c r="J19" s="146" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K19" s="271"/>
       <c r="L19" s="145">
@@ -8833,7 +8818,7 @@
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21"/>
       <c r="B22" s="54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="55"/>
       <c r="D22" s="56"/>
@@ -8849,7 +8834,7 @@
     <row r="23" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I24" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
@@ -8884,7 +8869,7 @@
       <c r="F28" s="239"/>
       <c r="G28" s="150"/>
       <c r="H28" s="239" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I28" s="239"/>
       <c r="J28" s="239"/>
@@ -8911,12 +8896,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A2:I2"/>
@@ -8926,9 +8905,15 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
     <oddFooter>&amp;R2019-06-01</oddFooter>
@@ -9535,24 +9520,24 @@
   <sheetData>
     <row r="1" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="412" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="412"/>
-      <c r="C2" s="412"/>
-      <c r="D2" s="412"/>
-      <c r="E2" s="412"/>
-      <c r="F2" s="412"/>
-      <c r="G2" s="412"/>
-      <c r="H2" s="412"/>
-      <c r="I2" s="412"/>
+      <c r="A2" s="406" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="406"/>
+      <c r="C2" s="406"/>
+      <c r="D2" s="406"/>
+      <c r="E2" s="406"/>
+      <c r="F2" s="406"/>
+      <c r="G2" s="406"/>
+      <c r="H2" s="406"/>
+      <c r="I2" s="406"/>
       <c r="J2" s="143"/>
       <c r="K2" s="143"/>
       <c r="L2" s="143"/>
     </row>
     <row r="3" spans="1:12" s="113" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -9561,7 +9546,7 @@
       <c r="F3" s="1"/>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -9579,7 +9564,7 @@
       <c r="G4" s="142"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="16"/>
@@ -9590,10 +9575,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="369"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="369"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="G5" s="142"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
@@ -9608,10 +9593,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="369"/>
-      <c r="D6" s="369"/>
-      <c r="E6" s="369"/>
-      <c r="F6" s="369"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
       <c r="G6" s="141"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14" t="s">
@@ -9623,13 +9608,13 @@
     </row>
     <row r="7" spans="1:12" s="113" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="304"/>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
       <c r="G7" s="151"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -9642,10 +9627,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="370"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
       <c r="G8" s="151"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -9660,10 +9645,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="369"/>
-      <c r="D9" s="369"/>
-      <c r="E9" s="369"/>
-      <c r="F9" s="369"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
       <c r="G9" s="151"/>
       <c r="H9" s="141"/>
       <c r="I9" s="141"/>
@@ -9676,15 +9661,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="369"/>
-      <c r="D10" s="369"/>
-      <c r="E10" s="369"/>
-      <c r="F10" s="369"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
       <c r="G10" s="151"/>
       <c r="H10" s="141"/>
       <c r="I10" s="141"/>
-      <c r="J10" s="408"/>
-      <c r="K10" s="408"/>
+      <c r="J10" s="402"/>
+      <c r="K10" s="402"/>
       <c r="L10" s="152"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -9696,7 +9681,7 @@
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H12" s="150"/>
       <c r="I12" s="150"/>
@@ -9706,50 +9691,50 @@
     </row>
     <row r="13" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="254" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="255" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="407" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="255" t="s">
+      <c r="E13" s="408"/>
+      <c r="F13" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="413" t="s">
+      <c r="G13" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="414"/>
-      <c r="F13" s="255" t="s">
+      <c r="H13" s="256" t="s">
         <v>127</v>
       </c>
-      <c r="G13" s="255" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" s="305" t="s">
-        <v>129</v>
-      </c>
       <c r="I13" s="257" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" s="417" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" s="418"/>
+        <v>95</v>
+      </c>
+      <c r="J13" s="411" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" s="412"/>
       <c r="L13" s="150"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="274"/>
       <c r="C14" s="275"/>
-      <c r="D14" s="415"/>
-      <c r="E14" s="416"/>
+      <c r="D14" s="409"/>
+      <c r="E14" s="410"/>
       <c r="F14" s="275"/>
-      <c r="G14" s="306"/>
-      <c r="H14" s="307"/>
+      <c r="G14" s="300"/>
+      <c r="H14" s="301"/>
       <c r="I14" s="277">
         <f>SUM(B14:F14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="419">
+      <c r="J14" s="413">
         <f>I14/4</f>
         <v>0</v>
       </c>
-      <c r="K14" s="420"/>
+      <c r="K14" s="414"/>
       <c r="L14" s="150"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9758,25 +9743,25 @@
     </row>
     <row r="16" spans="1:12" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K16" s="253" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="300" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="409" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="410"/>
-      <c r="D17" s="410"/>
-      <c r="E17" s="410"/>
-      <c r="F17" s="410"/>
-      <c r="G17" s="410"/>
-      <c r="H17" s="410"/>
-      <c r="I17" s="411"/>
+      <c r="A17" s="250" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="403" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="404"/>
+      <c r="D17" s="404"/>
+      <c r="E17" s="404"/>
+      <c r="F17" s="404"/>
+      <c r="G17" s="404"/>
+      <c r="H17" s="404"/>
+      <c r="I17" s="405"/>
       <c r="J17" s="148" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K17" s="238">
         <f>J14</f>
@@ -9788,21 +9773,21 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="343" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="387" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="388"/>
-      <c r="D18" s="388"/>
-      <c r="E18" s="388"/>
-      <c r="F18" s="388"/>
-      <c r="G18" s="388"/>
-      <c r="H18" s="388"/>
-      <c r="I18" s="388"/>
+      <c r="A18" s="309" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="381" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="382"/>
+      <c r="D18" s="382"/>
+      <c r="E18" s="382"/>
+      <c r="F18" s="382"/>
+      <c r="G18" s="382"/>
+      <c r="H18" s="382"/>
+      <c r="I18" s="382"/>
       <c r="J18" s="148" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K18" s="270"/>
       <c r="L18" s="147">
@@ -9811,19 +9796,19 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="344"/>
-      <c r="B19" s="389" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="390"/>
-      <c r="D19" s="390"/>
-      <c r="E19" s="390"/>
-      <c r="F19" s="390"/>
-      <c r="G19" s="390"/>
-      <c r="H19" s="390"/>
-      <c r="I19" s="390"/>
+      <c r="A19" s="310"/>
+      <c r="B19" s="383" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="384"/>
+      <c r="D19" s="384"/>
+      <c r="E19" s="384"/>
+      <c r="F19" s="384"/>
+      <c r="G19" s="384"/>
+      <c r="H19" s="384"/>
+      <c r="I19" s="384"/>
       <c r="J19" s="146" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K19" s="271"/>
       <c r="L19" s="145">
@@ -9865,7 +9850,7 @@
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21"/>
       <c r="B22" s="54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="55"/>
       <c r="D22" s="56"/>
@@ -9881,7 +9866,7 @@
     <row r="23" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I24" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
@@ -9916,7 +9901,7 @@
       <c r="F28" s="239"/>
       <c r="G28" s="150"/>
       <c r="H28" s="239" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I28" s="239"/>
       <c r="J28" s="239"/>
@@ -9943,11 +9928,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B19:I19"/>
@@ -9958,9 +9938,14 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
     <oddFooter>&amp;R2019-06-01</oddFooter>
@@ -10005,7 +9990,7 @@
       <c r="F1" s="102"/>
       <c r="H1" s="155"/>
       <c r="I1" s="156" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J1" s="157"/>
       <c r="K1" s="158"/>
@@ -10017,7 +10002,7 @@
       </c>
       <c r="H2" s="155"/>
       <c r="I2" s="156" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J2" s="157"/>
       <c r="K2" s="158"/>
@@ -10028,8 +10013,8 @@
         <v>4</v>
       </c>
       <c r="B3" s="160"/>
-      <c r="C3" s="364"/>
-      <c r="D3" s="364"/>
+      <c r="C3" s="303"/>
+      <c r="D3" s="303"/>
       <c r="E3" s="283"/>
       <c r="F3" s="283"/>
       <c r="H3" s="155"/>
@@ -10045,10 +10030,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="136"/>
-      <c r="C4" s="363"/>
-      <c r="D4" s="363"/>
-      <c r="E4" s="363"/>
-      <c r="F4" s="363"/>
+      <c r="C4" s="302"/>
+      <c r="D4" s="302"/>
+      <c r="E4" s="302"/>
+      <c r="F4" s="302"/>
       <c r="H4" s="155"/>
       <c r="I4" s="156" t="s">
         <v>11</v>
@@ -10062,15 +10047,15 @@
         <v>8</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="363"/>
-      <c r="D5" s="363"/>
-      <c r="E5" s="363"/>
-      <c r="F5" s="363"/>
+      <c r="C5" s="302"/>
+      <c r="D5" s="302"/>
+      <c r="E5" s="302"/>
+      <c r="F5" s="302"/>
       <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="136" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="136"/>
       <c r="C6" s="284"/>
@@ -10088,10 +10073,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="160"/>
-      <c r="C7" s="363"/>
-      <c r="D7" s="363"/>
-      <c r="E7" s="363"/>
-      <c r="F7" s="363"/>
+      <c r="C7" s="302"/>
+      <c r="D7" s="302"/>
+      <c r="E7" s="302"/>
+      <c r="F7" s="302"/>
       <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10099,10 +10084,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="136"/>
-      <c r="C8" s="363"/>
-      <c r="D8" s="363"/>
-      <c r="E8" s="363"/>
-      <c r="F8" s="363"/>
+      <c r="C8" s="302"/>
+      <c r="D8" s="302"/>
+      <c r="E8" s="302"/>
+      <c r="F8" s="302"/>
       <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10110,10 +10095,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="363"/>
-      <c r="D9" s="363"/>
-      <c r="E9" s="363"/>
-      <c r="F9" s="363"/>
+      <c r="C9" s="302"/>
+      <c r="D9" s="302"/>
+      <c r="E9" s="302"/>
+      <c r="F9" s="302"/>
       <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10128,112 +10113,112 @@
       <c r="D11" s="286"/>
       <c r="E11" s="286"/>
       <c r="F11" s="286"/>
-      <c r="H11" s="338" t="s">
+      <c r="H11" s="304" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="339"/>
-      <c r="J11" s="340" t="s">
+      <c r="I11" s="305"/>
+      <c r="J11" s="306" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="341"/>
-      <c r="L11" s="342"/>
+      <c r="K11" s="307"/>
+      <c r="L11" s="308"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="343" t="s">
+      <c r="A12" s="309" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="313" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="314"/>
+      <c r="D12" s="314"/>
+      <c r="E12" s="314"/>
+      <c r="F12" s="314"/>
+      <c r="G12" s="314"/>
+      <c r="H12" s="317"/>
+      <c r="I12" s="318"/>
+      <c r="J12" s="323" t="s">
         <v>167</v>
       </c>
-      <c r="B12" s="347" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="348"/>
-      <c r="D12" s="348"/>
-      <c r="E12" s="348"/>
-      <c r="F12" s="348"/>
-      <c r="G12" s="348"/>
-      <c r="H12" s="351"/>
-      <c r="I12" s="352"/>
-      <c r="J12" s="357" t="s">
-        <v>169</v>
-      </c>
-      <c r="K12" s="359">
+      <c r="K12" s="326">
         <f>SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
-      <c r="L12" s="327">
+      <c r="L12" s="329">
         <f>ROUND(K12*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="344"/>
-      <c r="B13" s="349"/>
-      <c r="C13" s="350"/>
-      <c r="D13" s="350"/>
-      <c r="E13" s="350"/>
-      <c r="F13" s="350"/>
-      <c r="G13" s="350"/>
-      <c r="H13" s="353"/>
-      <c r="I13" s="354"/>
-      <c r="J13" s="336"/>
-      <c r="K13" s="360"/>
-      <c r="L13" s="328"/>
+      <c r="A13" s="310"/>
+      <c r="B13" s="315"/>
+      <c r="C13" s="316"/>
+      <c r="D13" s="316"/>
+      <c r="E13" s="316"/>
+      <c r="F13" s="316"/>
+      <c r="G13" s="316"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="320"/>
+      <c r="J13" s="324"/>
+      <c r="K13" s="327"/>
+      <c r="L13" s="330"/>
     </row>
     <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="344"/>
-      <c r="B14" s="349"/>
-      <c r="C14" s="350"/>
-      <c r="D14" s="350"/>
-      <c r="E14" s="350"/>
-      <c r="F14" s="350"/>
-      <c r="G14" s="350"/>
-      <c r="H14" s="353"/>
-      <c r="I14" s="354"/>
-      <c r="J14" s="336"/>
-      <c r="K14" s="360"/>
-      <c r="L14" s="328"/>
+      <c r="A14" s="310"/>
+      <c r="B14" s="315"/>
+      <c r="C14" s="316"/>
+      <c r="D14" s="316"/>
+      <c r="E14" s="316"/>
+      <c r="F14" s="316"/>
+      <c r="G14" s="316"/>
+      <c r="H14" s="319"/>
+      <c r="I14" s="320"/>
+      <c r="J14" s="324"/>
+      <c r="K14" s="327"/>
+      <c r="L14" s="330"/>
     </row>
     <row r="15" spans="1:12" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="344"/>
-      <c r="B15" s="349"/>
-      <c r="C15" s="350"/>
-      <c r="D15" s="350"/>
-      <c r="E15" s="350"/>
-      <c r="F15" s="350"/>
-      <c r="G15" s="350"/>
-      <c r="H15" s="353"/>
-      <c r="I15" s="354"/>
-      <c r="J15" s="336"/>
-      <c r="K15" s="360"/>
-      <c r="L15" s="328"/>
+      <c r="A15" s="310"/>
+      <c r="B15" s="315"/>
+      <c r="C15" s="316"/>
+      <c r="D15" s="316"/>
+      <c r="E15" s="316"/>
+      <c r="F15" s="316"/>
+      <c r="G15" s="316"/>
+      <c r="H15" s="319"/>
+      <c r="I15" s="320"/>
+      <c r="J15" s="324"/>
+      <c r="K15" s="327"/>
+      <c r="L15" s="330"/>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="345"/>
+      <c r="A16" s="311"/>
       <c r="B16" s="287" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="288" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="289" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="288" t="s">
+      <c r="E16" s="288" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="289" t="s">
+      <c r="F16" s="288" t="s">
         <v>172</v>
       </c>
-      <c r="E16" s="288" t="s">
+      <c r="G16" s="290" t="s">
         <v>173</v>
       </c>
-      <c r="F16" s="288" t="s">
-        <v>174</v>
-      </c>
-      <c r="G16" s="290" t="s">
-        <v>175</v>
-      </c>
-      <c r="H16" s="353"/>
-      <c r="I16" s="354"/>
-      <c r="J16" s="336"/>
-      <c r="K16" s="360"/>
-      <c r="L16" s="328"/>
+      <c r="H16" s="319"/>
+      <c r="I16" s="320"/>
+      <c r="J16" s="324"/>
+      <c r="K16" s="327"/>
+      <c r="L16" s="330"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="346"/>
+      <c r="A17" s="312"/>
       <c r="B17" s="291"/>
       <c r="C17" s="292">
         <v>0</v>
@@ -10242,69 +10227,69 @@
       <c r="E17" s="292"/>
       <c r="F17" s="292"/>
       <c r="G17" s="293"/>
-      <c r="H17" s="355"/>
-      <c r="I17" s="356"/>
-      <c r="J17" s="358"/>
-      <c r="K17" s="361"/>
-      <c r="L17" s="362"/>
+      <c r="H17" s="321"/>
+      <c r="I17" s="322"/>
+      <c r="J17" s="325"/>
+      <c r="K17" s="328"/>
+      <c r="L17" s="331"/>
     </row>
     <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="310" t="s">
+      <c r="A18" s="334" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="313" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" s="313"/>
-      <c r="D18" s="313"/>
-      <c r="E18" s="313"/>
-      <c r="F18" s="313"/>
-      <c r="G18" s="313"/>
-      <c r="H18" s="316"/>
-      <c r="I18" s="317"/>
-      <c r="J18" s="322" t="s">
+      <c r="B18" s="337" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="337"/>
+      <c r="D18" s="337"/>
+      <c r="E18" s="337"/>
+      <c r="F18" s="337"/>
+      <c r="G18" s="337"/>
+      <c r="H18" s="340"/>
+      <c r="I18" s="341"/>
+      <c r="J18" s="346" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="325">
+      <c r="K18" s="349">
         <v>0</v>
       </c>
-      <c r="L18" s="327">
+      <c r="L18" s="329">
         <f>IF(K18-K21 &gt;=0, (ROUND((K18-K21)*0.25,3)),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="311"/>
-      <c r="B19" s="314"/>
-      <c r="C19" s="314"/>
-      <c r="D19" s="314"/>
-      <c r="E19" s="314"/>
-      <c r="F19" s="314"/>
-      <c r="G19" s="314"/>
-      <c r="H19" s="318"/>
-      <c r="I19" s="319"/>
-      <c r="J19" s="323"/>
-      <c r="K19" s="326"/>
-      <c r="L19" s="328"/>
+      <c r="A19" s="335"/>
+      <c r="B19" s="338"/>
+      <c r="C19" s="338"/>
+      <c r="D19" s="338"/>
+      <c r="E19" s="338"/>
+      <c r="F19" s="338"/>
+      <c r="G19" s="338"/>
+      <c r="H19" s="342"/>
+      <c r="I19" s="343"/>
+      <c r="J19" s="347"/>
+      <c r="K19" s="350"/>
+      <c r="L19" s="330"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="311"/>
-      <c r="B20" s="315"/>
-      <c r="C20" s="315"/>
-      <c r="D20" s="315"/>
-      <c r="E20" s="315"/>
-      <c r="F20" s="315"/>
-      <c r="G20" s="314"/>
-      <c r="H20" s="318"/>
-      <c r="I20" s="319"/>
-      <c r="J20" s="323"/>
-      <c r="K20" s="326"/>
-      <c r="L20" s="328"/>
+      <c r="A20" s="335"/>
+      <c r="B20" s="339"/>
+      <c r="C20" s="339"/>
+      <c r="D20" s="339"/>
+      <c r="E20" s="339"/>
+      <c r="F20" s="339"/>
+      <c r="G20" s="338"/>
+      <c r="H20" s="342"/>
+      <c r="I20" s="343"/>
+      <c r="J20" s="347"/>
+      <c r="K20" s="350"/>
+      <c r="L20" s="330"/>
     </row>
     <row r="21" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="312"/>
+      <c r="A21" s="336"/>
       <c r="B21" s="294" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C21" s="295">
         <v>0</v>
@@ -10313,44 +10298,44 @@
       <c r="E21" s="295"/>
       <c r="F21" s="295"/>
       <c r="G21" s="295"/>
-      <c r="H21" s="320"/>
-      <c r="I21" s="321"/>
-      <c r="J21" s="324"/>
+      <c r="H21" s="344"/>
+      <c r="I21" s="345"/>
+      <c r="J21" s="348"/>
       <c r="K21" s="296">
         <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="329"/>
+      <c r="L21" s="351"/>
     </row>
     <row r="22" spans="1:12" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="310" t="s">
+      <c r="A22" s="334" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="313" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="330"/>
-      <c r="D22" s="330"/>
-      <c r="E22" s="330"/>
-      <c r="F22" s="330"/>
-      <c r="G22" s="331"/>
-      <c r="H22" s="332"/>
-      <c r="I22" s="333"/>
-      <c r="J22" s="336" t="s">
-        <v>179</v>
+      <c r="B22" s="337" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="352"/>
+      <c r="D22" s="352"/>
+      <c r="E22" s="352"/>
+      <c r="F22" s="352"/>
+      <c r="G22" s="353"/>
+      <c r="H22" s="354"/>
+      <c r="I22" s="355"/>
+      <c r="J22" s="324" t="s">
+        <v>177</v>
       </c>
       <c r="K22" s="297">
         <v>0</v>
       </c>
-      <c r="L22" s="328">
+      <c r="L22" s="330">
         <f>IF((K22-K23)&gt;=0,(ROUND((K22-K23)*0.15,3)),0.000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="312"/>
+      <c r="A23" s="336"/>
       <c r="B23" s="298" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C23" s="295">
         <v>0</v>
@@ -10363,14 +10348,14 @@
       </c>
       <c r="F23" s="295"/>
       <c r="G23" s="295"/>
-      <c r="H23" s="334"/>
-      <c r="I23" s="335"/>
-      <c r="J23" s="337"/>
+      <c r="H23" s="356"/>
+      <c r="I23" s="357"/>
+      <c r="J23" s="358"/>
       <c r="K23" s="296">
         <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="329"/>
+      <c r="L23" s="351"/>
     </row>
     <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="21"/>
@@ -10387,11 +10372,11 @@
         <v>3</v>
       </c>
       <c r="J25" s="23"/>
-      <c r="K25" s="308">
+      <c r="K25" s="332">
         <f>SUM(L12:L22)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="309"/>
+      <c r="L25" s="333"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10414,20 +10399,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:G15"/>
-    <mergeCell ref="H12:I17"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="K12:K17"/>
-    <mergeCell ref="L12:L17"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:G20"/>
@@ -10440,6 +10411,20 @@
     <mergeCell ref="H22:I23"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="L22:L23"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:G15"/>
+    <mergeCell ref="H12:I17"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="L12:L17"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
@@ -10456,8 +10441,8 @@
   <sheetPr codeName="Blad3"/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -10480,11 +10465,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="154" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="H2" s="155"/>
       <c r="I2" s="156" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J2" s="157"/>
       <c r="K2" s="158"/>
@@ -10492,11 +10477,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="159" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H3" s="155"/>
       <c r="I3" s="156" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" s="157"/>
       <c r="K3" s="158"/>
@@ -10524,10 +10509,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="365"/>
-      <c r="D5" s="365"/>
-      <c r="E5" s="365"/>
-      <c r="F5" s="365"/>
+      <c r="C5" s="359"/>
+      <c r="D5" s="359"/>
+      <c r="E5" s="359"/>
+      <c r="F5" s="359"/>
       <c r="H5" s="155"/>
       <c r="I5" s="156" t="s">
         <v>11</v>
@@ -10541,15 +10526,15 @@
         <v>8</v>
       </c>
       <c r="B6" s="136"/>
-      <c r="C6" s="365"/>
-      <c r="D6" s="365"/>
-      <c r="E6" s="365"/>
-      <c r="F6" s="365"/>
+      <c r="C6" s="359"/>
+      <c r="D6" s="359"/>
+      <c r="E6" s="359"/>
+      <c r="F6" s="359"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="136" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="136"/>
       <c r="C7" s="136"/>
@@ -10567,30 +10552,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="160"/>
-      <c r="C8" s="365"/>
-      <c r="D8" s="365"/>
-      <c r="E8" s="365"/>
-      <c r="F8" s="365"/>
+      <c r="C8" s="359"/>
+      <c r="D8" s="359"/>
+      <c r="E8" s="359"/>
+      <c r="F8" s="359"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="365"/>
-      <c r="D9" s="365"/>
-      <c r="E9" s="365"/>
-      <c r="F9" s="365"/>
+      <c r="C9" s="359"/>
+      <c r="D9" s="359"/>
+      <c r="E9" s="359"/>
+      <c r="F9" s="359"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="136" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="136"/>
-      <c r="C10" s="365"/>
-      <c r="D10" s="365"/>
-      <c r="E10" s="365"/>
-      <c r="F10" s="365"/>
+      <c r="C10" s="359"/>
+      <c r="D10" s="359"/>
+      <c r="E10" s="359"/>
+      <c r="F10" s="359"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10610,12 +10595,12 @@
       <c r="J14" s="136"/>
       <c r="K14" s="173"/>
       <c r="L14" s="198" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="221" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="187"/>
       <c r="C15" s="196"/>
@@ -10631,7 +10616,7 @@
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="221" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="187"/>
       <c r="C16" s="196"/>
@@ -10647,7 +10632,7 @@
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="218" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="219"/>
       <c r="C17" s="196"/>
@@ -10663,7 +10648,7 @@
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="221" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="187"/>
       <c r="C18" s="196"/>
@@ -10679,7 +10664,7 @@
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="182"/>
       <c r="C19" s="182"/>
@@ -10695,7 +10680,7 @@
     </row>
     <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="181" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="182"/>
       <c r="C20" s="182"/>
@@ -10711,7 +10696,7 @@
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="231" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="219"/>
       <c r="C21" s="219"/>
@@ -10733,7 +10718,7 @@
       <c r="I23" s="115"/>
       <c r="J23" s="201"/>
       <c r="K23" s="115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L23" s="198">
         <f>SUM(L15:L21)</f>
@@ -10742,7 +10727,7 @@
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K24" s="115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24" s="201"/>
     </row>
@@ -10754,7 +10739,7 @@
     <row r="26" spans="1:13" s="179" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H26" s="203"/>
       <c r="I26" s="123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J26" s="204"/>
       <c r="K26" s="205"/>
@@ -10814,7 +10799,7 @@
       <c r="E32" s="193"/>
       <c r="F32" s="118"/>
       <c r="H32" s="160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I32" s="160"/>
       <c r="J32" s="160"/>
@@ -10852,8 +10837,8 @@
   <sheetPr codeName="Blad4"/>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -10877,11 +10862,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -10889,11 +10874,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -10921,10 +10906,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="369"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="369"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -10938,15 +10923,15 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="369"/>
-      <c r="D6" s="369"/>
-      <c r="E6" s="369"/>
-      <c r="F6" s="369"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="260"/>
@@ -10964,30 +10949,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="370"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="369"/>
-      <c r="D9" s="369"/>
-      <c r="E9" s="369"/>
-      <c r="F9" s="369"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="369"/>
-      <c r="D10" s="369"/>
-      <c r="E10" s="369"/>
-      <c r="F10" s="369"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11007,12 +10992,12 @@
       <c r="J14" s="11"/>
       <c r="K14" s="34"/>
       <c r="L14" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="225" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="88"/>
       <c r="C15" s="106"/>
@@ -11028,7 +11013,7 @@
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="225" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="88"/>
       <c r="C16" s="106"/>
@@ -11044,7 +11029,7 @@
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="222" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="223"/>
       <c r="C17" s="106"/>
@@ -11060,7 +11045,7 @@
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="225" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="88"/>
       <c r="C18" s="106"/>
@@ -11076,7 +11061,7 @@
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="225" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="88"/>
       <c r="C19" s="106"/>
@@ -11092,7 +11077,7 @@
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="225" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="88"/>
       <c r="C20" s="106"/>
@@ -11108,7 +11093,7 @@
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="225" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="88"/>
       <c r="C21" s="106"/>
@@ -11123,13 +11108,13 @@
       <c r="L21" s="263"/>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="366" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="367"/>
-      <c r="C22" s="367"/>
-      <c r="D22" s="367"/>
-      <c r="E22" s="368"/>
+      <c r="A22" s="360" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="361"/>
+      <c r="C22" s="361"/>
+      <c r="D22" s="361"/>
+      <c r="E22" s="362"/>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
@@ -11146,7 +11131,7 @@
       <c r="I24" s="38"/>
       <c r="J24" s="39"/>
       <c r="K24" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L24" s="35">
         <f>SUM(L15:L22)</f>
@@ -11155,7 +11140,7 @@
     </row>
     <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K25" s="38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L25" s="39"/>
     </row>
@@ -11167,7 +11152,7 @@
     <row r="27" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H27" s="42"/>
       <c r="I27" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J27" s="44"/>
       <c r="K27" s="45"/>
@@ -11218,7 +11203,7 @@
       <c r="E32" s="29"/>
       <c r="F32" s="47"/>
       <c r="H32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -11257,8 +11242,8 @@
   <sheetPr codeName="Blad5"/>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -11281,11 +11266,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -11293,11 +11278,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -11325,10 +11310,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="369"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="369"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -11342,15 +11327,15 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="369"/>
-      <c r="D6" s="369"/>
-      <c r="E6" s="369"/>
-      <c r="F6" s="369"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="260"/>
@@ -11368,30 +11353,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="370"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="369"/>
-      <c r="D9" s="369"/>
-      <c r="E9" s="369"/>
-      <c r="F9" s="369"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="369"/>
-      <c r="D10" s="369"/>
-      <c r="E10" s="369"/>
-      <c r="F10" s="369"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11411,12 +11396,12 @@
       <c r="J14" s="11"/>
       <c r="K14" s="34"/>
       <c r="L14" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="225" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="88"/>
       <c r="C15" s="106"/>
@@ -11432,7 +11417,7 @@
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="222" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="223"/>
       <c r="C16" s="106"/>
@@ -11448,7 +11433,7 @@
     </row>
     <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="225" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="88"/>
       <c r="C17" s="106"/>
@@ -11464,7 +11449,7 @@
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="225" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" s="88"/>
       <c r="C18" s="106"/>
@@ -11480,7 +11465,7 @@
     </row>
     <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="225" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="88"/>
       <c r="C19" s="106"/>
@@ -11496,7 +11481,7 @@
     </row>
     <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="225" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="88"/>
       <c r="C20" s="106"/>
@@ -11512,7 +11497,7 @@
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="225" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="88"/>
       <c r="C21" s="106"/>
@@ -11528,7 +11513,7 @@
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="225" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B22" s="223"/>
       <c r="C22" s="223"/>
@@ -11550,7 +11535,7 @@
       <c r="I24" s="38"/>
       <c r="J24" s="39"/>
       <c r="K24" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L24" s="35">
         <f>SUM(L15:L22)</f>
@@ -11559,7 +11544,7 @@
     </row>
     <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K25" s="38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L25" s="39"/>
     </row>
@@ -11571,7 +11556,7 @@
     <row r="27" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H27" s="42"/>
       <c r="I27" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J27" s="44"/>
       <c r="K27" s="45"/>
@@ -11622,7 +11607,7 @@
       <c r="E32" s="29"/>
       <c r="F32" s="47"/>
       <c r="H32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -11683,11 +11668,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="154" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H2" s="155"/>
       <c r="I2" s="156" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J2" s="157"/>
       <c r="K2" s="158"/>
@@ -11695,11 +11680,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="159" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H3" s="155"/>
       <c r="I3" s="156" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" s="157"/>
       <c r="K3" s="158"/>
@@ -11727,10 +11712,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="365"/>
-      <c r="D5" s="365"/>
-      <c r="E5" s="365"/>
-      <c r="F5" s="365"/>
+      <c r="C5" s="359"/>
+      <c r="D5" s="359"/>
+      <c r="E5" s="359"/>
+      <c r="F5" s="359"/>
       <c r="H5" s="155"/>
       <c r="I5" s="156" t="s">
         <v>11</v>
@@ -11744,15 +11729,15 @@
         <v>8</v>
       </c>
       <c r="B6" s="136"/>
-      <c r="C6" s="365"/>
-      <c r="D6" s="365"/>
-      <c r="E6" s="365"/>
-      <c r="F6" s="365"/>
+      <c r="C6" s="359"/>
+      <c r="D6" s="359"/>
+      <c r="E6" s="359"/>
+      <c r="F6" s="359"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="136" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="136"/>
       <c r="C7" s="261"/>
@@ -11770,35 +11755,35 @@
         <v>0</v>
       </c>
       <c r="B8" s="160"/>
-      <c r="C8" s="371"/>
-      <c r="D8" s="371"/>
-      <c r="E8" s="371"/>
-      <c r="F8" s="371"/>
+      <c r="C8" s="365"/>
+      <c r="D8" s="365"/>
+      <c r="E8" s="365"/>
+      <c r="F8" s="365"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="365"/>
-      <c r="D9" s="365"/>
-      <c r="E9" s="365"/>
-      <c r="F9" s="365"/>
+      <c r="C9" s="359"/>
+      <c r="D9" s="359"/>
+      <c r="E9" s="359"/>
+      <c r="F9" s="359"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="136" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="136"/>
-      <c r="C10" s="365"/>
-      <c r="D10" s="365"/>
-      <c r="E10" s="365"/>
-      <c r="F10" s="365"/>
+      <c r="C10" s="359"/>
+      <c r="D10" s="359"/>
+      <c r="E10" s="359"/>
+      <c r="F10" s="359"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="165" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="166"/>
       <c r="C12" s="166"/>
@@ -11839,14 +11824,14 @@
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="154" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H17" s="176"/>
       <c r="I17" s="143"/>
       <c r="K17" s="177" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11869,12 +11854,12 @@
     </row>
     <row r="24" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="159" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="84" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H25" s="30"/>
       <c r="I25" s="52"/>
@@ -11883,7 +11868,7 @@
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="181" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="182"/>
       <c r="D26" s="183"/>
@@ -11891,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="181" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G26" s="183"/>
       <c r="H26" s="265">
@@ -11936,7 +11921,7 @@
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G31" s="188" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H31" s="157"/>
       <c r="I31" s="157"/>
@@ -11952,7 +11937,7 @@
     <row r="32" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I33" s="163" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J33" s="190"/>
       <c r="K33" s="190"/>
@@ -11975,7 +11960,7 @@
       <c r="D37" s="193"/>
       <c r="E37" s="193"/>
       <c r="H37" s="160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I37" s="160"/>
       <c r="J37" s="160"/>
@@ -12658,11 +12643,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -12670,11 +12655,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -12702,10 +12687,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="369"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="369"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -12719,10 +12704,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="369"/>
-      <c r="D6" s="369"/>
-      <c r="E6" s="369"/>
-      <c r="F6" s="369"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -12731,7 +12716,7 @@
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="260"/>
@@ -12751,35 +12736,35 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="370"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="369"/>
-      <c r="D9" s="369"/>
-      <c r="E9" s="369"/>
-      <c r="F9" s="369"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="369"/>
-      <c r="D10" s="369"/>
-      <c r="E10" s="369"/>
-      <c r="F10" s="369"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="65"/>
@@ -12794,32 +12779,32 @@
       <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="372"/>
-      <c r="B13" s="373"/>
-      <c r="C13" s="373"/>
-      <c r="D13" s="373"/>
-      <c r="E13" s="373"/>
-      <c r="F13" s="373"/>
-      <c r="G13" s="373"/>
-      <c r="H13" s="373"/>
-      <c r="I13" s="373"/>
-      <c r="J13" s="373"/>
-      <c r="K13" s="373"/>
-      <c r="L13" s="374"/>
+      <c r="A13" s="366"/>
+      <c r="B13" s="367"/>
+      <c r="C13" s="367"/>
+      <c r="D13" s="367"/>
+      <c r="E13" s="367"/>
+      <c r="F13" s="367"/>
+      <c r="G13" s="367"/>
+      <c r="H13" s="367"/>
+      <c r="I13" s="367"/>
+      <c r="J13" s="367"/>
+      <c r="K13" s="367"/>
+      <c r="L13" s="368"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="375"/>
-      <c r="B14" s="376"/>
-      <c r="C14" s="376"/>
-      <c r="D14" s="376"/>
-      <c r="E14" s="376"/>
-      <c r="F14" s="376"/>
-      <c r="G14" s="376"/>
-      <c r="H14" s="376"/>
-      <c r="I14" s="376"/>
-      <c r="J14" s="376"/>
-      <c r="K14" s="376"/>
-      <c r="L14" s="377"/>
+      <c r="A14" s="369"/>
+      <c r="B14" s="370"/>
+      <c r="C14" s="370"/>
+      <c r="D14" s="370"/>
+      <c r="E14" s="370"/>
+      <c r="F14" s="370"/>
+      <c r="G14" s="370"/>
+      <c r="H14" s="370"/>
+      <c r="I14" s="370"/>
+      <c r="J14" s="370"/>
+      <c r="K14" s="370"/>
+      <c r="L14" s="371"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
@@ -12839,22 +12824,22 @@
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G17" s="69"/>
       <c r="H17" s="70" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I17" s="71"/>
       <c r="K17" s="72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
@@ -12878,7 +12863,7 @@
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="73" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="55"/>
@@ -12902,7 +12887,7 @@
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="73" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="55"/>
@@ -12926,7 +12911,7 @@
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="55"/>
@@ -12935,7 +12920,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="109" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G21" s="75"/>
       <c r="H21" s="72"/>
@@ -12947,7 +12932,7 @@
     </row>
     <row r="22" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="77" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="78"/>
@@ -12958,7 +12943,7 @@
     </row>
     <row r="23" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G23" s="80" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
@@ -12973,12 +12958,12 @@
     </row>
     <row r="24" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="84" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H25" s="30"/>
       <c r="I25" s="52"/>
@@ -12987,7 +12972,7 @@
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="104" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="105"/>
@@ -12997,7 +12982,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="104" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G26" s="105"/>
       <c r="H26" s="93">
@@ -13042,7 +13027,7 @@
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G31" s="90" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -13058,7 +13043,7 @@
     <row r="32" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I33" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>
@@ -13077,7 +13062,7 @@
       <c r="D37" s="58"/>
       <c r="E37" s="58"/>
       <c r="H37" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -13762,11 +13747,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -13774,11 +13759,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -13806,10 +13791,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="369"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="369"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -13823,10 +13808,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="369"/>
-      <c r="D6" s="369"/>
-      <c r="E6" s="369"/>
-      <c r="F6" s="369"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -13835,7 +13820,7 @@
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="260"/>
@@ -13855,35 +13840,35 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="370"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="369"/>
-      <c r="D9" s="369"/>
-      <c r="E9" s="369"/>
-      <c r="F9" s="369"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="369"/>
-      <c r="D10" s="369"/>
-      <c r="E10" s="369"/>
-      <c r="F10" s="369"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="65"/>
@@ -13898,32 +13883,32 @@
       <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="372"/>
-      <c r="B13" s="373"/>
-      <c r="C13" s="373"/>
-      <c r="D13" s="373"/>
-      <c r="E13" s="373"/>
-      <c r="F13" s="373"/>
-      <c r="G13" s="373"/>
-      <c r="H13" s="373"/>
-      <c r="I13" s="373"/>
-      <c r="J13" s="373"/>
-      <c r="K13" s="373"/>
-      <c r="L13" s="374"/>
+      <c r="A13" s="366"/>
+      <c r="B13" s="367"/>
+      <c r="C13" s="367"/>
+      <c r="D13" s="367"/>
+      <c r="E13" s="367"/>
+      <c r="F13" s="367"/>
+      <c r="G13" s="367"/>
+      <c r="H13" s="367"/>
+      <c r="I13" s="367"/>
+      <c r="J13" s="367"/>
+      <c r="K13" s="367"/>
+      <c r="L13" s="368"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="375"/>
-      <c r="B14" s="376"/>
-      <c r="C14" s="376"/>
-      <c r="D14" s="376"/>
-      <c r="E14" s="376"/>
-      <c r="F14" s="376"/>
-      <c r="G14" s="376"/>
-      <c r="H14" s="376"/>
-      <c r="I14" s="376"/>
-      <c r="J14" s="376"/>
-      <c r="K14" s="376"/>
-      <c r="L14" s="377"/>
+      <c r="A14" s="369"/>
+      <c r="B14" s="370"/>
+      <c r="C14" s="370"/>
+      <c r="D14" s="370"/>
+      <c r="E14" s="370"/>
+      <c r="F14" s="370"/>
+      <c r="G14" s="370"/>
+      <c r="H14" s="370"/>
+      <c r="I14" s="370"/>
+      <c r="J14" s="370"/>
+      <c r="K14" s="370"/>
+      <c r="L14" s="371"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
@@ -13943,22 +13928,22 @@
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G17" s="69"/>
       <c r="H17" s="70" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I17" s="71"/>
       <c r="K17" s="72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
@@ -13982,7 +13967,7 @@
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="73" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="55"/>
@@ -14006,7 +13991,7 @@
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="73" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="55"/>
@@ -14030,7 +14015,7 @@
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="55"/>
@@ -14039,7 +14024,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="109" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G21" s="75"/>
       <c r="H21" s="72"/>
@@ -14051,7 +14036,7 @@
     </row>
     <row r="22" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="77" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="78"/>
@@ -14062,7 +14047,7 @@
     </row>
     <row r="23" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G23" s="80" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
@@ -14077,12 +14062,12 @@
     </row>
     <row r="24" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="84" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H25" s="30"/>
       <c r="I25" s="52"/>
@@ -14091,7 +14076,7 @@
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="104" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="105"/>
@@ -14101,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="104" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G26" s="105"/>
       <c r="H26" s="93">
@@ -14146,7 +14131,7 @@
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G31" s="90" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -14162,7 +14147,7 @@
     <row r="32" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I33" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>
@@ -14181,7 +14166,7 @@
       <c r="D37" s="58"/>
       <c r="E37" s="58"/>
       <c r="H37" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -14802,11 +14787,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -14814,11 +14799,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
@@ -14846,10 +14831,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="369"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="369"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -14863,10 +14848,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="369"/>
-      <c r="D6" s="369"/>
-      <c r="E6" s="369"/>
-      <c r="F6" s="369"/>
+      <c r="C6" s="363"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -14875,7 +14860,7 @@
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="260"/>
@@ -14895,30 +14880,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="370"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="369"/>
-      <c r="D9" s="369"/>
-      <c r="E9" s="369"/>
-      <c r="F9" s="369"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="369"/>
-      <c r="D10" s="369"/>
-      <c r="E10" s="369"/>
-      <c r="F10" s="369"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -14927,25 +14912,25 @@
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K13" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="378" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="380" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="381"/>
-      <c r="D14" s="381"/>
-      <c r="E14" s="381"/>
-      <c r="F14" s="381"/>
-      <c r="G14" s="381"/>
-      <c r="H14" s="381"/>
-      <c r="I14" s="382"/>
+      <c r="A14" s="372" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="374" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="375"/>
+      <c r="D14" s="375"/>
+      <c r="E14" s="375"/>
+      <c r="F14" s="375"/>
+      <c r="G14" s="375"/>
+      <c r="H14" s="375"/>
+      <c r="I14" s="376"/>
       <c r="J14" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K14" s="268"/>
       <c r="L14" s="149">
@@ -14954,19 +14939,19 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="379"/>
-      <c r="B15" s="383" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="384"/>
-      <c r="D15" s="384"/>
-      <c r="E15" s="384"/>
-      <c r="F15" s="384"/>
-      <c r="G15" s="384"/>
-      <c r="H15" s="384"/>
-      <c r="I15" s="384"/>
+      <c r="A15" s="373"/>
+      <c r="B15" s="377" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="378"/>
+      <c r="D15" s="378"/>
+      <c r="E15" s="378"/>
+      <c r="F15" s="378"/>
+      <c r="G15" s="378"/>
+      <c r="H15" s="378"/>
+      <c r="I15" s="378"/>
       <c r="J15" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K15" s="269"/>
       <c r="L15" s="251">
@@ -14975,21 +14960,21 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="385" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="387" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="388"/>
-      <c r="D16" s="388"/>
-      <c r="E16" s="388"/>
-      <c r="F16" s="388"/>
-      <c r="G16" s="388"/>
-      <c r="H16" s="388"/>
-      <c r="I16" s="388"/>
+      <c r="A16" s="379" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="381" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="382"/>
+      <c r="D16" s="382"/>
+      <c r="E16" s="382"/>
+      <c r="F16" s="382"/>
+      <c r="G16" s="382"/>
+      <c r="H16" s="382"/>
+      <c r="I16" s="382"/>
       <c r="J16" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K16" s="270"/>
       <c r="L16" s="147">
@@ -14998,19 +14983,19 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="386"/>
-      <c r="B17" s="389" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="390"/>
-      <c r="D17" s="390"/>
-      <c r="E17" s="390"/>
-      <c r="F17" s="390"/>
-      <c r="G17" s="390"/>
-      <c r="H17" s="390"/>
-      <c r="I17" s="390"/>
+      <c r="A17" s="380"/>
+      <c r="B17" s="383" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="384"/>
+      <c r="D17" s="384"/>
+      <c r="E17" s="384"/>
+      <c r="F17" s="384"/>
+      <c r="G17" s="384"/>
+      <c r="H17" s="384"/>
+      <c r="I17" s="384"/>
       <c r="J17" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K17" s="271"/>
       <c r="L17" s="145">
@@ -15054,7 +15039,7 @@
     <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21"/>
       <c r="B20" s="54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="55"/>
       <c r="D20" s="56"/>
@@ -15071,7 +15056,7 @@
     <row r="21" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I22" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
@@ -15092,7 +15077,7 @@
       <c r="D26" s="58"/>
       <c r="E26" s="58"/>
       <c r="H26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -15119,17 +15104,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15142,6 +15127,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15207,25 +15210,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15240,27 +15248,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EAE145-C03B-49F9-A265-D31A410EF6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676523AE-DD02-4086-818D-58F2C8C4D94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="0" windowWidth="10800" windowHeight="12900" tabRatio="966" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="966" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="37" r:id="rId1"/>
@@ -90,6 +90,12 @@
     <definedName name="domare" localSheetId="11">'Individuell tekniska övningar'!$C$34</definedName>
     <definedName name="domare" localSheetId="14">'Individuellt tekniskt artis YV'!$C$28</definedName>
     <definedName name="domare" localSheetId="13">'Individuellt tekniskt artistisk'!$C$28</definedName>
+    <definedName name="header" localSheetId="9">'Ind kür artistisk junior'!$A$2</definedName>
+    <definedName name="header" localSheetId="8">'Ind kür artistisk minior'!$A$2</definedName>
+    <definedName name="header" localSheetId="6">'Ind kür tekn junior'!$A$2</definedName>
+    <definedName name="header" localSheetId="5">'Ind kür tekn minior'!$A$2</definedName>
+    <definedName name="header" localSheetId="3">'Individuell junior grund B'!$A$2</definedName>
+    <definedName name="header" localSheetId="2">'Individuell minior grund D'!$A$2</definedName>
     <definedName name="id" localSheetId="1">'Häst, individuell'!$U$1</definedName>
     <definedName name="id" localSheetId="9">'Ind kür artistisk junior'!$U$1</definedName>
     <definedName name="id" localSheetId="8">'Ind kür artistisk minior'!$U$1</definedName>
@@ -104,6 +110,7 @@
     <definedName name="id" localSheetId="11">'Individuell tekniska övningar'!$U$1</definedName>
     <definedName name="id" localSheetId="14">'Individuellt tekniskt artis YV'!$U$1</definedName>
     <definedName name="id" localSheetId="13">'Individuellt tekniskt artistisk'!$U$1</definedName>
+    <definedName name="Individuell_1" localSheetId="3">'Individuell minior grund D'!$A$2</definedName>
     <definedName name="klass" localSheetId="1">'Häst, individuell'!$L$3</definedName>
     <definedName name="klass" localSheetId="9">'Ind kür artistisk junior'!$L$4</definedName>
     <definedName name="klass" localSheetId="8">'Ind kür artistisk minior'!$L$4</definedName>
@@ -163,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="192">
   <si>
     <t>Nation:</t>
   </si>
@@ -1007,9 +1014,6 @@
     <t>/ 4</t>
   </si>
   <si>
-    <t>Individuell kür</t>
-  </si>
-  <si>
     <t>Individuell 1*</t>
   </si>
   <si>
@@ -1025,12 +1029,6 @@
     <t>Sidhopp del 2*</t>
   </si>
   <si>
-    <t>Grundövningar 3*</t>
-  </si>
-  <si>
-    <t>Individuell</t>
-  </si>
-  <si>
     <t>Tekniska övningar (3 valfria)</t>
   </si>
   <si>
@@ -1050,12 +1048,6 @@
   </si>
   <si>
     <t>Bakåtsving, öppna ben, inkl. avgång inåt</t>
-  </si>
-  <si>
-    <t>Individuell kür minior-junior 1*</t>
-  </si>
-  <si>
-    <t>Individuell kür 2* junior + senior</t>
   </si>
   <si>
     <r>
@@ -1155,6 +1147,18 @@
       <t xml:space="preserve">• Val av unika, originella övningar, sekvenser, övergångar och/eller hög komplexitet av övningar, sekvenser, övergångar eller kombination av dem inom sekvensen av tekniska övningar. 
 </t>
     </r>
+  </si>
+  <si>
+    <t>Individuell kür 2*</t>
+  </si>
+  <si>
+    <t>Individuell 3*</t>
+  </si>
+  <si>
+    <t>Individuell kür 1*</t>
+  </si>
+  <si>
+    <t>Individuellt tekniskt test Young Vaulter</t>
   </si>
 </sst>
 </file>
@@ -2201,7 +2205,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="429">
+  <cellXfs count="430">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2966,6 +2970,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3141,9 +3149,24 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3159,9 +3182,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3222,6 +3251,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3273,6 +3311,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
@@ -3305,40 +3346,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
@@ -5706,14 +5713,14 @@
   <sheetData>
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="420" t="s">
+      <c r="A2" s="299" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="420"/>
-      <c r="C2" s="420"/>
-      <c r="D2" s="420"/>
-      <c r="E2" s="420"/>
-      <c r="F2" s="420"/>
+      <c r="B2" s="299"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
         <v>61</v>
@@ -5756,10 +5763,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
+      <c r="C5" s="366"/>
+      <c r="D5" s="366"/>
+      <c r="E5" s="366"/>
+      <c r="F5" s="366"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -5773,10 +5780,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="359"/>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
+      <c r="C6" s="366"/>
+      <c r="D6" s="366"/>
+      <c r="E6" s="366"/>
+      <c r="F6" s="366"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -5805,30 +5812,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="360"/>
-      <c r="D8" s="360"/>
-      <c r="E8" s="360"/>
-      <c r="F8" s="360"/>
+      <c r="C8" s="367"/>
+      <c r="D8" s="367"/>
+      <c r="E8" s="367"/>
+      <c r="F8" s="367"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="359"/>
-      <c r="D9" s="359"/>
-      <c r="E9" s="359"/>
-      <c r="F9" s="359"/>
+      <c r="C9" s="366"/>
+      <c r="D9" s="366"/>
+      <c r="E9" s="366"/>
+      <c r="F9" s="366"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="359"/>
-      <c r="D10" s="359"/>
-      <c r="E10" s="359"/>
-      <c r="F10" s="359"/>
+      <c r="C10" s="366"/>
+      <c r="D10" s="366"/>
+      <c r="E10" s="366"/>
+      <c r="F10" s="366"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -5841,19 +5848,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="368" t="s">
+      <c r="A14" s="377" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="370" t="s">
+      <c r="B14" s="379" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="371"/>
-      <c r="D14" s="371"/>
-      <c r="E14" s="371"/>
-      <c r="F14" s="371"/>
-      <c r="G14" s="371"/>
-      <c r="H14" s="371"/>
-      <c r="I14" s="372"/>
+      <c r="C14" s="380"/>
+      <c r="D14" s="380"/>
+      <c r="E14" s="380"/>
+      <c r="F14" s="380"/>
+      <c r="G14" s="380"/>
+      <c r="H14" s="380"/>
+      <c r="I14" s="381"/>
       <c r="J14" s="18" t="s">
         <v>115</v>
       </c>
@@ -5866,17 +5873,17 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="381"/>
-      <c r="B15" s="373" t="s">
+      <c r="A15" s="390"/>
+      <c r="B15" s="382" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="374"/>
-      <c r="D15" s="374"/>
-      <c r="E15" s="374"/>
-      <c r="F15" s="374"/>
-      <c r="G15" s="374"/>
-      <c r="H15" s="374"/>
-      <c r="I15" s="374"/>
+      <c r="C15" s="383"/>
+      <c r="D15" s="383"/>
+      <c r="E15" s="383"/>
+      <c r="F15" s="383"/>
+      <c r="G15" s="383"/>
+      <c r="H15" s="383"/>
+      <c r="I15" s="383"/>
       <c r="J15" s="20" t="s">
         <v>116</v>
       </c>
@@ -5889,19 +5896,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="368" t="s">
+      <c r="A16" s="377" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="377" t="s">
+      <c r="B16" s="386" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="378"/>
-      <c r="D16" s="378"/>
-      <c r="E16" s="378"/>
-      <c r="F16" s="378"/>
-      <c r="G16" s="378"/>
-      <c r="H16" s="378"/>
-      <c r="I16" s="378"/>
+      <c r="C16" s="387"/>
+      <c r="D16" s="387"/>
+      <c r="E16" s="387"/>
+      <c r="F16" s="387"/>
+      <c r="G16" s="387"/>
+      <c r="H16" s="387"/>
+      <c r="I16" s="387"/>
       <c r="J16" s="18" t="s">
         <v>141</v>
       </c>
@@ -5914,17 +5921,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="369"/>
-      <c r="B17" s="379" t="s">
+      <c r="A17" s="378"/>
+      <c r="B17" s="388" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="380"/>
-      <c r="D17" s="380"/>
-      <c r="E17" s="380"/>
-      <c r="F17" s="380"/>
-      <c r="G17" s="380"/>
-      <c r="H17" s="380"/>
-      <c r="I17" s="380"/>
+      <c r="C17" s="389"/>
+      <c r="D17" s="389"/>
+      <c r="E17" s="389"/>
+      <c r="F17" s="389"/>
+      <c r="G17" s="389"/>
+      <c r="H17" s="389"/>
+      <c r="I17" s="389"/>
       <c r="J17" s="19" t="s">
         <v>148</v>
       </c>
@@ -6036,8 +6043,7 @@
       <c r="L30" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A2:F2"/>
+  <mergeCells count="11">
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
@@ -6065,7 +6071,7 @@
   <sheetPr codeName="Blad8"/>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -6656,7 +6662,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
@@ -6700,10 +6706,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
+      <c r="C5" s="366"/>
+      <c r="D5" s="366"/>
+      <c r="E5" s="366"/>
+      <c r="F5" s="366"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -6717,10 +6723,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="359"/>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
+      <c r="C6" s="366"/>
+      <c r="D6" s="366"/>
+      <c r="E6" s="366"/>
+      <c r="F6" s="366"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -6749,30 +6755,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="360"/>
-      <c r="D8" s="360"/>
-      <c r="E8" s="360"/>
-      <c r="F8" s="360"/>
+      <c r="C8" s="367"/>
+      <c r="D8" s="367"/>
+      <c r="E8" s="367"/>
+      <c r="F8" s="367"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="359"/>
-      <c r="D9" s="359"/>
-      <c r="E9" s="359"/>
-      <c r="F9" s="359"/>
+      <c r="C9" s="366"/>
+      <c r="D9" s="366"/>
+      <c r="E9" s="366"/>
+      <c r="F9" s="366"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="359"/>
-      <c r="D10" s="359"/>
-      <c r="E10" s="359"/>
-      <c r="F10" s="359"/>
+      <c r="C10" s="366"/>
+      <c r="D10" s="366"/>
+      <c r="E10" s="366"/>
+      <c r="F10" s="366"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6785,19 +6791,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="368" t="s">
+      <c r="A14" s="377" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="370" t="s">
+      <c r="B14" s="379" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="371"/>
-      <c r="D14" s="371"/>
-      <c r="E14" s="371"/>
-      <c r="F14" s="371"/>
-      <c r="G14" s="371"/>
-      <c r="H14" s="371"/>
-      <c r="I14" s="372"/>
+      <c r="C14" s="380"/>
+      <c r="D14" s="380"/>
+      <c r="E14" s="380"/>
+      <c r="F14" s="380"/>
+      <c r="G14" s="380"/>
+      <c r="H14" s="380"/>
+      <c r="I14" s="381"/>
       <c r="J14" s="18" t="s">
         <v>115</v>
       </c>
@@ -6810,17 +6816,17 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="381"/>
-      <c r="B15" s="373" t="s">
+      <c r="A15" s="390"/>
+      <c r="B15" s="382" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="374"/>
-      <c r="D15" s="374"/>
-      <c r="E15" s="374"/>
-      <c r="F15" s="374"/>
-      <c r="G15" s="374"/>
-      <c r="H15" s="374"/>
-      <c r="I15" s="374"/>
+      <c r="C15" s="383"/>
+      <c r="D15" s="383"/>
+      <c r="E15" s="383"/>
+      <c r="F15" s="383"/>
+      <c r="G15" s="383"/>
+      <c r="H15" s="383"/>
+      <c r="I15" s="383"/>
       <c r="J15" s="20" t="s">
         <v>116</v>
       </c>
@@ -6833,19 +6839,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="368" t="s">
+      <c r="A16" s="377" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="377" t="s">
+      <c r="B16" s="386" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="378"/>
-      <c r="D16" s="378"/>
-      <c r="E16" s="378"/>
-      <c r="F16" s="378"/>
-      <c r="G16" s="378"/>
-      <c r="H16" s="378"/>
-      <c r="I16" s="378"/>
+      <c r="C16" s="387"/>
+      <c r="D16" s="387"/>
+      <c r="E16" s="387"/>
+      <c r="F16" s="387"/>
+      <c r="G16" s="387"/>
+      <c r="H16" s="387"/>
+      <c r="I16" s="387"/>
       <c r="J16" s="18" t="s">
         <v>141</v>
       </c>
@@ -6858,17 +6864,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="369"/>
-      <c r="B17" s="379" t="s">
+      <c r="A17" s="378"/>
+      <c r="B17" s="388" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="380"/>
-      <c r="D17" s="380"/>
-      <c r="E17" s="380"/>
-      <c r="F17" s="380"/>
-      <c r="G17" s="380"/>
-      <c r="H17" s="380"/>
-      <c r="I17" s="380"/>
+      <c r="C17" s="389"/>
+      <c r="D17" s="389"/>
+      <c r="E17" s="389"/>
+      <c r="F17" s="389"/>
+      <c r="G17" s="389"/>
+      <c r="H17" s="389"/>
+      <c r="I17" s="389"/>
       <c r="J17" s="19" t="s">
         <v>148</v>
       </c>
@@ -7010,8 +7016,8 @@
   </sheetPr>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:F15"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -7075,10 +7081,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
+      <c r="C5" s="366"/>
+      <c r="D5" s="366"/>
+      <c r="E5" s="366"/>
+      <c r="F5" s="366"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -7092,10 +7098,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="359"/>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
+      <c r="C6" s="366"/>
+      <c r="D6" s="366"/>
+      <c r="E6" s="366"/>
+      <c r="F6" s="366"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7118,30 +7124,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="360"/>
-      <c r="D8" s="360"/>
-      <c r="E8" s="360"/>
-      <c r="F8" s="360"/>
+      <c r="C8" s="367"/>
+      <c r="D8" s="367"/>
+      <c r="E8" s="367"/>
+      <c r="F8" s="367"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="359"/>
-      <c r="D9" s="359"/>
-      <c r="E9" s="359"/>
-      <c r="F9" s="359"/>
+      <c r="C9" s="366"/>
+      <c r="D9" s="366"/>
+      <c r="E9" s="366"/>
+      <c r="F9" s="366"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="359"/>
-      <c r="D10" s="359"/>
-      <c r="E10" s="359"/>
-      <c r="F10" s="359"/>
+      <c r="C10" s="366"/>
+      <c r="D10" s="366"/>
+      <c r="E10" s="366"/>
+      <c r="F10" s="366"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7167,14 +7173,14 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="411" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" s="412"/>
-      <c r="C15" s="412"/>
-      <c r="D15" s="412"/>
-      <c r="E15" s="412"/>
-      <c r="F15" s="413"/>
+      <c r="A15" s="391" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="392"/>
+      <c r="C15" s="392"/>
+      <c r="D15" s="392"/>
+      <c r="E15" s="392"/>
+      <c r="F15" s="393"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="11"/>
@@ -7183,14 +7189,14 @@
       <c r="L15" s="259"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="382" t="s">
+      <c r="A16" s="394" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="383"/>
-      <c r="C16" s="383"/>
-      <c r="D16" s="383"/>
-      <c r="E16" s="383"/>
-      <c r="F16" s="384"/>
+      <c r="B16" s="395"/>
+      <c r="C16" s="395"/>
+      <c r="D16" s="395"/>
+      <c r="E16" s="395"/>
+      <c r="F16" s="396"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="11"/>
@@ -7251,27 +7257,27 @@
       <c r="L20" s="140"/>
     </row>
     <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="388" t="s">
+      <c r="A21" s="400" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="389"/>
-      <c r="C21" s="389"/>
-      <c r="D21" s="389"/>
-      <c r="E21" s="389"/>
-      <c r="F21" s="389"/>
-      <c r="G21" s="389"/>
-      <c r="H21" s="389"/>
-      <c r="I21" s="389"/>
+      <c r="B21" s="401"/>
+      <c r="C21" s="401"/>
+      <c r="D21" s="401"/>
+      <c r="E21" s="401"/>
+      <c r="F21" s="401"/>
+      <c r="G21" s="401"/>
+      <c r="H21" s="401"/>
+      <c r="I21" s="401"/>
       <c r="J21" s="139"/>
       <c r="K21" s="138"/>
       <c r="L21" s="8"/>
       <c r="R21" s="133"/>
     </row>
     <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="396" t="s">
+      <c r="A22" s="408" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="397"/>
+      <c r="B22" s="409"/>
       <c r="C22" s="137"/>
       <c r="D22" s="137"/>
       <c r="E22" s="137"/>
@@ -7285,15 +7291,15 @@
       <c r="R22" s="133"/>
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="392" t="s">
+      <c r="A23" s="404" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="393"/>
+      <c r="B23" s="405"/>
       <c r="C23" s="268"/>
-      <c r="D23" s="390" t="s">
+      <c r="D23" s="402" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="391"/>
+      <c r="E23" s="403"/>
       <c r="F23" s="269"/>
       <c r="G23" s="228" t="s">
         <v>65</v>
@@ -7316,11 +7322,11 @@
       <c r="R23" s="133"/>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="394" t="s">
+      <c r="A24" s="406" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="395"/>
-      <c r="C24" s="395"/>
+      <c r="B24" s="407"/>
+      <c r="C24" s="407"/>
       <c r="D24" s="232"/>
       <c r="E24" s="232"/>
       <c r="F24" s="232"/>
@@ -7332,19 +7338,19 @@
       <c r="R24" s="133"/>
     </row>
     <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="385" t="s">
+      <c r="A25" s="397" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="386"/>
-      <c r="C25" s="386"/>
-      <c r="D25" s="386"/>
-      <c r="E25" s="386"/>
-      <c r="F25" s="386"/>
-      <c r="G25" s="386"/>
-      <c r="H25" s="386"/>
-      <c r="I25" s="386"/>
-      <c r="J25" s="386"/>
-      <c r="K25" s="387"/>
+      <c r="B25" s="398"/>
+      <c r="C25" s="398"/>
+      <c r="D25" s="398"/>
+      <c r="E25" s="398"/>
+      <c r="F25" s="398"/>
+      <c r="G25" s="398"/>
+      <c r="H25" s="398"/>
+      <c r="I25" s="398"/>
+      <c r="J25" s="398"/>
+      <c r="K25" s="399"/>
       <c r="L25" s="9">
         <f>IFERROR(K23-K24,0)</f>
         <v>0</v>
@@ -7493,8 +7499,8 @@
   </sheetPr>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -7514,7 +7520,7 @@
     <row r="1" spans="1:12" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
@@ -7558,10 +7564,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
+      <c r="C5" s="366"/>
+      <c r="D5" s="366"/>
+      <c r="E5" s="366"/>
+      <c r="F5" s="366"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -7575,10 +7581,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="359"/>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
+      <c r="C6" s="366"/>
+      <c r="D6" s="366"/>
+      <c r="E6" s="366"/>
+      <c r="F6" s="366"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7601,37 +7607,37 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="360"/>
-      <c r="D8" s="360"/>
-      <c r="E8" s="360"/>
-      <c r="F8" s="360"/>
+      <c r="C8" s="367"/>
+      <c r="D8" s="367"/>
+      <c r="E8" s="367"/>
+      <c r="F8" s="367"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="359"/>
-      <c r="D9" s="359"/>
-      <c r="E9" s="359"/>
-      <c r="F9" s="359"/>
+      <c r="C9" s="366"/>
+      <c r="D9" s="366"/>
+      <c r="E9" s="366"/>
+      <c r="F9" s="366"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="359"/>
-      <c r="D10" s="359"/>
-      <c r="E10" s="359"/>
-      <c r="F10" s="359"/>
+      <c r="C10" s="366"/>
+      <c r="D10" s="366"/>
+      <c r="E10" s="366"/>
+      <c r="F10" s="366"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="110" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B14" s="111"/>
       <c r="C14" s="111"/>
@@ -7650,14 +7656,14 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="411" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" s="412"/>
-      <c r="C15" s="412"/>
-      <c r="D15" s="412"/>
-      <c r="E15" s="412"/>
-      <c r="F15" s="413"/>
+      <c r="A15" s="391" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="392"/>
+      <c r="C15" s="392"/>
+      <c r="D15" s="392"/>
+      <c r="E15" s="392"/>
+      <c r="F15" s="393"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="11"/>
@@ -7666,14 +7672,14 @@
       <c r="L15" s="259"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="382" t="s">
+      <c r="A16" s="394" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="383"/>
-      <c r="C16" s="383"/>
-      <c r="D16" s="383"/>
-      <c r="E16" s="383"/>
-      <c r="F16" s="384"/>
+      <c r="B16" s="395"/>
+      <c r="C16" s="395"/>
+      <c r="D16" s="395"/>
+      <c r="E16" s="395"/>
+      <c r="F16" s="396"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="11"/>
@@ -7734,27 +7740,27 @@
       <c r="L20" s="140"/>
     </row>
     <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="388" t="s">
+      <c r="A21" s="400" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="389"/>
-      <c r="C21" s="389"/>
-      <c r="D21" s="389"/>
-      <c r="E21" s="389"/>
-      <c r="F21" s="389"/>
-      <c r="G21" s="389"/>
-      <c r="H21" s="389"/>
-      <c r="I21" s="389"/>
+      <c r="B21" s="401"/>
+      <c r="C21" s="401"/>
+      <c r="D21" s="401"/>
+      <c r="E21" s="401"/>
+      <c r="F21" s="401"/>
+      <c r="G21" s="401"/>
+      <c r="H21" s="401"/>
+      <c r="I21" s="401"/>
       <c r="J21" s="139"/>
       <c r="K21" s="138"/>
       <c r="L21" s="8"/>
       <c r="R21" s="133"/>
     </row>
     <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="396" t="s">
+      <c r="A22" s="408" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="397"/>
+      <c r="B22" s="409"/>
       <c r="C22" s="137"/>
       <c r="D22" s="137"/>
       <c r="E22" s="137"/>
@@ -7768,15 +7774,15 @@
       <c r="R22" s="133"/>
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="392" t="s">
+      <c r="A23" s="404" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="393"/>
+      <c r="B23" s="405"/>
       <c r="C23" s="268"/>
-      <c r="D23" s="390" t="s">
+      <c r="D23" s="402" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="391"/>
+      <c r="E23" s="403"/>
       <c r="F23" s="269"/>
       <c r="G23" s="228" t="s">
         <v>65</v>
@@ -7799,11 +7805,11 @@
       <c r="R23" s="133"/>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="394" t="s">
+      <c r="A24" s="406" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="395"/>
-      <c r="C24" s="395"/>
+      <c r="B24" s="407"/>
+      <c r="C24" s="407"/>
       <c r="D24" s="232"/>
       <c r="E24" s="232"/>
       <c r="F24" s="232"/>
@@ -7815,19 +7821,19 @@
       <c r="R24" s="133"/>
     </row>
     <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="385" t="s">
+      <c r="A25" s="397" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="386"/>
-      <c r="C25" s="386"/>
-      <c r="D25" s="386"/>
-      <c r="E25" s="386"/>
-      <c r="F25" s="386"/>
-      <c r="G25" s="386"/>
-      <c r="H25" s="386"/>
-      <c r="I25" s="386"/>
-      <c r="J25" s="386"/>
-      <c r="K25" s="387"/>
+      <c r="B25" s="398"/>
+      <c r="C25" s="398"/>
+      <c r="D25" s="398"/>
+      <c r="E25" s="398"/>
+      <c r="F25" s="398"/>
+      <c r="G25" s="398"/>
+      <c r="H25" s="398"/>
+      <c r="I25" s="398"/>
+      <c r="J25" s="398"/>
+      <c r="K25" s="399"/>
       <c r="L25" s="9">
         <f>IFERROR(K23-K24,0)</f>
         <v>0</v>
@@ -7976,7 +7982,7 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -8567,17 +8573,17 @@
   <sheetData>
     <row r="1" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="401" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="401"/>
-      <c r="C2" s="401"/>
-      <c r="D2" s="401"/>
-      <c r="E2" s="401"/>
-      <c r="F2" s="401"/>
-      <c r="G2" s="401"/>
-      <c r="H2" s="401"/>
-      <c r="I2" s="401"/>
+      <c r="A2" s="414" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="414"/>
+      <c r="C2" s="414"/>
+      <c r="D2" s="414"/>
+      <c r="E2" s="414"/>
+      <c r="F2" s="414"/>
+      <c r="G2" s="414"/>
+      <c r="H2" s="414"/>
+      <c r="I2" s="414"/>
       <c r="J2" s="143"/>
       <c r="K2" s="143"/>
       <c r="L2" s="143"/>
@@ -8622,10 +8628,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
+      <c r="C5" s="366"/>
+      <c r="D5" s="366"/>
+      <c r="E5" s="366"/>
+      <c r="F5" s="366"/>
       <c r="G5" s="142"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
@@ -8640,10 +8646,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="359"/>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
+      <c r="C6" s="366"/>
+      <c r="D6" s="366"/>
+      <c r="E6" s="366"/>
+      <c r="F6" s="366"/>
       <c r="G6" s="141"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14" t="s">
@@ -8674,10 +8680,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="360"/>
-      <c r="D8" s="360"/>
-      <c r="E8" s="360"/>
-      <c r="F8" s="360"/>
+      <c r="C8" s="367"/>
+      <c r="D8" s="367"/>
+      <c r="E8" s="367"/>
+      <c r="F8" s="367"/>
       <c r="G8" s="151"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -8692,10 +8698,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="359"/>
-      <c r="D9" s="359"/>
-      <c r="E9" s="359"/>
-      <c r="F9" s="359"/>
+      <c r="C9" s="366"/>
+      <c r="D9" s="366"/>
+      <c r="E9" s="366"/>
+      <c r="F9" s="366"/>
       <c r="G9" s="151"/>
       <c r="H9" s="141"/>
       <c r="I9" s="141"/>
@@ -8708,15 +8714,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="359"/>
-      <c r="D10" s="359"/>
-      <c r="E10" s="359"/>
-      <c r="F10" s="359"/>
+      <c r="C10" s="366"/>
+      <c r="D10" s="366"/>
+      <c r="E10" s="366"/>
+      <c r="F10" s="366"/>
       <c r="G10" s="151"/>
       <c r="H10" s="141"/>
       <c r="I10" s="141"/>
-      <c r="J10" s="398"/>
-      <c r="K10" s="398"/>
+      <c r="J10" s="410"/>
+      <c r="K10" s="410"/>
       <c r="L10" s="152"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -8743,10 +8749,10 @@
       <c r="C13" s="251" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="402" t="s">
+      <c r="D13" s="415" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="403"/>
+      <c r="E13" s="416"/>
       <c r="F13" s="251" t="s">
         <v>120</v>
       </c>
@@ -8759,17 +8765,17 @@
       <c r="I13" s="253" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="406" t="s">
+      <c r="J13" s="419" t="s">
         <v>125</v>
       </c>
-      <c r="K13" s="407"/>
+      <c r="K13" s="420"/>
       <c r="L13" s="150"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="270"/>
       <c r="C14" s="271"/>
-      <c r="D14" s="404"/>
-      <c r="E14" s="405"/>
+      <c r="D14" s="417"/>
+      <c r="E14" s="418"/>
       <c r="F14" s="271"/>
       <c r="G14" s="271"/>
       <c r="H14" s="272"/>
@@ -8777,11 +8783,11 @@
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="408">
+      <c r="J14" s="421">
         <f>I14/6</f>
         <v>0</v>
       </c>
-      <c r="K14" s="409"/>
+      <c r="K14" s="422"/>
       <c r="L14" s="150"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8797,16 +8803,16 @@
       <c r="A17" s="246" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="421" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="399"/>
-      <c r="D17" s="399"/>
-      <c r="E17" s="399"/>
-      <c r="F17" s="399"/>
-      <c r="G17" s="399"/>
-      <c r="H17" s="399"/>
-      <c r="I17" s="400"/>
+      <c r="B17" s="411" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="412"/>
+      <c r="D17" s="412"/>
+      <c r="E17" s="412"/>
+      <c r="F17" s="412"/>
+      <c r="G17" s="412"/>
+      <c r="H17" s="412"/>
+      <c r="I17" s="413"/>
       <c r="J17" s="148" t="s">
         <v>123</v>
       </c>
@@ -8820,19 +8826,19 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="333" t="s">
+      <c r="A18" s="335" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="422" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="423"/>
-      <c r="D18" s="423"/>
-      <c r="E18" s="423"/>
-      <c r="F18" s="423"/>
-      <c r="G18" s="423"/>
-      <c r="H18" s="423"/>
-      <c r="I18" s="423"/>
+      <c r="B18" s="423" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="424"/>
+      <c r="D18" s="424"/>
+      <c r="E18" s="424"/>
+      <c r="F18" s="424"/>
+      <c r="G18" s="424"/>
+      <c r="H18" s="424"/>
+      <c r="I18" s="424"/>
       <c r="J18" s="148" t="s">
         <v>127</v>
       </c>
@@ -8843,17 +8849,17 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="334"/>
-      <c r="B19" s="424" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" s="425"/>
-      <c r="D19" s="425"/>
-      <c r="E19" s="425"/>
-      <c r="F19" s="425"/>
-      <c r="G19" s="425"/>
-      <c r="H19" s="425"/>
-      <c r="I19" s="425"/>
+      <c r="A19" s="336"/>
+      <c r="B19" s="425" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="426"/>
+      <c r="D19" s="426"/>
+      <c r="E19" s="426"/>
+      <c r="F19" s="426"/>
+      <c r="G19" s="426"/>
+      <c r="H19" s="426"/>
+      <c r="I19" s="426"/>
       <c r="J19" s="146" t="s">
         <v>128</v>
       </c>
@@ -9008,7 +9014,7 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -9599,17 +9605,17 @@
   <sheetData>
     <row r="1" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="401" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="401"/>
-      <c r="C2" s="401"/>
-      <c r="D2" s="401"/>
-      <c r="E2" s="401"/>
-      <c r="F2" s="401"/>
-      <c r="G2" s="401"/>
-      <c r="H2" s="401"/>
-      <c r="I2" s="401"/>
+      <c r="A2" s="414" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="414"/>
+      <c r="C2" s="414"/>
+      <c r="D2" s="414"/>
+      <c r="E2" s="414"/>
+      <c r="F2" s="414"/>
+      <c r="G2" s="414"/>
+      <c r="H2" s="414"/>
+      <c r="I2" s="414"/>
       <c r="J2" s="143"/>
       <c r="K2" s="143"/>
       <c r="L2" s="143"/>
@@ -9654,10 +9660,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
+      <c r="C5" s="366"/>
+      <c r="D5" s="366"/>
+      <c r="E5" s="366"/>
+      <c r="F5" s="366"/>
       <c r="G5" s="142"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
@@ -9672,10 +9678,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="359"/>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
+      <c r="C6" s="366"/>
+      <c r="D6" s="366"/>
+      <c r="E6" s="366"/>
+      <c r="F6" s="366"/>
       <c r="G6" s="141"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14" t="s">
@@ -9706,10 +9712,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="360"/>
-      <c r="D8" s="360"/>
-      <c r="E8" s="360"/>
-      <c r="F8" s="360"/>
+      <c r="C8" s="367"/>
+      <c r="D8" s="367"/>
+      <c r="E8" s="367"/>
+      <c r="F8" s="367"/>
       <c r="G8" s="151"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -9724,10 +9730,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="359"/>
-      <c r="D9" s="359"/>
-      <c r="E9" s="359"/>
-      <c r="F9" s="359"/>
+      <c r="C9" s="366"/>
+      <c r="D9" s="366"/>
+      <c r="E9" s="366"/>
+      <c r="F9" s="366"/>
       <c r="G9" s="151"/>
       <c r="H9" s="141"/>
       <c r="I9" s="141"/>
@@ -9740,15 +9746,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="359"/>
-      <c r="D10" s="359"/>
-      <c r="E10" s="359"/>
-      <c r="F10" s="359"/>
+      <c r="C10" s="366"/>
+      <c r="D10" s="366"/>
+      <c r="E10" s="366"/>
+      <c r="F10" s="366"/>
       <c r="G10" s="151"/>
       <c r="H10" s="141"/>
       <c r="I10" s="141"/>
-      <c r="J10" s="398"/>
-      <c r="K10" s="398"/>
+      <c r="J10" s="410"/>
+      <c r="K10" s="410"/>
       <c r="L10" s="152"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -9775,10 +9781,10 @@
       <c r="C13" s="251" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="402" t="s">
+      <c r="D13" s="415" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="403"/>
+      <c r="E13" s="416"/>
       <c r="F13" s="251" t="s">
         <v>120</v>
       </c>
@@ -9787,17 +9793,17 @@
       <c r="I13" s="253" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="406" t="s">
+      <c r="J13" s="419" t="s">
         <v>125</v>
       </c>
-      <c r="K13" s="407"/>
+      <c r="K13" s="420"/>
       <c r="L13" s="150"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="270"/>
       <c r="C14" s="271"/>
-      <c r="D14" s="404"/>
-      <c r="E14" s="405"/>
+      <c r="D14" s="417"/>
+      <c r="E14" s="418"/>
       <c r="F14" s="271"/>
       <c r="G14" s="296"/>
       <c r="H14" s="297"/>
@@ -9805,11 +9811,11 @@
         <f>SUM(B14:F14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="408">
+      <c r="J14" s="421">
         <f>I14/4</f>
         <v>0</v>
       </c>
-      <c r="K14" s="409"/>
+      <c r="K14" s="422"/>
       <c r="L14" s="150"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9825,16 +9831,16 @@
       <c r="A17" s="246" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="426" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="427"/>
-      <c r="D17" s="427"/>
-      <c r="E17" s="427"/>
-      <c r="F17" s="427"/>
-      <c r="G17" s="427"/>
-      <c r="H17" s="427"/>
-      <c r="I17" s="428"/>
+      <c r="B17" s="427" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="428"/>
+      <c r="D17" s="428"/>
+      <c r="E17" s="428"/>
+      <c r="F17" s="428"/>
+      <c r="G17" s="428"/>
+      <c r="H17" s="428"/>
+      <c r="I17" s="429"/>
       <c r="J17" s="148" t="s">
         <v>123</v>
       </c>
@@ -9848,19 +9854,19 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="333" t="s">
+      <c r="A18" s="335" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="422" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="423"/>
-      <c r="D18" s="423"/>
-      <c r="E18" s="423"/>
-      <c r="F18" s="423"/>
-      <c r="G18" s="423"/>
-      <c r="H18" s="423"/>
-      <c r="I18" s="423"/>
+      <c r="B18" s="423" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="424"/>
+      <c r="D18" s="424"/>
+      <c r="E18" s="424"/>
+      <c r="F18" s="424"/>
+      <c r="G18" s="424"/>
+      <c r="H18" s="424"/>
+      <c r="I18" s="424"/>
       <c r="J18" s="148" t="s">
         <v>127</v>
       </c>
@@ -9871,17 +9877,17 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="334"/>
-      <c r="B19" s="424" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" s="425"/>
-      <c r="D19" s="425"/>
-      <c r="E19" s="425"/>
-      <c r="F19" s="425"/>
-      <c r="G19" s="425"/>
-      <c r="H19" s="425"/>
-      <c r="I19" s="425"/>
+      <c r="A19" s="336"/>
+      <c r="B19" s="425" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="426"/>
+      <c r="D19" s="426"/>
+      <c r="E19" s="426"/>
+      <c r="F19" s="426"/>
+      <c r="G19" s="426"/>
+      <c r="H19" s="426"/>
+      <c r="I19" s="426"/>
       <c r="J19" s="146" t="s">
         <v>128</v>
       </c>
@@ -10036,7 +10042,7 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView showZeros="0" showRuler="0" view="pageLayout" topLeftCell="B14" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showZeros="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -10088,8 +10094,8 @@
         <v>4</v>
       </c>
       <c r="B3" s="160"/>
-      <c r="C3" s="354"/>
-      <c r="D3" s="354"/>
+      <c r="C3" s="356"/>
+      <c r="D3" s="356"/>
       <c r="E3" s="279"/>
       <c r="F3" s="279"/>
       <c r="H3" s="155"/>
@@ -10105,10 +10111,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="136"/>
-      <c r="C4" s="353"/>
-      <c r="D4" s="353"/>
-      <c r="E4" s="353"/>
-      <c r="F4" s="353"/>
+      <c r="C4" s="355"/>
+      <c r="D4" s="355"/>
+      <c r="E4" s="355"/>
+      <c r="F4" s="355"/>
       <c r="H4" s="155"/>
       <c r="I4" s="156" t="s">
         <v>11</v>
@@ -10122,10 +10128,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="353"/>
-      <c r="D5" s="353"/>
-      <c r="E5" s="353"/>
-      <c r="F5" s="353"/>
+      <c r="C5" s="355"/>
+      <c r="D5" s="355"/>
+      <c r="E5" s="355"/>
+      <c r="F5" s="355"/>
       <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10148,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="160"/>
-      <c r="C7" s="353"/>
-      <c r="D7" s="353"/>
-      <c r="E7" s="353"/>
-      <c r="F7" s="353"/>
+      <c r="C7" s="355"/>
+      <c r="D7" s="355"/>
+      <c r="E7" s="355"/>
+      <c r="F7" s="355"/>
       <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10159,10 +10165,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="136"/>
-      <c r="C8" s="353"/>
-      <c r="D8" s="353"/>
-      <c r="E8" s="353"/>
-      <c r="F8" s="353"/>
+      <c r="C8" s="355"/>
+      <c r="D8" s="355"/>
+      <c r="E8" s="355"/>
+      <c r="F8" s="355"/>
       <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10170,10 +10176,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="353"/>
-      <c r="D9" s="353"/>
-      <c r="E9" s="353"/>
-      <c r="F9" s="353"/>
+      <c r="C9" s="355"/>
+      <c r="D9" s="355"/>
+      <c r="E9" s="355"/>
+      <c r="F9" s="355"/>
       <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10188,86 +10194,86 @@
       <c r="D11" s="282"/>
       <c r="E11" s="282"/>
       <c r="F11" s="282"/>
-      <c r="H11" s="328" t="s">
+      <c r="H11" s="330" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="329"/>
-      <c r="J11" s="330" t="s">
+      <c r="I11" s="331"/>
+      <c r="J11" s="332" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="331"/>
-      <c r="L11" s="332"/>
+      <c r="K11" s="333"/>
+      <c r="L11" s="334"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="333" t="s">
+      <c r="A12" s="335" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="337" t="s">
+      <c r="B12" s="339" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="338"/>
-      <c r="D12" s="338"/>
-      <c r="E12" s="338"/>
-      <c r="F12" s="338"/>
-      <c r="G12" s="338"/>
-      <c r="H12" s="341"/>
-      <c r="I12" s="342"/>
-      <c r="J12" s="347" t="s">
+      <c r="C12" s="340"/>
+      <c r="D12" s="340"/>
+      <c r="E12" s="340"/>
+      <c r="F12" s="340"/>
+      <c r="G12" s="340"/>
+      <c r="H12" s="343"/>
+      <c r="I12" s="344"/>
+      <c r="J12" s="349" t="s">
         <v>157</v>
       </c>
-      <c r="K12" s="349">
+      <c r="K12" s="351">
         <f>SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
-      <c r="L12" s="317">
+      <c r="L12" s="319">
         <f>ROUND(K12*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="334"/>
-      <c r="B13" s="339"/>
-      <c r="C13" s="340"/>
-      <c r="D13" s="340"/>
-      <c r="E13" s="340"/>
-      <c r="F13" s="340"/>
-      <c r="G13" s="340"/>
-      <c r="H13" s="343"/>
-      <c r="I13" s="344"/>
-      <c r="J13" s="326"/>
-      <c r="K13" s="350"/>
-      <c r="L13" s="318"/>
+      <c r="A13" s="336"/>
+      <c r="B13" s="341"/>
+      <c r="C13" s="342"/>
+      <c r="D13" s="342"/>
+      <c r="E13" s="342"/>
+      <c r="F13" s="342"/>
+      <c r="G13" s="342"/>
+      <c r="H13" s="345"/>
+      <c r="I13" s="346"/>
+      <c r="J13" s="328"/>
+      <c r="K13" s="352"/>
+      <c r="L13" s="320"/>
     </row>
     <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="334"/>
-      <c r="B14" s="339"/>
-      <c r="C14" s="340"/>
-      <c r="D14" s="340"/>
-      <c r="E14" s="340"/>
-      <c r="F14" s="340"/>
-      <c r="G14" s="340"/>
-      <c r="H14" s="343"/>
-      <c r="I14" s="344"/>
-      <c r="J14" s="326"/>
-      <c r="K14" s="350"/>
-      <c r="L14" s="318"/>
+      <c r="A14" s="336"/>
+      <c r="B14" s="341"/>
+      <c r="C14" s="342"/>
+      <c r="D14" s="342"/>
+      <c r="E14" s="342"/>
+      <c r="F14" s="342"/>
+      <c r="G14" s="342"/>
+      <c r="H14" s="345"/>
+      <c r="I14" s="346"/>
+      <c r="J14" s="328"/>
+      <c r="K14" s="352"/>
+      <c r="L14" s="320"/>
     </row>
     <row r="15" spans="1:12" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="334"/>
-      <c r="B15" s="339"/>
-      <c r="C15" s="340"/>
-      <c r="D15" s="340"/>
-      <c r="E15" s="340"/>
-      <c r="F15" s="340"/>
-      <c r="G15" s="340"/>
-      <c r="H15" s="343"/>
-      <c r="I15" s="344"/>
-      <c r="J15" s="326"/>
-      <c r="K15" s="350"/>
-      <c r="L15" s="318"/>
+      <c r="A15" s="336"/>
+      <c r="B15" s="341"/>
+      <c r="C15" s="342"/>
+      <c r="D15" s="342"/>
+      <c r="E15" s="342"/>
+      <c r="F15" s="342"/>
+      <c r="G15" s="342"/>
+      <c r="H15" s="345"/>
+      <c r="I15" s="346"/>
+      <c r="J15" s="328"/>
+      <c r="K15" s="352"/>
+      <c r="L15" s="320"/>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="335"/>
+      <c r="A16" s="337"/>
       <c r="B16" s="283" t="s">
         <v>158</v>
       </c>
@@ -10286,14 +10292,14 @@
       <c r="G16" s="286" t="s">
         <v>163</v>
       </c>
-      <c r="H16" s="343"/>
-      <c r="I16" s="344"/>
-      <c r="J16" s="326"/>
-      <c r="K16" s="350"/>
-      <c r="L16" s="318"/>
+      <c r="H16" s="345"/>
+      <c r="I16" s="346"/>
+      <c r="J16" s="328"/>
+      <c r="K16" s="352"/>
+      <c r="L16" s="320"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="336"/>
+      <c r="A17" s="338"/>
       <c r="B17" s="287"/>
       <c r="C17" s="288">
         <v>0</v>
@@ -10302,67 +10308,67 @@
       <c r="E17" s="288"/>
       <c r="F17" s="288"/>
       <c r="G17" s="289"/>
-      <c r="H17" s="345"/>
-      <c r="I17" s="346"/>
-      <c r="J17" s="348"/>
-      <c r="K17" s="351"/>
-      <c r="L17" s="352"/>
+      <c r="H17" s="347"/>
+      <c r="I17" s="348"/>
+      <c r="J17" s="350"/>
+      <c r="K17" s="353"/>
+      <c r="L17" s="354"/>
     </row>
     <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="300" t="s">
+      <c r="A18" s="302" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="303" t="s">
+      <c r="B18" s="305" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="303"/>
-      <c r="D18" s="303"/>
-      <c r="E18" s="303"/>
-      <c r="F18" s="303"/>
-      <c r="G18" s="303"/>
-      <c r="H18" s="306"/>
-      <c r="I18" s="307"/>
-      <c r="J18" s="312" t="s">
+      <c r="C18" s="305"/>
+      <c r="D18" s="305"/>
+      <c r="E18" s="305"/>
+      <c r="F18" s="305"/>
+      <c r="G18" s="305"/>
+      <c r="H18" s="308"/>
+      <c r="I18" s="309"/>
+      <c r="J18" s="314" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="315">
+      <c r="K18" s="317">
         <v>0</v>
       </c>
-      <c r="L18" s="317">
+      <c r="L18" s="319">
         <f>IF(K18-K21 &gt;=0, (ROUND((K18-K21)*0.25,3)),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="301"/>
-      <c r="B19" s="304"/>
-      <c r="C19" s="304"/>
-      <c r="D19" s="304"/>
-      <c r="E19" s="304"/>
-      <c r="F19" s="304"/>
-      <c r="G19" s="304"/>
-      <c r="H19" s="308"/>
-      <c r="I19" s="309"/>
-      <c r="J19" s="313"/>
-      <c r="K19" s="316"/>
-      <c r="L19" s="318"/>
+      <c r="A19" s="303"/>
+      <c r="B19" s="306"/>
+      <c r="C19" s="306"/>
+      <c r="D19" s="306"/>
+      <c r="E19" s="306"/>
+      <c r="F19" s="306"/>
+      <c r="G19" s="306"/>
+      <c r="H19" s="310"/>
+      <c r="I19" s="311"/>
+      <c r="J19" s="315"/>
+      <c r="K19" s="318"/>
+      <c r="L19" s="320"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="301"/>
-      <c r="B20" s="305"/>
-      <c r="C20" s="305"/>
-      <c r="D20" s="305"/>
-      <c r="E20" s="305"/>
-      <c r="F20" s="305"/>
-      <c r="G20" s="304"/>
-      <c r="H20" s="308"/>
-      <c r="I20" s="309"/>
-      <c r="J20" s="313"/>
-      <c r="K20" s="316"/>
-      <c r="L20" s="318"/>
+      <c r="A20" s="303"/>
+      <c r="B20" s="307"/>
+      <c r="C20" s="307"/>
+      <c r="D20" s="307"/>
+      <c r="E20" s="307"/>
+      <c r="F20" s="307"/>
+      <c r="G20" s="306"/>
+      <c r="H20" s="310"/>
+      <c r="I20" s="311"/>
+      <c r="J20" s="315"/>
+      <c r="K20" s="318"/>
+      <c r="L20" s="320"/>
     </row>
     <row r="21" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="302"/>
+      <c r="A21" s="304"/>
       <c r="B21" s="290" t="s">
         <v>165</v>
       </c>
@@ -10373,42 +10379,42 @@
       <c r="E21" s="291"/>
       <c r="F21" s="291"/>
       <c r="G21" s="291"/>
-      <c r="H21" s="310"/>
-      <c r="I21" s="311"/>
-      <c r="J21" s="314"/>
+      <c r="H21" s="312"/>
+      <c r="I21" s="313"/>
+      <c r="J21" s="316"/>
       <c r="K21" s="292">
         <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="319"/>
+      <c r="L21" s="321"/>
     </row>
     <row r="22" spans="1:12" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="300" t="s">
+      <c r="A22" s="302" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="303" t="s">
+      <c r="B22" s="305" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="320"/>
-      <c r="D22" s="320"/>
-      <c r="E22" s="320"/>
-      <c r="F22" s="320"/>
-      <c r="G22" s="321"/>
-      <c r="H22" s="322"/>
-      <c r="I22" s="323"/>
-      <c r="J22" s="326" t="s">
+      <c r="C22" s="322"/>
+      <c r="D22" s="322"/>
+      <c r="E22" s="322"/>
+      <c r="F22" s="322"/>
+      <c r="G22" s="323"/>
+      <c r="H22" s="324"/>
+      <c r="I22" s="325"/>
+      <c r="J22" s="328" t="s">
         <v>167</v>
       </c>
       <c r="K22" s="293">
         <v>0</v>
       </c>
-      <c r="L22" s="318">
+      <c r="L22" s="320">
         <f>IF((K22-K23)&gt;=0,(ROUND((K22-K23)*0.15,3)),0.000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="302"/>
+      <c r="A23" s="304"/>
       <c r="B23" s="294" t="s">
         <v>165</v>
       </c>
@@ -10423,14 +10429,14 @@
       </c>
       <c r="F23" s="291"/>
       <c r="G23" s="291"/>
-      <c r="H23" s="324"/>
-      <c r="I23" s="325"/>
-      <c r="J23" s="327"/>
+      <c r="H23" s="326"/>
+      <c r="I23" s="327"/>
+      <c r="J23" s="329"/>
       <c r="K23" s="292">
         <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="319"/>
+      <c r="L23" s="321"/>
     </row>
     <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="21"/>
@@ -10447,11 +10453,11 @@
         <v>3</v>
       </c>
       <c r="J25" s="23"/>
-      <c r="K25" s="298">
+      <c r="K25" s="300">
         <f>SUM(L12:L22)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="299"/>
+      <c r="L25" s="301"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10502,7 +10508,7 @@
     <mergeCell ref="L22:L23"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
     <oddFooter>&amp;R2020-03-22</oddFooter>
@@ -10518,7 +10524,7 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -10542,7 +10548,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="154" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H2" s="155"/>
       <c r="I2" s="156" t="s">
@@ -10586,10 +10592,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="355"/>
-      <c r="D5" s="355"/>
-      <c r="E5" s="355"/>
-      <c r="F5" s="355"/>
+      <c r="C5" s="360"/>
+      <c r="D5" s="360"/>
+      <c r="E5" s="360"/>
+      <c r="F5" s="360"/>
       <c r="H5" s="155"/>
       <c r="I5" s="156" t="s">
         <v>11</v>
@@ -10603,10 +10609,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="136"/>
-      <c r="C6" s="355"/>
-      <c r="D6" s="355"/>
-      <c r="E6" s="355"/>
-      <c r="F6" s="355"/>
+      <c r="C6" s="360"/>
+      <c r="D6" s="360"/>
+      <c r="E6" s="360"/>
+      <c r="F6" s="360"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10629,30 +10635,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="160"/>
-      <c r="C8" s="355"/>
-      <c r="D8" s="355"/>
-      <c r="E8" s="355"/>
-      <c r="F8" s="355"/>
+      <c r="C8" s="360"/>
+      <c r="D8" s="360"/>
+      <c r="E8" s="360"/>
+      <c r="F8" s="360"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="355"/>
-      <c r="D9" s="355"/>
-      <c r="E9" s="355"/>
-      <c r="F9" s="355"/>
+      <c r="C9" s="360"/>
+      <c r="D9" s="360"/>
+      <c r="E9" s="360"/>
+      <c r="F9" s="360"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="136" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="136"/>
-      <c r="C10" s="355"/>
-      <c r="D10" s="355"/>
-      <c r="E10" s="355"/>
-      <c r="F10" s="355"/>
+      <c r="C10" s="360"/>
+      <c r="D10" s="360"/>
+      <c r="E10" s="360"/>
+      <c r="F10" s="360"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10683,12 +10689,12 @@
       <c r="C15" s="196"/>
       <c r="D15" s="199"/>
       <c r="E15" s="227"/>
-      <c r="F15" s="414"/>
-      <c r="G15" s="414"/>
-      <c r="H15" s="414"/>
-      <c r="I15" s="414"/>
-      <c r="J15" s="414"/>
-      <c r="K15" s="415"/>
+      <c r="F15" s="358"/>
+      <c r="G15" s="358"/>
+      <c r="H15" s="358"/>
+      <c r="I15" s="358"/>
+      <c r="J15" s="358"/>
+      <c r="K15" s="359"/>
       <c r="L15" s="258"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -10699,12 +10705,12 @@
       <c r="C16" s="196"/>
       <c r="D16" s="199"/>
       <c r="E16" s="227"/>
-      <c r="F16" s="414"/>
-      <c r="G16" s="414"/>
-      <c r="H16" s="414"/>
-      <c r="I16" s="414"/>
-      <c r="J16" s="414"/>
-      <c r="K16" s="415"/>
+      <c r="F16" s="358"/>
+      <c r="G16" s="358"/>
+      <c r="H16" s="358"/>
+      <c r="I16" s="358"/>
+      <c r="J16" s="358"/>
+      <c r="K16" s="359"/>
       <c r="L16" s="258"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -10715,12 +10721,12 @@
       <c r="C17" s="196"/>
       <c r="D17" s="199"/>
       <c r="E17" s="227"/>
-      <c r="F17" s="414"/>
-      <c r="G17" s="414"/>
-      <c r="H17" s="414"/>
-      <c r="I17" s="414"/>
-      <c r="J17" s="414"/>
-      <c r="K17" s="415"/>
+      <c r="F17" s="358"/>
+      <c r="G17" s="358"/>
+      <c r="H17" s="358"/>
+      <c r="I17" s="358"/>
+      <c r="J17" s="358"/>
+      <c r="K17" s="359"/>
       <c r="L17" s="258"/>
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -10731,28 +10737,28 @@
       <c r="C18" s="196"/>
       <c r="D18" s="199"/>
       <c r="E18" s="227"/>
-      <c r="F18" s="414"/>
-      <c r="G18" s="414"/>
-      <c r="H18" s="414"/>
-      <c r="I18" s="414"/>
-      <c r="J18" s="414"/>
-      <c r="K18" s="415"/>
+      <c r="F18" s="358"/>
+      <c r="G18" s="358"/>
+      <c r="H18" s="358"/>
+      <c r="I18" s="358"/>
+      <c r="J18" s="358"/>
+      <c r="K18" s="359"/>
       <c r="L18" s="258"/>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="220" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B19" s="187"/>
       <c r="C19" s="187"/>
       <c r="D19" s="187"/>
-      <c r="E19" s="418"/>
-      <c r="F19" s="418"/>
-      <c r="G19" s="418"/>
-      <c r="H19" s="418"/>
-      <c r="I19" s="418"/>
-      <c r="J19" s="418"/>
-      <c r="K19" s="417"/>
+      <c r="E19" s="361"/>
+      <c r="F19" s="361"/>
+      <c r="G19" s="361"/>
+      <c r="H19" s="361"/>
+      <c r="I19" s="361"/>
+      <c r="J19" s="361"/>
+      <c r="K19" s="362"/>
       <c r="L19" s="258"/>
     </row>
     <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -10762,29 +10768,29 @@
       <c r="B20" s="182"/>
       <c r="C20" s="182"/>
       <c r="D20" s="200"/>
-      <c r="E20" s="416"/>
-      <c r="F20" s="414"/>
-      <c r="G20" s="414"/>
-      <c r="H20" s="414"/>
-      <c r="I20" s="414"/>
-      <c r="J20" s="414"/>
-      <c r="K20" s="415"/>
+      <c r="E20" s="357"/>
+      <c r="F20" s="358"/>
+      <c r="G20" s="358"/>
+      <c r="H20" s="358"/>
+      <c r="I20" s="358"/>
+      <c r="J20" s="358"/>
+      <c r="K20" s="359"/>
       <c r="L20" s="258"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="181" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B21" s="182"/>
       <c r="C21" s="182"/>
       <c r="D21" s="182"/>
       <c r="E21" s="183"/>
       <c r="F21" s="197"/>
-      <c r="G21" s="414"/>
-      <c r="H21" s="414"/>
-      <c r="I21" s="414"/>
-      <c r="J21" s="414"/>
-      <c r="K21" s="415"/>
+      <c r="G21" s="358"/>
+      <c r="H21" s="358"/>
+      <c r="I21" s="358"/>
+      <c r="J21" s="358"/>
+      <c r="K21" s="359"/>
       <c r="L21" s="258"/>
     </row>
     <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -10893,11 +10899,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="E19:K19"/>
     <mergeCell ref="E20:K20"/>
     <mergeCell ref="G21:K21"/>
     <mergeCell ref="C5:F5"/>
@@ -10905,6 +10906,11 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="E19:K19"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10923,7 +10929,7 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="H1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -10948,7 +10954,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
@@ -10992,10 +10998,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
+      <c r="C5" s="366"/>
+      <c r="D5" s="366"/>
+      <c r="E5" s="366"/>
+      <c r="F5" s="366"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -11009,10 +11015,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="359"/>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
+      <c r="C6" s="366"/>
+      <c r="D6" s="366"/>
+      <c r="E6" s="366"/>
+      <c r="F6" s="366"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11035,30 +11041,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="360"/>
-      <c r="D8" s="360"/>
-      <c r="E8" s="360"/>
-      <c r="F8" s="360"/>
+      <c r="C8" s="367"/>
+      <c r="D8" s="367"/>
+      <c r="E8" s="367"/>
+      <c r="F8" s="367"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="359"/>
-      <c r="D9" s="359"/>
-      <c r="E9" s="359"/>
-      <c r="F9" s="359"/>
+      <c r="C9" s="366"/>
+      <c r="D9" s="366"/>
+      <c r="E9" s="366"/>
+      <c r="F9" s="366"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="359"/>
-      <c r="D10" s="359"/>
-      <c r="E10" s="359"/>
-      <c r="F10" s="359"/>
+      <c r="C10" s="366"/>
+      <c r="D10" s="366"/>
+      <c r="E10" s="366"/>
+      <c r="F10" s="366"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11194,13 +11200,13 @@
       <c r="L21" s="259"/>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="356" t="s">
+      <c r="A22" s="363" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="357"/>
-      <c r="C22" s="357"/>
-      <c r="D22" s="357"/>
-      <c r="E22" s="358"/>
+      <c r="B22" s="364"/>
+      <c r="C22" s="364"/>
+      <c r="D22" s="364"/>
+      <c r="E22" s="365"/>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
@@ -11328,8 +11334,8 @@
   <sheetPr codeName="Blad5"/>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -11352,7 +11358,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
@@ -11364,7 +11370,7 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
@@ -11396,10 +11402,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
+      <c r="C5" s="366"/>
+      <c r="D5" s="366"/>
+      <c r="E5" s="366"/>
+      <c r="F5" s="366"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -11413,10 +11419,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="359"/>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
+      <c r="C6" s="366"/>
+      <c r="D6" s="366"/>
+      <c r="E6" s="366"/>
+      <c r="F6" s="366"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11439,30 +11445,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="360"/>
-      <c r="D8" s="360"/>
-      <c r="E8" s="360"/>
-      <c r="F8" s="360"/>
+      <c r="C8" s="367"/>
+      <c r="D8" s="367"/>
+      <c r="E8" s="367"/>
+      <c r="F8" s="367"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="359"/>
-      <c r="D9" s="359"/>
-      <c r="E9" s="359"/>
-      <c r="F9" s="359"/>
+      <c r="C9" s="366"/>
+      <c r="D9" s="366"/>
+      <c r="E9" s="366"/>
+      <c r="F9" s="366"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="359"/>
-      <c r="D10" s="359"/>
-      <c r="E10" s="359"/>
-      <c r="F10" s="359"/>
+      <c r="C10" s="366"/>
+      <c r="D10" s="366"/>
+      <c r="E10" s="366"/>
+      <c r="F10" s="366"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11599,7 +11605,7 @@
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="224" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B22" s="222"/>
       <c r="C22" s="222"/>
@@ -11614,15 +11620,15 @@
       <c r="L22" s="259"/>
     </row>
     <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="410" t="s">
-        <v>175</v>
+      <c r="A23" s="298" t="s">
+        <v>174</v>
       </c>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="410" t="s">
-        <v>176</v>
+      <c r="A24" s="298" t="s">
+        <v>175</v>
       </c>
       <c r="I24" s="38"/>
       <c r="J24" s="39"/>
@@ -11739,7 +11745,7 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -11761,14 +11767,14 @@
   <sheetData>
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="419" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="419"/>
-      <c r="C2" s="419"/>
-      <c r="D2" s="419"/>
-      <c r="E2" s="419"/>
-      <c r="F2" s="419"/>
+      <c r="A2" s="368" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="368"/>
+      <c r="C2" s="368"/>
+      <c r="D2" s="368"/>
+      <c r="E2" s="368"/>
+      <c r="F2" s="368"/>
       <c r="H2" s="155"/>
       <c r="I2" s="156" t="s">
         <v>61</v>
@@ -11811,10 +11817,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="355"/>
-      <c r="D5" s="355"/>
-      <c r="E5" s="355"/>
-      <c r="F5" s="355"/>
+      <c r="C5" s="360"/>
+      <c r="D5" s="360"/>
+      <c r="E5" s="360"/>
+      <c r="F5" s="360"/>
       <c r="H5" s="155"/>
       <c r="I5" s="156" t="s">
         <v>11</v>
@@ -11828,10 +11834,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="136"/>
-      <c r="C6" s="355"/>
-      <c r="D6" s="355"/>
-      <c r="E6" s="355"/>
-      <c r="F6" s="355"/>
+      <c r="C6" s="360"/>
+      <c r="D6" s="360"/>
+      <c r="E6" s="360"/>
+      <c r="F6" s="360"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11854,30 +11860,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="160"/>
-      <c r="C8" s="361"/>
-      <c r="D8" s="361"/>
-      <c r="E8" s="361"/>
-      <c r="F8" s="361"/>
+      <c r="C8" s="369"/>
+      <c r="D8" s="369"/>
+      <c r="E8" s="369"/>
+      <c r="F8" s="369"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="355"/>
-      <c r="D9" s="355"/>
-      <c r="E9" s="355"/>
-      <c r="F9" s="355"/>
+      <c r="C9" s="360"/>
+      <c r="D9" s="360"/>
+      <c r="E9" s="360"/>
+      <c r="F9" s="360"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="136" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="136"/>
-      <c r="C10" s="355"/>
-      <c r="D10" s="355"/>
-      <c r="E10" s="355"/>
-      <c r="F10" s="355"/>
+      <c r="C10" s="360"/>
+      <c r="D10" s="360"/>
+      <c r="E10" s="360"/>
+      <c r="F10" s="360"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12068,12 +12074,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12093,7 +12099,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -12745,14 +12751,14 @@
   <sheetData>
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="420" t="s">
+      <c r="A2" s="370" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="420"/>
-      <c r="C2" s="420"/>
-      <c r="D2" s="420"/>
-      <c r="E2" s="420"/>
-      <c r="F2" s="420"/>
+      <c r="B2" s="370"/>
+      <c r="C2" s="370"/>
+      <c r="D2" s="370"/>
+      <c r="E2" s="370"/>
+      <c r="F2" s="370"/>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
         <v>61</v>
@@ -12795,10 +12801,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
+      <c r="C5" s="366"/>
+      <c r="D5" s="366"/>
+      <c r="E5" s="366"/>
+      <c r="F5" s="366"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -12812,10 +12818,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="359"/>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
+      <c r="C6" s="366"/>
+      <c r="D6" s="366"/>
+      <c r="E6" s="366"/>
+      <c r="F6" s="366"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -12844,30 +12850,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="360"/>
-      <c r="D8" s="360"/>
-      <c r="E8" s="360"/>
-      <c r="F8" s="360"/>
+      <c r="C8" s="367"/>
+      <c r="D8" s="367"/>
+      <c r="E8" s="367"/>
+      <c r="F8" s="367"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="359"/>
-      <c r="D9" s="359"/>
-      <c r="E9" s="359"/>
-      <c r="F9" s="359"/>
+      <c r="C9" s="366"/>
+      <c r="D9" s="366"/>
+      <c r="E9" s="366"/>
+      <c r="F9" s="366"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="359"/>
-      <c r="D10" s="359"/>
-      <c r="E10" s="359"/>
-      <c r="F10" s="359"/>
+      <c r="C10" s="366"/>
+      <c r="D10" s="366"/>
+      <c r="E10" s="366"/>
+      <c r="F10" s="366"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12887,32 +12893,32 @@
       <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="362"/>
-      <c r="B13" s="363"/>
-      <c r="C13" s="363"/>
-      <c r="D13" s="363"/>
-      <c r="E13" s="363"/>
-      <c r="F13" s="363"/>
-      <c r="G13" s="363"/>
-      <c r="H13" s="363"/>
-      <c r="I13" s="363"/>
-      <c r="J13" s="363"/>
-      <c r="K13" s="363"/>
-      <c r="L13" s="364"/>
+      <c r="A13" s="371"/>
+      <c r="B13" s="372"/>
+      <c r="C13" s="372"/>
+      <c r="D13" s="372"/>
+      <c r="E13" s="372"/>
+      <c r="F13" s="372"/>
+      <c r="G13" s="372"/>
+      <c r="H13" s="372"/>
+      <c r="I13" s="372"/>
+      <c r="J13" s="372"/>
+      <c r="K13" s="372"/>
+      <c r="L13" s="373"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="365"/>
-      <c r="B14" s="366"/>
-      <c r="C14" s="366"/>
-      <c r="D14" s="366"/>
-      <c r="E14" s="366"/>
-      <c r="F14" s="366"/>
-      <c r="G14" s="366"/>
-      <c r="H14" s="366"/>
-      <c r="I14" s="366"/>
-      <c r="J14" s="366"/>
-      <c r="K14" s="366"/>
-      <c r="L14" s="367"/>
+      <c r="A14" s="374"/>
+      <c r="B14" s="375"/>
+      <c r="C14" s="375"/>
+      <c r="D14" s="375"/>
+      <c r="E14" s="375"/>
+      <c r="F14" s="375"/>
+      <c r="G14" s="375"/>
+      <c r="H14" s="375"/>
+      <c r="I14" s="375"/>
+      <c r="J14" s="375"/>
+      <c r="K14" s="375"/>
+      <c r="L14" s="376"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
@@ -13204,8 +13210,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:L14"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -13858,7 +13864,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
@@ -13902,10 +13908,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
+      <c r="C5" s="366"/>
+      <c r="D5" s="366"/>
+      <c r="E5" s="366"/>
+      <c r="F5" s="366"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -13919,10 +13925,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="359"/>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
+      <c r="C6" s="366"/>
+      <c r="D6" s="366"/>
+      <c r="E6" s="366"/>
+      <c r="F6" s="366"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -13951,30 +13957,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="360"/>
-      <c r="D8" s="360"/>
-      <c r="E8" s="360"/>
-      <c r="F8" s="360"/>
+      <c r="C8" s="367"/>
+      <c r="D8" s="367"/>
+      <c r="E8" s="367"/>
+      <c r="F8" s="367"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="359"/>
-      <c r="D9" s="359"/>
-      <c r="E9" s="359"/>
-      <c r="F9" s="359"/>
+      <c r="C9" s="366"/>
+      <c r="D9" s="366"/>
+      <c r="E9" s="366"/>
+      <c r="F9" s="366"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="359"/>
-      <c r="D10" s="359"/>
-      <c r="E10" s="359"/>
-      <c r="F10" s="359"/>
+      <c r="C10" s="366"/>
+      <c r="D10" s="366"/>
+      <c r="E10" s="366"/>
+      <c r="F10" s="366"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -13994,32 +14000,32 @@
       <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="362"/>
-      <c r="B13" s="363"/>
-      <c r="C13" s="363"/>
-      <c r="D13" s="363"/>
-      <c r="E13" s="363"/>
-      <c r="F13" s="363"/>
-      <c r="G13" s="363"/>
-      <c r="H13" s="363"/>
-      <c r="I13" s="363"/>
-      <c r="J13" s="363"/>
-      <c r="K13" s="363"/>
-      <c r="L13" s="364"/>
+      <c r="A13" s="371"/>
+      <c r="B13" s="372"/>
+      <c r="C13" s="372"/>
+      <c r="D13" s="372"/>
+      <c r="E13" s="372"/>
+      <c r="F13" s="372"/>
+      <c r="G13" s="372"/>
+      <c r="H13" s="372"/>
+      <c r="I13" s="372"/>
+      <c r="J13" s="372"/>
+      <c r="K13" s="372"/>
+      <c r="L13" s="373"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="365"/>
-      <c r="B14" s="366"/>
-      <c r="C14" s="366"/>
-      <c r="D14" s="366"/>
-      <c r="E14" s="366"/>
-      <c r="F14" s="366"/>
-      <c r="G14" s="366"/>
-      <c r="H14" s="366"/>
-      <c r="I14" s="366"/>
-      <c r="J14" s="366"/>
-      <c r="K14" s="366"/>
-      <c r="L14" s="367"/>
+      <c r="A14" s="374"/>
+      <c r="B14" s="375"/>
+      <c r="C14" s="375"/>
+      <c r="D14" s="375"/>
+      <c r="E14" s="375"/>
+      <c r="F14" s="375"/>
+      <c r="G14" s="375"/>
+      <c r="H14" s="375"/>
+      <c r="I14" s="375"/>
+      <c r="J14" s="375"/>
+      <c r="K14" s="375"/>
+      <c r="L14" s="376"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
@@ -14311,7 +14317,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -14900,14 +14906,14 @@
   <sheetData>
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="420" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="420"/>
-      <c r="C2" s="420"/>
-      <c r="D2" s="420"/>
-      <c r="E2" s="420"/>
-      <c r="F2" s="420"/>
+      <c r="A2" s="370" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="370"/>
+      <c r="C2" s="370"/>
+      <c r="D2" s="370"/>
+      <c r="E2" s="370"/>
+      <c r="F2" s="370"/>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
         <v>61</v>
@@ -14950,10 +14956,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
+      <c r="C5" s="366"/>
+      <c r="D5" s="366"/>
+      <c r="E5" s="366"/>
+      <c r="F5" s="366"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -14967,10 +14973,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="359"/>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
+      <c r="C6" s="366"/>
+      <c r="D6" s="366"/>
+      <c r="E6" s="366"/>
+      <c r="F6" s="366"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -14999,30 +15005,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="360"/>
-      <c r="D8" s="360"/>
-      <c r="E8" s="360"/>
-      <c r="F8" s="360"/>
+      <c r="C8" s="367"/>
+      <c r="D8" s="367"/>
+      <c r="E8" s="367"/>
+      <c r="F8" s="367"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="359"/>
-      <c r="D9" s="359"/>
-      <c r="E9" s="359"/>
-      <c r="F9" s="359"/>
+      <c r="C9" s="366"/>
+      <c r="D9" s="366"/>
+      <c r="E9" s="366"/>
+      <c r="F9" s="366"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="359"/>
-      <c r="D10" s="359"/>
-      <c r="E10" s="359"/>
-      <c r="F10" s="359"/>
+      <c r="C10" s="366"/>
+      <c r="D10" s="366"/>
+      <c r="E10" s="366"/>
+      <c r="F10" s="366"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -15035,19 +15041,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="368" t="s">
+      <c r="A14" s="377" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="370" t="s">
+      <c r="B14" s="379" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="371"/>
-      <c r="D14" s="371"/>
-      <c r="E14" s="371"/>
-      <c r="F14" s="371"/>
-      <c r="G14" s="371"/>
-      <c r="H14" s="371"/>
-      <c r="I14" s="372"/>
+      <c r="C14" s="380"/>
+      <c r="D14" s="380"/>
+      <c r="E14" s="380"/>
+      <c r="F14" s="380"/>
+      <c r="G14" s="380"/>
+      <c r="H14" s="380"/>
+      <c r="I14" s="381"/>
       <c r="J14" s="18" t="s">
         <v>144</v>
       </c>
@@ -15058,17 +15064,17 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="369"/>
-      <c r="B15" s="373" t="s">
+      <c r="A15" s="378"/>
+      <c r="B15" s="382" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="374"/>
-      <c r="D15" s="374"/>
-      <c r="E15" s="374"/>
-      <c r="F15" s="374"/>
-      <c r="G15" s="374"/>
-      <c r="H15" s="374"/>
-      <c r="I15" s="374"/>
+      <c r="C15" s="383"/>
+      <c r="D15" s="383"/>
+      <c r="E15" s="383"/>
+      <c r="F15" s="383"/>
+      <c r="G15" s="383"/>
+      <c r="H15" s="383"/>
+      <c r="I15" s="383"/>
       <c r="J15" s="20" t="s">
         <v>145</v>
       </c>
@@ -15079,19 +15085,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="375" t="s">
+      <c r="A16" s="384" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="377" t="s">
+      <c r="B16" s="386" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="378"/>
-      <c r="D16" s="378"/>
-      <c r="E16" s="378"/>
-      <c r="F16" s="378"/>
-      <c r="G16" s="378"/>
-      <c r="H16" s="378"/>
-      <c r="I16" s="378"/>
+      <c r="C16" s="387"/>
+      <c r="D16" s="387"/>
+      <c r="E16" s="387"/>
+      <c r="F16" s="387"/>
+      <c r="G16" s="387"/>
+      <c r="H16" s="387"/>
+      <c r="I16" s="387"/>
       <c r="J16" s="18" t="s">
         <v>141</v>
       </c>
@@ -15102,17 +15108,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="376"/>
-      <c r="B17" s="379" t="s">
+      <c r="A17" s="385"/>
+      <c r="B17" s="388" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="380"/>
-      <c r="D17" s="380"/>
-      <c r="E17" s="380"/>
-      <c r="F17" s="380"/>
-      <c r="G17" s="380"/>
-      <c r="H17" s="380"/>
-      <c r="I17" s="380"/>
+      <c r="C17" s="389"/>
+      <c r="D17" s="389"/>
+      <c r="E17" s="389"/>
+      <c r="F17" s="389"/>
+      <c r="G17" s="389"/>
+      <c r="H17" s="389"/>
+      <c r="I17" s="389"/>
       <c r="J17" s="19" t="s">
         <v>146</v>
       </c>
@@ -15247,6 +15253,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15312,25 +15336,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15345,27 +15374,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676523AE-DD02-4086-818D-58F2C8C4D94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7883E6EC-A81B-45BE-B4D6-85B4ADFA7DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="966" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="966" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="37" r:id="rId1"/>
@@ -90,6 +90,7 @@
     <definedName name="domare" localSheetId="11">'Individuell tekniska övningar'!$C$34</definedName>
     <definedName name="domare" localSheetId="14">'Individuellt tekniskt artis YV'!$C$28</definedName>
     <definedName name="domare" localSheetId="13">'Individuellt tekniskt artistisk'!$C$28</definedName>
+    <definedName name="header" localSheetId="1">'Häst, individuell'!$A$1</definedName>
     <definedName name="header" localSheetId="9">'Ind kür artistisk junior'!$A$2</definedName>
     <definedName name="header" localSheetId="8">'Ind kür artistisk minior'!$A$2</definedName>
     <definedName name="header" localSheetId="6">'Ind kür tekn junior'!$A$2</definedName>
@@ -1415,7 +1416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -2194,6 +2195,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2205,7 +2217,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="430">
+  <cellXfs count="435">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2974,6 +2986,113 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3033,12 +3152,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3060,95 +3173,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3308,6 +3335,18 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3346,18 +3385,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
@@ -3431,9 +3458,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3471,9 +3498,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3506,26 +3533,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3558,26 +3568,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5763,10 +5756,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="366"/>
-      <c r="D5" s="366"/>
-      <c r="E5" s="366"/>
-      <c r="F5" s="366"/>
+      <c r="C5" s="371"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="371"/>
+      <c r="F5" s="371"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -5780,10 +5773,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="366"/>
-      <c r="D6" s="366"/>
-      <c r="E6" s="366"/>
-      <c r="F6" s="366"/>
+      <c r="C6" s="371"/>
+      <c r="D6" s="371"/>
+      <c r="E6" s="371"/>
+      <c r="F6" s="371"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -5812,30 +5805,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="367"/>
-      <c r="D8" s="367"/>
-      <c r="E8" s="367"/>
-      <c r="F8" s="367"/>
+      <c r="C8" s="372"/>
+      <c r="D8" s="372"/>
+      <c r="E8" s="372"/>
+      <c r="F8" s="372"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="366"/>
-      <c r="D9" s="366"/>
-      <c r="E9" s="366"/>
-      <c r="F9" s="366"/>
+      <c r="C9" s="371"/>
+      <c r="D9" s="371"/>
+      <c r="E9" s="371"/>
+      <c r="F9" s="371"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="366"/>
-      <c r="D10" s="366"/>
-      <c r="E10" s="366"/>
-      <c r="F10" s="366"/>
+      <c r="C10" s="371"/>
+      <c r="D10" s="371"/>
+      <c r="E10" s="371"/>
+      <c r="F10" s="371"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -5848,19 +5841,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="377" t="s">
+      <c r="A14" s="382" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="379" t="s">
+      <c r="B14" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="380"/>
-      <c r="D14" s="380"/>
-      <c r="E14" s="380"/>
-      <c r="F14" s="380"/>
-      <c r="G14" s="380"/>
-      <c r="H14" s="380"/>
-      <c r="I14" s="381"/>
+      <c r="C14" s="385"/>
+      <c r="D14" s="385"/>
+      <c r="E14" s="385"/>
+      <c r="F14" s="385"/>
+      <c r="G14" s="385"/>
+      <c r="H14" s="385"/>
+      <c r="I14" s="386"/>
       <c r="J14" s="18" t="s">
         <v>115</v>
       </c>
@@ -5873,17 +5866,17 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="390"/>
-      <c r="B15" s="382" t="s">
+      <c r="A15" s="395"/>
+      <c r="B15" s="387" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="383"/>
-      <c r="D15" s="383"/>
-      <c r="E15" s="383"/>
-      <c r="F15" s="383"/>
-      <c r="G15" s="383"/>
-      <c r="H15" s="383"/>
-      <c r="I15" s="383"/>
+      <c r="C15" s="388"/>
+      <c r="D15" s="388"/>
+      <c r="E15" s="388"/>
+      <c r="F15" s="388"/>
+      <c r="G15" s="388"/>
+      <c r="H15" s="388"/>
+      <c r="I15" s="388"/>
       <c r="J15" s="20" t="s">
         <v>116</v>
       </c>
@@ -5896,19 +5889,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="377" t="s">
+      <c r="A16" s="382" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="386" t="s">
+      <c r="B16" s="391" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="387"/>
-      <c r="D16" s="387"/>
-      <c r="E16" s="387"/>
-      <c r="F16" s="387"/>
-      <c r="G16" s="387"/>
-      <c r="H16" s="387"/>
-      <c r="I16" s="387"/>
+      <c r="C16" s="392"/>
+      <c r="D16" s="392"/>
+      <c r="E16" s="392"/>
+      <c r="F16" s="392"/>
+      <c r="G16" s="392"/>
+      <c r="H16" s="392"/>
+      <c r="I16" s="392"/>
       <c r="J16" s="18" t="s">
         <v>141</v>
       </c>
@@ -5921,17 +5914,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="378"/>
-      <c r="B17" s="388" t="s">
+      <c r="A17" s="383"/>
+      <c r="B17" s="393" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="389"/>
-      <c r="D17" s="389"/>
-      <c r="E17" s="389"/>
-      <c r="F17" s="389"/>
-      <c r="G17" s="389"/>
-      <c r="H17" s="389"/>
-      <c r="I17" s="389"/>
+      <c r="C17" s="394"/>
+      <c r="D17" s="394"/>
+      <c r="E17" s="394"/>
+      <c r="F17" s="394"/>
+      <c r="G17" s="394"/>
+      <c r="H17" s="394"/>
+      <c r="I17" s="394"/>
       <c r="J17" s="19" t="s">
         <v>148</v>
       </c>
@@ -6706,10 +6699,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="366"/>
-      <c r="D5" s="366"/>
-      <c r="E5" s="366"/>
-      <c r="F5" s="366"/>
+      <c r="C5" s="371"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="371"/>
+      <c r="F5" s="371"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -6723,10 +6716,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="366"/>
-      <c r="D6" s="366"/>
-      <c r="E6" s="366"/>
-      <c r="F6" s="366"/>
+      <c r="C6" s="371"/>
+      <c r="D6" s="371"/>
+      <c r="E6" s="371"/>
+      <c r="F6" s="371"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -6755,30 +6748,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="367"/>
-      <c r="D8" s="367"/>
-      <c r="E8" s="367"/>
-      <c r="F8" s="367"/>
+      <c r="C8" s="372"/>
+      <c r="D8" s="372"/>
+      <c r="E8" s="372"/>
+      <c r="F8" s="372"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="366"/>
-      <c r="D9" s="366"/>
-      <c r="E9" s="366"/>
-      <c r="F9" s="366"/>
+      <c r="C9" s="371"/>
+      <c r="D9" s="371"/>
+      <c r="E9" s="371"/>
+      <c r="F9" s="371"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="366"/>
-      <c r="D10" s="366"/>
-      <c r="E10" s="366"/>
-      <c r="F10" s="366"/>
+      <c r="C10" s="371"/>
+      <c r="D10" s="371"/>
+      <c r="E10" s="371"/>
+      <c r="F10" s="371"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6791,19 +6784,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="377" t="s">
+      <c r="A14" s="382" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="379" t="s">
+      <c r="B14" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="380"/>
-      <c r="D14" s="380"/>
-      <c r="E14" s="380"/>
-      <c r="F14" s="380"/>
-      <c r="G14" s="380"/>
-      <c r="H14" s="380"/>
-      <c r="I14" s="381"/>
+      <c r="C14" s="385"/>
+      <c r="D14" s="385"/>
+      <c r="E14" s="385"/>
+      <c r="F14" s="385"/>
+      <c r="G14" s="385"/>
+      <c r="H14" s="385"/>
+      <c r="I14" s="386"/>
       <c r="J14" s="18" t="s">
         <v>115</v>
       </c>
@@ -6816,17 +6809,17 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="390"/>
-      <c r="B15" s="382" t="s">
+      <c r="A15" s="395"/>
+      <c r="B15" s="387" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="383"/>
-      <c r="D15" s="383"/>
-      <c r="E15" s="383"/>
-      <c r="F15" s="383"/>
-      <c r="G15" s="383"/>
-      <c r="H15" s="383"/>
-      <c r="I15" s="383"/>
+      <c r="C15" s="388"/>
+      <c r="D15" s="388"/>
+      <c r="E15" s="388"/>
+      <c r="F15" s="388"/>
+      <c r="G15" s="388"/>
+      <c r="H15" s="388"/>
+      <c r="I15" s="388"/>
       <c r="J15" s="20" t="s">
         <v>116</v>
       </c>
@@ -6839,19 +6832,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="377" t="s">
+      <c r="A16" s="382" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="386" t="s">
+      <c r="B16" s="391" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="387"/>
-      <c r="D16" s="387"/>
-      <c r="E16" s="387"/>
-      <c r="F16" s="387"/>
-      <c r="G16" s="387"/>
-      <c r="H16" s="387"/>
-      <c r="I16" s="387"/>
+      <c r="C16" s="392"/>
+      <c r="D16" s="392"/>
+      <c r="E16" s="392"/>
+      <c r="F16" s="392"/>
+      <c r="G16" s="392"/>
+      <c r="H16" s="392"/>
+      <c r="I16" s="392"/>
       <c r="J16" s="18" t="s">
         <v>141</v>
       </c>
@@ -6864,17 +6857,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="378"/>
-      <c r="B17" s="388" t="s">
+      <c r="A17" s="383"/>
+      <c r="B17" s="393" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="389"/>
-      <c r="D17" s="389"/>
-      <c r="E17" s="389"/>
-      <c r="F17" s="389"/>
-      <c r="G17" s="389"/>
-      <c r="H17" s="389"/>
-      <c r="I17" s="389"/>
+      <c r="C17" s="394"/>
+      <c r="D17" s="394"/>
+      <c r="E17" s="394"/>
+      <c r="F17" s="394"/>
+      <c r="G17" s="394"/>
+      <c r="H17" s="394"/>
+      <c r="I17" s="394"/>
       <c r="J17" s="19" t="s">
         <v>148</v>
       </c>
@@ -6987,17 +6980,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7081,10 +7074,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="366"/>
-      <c r="D5" s="366"/>
-      <c r="E5" s="366"/>
-      <c r="F5" s="366"/>
+      <c r="C5" s="371"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="371"/>
+      <c r="F5" s="371"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -7098,10 +7091,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="366"/>
-      <c r="D6" s="366"/>
-      <c r="E6" s="366"/>
-      <c r="F6" s="366"/>
+      <c r="C6" s="371"/>
+      <c r="D6" s="371"/>
+      <c r="E6" s="371"/>
+      <c r="F6" s="371"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7124,30 +7117,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="367"/>
-      <c r="D8" s="367"/>
-      <c r="E8" s="367"/>
-      <c r="F8" s="367"/>
+      <c r="C8" s="372"/>
+      <c r="D8" s="372"/>
+      <c r="E8" s="372"/>
+      <c r="F8" s="372"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="366"/>
-      <c r="D9" s="366"/>
-      <c r="E9" s="366"/>
-      <c r="F9" s="366"/>
+      <c r="C9" s="371"/>
+      <c r="D9" s="371"/>
+      <c r="E9" s="371"/>
+      <c r="F9" s="371"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="366"/>
-      <c r="D10" s="366"/>
-      <c r="E10" s="366"/>
-      <c r="F10" s="366"/>
+      <c r="C10" s="371"/>
+      <c r="D10" s="371"/>
+      <c r="E10" s="371"/>
+      <c r="F10" s="371"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7173,14 +7166,14 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="391" t="s">
+      <c r="A15" s="396" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="392"/>
-      <c r="C15" s="392"/>
-      <c r="D15" s="392"/>
-      <c r="E15" s="392"/>
-      <c r="F15" s="393"/>
+      <c r="B15" s="397"/>
+      <c r="C15" s="397"/>
+      <c r="D15" s="397"/>
+      <c r="E15" s="397"/>
+      <c r="F15" s="398"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="11"/>
@@ -7189,14 +7182,14 @@
       <c r="L15" s="259"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="394" t="s">
+      <c r="A16" s="399" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="395"/>
-      <c r="C16" s="395"/>
-      <c r="D16" s="395"/>
-      <c r="E16" s="395"/>
-      <c r="F16" s="396"/>
+      <c r="B16" s="400"/>
+      <c r="C16" s="400"/>
+      <c r="D16" s="400"/>
+      <c r="E16" s="400"/>
+      <c r="F16" s="401"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="11"/>
@@ -7257,27 +7250,27 @@
       <c r="L20" s="140"/>
     </row>
     <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="400" t="s">
+      <c r="A21" s="405" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="401"/>
-      <c r="C21" s="401"/>
-      <c r="D21" s="401"/>
-      <c r="E21" s="401"/>
-      <c r="F21" s="401"/>
-      <c r="G21" s="401"/>
-      <c r="H21" s="401"/>
-      <c r="I21" s="401"/>
+      <c r="B21" s="406"/>
+      <c r="C21" s="406"/>
+      <c r="D21" s="406"/>
+      <c r="E21" s="406"/>
+      <c r="F21" s="406"/>
+      <c r="G21" s="406"/>
+      <c r="H21" s="406"/>
+      <c r="I21" s="406"/>
       <c r="J21" s="139"/>
       <c r="K21" s="138"/>
       <c r="L21" s="8"/>
       <c r="R21" s="133"/>
     </row>
     <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="408" t="s">
+      <c r="A22" s="413" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="409"/>
+      <c r="B22" s="414"/>
       <c r="C22" s="137"/>
       <c r="D22" s="137"/>
       <c r="E22" s="137"/>
@@ -7291,15 +7284,15 @@
       <c r="R22" s="133"/>
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="404" t="s">
+      <c r="A23" s="409" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="405"/>
+      <c r="B23" s="410"/>
       <c r="C23" s="268"/>
-      <c r="D23" s="402" t="s">
+      <c r="D23" s="407" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="403"/>
+      <c r="E23" s="408"/>
       <c r="F23" s="269"/>
       <c r="G23" s="228" t="s">
         <v>65</v>
@@ -7322,11 +7315,11 @@
       <c r="R23" s="133"/>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="406" t="s">
+      <c r="A24" s="411" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="407"/>
-      <c r="C24" s="407"/>
+      <c r="B24" s="412"/>
+      <c r="C24" s="412"/>
       <c r="D24" s="232"/>
       <c r="E24" s="232"/>
       <c r="F24" s="232"/>
@@ -7338,19 +7331,19 @@
       <c r="R24" s="133"/>
     </row>
     <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="397" t="s">
+      <c r="A25" s="402" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="398"/>
-      <c r="C25" s="398"/>
-      <c r="D25" s="398"/>
-      <c r="E25" s="398"/>
-      <c r="F25" s="398"/>
-      <c r="G25" s="398"/>
-      <c r="H25" s="398"/>
-      <c r="I25" s="398"/>
-      <c r="J25" s="398"/>
-      <c r="K25" s="399"/>
+      <c r="B25" s="403"/>
+      <c r="C25" s="403"/>
+      <c r="D25" s="403"/>
+      <c r="E25" s="403"/>
+      <c r="F25" s="403"/>
+      <c r="G25" s="403"/>
+      <c r="H25" s="403"/>
+      <c r="I25" s="403"/>
+      <c r="J25" s="403"/>
+      <c r="K25" s="404"/>
       <c r="L25" s="9">
         <f>IFERROR(K23-K24,0)</f>
         <v>0</v>
@@ -7483,7 +7476,7 @@
     <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
     <oddFooter>&amp;R2022-01-01</oddFooter>
@@ -7564,10 +7557,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="366"/>
-      <c r="D5" s="366"/>
-      <c r="E5" s="366"/>
-      <c r="F5" s="366"/>
+      <c r="C5" s="371"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="371"/>
+      <c r="F5" s="371"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -7581,10 +7574,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="366"/>
-      <c r="D6" s="366"/>
-      <c r="E6" s="366"/>
-      <c r="F6" s="366"/>
+      <c r="C6" s="371"/>
+      <c r="D6" s="371"/>
+      <c r="E6" s="371"/>
+      <c r="F6" s="371"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7607,30 +7600,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="367"/>
-      <c r="D8" s="367"/>
-      <c r="E8" s="367"/>
-      <c r="F8" s="367"/>
+      <c r="C8" s="372"/>
+      <c r="D8" s="372"/>
+      <c r="E8" s="372"/>
+      <c r="F8" s="372"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="366"/>
-      <c r="D9" s="366"/>
-      <c r="E9" s="366"/>
-      <c r="F9" s="366"/>
+      <c r="C9" s="371"/>
+      <c r="D9" s="371"/>
+      <c r="E9" s="371"/>
+      <c r="F9" s="371"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="366"/>
-      <c r="D10" s="366"/>
-      <c r="E10" s="366"/>
-      <c r="F10" s="366"/>
+      <c r="C10" s="371"/>
+      <c r="D10" s="371"/>
+      <c r="E10" s="371"/>
+      <c r="F10" s="371"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7656,14 +7649,14 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="391" t="s">
+      <c r="A15" s="396" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="392"/>
-      <c r="C15" s="392"/>
-      <c r="D15" s="392"/>
-      <c r="E15" s="392"/>
-      <c r="F15" s="393"/>
+      <c r="B15" s="397"/>
+      <c r="C15" s="397"/>
+      <c r="D15" s="397"/>
+      <c r="E15" s="397"/>
+      <c r="F15" s="398"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="11"/>
@@ -7672,14 +7665,14 @@
       <c r="L15" s="259"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="394" t="s">
+      <c r="A16" s="399" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="395"/>
-      <c r="C16" s="395"/>
-      <c r="D16" s="395"/>
-      <c r="E16" s="395"/>
-      <c r="F16" s="396"/>
+      <c r="B16" s="400"/>
+      <c r="C16" s="400"/>
+      <c r="D16" s="400"/>
+      <c r="E16" s="400"/>
+      <c r="F16" s="401"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="11"/>
@@ -7740,27 +7733,27 @@
       <c r="L20" s="140"/>
     </row>
     <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="400" t="s">
+      <c r="A21" s="405" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="401"/>
-      <c r="C21" s="401"/>
-      <c r="D21" s="401"/>
-      <c r="E21" s="401"/>
-      <c r="F21" s="401"/>
-      <c r="G21" s="401"/>
-      <c r="H21" s="401"/>
-      <c r="I21" s="401"/>
+      <c r="B21" s="406"/>
+      <c r="C21" s="406"/>
+      <c r="D21" s="406"/>
+      <c r="E21" s="406"/>
+      <c r="F21" s="406"/>
+      <c r="G21" s="406"/>
+      <c r="H21" s="406"/>
+      <c r="I21" s="406"/>
       <c r="J21" s="139"/>
       <c r="K21" s="138"/>
       <c r="L21" s="8"/>
       <c r="R21" s="133"/>
     </row>
     <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="408" t="s">
+      <c r="A22" s="413" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="409"/>
+      <c r="B22" s="414"/>
       <c r="C22" s="137"/>
       <c r="D22" s="137"/>
       <c r="E22" s="137"/>
@@ -7774,15 +7767,15 @@
       <c r="R22" s="133"/>
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="404" t="s">
+      <c r="A23" s="409" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="405"/>
+      <c r="B23" s="410"/>
       <c r="C23" s="268"/>
-      <c r="D23" s="402" t="s">
+      <c r="D23" s="407" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="403"/>
+      <c r="E23" s="408"/>
       <c r="F23" s="269"/>
       <c r="G23" s="228" t="s">
         <v>65</v>
@@ -7805,11 +7798,11 @@
       <c r="R23" s="133"/>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="406" t="s">
+      <c r="A24" s="411" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="407"/>
-      <c r="C24" s="407"/>
+      <c r="B24" s="412"/>
+      <c r="C24" s="412"/>
       <c r="D24" s="232"/>
       <c r="E24" s="232"/>
       <c r="F24" s="232"/>
@@ -7821,19 +7814,19 @@
       <c r="R24" s="133"/>
     </row>
     <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="397" t="s">
+      <c r="A25" s="402" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="398"/>
-      <c r="C25" s="398"/>
-      <c r="D25" s="398"/>
-      <c r="E25" s="398"/>
-      <c r="F25" s="398"/>
-      <c r="G25" s="398"/>
-      <c r="H25" s="398"/>
-      <c r="I25" s="398"/>
-      <c r="J25" s="398"/>
-      <c r="K25" s="399"/>
+      <c r="B25" s="403"/>
+      <c r="C25" s="403"/>
+      <c r="D25" s="403"/>
+      <c r="E25" s="403"/>
+      <c r="F25" s="403"/>
+      <c r="G25" s="403"/>
+      <c r="H25" s="403"/>
+      <c r="I25" s="403"/>
+      <c r="J25" s="403"/>
+      <c r="K25" s="404"/>
       <c r="L25" s="9">
         <f>IFERROR(K23-K24,0)</f>
         <v>0</v>
@@ -7951,12 +7944,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A25:K25"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A21:I21"/>
@@ -7964,9 +7951,15 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
     <oddFooter>&amp;R2022-01-01</oddFooter>
@@ -8573,17 +8566,17 @@
   <sheetData>
     <row r="1" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="414" t="s">
+      <c r="A2" s="423" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="414"/>
-      <c r="C2" s="414"/>
-      <c r="D2" s="414"/>
-      <c r="E2" s="414"/>
-      <c r="F2" s="414"/>
-      <c r="G2" s="414"/>
-      <c r="H2" s="414"/>
-      <c r="I2" s="414"/>
+      <c r="B2" s="423"/>
+      <c r="C2" s="423"/>
+      <c r="D2" s="423"/>
+      <c r="E2" s="423"/>
+      <c r="F2" s="423"/>
+      <c r="G2" s="423"/>
+      <c r="H2" s="423"/>
+      <c r="I2" s="423"/>
       <c r="J2" s="143"/>
       <c r="K2" s="143"/>
       <c r="L2" s="143"/>
@@ -8628,10 +8621,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="366"/>
-      <c r="D5" s="366"/>
-      <c r="E5" s="366"/>
-      <c r="F5" s="366"/>
+      <c r="C5" s="371"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="371"/>
+      <c r="F5" s="371"/>
       <c r="G5" s="142"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
@@ -8646,10 +8639,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="366"/>
-      <c r="D6" s="366"/>
-      <c r="E6" s="366"/>
-      <c r="F6" s="366"/>
+      <c r="C6" s="371"/>
+      <c r="D6" s="371"/>
+      <c r="E6" s="371"/>
+      <c r="F6" s="371"/>
       <c r="G6" s="141"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14" t="s">
@@ -8680,10 +8673,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="367"/>
-      <c r="D8" s="367"/>
-      <c r="E8" s="367"/>
-      <c r="F8" s="367"/>
+      <c r="C8" s="372"/>
+      <c r="D8" s="372"/>
+      <c r="E8" s="372"/>
+      <c r="F8" s="372"/>
       <c r="G8" s="151"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -8698,10 +8691,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="366"/>
-      <c r="D9" s="366"/>
-      <c r="E9" s="366"/>
-      <c r="F9" s="366"/>
+      <c r="C9" s="371"/>
+      <c r="D9" s="371"/>
+      <c r="E9" s="371"/>
+      <c r="F9" s="371"/>
       <c r="G9" s="151"/>
       <c r="H9" s="141"/>
       <c r="I9" s="141"/>
@@ -8714,15 +8707,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="366"/>
-      <c r="D10" s="366"/>
-      <c r="E10" s="366"/>
-      <c r="F10" s="366"/>
+      <c r="C10" s="371"/>
+      <c r="D10" s="371"/>
+      <c r="E10" s="371"/>
+      <c r="F10" s="371"/>
       <c r="G10" s="151"/>
       <c r="H10" s="141"/>
       <c r="I10" s="141"/>
-      <c r="J10" s="410"/>
-      <c r="K10" s="410"/>
+      <c r="J10" s="419"/>
+      <c r="K10" s="419"/>
       <c r="L10" s="152"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -8749,10 +8742,10 @@
       <c r="C13" s="251" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="415" t="s">
+      <c r="D13" s="424" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="416"/>
+      <c r="E13" s="425"/>
       <c r="F13" s="251" t="s">
         <v>120</v>
       </c>
@@ -8765,17 +8758,17 @@
       <c r="I13" s="253" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="419" t="s">
+      <c r="J13" s="428" t="s">
         <v>125</v>
       </c>
-      <c r="K13" s="420"/>
+      <c r="K13" s="429"/>
       <c r="L13" s="150"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="270"/>
       <c r="C14" s="271"/>
-      <c r="D14" s="417"/>
-      <c r="E14" s="418"/>
+      <c r="D14" s="426"/>
+      <c r="E14" s="427"/>
       <c r="F14" s="271"/>
       <c r="G14" s="271"/>
       <c r="H14" s="272"/>
@@ -8783,11 +8776,11 @@
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="421">
+      <c r="J14" s="430">
         <f>I14/6</f>
         <v>0</v>
       </c>
-      <c r="K14" s="422"/>
+      <c r="K14" s="431"/>
       <c r="L14" s="150"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8803,16 +8796,16 @@
       <c r="A17" s="246" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="411" t="s">
+      <c r="B17" s="420" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="412"/>
-      <c r="D17" s="412"/>
-      <c r="E17" s="412"/>
-      <c r="F17" s="412"/>
-      <c r="G17" s="412"/>
-      <c r="H17" s="412"/>
-      <c r="I17" s="413"/>
+      <c r="C17" s="421"/>
+      <c r="D17" s="421"/>
+      <c r="E17" s="421"/>
+      <c r="F17" s="421"/>
+      <c r="G17" s="421"/>
+      <c r="H17" s="421"/>
+      <c r="I17" s="422"/>
       <c r="J17" s="148" t="s">
         <v>123</v>
       </c>
@@ -8826,19 +8819,19 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="335" t="s">
+      <c r="A18" s="307" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="423" t="s">
+      <c r="B18" s="415" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="424"/>
-      <c r="D18" s="424"/>
-      <c r="E18" s="424"/>
-      <c r="F18" s="424"/>
-      <c r="G18" s="424"/>
-      <c r="H18" s="424"/>
-      <c r="I18" s="424"/>
+      <c r="C18" s="416"/>
+      <c r="D18" s="416"/>
+      <c r="E18" s="416"/>
+      <c r="F18" s="416"/>
+      <c r="G18" s="416"/>
+      <c r="H18" s="416"/>
+      <c r="I18" s="416"/>
       <c r="J18" s="148" t="s">
         <v>127</v>
       </c>
@@ -8849,17 +8842,17 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="336"/>
-      <c r="B19" s="425" t="s">
+      <c r="A19" s="308"/>
+      <c r="B19" s="417" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="426"/>
-      <c r="D19" s="426"/>
-      <c r="E19" s="426"/>
-      <c r="F19" s="426"/>
-      <c r="G19" s="426"/>
-      <c r="H19" s="426"/>
-      <c r="I19" s="426"/>
+      <c r="C19" s="418"/>
+      <c r="D19" s="418"/>
+      <c r="E19" s="418"/>
+      <c r="F19" s="418"/>
+      <c r="G19" s="418"/>
+      <c r="H19" s="418"/>
+      <c r="I19" s="418"/>
       <c r="J19" s="146" t="s">
         <v>128</v>
       </c>
@@ -8981,12 +8974,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A2:I2"/>
@@ -8996,9 +8983,15 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
     <oddFooter>&amp;R2019-06-01</oddFooter>
@@ -9014,7 +9007,7 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -9605,17 +9598,17 @@
   <sheetData>
     <row r="1" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="414" t="s">
+      <c r="A2" s="423" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="414"/>
-      <c r="C2" s="414"/>
-      <c r="D2" s="414"/>
-      <c r="E2" s="414"/>
-      <c r="F2" s="414"/>
-      <c r="G2" s="414"/>
-      <c r="H2" s="414"/>
-      <c r="I2" s="414"/>
+      <c r="B2" s="423"/>
+      <c r="C2" s="423"/>
+      <c r="D2" s="423"/>
+      <c r="E2" s="423"/>
+      <c r="F2" s="423"/>
+      <c r="G2" s="423"/>
+      <c r="H2" s="423"/>
+      <c r="I2" s="423"/>
       <c r="J2" s="143"/>
       <c r="K2" s="143"/>
       <c r="L2" s="143"/>
@@ -9660,10 +9653,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="366"/>
-      <c r="D5" s="366"/>
-      <c r="E5" s="366"/>
-      <c r="F5" s="366"/>
+      <c r="C5" s="371"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="371"/>
+      <c r="F5" s="371"/>
       <c r="G5" s="142"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
@@ -9678,10 +9671,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="366"/>
-      <c r="D6" s="366"/>
-      <c r="E6" s="366"/>
-      <c r="F6" s="366"/>
+      <c r="C6" s="371"/>
+      <c r="D6" s="371"/>
+      <c r="E6" s="371"/>
+      <c r="F6" s="371"/>
       <c r="G6" s="141"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14" t="s">
@@ -9712,10 +9705,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="367"/>
-      <c r="D8" s="367"/>
-      <c r="E8" s="367"/>
-      <c r="F8" s="367"/>
+      <c r="C8" s="372"/>
+      <c r="D8" s="372"/>
+      <c r="E8" s="372"/>
+      <c r="F8" s="372"/>
       <c r="G8" s="151"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -9730,10 +9723,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="366"/>
-      <c r="D9" s="366"/>
-      <c r="E9" s="366"/>
-      <c r="F9" s="366"/>
+      <c r="C9" s="371"/>
+      <c r="D9" s="371"/>
+      <c r="E9" s="371"/>
+      <c r="F9" s="371"/>
       <c r="G9" s="151"/>
       <c r="H9" s="141"/>
       <c r="I9" s="141"/>
@@ -9746,15 +9739,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="366"/>
-      <c r="D10" s="366"/>
-      <c r="E10" s="366"/>
-      <c r="F10" s="366"/>
+      <c r="C10" s="371"/>
+      <c r="D10" s="371"/>
+      <c r="E10" s="371"/>
+      <c r="F10" s="371"/>
       <c r="G10" s="151"/>
       <c r="H10" s="141"/>
       <c r="I10" s="141"/>
-      <c r="J10" s="410"/>
-      <c r="K10" s="410"/>
+      <c r="J10" s="419"/>
+      <c r="K10" s="419"/>
       <c r="L10" s="152"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -9781,10 +9774,10 @@
       <c r="C13" s="251" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="415" t="s">
+      <c r="D13" s="424" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="416"/>
+      <c r="E13" s="425"/>
       <c r="F13" s="251" t="s">
         <v>120</v>
       </c>
@@ -9793,17 +9786,17 @@
       <c r="I13" s="253" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="419" t="s">
+      <c r="J13" s="428" t="s">
         <v>125</v>
       </c>
-      <c r="K13" s="420"/>
+      <c r="K13" s="429"/>
       <c r="L13" s="150"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="270"/>
       <c r="C14" s="271"/>
-      <c r="D14" s="417"/>
-      <c r="E14" s="418"/>
+      <c r="D14" s="426"/>
+      <c r="E14" s="427"/>
       <c r="F14" s="271"/>
       <c r="G14" s="296"/>
       <c r="H14" s="297"/>
@@ -9811,11 +9804,11 @@
         <f>SUM(B14:F14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="421">
+      <c r="J14" s="430">
         <f>I14/4</f>
         <v>0</v>
       </c>
-      <c r="K14" s="422"/>
+      <c r="K14" s="431"/>
       <c r="L14" s="150"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9831,16 +9824,16 @@
       <c r="A17" s="246" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="427" t="s">
+      <c r="B17" s="432" t="s">
         <v>187</v>
       </c>
-      <c r="C17" s="428"/>
-      <c r="D17" s="428"/>
-      <c r="E17" s="428"/>
-      <c r="F17" s="428"/>
-      <c r="G17" s="428"/>
-      <c r="H17" s="428"/>
-      <c r="I17" s="429"/>
+      <c r="C17" s="433"/>
+      <c r="D17" s="433"/>
+      <c r="E17" s="433"/>
+      <c r="F17" s="433"/>
+      <c r="G17" s="433"/>
+      <c r="H17" s="433"/>
+      <c r="I17" s="434"/>
       <c r="J17" s="148" t="s">
         <v>123</v>
       </c>
@@ -9854,19 +9847,19 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="335" t="s">
+      <c r="A18" s="307" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="423" t="s">
+      <c r="B18" s="415" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="424"/>
-      <c r="D18" s="424"/>
-      <c r="E18" s="424"/>
-      <c r="F18" s="424"/>
-      <c r="G18" s="424"/>
-      <c r="H18" s="424"/>
-      <c r="I18" s="424"/>
+      <c r="C18" s="416"/>
+      <c r="D18" s="416"/>
+      <c r="E18" s="416"/>
+      <c r="F18" s="416"/>
+      <c r="G18" s="416"/>
+      <c r="H18" s="416"/>
+      <c r="I18" s="416"/>
       <c r="J18" s="148" t="s">
         <v>127</v>
       </c>
@@ -9877,17 +9870,17 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="336"/>
-      <c r="B19" s="425" t="s">
+      <c r="A19" s="308"/>
+      <c r="B19" s="417" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="426"/>
-      <c r="D19" s="426"/>
-      <c r="E19" s="426"/>
-      <c r="F19" s="426"/>
-      <c r="G19" s="426"/>
-      <c r="H19" s="426"/>
-      <c r="I19" s="426"/>
+      <c r="C19" s="418"/>
+      <c r="D19" s="418"/>
+      <c r="E19" s="418"/>
+      <c r="F19" s="418"/>
+      <c r="G19" s="418"/>
+      <c r="H19" s="418"/>
+      <c r="I19" s="418"/>
       <c r="J19" s="146" t="s">
         <v>128</v>
       </c>
@@ -10009,11 +10002,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B19:I19"/>
@@ -10024,9 +10012,14 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
     <oddFooter>&amp;R2019-06-01</oddFooter>
@@ -10042,7 +10035,7 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView showZeros="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -10094,8 +10087,8 @@
         <v>4</v>
       </c>
       <c r="B3" s="160"/>
-      <c r="C3" s="356"/>
-      <c r="D3" s="356"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="301"/>
       <c r="E3" s="279"/>
       <c r="F3" s="279"/>
       <c r="H3" s="155"/>
@@ -10111,10 +10104,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="136"/>
-      <c r="C4" s="355"/>
-      <c r="D4" s="355"/>
-      <c r="E4" s="355"/>
-      <c r="F4" s="355"/>
+      <c r="C4" s="300"/>
+      <c r="D4" s="300"/>
+      <c r="E4" s="300"/>
+      <c r="F4" s="300"/>
       <c r="H4" s="155"/>
       <c r="I4" s="156" t="s">
         <v>11</v>
@@ -10128,10 +10121,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="355"/>
-      <c r="D5" s="355"/>
-      <c r="E5" s="355"/>
-      <c r="F5" s="355"/>
+      <c r="C5" s="300"/>
+      <c r="D5" s="300"/>
+      <c r="E5" s="300"/>
+      <c r="F5" s="300"/>
       <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10154,10 +10147,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="160"/>
-      <c r="C7" s="355"/>
-      <c r="D7" s="355"/>
-      <c r="E7" s="355"/>
-      <c r="F7" s="355"/>
+      <c r="C7" s="300"/>
+      <c r="D7" s="300"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="300"/>
       <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10165,10 +10158,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="136"/>
-      <c r="C8" s="355"/>
-      <c r="D8" s="355"/>
-      <c r="E8" s="355"/>
-      <c r="F8" s="355"/>
+      <c r="C8" s="300"/>
+      <c r="D8" s="300"/>
+      <c r="E8" s="300"/>
+      <c r="F8" s="300"/>
       <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10176,10 +10169,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="355"/>
-      <c r="D9" s="355"/>
-      <c r="E9" s="355"/>
-      <c r="F9" s="355"/>
+      <c r="C9" s="300"/>
+      <c r="D9" s="300"/>
+      <c r="E9" s="300"/>
+      <c r="F9" s="300"/>
       <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10194,86 +10187,86 @@
       <c r="D11" s="282"/>
       <c r="E11" s="282"/>
       <c r="F11" s="282"/>
-      <c r="H11" s="330" t="s">
+      <c r="H11" s="302" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="331"/>
-      <c r="J11" s="332" t="s">
+      <c r="I11" s="303"/>
+      <c r="J11" s="304" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="333"/>
-      <c r="L11" s="334"/>
+      <c r="K11" s="305"/>
+      <c r="L11" s="306"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="335" t="s">
+      <c r="A12" s="307" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="339" t="s">
+      <c r="B12" s="311" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="340"/>
-      <c r="D12" s="340"/>
-      <c r="E12" s="340"/>
-      <c r="F12" s="340"/>
-      <c r="G12" s="340"/>
-      <c r="H12" s="343"/>
-      <c r="I12" s="344"/>
-      <c r="J12" s="349" t="s">
+      <c r="C12" s="312"/>
+      <c r="D12" s="312"/>
+      <c r="E12" s="312"/>
+      <c r="F12" s="312"/>
+      <c r="G12" s="313"/>
+      <c r="H12" s="320"/>
+      <c r="I12" s="321"/>
+      <c r="J12" s="326" t="s">
         <v>157</v>
       </c>
-      <c r="K12" s="351">
+      <c r="K12" s="329">
         <f>SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
-      <c r="L12" s="319">
+      <c r="L12" s="332">
         <f>ROUND(K12*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="336"/>
-      <c r="B13" s="341"/>
-      <c r="C13" s="342"/>
-      <c r="D13" s="342"/>
-      <c r="E13" s="342"/>
-      <c r="F13" s="342"/>
-      <c r="G13" s="342"/>
-      <c r="H13" s="345"/>
-      <c r="I13" s="346"/>
-      <c r="J13" s="328"/>
-      <c r="K13" s="352"/>
-      <c r="L13" s="320"/>
+      <c r="A13" s="308"/>
+      <c r="B13" s="314"/>
+      <c r="C13" s="315"/>
+      <c r="D13" s="315"/>
+      <c r="E13" s="315"/>
+      <c r="F13" s="315"/>
+      <c r="G13" s="316"/>
+      <c r="H13" s="322"/>
+      <c r="I13" s="323"/>
+      <c r="J13" s="327"/>
+      <c r="K13" s="330"/>
+      <c r="L13" s="333"/>
     </row>
     <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="336"/>
-      <c r="B14" s="341"/>
-      <c r="C14" s="342"/>
-      <c r="D14" s="342"/>
-      <c r="E14" s="342"/>
-      <c r="F14" s="342"/>
-      <c r="G14" s="342"/>
-      <c r="H14" s="345"/>
-      <c r="I14" s="346"/>
-      <c r="J14" s="328"/>
-      <c r="K14" s="352"/>
-      <c r="L14" s="320"/>
+      <c r="A14" s="308"/>
+      <c r="B14" s="314"/>
+      <c r="C14" s="315"/>
+      <c r="D14" s="315"/>
+      <c r="E14" s="315"/>
+      <c r="F14" s="315"/>
+      <c r="G14" s="316"/>
+      <c r="H14" s="322"/>
+      <c r="I14" s="323"/>
+      <c r="J14" s="327"/>
+      <c r="K14" s="330"/>
+      <c r="L14" s="333"/>
     </row>
     <row r="15" spans="1:12" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="336"/>
-      <c r="B15" s="341"/>
-      <c r="C15" s="342"/>
-      <c r="D15" s="342"/>
-      <c r="E15" s="342"/>
-      <c r="F15" s="342"/>
-      <c r="G15" s="342"/>
-      <c r="H15" s="345"/>
-      <c r="I15" s="346"/>
-      <c r="J15" s="328"/>
-      <c r="K15" s="352"/>
-      <c r="L15" s="320"/>
+      <c r="A15" s="308"/>
+      <c r="B15" s="317"/>
+      <c r="C15" s="318"/>
+      <c r="D15" s="318"/>
+      <c r="E15" s="318"/>
+      <c r="F15" s="318"/>
+      <c r="G15" s="319"/>
+      <c r="H15" s="322"/>
+      <c r="I15" s="323"/>
+      <c r="J15" s="327"/>
+      <c r="K15" s="330"/>
+      <c r="L15" s="333"/>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="337"/>
+      <c r="A16" s="309"/>
       <c r="B16" s="283" t="s">
         <v>158</v>
       </c>
@@ -10292,14 +10285,14 @@
       <c r="G16" s="286" t="s">
         <v>163</v>
       </c>
-      <c r="H16" s="345"/>
-      <c r="I16" s="346"/>
-      <c r="J16" s="328"/>
-      <c r="K16" s="352"/>
-      <c r="L16" s="320"/>
+      <c r="H16" s="322"/>
+      <c r="I16" s="323"/>
+      <c r="J16" s="327"/>
+      <c r="K16" s="330"/>
+      <c r="L16" s="333"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="338"/>
+      <c r="A17" s="310"/>
       <c r="B17" s="287"/>
       <c r="C17" s="288">
         <v>0</v>
@@ -10308,67 +10301,67 @@
       <c r="E17" s="288"/>
       <c r="F17" s="288"/>
       <c r="G17" s="289"/>
-      <c r="H17" s="347"/>
-      <c r="I17" s="348"/>
-      <c r="J17" s="350"/>
-      <c r="K17" s="353"/>
-      <c r="L17" s="354"/>
+      <c r="H17" s="324"/>
+      <c r="I17" s="325"/>
+      <c r="J17" s="328"/>
+      <c r="K17" s="331"/>
+      <c r="L17" s="334"/>
     </row>
     <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="302" t="s">
+      <c r="A18" s="337" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="305" t="s">
+      <c r="B18" s="340" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="305"/>
-      <c r="D18" s="305"/>
-      <c r="E18" s="305"/>
-      <c r="F18" s="305"/>
-      <c r="G18" s="305"/>
-      <c r="H18" s="308"/>
-      <c r="I18" s="309"/>
-      <c r="J18" s="314" t="s">
+      <c r="C18" s="340"/>
+      <c r="D18" s="340"/>
+      <c r="E18" s="340"/>
+      <c r="F18" s="340"/>
+      <c r="G18" s="340"/>
+      <c r="H18" s="343"/>
+      <c r="I18" s="344"/>
+      <c r="J18" s="349" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="317">
+      <c r="K18" s="352">
         <v>0</v>
       </c>
-      <c r="L18" s="319">
+      <c r="L18" s="332">
         <f>IF(K18-K21 &gt;=0, (ROUND((K18-K21)*0.25,3)),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="303"/>
-      <c r="B19" s="306"/>
-      <c r="C19" s="306"/>
-      <c r="D19" s="306"/>
-      <c r="E19" s="306"/>
-      <c r="F19" s="306"/>
-      <c r="G19" s="306"/>
-      <c r="H19" s="310"/>
-      <c r="I19" s="311"/>
-      <c r="J19" s="315"/>
-      <c r="K19" s="318"/>
-      <c r="L19" s="320"/>
+      <c r="A19" s="338"/>
+      <c r="B19" s="341"/>
+      <c r="C19" s="341"/>
+      <c r="D19" s="341"/>
+      <c r="E19" s="341"/>
+      <c r="F19" s="341"/>
+      <c r="G19" s="341"/>
+      <c r="H19" s="345"/>
+      <c r="I19" s="346"/>
+      <c r="J19" s="350"/>
+      <c r="K19" s="353"/>
+      <c r="L19" s="333"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="303"/>
-      <c r="B20" s="307"/>
-      <c r="C20" s="307"/>
-      <c r="D20" s="307"/>
-      <c r="E20" s="307"/>
-      <c r="F20" s="307"/>
-      <c r="G20" s="306"/>
-      <c r="H20" s="310"/>
-      <c r="I20" s="311"/>
-      <c r="J20" s="315"/>
-      <c r="K20" s="318"/>
-      <c r="L20" s="320"/>
+      <c r="A20" s="338"/>
+      <c r="B20" s="342"/>
+      <c r="C20" s="342"/>
+      <c r="D20" s="342"/>
+      <c r="E20" s="342"/>
+      <c r="F20" s="342"/>
+      <c r="G20" s="341"/>
+      <c r="H20" s="345"/>
+      <c r="I20" s="346"/>
+      <c r="J20" s="350"/>
+      <c r="K20" s="353"/>
+      <c r="L20" s="333"/>
     </row>
     <row r="21" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="304"/>
+      <c r="A21" s="339"/>
       <c r="B21" s="290" t="s">
         <v>165</v>
       </c>
@@ -10379,42 +10372,42 @@
       <c r="E21" s="291"/>
       <c r="F21" s="291"/>
       <c r="G21" s="291"/>
-      <c r="H21" s="312"/>
-      <c r="I21" s="313"/>
-      <c r="J21" s="316"/>
+      <c r="H21" s="347"/>
+      <c r="I21" s="348"/>
+      <c r="J21" s="351"/>
       <c r="K21" s="292">
         <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="321"/>
+      <c r="L21" s="354"/>
     </row>
     <row r="22" spans="1:12" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="302" t="s">
+      <c r="A22" s="337" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="305" t="s">
+      <c r="B22" s="340" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="322"/>
-      <c r="D22" s="322"/>
-      <c r="E22" s="322"/>
-      <c r="F22" s="322"/>
-      <c r="G22" s="323"/>
-      <c r="H22" s="324"/>
-      <c r="I22" s="325"/>
-      <c r="J22" s="328" t="s">
+      <c r="C22" s="355"/>
+      <c r="D22" s="355"/>
+      <c r="E22" s="355"/>
+      <c r="F22" s="355"/>
+      <c r="G22" s="356"/>
+      <c r="H22" s="357"/>
+      <c r="I22" s="358"/>
+      <c r="J22" s="327" t="s">
         <v>167</v>
       </c>
       <c r="K22" s="293">
         <v>0</v>
       </c>
-      <c r="L22" s="320">
+      <c r="L22" s="333">
         <f>IF((K22-K23)&gt;=0,(ROUND((K22-K23)*0.15,3)),0.000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="304"/>
+      <c r="A23" s="339"/>
       <c r="B23" s="294" t="s">
         <v>165</v>
       </c>
@@ -10429,14 +10422,14 @@
       </c>
       <c r="F23" s="291"/>
       <c r="G23" s="291"/>
-      <c r="H23" s="326"/>
-      <c r="I23" s="327"/>
-      <c r="J23" s="329"/>
+      <c r="H23" s="359"/>
+      <c r="I23" s="360"/>
+      <c r="J23" s="361"/>
       <c r="K23" s="292">
         <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="321"/>
+      <c r="L23" s="354"/>
     </row>
     <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="21"/>
@@ -10453,11 +10446,11 @@
         <v>3</v>
       </c>
       <c r="J25" s="23"/>
-      <c r="K25" s="300">
+      <c r="K25" s="335">
         <f>SUM(L12:L22)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="301"/>
+      <c r="L25" s="336"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10480,20 +10473,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:G15"/>
-    <mergeCell ref="H12:I17"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="K12:K17"/>
-    <mergeCell ref="L12:L17"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:G20"/>
@@ -10506,6 +10485,20 @@
     <mergeCell ref="H22:I23"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="L22:L23"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:G15"/>
+    <mergeCell ref="H12:I17"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="L12:L17"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -10525,7 +10518,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -10592,10 +10585,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="360"/>
-      <c r="D5" s="360"/>
-      <c r="E5" s="360"/>
-      <c r="F5" s="360"/>
+      <c r="C5" s="365"/>
+      <c r="D5" s="365"/>
+      <c r="E5" s="365"/>
+      <c r="F5" s="365"/>
       <c r="H5" s="155"/>
       <c r="I5" s="156" t="s">
         <v>11</v>
@@ -10609,10 +10602,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="136"/>
-      <c r="C6" s="360"/>
-      <c r="D6" s="360"/>
-      <c r="E6" s="360"/>
-      <c r="F6" s="360"/>
+      <c r="C6" s="365"/>
+      <c r="D6" s="365"/>
+      <c r="E6" s="365"/>
+      <c r="F6" s="365"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10635,30 +10628,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="160"/>
-      <c r="C8" s="360"/>
-      <c r="D8" s="360"/>
-      <c r="E8" s="360"/>
-      <c r="F8" s="360"/>
+      <c r="C8" s="365"/>
+      <c r="D8" s="365"/>
+      <c r="E8" s="365"/>
+      <c r="F8" s="365"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="360"/>
-      <c r="D9" s="360"/>
-      <c r="E9" s="360"/>
-      <c r="F9" s="360"/>
+      <c r="C9" s="365"/>
+      <c r="D9" s="365"/>
+      <c r="E9" s="365"/>
+      <c r="F9" s="365"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="136" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="136"/>
-      <c r="C10" s="360"/>
-      <c r="D10" s="360"/>
-      <c r="E10" s="360"/>
-      <c r="F10" s="360"/>
+      <c r="C10" s="365"/>
+      <c r="D10" s="365"/>
+      <c r="E10" s="365"/>
+      <c r="F10" s="365"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10689,12 +10682,12 @@
       <c r="C15" s="196"/>
       <c r="D15" s="199"/>
       <c r="E15" s="227"/>
-      <c r="F15" s="358"/>
-      <c r="G15" s="358"/>
-      <c r="H15" s="358"/>
-      <c r="I15" s="358"/>
-      <c r="J15" s="358"/>
-      <c r="K15" s="359"/>
+      <c r="F15" s="363"/>
+      <c r="G15" s="363"/>
+      <c r="H15" s="363"/>
+      <c r="I15" s="363"/>
+      <c r="J15" s="363"/>
+      <c r="K15" s="364"/>
       <c r="L15" s="258"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -10705,12 +10698,12 @@
       <c r="C16" s="196"/>
       <c r="D16" s="199"/>
       <c r="E16" s="227"/>
-      <c r="F16" s="358"/>
-      <c r="G16" s="358"/>
-      <c r="H16" s="358"/>
-      <c r="I16" s="358"/>
-      <c r="J16" s="358"/>
-      <c r="K16" s="359"/>
+      <c r="F16" s="363"/>
+      <c r="G16" s="363"/>
+      <c r="H16" s="363"/>
+      <c r="I16" s="363"/>
+      <c r="J16" s="363"/>
+      <c r="K16" s="364"/>
       <c r="L16" s="258"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -10721,12 +10714,12 @@
       <c r="C17" s="196"/>
       <c r="D17" s="199"/>
       <c r="E17" s="227"/>
-      <c r="F17" s="358"/>
-      <c r="G17" s="358"/>
-      <c r="H17" s="358"/>
-      <c r="I17" s="358"/>
-      <c r="J17" s="358"/>
-      <c r="K17" s="359"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="363"/>
+      <c r="H17" s="363"/>
+      <c r="I17" s="363"/>
+      <c r="J17" s="363"/>
+      <c r="K17" s="364"/>
       <c r="L17" s="258"/>
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -10737,12 +10730,12 @@
       <c r="C18" s="196"/>
       <c r="D18" s="199"/>
       <c r="E18" s="227"/>
-      <c r="F18" s="358"/>
-      <c r="G18" s="358"/>
-      <c r="H18" s="358"/>
-      <c r="I18" s="358"/>
-      <c r="J18" s="358"/>
-      <c r="K18" s="359"/>
+      <c r="F18" s="363"/>
+      <c r="G18" s="363"/>
+      <c r="H18" s="363"/>
+      <c r="I18" s="363"/>
+      <c r="J18" s="363"/>
+      <c r="K18" s="364"/>
       <c r="L18" s="258"/>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -10752,13 +10745,13 @@
       <c r="B19" s="187"/>
       <c r="C19" s="187"/>
       <c r="D19" s="187"/>
-      <c r="E19" s="361"/>
-      <c r="F19" s="361"/>
-      <c r="G19" s="361"/>
-      <c r="H19" s="361"/>
-      <c r="I19" s="361"/>
-      <c r="J19" s="361"/>
-      <c r="K19" s="362"/>
+      <c r="E19" s="366"/>
+      <c r="F19" s="366"/>
+      <c r="G19" s="366"/>
+      <c r="H19" s="366"/>
+      <c r="I19" s="366"/>
+      <c r="J19" s="366"/>
+      <c r="K19" s="367"/>
       <c r="L19" s="258"/>
     </row>
     <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -10768,13 +10761,13 @@
       <c r="B20" s="182"/>
       <c r="C20" s="182"/>
       <c r="D20" s="200"/>
-      <c r="E20" s="357"/>
-      <c r="F20" s="358"/>
-      <c r="G20" s="358"/>
-      <c r="H20" s="358"/>
-      <c r="I20" s="358"/>
-      <c r="J20" s="358"/>
-      <c r="K20" s="359"/>
+      <c r="E20" s="362"/>
+      <c r="F20" s="363"/>
+      <c r="G20" s="363"/>
+      <c r="H20" s="363"/>
+      <c r="I20" s="363"/>
+      <c r="J20" s="363"/>
+      <c r="K20" s="364"/>
       <c r="L20" s="258"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -10786,11 +10779,11 @@
       <c r="D21" s="182"/>
       <c r="E21" s="183"/>
       <c r="F21" s="197"/>
-      <c r="G21" s="358"/>
-      <c r="H21" s="358"/>
-      <c r="I21" s="358"/>
-      <c r="J21" s="358"/>
-      <c r="K21" s="359"/>
+      <c r="G21" s="363"/>
+      <c r="H21" s="363"/>
+      <c r="I21" s="363"/>
+      <c r="J21" s="363"/>
+      <c r="K21" s="364"/>
       <c r="L21" s="258"/>
     </row>
     <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -10998,10 +10991,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="366"/>
-      <c r="D5" s="366"/>
-      <c r="E5" s="366"/>
-      <c r="F5" s="366"/>
+      <c r="C5" s="371"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="371"/>
+      <c r="F5" s="371"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -11015,10 +11008,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="366"/>
-      <c r="D6" s="366"/>
-      <c r="E6" s="366"/>
-      <c r="F6" s="366"/>
+      <c r="C6" s="371"/>
+      <c r="D6" s="371"/>
+      <c r="E6" s="371"/>
+      <c r="F6" s="371"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11041,30 +11034,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="367"/>
-      <c r="D8" s="367"/>
-      <c r="E8" s="367"/>
-      <c r="F8" s="367"/>
+      <c r="C8" s="372"/>
+      <c r="D8" s="372"/>
+      <c r="E8" s="372"/>
+      <c r="F8" s="372"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="366"/>
-      <c r="D9" s="366"/>
-      <c r="E9" s="366"/>
-      <c r="F9" s="366"/>
+      <c r="C9" s="371"/>
+      <c r="D9" s="371"/>
+      <c r="E9" s="371"/>
+      <c r="F9" s="371"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="366"/>
-      <c r="D10" s="366"/>
-      <c r="E10" s="366"/>
-      <c r="F10" s="366"/>
+      <c r="C10" s="371"/>
+      <c r="D10" s="371"/>
+      <c r="E10" s="371"/>
+      <c r="F10" s="371"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11200,13 +11193,13 @@
       <c r="L21" s="259"/>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="363" t="s">
+      <c r="A22" s="368" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="364"/>
-      <c r="C22" s="364"/>
-      <c r="D22" s="364"/>
-      <c r="E22" s="365"/>
+      <c r="B22" s="369"/>
+      <c r="C22" s="369"/>
+      <c r="D22" s="369"/>
+      <c r="E22" s="370"/>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
@@ -11402,10 +11395,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="366"/>
-      <c r="D5" s="366"/>
-      <c r="E5" s="366"/>
-      <c r="F5" s="366"/>
+      <c r="C5" s="371"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="371"/>
+      <c r="F5" s="371"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -11419,10 +11412,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="366"/>
-      <c r="D6" s="366"/>
-      <c r="E6" s="366"/>
-      <c r="F6" s="366"/>
+      <c r="C6" s="371"/>
+      <c r="D6" s="371"/>
+      <c r="E6" s="371"/>
+      <c r="F6" s="371"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11445,30 +11438,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="367"/>
-      <c r="D8" s="367"/>
-      <c r="E8" s="367"/>
-      <c r="F8" s="367"/>
+      <c r="C8" s="372"/>
+      <c r="D8" s="372"/>
+      <c r="E8" s="372"/>
+      <c r="F8" s="372"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="366"/>
-      <c r="D9" s="366"/>
-      <c r="E9" s="366"/>
-      <c r="F9" s="366"/>
+      <c r="C9" s="371"/>
+      <c r="D9" s="371"/>
+      <c r="E9" s="371"/>
+      <c r="F9" s="371"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="366"/>
-      <c r="D10" s="366"/>
-      <c r="E10" s="366"/>
-      <c r="F10" s="366"/>
+      <c r="C10" s="371"/>
+      <c r="D10" s="371"/>
+      <c r="E10" s="371"/>
+      <c r="F10" s="371"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11767,14 +11760,14 @@
   <sheetData>
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="368" t="s">
+      <c r="A2" s="373" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="368"/>
-      <c r="C2" s="368"/>
-      <c r="D2" s="368"/>
-      <c r="E2" s="368"/>
-      <c r="F2" s="368"/>
+      <c r="B2" s="373"/>
+      <c r="C2" s="373"/>
+      <c r="D2" s="373"/>
+      <c r="E2" s="373"/>
+      <c r="F2" s="373"/>
       <c r="H2" s="155"/>
       <c r="I2" s="156" t="s">
         <v>61</v>
@@ -11817,10 +11810,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="360"/>
-      <c r="D5" s="360"/>
-      <c r="E5" s="360"/>
-      <c r="F5" s="360"/>
+      <c r="C5" s="365"/>
+      <c r="D5" s="365"/>
+      <c r="E5" s="365"/>
+      <c r="F5" s="365"/>
       <c r="H5" s="155"/>
       <c r="I5" s="156" t="s">
         <v>11</v>
@@ -11834,10 +11827,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="136"/>
-      <c r="C6" s="360"/>
-      <c r="D6" s="360"/>
-      <c r="E6" s="360"/>
-      <c r="F6" s="360"/>
+      <c r="C6" s="365"/>
+      <c r="D6" s="365"/>
+      <c r="E6" s="365"/>
+      <c r="F6" s="365"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11860,30 +11853,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="160"/>
-      <c r="C8" s="369"/>
-      <c r="D8" s="369"/>
-      <c r="E8" s="369"/>
-      <c r="F8" s="369"/>
+      <c r="C8" s="374"/>
+      <c r="D8" s="374"/>
+      <c r="E8" s="374"/>
+      <c r="F8" s="374"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="360"/>
-      <c r="D9" s="360"/>
-      <c r="E9" s="360"/>
-      <c r="F9" s="360"/>
+      <c r="C9" s="365"/>
+      <c r="D9" s="365"/>
+      <c r="E9" s="365"/>
+      <c r="F9" s="365"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="136" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="136"/>
-      <c r="C10" s="360"/>
-      <c r="D10" s="360"/>
-      <c r="E10" s="360"/>
-      <c r="F10" s="360"/>
+      <c r="C10" s="365"/>
+      <c r="D10" s="365"/>
+      <c r="E10" s="365"/>
+      <c r="F10" s="365"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12751,14 +12744,14 @@
   <sheetData>
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="370" t="s">
+      <c r="A2" s="375" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="370"/>
-      <c r="C2" s="370"/>
-      <c r="D2" s="370"/>
-      <c r="E2" s="370"/>
-      <c r="F2" s="370"/>
+      <c r="B2" s="375"/>
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="E2" s="375"/>
+      <c r="F2" s="375"/>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
         <v>61</v>
@@ -12801,10 +12794,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="366"/>
-      <c r="D5" s="366"/>
-      <c r="E5" s="366"/>
-      <c r="F5" s="366"/>
+      <c r="C5" s="371"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="371"/>
+      <c r="F5" s="371"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -12818,10 +12811,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="366"/>
-      <c r="D6" s="366"/>
-      <c r="E6" s="366"/>
-      <c r="F6" s="366"/>
+      <c r="C6" s="371"/>
+      <c r="D6" s="371"/>
+      <c r="E6" s="371"/>
+      <c r="F6" s="371"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -12850,30 +12843,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="367"/>
-      <c r="D8" s="367"/>
-      <c r="E8" s="367"/>
-      <c r="F8" s="367"/>
+      <c r="C8" s="372"/>
+      <c r="D8" s="372"/>
+      <c r="E8" s="372"/>
+      <c r="F8" s="372"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="366"/>
-      <c r="D9" s="366"/>
-      <c r="E9" s="366"/>
-      <c r="F9" s="366"/>
+      <c r="C9" s="371"/>
+      <c r="D9" s="371"/>
+      <c r="E9" s="371"/>
+      <c r="F9" s="371"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="366"/>
-      <c r="D10" s="366"/>
-      <c r="E10" s="366"/>
-      <c r="F10" s="366"/>
+      <c r="C10" s="371"/>
+      <c r="D10" s="371"/>
+      <c r="E10" s="371"/>
+      <c r="F10" s="371"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12893,32 +12886,32 @@
       <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="371"/>
-      <c r="B13" s="372"/>
-      <c r="C13" s="372"/>
-      <c r="D13" s="372"/>
-      <c r="E13" s="372"/>
-      <c r="F13" s="372"/>
-      <c r="G13" s="372"/>
-      <c r="H13" s="372"/>
-      <c r="I13" s="372"/>
-      <c r="J13" s="372"/>
-      <c r="K13" s="372"/>
-      <c r="L13" s="373"/>
+      <c r="A13" s="376"/>
+      <c r="B13" s="377"/>
+      <c r="C13" s="377"/>
+      <c r="D13" s="377"/>
+      <c r="E13" s="377"/>
+      <c r="F13" s="377"/>
+      <c r="G13" s="377"/>
+      <c r="H13" s="377"/>
+      <c r="I13" s="377"/>
+      <c r="J13" s="377"/>
+      <c r="K13" s="377"/>
+      <c r="L13" s="378"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="374"/>
-      <c r="B14" s="375"/>
-      <c r="C14" s="375"/>
-      <c r="D14" s="375"/>
-      <c r="E14" s="375"/>
-      <c r="F14" s="375"/>
-      <c r="G14" s="375"/>
-      <c r="H14" s="375"/>
-      <c r="I14" s="375"/>
-      <c r="J14" s="375"/>
-      <c r="K14" s="375"/>
-      <c r="L14" s="376"/>
+      <c r="A14" s="379"/>
+      <c r="B14" s="380"/>
+      <c r="C14" s="380"/>
+      <c r="D14" s="380"/>
+      <c r="E14" s="380"/>
+      <c r="F14" s="380"/>
+      <c r="G14" s="380"/>
+      <c r="H14" s="380"/>
+      <c r="I14" s="380"/>
+      <c r="J14" s="380"/>
+      <c r="K14" s="380"/>
+      <c r="L14" s="381"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
@@ -13908,10 +13901,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="366"/>
-      <c r="D5" s="366"/>
-      <c r="E5" s="366"/>
-      <c r="F5" s="366"/>
+      <c r="C5" s="371"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="371"/>
+      <c r="F5" s="371"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -13925,10 +13918,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="366"/>
-      <c r="D6" s="366"/>
-      <c r="E6" s="366"/>
-      <c r="F6" s="366"/>
+      <c r="C6" s="371"/>
+      <c r="D6" s="371"/>
+      <c r="E6" s="371"/>
+      <c r="F6" s="371"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -13957,30 +13950,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="367"/>
-      <c r="D8" s="367"/>
-      <c r="E8" s="367"/>
-      <c r="F8" s="367"/>
+      <c r="C8" s="372"/>
+      <c r="D8" s="372"/>
+      <c r="E8" s="372"/>
+      <c r="F8" s="372"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="366"/>
-      <c r="D9" s="366"/>
-      <c r="E9" s="366"/>
-      <c r="F9" s="366"/>
+      <c r="C9" s="371"/>
+      <c r="D9" s="371"/>
+      <c r="E9" s="371"/>
+      <c r="F9" s="371"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="366"/>
-      <c r="D10" s="366"/>
-      <c r="E10" s="366"/>
-      <c r="F10" s="366"/>
+      <c r="C10" s="371"/>
+      <c r="D10" s="371"/>
+      <c r="E10" s="371"/>
+      <c r="F10" s="371"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -14000,32 +13993,32 @@
       <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="371"/>
-      <c r="B13" s="372"/>
-      <c r="C13" s="372"/>
-      <c r="D13" s="372"/>
-      <c r="E13" s="372"/>
-      <c r="F13" s="372"/>
-      <c r="G13" s="372"/>
-      <c r="H13" s="372"/>
-      <c r="I13" s="372"/>
-      <c r="J13" s="372"/>
-      <c r="K13" s="372"/>
-      <c r="L13" s="373"/>
+      <c r="A13" s="376"/>
+      <c r="B13" s="377"/>
+      <c r="C13" s="377"/>
+      <c r="D13" s="377"/>
+      <c r="E13" s="377"/>
+      <c r="F13" s="377"/>
+      <c r="G13" s="377"/>
+      <c r="H13" s="377"/>
+      <c r="I13" s="377"/>
+      <c r="J13" s="377"/>
+      <c r="K13" s="377"/>
+      <c r="L13" s="378"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="374"/>
-      <c r="B14" s="375"/>
-      <c r="C14" s="375"/>
-      <c r="D14" s="375"/>
-      <c r="E14" s="375"/>
-      <c r="F14" s="375"/>
-      <c r="G14" s="375"/>
-      <c r="H14" s="375"/>
-      <c r="I14" s="375"/>
-      <c r="J14" s="375"/>
-      <c r="K14" s="375"/>
-      <c r="L14" s="376"/>
+      <c r="A14" s="379"/>
+      <c r="B14" s="380"/>
+      <c r="C14" s="380"/>
+      <c r="D14" s="380"/>
+      <c r="E14" s="380"/>
+      <c r="F14" s="380"/>
+      <c r="G14" s="380"/>
+      <c r="H14" s="380"/>
+      <c r="I14" s="380"/>
+      <c r="J14" s="380"/>
+      <c r="K14" s="380"/>
+      <c r="L14" s="381"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
@@ -14906,14 +14899,14 @@
   <sheetData>
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="370" t="s">
+      <c r="A2" s="375" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="370"/>
-      <c r="C2" s="370"/>
-      <c r="D2" s="370"/>
-      <c r="E2" s="370"/>
-      <c r="F2" s="370"/>
+      <c r="B2" s="375"/>
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="E2" s="375"/>
+      <c r="F2" s="375"/>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
         <v>61</v>
@@ -14956,10 +14949,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="366"/>
-      <c r="D5" s="366"/>
-      <c r="E5" s="366"/>
-      <c r="F5" s="366"/>
+      <c r="C5" s="371"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="371"/>
+      <c r="F5" s="371"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -14973,10 +14966,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="366"/>
-      <c r="D6" s="366"/>
-      <c r="E6" s="366"/>
-      <c r="F6" s="366"/>
+      <c r="C6" s="371"/>
+      <c r="D6" s="371"/>
+      <c r="E6" s="371"/>
+      <c r="F6" s="371"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -15005,30 +14998,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="367"/>
-      <c r="D8" s="367"/>
-      <c r="E8" s="367"/>
-      <c r="F8" s="367"/>
+      <c r="C8" s="372"/>
+      <c r="D8" s="372"/>
+      <c r="E8" s="372"/>
+      <c r="F8" s="372"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="366"/>
-      <c r="D9" s="366"/>
-      <c r="E9" s="366"/>
-      <c r="F9" s="366"/>
+      <c r="C9" s="371"/>
+      <c r="D9" s="371"/>
+      <c r="E9" s="371"/>
+      <c r="F9" s="371"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="366"/>
-      <c r="D10" s="366"/>
-      <c r="E10" s="366"/>
-      <c r="F10" s="366"/>
+      <c r="C10" s="371"/>
+      <c r="D10" s="371"/>
+      <c r="E10" s="371"/>
+      <c r="F10" s="371"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -15041,19 +15034,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="377" t="s">
+      <c r="A14" s="382" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="379" t="s">
+      <c r="B14" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="380"/>
-      <c r="D14" s="380"/>
-      <c r="E14" s="380"/>
-      <c r="F14" s="380"/>
-      <c r="G14" s="380"/>
-      <c r="H14" s="380"/>
-      <c r="I14" s="381"/>
+      <c r="C14" s="385"/>
+      <c r="D14" s="385"/>
+      <c r="E14" s="385"/>
+      <c r="F14" s="385"/>
+      <c r="G14" s="385"/>
+      <c r="H14" s="385"/>
+      <c r="I14" s="386"/>
       <c r="J14" s="18" t="s">
         <v>144</v>
       </c>
@@ -15064,17 +15057,17 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="378"/>
-      <c r="B15" s="382" t="s">
+      <c r="A15" s="383"/>
+      <c r="B15" s="387" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="383"/>
-      <c r="D15" s="383"/>
-      <c r="E15" s="383"/>
-      <c r="F15" s="383"/>
-      <c r="G15" s="383"/>
-      <c r="H15" s="383"/>
-      <c r="I15" s="383"/>
+      <c r="C15" s="388"/>
+      <c r="D15" s="388"/>
+      <c r="E15" s="388"/>
+      <c r="F15" s="388"/>
+      <c r="G15" s="388"/>
+      <c r="H15" s="388"/>
+      <c r="I15" s="388"/>
       <c r="J15" s="20" t="s">
         <v>145</v>
       </c>
@@ -15085,19 +15078,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="384" t="s">
+      <c r="A16" s="389" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="386" t="s">
+      <c r="B16" s="391" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="387"/>
-      <c r="D16" s="387"/>
-      <c r="E16" s="387"/>
-      <c r="F16" s="387"/>
-      <c r="G16" s="387"/>
-      <c r="H16" s="387"/>
-      <c r="I16" s="387"/>
+      <c r="C16" s="392"/>
+      <c r="D16" s="392"/>
+      <c r="E16" s="392"/>
+      <c r="F16" s="392"/>
+      <c r="G16" s="392"/>
+      <c r="H16" s="392"/>
+      <c r="I16" s="392"/>
       <c r="J16" s="18" t="s">
         <v>141</v>
       </c>
@@ -15108,17 +15101,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="385"/>
-      <c r="B17" s="388" t="s">
+      <c r="A17" s="390"/>
+      <c r="B17" s="393" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="389"/>
-      <c r="D17" s="389"/>
-      <c r="E17" s="389"/>
-      <c r="F17" s="389"/>
-      <c r="G17" s="389"/>
-      <c r="H17" s="389"/>
-      <c r="I17" s="389"/>
+      <c r="C17" s="394"/>
+      <c r="D17" s="394"/>
+      <c r="E17" s="394"/>
+      <c r="F17" s="394"/>
+      <c r="G17" s="394"/>
+      <c r="H17" s="394"/>
+      <c r="I17" s="394"/>
       <c r="J17" s="19" t="s">
         <v>146</v>
       </c>
@@ -15262,15 +15255,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15336,6 +15320,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
@@ -15345,21 +15338,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15374,4 +15352,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7883E6EC-A81B-45BE-B4D6-85B4ADFA7DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCFBCC3-427A-44A8-9001-2279AA7DD70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="966" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="5310" windowWidth="38640" windowHeight="21240" tabRatio="966" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="37" r:id="rId1"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="193">
   <si>
     <t>Nation:</t>
   </si>
@@ -1160,6 +1160,9 @@
   </si>
   <si>
     <t>Individuellt tekniskt test Young Vaulter</t>
+  </si>
+  <si>
+    <t>Red 123</t>
   </si>
 </sst>
 </file>
@@ -2986,6 +2989,188 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2994,188 +3179,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3335,6 +3338,45 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
@@ -3346,45 +3388,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
@@ -6980,17 +6983,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7944,6 +7947,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A25:K25"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A21:I21"/>
@@ -7951,12 +7960,6 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8566,17 +8569,17 @@
   <sheetData>
     <row r="1" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="423" t="s">
+      <c r="A2" s="419" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="423"/>
-      <c r="C2" s="423"/>
-      <c r="D2" s="423"/>
-      <c r="E2" s="423"/>
-      <c r="F2" s="423"/>
-      <c r="G2" s="423"/>
-      <c r="H2" s="423"/>
-      <c r="I2" s="423"/>
+      <c r="B2" s="419"/>
+      <c r="C2" s="419"/>
+      <c r="D2" s="419"/>
+      <c r="E2" s="419"/>
+      <c r="F2" s="419"/>
+      <c r="G2" s="419"/>
+      <c r="H2" s="419"/>
+      <c r="I2" s="419"/>
       <c r="J2" s="143"/>
       <c r="K2" s="143"/>
       <c r="L2" s="143"/>
@@ -8714,8 +8717,8 @@
       <c r="G10" s="151"/>
       <c r="H10" s="141"/>
       <c r="I10" s="141"/>
-      <c r="J10" s="419"/>
-      <c r="K10" s="419"/>
+      <c r="J10" s="415"/>
+      <c r="K10" s="415"/>
       <c r="L10" s="152"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -8742,10 +8745,10 @@
       <c r="C13" s="251" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="424" t="s">
+      <c r="D13" s="420" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="425"/>
+      <c r="E13" s="421"/>
       <c r="F13" s="251" t="s">
         <v>120</v>
       </c>
@@ -8758,17 +8761,17 @@
       <c r="I13" s="253" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="428" t="s">
+      <c r="J13" s="424" t="s">
         <v>125</v>
       </c>
-      <c r="K13" s="429"/>
+      <c r="K13" s="425"/>
       <c r="L13" s="150"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="270"/>
       <c r="C14" s="271"/>
-      <c r="D14" s="426"/>
-      <c r="E14" s="427"/>
+      <c r="D14" s="422"/>
+      <c r="E14" s="423"/>
       <c r="F14" s="271"/>
       <c r="G14" s="271"/>
       <c r="H14" s="272"/>
@@ -8776,11 +8779,11 @@
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="430">
+      <c r="J14" s="426">
         <f>I14/6</f>
         <v>0</v>
       </c>
-      <c r="K14" s="431"/>
+      <c r="K14" s="427"/>
       <c r="L14" s="150"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8796,16 +8799,16 @@
       <c r="A17" s="246" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="420" t="s">
+      <c r="B17" s="416" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="421"/>
-      <c r="D17" s="421"/>
-      <c r="E17" s="421"/>
-      <c r="F17" s="421"/>
-      <c r="G17" s="421"/>
-      <c r="H17" s="421"/>
-      <c r="I17" s="422"/>
+      <c r="C17" s="417"/>
+      <c r="D17" s="417"/>
+      <c r="E17" s="417"/>
+      <c r="F17" s="417"/>
+      <c r="G17" s="417"/>
+      <c r="H17" s="417"/>
+      <c r="I17" s="418"/>
       <c r="J17" s="148" t="s">
         <v>123</v>
       </c>
@@ -8819,19 +8822,19 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="307" t="s">
+      <c r="A18" s="335" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="415" t="s">
+      <c r="B18" s="428" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="416"/>
-      <c r="D18" s="416"/>
-      <c r="E18" s="416"/>
-      <c r="F18" s="416"/>
-      <c r="G18" s="416"/>
-      <c r="H18" s="416"/>
-      <c r="I18" s="416"/>
+      <c r="C18" s="429"/>
+      <c r="D18" s="429"/>
+      <c r="E18" s="429"/>
+      <c r="F18" s="429"/>
+      <c r="G18" s="429"/>
+      <c r="H18" s="429"/>
+      <c r="I18" s="429"/>
       <c r="J18" s="148" t="s">
         <v>127</v>
       </c>
@@ -8842,17 +8845,17 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="308"/>
-      <c r="B19" s="417" t="s">
+      <c r="A19" s="336"/>
+      <c r="B19" s="430" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="418"/>
-      <c r="D19" s="418"/>
-      <c r="E19" s="418"/>
-      <c r="F19" s="418"/>
-      <c r="G19" s="418"/>
-      <c r="H19" s="418"/>
-      <c r="I19" s="418"/>
+      <c r="C19" s="431"/>
+      <c r="D19" s="431"/>
+      <c r="E19" s="431"/>
+      <c r="F19" s="431"/>
+      <c r="G19" s="431"/>
+      <c r="H19" s="431"/>
+      <c r="I19" s="431"/>
       <c r="J19" s="146" t="s">
         <v>128</v>
       </c>
@@ -8974,6 +8977,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A2:I2"/>
@@ -8983,12 +8992,6 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9598,17 +9601,17 @@
   <sheetData>
     <row r="1" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="423" t="s">
+      <c r="A2" s="419" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="423"/>
-      <c r="C2" s="423"/>
-      <c r="D2" s="423"/>
-      <c r="E2" s="423"/>
-      <c r="F2" s="423"/>
-      <c r="G2" s="423"/>
-      <c r="H2" s="423"/>
-      <c r="I2" s="423"/>
+      <c r="B2" s="419"/>
+      <c r="C2" s="419"/>
+      <c r="D2" s="419"/>
+      <c r="E2" s="419"/>
+      <c r="F2" s="419"/>
+      <c r="G2" s="419"/>
+      <c r="H2" s="419"/>
+      <c r="I2" s="419"/>
       <c r="J2" s="143"/>
       <c r="K2" s="143"/>
       <c r="L2" s="143"/>
@@ -9746,8 +9749,8 @@
       <c r="G10" s="151"/>
       <c r="H10" s="141"/>
       <c r="I10" s="141"/>
-      <c r="J10" s="419"/>
-      <c r="K10" s="419"/>
+      <c r="J10" s="415"/>
+      <c r="K10" s="415"/>
       <c r="L10" s="152"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -9774,10 +9777,10 @@
       <c r="C13" s="251" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="424" t="s">
+      <c r="D13" s="420" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="425"/>
+      <c r="E13" s="421"/>
       <c r="F13" s="251" t="s">
         <v>120</v>
       </c>
@@ -9786,17 +9789,17 @@
       <c r="I13" s="253" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="428" t="s">
+      <c r="J13" s="424" t="s">
         <v>125</v>
       </c>
-      <c r="K13" s="429"/>
+      <c r="K13" s="425"/>
       <c r="L13" s="150"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="270"/>
       <c r="C14" s="271"/>
-      <c r="D14" s="426"/>
-      <c r="E14" s="427"/>
+      <c r="D14" s="422"/>
+      <c r="E14" s="423"/>
       <c r="F14" s="271"/>
       <c r="G14" s="296"/>
       <c r="H14" s="297"/>
@@ -9804,11 +9807,11 @@
         <f>SUM(B14:F14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="430">
+      <c r="J14" s="426">
         <f>I14/4</f>
         <v>0</v>
       </c>
-      <c r="K14" s="431"/>
+      <c r="K14" s="427"/>
       <c r="L14" s="150"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9847,19 +9850,19 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="307" t="s">
+      <c r="A18" s="335" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="415" t="s">
+      <c r="B18" s="428" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="416"/>
-      <c r="D18" s="416"/>
-      <c r="E18" s="416"/>
-      <c r="F18" s="416"/>
-      <c r="G18" s="416"/>
-      <c r="H18" s="416"/>
-      <c r="I18" s="416"/>
+      <c r="C18" s="429"/>
+      <c r="D18" s="429"/>
+      <c r="E18" s="429"/>
+      <c r="F18" s="429"/>
+      <c r="G18" s="429"/>
+      <c r="H18" s="429"/>
+      <c r="I18" s="429"/>
       <c r="J18" s="148" t="s">
         <v>127</v>
       </c>
@@ -9870,17 +9873,17 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="308"/>
-      <c r="B19" s="417" t="s">
+      <c r="A19" s="336"/>
+      <c r="B19" s="430" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="418"/>
-      <c r="D19" s="418"/>
-      <c r="E19" s="418"/>
-      <c r="F19" s="418"/>
-      <c r="G19" s="418"/>
-      <c r="H19" s="418"/>
-      <c r="I19" s="418"/>
+      <c r="C19" s="431"/>
+      <c r="D19" s="431"/>
+      <c r="E19" s="431"/>
+      <c r="F19" s="431"/>
+      <c r="G19" s="431"/>
+      <c r="H19" s="431"/>
+      <c r="I19" s="431"/>
       <c r="J19" s="146" t="s">
         <v>128</v>
       </c>
@@ -10002,6 +10005,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B19:I19"/>
@@ -10012,11 +10020,6 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10035,7 +10038,7 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -10052,7 +10055,7 @@
     <col min="9" max="9" width="7.46484375" style="5" customWidth="1"/>
     <col min="10" max="10" width="5.73046875" style="5" customWidth="1"/>
     <col min="11" max="11" width="7.6640625" style="30" customWidth="1"/>
-    <col min="12" max="12" width="8.73046875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.3984375" style="5" customWidth="1"/>
     <col min="13" max="13" width="7.265625" style="5" customWidth="1"/>
     <col min="14" max="16384" width="9.19921875" style="5"/>
   </cols>
@@ -10087,8 +10090,8 @@
         <v>4</v>
       </c>
       <c r="B3" s="160"/>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
+      <c r="C3" s="361"/>
+      <c r="D3" s="361"/>
       <c r="E3" s="279"/>
       <c r="F3" s="279"/>
       <c r="H3" s="155"/>
@@ -10104,10 +10107,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="136"/>
-      <c r="C4" s="300"/>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="300"/>
+      <c r="C4" s="360"/>
+      <c r="D4" s="360"/>
+      <c r="E4" s="360"/>
+      <c r="F4" s="360"/>
       <c r="H4" s="155"/>
       <c r="I4" s="156" t="s">
         <v>11</v>
@@ -10121,10 +10124,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="300"/>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
+      <c r="C5" s="360"/>
+      <c r="D5" s="360"/>
+      <c r="E5" s="360"/>
+      <c r="F5" s="360"/>
       <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10140,17 +10143,19 @@
         <v>9</v>
       </c>
       <c r="K6" s="31"/>
-      <c r="L6" s="281"/>
+      <c r="L6" s="281" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="7" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="160" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="160"/>
-      <c r="C7" s="300"/>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
+      <c r="C7" s="360"/>
+      <c r="D7" s="360"/>
+      <c r="E7" s="360"/>
+      <c r="F7" s="360"/>
       <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10158,10 +10163,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="136"/>
-      <c r="C8" s="300"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="300"/>
-      <c r="F8" s="300"/>
+      <c r="C8" s="360"/>
+      <c r="D8" s="360"/>
+      <c r="E8" s="360"/>
+      <c r="F8" s="360"/>
       <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10169,10 +10174,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="300"/>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="300"/>
+      <c r="C9" s="360"/>
+      <c r="D9" s="360"/>
+      <c r="E9" s="360"/>
+      <c r="F9" s="360"/>
       <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10187,86 +10192,86 @@
       <c r="D11" s="282"/>
       <c r="E11" s="282"/>
       <c r="F11" s="282"/>
-      <c r="H11" s="302" t="s">
+      <c r="H11" s="330" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="303"/>
-      <c r="J11" s="304" t="s">
+      <c r="I11" s="331"/>
+      <c r="J11" s="332" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="305"/>
-      <c r="L11" s="306"/>
+      <c r="K11" s="333"/>
+      <c r="L11" s="334"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="307" t="s">
+      <c r="A12" s="335" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="311" t="s">
+      <c r="B12" s="339" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="312"/>
-      <c r="D12" s="312"/>
-      <c r="E12" s="312"/>
-      <c r="F12" s="312"/>
-      <c r="G12" s="313"/>
-      <c r="H12" s="320"/>
-      <c r="I12" s="321"/>
-      <c r="J12" s="326" t="s">
+      <c r="C12" s="340"/>
+      <c r="D12" s="340"/>
+      <c r="E12" s="340"/>
+      <c r="F12" s="340"/>
+      <c r="G12" s="341"/>
+      <c r="H12" s="348"/>
+      <c r="I12" s="349"/>
+      <c r="J12" s="354" t="s">
         <v>157</v>
       </c>
-      <c r="K12" s="329">
+      <c r="K12" s="356">
         <f>SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
-      <c r="L12" s="332">
+      <c r="L12" s="319">
         <f>ROUND(K12*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="308"/>
-      <c r="B13" s="314"/>
-      <c r="C13" s="315"/>
-      <c r="D13" s="315"/>
-      <c r="E13" s="315"/>
-      <c r="F13" s="315"/>
-      <c r="G13" s="316"/>
-      <c r="H13" s="322"/>
-      <c r="I13" s="323"/>
-      <c r="J13" s="327"/>
-      <c r="K13" s="330"/>
-      <c r="L13" s="333"/>
+      <c r="A13" s="336"/>
+      <c r="B13" s="342"/>
+      <c r="C13" s="343"/>
+      <c r="D13" s="343"/>
+      <c r="E13" s="343"/>
+      <c r="F13" s="343"/>
+      <c r="G13" s="344"/>
+      <c r="H13" s="350"/>
+      <c r="I13" s="351"/>
+      <c r="J13" s="328"/>
+      <c r="K13" s="357"/>
+      <c r="L13" s="320"/>
     </row>
     <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="308"/>
-      <c r="B14" s="314"/>
-      <c r="C14" s="315"/>
-      <c r="D14" s="315"/>
-      <c r="E14" s="315"/>
-      <c r="F14" s="315"/>
-      <c r="G14" s="316"/>
-      <c r="H14" s="322"/>
-      <c r="I14" s="323"/>
-      <c r="J14" s="327"/>
-      <c r="K14" s="330"/>
-      <c r="L14" s="333"/>
+      <c r="A14" s="336"/>
+      <c r="B14" s="342"/>
+      <c r="C14" s="343"/>
+      <c r="D14" s="343"/>
+      <c r="E14" s="343"/>
+      <c r="F14" s="343"/>
+      <c r="G14" s="344"/>
+      <c r="H14" s="350"/>
+      <c r="I14" s="351"/>
+      <c r="J14" s="328"/>
+      <c r="K14" s="357"/>
+      <c r="L14" s="320"/>
     </row>
     <row r="15" spans="1:12" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="308"/>
-      <c r="B15" s="317"/>
-      <c r="C15" s="318"/>
-      <c r="D15" s="318"/>
-      <c r="E15" s="318"/>
-      <c r="F15" s="318"/>
-      <c r="G15" s="319"/>
-      <c r="H15" s="322"/>
-      <c r="I15" s="323"/>
-      <c r="J15" s="327"/>
-      <c r="K15" s="330"/>
-      <c r="L15" s="333"/>
+      <c r="A15" s="336"/>
+      <c r="B15" s="345"/>
+      <c r="C15" s="346"/>
+      <c r="D15" s="346"/>
+      <c r="E15" s="346"/>
+      <c r="F15" s="346"/>
+      <c r="G15" s="347"/>
+      <c r="H15" s="350"/>
+      <c r="I15" s="351"/>
+      <c r="J15" s="328"/>
+      <c r="K15" s="357"/>
+      <c r="L15" s="320"/>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="309"/>
+      <c r="A16" s="337"/>
       <c r="B16" s="283" t="s">
         <v>158</v>
       </c>
@@ -10285,14 +10290,14 @@
       <c r="G16" s="286" t="s">
         <v>163</v>
       </c>
-      <c r="H16" s="322"/>
-      <c r="I16" s="323"/>
-      <c r="J16" s="327"/>
-      <c r="K16" s="330"/>
-      <c r="L16" s="333"/>
+      <c r="H16" s="350"/>
+      <c r="I16" s="351"/>
+      <c r="J16" s="328"/>
+      <c r="K16" s="357"/>
+      <c r="L16" s="320"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="310"/>
+      <c r="A17" s="338"/>
       <c r="B17" s="287"/>
       <c r="C17" s="288">
         <v>0</v>
@@ -10301,67 +10306,67 @@
       <c r="E17" s="288"/>
       <c r="F17" s="288"/>
       <c r="G17" s="289"/>
-      <c r="H17" s="324"/>
-      <c r="I17" s="325"/>
-      <c r="J17" s="328"/>
-      <c r="K17" s="331"/>
-      <c r="L17" s="334"/>
+      <c r="H17" s="352"/>
+      <c r="I17" s="353"/>
+      <c r="J17" s="355"/>
+      <c r="K17" s="358"/>
+      <c r="L17" s="359"/>
     </row>
     <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="337" t="s">
+      <c r="A18" s="302" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="340" t="s">
+      <c r="B18" s="305" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="340"/>
-      <c r="D18" s="340"/>
-      <c r="E18" s="340"/>
-      <c r="F18" s="340"/>
-      <c r="G18" s="340"/>
-      <c r="H18" s="343"/>
-      <c r="I18" s="344"/>
-      <c r="J18" s="349" t="s">
+      <c r="C18" s="305"/>
+      <c r="D18" s="305"/>
+      <c r="E18" s="305"/>
+      <c r="F18" s="305"/>
+      <c r="G18" s="305"/>
+      <c r="H18" s="308"/>
+      <c r="I18" s="309"/>
+      <c r="J18" s="314" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="352">
+      <c r="K18" s="317">
         <v>0</v>
       </c>
-      <c r="L18" s="332">
+      <c r="L18" s="319">
         <f>IF(K18-K21 &gt;=0, (ROUND((K18-K21)*0.25,3)),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="338"/>
-      <c r="B19" s="341"/>
-      <c r="C19" s="341"/>
-      <c r="D19" s="341"/>
-      <c r="E19" s="341"/>
-      <c r="F19" s="341"/>
-      <c r="G19" s="341"/>
-      <c r="H19" s="345"/>
-      <c r="I19" s="346"/>
-      <c r="J19" s="350"/>
-      <c r="K19" s="353"/>
-      <c r="L19" s="333"/>
+      <c r="A19" s="303"/>
+      <c r="B19" s="306"/>
+      <c r="C19" s="306"/>
+      <c r="D19" s="306"/>
+      <c r="E19" s="306"/>
+      <c r="F19" s="306"/>
+      <c r="G19" s="306"/>
+      <c r="H19" s="310"/>
+      <c r="I19" s="311"/>
+      <c r="J19" s="315"/>
+      <c r="K19" s="318"/>
+      <c r="L19" s="320"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="338"/>
-      <c r="B20" s="342"/>
-      <c r="C20" s="342"/>
-      <c r="D20" s="342"/>
-      <c r="E20" s="342"/>
-      <c r="F20" s="342"/>
-      <c r="G20" s="341"/>
-      <c r="H20" s="345"/>
-      <c r="I20" s="346"/>
-      <c r="J20" s="350"/>
-      <c r="K20" s="353"/>
-      <c r="L20" s="333"/>
+      <c r="A20" s="303"/>
+      <c r="B20" s="307"/>
+      <c r="C20" s="307"/>
+      <c r="D20" s="307"/>
+      <c r="E20" s="307"/>
+      <c r="F20" s="307"/>
+      <c r="G20" s="306"/>
+      <c r="H20" s="310"/>
+      <c r="I20" s="311"/>
+      <c r="J20" s="315"/>
+      <c r="K20" s="318"/>
+      <c r="L20" s="320"/>
     </row>
     <row r="21" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="339"/>
+      <c r="A21" s="304"/>
       <c r="B21" s="290" t="s">
         <v>165</v>
       </c>
@@ -10372,42 +10377,42 @@
       <c r="E21" s="291"/>
       <c r="F21" s="291"/>
       <c r="G21" s="291"/>
-      <c r="H21" s="347"/>
-      <c r="I21" s="348"/>
-      <c r="J21" s="351"/>
+      <c r="H21" s="312"/>
+      <c r="I21" s="313"/>
+      <c r="J21" s="316"/>
       <c r="K21" s="292">
         <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="354"/>
+      <c r="L21" s="321"/>
     </row>
     <row r="22" spans="1:12" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="337" t="s">
+      <c r="A22" s="302" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="340" t="s">
+      <c r="B22" s="305" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="355"/>
-      <c r="D22" s="355"/>
-      <c r="E22" s="355"/>
-      <c r="F22" s="355"/>
-      <c r="G22" s="356"/>
-      <c r="H22" s="357"/>
-      <c r="I22" s="358"/>
-      <c r="J22" s="327" t="s">
+      <c r="C22" s="322"/>
+      <c r="D22" s="322"/>
+      <c r="E22" s="322"/>
+      <c r="F22" s="322"/>
+      <c r="G22" s="323"/>
+      <c r="H22" s="324"/>
+      <c r="I22" s="325"/>
+      <c r="J22" s="328" t="s">
         <v>167</v>
       </c>
       <c r="K22" s="293">
         <v>0</v>
       </c>
-      <c r="L22" s="333">
+      <c r="L22" s="320">
         <f>IF((K22-K23)&gt;=0,(ROUND((K22-K23)*0.15,3)),0.000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="339"/>
+      <c r="A23" s="304"/>
       <c r="B23" s="294" t="s">
         <v>165</v>
       </c>
@@ -10422,14 +10427,14 @@
       </c>
       <c r="F23" s="291"/>
       <c r="G23" s="291"/>
-      <c r="H23" s="359"/>
-      <c r="I23" s="360"/>
-      <c r="J23" s="361"/>
+      <c r="H23" s="326"/>
+      <c r="I23" s="327"/>
+      <c r="J23" s="329"/>
       <c r="K23" s="292">
         <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="354"/>
+      <c r="L23" s="321"/>
     </row>
     <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="21"/>
@@ -10446,11 +10451,11 @@
         <v>3</v>
       </c>
       <c r="J25" s="23"/>
-      <c r="K25" s="335">
+      <c r="K25" s="300">
         <f>SUM(L12:L22)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="336"/>
+      <c r="L25" s="301"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10473,6 +10478,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:G15"/>
+    <mergeCell ref="H12:I17"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="L12:L17"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:G20"/>
@@ -10485,23 +10504,9 @@
     <mergeCell ref="H22:I23"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="L22:L23"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:G15"/>
-    <mergeCell ref="H12:I17"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="K12:K17"/>
-    <mergeCell ref="L12:L17"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
     <oddFooter>&amp;R2020-03-22</oddFooter>
@@ -15246,12 +15251,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15321,18 +15326,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15355,16 +15367,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7883E6EC-A81B-45BE-B4D6-85B4ADFA7DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD20A4A-5283-4DA4-8DAB-0F92EC304B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="966" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="5430" windowWidth="19200" windowHeight="21000" tabRatio="966" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="37" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <definedName name="domare" localSheetId="1">'Häst, individuell'!$C$29</definedName>
     <definedName name="domare" localSheetId="9">'Ind kür artistisk junior'!$C$26</definedName>
     <definedName name="domare" localSheetId="8">'Ind kür artistisk minior'!$C$26</definedName>
-    <definedName name="domare" localSheetId="10">'Ind kür artistisk senior'!$C$26</definedName>
+    <definedName name="domare" localSheetId="10">'Ind kür artistisk senior'!$C$25</definedName>
     <definedName name="domare" localSheetId="6">'Ind kür tekn junior'!$C$37</definedName>
     <definedName name="domare" localSheetId="5">'Ind kür tekn minior'!$C$37</definedName>
     <definedName name="domare" localSheetId="7">'Ind kür tekn senior'!$C$37</definedName>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="203">
   <si>
     <t>Nation:</t>
   </si>
@@ -500,40 +500,6 @@
     <t>E-övningar</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Variation av övningar</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">• Statiska och dynamiska övningar i proportion till varandra .
-• Ett urval av övningar och övergångar från olika strukturgrupper och grupperingar.
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Obs! Arbetsboken är skyddad med lösenordet 123 för att undvika att celler och formler ändras av misstag. </t>
   </si>
   <si>
@@ -556,10 +522,6 @@
 20%</t>
   </si>
   <si>
-    <t>C2
-15%</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
@@ -634,96 +596,6 @@
   </si>
   <si>
     <t>Protokollen uppdaterades senast 2019-03-28.</t>
-  </si>
-  <si>
-    <t>C3
-35%</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sammanhållning av sammansättning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-•  Urval av övningar och övergångar i harmoni med hästen.
-•  Mjuka övergångar och rörelser som visar samband och flyt.
-•  Delar, sekvenser, övergångar, positioner samt kombinationer av övningar visar på hög komplexitet.
-•  Kapacitet att binda samman rörelser och instabila positioner utan jämnvikt. Frihet i rörelser.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tolkning av musik</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Starkt engagemang till ett genomtänkt och utvecklat musikaliskt koncept.
-• Fängslande tolkning av musiken
-• Stor variation av uttryck som speglar olika typer av musik samt förändringar i musiken
-• Komplext kroppsspråk samt gester och rörelser i många olika riktningar.</t>
-    </r>
-  </si>
-  <si>
-    <t>C1
-30%</t>
-  </si>
-  <si>
-    <t>C2
-25%</t>
-  </si>
-  <si>
-    <t>C4
-10%</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sammanhållning av sammansättning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-•  Urval av övningar och övergångar i harmoni med hästen.
-•  Mjuka övergångar och rörelser som visar samband och flyt.
-•  Kapacitet att binda samman rörelser och instabila positioner utan jämnvikt. Frihet i rörelser.</t>
-    </r>
   </si>
   <si>
     <t>C4
@@ -972,43 +844,6 @@
 15%</t>
   </si>
   <si>
-    <t>Sidhopp del 1, tryck av inåt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Variation av position</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Variation av position av övningar dels relaterat till hästen men också riktningen av övningar.
-• Balans gällande användning av plats, användning av alla delar av hästens rygg, hals och kors inräknat insida och utsida av hästen.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>Hjulning</t>
   </si>
   <si>
@@ -1021,12 +856,6 @@
     <t>Individuell 2*</t>
   </si>
   <si>
-    <t>*Ändrad beskrivning, se FEI VAULTING GUIDELINE ver. 2023-01-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://inside.fei.org/node/3839/</t>
-  </si>
-  <si>
     <t>Sidhopp del 2*</t>
   </si>
   <si>
@@ -1046,9 +875,6 @@
   </si>
   <si>
     <t>Sving framlänges</t>
-  </si>
-  <si>
-    <t>Bakåtsving, öppna ben, inkl. avgång inåt</t>
   </si>
   <si>
     <r>
@@ -1161,6 +987,346 @@
   <si>
     <t>Individuellt tekniskt test Young Vaulter</t>
   </si>
+  <si>
+    <t>Sidhopp del 1, följt av avgång inåt</t>
+  </si>
+  <si>
+    <t>HÄNSYN TILL HÄSTEN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hänsyn till hästen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">• Urval av element och sekvenser i harmoni med hästen, baserat på vikt, sammansättning och balans.
+• Övningar som inte överbelastar hästen.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>CoH
+20%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Variation av övningar</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">• Statiska och dynamiska övningar i proportion till varandra.
+• Ett urval av övningar och övergångar från olika strukturgrupper.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Variation av position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+• Variation av position av övningar dels relaterat till hästen men också riktningen av övningar.
+• Balanserad användning av utrymme; användning av alla delar av hästens rygg, hals och kors inklusive insidan och utsidan av hästen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sammanhållning av sammansättning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+•  Mjuka övergångar och rörelser som visar samband och flyt.
+•  Element, sekvenser, övergångar, positioner, riktningar och kombinationer av övningar som uppvisar frihet i rörelse.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tolkning av musiken/kroppsspråk/uttrycksfullhet.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+• Starkt engagemang till ett genomtänkt och utvecklat musikaliskt koncept.
+• Fängslande tolkning av musiken.
+• Stor variation av uttryck som speglar olika typer av musik samt förändringar i musiken
+• Komplexitet i kroppsspråk samt gester och rörelser i många olika riktningar.</t>
+    </r>
+  </si>
+  <si>
+    <t>C2
+10%</t>
+  </si>
+  <si>
+    <t>C3
+25%</t>
+  </si>
+  <si>
+    <t>C4
+25%</t>
+  </si>
+  <si>
+    <t>Bakåtsving, följt av avgång inåt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Variation av position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+• Variation av position av övningar dels relaterat till hästen men också riktningen av övningar.
+• Balanserad användning av utrymme; användning av alla delar av hästens rygg, hals och kors, inklusive insidan av hästen.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Sammanhållning av sammansättning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+•  Mjuka övergångar och rörelser som visar samband och flyt.
+•  Element, sekvenser, övergångar, positioner, riktningar och kombinationer av övningar som uppvisar rörelsefrihet.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tolkning av musiken/kroppsspråk/uttrycksfullhet.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+• Starkt engagemang till ett genomtänkt och utvecklat musikaliskt koncept.
+• Fängslande tolkning av musiken.
+• Stor variation av uttryck som speglar olika typer av musik samt förändringar i musiken.
+• Komplexitet i kroppsspråk samt gester och rörelser i många olika riktningar.</t>
+    </r>
+  </si>
+  <si>
+    <t>C1
+25%</t>
+  </si>
+  <si>
+    <t>C2
+20%</t>
+  </si>
+  <si>
+    <t>C3
+20%</t>
+  </si>
+  <si>
+    <t>C4
+15%</t>
+  </si>
+  <si>
+    <t>*Beskrivning, se FEI VAULTING RULES ver. 2024-01-18</t>
+  </si>
+  <si>
+    <t>Swing off from seat astride to the outside</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Variation av position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+• Variation av position av övningar dels relaterat till hästen men också riktningen av övningar.
+• Balanserad användning av utrymme, användning av alla delar av hästens rygg, hals och kors inklusive insidan och utsidan av hästen.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tolkning av musiken/kroppsspråk/uttrycksfullhet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+• Starkt engagemang till ett genomtänkt och utvecklat musikaliskt koncept.
+• Fängslande tolkning av musiken.
+• Stor variation av uttryck som speglar olika typer av musik samt förändringar i musiken.
+• Komplexitet i kroppsspråk samt gester och rörelser i många olika riktningar.</t>
+    </r>
+  </si>
+  <si>
+    <t>C1
+10%</t>
+  </si>
+  <si>
+    <t>C3
+30%</t>
+  </si>
 </sst>
 </file>
 
@@ -1179,7 +1345,7 @@
     <numFmt numFmtId="172" formatCode="0.0"/>
     <numFmt numFmtId="173" formatCode="0.000;\-0.000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1303,13 +1469,6 @@
       <strike/>
       <sz val="11"/>
       <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -2214,10 +2373,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="435">
+  <cellXfs count="453">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2520,7 +2679,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2590,7 +2749,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2697,18 +2856,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2742,9 +2892,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2754,24 +2904,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2781,16 +2919,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="15" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="15" fillId="2" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2807,10 +2942,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2931,34 +3066,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="172" fontId="5" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="34" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="33" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="34" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="33" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2982,9 +3117,190 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -2994,406 +3310,309 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="51" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="51" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3424,6 +3643,285 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>698500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>716554</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1096962</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Bildobjekt 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CEFAE5A-B77E-46E2-B4E2-73E537B4390A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="417512" y="4427537"/>
+          <a:ext cx="4775792" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>710787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>306387</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1314489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Bildobjekt 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E10A9C-A6F6-4735-B4CC-7038B166E080}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438151" y="5611399"/>
+          <a:ext cx="4344986" cy="598940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>685277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>392112</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1039647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Bildobjekt 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{030D14B7-A2F1-421A-96D3-E98CA5DB7892}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438149" y="4314302"/>
+          <a:ext cx="4430713" cy="354370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>736599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373339</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1295434</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Bildobjekt 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A71C80-EC9D-47E6-B3F0-3048202C46FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495301" y="5484811"/>
+          <a:ext cx="4354788" cy="554073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>628650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373063</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>983020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Bildobjekt 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F183DF6-2F07-47EE-B223-2F58722372E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="4438650"/>
+          <a:ext cx="4430713" cy="354370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>742950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>305076</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1306547</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Bildobjekt 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4E107A-6D2A-4A04-A090-71EF8ADDD0FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="436562" y="5638800"/>
+          <a:ext cx="4345264" cy="563597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3757,42 +4255,42 @@
     <col min="2" max="18" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="238" customFormat="1" ht="20.65" x14ac:dyDescent="0.6">
-      <c r="A1" s="237" t="s">
+    <row r="1" spans="1:6" s="230" customFormat="1" ht="20.65" x14ac:dyDescent="0.6">
+      <c r="A1" s="229" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="238" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="238" t="s">
+    <row r="2" spans="1:6" s="230" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="230" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="238" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="238" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="238" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="238" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="275" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="275" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="238" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:6" s="238" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:6" s="238" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:6" s="238" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="238" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="238" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:6" s="212" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="212" t="s">
+    <row r="3" spans="1:6" s="230" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="230" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="230" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="230" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="267" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="267" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="230" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:6" s="230" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:6" s="230" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:6" s="230" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="230" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="230" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:6" s="209" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A11" s="209" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3804,38 +4302,38 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="153"/>
     </row>
-    <row r="15" spans="1:6" s="213" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="213" t="s">
+    <row r="15" spans="1:6" s="210" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="210" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="214" t="s">
+      <c r="B16" s="211" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="153"/>
-      <c r="F16" s="214" t="s">
+      <c r="F16" s="211" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="213" t="s">
+      <c r="B17" s="210" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="213" t="s">
+      <c r="C17" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="213" t="s">
+      <c r="D17" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="213"/>
-      <c r="F17" s="213" t="s">
+      <c r="E17" s="210"/>
+      <c r="F17" s="210" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="213" t="s">
+      <c r="G17" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="213" t="s">
+      <c r="H17" s="210" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3843,226 +4341,226 @@
       <c r="A18" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="209" t="s">
+      <c r="B18" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="209" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="209" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="216"/>
-      <c r="F18" s="209" t="s">
+      <c r="C18" s="206" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="206" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="213"/>
+      <c r="F18" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="209" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" s="209" t="s">
+      <c r="G18" s="206" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="206" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="153"/>
-      <c r="B19" s="210"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
-      <c r="H19" s="210"/>
+      <c r="B19" s="207"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="207"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="207"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="207"/>
     </row>
     <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="209" t="s">
+      <c r="B20" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="209" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="209" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="216"/>
-      <c r="F20" s="209" t="s">
+      <c r="C20" s="206" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="206" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="213"/>
+      <c r="F20" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="209" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" s="209" t="s">
+      <c r="G20" s="206" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="206" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="153"/>
-      <c r="B21" s="210"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
-      <c r="H21" s="210"/>
+      <c r="B21" s="207"/>
+      <c r="C21" s="207"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="207"/>
+      <c r="H21" s="207"/>
     </row>
     <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="209" t="s">
+      <c r="B22" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="216"/>
-      <c r="F22" s="209" t="s">
+      <c r="C22" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="213"/>
+      <c r="F22" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="209" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="209" t="s">
+      <c r="G22" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="206" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="153"/>
-      <c r="B23" s="210"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="210"/>
-      <c r="G23" s="210"/>
-      <c r="H23" s="210"/>
+      <c r="B23" s="207"/>
+      <c r="C23" s="207"/>
+      <c r="D23" s="207"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="207"/>
     </row>
     <row r="24" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="209" t="s">
+      <c r="B24" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="216"/>
-      <c r="F24" s="209" t="s">
+      <c r="C24" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="213"/>
+      <c r="F24" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="209" t="s">
+      <c r="G24" s="206" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="209" t="s">
+      <c r="H24" s="206" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="215" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="209" t="s">
+      <c r="A25" s="212" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="209" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="209" t="s">
+      <c r="C25" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="215"/>
+      <c r="E25" s="212"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="215"/>
-      <c r="B26" s="209"/>
-      <c r="C26" s="209"/>
-      <c r="D26" s="209"/>
-      <c r="E26" s="215"/>
+      <c r="A26" s="212"/>
+      <c r="B26" s="206"/>
+      <c r="C26" s="206"/>
+      <c r="D26" s="206"/>
+      <c r="E26" s="212"/>
     </row>
     <row r="27" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="209" t="s">
+      <c r="B27" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="216"/>
-      <c r="F27" s="209" t="s">
+      <c r="C27" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="213"/>
+      <c r="F27" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="209" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="209" t="s">
+      <c r="G27" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" s="206" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="215" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="209" t="s">
+      <c r="A28" s="212" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="209" t="s">
+      <c r="C28" s="206" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="209" t="s">
+      <c r="D28" s="206" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="215"/>
-    </row>
-    <row r="30" spans="1:9" s="213" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A30" s="213" t="s">
+      <c r="E28" s="212"/>
+    </row>
+    <row r="30" spans="1:9" s="210" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="210" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="214" t="s">
+      <c r="B31" s="211" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="153"/>
-      <c r="F31" s="214" t="s">
+      <c r="F31" s="211" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="213" t="s">
+      <c r="B32" s="210" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="213" t="s">
+      <c r="C32" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="213" t="s">
+      <c r="D32" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="213" t="s">
+      <c r="E32" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="213" t="s">
+      <c r="F32" s="210" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="213" t="s">
+      <c r="G32" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="H32" s="213" t="s">
+      <c r="H32" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="I32" s="213" t="s">
+      <c r="I32" s="210" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4070,290 +4568,290 @@
       <c r="A33" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="209" t="s">
+      <c r="B33" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="209" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="209" t="s">
-        <v>137</v>
-      </c>
-      <c r="E33" s="209" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="209" t="s">
+      <c r="C33" s="206" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="206" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="206" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="209" t="s">
-        <v>133</v>
-      </c>
-      <c r="H33" s="209" t="s">
+      <c r="G33" s="206" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="I33" s="209" t="s">
-        <v>133</v>
+      <c r="I33" s="206" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="153"/>
-      <c r="B34" s="210"/>
-      <c r="C34" s="210"/>
-      <c r="D34" s="210"/>
-      <c r="E34" s="210"/>
-      <c r="F34" s="210"/>
-      <c r="G34" s="210"/>
-      <c r="H34" s="210"/>
-      <c r="I34" s="210"/>
+      <c r="B34" s="207"/>
+      <c r="C34" s="207"/>
+      <c r="D34" s="207"/>
+      <c r="E34" s="207"/>
+      <c r="F34" s="207"/>
+      <c r="G34" s="207"/>
+      <c r="H34" s="207"/>
+      <c r="I34" s="207"/>
     </row>
     <row r="35" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="209" t="s">
+      <c r="B35" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="209" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="209" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="209" t="s">
-        <v>131</v>
-      </c>
-      <c r="F35" s="209" t="s">
+      <c r="C35" s="206" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="206" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="206" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="G35" s="209" t="s">
-        <v>134</v>
-      </c>
-      <c r="H35" s="209" t="s">
+      <c r="G35" s="206" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="I35" s="209" t="s">
-        <v>134</v>
+      <c r="I35" s="206" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="153"/>
-      <c r="B36" s="210"/>
-      <c r="C36" s="210"/>
-      <c r="D36" s="210"/>
-      <c r="E36" s="210"/>
-      <c r="F36" s="210"/>
-      <c r="G36" s="210"/>
-      <c r="H36" s="210"/>
-      <c r="I36" s="210"/>
+      <c r="B36" s="207"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="207"/>
+      <c r="F36" s="207"/>
+      <c r="G36" s="207"/>
+      <c r="H36" s="207"/>
+      <c r="I36" s="207"/>
     </row>
     <row r="37" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="209" t="s">
+      <c r="B37" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" s="209" t="s">
+      <c r="C37" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="G37" s="209" t="s">
-        <v>135</v>
-      </c>
-      <c r="H37" s="209" t="s">
+      <c r="G37" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="I37" s="209" t="s">
-        <v>135</v>
+      <c r="I37" s="206" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="153"/>
-      <c r="B38" s="210"/>
-      <c r="C38" s="210"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="210"/>
-      <c r="F38" s="210"/>
-      <c r="G38" s="210"/>
-      <c r="H38" s="210"/>
-      <c r="I38" s="210"/>
+      <c r="B38" s="207"/>
+      <c r="C38" s="207"/>
+      <c r="D38" s="207"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="207"/>
+      <c r="H38" s="207"/>
+      <c r="I38" s="207"/>
     </row>
     <row r="39" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="209" t="s">
+      <c r="B39" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="D39" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" s="211" t="s">
+      <c r="C39" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="208" t="s">
         <v>77</v>
       </c>
-      <c r="G39" s="209" t="s">
+      <c r="G39" s="206" t="s">
         <v>81</v>
       </c>
-      <c r="H39" s="209" t="s">
+      <c r="H39" s="206" t="s">
         <v>82</v>
       </c>
-      <c r="I39" s="209" t="s">
+      <c r="I39" s="206" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="215" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="209" t="s">
+      <c r="A40" s="212" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="209" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="209" t="s">
+      <c r="C40" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="209" t="s">
-        <v>135</v>
+      <c r="E40" s="206" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B41" s="215"/>
-      <c r="C41" s="215"/>
-      <c r="D41" s="215"/>
-      <c r="E41" s="215"/>
+      <c r="B41" s="212"/>
+      <c r="C41" s="212"/>
+      <c r="D41" s="212"/>
+      <c r="E41" s="212"/>
     </row>
     <row r="42" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="209" t="s">
+      <c r="B42" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="D42" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="F42" s="209" t="s">
+      <c r="C42" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="G42" s="209" t="s">
-        <v>135</v>
-      </c>
-      <c r="H42" s="209" t="s">
+      <c r="G42" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="I42" s="209" t="s">
-        <v>135</v>
+      <c r="I42" s="206" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="215" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" s="209" t="s">
+      <c r="A43" s="212" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="209" t="s">
+      <c r="C43" s="206" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="209" t="s">
+      <c r="D43" s="206" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="209" t="s">
+      <c r="E43" s="206" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B44" s="215"/>
-      <c r="C44" s="215"/>
-      <c r="D44" s="215"/>
-      <c r="E44" s="215"/>
+      <c r="B44" s="212"/>
+      <c r="C44" s="212"/>
+      <c r="D44" s="212"/>
+      <c r="E44" s="212"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B45" s="215"/>
-      <c r="C45" s="215"/>
-      <c r="D45" s="215"/>
-      <c r="E45" s="215"/>
+      <c r="B45" s="212"/>
+      <c r="C45" s="212"/>
+      <c r="D45" s="212"/>
+      <c r="E45" s="212"/>
     </row>
     <row r="46" spans="1:14" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A46" s="213" t="s">
+      <c r="A46" s="210" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="214" t="s">
+      <c r="B48" s="211" t="s">
         <v>71</v>
       </c>
       <c r="C48" s="153"/>
-      <c r="F48" s="214" t="s">
+      <c r="F48" s="211" t="s">
         <v>72</v>
       </c>
-      <c r="J48" s="214" t="s">
+      <c r="J48" s="211" t="s">
         <v>86</v>
       </c>
       <c r="K48" s="153"/>
-      <c r="N48" s="214" t="s">
+      <c r="N48" s="211" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="213" t="s">
+      <c r="B49" s="210" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="213" t="s">
+      <c r="C49" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="213" t="s">
+      <c r="D49" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="E49" s="213"/>
-      <c r="F49" s="213" t="s">
+      <c r="E49" s="210"/>
+      <c r="F49" s="210" t="s">
         <v>73</v>
       </c>
-      <c r="G49" s="213" t="s">
+      <c r="G49" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="H49" s="213" t="s">
+      <c r="H49" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="J49" s="213" t="s">
+      <c r="J49" s="210" t="s">
         <v>73</v>
       </c>
-      <c r="K49" s="213" t="s">
+      <c r="K49" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="L49" s="213" t="s">
+      <c r="L49" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="M49" s="213"/>
-      <c r="N49" s="213" t="s">
+      <c r="M49" s="210"/>
+      <c r="N49" s="210" t="s">
         <v>73</v>
       </c>
-      <c r="O49" s="213" t="s">
+      <c r="O49" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="P49" s="213" t="s">
+      <c r="P49" s="210" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4361,300 +4859,300 @@
       <c r="A50" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="209" t="s">
+      <c r="B50" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="209" t="s">
-        <v>137</v>
-      </c>
-      <c r="D50" s="209" t="s">
-        <v>137</v>
-      </c>
-      <c r="E50" s="216"/>
-      <c r="F50" s="209" t="s">
+      <c r="C50" s="206" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="206" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="213"/>
+      <c r="F50" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="G50" s="209" t="s">
-        <v>133</v>
-      </c>
-      <c r="H50" s="209" t="s">
+      <c r="G50" s="206" t="s">
+        <v>131</v>
+      </c>
+      <c r="H50" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="J50" s="209" t="s">
+      <c r="J50" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="K50" s="209" t="s">
-        <v>137</v>
-      </c>
-      <c r="L50" s="209" t="s">
-        <v>137</v>
-      </c>
-      <c r="M50" s="216"/>
-      <c r="N50" s="209" t="s">
+      <c r="K50" s="206" t="s">
+        <v>135</v>
+      </c>
+      <c r="L50" s="206" t="s">
+        <v>135</v>
+      </c>
+      <c r="M50" s="213"/>
+      <c r="N50" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="O50" s="209" t="s">
-        <v>133</v>
-      </c>
-      <c r="P50" s="209" t="s">
+      <c r="O50" s="206" t="s">
+        <v>131</v>
+      </c>
+      <c r="P50" s="206" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="153"/>
-      <c r="B51" s="210"/>
-      <c r="C51" s="210"/>
-      <c r="D51" s="210"/>
-      <c r="E51" s="215"/>
-      <c r="F51" s="210"/>
-      <c r="G51" s="210"/>
-      <c r="H51" s="210"/>
-      <c r="J51" s="210"/>
-      <c r="K51" s="210"/>
-      <c r="L51" s="210"/>
-      <c r="M51" s="215"/>
-      <c r="N51" s="210"/>
-      <c r="O51" s="210"/>
-      <c r="P51" s="210"/>
+      <c r="B51" s="207"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="207"/>
+      <c r="E51" s="212"/>
+      <c r="F51" s="207"/>
+      <c r="G51" s="207"/>
+      <c r="H51" s="207"/>
+      <c r="J51" s="207"/>
+      <c r="K51" s="207"/>
+      <c r="L51" s="207"/>
+      <c r="M51" s="212"/>
+      <c r="N51" s="207"/>
+      <c r="O51" s="207"/>
+      <c r="P51" s="207"/>
     </row>
     <row r="52" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="209" t="s">
+      <c r="B52" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="209" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" s="209" t="s">
-        <v>131</v>
-      </c>
-      <c r="E52" s="216"/>
-      <c r="F52" s="209" t="s">
+      <c r="C52" s="206" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="206" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="213"/>
+      <c r="F52" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="G52" s="209" t="s">
-        <v>134</v>
-      </c>
-      <c r="H52" s="209" t="s">
+      <c r="G52" s="206" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="J52" s="209" t="s">
+      <c r="J52" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="K52" s="209" t="s">
-        <v>131</v>
-      </c>
-      <c r="L52" s="209" t="s">
-        <v>131</v>
-      </c>
-      <c r="M52" s="216"/>
-      <c r="N52" s="209" t="s">
+      <c r="K52" s="206" t="s">
+        <v>129</v>
+      </c>
+      <c r="L52" s="206" t="s">
+        <v>129</v>
+      </c>
+      <c r="M52" s="213"/>
+      <c r="N52" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="O52" s="209" t="s">
-        <v>134</v>
-      </c>
-      <c r="P52" s="209" t="s">
+      <c r="O52" s="206" t="s">
+        <v>132</v>
+      </c>
+      <c r="P52" s="206" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="153"/>
-      <c r="B53" s="210"/>
-      <c r="C53" s="210"/>
-      <c r="D53" s="210"/>
-      <c r="E53" s="215"/>
-      <c r="F53" s="210"/>
-      <c r="G53" s="210"/>
-      <c r="H53" s="210"/>
-      <c r="J53" s="210"/>
-      <c r="K53" s="210"/>
-      <c r="L53" s="210"/>
-      <c r="M53" s="215"/>
-      <c r="N53" s="210"/>
-      <c r="O53" s="210"/>
-      <c r="P53" s="210"/>
+      <c r="B53" s="207"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="207"/>
+      <c r="E53" s="212"/>
+      <c r="F53" s="207"/>
+      <c r="G53" s="207"/>
+      <c r="H53" s="207"/>
+      <c r="J53" s="207"/>
+      <c r="K53" s="207"/>
+      <c r="L53" s="207"/>
+      <c r="M53" s="212"/>
+      <c r="N53" s="207"/>
+      <c r="O53" s="207"/>
+      <c r="P53" s="207"/>
     </row>
     <row r="54" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="209" t="s">
+      <c r="B54" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="D54" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" s="216"/>
-      <c r="F54" s="209" t="s">
+      <c r="C54" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="213"/>
+      <c r="F54" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="G54" s="209" t="s">
-        <v>135</v>
-      </c>
-      <c r="H54" s="209" t="s">
+      <c r="G54" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="H54" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="J54" s="209" t="s">
+      <c r="J54" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="K54" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="L54" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="M54" s="216"/>
-      <c r="N54" s="209" t="s">
+      <c r="K54" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="L54" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="M54" s="213"/>
+      <c r="N54" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="O54" s="209" t="s">
-        <v>135</v>
-      </c>
-      <c r="P54" s="209" t="s">
+      <c r="O54" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="P54" s="206" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="153"/>
-      <c r="B55" s="210"/>
-      <c r="C55" s="210"/>
-      <c r="D55" s="210"/>
-      <c r="E55" s="215"/>
-      <c r="F55" s="210"/>
-      <c r="G55" s="210"/>
-      <c r="H55" s="210"/>
-      <c r="J55" s="210"/>
-      <c r="K55" s="210"/>
-      <c r="L55" s="210"/>
-      <c r="M55" s="215"/>
-      <c r="N55" s="210"/>
-      <c r="O55" s="210"/>
-      <c r="P55" s="210"/>
+      <c r="B55" s="207"/>
+      <c r="C55" s="207"/>
+      <c r="D55" s="207"/>
+      <c r="E55" s="212"/>
+      <c r="F55" s="207"/>
+      <c r="G55" s="207"/>
+      <c r="H55" s="207"/>
+      <c r="J55" s="207"/>
+      <c r="K55" s="207"/>
+      <c r="L55" s="207"/>
+      <c r="M55" s="212"/>
+      <c r="N55" s="207"/>
+      <c r="O55" s="207"/>
+      <c r="P55" s="207"/>
     </row>
     <row r="56" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="209" t="s">
+      <c r="B56" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="D56" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="E56" s="216"/>
-      <c r="F56" s="209" t="s">
+      <c r="C56" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" s="213"/>
+      <c r="F56" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="G56" s="209" t="s">
-        <v>135</v>
-      </c>
-      <c r="H56" s="209" t="s">
+      <c r="G56" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="J56" s="209" t="s">
+      <c r="J56" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="K56" s="209" t="s">
+      <c r="K56" s="206" t="s">
         <v>81</v>
       </c>
-      <c r="L56" s="209" t="s">
+      <c r="L56" s="206" t="s">
         <v>82</v>
       </c>
-      <c r="M56" s="216"/>
-      <c r="N56" s="209" t="s">
+      <c r="M56" s="213"/>
+      <c r="N56" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="O56" s="209" t="s">
-        <v>135</v>
-      </c>
-      <c r="P56" s="209" t="s">
+      <c r="O56" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="P56" s="206" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E57" s="215"/>
-      <c r="J57" s="217"/>
-      <c r="K57" s="217"/>
-      <c r="L57" s="217"/>
-      <c r="M57" s="215"/>
+      <c r="E57" s="212"/>
+      <c r="J57" s="214"/>
+      <c r="K57" s="214"/>
+      <c r="L57" s="214"/>
+      <c r="M57" s="212"/>
     </row>
     <row r="59" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A59" s="213" t="s">
+      <c r="A59" s="210" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="214" t="s">
+      <c r="B61" s="211" t="s">
         <v>71</v>
       </c>
       <c r="C61" s="153"/>
-      <c r="F61" s="214" t="s">
+      <c r="F61" s="211" t="s">
         <v>72</v>
       </c>
-      <c r="J61" s="214" t="s">
+      <c r="J61" s="211" t="s">
         <v>86</v>
       </c>
       <c r="K61" s="153"/>
-      <c r="N61" s="214" t="s">
+      <c r="N61" s="211" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="213" t="s">
+      <c r="B62" s="210" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="213" t="s">
+      <c r="C62" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="D62" s="213" t="s">
+      <c r="D62" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="E62" s="213" t="s">
+      <c r="E62" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="F62" s="213" t="s">
+      <c r="F62" s="210" t="s">
         <v>73</v>
       </c>
-      <c r="G62" s="213" t="s">
+      <c r="G62" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="H62" s="213" t="s">
+      <c r="H62" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="I62" s="213" t="s">
+      <c r="I62" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="J62" s="213" t="s">
+      <c r="J62" s="210" t="s">
         <v>73</v>
       </c>
-      <c r="K62" s="213" t="s">
+      <c r="K62" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="L62" s="213" t="s">
+      <c r="L62" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="M62" s="213" t="s">
+      <c r="M62" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="N62" s="213" t="s">
+      <c r="N62" s="210" t="s">
         <v>73</v>
       </c>
-      <c r="O62" s="213" t="s">
+      <c r="O62" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="P62" s="213" t="s">
+      <c r="P62" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="Q62" s="213" t="s">
+      <c r="Q62" s="210" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4662,443 +5160,443 @@
       <c r="A63" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="209" t="s">
+      <c r="B63" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="209" t="s">
-        <v>137</v>
-      </c>
-      <c r="D63" s="209" t="s">
-        <v>137</v>
-      </c>
-      <c r="E63" s="209" t="s">
-        <v>137</v>
-      </c>
-      <c r="F63" s="209" t="s">
+      <c r="C63" s="206" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63" s="206" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63" s="206" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="G63" s="209" t="s">
-        <v>133</v>
-      </c>
-      <c r="H63" s="209" t="s">
+      <c r="G63" s="206" t="s">
+        <v>131</v>
+      </c>
+      <c r="H63" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="I63" s="209" t="s">
-        <v>133</v>
-      </c>
-      <c r="J63" s="209" t="s">
+      <c r="I63" s="206" t="s">
+        <v>131</v>
+      </c>
+      <c r="J63" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="K63" s="209" t="s">
-        <v>137</v>
-      </c>
-      <c r="L63" s="209" t="s">
-        <v>137</v>
-      </c>
-      <c r="M63" s="209" t="s">
-        <v>137</v>
-      </c>
-      <c r="N63" s="209" t="s">
+      <c r="K63" s="206" t="s">
+        <v>135</v>
+      </c>
+      <c r="L63" s="206" t="s">
+        <v>135</v>
+      </c>
+      <c r="M63" s="206" t="s">
+        <v>135</v>
+      </c>
+      <c r="N63" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="O63" s="209" t="s">
-        <v>133</v>
-      </c>
-      <c r="P63" s="209" t="s">
+      <c r="O63" s="206" t="s">
+        <v>131</v>
+      </c>
+      <c r="P63" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="Q63" s="209" t="s">
-        <v>133</v>
+      <c r="Q63" s="206" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="153"/>
-      <c r="B64" s="210"/>
-      <c r="C64" s="210"/>
-      <c r="D64" s="210"/>
-      <c r="E64" s="210"/>
-      <c r="F64" s="210"/>
-      <c r="G64" s="210"/>
-      <c r="H64" s="210"/>
-      <c r="I64" s="210"/>
-      <c r="J64" s="210"/>
-      <c r="K64" s="210"/>
-      <c r="L64" s="210"/>
-      <c r="M64" s="210"/>
-      <c r="N64" s="210"/>
-      <c r="O64" s="210"/>
-      <c r="P64" s="210"/>
-      <c r="Q64" s="210"/>
+      <c r="B64" s="207"/>
+      <c r="C64" s="207"/>
+      <c r="D64" s="207"/>
+      <c r="E64" s="207"/>
+      <c r="F64" s="207"/>
+      <c r="G64" s="207"/>
+      <c r="H64" s="207"/>
+      <c r="I64" s="207"/>
+      <c r="J64" s="207"/>
+      <c r="K64" s="207"/>
+      <c r="L64" s="207"/>
+      <c r="M64" s="207"/>
+      <c r="N64" s="207"/>
+      <c r="O64" s="207"/>
+      <c r="P64" s="207"/>
+      <c r="Q64" s="207"/>
     </row>
     <row r="65" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="209" t="s">
+      <c r="B65" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="209" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65" s="209" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65" s="209" t="s">
-        <v>131</v>
-      </c>
-      <c r="F65" s="209" t="s">
+      <c r="C65" s="206" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="206" t="s">
+        <v>129</v>
+      </c>
+      <c r="E65" s="206" t="s">
+        <v>129</v>
+      </c>
+      <c r="F65" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="G65" s="209" t="s">
-        <v>134</v>
-      </c>
-      <c r="H65" s="209" t="s">
+      <c r="G65" s="206" t="s">
+        <v>132</v>
+      </c>
+      <c r="H65" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="I65" s="209" t="s">
-        <v>134</v>
-      </c>
-      <c r="J65" s="209" t="s">
+      <c r="I65" s="206" t="s">
+        <v>132</v>
+      </c>
+      <c r="J65" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="K65" s="209" t="s">
-        <v>131</v>
-      </c>
-      <c r="L65" s="209" t="s">
-        <v>131</v>
-      </c>
-      <c r="M65" s="209" t="s">
-        <v>131</v>
-      </c>
-      <c r="N65" s="209" t="s">
+      <c r="K65" s="206" t="s">
+        <v>129</v>
+      </c>
+      <c r="L65" s="206" t="s">
+        <v>129</v>
+      </c>
+      <c r="M65" s="206" t="s">
+        <v>129</v>
+      </c>
+      <c r="N65" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="O65" s="209" t="s">
-        <v>134</v>
-      </c>
-      <c r="P65" s="209" t="s">
+      <c r="O65" s="206" t="s">
+        <v>132</v>
+      </c>
+      <c r="P65" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="Q65" s="209" t="s">
-        <v>134</v>
+      <c r="Q65" s="206" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="153"/>
-      <c r="B66" s="210"/>
-      <c r="C66" s="210"/>
-      <c r="D66" s="210"/>
-      <c r="E66" s="210"/>
-      <c r="F66" s="210"/>
-      <c r="G66" s="210"/>
-      <c r="H66" s="210"/>
-      <c r="I66" s="210"/>
-      <c r="J66" s="210"/>
-      <c r="K66" s="210"/>
-      <c r="L66" s="210"/>
-      <c r="M66" s="210"/>
-      <c r="N66" s="210"/>
-      <c r="O66" s="210"/>
-      <c r="P66" s="210"/>
-      <c r="Q66" s="210"/>
+      <c r="B66" s="207"/>
+      <c r="C66" s="207"/>
+      <c r="D66" s="207"/>
+      <c r="E66" s="207"/>
+      <c r="F66" s="207"/>
+      <c r="G66" s="207"/>
+      <c r="H66" s="207"/>
+      <c r="I66" s="207"/>
+      <c r="J66" s="207"/>
+      <c r="K66" s="207"/>
+      <c r="L66" s="207"/>
+      <c r="M66" s="207"/>
+      <c r="N66" s="207"/>
+      <c r="O66" s="207"/>
+      <c r="P66" s="207"/>
+      <c r="Q66" s="207"/>
     </row>
     <row r="67" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="209" t="s">
+      <c r="B67" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="D67" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="E67" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="F67" s="209" t="s">
+      <c r="C67" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="G67" s="209" t="s">
-        <v>135</v>
-      </c>
-      <c r="H67" s="209" t="s">
+      <c r="G67" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="H67" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="I67" s="209" t="s">
-        <v>135</v>
-      </c>
-      <c r="J67" s="209" t="s">
+      <c r="I67" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="J67" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="K67" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="L67" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="M67" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="N67" s="209" t="s">
+      <c r="K67" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="L67" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="M67" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="N67" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="O67" s="209" t="s">
-        <v>135</v>
-      </c>
-      <c r="P67" s="209" t="s">
+      <c r="O67" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="P67" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="Q67" s="209" t="s">
-        <v>135</v>
+      <c r="Q67" s="206" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="153"/>
-      <c r="B68" s="210"/>
-      <c r="C68" s="210"/>
-      <c r="D68" s="210"/>
-      <c r="E68" s="210"/>
-      <c r="F68" s="210"/>
-      <c r="G68" s="210"/>
-      <c r="H68" s="210"/>
-      <c r="I68" s="210"/>
-      <c r="J68" s="210"/>
-      <c r="K68" s="210"/>
-      <c r="L68" s="210"/>
-      <c r="M68" s="210"/>
-      <c r="N68" s="210"/>
-      <c r="O68" s="210"/>
-      <c r="P68" s="210"/>
-      <c r="Q68" s="210"/>
+      <c r="B68" s="207"/>
+      <c r="C68" s="207"/>
+      <c r="D68" s="207"/>
+      <c r="E68" s="207"/>
+      <c r="F68" s="207"/>
+      <c r="G68" s="207"/>
+      <c r="H68" s="207"/>
+      <c r="I68" s="207"/>
+      <c r="J68" s="207"/>
+      <c r="K68" s="207"/>
+      <c r="L68" s="207"/>
+      <c r="M68" s="207"/>
+      <c r="N68" s="207"/>
+      <c r="O68" s="207"/>
+      <c r="P68" s="207"/>
+      <c r="Q68" s="207"/>
     </row>
     <row r="69" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="209" t="s">
+      <c r="B69" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="D69" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="E69" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="F69" s="209" t="s">
+      <c r="C69" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="G69" s="209" t="s">
-        <v>135</v>
-      </c>
-      <c r="H69" s="209" t="s">
+      <c r="G69" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="H69" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="I69" s="209" t="s">
-        <v>135</v>
-      </c>
-      <c r="J69" s="209" t="s">
+      <c r="I69" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="J69" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="K69" s="209" t="s">
+      <c r="K69" s="206" t="s">
         <v>81</v>
       </c>
-      <c r="L69" s="209" t="s">
+      <c r="L69" s="206" t="s">
         <v>82</v>
       </c>
-      <c r="M69" s="209" t="s">
+      <c r="M69" s="206" t="s">
         <v>81</v>
       </c>
-      <c r="N69" s="209" t="s">
+      <c r="N69" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="O69" s="209" t="s">
-        <v>135</v>
-      </c>
-      <c r="P69" s="209" t="s">
+      <c r="O69" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="P69" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="Q69" s="209" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" s="238" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A73" s="240" t="s">
+      <c r="Q69" s="206" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" s="230" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A73" s="232" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="213" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A74" s="243" t="s">
+    <row r="74" spans="1:17" s="210" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A74" s="235" t="s">
         <v>35</v>
       </c>
-      <c r="B74" s="243" t="s">
+      <c r="B74" s="235" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="243" t="s">
+      <c r="C74" s="235" t="s">
         <v>74</v>
       </c>
-      <c r="D74" s="243" t="s">
+      <c r="D74" s="235" t="s">
         <v>76</v>
       </c>
-      <c r="E74" s="243" t="s">
+      <c r="E74" s="235" t="s">
         <v>85</v>
       </c>
-      <c r="F74" s="243" t="s">
+      <c r="F74" s="235" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A75" s="239" t="s">
+      <c r="A75" s="231" t="s">
         <v>92</v>
       </c>
-      <c r="B75" s="239" t="s">
+      <c r="B75" s="231" t="s">
         <v>93</v>
       </c>
-      <c r="C75" s="245" t="s">
+      <c r="C75" s="237" t="s">
         <v>105</v>
       </c>
-      <c r="D75" s="245" t="s">
+      <c r="D75" s="237" t="s">
         <v>105</v>
       </c>
-      <c r="E75" s="239" t="s">
+      <c r="E75" s="231" t="s">
         <v>94</v>
       </c>
-      <c r="F75" s="239" t="s">
+      <c r="F75" s="231" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A76" s="239" t="s">
+      <c r="A76" s="231" t="s">
         <v>96</v>
       </c>
-      <c r="B76" s="239" t="s">
+      <c r="B76" s="231" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="239" t="s">
+      <c r="C76" s="231" t="s">
         <v>97</v>
       </c>
-      <c r="D76" s="245" t="s">
-        <v>139</v>
-      </c>
-      <c r="E76" s="239" t="s">
+      <c r="D76" s="237" t="s">
+        <v>137</v>
+      </c>
+      <c r="E76" s="231" t="s">
         <v>99</v>
       </c>
-      <c r="F76" s="239" t="s">
+      <c r="F76" s="231" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A77" s="239" t="s">
+      <c r="A77" s="231" t="s">
         <v>100</v>
       </c>
-      <c r="B77" s="239" t="s">
+      <c r="B77" s="231" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="239" t="s">
+      <c r="C77" s="231" t="s">
         <v>97</v>
       </c>
-      <c r="D77" s="245" t="s">
-        <v>139</v>
-      </c>
-      <c r="E77" s="239" t="s">
+      <c r="D77" s="237" t="s">
+        <v>137</v>
+      </c>
+      <c r="E77" s="231" t="s">
         <v>99</v>
       </c>
-      <c r="F77" s="239" t="s">
+      <c r="F77" s="231" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="239"/>
-      <c r="B78" s="239"/>
-      <c r="C78" s="239"/>
-      <c r="D78" s="239"/>
-      <c r="E78" s="239"/>
-      <c r="F78" s="241" t="s">
+      <c r="A78" s="231"/>
+      <c r="B78" s="231"/>
+      <c r="C78" s="231"/>
+      <c r="D78" s="231"/>
+      <c r="E78" s="231"/>
+      <c r="F78" s="233" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F79" s="242"/>
+      <c r="F79" s="234"/>
     </row>
     <row r="80" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F80" s="242"/>
-    </row>
-    <row r="82" spans="1:6" s="213" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A82" s="244" t="s">
+      <c r="F80" s="234"/>
+    </row>
+    <row r="82" spans="1:6" s="210" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A82" s="236" t="s">
         <v>103</v>
       </c>
-      <c r="B82" s="243" t="s">
+      <c r="B82" s="235" t="s">
         <v>73</v>
       </c>
-      <c r="C82" s="243" t="s">
+      <c r="C82" s="235" t="s">
         <v>74</v>
       </c>
-      <c r="D82" s="243" t="s">
+      <c r="D82" s="235" t="s">
         <v>76</v>
       </c>
-      <c r="E82" s="243" t="s">
+      <c r="E82" s="235" t="s">
         <v>85</v>
       </c>
-      <c r="F82" s="243" t="s">
+      <c r="F82" s="235" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="239" t="s">
+      <c r="A83" s="231" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="239" t="s">
+      <c r="B83" s="231" t="s">
         <v>93</v>
       </c>
-      <c r="C83" s="245" t="s">
+      <c r="C83" s="237" t="s">
         <v>105</v>
       </c>
-      <c r="D83" s="245" t="s">
+      <c r="D83" s="237" t="s">
         <v>105</v>
       </c>
-      <c r="E83" s="239" t="s">
+      <c r="E83" s="231" t="s">
         <v>94</v>
       </c>
-      <c r="F83" s="239" t="s">
+      <c r="F83" s="231" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="239" t="s">
+      <c r="A84" s="231" t="s">
         <v>96</v>
       </c>
-      <c r="B84" s="239" t="s">
+      <c r="B84" s="231" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="239" t="s">
+      <c r="C84" s="231" t="s">
         <v>97</v>
       </c>
-      <c r="D84" s="239" t="s">
+      <c r="D84" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="E84" s="239" t="s">
+      <c r="E84" s="231" t="s">
         <v>99</v>
       </c>
-      <c r="F84" s="239" t="s">
+      <c r="F84" s="231" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="239"/>
-      <c r="B85" s="239"/>
-      <c r="C85" s="239"/>
-      <c r="D85" s="239"/>
-      <c r="E85" s="239"/>
-      <c r="F85" s="209" t="s">
+      <c r="A85" s="231"/>
+      <c r="B85" s="231"/>
+      <c r="C85" s="231"/>
+      <c r="D85" s="231"/>
+      <c r="E85" s="231"/>
+      <c r="F85" s="206" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="240" customFormat="1" ht="17.25" x14ac:dyDescent="0.45"/>
+    <row r="88" spans="1:6" s="232" customFormat="1" ht="17.25" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5116,8 +5614,8 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5706,14 +6204,14 @@
   <sheetData>
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="299" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="299"/>
-      <c r="C2" s="299"/>
-      <c r="D2" s="299"/>
-      <c r="E2" s="299"/>
-      <c r="F2" s="299"/>
+      <c r="A2" s="290" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
         <v>61</v>
@@ -5739,7 +6237,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="254"/>
+      <c r="C4" s="246"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -5756,10 +6254,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="371"/>
-      <c r="D5" s="371"/>
-      <c r="E5" s="371"/>
-      <c r="F5" s="371"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="362"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -5773,10 +6271,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="371"/>
-      <c r="D6" s="371"/>
-      <c r="E6" s="371"/>
-      <c r="F6" s="371"/>
+      <c r="C6" s="362"/>
+      <c r="D6" s="362"/>
+      <c r="E6" s="362"/>
+      <c r="F6" s="362"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -5788,10 +6286,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="28" t="s">
@@ -5805,59 +6303,80 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="372"/>
-      <c r="D8" s="372"/>
-      <c r="E8" s="372"/>
-      <c r="F8" s="372"/>
+      <c r="C8" s="363"/>
+      <c r="D8" s="363"/>
+      <c r="E8" s="363"/>
+      <c r="F8" s="363"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="371"/>
-      <c r="D9" s="371"/>
-      <c r="E9" s="371"/>
-      <c r="F9" s="371"/>
+      <c r="C9" s="362"/>
+      <c r="D9" s="362"/>
+      <c r="E9" s="362"/>
+      <c r="F9" s="362"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="371"/>
-      <c r="D10" s="371"/>
-      <c r="E10" s="371"/>
-      <c r="F10" s="371"/>
-    </row>
-    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="362"/>
+      <c r="D10" s="362"/>
+      <c r="E10" s="362"/>
+      <c r="F10" s="362"/>
+    </row>
+    <row r="11" spans="1:12" ht="8.65" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:12" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="51"/>
       <c r="I12" s="52"/>
-    </row>
-    <row r="13" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K13" s="10" t="s">
+      <c r="K12" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="382" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="384" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="385"/>
-      <c r="D14" s="385"/>
-      <c r="E14" s="385"/>
-      <c r="F14" s="385"/>
-      <c r="G14" s="385"/>
-      <c r="H14" s="385"/>
-      <c r="I14" s="386"/>
+    <row r="13" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="417" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="418" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="419"/>
+      <c r="D13" s="419"/>
+      <c r="E13" s="419"/>
+      <c r="F13" s="419"/>
+      <c r="G13" s="419"/>
+      <c r="H13" s="419"/>
+      <c r="I13" s="420"/>
+      <c r="J13" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K13" s="421"/>
+      <c r="L13" s="422">
+        <f>K13*0.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="373" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="423" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="424"/>
+      <c r="D14" s="424"/>
+      <c r="E14" s="424"/>
+      <c r="F14" s="424"/>
+      <c r="G14" s="424"/>
+      <c r="H14" s="424"/>
+      <c r="I14" s="425"/>
       <c r="J14" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="K14" s="264">
+        <v>114</v>
+      </c>
+      <c r="K14" s="256">
         <v>0</v>
       </c>
       <c r="L14" s="149">
@@ -5865,74 +6384,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="395"/>
-      <c r="B15" s="387" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="388"/>
-      <c r="D15" s="388"/>
-      <c r="E15" s="388"/>
-      <c r="F15" s="388"/>
-      <c r="G15" s="388"/>
-      <c r="H15" s="388"/>
-      <c r="I15" s="388"/>
+    <row r="15" spans="1:12" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="377"/>
+      <c r="B15" s="426" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="427"/>
+      <c r="D15" s="427"/>
+      <c r="E15" s="427"/>
+      <c r="F15" s="427"/>
+      <c r="G15" s="427"/>
+      <c r="H15" s="427"/>
+      <c r="I15" s="428"/>
       <c r="J15" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="265">
+        <v>186</v>
+      </c>
+      <c r="K15" s="257">
         <v>0</v>
       </c>
-      <c r="L15" s="247">
-        <f>K15*0.15</f>
+      <c r="L15" s="239">
+        <f>K15*0.1</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="382" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="391" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="392"/>
-      <c r="D16" s="392"/>
-      <c r="E16" s="392"/>
-      <c r="F16" s="392"/>
-      <c r="G16" s="392"/>
-      <c r="H16" s="392"/>
-      <c r="I16" s="392"/>
+      <c r="A16" s="373" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="429" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="430"/>
+      <c r="D16" s="430"/>
+      <c r="E16" s="430"/>
+      <c r="F16" s="430"/>
+      <c r="G16" s="430"/>
+      <c r="H16" s="430"/>
+      <c r="I16" s="431"/>
       <c r="J16" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="K16" s="266">
+        <v>187</v>
+      </c>
+      <c r="K16" s="258">
         <v>0</v>
       </c>
       <c r="L16" s="147">
-        <f>K16*0.35</f>
+        <f>K16*0.25</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="383"/>
-      <c r="B17" s="393" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="394"/>
-      <c r="D17" s="394"/>
-      <c r="E17" s="394"/>
-      <c r="F17" s="394"/>
-      <c r="G17" s="394"/>
-      <c r="H17" s="394"/>
-      <c r="I17" s="394"/>
+      <c r="A17" s="374"/>
+      <c r="B17" s="432" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="433"/>
+      <c r="D17" s="433"/>
+      <c r="E17" s="433"/>
+      <c r="F17" s="433"/>
+      <c r="G17" s="433"/>
+      <c r="H17" s="433"/>
+      <c r="I17" s="434"/>
       <c r="J17" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="K17" s="267">
+        <v>188</v>
+      </c>
+      <c r="K17" s="259">
         <v>0</v>
       </c>
       <c r="L17" s="145">
-        <f>K17*0.3</f>
+        <f>K17*0.25</f>
         <v>0</v>
       </c>
     </row>
@@ -5983,7 +6502,7 @@
       <c r="I20" s="56"/>
       <c r="J20" s="56"/>
       <c r="K20" s="56"/>
-      <c r="L20" s="274"/>
+      <c r="L20" s="266"/>
       <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -5994,7 +6513,7 @@
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
       <c r="L22" s="57">
-        <f>SUM(L14:L17)-L20</f>
+        <f>SUM(L13:L17)-L20</f>
         <v>0</v>
       </c>
     </row>
@@ -6036,7 +6555,7 @@
       <c r="L30" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
@@ -6048,24 +6567,28 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B13:I13"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2022-01-01</oddFooter>
+    <oddFooter>&amp;R2024-01-23</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr codeName="Blad8"/>
-  <dimension ref="A1:M30"/>
+  <sheetPr codeName="Blad8">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6655,7 +7178,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
@@ -6682,7 +7205,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="254"/>
+      <c r="C4" s="246"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -6699,10 +7222,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="371"/>
-      <c r="D5" s="371"/>
-      <c r="E5" s="371"/>
-      <c r="F5" s="371"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="362"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -6716,10 +7239,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="371"/>
-      <c r="D6" s="371"/>
-      <c r="E6" s="371"/>
-      <c r="F6" s="371"/>
+      <c r="C6" s="362"/>
+      <c r="D6" s="362"/>
+      <c r="E6" s="362"/>
+      <c r="F6" s="362"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -6731,10 +7254,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="28" t="s">
@@ -6748,130 +7271,151 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="372"/>
-      <c r="D8" s="372"/>
-      <c r="E8" s="372"/>
-      <c r="F8" s="372"/>
+      <c r="C8" s="363"/>
+      <c r="D8" s="363"/>
+      <c r="E8" s="363"/>
+      <c r="F8" s="363"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="371"/>
-      <c r="D9" s="371"/>
-      <c r="E9" s="371"/>
-      <c r="F9" s="371"/>
+      <c r="C9" s="362"/>
+      <c r="D9" s="362"/>
+      <c r="E9" s="362"/>
+      <c r="F9" s="362"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="371"/>
-      <c r="D10" s="371"/>
-      <c r="E10" s="371"/>
-      <c r="F10" s="371"/>
-    </row>
-    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="362"/>
+      <c r="D10" s="362"/>
+      <c r="E10" s="362"/>
+      <c r="F10" s="362"/>
+    </row>
+    <row r="11" spans="1:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:12" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="51"/>
       <c r="I12" s="52"/>
-    </row>
-    <row r="13" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K13" s="10" t="s">
+      <c r="K12" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="382" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="384" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="385"/>
-      <c r="D14" s="385"/>
-      <c r="E14" s="385"/>
-      <c r="F14" s="385"/>
-      <c r="G14" s="385"/>
-      <c r="H14" s="385"/>
-      <c r="I14" s="386"/>
+    <row r="13" spans="1:12" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="417" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="418" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="419"/>
+      <c r="D13" s="419"/>
+      <c r="E13" s="419"/>
+      <c r="F13" s="419"/>
+      <c r="G13" s="419"/>
+      <c r="H13" s="419"/>
+      <c r="I13" s="420"/>
+      <c r="J13" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K13" s="421"/>
+      <c r="L13" s="422">
+        <f>K13*0.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="373" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="423" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="424"/>
+      <c r="D14" s="424"/>
+      <c r="E14" s="424"/>
+      <c r="F14" s="424"/>
+      <c r="G14" s="424"/>
+      <c r="H14" s="424"/>
+      <c r="I14" s="425"/>
       <c r="J14" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="K14" s="264">
+        <v>201</v>
+      </c>
+      <c r="K14" s="256">
         <v>0</v>
       </c>
       <c r="L14" s="149">
-        <f>K14*0.2</f>
+        <f>K14*0.1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="395"/>
-      <c r="B15" s="387" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="388"/>
-      <c r="D15" s="388"/>
-      <c r="E15" s="388"/>
-      <c r="F15" s="388"/>
-      <c r="G15" s="388"/>
-      <c r="H15" s="388"/>
-      <c r="I15" s="388"/>
+    <row r="15" spans="1:12" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="377"/>
+      <c r="B15" s="423" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="424"/>
+      <c r="D15" s="424"/>
+      <c r="E15" s="424"/>
+      <c r="F15" s="424"/>
+      <c r="G15" s="424"/>
+      <c r="H15" s="424"/>
+      <c r="I15" s="425"/>
       <c r="J15" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="265">
+        <v>186</v>
+      </c>
+      <c r="K15" s="257">
         <v>0</v>
       </c>
-      <c r="L15" s="247">
-        <f>K15*0.15</f>
+      <c r="L15" s="239">
+        <f>K15*0.1</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="382" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="391" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="392"/>
-      <c r="D16" s="392"/>
-      <c r="E16" s="392"/>
-      <c r="F16" s="392"/>
-      <c r="G16" s="392"/>
-      <c r="H16" s="392"/>
-      <c r="I16" s="392"/>
+      <c r="A16" s="373" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="429" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="430"/>
+      <c r="D16" s="430"/>
+      <c r="E16" s="430"/>
+      <c r="F16" s="430"/>
+      <c r="G16" s="430"/>
+      <c r="H16" s="430"/>
+      <c r="I16" s="431"/>
       <c r="J16" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="K16" s="266">
+        <v>202</v>
+      </c>
+      <c r="K16" s="258">
         <v>0</v>
       </c>
       <c r="L16" s="147">
-        <f>K16*0.35</f>
+        <f>K16*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="383"/>
-      <c r="B17" s="393" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="394"/>
-      <c r="D17" s="394"/>
-      <c r="E17" s="394"/>
-      <c r="F17" s="394"/>
-      <c r="G17" s="394"/>
-      <c r="H17" s="394"/>
-      <c r="I17" s="394"/>
+      <c r="A17" s="374"/>
+      <c r="B17" s="432" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="433"/>
+      <c r="D17" s="433"/>
+      <c r="E17" s="433"/>
+      <c r="F17" s="433"/>
+      <c r="G17" s="433"/>
+      <c r="H17" s="433"/>
+      <c r="I17" s="434"/>
       <c r="J17" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="K17" s="267">
+        <v>139</v>
+      </c>
+      <c r="K17" s="259">
         <v>0</v>
       </c>
       <c r="L17" s="145">
@@ -6926,7 +7470,7 @@
       <c r="I20" s="56"/>
       <c r="J20" s="56"/>
       <c r="K20" s="56"/>
-      <c r="L20" s="274"/>
+      <c r="L20" s="266"/>
       <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -6937,31 +7481,37 @@
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
       <c r="L22" s="57">
-        <f>SUM(L14:L17)-L20</f>
+        <f>SUM(L13:L17)-L20</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="H26" s="7" t="s">
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="H25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-    </row>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F28" s="59"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="63"/>
+    </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F29" s="59"/>
       <c r="H29" s="60"/>
@@ -6970,35 +7520,29 @@
       <c r="K29" s="62"/>
       <c r="L29" s="63"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F30" s="59"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="63"/>
-    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
+  <mergeCells count="12">
+    <mergeCell ref="B13:I13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-06-01</oddFooter>
+    <oddFooter>&amp;R2024-01-23</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7057,7 +7601,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="254"/>
+      <c r="C4" s="246"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -7074,10 +7618,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="371"/>
-      <c r="D5" s="371"/>
-      <c r="E5" s="371"/>
-      <c r="F5" s="371"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="362"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -7091,10 +7635,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="371"/>
-      <c r="D6" s="371"/>
-      <c r="E6" s="371"/>
-      <c r="F6" s="371"/>
+      <c r="C6" s="362"/>
+      <c r="D6" s="362"/>
+      <c r="E6" s="362"/>
+      <c r="F6" s="362"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7102,10 +7646,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
       <c r="J7" s="28" t="s">
         <v>9</v>
       </c>
@@ -7117,30 +7661,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="372"/>
-      <c r="D8" s="372"/>
-      <c r="E8" s="372"/>
-      <c r="F8" s="372"/>
+      <c r="C8" s="363"/>
+      <c r="D8" s="363"/>
+      <c r="E8" s="363"/>
+      <c r="F8" s="363"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="371"/>
-      <c r="D9" s="371"/>
-      <c r="E9" s="371"/>
-      <c r="F9" s="371"/>
+      <c r="C9" s="362"/>
+      <c r="D9" s="362"/>
+      <c r="E9" s="362"/>
+      <c r="F9" s="362"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="371"/>
-      <c r="D10" s="371"/>
-      <c r="E10" s="371"/>
-      <c r="F10" s="371"/>
+      <c r="C10" s="362"/>
+      <c r="D10" s="362"/>
+      <c r="E10" s="362"/>
+      <c r="F10" s="362"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7166,111 +7710,111 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="396" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="397"/>
-      <c r="C15" s="397"/>
-      <c r="D15" s="397"/>
-      <c r="E15" s="397"/>
-      <c r="F15" s="398"/>
+      <c r="A15" s="378" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="379"/>
+      <c r="C15" s="379"/>
+      <c r="D15" s="379"/>
+      <c r="E15" s="379"/>
+      <c r="F15" s="380"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="259"/>
+      <c r="L15" s="251"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="399" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="400"/>
-      <c r="C16" s="400"/>
-      <c r="D16" s="400"/>
-      <c r="E16" s="400"/>
-      <c r="F16" s="401"/>
+      <c r="A16" s="381" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="382"/>
+      <c r="C16" s="382"/>
+      <c r="D16" s="382"/>
+      <c r="E16" s="382"/>
+      <c r="F16" s="383"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="259"/>
+      <c r="L16" s="251"/>
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="224" t="s">
-        <v>138</v>
+      <c r="A17" s="217" t="s">
+        <v>136</v>
       </c>
       <c r="B17" s="88"/>
       <c r="C17" s="88"/>
       <c r="D17" s="88"/>
       <c r="E17" s="88"/>
-      <c r="F17" s="225"/>
+      <c r="F17" s="218"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="259"/>
+      <c r="L17" s="251"/>
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="224" t="s">
-        <v>130</v>
+      <c r="A18" s="217" t="s">
+        <v>128</v>
       </c>
       <c r="B18" s="88"/>
       <c r="C18" s="88"/>
       <c r="D18" s="88"/>
       <c r="E18" s="88"/>
-      <c r="F18" s="225"/>
+      <c r="F18" s="218"/>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="259"/>
+      <c r="L18" s="251"/>
     </row>
     <row r="19" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="224" t="s">
+      <c r="A19" s="217" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
       <c r="D19" s="88"/>
       <c r="E19" s="88"/>
-      <c r="F19" s="225"/>
+      <c r="F19" s="218"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="26"/>
-      <c r="L19" s="259"/>
+      <c r="L19" s="251"/>
     </row>
     <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K20" s="140"/>
       <c r="L20" s="140"/>
     </row>
     <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="405" t="s">
+      <c r="A21" s="387" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="406"/>
-      <c r="C21" s="406"/>
-      <c r="D21" s="406"/>
-      <c r="E21" s="406"/>
-      <c r="F21" s="406"/>
-      <c r="G21" s="406"/>
-      <c r="H21" s="406"/>
-      <c r="I21" s="406"/>
+      <c r="B21" s="388"/>
+      <c r="C21" s="388"/>
+      <c r="D21" s="388"/>
+      <c r="E21" s="388"/>
+      <c r="F21" s="388"/>
+      <c r="G21" s="388"/>
+      <c r="H21" s="388"/>
+      <c r="I21" s="388"/>
       <c r="J21" s="139"/>
       <c r="K21" s="138"/>
       <c r="L21" s="8"/>
       <c r="R21" s="133"/>
     </row>
     <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="413" t="s">
+      <c r="A22" s="395" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="414"/>
+      <c r="B22" s="396"/>
       <c r="C22" s="137"/>
       <c r="D22" s="137"/>
       <c r="E22" s="137"/>
@@ -7284,30 +7828,30 @@
       <c r="R22" s="133"/>
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="409" t="s">
+      <c r="A23" s="391" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="410"/>
-      <c r="C23" s="268"/>
-      <c r="D23" s="407" t="s">
+      <c r="B23" s="392"/>
+      <c r="C23" s="260"/>
+      <c r="D23" s="389" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="408"/>
-      <c r="F23" s="269"/>
-      <c r="G23" s="228" t="s">
+      <c r="E23" s="390"/>
+      <c r="F23" s="261"/>
+      <c r="G23" s="220" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="229">
+      <c r="H23" s="221">
         <f>IFERROR(IF(ROUND(C23/F23,3)&gt;10,10,ROUND(C23/F23,3)),10)</f>
         <v>10</v>
       </c>
-      <c r="I23" s="230" t="s">
+      <c r="I23" s="222" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="228" t="s">
+      <c r="J23" s="220" t="s">
         <v>65</v>
       </c>
-      <c r="K23" s="231">
+      <c r="K23" s="223">
         <f>10-H23</f>
         <v>0</v>
       </c>
@@ -7315,35 +7859,35 @@
       <c r="R23" s="133"/>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="411" t="s">
+      <c r="A24" s="393" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="412"/>
-      <c r="C24" s="412"/>
-      <c r="D24" s="232"/>
-      <c r="E24" s="232"/>
-      <c r="F24" s="232"/>
-      <c r="G24" s="232"/>
-      <c r="H24" s="232"/>
-      <c r="I24" s="232"/>
-      <c r="J24" s="233"/>
-      <c r="K24" s="276"/>
+      <c r="B24" s="394"/>
+      <c r="C24" s="394"/>
+      <c r="D24" s="224"/>
+      <c r="E24" s="224"/>
+      <c r="F24" s="224"/>
+      <c r="G24" s="224"/>
+      <c r="H24" s="224"/>
+      <c r="I24" s="224"/>
+      <c r="J24" s="225"/>
+      <c r="K24" s="268"/>
       <c r="R24" s="133"/>
     </row>
     <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="402" t="s">
+      <c r="A25" s="384" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="403"/>
-      <c r="C25" s="403"/>
-      <c r="D25" s="403"/>
-      <c r="E25" s="403"/>
-      <c r="F25" s="403"/>
-      <c r="G25" s="403"/>
-      <c r="H25" s="403"/>
-      <c r="I25" s="403"/>
-      <c r="J25" s="403"/>
-      <c r="K25" s="404"/>
+      <c r="B25" s="385"/>
+      <c r="C25" s="385"/>
+      <c r="D25" s="385"/>
+      <c r="E25" s="385"/>
+      <c r="F25" s="385"/>
+      <c r="G25" s="385"/>
+      <c r="H25" s="385"/>
+      <c r="I25" s="385"/>
+      <c r="J25" s="385"/>
+      <c r="K25" s="386"/>
       <c r="L25" s="9">
         <f>IFERROR(K23-K24,0)</f>
         <v>0</v>
@@ -7513,7 +8057,7 @@
     <row r="1" spans="1:12" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
@@ -7540,7 +8084,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="254"/>
+      <c r="C4" s="246"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -7557,10 +8101,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="371"/>
-      <c r="D5" s="371"/>
-      <c r="E5" s="371"/>
-      <c r="F5" s="371"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="362"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -7574,10 +8118,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="371"/>
-      <c r="D6" s="371"/>
-      <c r="E6" s="371"/>
-      <c r="F6" s="371"/>
+      <c r="C6" s="362"/>
+      <c r="D6" s="362"/>
+      <c r="E6" s="362"/>
+      <c r="F6" s="362"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7585,10 +8129,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
       <c r="J7" s="28" t="s">
         <v>9</v>
       </c>
@@ -7600,37 +8144,37 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="372"/>
-      <c r="D8" s="372"/>
-      <c r="E8" s="372"/>
-      <c r="F8" s="372"/>
+      <c r="C8" s="363"/>
+      <c r="D8" s="363"/>
+      <c r="E8" s="363"/>
+      <c r="F8" s="363"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="371"/>
-      <c r="D9" s="371"/>
-      <c r="E9" s="371"/>
-      <c r="F9" s="371"/>
+      <c r="C9" s="362"/>
+      <c r="D9" s="362"/>
+      <c r="E9" s="362"/>
+      <c r="F9" s="362"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="371"/>
-      <c r="D10" s="371"/>
-      <c r="E10" s="371"/>
-      <c r="F10" s="371"/>
+      <c r="C10" s="362"/>
+      <c r="D10" s="362"/>
+      <c r="E10" s="362"/>
+      <c r="F10" s="362"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="110" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B14" s="111"/>
       <c r="C14" s="111"/>
@@ -7649,111 +8193,111 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="396" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="397"/>
-      <c r="C15" s="397"/>
-      <c r="D15" s="397"/>
-      <c r="E15" s="397"/>
-      <c r="F15" s="398"/>
+      <c r="A15" s="378" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="379"/>
+      <c r="C15" s="379"/>
+      <c r="D15" s="379"/>
+      <c r="E15" s="379"/>
+      <c r="F15" s="380"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="259"/>
+      <c r="L15" s="251"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="399" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="400"/>
-      <c r="C16" s="400"/>
-      <c r="D16" s="400"/>
-      <c r="E16" s="400"/>
-      <c r="F16" s="401"/>
+      <c r="A16" s="381" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="382"/>
+      <c r="C16" s="382"/>
+      <c r="D16" s="382"/>
+      <c r="E16" s="382"/>
+      <c r="F16" s="383"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="259"/>
+      <c r="L16" s="251"/>
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="224" t="s">
-        <v>138</v>
+      <c r="A17" s="217" t="s">
+        <v>136</v>
       </c>
       <c r="B17" s="88"/>
       <c r="C17" s="88"/>
       <c r="D17" s="88"/>
       <c r="E17" s="88"/>
-      <c r="F17" s="225"/>
+      <c r="F17" s="218"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="259"/>
+      <c r="L17" s="251"/>
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="224" t="s">
-        <v>130</v>
+      <c r="A18" s="217" t="s">
+        <v>128</v>
       </c>
       <c r="B18" s="88"/>
       <c r="C18" s="88"/>
       <c r="D18" s="88"/>
       <c r="E18" s="88"/>
-      <c r="F18" s="225"/>
+      <c r="F18" s="218"/>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="259"/>
+      <c r="L18" s="251"/>
     </row>
     <row r="19" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="224" t="s">
+      <c r="A19" s="217" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
       <c r="D19" s="88"/>
       <c r="E19" s="88"/>
-      <c r="F19" s="225"/>
+      <c r="F19" s="218"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="26"/>
-      <c r="L19" s="259"/>
+      <c r="L19" s="251"/>
     </row>
     <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K20" s="140"/>
       <c r="L20" s="140"/>
     </row>
     <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="405" t="s">
+      <c r="A21" s="387" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="406"/>
-      <c r="C21" s="406"/>
-      <c r="D21" s="406"/>
-      <c r="E21" s="406"/>
-      <c r="F21" s="406"/>
-      <c r="G21" s="406"/>
-      <c r="H21" s="406"/>
-      <c r="I21" s="406"/>
+      <c r="B21" s="388"/>
+      <c r="C21" s="388"/>
+      <c r="D21" s="388"/>
+      <c r="E21" s="388"/>
+      <c r="F21" s="388"/>
+      <c r="G21" s="388"/>
+      <c r="H21" s="388"/>
+      <c r="I21" s="388"/>
       <c r="J21" s="139"/>
       <c r="K21" s="138"/>
       <c r="L21" s="8"/>
       <c r="R21" s="133"/>
     </row>
     <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="413" t="s">
+      <c r="A22" s="395" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="414"/>
+      <c r="B22" s="396"/>
       <c r="C22" s="137"/>
       <c r="D22" s="137"/>
       <c r="E22" s="137"/>
@@ -7767,30 +8311,30 @@
       <c r="R22" s="133"/>
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="409" t="s">
+      <c r="A23" s="391" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="410"/>
-      <c r="C23" s="268"/>
-      <c r="D23" s="407" t="s">
+      <c r="B23" s="392"/>
+      <c r="C23" s="260"/>
+      <c r="D23" s="389" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="408"/>
-      <c r="F23" s="269"/>
-      <c r="G23" s="228" t="s">
+      <c r="E23" s="390"/>
+      <c r="F23" s="261"/>
+      <c r="G23" s="220" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="229">
+      <c r="H23" s="221">
         <f>IFERROR(IF(ROUND(C23/F23,3)&gt;10,10,ROUND(C23/F23,3)),10)</f>
         <v>10</v>
       </c>
-      <c r="I23" s="230" t="s">
+      <c r="I23" s="222" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="228" t="s">
+      <c r="J23" s="220" t="s">
         <v>65</v>
       </c>
-      <c r="K23" s="231">
+      <c r="K23" s="223">
         <f>10-H23</f>
         <v>0</v>
       </c>
@@ -7798,35 +8342,35 @@
       <c r="R23" s="133"/>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="411" t="s">
+      <c r="A24" s="393" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="412"/>
-      <c r="C24" s="412"/>
-      <c r="D24" s="232"/>
-      <c r="E24" s="232"/>
-      <c r="F24" s="232"/>
-      <c r="G24" s="232"/>
-      <c r="H24" s="232"/>
-      <c r="I24" s="232"/>
-      <c r="J24" s="233"/>
-      <c r="K24" s="276"/>
+      <c r="B24" s="394"/>
+      <c r="C24" s="394"/>
+      <c r="D24" s="224"/>
+      <c r="E24" s="224"/>
+      <c r="F24" s="224"/>
+      <c r="G24" s="224"/>
+      <c r="H24" s="224"/>
+      <c r="I24" s="224"/>
+      <c r="J24" s="225"/>
+      <c r="K24" s="268"/>
       <c r="R24" s="133"/>
     </row>
     <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="402" t="s">
+      <c r="A25" s="384" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="403"/>
-      <c r="C25" s="403"/>
-      <c r="D25" s="403"/>
-      <c r="E25" s="403"/>
-      <c r="F25" s="403"/>
-      <c r="G25" s="403"/>
-      <c r="H25" s="403"/>
-      <c r="I25" s="403"/>
-      <c r="J25" s="403"/>
-      <c r="K25" s="404"/>
+      <c r="B25" s="385"/>
+      <c r="C25" s="385"/>
+      <c r="D25" s="385"/>
+      <c r="E25" s="385"/>
+      <c r="F25" s="385"/>
+      <c r="G25" s="385"/>
+      <c r="H25" s="385"/>
+      <c r="I25" s="385"/>
+      <c r="J25" s="385"/>
+      <c r="K25" s="386"/>
       <c r="L25" s="9">
         <f>IFERROR(K23-K24,0)</f>
         <v>0</v>
@@ -7873,7 +8417,7 @@
     </row>
     <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L28" s="127" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7944,6 +8488,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A25:K25"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A21:I21"/>
@@ -7951,12 +8501,6 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8566,17 +9110,17 @@
   <sheetData>
     <row r="1" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="423" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="423"/>
-      <c r="C2" s="423"/>
-      <c r="D2" s="423"/>
-      <c r="E2" s="423"/>
-      <c r="F2" s="423"/>
-      <c r="G2" s="423"/>
-      <c r="H2" s="423"/>
-      <c r="I2" s="423"/>
+      <c r="A2" s="401" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="401"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="401"/>
+      <c r="F2" s="401"/>
+      <c r="G2" s="401"/>
+      <c r="H2" s="401"/>
+      <c r="I2" s="401"/>
       <c r="J2" s="143"/>
       <c r="K2" s="143"/>
       <c r="L2" s="143"/>
@@ -8603,7 +9147,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="254"/>
+      <c r="C4" s="246"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -8621,10 +9165,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="371"/>
-      <c r="D5" s="371"/>
-      <c r="E5" s="371"/>
-      <c r="F5" s="371"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="362"/>
       <c r="G5" s="142"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
@@ -8639,10 +9183,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="371"/>
-      <c r="D6" s="371"/>
-      <c r="E6" s="371"/>
-      <c r="F6" s="371"/>
+      <c r="C6" s="362"/>
+      <c r="D6" s="362"/>
+      <c r="E6" s="362"/>
+      <c r="F6" s="362"/>
       <c r="G6" s="141"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14" t="s">
@@ -8657,10 +9201,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
       <c r="G7" s="151"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -8673,10 +9217,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="372"/>
-      <c r="D8" s="372"/>
-      <c r="E8" s="372"/>
-      <c r="F8" s="372"/>
+      <c r="C8" s="363"/>
+      <c r="D8" s="363"/>
+      <c r="E8" s="363"/>
+      <c r="F8" s="363"/>
       <c r="G8" s="151"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -8691,10 +9235,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="371"/>
-      <c r="D9" s="371"/>
-      <c r="E9" s="371"/>
-      <c r="F9" s="371"/>
+      <c r="C9" s="362"/>
+      <c r="D9" s="362"/>
+      <c r="E9" s="362"/>
+      <c r="F9" s="362"/>
       <c r="G9" s="151"/>
       <c r="H9" s="141"/>
       <c r="I9" s="141"/>
@@ -8707,15 +9251,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="371"/>
-      <c r="D10" s="371"/>
-      <c r="E10" s="371"/>
-      <c r="F10" s="371"/>
+      <c r="C10" s="362"/>
+      <c r="D10" s="362"/>
+      <c r="E10" s="362"/>
+      <c r="F10" s="362"/>
       <c r="G10" s="151"/>
       <c r="H10" s="141"/>
       <c r="I10" s="141"/>
-      <c r="J10" s="419"/>
-      <c r="K10" s="419"/>
+      <c r="J10" s="397"/>
+      <c r="K10" s="397"/>
       <c r="L10" s="152"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -8727,7 +9271,7 @@
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H12" s="150"/>
       <c r="I12" s="150"/>
@@ -8736,80 +9280,80 @@
       <c r="L12" s="150"/>
     </row>
     <row r="13" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="250" t="s">
+      <c r="B13" s="242" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="243" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="402" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="251" t="s">
+      <c r="E13" s="403"/>
+      <c r="F13" s="243" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="424" t="s">
+      <c r="G13" s="243" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="425"/>
-      <c r="F13" s="251" t="s">
+      <c r="H13" s="244" t="s">
         <v>120</v>
       </c>
-      <c r="G13" s="251" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" s="252" t="s">
-        <v>122</v>
-      </c>
-      <c r="I13" s="253" t="s">
+      <c r="I13" s="245" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="428" t="s">
-        <v>125</v>
-      </c>
-      <c r="K13" s="429"/>
+      <c r="J13" s="406" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="407"/>
       <c r="L13" s="150"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="270"/>
-      <c r="C14" s="271"/>
-      <c r="D14" s="426"/>
-      <c r="E14" s="427"/>
-      <c r="F14" s="271"/>
-      <c r="G14" s="271"/>
-      <c r="H14" s="272"/>
-      <c r="I14" s="273">
+      <c r="B14" s="262"/>
+      <c r="C14" s="263"/>
+      <c r="D14" s="404"/>
+      <c r="E14" s="405"/>
+      <c r="F14" s="263"/>
+      <c r="G14" s="263"/>
+      <c r="H14" s="264"/>
+      <c r="I14" s="265">
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="430">
+      <c r="J14" s="408">
         <f>I14/6</f>
         <v>0</v>
       </c>
-      <c r="K14" s="431"/>
+      <c r="K14" s="409"/>
       <c r="L14" s="150"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K15" s="248"/>
+      <c r="K15" s="240"/>
       <c r="L15" s="150"/>
     </row>
     <row r="16" spans="1:12" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K16" s="249" t="s">
+      <c r="K16" s="241" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="246" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="420" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="421"/>
-      <c r="D17" s="421"/>
-      <c r="E17" s="421"/>
-      <c r="F17" s="421"/>
-      <c r="G17" s="421"/>
-      <c r="H17" s="421"/>
-      <c r="I17" s="422"/>
+      <c r="A17" s="238" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="398" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="399"/>
+      <c r="D17" s="399"/>
+      <c r="E17" s="399"/>
+      <c r="F17" s="399"/>
+      <c r="G17" s="399"/>
+      <c r="H17" s="399"/>
+      <c r="I17" s="400"/>
       <c r="J17" s="148" t="s">
-        <v>123</v>
-      </c>
-      <c r="K17" s="234">
+        <v>121</v>
+      </c>
+      <c r="K17" s="226">
         <f>J14</f>
         <v>0</v>
       </c>
@@ -8819,44 +9363,44 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="307" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="415" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" s="416"/>
-      <c r="D18" s="416"/>
-      <c r="E18" s="416"/>
-      <c r="F18" s="416"/>
-      <c r="G18" s="416"/>
-      <c r="H18" s="416"/>
-      <c r="I18" s="416"/>
+      <c r="A18" s="326" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="410" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="411"/>
+      <c r="D18" s="411"/>
+      <c r="E18" s="411"/>
+      <c r="F18" s="411"/>
+      <c r="G18" s="411"/>
+      <c r="H18" s="411"/>
+      <c r="I18" s="411"/>
       <c r="J18" s="148" t="s">
-        <v>127</v>
-      </c>
-      <c r="K18" s="266"/>
+        <v>125</v>
+      </c>
+      <c r="K18" s="258"/>
       <c r="L18" s="147">
         <f>K18*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="308"/>
-      <c r="B19" s="417" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="418"/>
-      <c r="D19" s="418"/>
-      <c r="E19" s="418"/>
-      <c r="F19" s="418"/>
-      <c r="G19" s="418"/>
-      <c r="H19" s="418"/>
-      <c r="I19" s="418"/>
+      <c r="A19" s="327"/>
+      <c r="B19" s="412" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="413"/>
+      <c r="D19" s="413"/>
+      <c r="E19" s="413"/>
+      <c r="F19" s="413"/>
+      <c r="G19" s="413"/>
+      <c r="H19" s="413"/>
+      <c r="I19" s="413"/>
       <c r="J19" s="146" t="s">
-        <v>128</v>
-      </c>
-      <c r="K19" s="267"/>
+        <v>126</v>
+      </c>
+      <c r="K19" s="259"/>
       <c r="L19" s="145">
         <f>K19*0.3</f>
         <v>0</v>
@@ -8907,7 +9451,7 @@
       <c r="I22" s="56"/>
       <c r="J22" s="56"/>
       <c r="K22" s="56"/>
-      <c r="L22" s="274"/>
+      <c r="L22" s="266"/>
     </row>
     <row r="23" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8944,15 +9488,15 @@
       <c r="C28" s="119"/>
       <c r="D28" s="119"/>
       <c r="E28" s="119"/>
-      <c r="F28" s="235"/>
+      <c r="F28" s="227"/>
       <c r="G28" s="150"/>
-      <c r="H28" s="235" t="s">
+      <c r="H28" s="227" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="235"/>
-      <c r="J28" s="235"/>
-      <c r="K28" s="236"/>
-      <c r="L28" s="235"/>
+      <c r="I28" s="227"/>
+      <c r="J28" s="227"/>
+      <c r="K28" s="228"/>
+      <c r="L28" s="227"/>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8974,6 +9518,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A2:I2"/>
@@ -8983,12 +9533,6 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9598,17 +10142,17 @@
   <sheetData>
     <row r="1" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="423" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="423"/>
-      <c r="C2" s="423"/>
-      <c r="D2" s="423"/>
-      <c r="E2" s="423"/>
-      <c r="F2" s="423"/>
-      <c r="G2" s="423"/>
-      <c r="H2" s="423"/>
-      <c r="I2" s="423"/>
+      <c r="A2" s="401" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="401"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="401"/>
+      <c r="F2" s="401"/>
+      <c r="G2" s="401"/>
+      <c r="H2" s="401"/>
+      <c r="I2" s="401"/>
       <c r="J2" s="143"/>
       <c r="K2" s="143"/>
       <c r="L2" s="143"/>
@@ -9635,7 +10179,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="254"/>
+      <c r="C4" s="246"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -9653,10 +10197,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="371"/>
-      <c r="D5" s="371"/>
-      <c r="E5" s="371"/>
-      <c r="F5" s="371"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="362"/>
       <c r="G5" s="142"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
@@ -9671,10 +10215,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="371"/>
-      <c r="D6" s="371"/>
-      <c r="E6" s="371"/>
-      <c r="F6" s="371"/>
+      <c r="C6" s="362"/>
+      <c r="D6" s="362"/>
+      <c r="E6" s="362"/>
+      <c r="F6" s="362"/>
       <c r="G6" s="141"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14" t="s">
@@ -9689,10 +10233,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
       <c r="G7" s="151"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -9705,10 +10249,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="372"/>
-      <c r="D8" s="372"/>
-      <c r="E8" s="372"/>
-      <c r="F8" s="372"/>
+      <c r="C8" s="363"/>
+      <c r="D8" s="363"/>
+      <c r="E8" s="363"/>
+      <c r="F8" s="363"/>
       <c r="G8" s="151"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -9723,10 +10267,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="371"/>
-      <c r="D9" s="371"/>
-      <c r="E9" s="371"/>
-      <c r="F9" s="371"/>
+      <c r="C9" s="362"/>
+      <c r="D9" s="362"/>
+      <c r="E9" s="362"/>
+      <c r="F9" s="362"/>
       <c r="G9" s="151"/>
       <c r="H9" s="141"/>
       <c r="I9" s="141"/>
@@ -9739,15 +10283,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="371"/>
-      <c r="D10" s="371"/>
-      <c r="E10" s="371"/>
-      <c r="F10" s="371"/>
+      <c r="C10" s="362"/>
+      <c r="D10" s="362"/>
+      <c r="E10" s="362"/>
+      <c r="F10" s="362"/>
       <c r="G10" s="151"/>
       <c r="H10" s="141"/>
       <c r="I10" s="141"/>
-      <c r="J10" s="419"/>
-      <c r="K10" s="419"/>
+      <c r="J10" s="397"/>
+      <c r="K10" s="397"/>
       <c r="L10" s="152"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -9759,7 +10303,7 @@
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H12" s="150"/>
       <c r="I12" s="150"/>
@@ -9768,76 +10312,76 @@
       <c r="L12" s="150"/>
     </row>
     <row r="13" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="250" t="s">
+      <c r="B13" s="242" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="243" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="402" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="251" t="s">
+      <c r="E13" s="403"/>
+      <c r="F13" s="243" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="424" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="425"/>
-      <c r="F13" s="251" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="251"/>
-      <c r="H13" s="252"/>
-      <c r="I13" s="253" t="s">
+      <c r="G13" s="243"/>
+      <c r="H13" s="244"/>
+      <c r="I13" s="245" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="428" t="s">
-        <v>125</v>
-      </c>
-      <c r="K13" s="429"/>
+      <c r="J13" s="406" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="407"/>
       <c r="L13" s="150"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="270"/>
-      <c r="C14" s="271"/>
-      <c r="D14" s="426"/>
-      <c r="E14" s="427"/>
-      <c r="F14" s="271"/>
-      <c r="G14" s="296"/>
-      <c r="H14" s="297"/>
-      <c r="I14" s="273">
+      <c r="B14" s="262"/>
+      <c r="C14" s="263"/>
+      <c r="D14" s="404"/>
+      <c r="E14" s="405"/>
+      <c r="F14" s="263"/>
+      <c r="G14" s="288"/>
+      <c r="H14" s="289"/>
+      <c r="I14" s="265">
         <f>SUM(B14:F14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="430">
+      <c r="J14" s="408">
         <f>I14/4</f>
         <v>0</v>
       </c>
-      <c r="K14" s="431"/>
+      <c r="K14" s="409"/>
       <c r="L14" s="150"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K15" s="248"/>
+      <c r="K15" s="240"/>
       <c r="L15" s="150"/>
     </row>
     <row r="16" spans="1:12" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K16" s="249" t="s">
+      <c r="K16" s="241" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="246" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="432" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17" s="433"/>
-      <c r="D17" s="433"/>
-      <c r="E17" s="433"/>
-      <c r="F17" s="433"/>
-      <c r="G17" s="433"/>
-      <c r="H17" s="433"/>
-      <c r="I17" s="434"/>
+      <c r="A17" s="238" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="414" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="415"/>
+      <c r="D17" s="415"/>
+      <c r="E17" s="415"/>
+      <c r="F17" s="415"/>
+      <c r="G17" s="415"/>
+      <c r="H17" s="415"/>
+      <c r="I17" s="416"/>
       <c r="J17" s="148" t="s">
-        <v>123</v>
-      </c>
-      <c r="K17" s="234">
+        <v>121</v>
+      </c>
+      <c r="K17" s="226">
         <f>J14</f>
         <v>0</v>
       </c>
@@ -9847,44 +10391,44 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="307" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="415" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" s="416"/>
-      <c r="D18" s="416"/>
-      <c r="E18" s="416"/>
-      <c r="F18" s="416"/>
-      <c r="G18" s="416"/>
-      <c r="H18" s="416"/>
-      <c r="I18" s="416"/>
+      <c r="A18" s="326" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="410" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="411"/>
+      <c r="D18" s="411"/>
+      <c r="E18" s="411"/>
+      <c r="F18" s="411"/>
+      <c r="G18" s="411"/>
+      <c r="H18" s="411"/>
+      <c r="I18" s="411"/>
       <c r="J18" s="148" t="s">
-        <v>127</v>
-      </c>
-      <c r="K18" s="266"/>
+        <v>125</v>
+      </c>
+      <c r="K18" s="258"/>
       <c r="L18" s="147">
         <f>K18*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="308"/>
-      <c r="B19" s="417" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="418"/>
-      <c r="D19" s="418"/>
-      <c r="E19" s="418"/>
-      <c r="F19" s="418"/>
-      <c r="G19" s="418"/>
-      <c r="H19" s="418"/>
-      <c r="I19" s="418"/>
+      <c r="A19" s="327"/>
+      <c r="B19" s="412" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="413"/>
+      <c r="D19" s="413"/>
+      <c r="E19" s="413"/>
+      <c r="F19" s="413"/>
+      <c r="G19" s="413"/>
+      <c r="H19" s="413"/>
+      <c r="I19" s="413"/>
       <c r="J19" s="146" t="s">
-        <v>128</v>
-      </c>
-      <c r="K19" s="267"/>
+        <v>126</v>
+      </c>
+      <c r="K19" s="259"/>
       <c r="L19" s="145">
         <f>K19*0.3</f>
         <v>0</v>
@@ -9935,7 +10479,7 @@
       <c r="I22" s="56"/>
       <c r="J22" s="56"/>
       <c r="K22" s="56"/>
-      <c r="L22" s="274"/>
+      <c r="L22" s="266"/>
     </row>
     <row r="23" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9972,15 +10516,15 @@
       <c r="C28" s="119"/>
       <c r="D28" s="119"/>
       <c r="E28" s="119"/>
-      <c r="F28" s="235"/>
+      <c r="F28" s="227"/>
       <c r="G28" s="150"/>
-      <c r="H28" s="235" t="s">
+      <c r="H28" s="227" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="235"/>
-      <c r="J28" s="235"/>
-      <c r="K28" s="236"/>
-      <c r="L28" s="235"/>
+      <c r="I28" s="227"/>
+      <c r="J28" s="227"/>
+      <c r="K28" s="228"/>
+      <c r="L28" s="227"/>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10002,6 +10546,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B19:I19"/>
@@ -10012,11 +10561,6 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10035,7 +10579,7 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showZeros="0" showRuler="0" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -10068,7 +10612,7 @@
       </c>
       <c r="J1" s="157"/>
       <c r="K1" s="158"/>
-      <c r="L1" s="278"/>
+      <c r="L1" s="270"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -10080,51 +10624,51 @@
       </c>
       <c r="J2" s="157"/>
       <c r="K2" s="158"/>
-      <c r="L2" s="278"/>
+      <c r="L2" s="270"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="160" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="160"/>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="279"/>
+      <c r="C3" s="352"/>
+      <c r="D3" s="352"/>
+      <c r="E3" s="271"/>
+      <c r="F3" s="271"/>
       <c r="H3" s="155"/>
       <c r="I3" s="156" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="157"/>
       <c r="K3" s="158"/>
-      <c r="L3" s="278"/>
+      <c r="L3" s="270"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="136" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="136"/>
-      <c r="C4" s="300"/>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="300"/>
+      <c r="C4" s="351"/>
+      <c r="D4" s="351"/>
+      <c r="E4" s="351"/>
+      <c r="F4" s="351"/>
       <c r="H4" s="155"/>
       <c r="I4" s="156" t="s">
         <v>11</v>
       </c>
       <c r="J4" s="162"/>
       <c r="K4" s="158"/>
-      <c r="L4" s="278"/>
+      <c r="L4" s="270"/>
     </row>
     <row r="5" spans="1:12" s="113" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="136" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="300"/>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
+      <c r="C5" s="351"/>
+      <c r="D5" s="351"/>
+      <c r="E5" s="351"/>
+      <c r="F5" s="351"/>
       <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10132,25 +10676,25 @@
         <v>20</v>
       </c>
       <c r="B6" s="136"/>
-      <c r="C6" s="280"/>
-      <c r="D6" s="280"/>
-      <c r="E6" s="280"/>
-      <c r="F6" s="280"/>
+      <c r="C6" s="272"/>
+      <c r="D6" s="272"/>
+      <c r="E6" s="272"/>
+      <c r="F6" s="272"/>
       <c r="J6" s="163" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="31"/>
-      <c r="L6" s="281"/>
+      <c r="L6" s="273"/>
     </row>
     <row r="7" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="160" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="160"/>
-      <c r="C7" s="300"/>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
+      <c r="C7" s="351"/>
+      <c r="D7" s="351"/>
+      <c r="E7" s="351"/>
+      <c r="F7" s="351"/>
       <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10158,10 +10702,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="136"/>
-      <c r="C8" s="300"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="300"/>
-      <c r="F8" s="300"/>
+      <c r="C8" s="351"/>
+      <c r="D8" s="351"/>
+      <c r="E8" s="351"/>
+      <c r="F8" s="351"/>
       <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10169,267 +10713,267 @@
         <v>7</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="300"/>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="300"/>
+      <c r="C9" s="351"/>
+      <c r="D9" s="351"/>
+      <c r="E9" s="351"/>
+      <c r="F9" s="351"/>
       <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="282"/>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
+      <c r="C10" s="274"/>
+      <c r="D10" s="274"/>
+      <c r="E10" s="274"/>
+      <c r="F10" s="274"/>
       <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:12" s="113" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="282"/>
-      <c r="D11" s="282"/>
-      <c r="E11" s="282"/>
-      <c r="F11" s="282"/>
-      <c r="H11" s="302" t="s">
+      <c r="C11" s="274"/>
+      <c r="D11" s="274"/>
+      <c r="E11" s="274"/>
+      <c r="F11" s="274"/>
+      <c r="H11" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="303"/>
-      <c r="J11" s="304" t="s">
+      <c r="I11" s="322"/>
+      <c r="J11" s="323" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="305"/>
-      <c r="L11" s="306"/>
+      <c r="K11" s="324"/>
+      <c r="L11" s="325"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="307" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="311" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="312"/>
-      <c r="D12" s="312"/>
-      <c r="E12" s="312"/>
-      <c r="F12" s="312"/>
-      <c r="G12" s="313"/>
-      <c r="H12" s="320"/>
-      <c r="I12" s="321"/>
-      <c r="J12" s="326" t="s">
-        <v>157</v>
-      </c>
-      <c r="K12" s="329">
+      <c r="A12" s="326" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="330" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="331"/>
+      <c r="D12" s="331"/>
+      <c r="E12" s="331"/>
+      <c r="F12" s="331"/>
+      <c r="G12" s="332"/>
+      <c r="H12" s="339"/>
+      <c r="I12" s="340"/>
+      <c r="J12" s="345" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="347">
         <f>SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
-      <c r="L12" s="332">
+      <c r="L12" s="310">
         <f>ROUND(K12*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="308"/>
-      <c r="B13" s="314"/>
-      <c r="C13" s="315"/>
-      <c r="D13" s="315"/>
-      <c r="E13" s="315"/>
-      <c r="F13" s="315"/>
-      <c r="G13" s="316"/>
-      <c r="H13" s="322"/>
-      <c r="I13" s="323"/>
-      <c r="J13" s="327"/>
-      <c r="K13" s="330"/>
-      <c r="L13" s="333"/>
+      <c r="A13" s="327"/>
+      <c r="B13" s="333"/>
+      <c r="C13" s="334"/>
+      <c r="D13" s="334"/>
+      <c r="E13" s="334"/>
+      <c r="F13" s="334"/>
+      <c r="G13" s="335"/>
+      <c r="H13" s="341"/>
+      <c r="I13" s="342"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="348"/>
+      <c r="L13" s="311"/>
     </row>
     <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="308"/>
-      <c r="B14" s="314"/>
-      <c r="C14" s="315"/>
-      <c r="D14" s="315"/>
-      <c r="E14" s="315"/>
-      <c r="F14" s="315"/>
-      <c r="G14" s="316"/>
-      <c r="H14" s="322"/>
-      <c r="I14" s="323"/>
-      <c r="J14" s="327"/>
-      <c r="K14" s="330"/>
-      <c r="L14" s="333"/>
+      <c r="A14" s="327"/>
+      <c r="B14" s="333"/>
+      <c r="C14" s="334"/>
+      <c r="D14" s="334"/>
+      <c r="E14" s="334"/>
+      <c r="F14" s="334"/>
+      <c r="G14" s="335"/>
+      <c r="H14" s="341"/>
+      <c r="I14" s="342"/>
+      <c r="J14" s="319"/>
+      <c r="K14" s="348"/>
+      <c r="L14" s="311"/>
     </row>
     <row r="15" spans="1:12" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="308"/>
-      <c r="B15" s="317"/>
-      <c r="C15" s="318"/>
-      <c r="D15" s="318"/>
-      <c r="E15" s="318"/>
-      <c r="F15" s="318"/>
-      <c r="G15" s="319"/>
-      <c r="H15" s="322"/>
-      <c r="I15" s="323"/>
-      <c r="J15" s="327"/>
-      <c r="K15" s="330"/>
-      <c r="L15" s="333"/>
+      <c r="A15" s="327"/>
+      <c r="B15" s="336"/>
+      <c r="C15" s="337"/>
+      <c r="D15" s="337"/>
+      <c r="E15" s="337"/>
+      <c r="F15" s="337"/>
+      <c r="G15" s="338"/>
+      <c r="H15" s="341"/>
+      <c r="I15" s="342"/>
+      <c r="J15" s="319"/>
+      <c r="K15" s="348"/>
+      <c r="L15" s="311"/>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="309"/>
-      <c r="B16" s="283" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="284" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="285" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="284" t="s">
-        <v>161</v>
-      </c>
-      <c r="F16" s="284" t="s">
-        <v>162</v>
-      </c>
-      <c r="G16" s="286" t="s">
-        <v>163</v>
-      </c>
-      <c r="H16" s="322"/>
-      <c r="I16" s="323"/>
-      <c r="J16" s="327"/>
-      <c r="K16" s="330"/>
-      <c r="L16" s="333"/>
+      <c r="A16" s="328"/>
+      <c r="B16" s="275" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="276" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="277" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="276" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="276" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="278" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="341"/>
+      <c r="I16" s="342"/>
+      <c r="J16" s="319"/>
+      <c r="K16" s="348"/>
+      <c r="L16" s="311"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="310"/>
-      <c r="B17" s="287"/>
-      <c r="C17" s="288">
+      <c r="A17" s="329"/>
+      <c r="B17" s="279"/>
+      <c r="C17" s="280">
         <v>0</v>
       </c>
-      <c r="D17" s="288"/>
-      <c r="E17" s="288"/>
-      <c r="F17" s="288"/>
-      <c r="G17" s="289"/>
-      <c r="H17" s="324"/>
-      <c r="I17" s="325"/>
-      <c r="J17" s="328"/>
-      <c r="K17" s="331"/>
-      <c r="L17" s="334"/>
+      <c r="D17" s="280"/>
+      <c r="E17" s="280"/>
+      <c r="F17" s="280"/>
+      <c r="G17" s="281"/>
+      <c r="H17" s="343"/>
+      <c r="I17" s="344"/>
+      <c r="J17" s="346"/>
+      <c r="K17" s="349"/>
+      <c r="L17" s="350"/>
     </row>
     <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="337" t="s">
+      <c r="A18" s="293" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="340" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="340"/>
-      <c r="D18" s="340"/>
-      <c r="E18" s="340"/>
-      <c r="F18" s="340"/>
-      <c r="G18" s="340"/>
-      <c r="H18" s="343"/>
-      <c r="I18" s="344"/>
-      <c r="J18" s="349" t="s">
+      <c r="B18" s="296" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="296"/>
+      <c r="D18" s="296"/>
+      <c r="E18" s="296"/>
+      <c r="F18" s="296"/>
+      <c r="G18" s="296"/>
+      <c r="H18" s="299"/>
+      <c r="I18" s="300"/>
+      <c r="J18" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="352">
+      <c r="K18" s="308">
         <v>0</v>
       </c>
-      <c r="L18" s="332">
+      <c r="L18" s="310">
         <f>IF(K18-K21 &gt;=0, (ROUND((K18-K21)*0.25,3)),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="338"/>
-      <c r="B19" s="341"/>
-      <c r="C19" s="341"/>
-      <c r="D19" s="341"/>
-      <c r="E19" s="341"/>
-      <c r="F19" s="341"/>
-      <c r="G19" s="341"/>
-      <c r="H19" s="345"/>
-      <c r="I19" s="346"/>
-      <c r="J19" s="350"/>
-      <c r="K19" s="353"/>
-      <c r="L19" s="333"/>
+      <c r="A19" s="294"/>
+      <c r="B19" s="297"/>
+      <c r="C19" s="297"/>
+      <c r="D19" s="297"/>
+      <c r="E19" s="297"/>
+      <c r="F19" s="297"/>
+      <c r="G19" s="297"/>
+      <c r="H19" s="301"/>
+      <c r="I19" s="302"/>
+      <c r="J19" s="306"/>
+      <c r="K19" s="309"/>
+      <c r="L19" s="311"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="338"/>
-      <c r="B20" s="342"/>
-      <c r="C20" s="342"/>
-      <c r="D20" s="342"/>
-      <c r="E20" s="342"/>
-      <c r="F20" s="342"/>
-      <c r="G20" s="341"/>
-      <c r="H20" s="345"/>
-      <c r="I20" s="346"/>
-      <c r="J20" s="350"/>
-      <c r="K20" s="353"/>
-      <c r="L20" s="333"/>
+      <c r="A20" s="294"/>
+      <c r="B20" s="298"/>
+      <c r="C20" s="298"/>
+      <c r="D20" s="298"/>
+      <c r="E20" s="298"/>
+      <c r="F20" s="298"/>
+      <c r="G20" s="297"/>
+      <c r="H20" s="301"/>
+      <c r="I20" s="302"/>
+      <c r="J20" s="306"/>
+      <c r="K20" s="309"/>
+      <c r="L20" s="311"/>
     </row>
     <row r="21" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="339"/>
-      <c r="B21" s="290" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" s="291">
+      <c r="A21" s="295"/>
+      <c r="B21" s="282" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="283">
         <v>0</v>
       </c>
-      <c r="D21" s="291"/>
-      <c r="E21" s="291"/>
-      <c r="F21" s="291"/>
-      <c r="G21" s="291"/>
-      <c r="H21" s="347"/>
-      <c r="I21" s="348"/>
-      <c r="J21" s="351"/>
-      <c r="K21" s="292">
+      <c r="D21" s="283"/>
+      <c r="E21" s="283"/>
+      <c r="F21" s="283"/>
+      <c r="G21" s="283"/>
+      <c r="H21" s="303"/>
+      <c r="I21" s="304"/>
+      <c r="J21" s="307"/>
+      <c r="K21" s="284">
         <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="354"/>
+      <c r="L21" s="312"/>
     </row>
     <row r="22" spans="1:12" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="337" t="s">
+      <c r="A22" s="293" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="340" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="355"/>
-      <c r="D22" s="355"/>
-      <c r="E22" s="355"/>
-      <c r="F22" s="355"/>
-      <c r="G22" s="356"/>
-      <c r="H22" s="357"/>
-      <c r="I22" s="358"/>
-      <c r="J22" s="327" t="s">
-        <v>167</v>
-      </c>
-      <c r="K22" s="293">
+      <c r="B22" s="296" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="313"/>
+      <c r="D22" s="313"/>
+      <c r="E22" s="313"/>
+      <c r="F22" s="313"/>
+      <c r="G22" s="314"/>
+      <c r="H22" s="315"/>
+      <c r="I22" s="316"/>
+      <c r="J22" s="319" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" s="285">
         <v>0</v>
       </c>
-      <c r="L22" s="333">
+      <c r="L22" s="311">
         <f>IF((K22-K23)&gt;=0,(ROUND((K22-K23)*0.15,3)),0.000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="339"/>
-      <c r="B23" s="294" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="291">
+      <c r="A23" s="295"/>
+      <c r="B23" s="286" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="283">
         <v>0</v>
       </c>
-      <c r="D23" s="291">
+      <c r="D23" s="283">
         <v>0</v>
       </c>
-      <c r="E23" s="291">
+      <c r="E23" s="283">
         <v>0</v>
       </c>
-      <c r="F23" s="291"/>
-      <c r="G23" s="291"/>
-      <c r="H23" s="359"/>
-      <c r="I23" s="360"/>
-      <c r="J23" s="361"/>
-      <c r="K23" s="292">
+      <c r="F23" s="283"/>
+      <c r="G23" s="283"/>
+      <c r="H23" s="317"/>
+      <c r="I23" s="318"/>
+      <c r="J23" s="320"/>
+      <c r="K23" s="284">
         <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="354"/>
+      <c r="L23" s="312"/>
     </row>
     <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="21"/>
@@ -10446,11 +10990,11 @@
         <v>3</v>
       </c>
       <c r="J25" s="23"/>
-      <c r="K25" s="335">
+      <c r="K25" s="291">
         <f>SUM(L12:L22)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="336"/>
+      <c r="L25" s="292"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10460,9 +11004,9 @@
         <v>18</v>
       </c>
       <c r="B29" s="58"/>
-      <c r="C29" s="295"/>
-      <c r="D29" s="295"/>
-      <c r="E29" s="295"/>
+      <c r="C29" s="287"/>
+      <c r="D29" s="287"/>
+      <c r="E29" s="287"/>
       <c r="H29" s="7" t="s">
         <v>19</v>
       </c>
@@ -10473,6 +11017,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:G15"/>
+    <mergeCell ref="H12:I17"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="L12:L17"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:G20"/>
@@ -10485,20 +11043,6 @@
     <mergeCell ref="H22:I23"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="L22:L23"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:G15"/>
-    <mergeCell ref="H12:I17"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="K12:K17"/>
-    <mergeCell ref="L12:L17"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -10518,7 +11062,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -10541,7 +11085,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="154" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H2" s="155"/>
       <c r="I2" s="156" t="s">
@@ -10553,7 +11097,7 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="159" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H3" s="155"/>
       <c r="I3" s="156" t="s">
@@ -10568,7 +11112,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="160"/>
-      <c r="C4" s="255"/>
+      <c r="C4" s="247"/>
       <c r="D4" s="161"/>
       <c r="E4" s="161"/>
       <c r="F4" s="161"/>
@@ -10585,10 +11129,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="365"/>
-      <c r="D5" s="365"/>
-      <c r="E5" s="365"/>
-      <c r="F5" s="365"/>
+      <c r="C5" s="356"/>
+      <c r="D5" s="356"/>
+      <c r="E5" s="356"/>
+      <c r="F5" s="356"/>
       <c r="H5" s="155"/>
       <c r="I5" s="156" t="s">
         <v>11</v>
@@ -10602,10 +11146,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="136"/>
-      <c r="C6" s="365"/>
-      <c r="D6" s="365"/>
-      <c r="E6" s="365"/>
-      <c r="F6" s="365"/>
+      <c r="C6" s="356"/>
+      <c r="D6" s="356"/>
+      <c r="E6" s="356"/>
+      <c r="F6" s="356"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10628,30 +11172,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="160"/>
-      <c r="C8" s="365"/>
-      <c r="D8" s="365"/>
-      <c r="E8" s="365"/>
-      <c r="F8" s="365"/>
+      <c r="C8" s="356"/>
+      <c r="D8" s="356"/>
+      <c r="E8" s="356"/>
+      <c r="F8" s="356"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="365"/>
-      <c r="D9" s="365"/>
-      <c r="E9" s="365"/>
-      <c r="F9" s="365"/>
+      <c r="C9" s="356"/>
+      <c r="D9" s="356"/>
+      <c r="E9" s="356"/>
+      <c r="F9" s="356"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="136" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="136"/>
-      <c r="C10" s="365"/>
-      <c r="D10" s="365"/>
-      <c r="E10" s="365"/>
-      <c r="F10" s="365"/>
+      <c r="C10" s="356"/>
+      <c r="D10" s="356"/>
+      <c r="E10" s="356"/>
+      <c r="F10" s="356"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10661,130 +11205,130 @@
       <c r="B14" s="136"/>
       <c r="C14" s="195"/>
       <c r="D14" s="173"/>
-      <c r="E14" s="226" t="s">
+      <c r="E14" s="219" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="197"/>
-      <c r="G14" s="197"/>
-      <c r="H14" s="197"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="196"/>
       <c r="I14" s="136"/>
       <c r="J14" s="136"/>
       <c r="K14" s="173"/>
-      <c r="L14" s="198" t="s">
+      <c r="L14" s="197" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="220" t="s">
+      <c r="A15" s="436" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="187"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="199"/>
-      <c r="E15" s="227"/>
-      <c r="F15" s="363"/>
-      <c r="G15" s="363"/>
-      <c r="H15" s="363"/>
-      <c r="I15" s="363"/>
-      <c r="J15" s="363"/>
-      <c r="K15" s="364"/>
-      <c r="L15" s="258"/>
+      <c r="B15" s="437"/>
+      <c r="C15" s="437"/>
+      <c r="D15" s="438"/>
+      <c r="E15" s="353"/>
+      <c r="F15" s="354"/>
+      <c r="G15" s="354"/>
+      <c r="H15" s="354"/>
+      <c r="I15" s="354"/>
+      <c r="J15" s="354"/>
+      <c r="K15" s="355"/>
+      <c r="L15" s="250"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="220" t="s">
+      <c r="A16" s="436" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="187"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="199"/>
-      <c r="E16" s="227"/>
-      <c r="F16" s="363"/>
-      <c r="G16" s="363"/>
-      <c r="H16" s="363"/>
-      <c r="I16" s="363"/>
-      <c r="J16" s="363"/>
-      <c r="K16" s="364"/>
-      <c r="L16" s="258"/>
+      <c r="B16" s="437"/>
+      <c r="C16" s="437"/>
+      <c r="D16" s="438"/>
+      <c r="E16" s="353"/>
+      <c r="F16" s="354"/>
+      <c r="G16" s="354"/>
+      <c r="H16" s="354"/>
+      <c r="I16" s="354"/>
+      <c r="J16" s="354"/>
+      <c r="K16" s="355"/>
+      <c r="L16" s="250"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="218" t="s">
+      <c r="A17" s="442" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="219"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="199"/>
-      <c r="E17" s="227"/>
-      <c r="F17" s="363"/>
-      <c r="G17" s="363"/>
-      <c r="H17" s="363"/>
-      <c r="I17" s="363"/>
-      <c r="J17" s="363"/>
-      <c r="K17" s="364"/>
-      <c r="L17" s="258"/>
+      <c r="B17" s="443"/>
+      <c r="C17" s="443"/>
+      <c r="D17" s="444"/>
+      <c r="E17" s="353"/>
+      <c r="F17" s="354"/>
+      <c r="G17" s="354"/>
+      <c r="H17" s="354"/>
+      <c r="I17" s="354"/>
+      <c r="J17" s="354"/>
+      <c r="K17" s="355"/>
+      <c r="L17" s="250"/>
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="220" t="s">
+      <c r="A18" s="436" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="187"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="199"/>
-      <c r="E18" s="227"/>
-      <c r="F18" s="363"/>
-      <c r="G18" s="363"/>
-      <c r="H18" s="363"/>
-      <c r="I18" s="363"/>
-      <c r="J18" s="363"/>
-      <c r="K18" s="364"/>
-      <c r="L18" s="258"/>
+      <c r="B18" s="437"/>
+      <c r="C18" s="437"/>
+      <c r="D18" s="438"/>
+      <c r="E18" s="353"/>
+      <c r="F18" s="354"/>
+      <c r="G18" s="354"/>
+      <c r="H18" s="354"/>
+      <c r="I18" s="354"/>
+      <c r="J18" s="354"/>
+      <c r="K18" s="355"/>
+      <c r="L18" s="250"/>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="220" t="s">
-        <v>182</v>
-      </c>
-      <c r="B19" s="187"/>
-      <c r="C19" s="187"/>
-      <c r="D19" s="187"/>
-      <c r="E19" s="366"/>
-      <c r="F19" s="366"/>
-      <c r="G19" s="366"/>
-      <c r="H19" s="366"/>
-      <c r="I19" s="366"/>
-      <c r="J19" s="366"/>
-      <c r="K19" s="367"/>
-      <c r="L19" s="258"/>
+      <c r="A19" s="436" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="437"/>
+      <c r="C19" s="437"/>
+      <c r="D19" s="438"/>
+      <c r="E19" s="357"/>
+      <c r="F19" s="357"/>
+      <c r="G19" s="357"/>
+      <c r="H19" s="357"/>
+      <c r="I19" s="357"/>
+      <c r="J19" s="357"/>
+      <c r="K19" s="358"/>
+      <c r="L19" s="250"/>
     </row>
     <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="181" t="s">
+      <c r="A20" s="439" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="182"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="362"/>
-      <c r="F20" s="363"/>
-      <c r="G20" s="363"/>
-      <c r="H20" s="363"/>
-      <c r="I20" s="363"/>
-      <c r="J20" s="363"/>
-      <c r="K20" s="364"/>
-      <c r="L20" s="258"/>
+      <c r="B20" s="440"/>
+      <c r="C20" s="440"/>
+      <c r="D20" s="441"/>
+      <c r="E20" s="353"/>
+      <c r="F20" s="354"/>
+      <c r="G20" s="354"/>
+      <c r="H20" s="354"/>
+      <c r="I20" s="354"/>
+      <c r="J20" s="354"/>
+      <c r="K20" s="355"/>
+      <c r="L20" s="250"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="181" t="s">
-        <v>183</v>
-      </c>
-      <c r="B21" s="182"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="197"/>
-      <c r="G21" s="363"/>
-      <c r="H21" s="363"/>
-      <c r="I21" s="363"/>
-      <c r="J21" s="363"/>
-      <c r="K21" s="364"/>
-      <c r="L21" s="258"/>
+      <c r="A21" s="436" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="437"/>
+      <c r="C21" s="437"/>
+      <c r="D21" s="438"/>
+      <c r="E21" s="436"/>
+      <c r="F21" s="437"/>
+      <c r="G21" s="437"/>
+      <c r="H21" s="437"/>
+      <c r="I21" s="437"/>
+      <c r="J21" s="437"/>
+      <c r="K21" s="438"/>
+      <c r="L21" s="250"/>
     </row>
     <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K22" s="140"/>
@@ -10792,11 +11336,11 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I23" s="115"/>
-      <c r="J23" s="201"/>
+      <c r="J23" s="198"/>
       <c r="K23" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="L23" s="198">
+      <c r="L23" s="197">
         <f>SUM(L15:L21)</f>
         <v>0</v>
       </c>
@@ -10805,25 +11349,25 @@
       <c r="K24" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="201"/>
+      <c r="L24" s="198"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F25" s="126"/>
       <c r="I25" s="115"/>
-      <c r="J25" s="202"/>
+      <c r="J25" s="199"/>
     </row>
     <row r="26" spans="1:13" s="179" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H26" s="203"/>
+      <c r="H26" s="200"/>
       <c r="I26" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="204"/>
-      <c r="K26" s="205"/>
-      <c r="L26" s="206">
+      <c r="J26" s="201"/>
+      <c r="K26" s="202"/>
+      <c r="L26" s="203">
         <f>ROUND(L23/7,3)</f>
         <v>0</v>
       </c>
-      <c r="M26" s="207"/>
+      <c r="M26" s="204"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F27" s="118"/>
@@ -10831,7 +11375,7 @@
       <c r="I27" s="117"/>
       <c r="J27" s="116"/>
       <c r="K27" s="115"/>
-      <c r="L27" s="208"/>
+      <c r="L27" s="205"/>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F28" s="118"/>
@@ -10839,7 +11383,7 @@
       <c r="I28" s="117"/>
       <c r="J28" s="116"/>
       <c r="K28" s="115"/>
-      <c r="L28" s="208"/>
+      <c r="L28" s="205"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F29" s="118"/>
@@ -10847,7 +11391,7 @@
       <c r="I29" s="117"/>
       <c r="J29" s="116"/>
       <c r="K29" s="115"/>
-      <c r="L29" s="208"/>
+      <c r="L29" s="205"/>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F30" s="118"/>
@@ -10855,7 +11399,7 @@
       <c r="I30" s="117"/>
       <c r="J30" s="116"/>
       <c r="K30" s="115"/>
-      <c r="L30" s="208"/>
+      <c r="L30" s="205"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F31" s="118"/>
@@ -10863,7 +11407,7 @@
       <c r="I31" s="117"/>
       <c r="J31" s="116"/>
       <c r="K31" s="115"/>
-      <c r="L31" s="208"/>
+      <c r="L31" s="205"/>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="160" t="s">
@@ -10888,28 +11432,35 @@
       <c r="I33" s="117"/>
       <c r="J33" s="116"/>
       <c r="K33" s="115"/>
-      <c r="L33" s="208"/>
+      <c r="L33" s="205"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="19">
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="E18:K18"/>
     <mergeCell ref="E20:K20"/>
-    <mergeCell ref="G21:K21"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="F18:K18"/>
     <mergeCell ref="E19:K19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-06-01</oddFooter>
+    <oddFooter>&amp;R2024-01-23</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -10923,7 +11474,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -10947,7 +11498,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
@@ -10959,7 +11510,7 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
@@ -10974,7 +11525,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="254"/>
+      <c r="C4" s="246"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -10991,10 +11542,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="371"/>
-      <c r="D5" s="371"/>
-      <c r="E5" s="371"/>
-      <c r="F5" s="371"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="362"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -11008,10 +11559,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="371"/>
-      <c r="D6" s="371"/>
-      <c r="E6" s="371"/>
-      <c r="F6" s="371"/>
+      <c r="C6" s="362"/>
+      <c r="D6" s="362"/>
+      <c r="E6" s="362"/>
+      <c r="F6" s="362"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11019,10 +11570,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
       <c r="J7" s="28" t="s">
         <v>9</v>
       </c>
@@ -11034,30 +11585,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="372"/>
-      <c r="D8" s="372"/>
-      <c r="E8" s="372"/>
-      <c r="F8" s="372"/>
+      <c r="C8" s="363"/>
+      <c r="D8" s="363"/>
+      <c r="E8" s="363"/>
+      <c r="F8" s="363"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="371"/>
-      <c r="D9" s="371"/>
-      <c r="E9" s="371"/>
-      <c r="F9" s="371"/>
+      <c r="C9" s="362"/>
+      <c r="D9" s="362"/>
+      <c r="E9" s="362"/>
+      <c r="F9" s="362"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="371"/>
-      <c r="D10" s="371"/>
-      <c r="E10" s="371"/>
-      <c r="F10" s="371"/>
+      <c r="C10" s="362"/>
+      <c r="D10" s="362"/>
+      <c r="E10" s="362"/>
+      <c r="F10" s="362"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11081,7 +11632,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="224" t="s">
+      <c r="A15" s="217" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="88"/>
@@ -11094,10 +11645,10 @@
       <c r="I15" s="33"/>
       <c r="J15" s="11"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="259"/>
+      <c r="L15" s="251"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="224" t="s">
+      <c r="A16" s="217" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="88"/>
@@ -11110,13 +11661,13 @@
       <c r="I16" s="33"/>
       <c r="J16" s="11"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="259"/>
+      <c r="L16" s="251"/>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="221" t="s">
+      <c r="A17" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="222"/>
+      <c r="B17" s="216"/>
       <c r="C17" s="106"/>
       <c r="D17" s="106"/>
       <c r="E17" s="34"/>
@@ -11126,10 +11677,10 @@
       <c r="I17" s="33"/>
       <c r="J17" s="11"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="259"/>
+      <c r="L17" s="251"/>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="224" t="s">
+      <c r="A18" s="217" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="88"/>
@@ -11142,10 +11693,10 @@
       <c r="I18" s="33"/>
       <c r="J18" s="11"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="259"/>
+      <c r="L18" s="251"/>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="224" t="s">
+      <c r="A19" s="217" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="88"/>
@@ -11158,10 +11709,10 @@
       <c r="I19" s="33"/>
       <c r="J19" s="11"/>
       <c r="K19" s="26"/>
-      <c r="L19" s="259"/>
+      <c r="L19" s="251"/>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="224" t="s">
+      <c r="A20" s="217" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="88"/>
@@ -11174,10 +11725,10 @@
       <c r="I20" s="33"/>
       <c r="J20" s="11"/>
       <c r="K20" s="26"/>
-      <c r="L20" s="259"/>
+      <c r="L20" s="251"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="224" t="s">
+      <c r="A21" s="217" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="88"/>
@@ -11190,23 +11741,23 @@
       <c r="I21" s="33"/>
       <c r="J21" s="11"/>
       <c r="K21" s="26"/>
-      <c r="L21" s="259"/>
+      <c r="L21" s="251"/>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="368" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" s="369"/>
-      <c r="C22" s="369"/>
-      <c r="D22" s="369"/>
-      <c r="E22" s="370"/>
+      <c r="A22" s="359" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="360"/>
+      <c r="C22" s="360"/>
+      <c r="D22" s="360"/>
+      <c r="E22" s="361"/>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
       <c r="J22" s="11"/>
       <c r="K22" s="26"/>
-      <c r="L22" s="259"/>
+      <c r="L22" s="251"/>
     </row>
     <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K23" s="37"/>
@@ -11316,7 +11867,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-06-01</oddFooter>
+    <oddFooter>&amp;R2024-01-23</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -11328,7 +11879,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="A22" sqref="A22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -11351,7 +11902,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
@@ -11363,7 +11914,7 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
@@ -11378,7 +11929,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="254"/>
+      <c r="C4" s="246"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -11395,10 +11946,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="371"/>
-      <c r="D5" s="371"/>
-      <c r="E5" s="371"/>
-      <c r="F5" s="371"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="362"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -11412,10 +11963,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="371"/>
-      <c r="D6" s="371"/>
-      <c r="E6" s="371"/>
-      <c r="F6" s="371"/>
+      <c r="C6" s="362"/>
+      <c r="D6" s="362"/>
+      <c r="E6" s="362"/>
+      <c r="F6" s="362"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11423,10 +11974,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
       <c r="J7" s="28" t="s">
         <v>9</v>
       </c>
@@ -11438,30 +11989,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="372"/>
-      <c r="D8" s="372"/>
-      <c r="E8" s="372"/>
-      <c r="F8" s="372"/>
+      <c r="C8" s="363"/>
+      <c r="D8" s="363"/>
+      <c r="E8" s="363"/>
+      <c r="F8" s="363"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="371"/>
-      <c r="D9" s="371"/>
-      <c r="E9" s="371"/>
-      <c r="F9" s="371"/>
+      <c r="C9" s="362"/>
+      <c r="D9" s="362"/>
+      <c r="E9" s="362"/>
+      <c r="F9" s="362"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="371"/>
-      <c r="D10" s="371"/>
-      <c r="E10" s="371"/>
-      <c r="F10" s="371"/>
+      <c r="C10" s="362"/>
+      <c r="D10" s="362"/>
+      <c r="E10" s="362"/>
+      <c r="F10" s="362"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11485,7 +12036,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="224" t="s">
+      <c r="A15" s="217" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="88"/>
@@ -11498,13 +12049,13 @@
       <c r="I15" s="33"/>
       <c r="J15" s="11"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="259"/>
+      <c r="L15" s="251"/>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="221" t="s">
+      <c r="A16" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="222"/>
+      <c r="B16" s="216"/>
       <c r="C16" s="106"/>
       <c r="D16" s="101"/>
       <c r="E16" s="33"/>
@@ -11514,10 +12065,10 @@
       <c r="I16" s="33"/>
       <c r="J16" s="11"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="259"/>
+      <c r="L16" s="251"/>
     </row>
     <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="224" t="s">
+      <c r="A17" s="217" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="88"/>
@@ -11530,10 +12081,10 @@
       <c r="I17" s="33"/>
       <c r="J17" s="11"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="259"/>
+      <c r="L17" s="251"/>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="224" t="s">
+      <c r="A18" s="217" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="88"/>
@@ -11546,10 +12097,10 @@
       <c r="I18" s="33"/>
       <c r="J18" s="11"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="259"/>
+      <c r="L18" s="251"/>
     </row>
     <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="224" t="s">
+      <c r="A19" s="217" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="88"/>
@@ -11562,10 +12113,10 @@
       <c r="I19" s="33"/>
       <c r="J19" s="11"/>
       <c r="K19" s="26"/>
-      <c r="L19" s="259"/>
+      <c r="L19" s="251"/>
     </row>
     <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="224" t="s">
+      <c r="A20" s="217" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="88"/>
@@ -11578,10 +12129,10 @@
       <c r="I20" s="33"/>
       <c r="J20" s="11"/>
       <c r="K20" s="26"/>
-      <c r="L20" s="259"/>
+      <c r="L20" s="251"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="224" t="s">
+      <c r="A21" s="217" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="88"/>
@@ -11594,15 +12145,15 @@
       <c r="I21" s="33"/>
       <c r="J21" s="11"/>
       <c r="K21" s="26"/>
-      <c r="L21" s="259"/>
+      <c r="L21" s="251"/>
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="224" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="222"/>
-      <c r="C22" s="222"/>
-      <c r="D22" s="223"/>
+      <c r="A22" s="449" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="450"/>
+      <c r="C22" s="450"/>
+      <c r="D22" s="451"/>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
@@ -11610,18 +12161,18 @@
       <c r="I22" s="33"/>
       <c r="J22" s="11"/>
       <c r="K22" s="26"/>
-      <c r="L22" s="259"/>
+      <c r="L22" s="251"/>
     </row>
     <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="298" t="s">
-        <v>174</v>
+      <c r="A23" s="452" t="s">
+        <v>197</v>
       </c>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="298" t="s">
-        <v>175</v>
+      <c r="A24" s="452" t="s">
+        <v>198</v>
       </c>
       <c r="I24" s="38"/>
       <c r="J24" s="39"/>
@@ -11714,7 +12265,8 @@
       <c r="L33" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C6:F6"/>
@@ -11738,8 +12290,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -11747,12 +12299,12 @@
     <col min="1" max="1" width="5.73046875" style="113" customWidth="1"/>
     <col min="2" max="2" width="9.1328125" style="113"/>
     <col min="3" max="3" width="12.59765625" style="113" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.73046875" style="113" customWidth="1"/>
+    <col min="4" max="4" width="1.19921875" style="113" customWidth="1"/>
     <col min="5" max="6" width="7.265625" style="113" customWidth="1"/>
     <col min="7" max="7" width="9.265625" style="113" customWidth="1"/>
     <col min="8" max="8" width="7" style="113" customWidth="1"/>
     <col min="9" max="9" width="7.265625" style="113" customWidth="1"/>
-    <col min="10" max="10" width="4.73046875" style="113" customWidth="1"/>
+    <col min="10" max="10" width="6.265625" style="113" customWidth="1"/>
     <col min="11" max="11" width="10.265625" style="113" customWidth="1"/>
     <col min="12" max="12" width="10.73046875" style="113" customWidth="1"/>
     <col min="13" max="16384" width="9.1328125" style="113"/>
@@ -11760,14 +12312,14 @@
   <sheetData>
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="373" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="373"/>
-      <c r="C2" s="373"/>
-      <c r="D2" s="373"/>
-      <c r="E2" s="373"/>
-      <c r="F2" s="373"/>
+      <c r="A2" s="364" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="364"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
       <c r="H2" s="155"/>
       <c r="I2" s="156" t="s">
         <v>61</v>
@@ -11793,7 +12345,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="160"/>
-      <c r="C4" s="255"/>
+      <c r="C4" s="247"/>
       <c r="D4" s="161"/>
       <c r="E4" s="161"/>
       <c r="F4" s="161"/>
@@ -11810,10 +12362,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="136"/>
-      <c r="C5" s="365"/>
-      <c r="D5" s="365"/>
-      <c r="E5" s="365"/>
-      <c r="F5" s="365"/>
+      <c r="C5" s="356"/>
+      <c r="D5" s="356"/>
+      <c r="E5" s="356"/>
+      <c r="F5" s="356"/>
       <c r="H5" s="155"/>
       <c r="I5" s="156" t="s">
         <v>11</v>
@@ -11827,10 +12379,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="136"/>
-      <c r="C6" s="365"/>
-      <c r="D6" s="365"/>
-      <c r="E6" s="365"/>
-      <c r="F6" s="365"/>
+      <c r="C6" s="356"/>
+      <c r="D6" s="356"/>
+      <c r="E6" s="356"/>
+      <c r="F6" s="356"/>
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11838,10 +12390,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="136"/>
-      <c r="C7" s="257"/>
-      <c r="D7" s="257"/>
-      <c r="E7" s="257"/>
-      <c r="F7" s="257"/>
+      <c r="C7" s="249"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
       <c r="J7" s="163" t="s">
         <v>9</v>
       </c>
@@ -11853,30 +12405,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="160"/>
-      <c r="C8" s="374"/>
-      <c r="D8" s="374"/>
-      <c r="E8" s="374"/>
-      <c r="F8" s="374"/>
+      <c r="C8" s="365"/>
+      <c r="D8" s="365"/>
+      <c r="E8" s="365"/>
+      <c r="F8" s="365"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="136"/>
-      <c r="C9" s="365"/>
-      <c r="D9" s="365"/>
-      <c r="E9" s="365"/>
-      <c r="F9" s="365"/>
+      <c r="C9" s="356"/>
+      <c r="D9" s="356"/>
+      <c r="E9" s="356"/>
+      <c r="F9" s="356"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="136" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="136"/>
-      <c r="C10" s="365"/>
-      <c r="D10" s="365"/>
-      <c r="E10" s="365"/>
-      <c r="F10" s="365"/>
+      <c r="C10" s="356"/>
+      <c r="D10" s="356"/>
+      <c r="E10" s="356"/>
+      <c r="F10" s="356"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -11902,6 +12454,7 @@
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="169"/>
+      <c r="J14" s="141"/>
       <c r="L14" s="171"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -11911,12 +12464,24 @@
       <c r="B15" s="173"/>
       <c r="C15" s="172"/>
       <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
+      <c r="E15" s="255">
+        <v>0</v>
+      </c>
+      <c r="F15" s="255">
+        <v>0</v>
+      </c>
+      <c r="G15" s="255">
+        <v>0</v>
+      </c>
+      <c r="H15" s="255">
+        <v>0</v>
+      </c>
+      <c r="I15" s="255">
+        <v>0</v>
+      </c>
+      <c r="J15" s="255">
+        <v>0</v>
+      </c>
       <c r="K15" s="174"/>
       <c r="L15" s="175"/>
     </row>
@@ -11970,14 +12535,14 @@
       </c>
       <c r="C26" s="182"/>
       <c r="D26" s="183"/>
-      <c r="E26" s="260">
+      <c r="E26" s="252">
         <v>0</v>
       </c>
       <c r="F26" s="181" t="s">
         <v>43</v>
       </c>
       <c r="G26" s="183"/>
-      <c r="H26" s="261">
+      <c r="H26" s="253">
         <v>0</v>
       </c>
       <c r="I26" s="94" t="str">
@@ -11985,7 +12550,7 @@
         <v/>
       </c>
       <c r="J26" s="95"/>
-      <c r="K26" s="277" t="str">
+      <c r="K26" s="269" t="str">
         <f>IFERROR((10-I26),"")</f>
         <v/>
       </c>
@@ -12010,7 +12575,8 @@
       <c r="H29" s="182"/>
       <c r="I29" s="187"/>
       <c r="J29" s="97"/>
-      <c r="K29" s="263">
+      <c r="K29" s="435">
+        <f>SUM(E15:J15)</f>
         <v>0</v>
       </c>
     </row>
@@ -12078,7 +12644,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-06-01</oddFooter>
+    <oddFooter>&amp;R2024-01-23</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -12092,7 +12658,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -12100,13 +12666,13 @@
     <col min="1" max="1" width="5.73046875" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.1328125" style="5"/>
     <col min="3" max="3" width="12.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.73046875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="1.796875" style="5" customWidth="1"/>
     <col min="5" max="5" width="7.265625" style="5" customWidth="1"/>
     <col min="6" max="6" width="8.265625" style="5" customWidth="1"/>
     <col min="7" max="7" width="7.73046875" style="5" customWidth="1"/>
     <col min="8" max="8" width="7" style="5" customWidth="1"/>
     <col min="9" max="9" width="7.265625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="6" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.06640625" style="5" customWidth="1"/>
     <col min="11" max="11" width="10.265625" style="5" customWidth="1"/>
     <col min="12" max="12" width="8.86328125" style="5" customWidth="1"/>
     <col min="13" max="256" width="9.1328125" style="5"/>
@@ -12744,14 +13310,14 @@
   <sheetData>
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="375" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="375"/>
-      <c r="C2" s="375"/>
-      <c r="D2" s="375"/>
-      <c r="E2" s="375"/>
-      <c r="F2" s="375"/>
+      <c r="A2" s="366" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="366"/>
+      <c r="C2" s="366"/>
+      <c r="D2" s="366"/>
+      <c r="E2" s="366"/>
+      <c r="F2" s="366"/>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
         <v>61</v>
@@ -12777,7 +13343,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="254"/>
+      <c r="C4" s="246"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -12794,10 +13360,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="371"/>
-      <c r="D5" s="371"/>
-      <c r="E5" s="371"/>
-      <c r="F5" s="371"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="362"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -12811,10 +13377,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="371"/>
-      <c r="D6" s="371"/>
-      <c r="E6" s="371"/>
-      <c r="F6" s="371"/>
+      <c r="C6" s="362"/>
+      <c r="D6" s="362"/>
+      <c r="E6" s="362"/>
+      <c r="F6" s="362"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -12826,10 +13392,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="28" t="s">
@@ -12843,30 +13409,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="372"/>
-      <c r="D8" s="372"/>
-      <c r="E8" s="372"/>
-      <c r="F8" s="372"/>
+      <c r="C8" s="363"/>
+      <c r="D8" s="363"/>
+      <c r="E8" s="363"/>
+      <c r="F8" s="363"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="371"/>
-      <c r="D9" s="371"/>
-      <c r="E9" s="371"/>
-      <c r="F9" s="371"/>
+      <c r="C9" s="362"/>
+      <c r="D9" s="362"/>
+      <c r="E9" s="362"/>
+      <c r="F9" s="362"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="371"/>
-      <c r="D10" s="371"/>
-      <c r="E10" s="371"/>
-      <c r="F10" s="371"/>
+      <c r="C10" s="362"/>
+      <c r="D10" s="362"/>
+      <c r="E10" s="362"/>
+      <c r="F10" s="362"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -12886,32 +13452,32 @@
       <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="376"/>
-      <c r="B13" s="377"/>
-      <c r="C13" s="377"/>
-      <c r="D13" s="377"/>
-      <c r="E13" s="377"/>
-      <c r="F13" s="377"/>
-      <c r="G13" s="377"/>
-      <c r="H13" s="377"/>
-      <c r="I13" s="377"/>
-      <c r="J13" s="377"/>
-      <c r="K13" s="377"/>
-      <c r="L13" s="378"/>
+      <c r="A13" s="367"/>
+      <c r="B13" s="368"/>
+      <c r="C13" s="368"/>
+      <c r="D13" s="368"/>
+      <c r="E13" s="368"/>
+      <c r="F13" s="368"/>
+      <c r="G13" s="368"/>
+      <c r="H13" s="368"/>
+      <c r="I13" s="368"/>
+      <c r="J13" s="368"/>
+      <c r="K13" s="368"/>
+      <c r="L13" s="369"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="379"/>
-      <c r="B14" s="380"/>
-      <c r="C14" s="380"/>
-      <c r="D14" s="380"/>
-      <c r="E14" s="380"/>
-      <c r="F14" s="380"/>
-      <c r="G14" s="380"/>
-      <c r="H14" s="380"/>
-      <c r="I14" s="380"/>
-      <c r="J14" s="380"/>
-      <c r="K14" s="380"/>
-      <c r="L14" s="381"/>
+      <c r="A14" s="370"/>
+      <c r="B14" s="371"/>
+      <c r="C14" s="371"/>
+      <c r="D14" s="371"/>
+      <c r="E14" s="371"/>
+      <c r="F14" s="371"/>
+      <c r="G14" s="371"/>
+      <c r="H14" s="371"/>
+      <c r="I14" s="371"/>
+      <c r="J14" s="371"/>
+      <c r="K14" s="371"/>
+      <c r="L14" s="372"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
@@ -12920,12 +13486,24 @@
       <c r="B15" s="34"/>
       <c r="C15" s="32"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="E15" s="255">
+        <v>0</v>
+      </c>
+      <c r="F15" s="255">
+        <v>0</v>
+      </c>
+      <c r="G15" s="255">
+        <v>0</v>
+      </c>
+      <c r="H15" s="255">
+        <v>0</v>
+      </c>
+      <c r="I15" s="255">
+        <v>0</v>
+      </c>
+      <c r="J15" s="255">
+        <v>0</v>
+      </c>
       <c r="K15" s="107"/>
       <c r="L15" s="108"/>
     </row>
@@ -12950,7 +13528,7 @@
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
-      <c r="E18" s="262">
+      <c r="E18" s="254">
         <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"R",""))</f>
         <v>0</v>
       </c>
@@ -12974,7 +13552,7 @@
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="55"/>
-      <c r="E19" s="262">
+      <c r="E19" s="254">
         <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"D",""))+LEN(A$13)-LEN(SUBSTITUTE(A$13,"S",""))</f>
         <v>0</v>
       </c>
@@ -12994,11 +13572,11 @@
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="73" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="55"/>
-      <c r="E20" s="262">
+      <c r="E20" s="254">
         <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"M",""))</f>
         <v>0</v>
       </c>
@@ -13022,7 +13600,7 @@
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="55"/>
-      <c r="E21" s="262">
+      <c r="E21" s="254">
         <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"E",""))+LEN(A$13)-LEN(SUBSTITUTE(A$13,"L",""))</f>
         <v>0</v>
       </c>
@@ -13083,7 +13661,7 @@
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="105"/>
-      <c r="E26" s="260">
+      <c r="E26" s="252">
         <f xml:space="preserve">
 (LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"1","")))*1+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"2","")))*2+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"3","")))*3+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"4","")))*4+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"5","")))*5+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"6","")))*6+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"7","")))*7+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"8","")))*8+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"9","")))*9</f>
         <v>0</v>
@@ -13125,7 +13703,8 @@
       <c r="H29" s="25"/>
       <c r="I29" s="88"/>
       <c r="J29" s="89"/>
-      <c r="K29" s="263">
+      <c r="K29" s="435">
+        <f>SUM(E15:J15)</f>
         <v>0</v>
       </c>
     </row>
@@ -13190,7 +13769,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-06-01</oddFooter>
+    <oddFooter>&amp;R2024-01-23</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -13203,8 +13782,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -13212,13 +13791,13 @@
     <col min="1" max="1" width="5.73046875" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.1328125" style="5"/>
     <col min="3" max="3" width="12.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.73046875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="1.796875" style="5" customWidth="1"/>
     <col min="5" max="5" width="7.265625" style="5" customWidth="1"/>
     <col min="6" max="6" width="8.265625" style="5" customWidth="1"/>
     <col min="7" max="7" width="7.73046875" style="5" customWidth="1"/>
     <col min="8" max="8" width="7" style="5" customWidth="1"/>
     <col min="9" max="9" width="7.265625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="6" style="5" customWidth="1"/>
+    <col min="10" max="10" width="6.9296875" style="5" customWidth="1"/>
     <col min="11" max="11" width="10.265625" style="5" customWidth="1"/>
     <col min="12" max="12" width="8.86328125" style="5" customWidth="1"/>
     <col min="13" max="256" width="9.1328125" style="5"/>
@@ -13857,7 +14436,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
@@ -13884,7 +14463,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="254"/>
+      <c r="C4" s="246"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -13901,10 +14480,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="371"/>
-      <c r="D5" s="371"/>
-      <c r="E5" s="371"/>
-      <c r="F5" s="371"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="362"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -13918,10 +14497,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="371"/>
-      <c r="D6" s="371"/>
-      <c r="E6" s="371"/>
-      <c r="F6" s="371"/>
+      <c r="C6" s="362"/>
+      <c r="D6" s="362"/>
+      <c r="E6" s="362"/>
+      <c r="F6" s="362"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -13933,10 +14512,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="28" t="s">
@@ -13950,30 +14529,30 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="372"/>
-      <c r="D8" s="372"/>
-      <c r="E8" s="372"/>
-      <c r="F8" s="372"/>
+      <c r="C8" s="363"/>
+      <c r="D8" s="363"/>
+      <c r="E8" s="363"/>
+      <c r="F8" s="363"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="371"/>
-      <c r="D9" s="371"/>
-      <c r="E9" s="371"/>
-      <c r="F9" s="371"/>
+      <c r="C9" s="362"/>
+      <c r="D9" s="362"/>
+      <c r="E9" s="362"/>
+      <c r="F9" s="362"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="371"/>
-      <c r="D10" s="371"/>
-      <c r="E10" s="371"/>
-      <c r="F10" s="371"/>
+      <c r="C10" s="362"/>
+      <c r="D10" s="362"/>
+      <c r="E10" s="362"/>
+      <c r="F10" s="362"/>
     </row>
     <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -13993,32 +14572,32 @@
       <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="376"/>
-      <c r="B13" s="377"/>
-      <c r="C13" s="377"/>
-      <c r="D13" s="377"/>
-      <c r="E13" s="377"/>
-      <c r="F13" s="377"/>
-      <c r="G13" s="377"/>
-      <c r="H13" s="377"/>
-      <c r="I13" s="377"/>
-      <c r="J13" s="377"/>
-      <c r="K13" s="377"/>
-      <c r="L13" s="378"/>
+      <c r="A13" s="367"/>
+      <c r="B13" s="368"/>
+      <c r="C13" s="368"/>
+      <c r="D13" s="368"/>
+      <c r="E13" s="368"/>
+      <c r="F13" s="368"/>
+      <c r="G13" s="368"/>
+      <c r="H13" s="368"/>
+      <c r="I13" s="368"/>
+      <c r="J13" s="368"/>
+      <c r="K13" s="368"/>
+      <c r="L13" s="369"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="379"/>
-      <c r="B14" s="380"/>
-      <c r="C14" s="380"/>
-      <c r="D14" s="380"/>
-      <c r="E14" s="380"/>
-      <c r="F14" s="380"/>
-      <c r="G14" s="380"/>
-      <c r="H14" s="380"/>
-      <c r="I14" s="380"/>
-      <c r="J14" s="380"/>
-      <c r="K14" s="380"/>
-      <c r="L14" s="381"/>
+      <c r="A14" s="370"/>
+      <c r="B14" s="371"/>
+      <c r="C14" s="371"/>
+      <c r="D14" s="371"/>
+      <c r="E14" s="371"/>
+      <c r="F14" s="371"/>
+      <c r="G14" s="371"/>
+      <c r="H14" s="371"/>
+      <c r="I14" s="371"/>
+      <c r="J14" s="371"/>
+      <c r="K14" s="371"/>
+      <c r="L14" s="372"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
@@ -14027,12 +14606,24 @@
       <c r="B15" s="34"/>
       <c r="C15" s="32"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="E15" s="255">
+        <v>0</v>
+      </c>
+      <c r="F15" s="255">
+        <v>0</v>
+      </c>
+      <c r="G15" s="255">
+        <v>0</v>
+      </c>
+      <c r="H15" s="255">
+        <v>0</v>
+      </c>
+      <c r="I15" s="255">
+        <v>0</v>
+      </c>
+      <c r="J15" s="255">
+        <v>0</v>
+      </c>
       <c r="K15" s="107"/>
       <c r="L15" s="108"/>
     </row>
@@ -14057,7 +14648,7 @@
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
-      <c r="E18" s="262">
+      <c r="E18" s="254">
         <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"R",""))</f>
         <v>0</v>
       </c>
@@ -14081,7 +14672,7 @@
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="55"/>
-      <c r="E19" s="262">
+      <c r="E19" s="254">
         <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"D",""))+LEN(A$13)-LEN(SUBSTITUTE(A$13,"S",""))</f>
         <v>0</v>
       </c>
@@ -14101,11 +14692,11 @@
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="73" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="55"/>
-      <c r="E20" s="262">
+      <c r="E20" s="254">
         <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"M",""))</f>
         <v>0</v>
       </c>
@@ -14129,7 +14720,7 @@
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="55"/>
-      <c r="E21" s="262">
+      <c r="E21" s="254">
         <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"E",""))+LEN(A$13)-LEN(SUBSTITUTE(A$13,"L",""))</f>
         <v>0</v>
       </c>
@@ -14190,7 +14781,7 @@
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="105"/>
-      <c r="E26" s="260">
+      <c r="E26" s="252">
         <f xml:space="preserve">
 (LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"1","")))*1+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"2","")))*2+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"3","")))*3+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"4","")))*4+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"5","")))*5+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"6","")))*6+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"7","")))*7+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"8","")))*8+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"9","")))*9</f>
         <v>0</v>
@@ -14232,7 +14823,8 @@
       <c r="H29" s="25"/>
       <c r="I29" s="88"/>
       <c r="J29" s="89"/>
-      <c r="K29" s="263">
+      <c r="K29" s="435">
+        <f>SUM(E15:J15)</f>
         <v>0</v>
       </c>
     </row>
@@ -14296,7 +14888,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2019-06-01</oddFooter>
+    <oddFooter>&amp;R2023-01-23</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -14309,8 +14901,8 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -14322,7 +14914,7 @@
     <col min="5" max="6" width="7.265625" style="5" customWidth="1"/>
     <col min="7" max="7" width="12" style="5" customWidth="1"/>
     <col min="8" max="8" width="7" style="5" customWidth="1"/>
-    <col min="9" max="9" width="6.3984375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.46484375" style="5" customWidth="1"/>
     <col min="10" max="10" width="5.1328125" style="5" customWidth="1"/>
     <col min="11" max="11" width="7.265625" style="5" customWidth="1"/>
     <col min="12" max="12" width="10.59765625" style="5" customWidth="1"/>
@@ -14899,14 +15491,14 @@
   <sheetData>
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="375" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="375"/>
-      <c r="C2" s="375"/>
-      <c r="D2" s="375"/>
-      <c r="E2" s="375"/>
-      <c r="F2" s="375"/>
+      <c r="A2" s="366" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="366"/>
+      <c r="C2" s="366"/>
+      <c r="D2" s="366"/>
+      <c r="E2" s="366"/>
+      <c r="F2" s="366"/>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
         <v>61</v>
@@ -14932,7 +15524,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="254"/>
+      <c r="C4" s="246"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -14949,10 +15541,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="371"/>
-      <c r="D5" s="371"/>
-      <c r="E5" s="371"/>
-      <c r="F5" s="371"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="362"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>11</v>
@@ -14966,10 +15558,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="371"/>
-      <c r="D6" s="371"/>
-      <c r="E6" s="371"/>
-      <c r="F6" s="371"/>
+      <c r="C6" s="362"/>
+      <c r="D6" s="362"/>
+      <c r="E6" s="362"/>
+      <c r="F6" s="362"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -14981,10 +15573,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="28" t="s">
@@ -14998,126 +15590,147 @@
         <v>0</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="372"/>
-      <c r="D8" s="372"/>
-      <c r="E8" s="372"/>
-      <c r="F8" s="372"/>
+      <c r="C8" s="363"/>
+      <c r="D8" s="363"/>
+      <c r="E8" s="363"/>
+      <c r="F8" s="363"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="371"/>
-      <c r="D9" s="371"/>
-      <c r="E9" s="371"/>
-      <c r="F9" s="371"/>
+      <c r="C9" s="362"/>
+      <c r="D9" s="362"/>
+      <c r="E9" s="362"/>
+      <c r="F9" s="362"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="371"/>
-      <c r="D10" s="371"/>
-      <c r="E10" s="371"/>
-      <c r="F10" s="371"/>
-    </row>
-    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="362"/>
+      <c r="D10" s="362"/>
+      <c r="E10" s="362"/>
+      <c r="F10" s="362"/>
+    </row>
+    <row r="11" spans="1:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:12" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="51"/>
       <c r="I12" s="52"/>
-    </row>
-    <row r="13" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K13" s="10" t="s">
+      <c r="K12" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="382" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" s="384" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="385"/>
-      <c r="D14" s="385"/>
-      <c r="E14" s="385"/>
-      <c r="F14" s="385"/>
-      <c r="G14" s="385"/>
-      <c r="H14" s="385"/>
-      <c r="I14" s="386"/>
+    <row r="13" spans="1:12" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="417" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="418" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="419"/>
+      <c r="D13" s="419"/>
+      <c r="E13" s="419"/>
+      <c r="F13" s="419"/>
+      <c r="G13" s="419"/>
+      <c r="H13" s="419"/>
+      <c r="I13" s="420"/>
+      <c r="J13" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K13" s="421"/>
+      <c r="L13" s="422">
+        <f>K13*0.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="373" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="423" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="424"/>
+      <c r="D14" s="424"/>
+      <c r="E14" s="424"/>
+      <c r="F14" s="424"/>
+      <c r="G14" s="424"/>
+      <c r="H14" s="424"/>
+      <c r="I14" s="425"/>
       <c r="J14" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="K14" s="264"/>
+        <v>193</v>
+      </c>
+      <c r="K14" s="256"/>
       <c r="L14" s="149">
-        <f>K14*0.3</f>
+        <f>K14*0.25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="383"/>
-      <c r="B15" s="387" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="388"/>
-      <c r="D15" s="388"/>
-      <c r="E15" s="388"/>
-      <c r="F15" s="388"/>
-      <c r="G15" s="388"/>
-      <c r="H15" s="388"/>
-      <c r="I15" s="388"/>
+    <row r="15" spans="1:12" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="374"/>
+      <c r="B15" s="445" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="427"/>
+      <c r="D15" s="427"/>
+      <c r="E15" s="427"/>
+      <c r="F15" s="427"/>
+      <c r="G15" s="427"/>
+      <c r="H15" s="427"/>
+      <c r="I15" s="428"/>
       <c r="J15" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="K15" s="265"/>
-      <c r="L15" s="247">
-        <f>K15*0.25</f>
+        <v>194</v>
+      </c>
+      <c r="K15" s="257"/>
+      <c r="L15" s="239">
+        <f>K15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="389" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="391" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="392"/>
-      <c r="D16" s="392"/>
-      <c r="E16" s="392"/>
-      <c r="F16" s="392"/>
-      <c r="G16" s="392"/>
-      <c r="H16" s="392"/>
-      <c r="I16" s="392"/>
+      <c r="A16" s="375" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="446" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="447"/>
+      <c r="D16" s="447"/>
+      <c r="E16" s="447"/>
+      <c r="F16" s="447"/>
+      <c r="G16" s="447"/>
+      <c r="H16" s="447"/>
+      <c r="I16" s="448"/>
       <c r="J16" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="K16" s="266"/>
+        <v>195</v>
+      </c>
+      <c r="K16" s="258"/>
       <c r="L16" s="147">
-        <f>K16*0.35</f>
+        <f>K16*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="390"/>
-      <c r="B17" s="393" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="394"/>
-      <c r="D17" s="394"/>
-      <c r="E17" s="394"/>
-      <c r="F17" s="394"/>
-      <c r="G17" s="394"/>
-      <c r="H17" s="394"/>
-      <c r="I17" s="394"/>
+      <c r="A17" s="376"/>
+      <c r="B17" s="432" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="433"/>
+      <c r="D17" s="433"/>
+      <c r="E17" s="433"/>
+      <c r="F17" s="433"/>
+      <c r="G17" s="433"/>
+      <c r="H17" s="433"/>
+      <c r="I17" s="434"/>
       <c r="J17" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="K17" s="267"/>
+        <v>196</v>
+      </c>
+      <c r="K17" s="259"/>
       <c r="L17" s="145">
-        <f>K17*0.1</f>
+        <f>K17*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -15168,7 +15781,7 @@
       <c r="I20" s="56"/>
       <c r="J20" s="56"/>
       <c r="K20" s="56"/>
-      <c r="L20" s="274"/>
+      <c r="L20" s="266"/>
       <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -15179,7 +15792,7 @@
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
       <c r="L22" s="57">
-        <f>SUM(L14:L17)-L20</f>
+        <f>SUM(L13:L17)-L20</f>
         <v>0</v>
       </c>
     </row>
@@ -15221,7 +15834,7 @@
       <c r="L30" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
@@ -15234,24 +15847,26 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="B13:I13"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR INDIVIDUELL TÄVLAN</oddHeader>
-    <oddFooter>&amp;R2022-01-01</oddFooter>
+    <oddFooter>&amp;R2024-01-23</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15321,18 +15936,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15355,16 +15977,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 individuell klass_(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD20A4A-5283-4DA4-8DAB-0F92EC304B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCFBCC3-427A-44A8-9001-2279AA7DD70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="5430" windowWidth="19200" windowHeight="21000" tabRatio="966" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="5310" windowWidth="38640" windowHeight="21240" tabRatio="966" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="37" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <definedName name="domare" localSheetId="1">'Häst, individuell'!$C$29</definedName>
     <definedName name="domare" localSheetId="9">'Ind kür artistisk junior'!$C$26</definedName>
     <definedName name="domare" localSheetId="8">'Ind kür artistisk minior'!$C$26</definedName>
-    <definedName name="domare" localSheetId="10">'Ind kür artistisk senior'!$C$25</definedName>
+    <definedName name="domare" localSheetId="10">'Ind kür artistisk senior'!$C$26</definedName>
     <definedName name="domare" localSheetId="6">'Ind kür tekn junior'!$C$37</definedName>
     <definedName name="domare" localSheetId="5">'Ind kür tekn minior'!$C$37</definedName>
     <definedName name="domare" localSheetId="7">'Ind kür tekn senior'!$C$37</definedName>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="193">
   <si>
     <t>Nation:</t>
   </si>
@@ -500,6 +500,40 @@
     <t>E-övningar</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Variation av övningar</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">• Statiska och dynamiska övningar i proportion till varandra .
+• Ett urval av övningar och övergångar från olika strukturgrupper och grupperingar.
+</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Obs! Arbetsboken är skyddad med lösenordet 123 för att undvika att celler och formler ändras av misstag. </t>
   </si>
   <si>
@@ -522,6 +556,10 @@
 20%</t>
   </si>
   <si>
+    <t>C2
+15%</t>
+  </si>
+  <si>
     <t>S1</t>
   </si>
   <si>
@@ -596,6 +634,96 @@
   </si>
   <si>
     <t>Protokollen uppdaterades senast 2019-03-28.</t>
+  </si>
+  <si>
+    <t>C3
+35%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sammanhållning av sammansättning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+•  Urval av övningar och övergångar i harmoni med hästen.
+•  Mjuka övergångar och rörelser som visar samband och flyt.
+•  Delar, sekvenser, övergångar, positioner samt kombinationer av övningar visar på hög komplexitet.
+•  Kapacitet att binda samman rörelser och instabila positioner utan jämnvikt. Frihet i rörelser.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tolkning av musik</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+• Starkt engagemang till ett genomtänkt och utvecklat musikaliskt koncept.
+• Fängslande tolkning av musiken
+• Stor variation av uttryck som speglar olika typer av musik samt förändringar i musiken
+• Komplext kroppsspråk samt gester och rörelser i många olika riktningar.</t>
+    </r>
+  </si>
+  <si>
+    <t>C1
+30%</t>
+  </si>
+  <si>
+    <t>C2
+25%</t>
+  </si>
+  <si>
+    <t>C4
+10%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sammanhållning av sammansättning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+•  Urval av övningar och övergångar i harmoni med hästen.
+•  Mjuka övergångar och rörelser som visar samband och flyt.
+•  Kapacitet att binda samman rörelser och instabila positioner utan jämnvikt. Frihet i rörelser.</t>
+    </r>
   </si>
   <si>
     <t>C4
@@ -844,6 +972,43 @@
 15%</t>
   </si>
   <si>
+    <t>Sidhopp del 1, tryck av inåt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Variation av position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+• Variation av position av övningar dels relaterat till hästen men också riktningen av övningar.
+• Balans gällande användning av plats, användning av alla delar av hästens rygg, hals och kors inräknat insida och utsida av hästen.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
     <t>Hjulning</t>
   </si>
   <si>
@@ -856,6 +1021,12 @@
     <t>Individuell 2*</t>
   </si>
   <si>
+    <t>*Ändrad beskrivning, se FEI VAULTING GUIDELINE ver. 2023-01-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://inside.fei.org/node/3839/</t>
+  </si>
+  <si>
     <t>Sidhopp del 2*</t>
   </si>
   <si>
@@ -875,6 +1046,9 @@
   </si>
   <si>
     <t>Sving framlänges</t>
+  </si>
+  <si>
+    <t>Bakåtsving, öppna ben, inkl. avgång inåt</t>
   </si>
   <si>
     <r>
@@ -988,344 +1162,7 @@
     <t>Individuellt tekniskt test Young Vaulter</t>
   </si>
   <si>
-    <t>Sidhopp del 1, följt av avgång inåt</t>
-  </si>
-  <si>
-    <t>HÄNSYN TILL HÄSTEN</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Hänsyn till hästen</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">• Urval av element och sekvenser i harmoni med hästen, baserat på vikt, sammansättning och balans.
-• Övningar som inte överbelastar hästen.
-</t>
-    </r>
-  </si>
-  <si>
-    <t>CoH
-20%</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Variation av övningar</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">• Statiska och dynamiska övningar i proportion till varandra.
-• Ett urval av övningar och övergångar från olika strukturgrupper.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Variation av position</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Variation av position av övningar dels relaterat till hästen men också riktningen av övningar.
-• Balanserad användning av utrymme; användning av alla delar av hästens rygg, hals och kors inklusive insidan och utsidan av hästen.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sammanhållning av sammansättning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-•  Mjuka övergångar och rörelser som visar samband och flyt.
-•  Element, sekvenser, övergångar, positioner, riktningar och kombinationer av övningar som uppvisar frihet i rörelse.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tolkning av musiken/kroppsspråk/uttrycksfullhet.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Starkt engagemang till ett genomtänkt och utvecklat musikaliskt koncept.
-• Fängslande tolkning av musiken.
-• Stor variation av uttryck som speglar olika typer av musik samt förändringar i musiken
-• Komplexitet i kroppsspråk samt gester och rörelser i många olika riktningar.</t>
-    </r>
-  </si>
-  <si>
-    <t>C2
-10%</t>
-  </si>
-  <si>
-    <t>C3
-25%</t>
-  </si>
-  <si>
-    <t>C4
-25%</t>
-  </si>
-  <si>
-    <t>Bakåtsving, följt av avgång inåt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Variation av position</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Variation av position av övningar dels relaterat till hästen men också riktningen av övningar.
-• Balanserad användning av utrymme; användning av alla delar av hästens rygg, hals och kors, inklusive insidan av hästen.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Sammanhållning av sammansättning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-•  Mjuka övergångar och rörelser som visar samband och flyt.
-•  Element, sekvenser, övergångar, positioner, riktningar och kombinationer av övningar som uppvisar rörelsefrihet.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tolkning av musiken/kroppsspråk/uttrycksfullhet.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Starkt engagemang till ett genomtänkt och utvecklat musikaliskt koncept.
-• Fängslande tolkning av musiken.
-• Stor variation av uttryck som speglar olika typer av musik samt förändringar i musiken.
-• Komplexitet i kroppsspråk samt gester och rörelser i många olika riktningar.</t>
-    </r>
-  </si>
-  <si>
-    <t>C1
-25%</t>
-  </si>
-  <si>
-    <t>C2
-20%</t>
-  </si>
-  <si>
-    <t>C3
-20%</t>
-  </si>
-  <si>
-    <t>C4
-15%</t>
-  </si>
-  <si>
-    <t>*Beskrivning, se FEI VAULTING RULES ver. 2024-01-18</t>
-  </si>
-  <si>
-    <t>Swing off from seat astride to the outside</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Variation av position</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Variation av position av övningar dels relaterat till hästen men också riktningen av övningar.
-• Balanserad användning av utrymme, användning av alla delar av hästens rygg, hals och kors inklusive insidan och utsidan av hästen.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tolkning av musiken/kroppsspråk/uttrycksfullhet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Starkt engagemang till ett genomtänkt och utvecklat musikaliskt koncept.
-• Fängslande tolkning av musiken.
-• Stor variation av uttryck som speglar olika typer av musik samt förändringar i musiken.
-• Komplexitet i kroppsspråk samt gester och rörelser i många olika riktningar.</t>
-    </r>
-  </si>
-  <si>
-    <t>C1
-10%</t>
-  </si>
-  <si>
-    <t>C3
-30%</t>
+    <t>Red 123</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1182,7 @@
     <numFmt numFmtId="172" formatCode="0.0"/>
     <numFmt numFmtId="173" formatCode="0.000;\-0.000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1472,6 +1309,13 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <strike/>
       <sz val="8"/>
       <name val="Verdana"/>
@@ -2373,10 +2217,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="453">
+  <cellXfs count="435">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2679,7 +2523,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2749,7 +2593,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2856,9 +2700,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2892,9 +2745,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2904,12 +2757,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2919,13 +2784,16 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="15" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="15" fillId="2" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2942,10 +2810,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3066,34 +2934,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="172" fontId="5" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="33" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="34" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="33" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="34" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3117,6 +2985,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3135,31 +3004,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3212,19 +3081,19 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3376,12 +3245,39 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -3412,16 +3308,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="51" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3436,10 +3332,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -3501,118 +3397,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numF